--- a/entity_relation_extraction.xlsx
+++ b/entity_relation_extraction.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L244"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,41 +480,26 @@
           <t>文本关系8</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>文本关系9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>文本关系10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>文本关系11</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>明内容本发明为实现技术目的采用如下技术方案：一种基于微生物代谢的有机肥生产装置，包括：发酵壳，所述发酵壳上端内部的两侧固定安装有两个相对称的固定杆，固定杆远离发酵壳的一端活动安装有固定架，固定架的中部活动安装有尺柱，尺柱的下端贯穿并延伸至固定架的下方固定安装有吸附壳，吸附壳内部的下端活动安装有密封块，所述吸附壳的内部设置有净化球，所述尺柱的下端贯穿并延伸至吸附壳的下方滑动安装有通气盘，通气盘外表面的凹槽处活动连接有活动柱，活动柱的下端固定安装有活动盘，活动盘的下端铰接有铰接柱。进一步的，所述尺柱的下端贯穿并延伸至通气盘的下方与活动盘的上表面固定安装。进一步的，所述尺柱中部的侧面且位于吸附壳与通气盘之间设置有挡片，主要是为了将通气盘散发出来的气体给再次净化。</t>
+          <t>进一步，所述第一级套筒上设置有一弹性卡扣，所述第二级套筒上间隔设置有若干卡孔与所述弹性卡扣配合。进一步，所述复位弹簧的上端部连接所述凹形挂钩的内侧面，复位弹簧的下端连接所述卡槽支架的中部。进一步，所述凹形挂钩外端还转动设置有一挂环。</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{[70, 72],部件},{[47, 58],位置},空间关系</t>
+          <t>{[113, 114],部件},{[98, 105],位置},空间关系</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{[307, 308],部件},{[283, 303],位置},空间关系</t>
+          <t>{[16, 19],部件},{[4, 11],位置},空间关系</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{[224, 226],部件},{[213, 218],位置},空间关系</t>
+          <t>{[66, 69],部件},{[54, 61],位置},空间关系</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -522,51 +507,53 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>发明内容因此，本发明正是按照上述所需而做出的。本发明是通过以下技术方案实现上述目的：一种快速的二次数据加密的方法，主要包括：数据接口、固定秘钥、加密算法，验证；所述数据接口主要用于数据接收、传输以及发送；所述固定秘钥主要为数据传输过程中形成的秘钥，并附加一个密码；所述加密算法主要为数据传输过程中数据按照数据不同的属性通过算法生成隐形密码；所述验证主要用于进行数据的获取。在一个实施例中，所述加密算法公式能够进行修改。本发明有益效果如下：1、本发明解决的技术问题在于单一的加密方式的不安全性和多重加密方式的繁琐性，简单高效的实现加密功能，又不影响业务的效率。</t>
+          <t>其中，所述多个凹槽沿所述流体出口的周向连续排列。其中，所述流体进口设置在所述发热体的边缘区域，所述流体出口设置在所述发热体的中心区域。其中，所述加热装置还包括温度检测组件，所述温度检测组件设置在所述发热体上，并与所述流体出口的位置对应。</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{[27, 40],方法},{[218, 277],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>{[29, 32],部件},{[36, 45],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{[7, 8],部件},{[12, 22],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{[88, 93],部件},{[97, 102],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>明内容本发明的目的在于提供一种机械配件用清洗装置，以解决上述背景技术中提出的清洗剂不能清洗塑料配件和清洗工作单一不能同时进行其他工作减少工作流程的问题。为实现上述目的，本发明提供如下技术方案：一种机械配件用清洗装置，包括设备外壳、连接杆、第一电机、第二电机、可编程控制器、脉冲定时器、放置板和第二齿轮，所述设备外壳的正面连接有顶杆，且顶杆贯穿设备外壳的表面至设备外壳的内部，所述固定架固定连接在放置板的左右两侧，所述连接杆固定连接在设备外壳的内部，所述连接杆贯穿第一齿轮的内部连接在第一电机的正面，所述第一电机的表面左侧通过安装架固定连接在设备外壳内部，所述设备外壳的背面内部通过支撑杆连接有第二电机，所述设备外壳的内部固定安装有可编程控制器，所述第二电机的底端连接有连接块，所述放置板连接在设备外壳的正面，所述第二齿轮的背面连接有清洗仓，所述清洗仓的背面连接有安装座，所述脉冲定时器固定安装在设备外壳的内部中端，所述设备外壳的右侧开设有出口。优选的，所述第一齿轮的直径大于第二齿轮的直径，所述第一齿轮和第二齿轮啮合。</t>
+          <t>本发明的目的在于提供一种电流电压组合式数据采集装置，以解决现有电流电压组合式数据采集装置不能实现对电流电压信号的同步准确采集的问题。进一步的，所述信号调理单元还用于将电压传感器输出的模拟小电压信号进行滤波处理。进一步的，所述电压传感器为电容分压型电压传感器或电阻分压型电压传感器。</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{[426, 443],方法},{[445, 457],效果},方案优点</t>
+          <t>{[8, 24],方法},{[27, 64],效果},方案优点</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{[11, 23],方法},{[26, 74],效果},方案优点</t>
+          <t>{[118, 138],材料},{[112, 116],效果},材料优点</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{[315, 320],部件},{[301, 309],位置},空间关系</t>
+          <t>{[71, 78],方法},{[98, 103],效果},方案优点</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -574,29 +561,26 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种具有调整施肥深度和盖土功能的自动播肥设备，具备可调整播肥深度、自动盖土、播肥均匀、不卡料、等优点，解决了现有设备体积过大、不便使用、无法自动调整播肥深度、不能自动盖土的问题。（二）技术方案为实现上述可调整播肥深度、自动盖土、播肥均匀、不卡料等目的，本发明提供如下技术方案：一种具有调整施肥深度和盖土功能的自动播肥设备，包括机箱，机箱的内部通过限位块分别转动连接有第一螺杆和第二螺杆，第一螺杆的外侧套接有第一固定块，第一固定块的右侧固定连接有犁柱，犁柱的下端固定连接有犁铧，第二螺杆的外侧套接有第二固定块，第二固定块的右端固定连接有推杆，推杆的下端固定连接有推板，机箱的顶部固定连接有入料口，机箱的内部且位于入料口的下方设置有储料箱，储料箱的内部活动连接有转轴，转轴的外侧固定连接有翻转齿，储料箱的下端固定连接有下料管，下料管的内部设置有控制阀。优选的，所述机箱的外部安装有机轮和安装块，提高装置的移动性能且方便安装。</t>
+          <t>优选的，所述封密套内部安装有密封圈，且密封圈外部固定有凸出块，所述密封圈的一侧固定有支撑块。优选的，所述支撑块一端的两侧设置有卡块，所述封密套一侧进料口的底端固定有铰接块，且铰接块的两侧设置有卡槽。优选的，所述分装机构的内部依次设置有分流板、手柄、分流出口以及挡板，所述分流板的一侧设置有手柄，且手柄的一端延伸至分流板内部。优选的，：所述分流板的底端等间距的设置有分流出口，所述分流板内部手柄的外壁上设置有挡板，且挡板与分流出口相配合。</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{[417, 422],部件},{[409, 413],位置},空间关系</t>
+          <t>{[63, 64],部件},{[52, 59],位置},空间关系</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{[309, 310],部件},{[299, 303],位置},空间关系</t>
+          <t>{[117, 131],部件},{[103, 111],位置},空间关系</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{[29, 50],方法},{[52, 113],效果},方案优点</t>
+          <t>{[27, 29],部件},{[19, 23],位置},空间关系</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -604,29 +588,26 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>发明内容基于此，有必要针对上述问题，提供一种微型振动马达，安装空间小、反应灵敏，具有很好的散热性能。与相关技术相比，本发明的微型振动马达的有益效果：本发明的微型振动马达设置的PCB板和电极触点位置及安装，使马达安装时占用的空间更小更薄。通过设置的螺旋叶片，螺旋叶片的转动带起空气流动实现了振动马达和移动终端的良好的散热性能，实现了振动马达的散热功能。</t>
+          <t>优选的，所述弹簧的顶端与所述L形杆的底部相接触，所述弹簧与所述支撑杆滑动连接。优选的，所述第一压板与所述第二压板上均固定安装有垫板，所述垫板为橡胶阻燃材料。优选的，所述固定块上固定安装有轴承，所述螺杆固定套设在所述轴承的内圈上，所述螺杆远离所述支撑杆的一端固定安装有手把。</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{[123, 126],方法},{[154, 160],效果},方案优点</t>
+          <t>{[63, 64],部件},{[45, 56],位置},空间关系</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{[94, 100],方法},{[111, 116],效果},方案优点</t>
+          <t>{[93, 94],部件},{[84, 87],位置},空间关系</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{[78, 83],部件},{[87, 90],零件},部分关系</t>
+          <t>{[98, 102],部件},{[107, 111],位置},空间关系</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -634,29 +615,26 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种有机蔬菜的使用的农家肥的施肥灌溉装置，具备施肥的同时灌溉种植地、防止有机肥堵管的优点，解决了有机肥肥料堵管、施肥和灌溉分步进行的问题。（二）技术方案为实现上述施肥的同时灌溉种植地、防止有机肥堵管的目的，本发明提供如下技术方案：一种有机蔬菜的使用的农家肥的施肥灌溉装置，包括底座，所述底座顶部的两侧固定连接有支撑杆，两根所述支撑杆相对的一侧固定连接有支撑板，所述支撑板的顶部固定安装有电机，所述电机的顶部通过联轴器固定连接有转轴，所述转轴的顶部穿插有过滤盒，所述转轴的外部且位于过滤盒的下方固定安装有传动锥齿轮，所述传动锥齿轮的右侧通过齿轮啮合有从动轴，所述从动轴的右侧穿插有储料盒，所述转轴的外部且位于过滤盒的内部固定安装有三组刀片，所述过滤盒的顶部固定安装有进料筒，所述转轴的外部且位于过滤盒的内部固定安装有转动锥齿轮，所述转动锥齿轮的右侧通过齿轮啮合有连接杆，所述连接杆的右侧固定连接有风扇，所述过滤盒的底部且位于转轴的右侧固定连接有顶底阀，所述顶底阀的底部活动连接有出料筒，所述过滤盒外部的右侧固定连接有水箱，所述水箱的右侧通过水管活动连接有水泵，所述储</t>
+          <t>优选的，所述主体内部的两侧均安装有温度传感器，温度传感器关于主体的中心线对称分布。优选的，所述主体内部的底端安装有加热管，加热管呈蛇形。优选的，所述搅拌棒顶端的两侧均安装有第一伸缩弹簧，且第一伸缩弹簧的一侧均安装有与第一卡槽相互配合的第一卡块，第一卡块与第一卡槽之间构成卡合结构。</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{[185, 187],部件},{[173, 179],位置},空间关系</t>
+          <t>{[17, 21],部件},{[6, 12],位置},空间关系</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{[506, 507],部件},{[492, 502],位置},空间关系</t>
+          <t>{[86, 91],部件},{[72, 81],位置},空间关系</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{[53, 70],方法},{[75, 97],效果},方案优点</t>
+          <t>{[57, 66],部件},{[45, 53],位置},空间关系</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -664,143 +642,169 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种可控制盘刷升降的电动清扫车，具备清扫自动化，可控制盘刷的升降等优点，解决了传统清扫车无法控制盘刷升降，以及清扫高度的问题。（二）技术方案为实现上述清扫自动化，可控制盘刷的升降等目的，本发明提供如下技术方案：一种可控制盘刷升降的电动清扫车，包括清扫车整体，所述清扫车整体的左侧连接有车头，所述车头的内部设置有驾驶室，所述车头的底部活动安装有前轮，所述清扫车整体的右侧设置有车厢，所述车厢的内部设置有垃圾集装箱，所述垃圾集装箱的左侧活动连接有垃圾导入管一以及垃圾导入管二，所述垃圾导入管一以及垃圾导入管二的下方均活动连接有垃圾吸入口一以及垃圾吸入口二，所述垃圾吸入口一以及垃圾吸入口二的内部均设置有风机，所述垃圾吸入口一以及垃圾吸入口二的下方均活动连接有盘刷一以及盘刷二，所述盘刷一和盘刷二之间活动连接有链带，所述垃圾吸入口一以及垃圾吸入口二的上方活动连接有活动杆以及连接杆，所述活动杆的上方活动连接有主支架，所述连接杆的上方活动安装有连接头，所述主支架的内部活动安装有电动推杆。</t>
+          <t>优选的，所述防静电瓷轮本体还包括瓷轮，且瓷轮与瓷管固定连接。优选的，所述搬运机构包括把手，所述把手的两端均固定连接有转轴，且转轴与护套转动连接。优选的，所述护套的形状为半中空圆柱体，且所述护套的上表面设置有圆形孔洞，所述护套的内壁设置有圆形凹槽。</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{[27, 44],方法},{[66, 91],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>{[103, 106],部件},{[94, 99],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{[58, 59],部件},{[47, 51],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{[23, 24],部件},{[6, 12],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{[16, 17],部件},{[6, 12],零件},部分关系</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>优选的，所述主体架与固定装置之间连接有转动轴，所述底座的上面设置有工作台，固定装置通过转动之后起到固定螺纹管的作用。优选的，所述螺纹杆的右端连接有转动轴承，该转动轴承固定安装在定位板的上面，螺纹杆通过转动轴承转动，从而带动螺纹套移动。优选的，所述推动块的内部开设有槽，所述拉动杆的右端的固定块设置在该槽中，拉动杆拉动推动块移动。</t>
+          <t>基于以上现有技术的不足，本发明所解决的技术问题在于提供一种电梯梳齿板间隙及啮合深度检测装置，降低人工操作工作量，提高检测效率与检测结果的可靠性。为了解决上述技术问题，本发明通过以下技术方案来实现：本发明提供一种电梯梳齿板间隙及啮合深度检测装置，包括测量仪、数据处理系统、通讯装置；所述测量仪测出电梯梳齿板间隙及啮合深度的数据后将其反馈到数据处理系统中，所述数据处理系统通过读取所述测量仪反馈的检测结果与系统中预先设置的数据进行比对，生成检测结果；所述通讯装置将所述检测结果反馈到终端上，用于实时对电梯运行状态进行监测。优选的，所述测量仪包括水平放置于电梯的梯级上的旋转架、位于所述旋转架顶部的支撑台、设置在所述支撑台中的横向移动架、在所述横向移动架中转动的旋转轴，所述旋转轴上安装有激光测距仪。</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{[79, 82],部件},{[92, 93],位置},空间关系</t>
+          <t>{[103, 120],部件},{[124, 138],零件},部分关系</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{[37, 40],方法},{[49, 53],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>{[265, 267],部件},{[270, 345],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{[25, 44],方法},{[46, 70],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>优选的，所述固定架设有若干个，所述固定架均匀的排列在两个吸热板的外侧。优选的，所述密封门的前端右侧设有手把，所述密封门与连接板前后相对设置。优选的，所述连接框与散热板前后相对设置。</t>
+          <t>本发明提供的一种固话终端急来电响铃系统，包括显示模块，喇叭，以及相连接的振铃震荡信号产生模块和耦合电路；所述振铃震荡信号产生模块产生振铃震荡信号后经耦合电路降压；还包括：整流电路、MCU和系统主板；所述MCU包括通讯模块以及与通讯模块连接的解码模块和信号转换模块；所述解码模块用于解码ptsn信号得到来电号码信号；所述整流电路用于将经耦合电路降压后的振铃震荡信号进行整流得到振铃方波信号；所述信号转换模块用于将振铃方波信号转换为振铃数字信号；所述MCU将来电号码信号和振铃方波信号经通讯模块传输至系统主板；所述系统主板在预设时间阈值内接收到来电号码信号和振铃方波信号时向显示模块和喇叭发送驱动信号进行来电显示和响铃。</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{[17, 19],部件},{[32, 33],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>{[22, 50],部件},{[8, 18],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{[106, 130],部件},{[101, 103],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{[159, 162],材料},{[165, 192],效果},材料优点</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术的不足，本发明提供一种用于绿茶加工的烘干设备，具备烘干效率高且便于回收等优点，解决了绿茶在烘干过程中，普通绿茶烘干机使用电热丝烘干效率慢和绿茶不便于回收的问题。为实现上述烘干效率高且便于回收的目的，本发明提供如下技术方案：一种用于绿茶加工的烘干设备，包括：外壳组件，所述外壳组件包括壳体、收集装置、隔板和数量为两个的进料斗，所述收集装置滑动连接于壳体的内底壁，所述壳体内壁固定连接有位于收集装置上方的隔板，所述隔板的内部呈对称开设有与收集装置对应的导料口，两个所述进料斗与壳体连通；所述壳体上固定连接有延伸入壳体内部的混合机构，所述壳体的内顶壁固定连接有位于混合机构外侧的U型加热台，所述隔板上固定连接有与U型加热台贴合的顶位机构；所述混合机构包括固定连接于壳体上的电动机，所述电动机的输出端通过联轴器固定连接有贯穿入壳体内的混合叶；所述顶位机构包括固定连接于隔板上的伸缩气缸，所述伸缩气缸的输出端固定连接有吻合板。优选的，所述U型加热台的侧壁开设有凹槽，凹槽的内部由内至外依次固定连接有加热灯和防护网。优选的，所述收集装置包括呈对称布置于壳体内壁且位于导料口下方的导料板，所述导料板上和内部分别固定连接</t>
+          <t>本发明的目的在于提供一种铝箔精密分切机专用穿带牵引机构，具有结构稳定，自动牵引，方便上料的优点，解决了现有技术中的问题。为实现上述目的，本发明提供如下技术方案：一种铝箔精密分切机专用穿带牵引机构，包括第一转轴、安装壳体和第三转轴，所述第一转轴的两端分别与安装壳体连接，第一转轴的两端对称贯穿有小齿轮，小齿轮一侧第一转轴上通过隔套连接有弹簧，第一转轴两端的外部通过轴承连接有连接套，连接套的一端通过螺栓安装有连接块，连接块一端的上方安装有压板，连接块一端的下方安装有小链轮，第一转轴一端的安装架上通过轴承贯穿有第二转轴，第二转轴的一端贯穿连接有大齿轮，大齿轮与小齿轮啮合，第二转轴远离第一转轴的一端连接有联轴器，联轴器的一端连接有液压马达，联轴器的外部安装有联轴器套，第一转轴下端的安装壳体上安装有开关支架，所述第三转轴的两端通过轴承与安装壳体连接，第三转轴靠近安装壳体的两端对称贯穿有大链轮，第三转轴一侧的安装壳体上安装有小链轮，第三转轴的一端贯穿安装壳体，并连接有挡板，挡板的上方安装有减速电机，挡板的下端连接有销钉座，所述开关支架的一侧固定安装有限位开关，限位开关的上方安装有压板，限位开关的下方安装有调整板，调整板上安</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{[17, 31],方法},{[49, 88],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+          <t>{[89, 96],部件},{[100, 113],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{[436, 437],部件},{[439, 440],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{[436, 437],部件},{[452, 453],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{[8, 26],方法},{[30, 43],效果},方案优点</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>优选的，所述P1步骤的型砂材料包括硅砂20%-30%、锆砂25%-35%、石墨粉20%-30%、膨润土10%-20%、氧化镁5%-10%和氧化钙3%-5%。优选的，所述P4步骤的钢材包括碳4%-6%、硅2%-4%、锰1%-3%、铬2%-3%、镍1%-2%、硼0.2%-0.4%，余量为铁和不可避免的杂质。优选的，所述P4步骤的精炼剂、抗氧化剂耐磨剂和钢水比例为1:3-5:5-7:70-80。</t>
+          <t>优选的，所述传动机构包括传动杆，所述传动杆竖直设置于空腔内部且上下两端均通过第三滚动轴承转动设置于空腔的上下两侧壁，所述传动杆的上端延伸至两个所述L型支撑板之间并固定设有第二齿轮，所述第一齿轮和第二齿轮可啮合设置。优选的，所述灯泡卡槽内部设置有橡胶垫。优选的，所述传动杆底部固定连接有摇杆。</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{[12, 14],部件},{[17, 18],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>{[18, 20],部件},{[26, 29],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{[142, 143],部件},{[132, 136],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{[122, 124],部件},{[113, 118],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供具有直冷结构的电机，以解决上述背景技术中提出的问题，本发明结构合理，可以对电机内部进行快速冷却，避免电机长时间运转产生高温。为了实现上述目的，本发明是通过如下的技术方案来实现：具有直冷结构的电机，包括机座、电机后盖、机壳、散热壳、快速散热组件、电机前盖、转子以及轴承，所述机壳环形侧面下侧安装有机座，所述机壳后端面安装有电机后盖，所述机壳前端面安装有散热壳，所述散热壳内部设置有快速散热组件，所述散热壳前端面安装有电机前盖，所述电机前盖内环形侧面卡装有轴承，所述轴承内环形侧面安装有转子，所述快速散热组件包括出水管、卡箍、进水管、注油管、密封盖、挡板、进油管、储油管、储油支管以及内衬套，所述散热壳环形侧面右侧焊接有进水管，所述进水管下侧焊接有出水管，所述出水管环形侧面右侧卡装有卡箍，所述散热壳环形侧面上侧焊接有注油管，所述注油管环形侧面上侧啮合有密封盖，所述注油管下端面右侧连接有进油管，所述进油管下端面连接有储油管，所述储油管左右端面对称连接有储油支管，所述散热壳内环形侧面安装有内衬套，所述散热壳内部右侧焊接有挡板。进一步地，所述散热壳内部开设有冷却腔，所述冷却腔为圆</t>
+          <t>优选的，所述连接装置包括连接板，所述连接板的两侧均固定安装有卡块，所述卡块的外部与限位卡槽的内部卡接，所述连接板的正面卡斯开设有两个相互对称的滑槽，两个所述滑槽的内部均卡接有滑块。优选的，所述减速带本体的顶部设置有防滑纹络，所述减速带本体的两侧分别开设有两个高度不等的腰型槽，且两个腰型槽的内部分别活动套接有连接销套和连接销。优选的，所述连接销套的内部开设有定位孔，且定位孔的内径值等于连接销的外径值。</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{[501, 503],部件},{[491, 497],位置},空间关系</t>
+          <t>{[71, 72],部件},{[57, 60],位置},空间关系</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{[124, 156],部件},{[112, 120],零件},部分关系</t>
+          <t>{[179, 181],部件},{[169, 175],位置},空间关系</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{[22, 32],方法},{[35, 48],效果},方案优点</t>
+          <t>{[107, 110],部件},{[96, 103],位置},空间关系</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -808,29 +812,26 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明的实施例提供了一种建材胶粘剂存放装置，旨在防止存放于存放装置内的胶体凝结。本发明的实施例提供一种建材胶粘剂存放装置，包括箱体、盖板以及搅拌组件。本发明的实施例提供的技术方案带来的有益效果是：通过设置有吸热层和储热层，可以吸收加热灯管的热量或太阳热量，将热量储存于储热层内，储热层的热量释放至箱体的存放腔室内，可提高胶黏剂的热量，以防止胶黏剂冷却凝固，同时驱动电机驱动旋转轴旋转可带动搅拌组件对胶黏剂进行搅拌，进一步避免胶黏剂凝结。</t>
+          <t>所述的动力系统包括：油缸和液压泵站。所述的双体船包括：两个单船体和连接桥，其中：单船体通过连接桥平行连接。所述的单船体甲板上尾部设有开槽，其中：滑行轨道设置于开槽两侧。</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{[112, 118],方法},{[167, 174],效果},方案优点</t>
+          <t>{[72, 75],部件},{[79, 82],位置},空间关系</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{[195, 197],方法},{[177, 185],效果},方案优点</t>
+          <t>{[3, 6],部件},{[10, 16],零件},部分关系</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{[60, 68],部件},{[72, 73],零件},部分关系</t>
+          <t>{[21, 23],部件},{[27, 35],零件},部分关系</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -838,29 +839,26 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种用于无臭生物炭基肥的转盘造粒装置，具备可自动向肥料颗粒中喷水，且喷洒均匀的优点，解决了现有装置不能自动向肥料颗粒中喷水，且喷洒不均匀的问题。（二）技术方案为实现上述可自动向肥料颗粒中喷水，且喷洒均匀的目的，本发明提供如下技术方案：一种用于无臭生物炭基肥的转盘造粒装置，包括底板，所述底板上固定连接有支座，支座上固定连接有支架，支架上固定连接有支撑板，支撑板的上方设置有旋转轴，旋转轴的左部固定连接有转盘，旋转轴的左部且位于转盘的左侧固定连接有绕带柱，转盘的上方设置有水筒，水筒与从轴的左端固定连接，从轴的右端连接有轴套，轴套的下侧固定连接有轴座，轴座的下端固定连接在支撑板上，水筒的上方设置有筒盖，筒盖上铰接有套环，水筒的侧壁中设置有弹簧，水筒的外壁上固定连接有筒筋，水筒的外圈缠绕有挡带，水筒与绕带柱之间通过挡带相连接。优选的，所述旋转轴由电机驱动，可实现装置自动化运转。</t>
+          <t>为提高水下航行器的水下操纵能力及方便水下航行器的运输，本发明提供一种折叠式双面舵及具有该双面舵的水下航行器。具体技术方案如下：一种折叠式双面舵，其不同之处在于，所述双面舵包括相对设置的两个舵面及连接在两个所述舵面之间的基座，所述基座可安装在舵机上。上述技术方案中，所述双面舵还包括连接于两个所述舵面之间的端板。上述技术方案中，所述舵面与所述基座可相对旋转。</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{[398, 405],方法},{[410, 416],效果},方案优点</t>
+          <t>{[63, 70],部件},{[80, 110],零件},部分关系</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{[41, 46],方法},{[50, 66],效果},方案优点</t>
+          <t>{[32, 52],方法},{[1, 25],效果},方案优点</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{[180, 181],部件},{[172, 174],位置},空间关系</t>
+          <t>{[134, 136],部件},{[152, 153],零件},部分关系</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -868,81 +866,80 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种用于制造电机铁芯的输送装置，以解决上述背景技术中提出的问题，本发明结构合理，输送效率高，提高了输送电机铁芯数量。为了实现上述目的，本发明是通过如下的技术方案来实现：一种用于制造电机铁芯的输送装置，包括输送箱、高效输送机构、挡板以及控制器，</t>
+          <t>有鉴于此，本发明提供了一种具有吸收-反射-吸收特性的频率选择表面，作为天线的反射板能在降低天线RCS的同时保证天线的辐射性能。实现本发明的技术方案如下：一种具有吸收-反射-吸收特性的频率选择表面，包括介质基底和设置在介质基底上表面的若干个呈矩形周期排布的金属单元，所述金属单元包含四个相同的由金属条构成的带缺口的矩形金属环结构，所述缺口由一个顶点起至该顶点所在长边的3/4处，所述金属条总长度的1/2处焊接有贴片电阻，以其中一个矩形金属环内部的一点为旋转中心，依次旋转90°，180°和270°，确定四个互不交叉和互不重叠的矩形金属环的位置。进一步地，所述金属的材料为铜。进一步地，所述介质基底采用介电常数为3，损耗正切值为0.0013的RogersRO3003材料。进一步地，对于反射频带为C波段的频率选择表面，金属条宽度为0.5mm，矩形金属环的四个边的长度分别为：4.5mm，14.5mm，18mm和14.5mm；与旋转中心最邻近的矩形金属环的两条边距离旋转中心的距离分别为4mm和7mm，相邻两个金属单元之间的距离为2mm。</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{[75, 80],方法},{[66, 68],效果},方案优点</t>
+          <t>{[76, 96],部件},{[98, 114],零件},部分关系</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{[119, 122],部件},{[130, 135],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>{[411, 414],部件},{[416, 417],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{[28, 31],材料},{[15, 22],效果},材料优点</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>在上述的节水淋浴喷头中，所述控制机构包括固定于外壳内壁的收缩条，所述收缩条的底部固定有连杆，所述连杆贯穿反应箱的侧壁连接有塞块，所述塞块与两个滑块均相抵。在上述的节水淋浴喷头中，所述反应箱的内壁通过连接弹簧连接有撞杆，所述撞杆的贯穿反应箱的底部并固定有压差板。在上述的节水淋浴喷头中，所述蓄水孔内部设有压力阀，所述收缩条为记忆金属，所述反应箱内部填充有醋酸钠过饱和溶液。</t>
+          <t>当下方活动门打开时，报警器传感器发出信号，控制报警器发出警报声。皮带机控制传感器和报警器传感器为位移传感器，通过上方活动门和下方活动门的位移变化发出信号。皮带运输机漏斗的皮带机控制传感器和报警器传感器设置于传感器安装支柱上。</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{[144, 146],部件},{[151, 153],零件},部分关系</t>
+          <t>{[77, 99],部件},{[103, 110],位置},空间关系</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{[14, 17],部件},{[28, 30],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>{[32, 46],部件},{[48, 52],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{[1, 8],方法},{[10, 30],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明提供了一种卷纸机卷纸速率自动控制系统及方法，根据卷纸张力自动控制纸张生产线产出的纸张的卷纸速率，节省人力的同时保证了纸张卷轴的松紧质量。本发明提供一种卷纸机卷纸速率自动控制系统，包括控制器、传动装置、张力检测装置、调节装置。本发明提供的技术方案带来的有益效果是：装置简单有效，节省劳动力的同时保证了卷纸的松紧质量，有效减少卷纸过程中的故障问题。</t>
+          <t>本发明的目的在于提供一种基于深度学习的工业零件关键点检测方法，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种基于深度学习的工业零件关键点检测方法，具体包括以下步骤：S1：训练关键点检测深度神经网络：构建由三条子网络组成的关键点检测深度神经网络，每条子网络之间采用多尺寸特征图融合技术进行特征融合，S1.1：第一条子网络的输入是原分辨率的图像，经过通过九个卷积层，形成第一路特征输出图1；S1.2：第二条子网络的输入是第一条子网络第二层卷积层的输出，然后经过七个卷积层，形成第二路特征输出图2；S1.3：第三条子网络的输入是第一条子网络第六个卷积层的输出和第二条子网络第四个卷积层融合的结果，再经过三个卷积层得到第三路特征输出图3；S1.4：三条子网络将分别与每条子网络之间的多尺寸特征图融合技术进行特征图的融合；S1.5：最后输出三层特征输出图的融合结果；S1.6：构建热力图的回归损失函数进行匹配校准，S2：将待检测的图像输出到训练关键点检测深度神经网络，利用训练得到的关键点检测深度神经网络检测到关键点，再利用关键点对工业零件进行匹配校准。优选的，每条所述子网络包含若干个3*3，步长为1到</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{[87, 99],部件},{[103, 105],零件},部分关系</t>
+          <t>{[107, 112],部件},{[114, 135],零件},部分关系</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{[55, 58],方法},{[75, 78],效果},方案优点</t>
+          <t>{[12, 29],方法},{[32, 45],效果},方案优点</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{[17, 29],方法},{[169, 182],效果},方案优点</t>
+          <t>{[495, 497],部件},{[503, 511],零件},部分关系</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -950,51 +947,53 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>发明内容本发明为克服上述情况不足，提供全自动在线圆角机，包括底座，底座的上面中间安装传送装置，传送装置的两侧对称安装有四个切削装置，所述底座上安装有导轨，切削装置安装在导轨上且与之滑动配合；所述传送装置包括：安装架、传送带和滚轮，所述安装架固定安装在底座的上表面上，传送带安装在滚轮上，所述安装架的两端分别安装有用于驱动滚轮的第一电机；所述切削装置包括：底板、第一气缸、第二电机、切削刀头、固定板和连接架，所述连接架安装在底板的上面，第二电机竖直设置在连接架中间且电机的转轴朝上设置，所述固定板固定安装在第二电机的底面上，所述切削刀头安装在第二电机的转轴末端，所述第一气缸横向安装在底板的上面一侧，第一气缸的伸缩杆朝第二电机方向设置且与固定板连接。进一步的，所述传送带的上方设有倾斜设置的活动板，活动板前端安装有第一转动轴，活动板的后端安装有第二转动轴，所述第一转动轴上同轴安装有活动轮，活动轮与第一转动轴转动配合，所述第二转动轴连接在安装架上且与之转动配合，所述安装架上安装有限位板，限位板与活动板平行设置且在活动板上方，所述限位板倾斜向下的一端与活动板倾斜向下的一端之间连接有弹簧。"</t>
+          <t>为解决上述技术问题，本发明采用如下技术方案：一种缓降通道装置，其特征在于，包括导向通道和多个气囊，所述气囊置于所述导向通道内壁上，所述气囊内设有弹簧，所述气囊上设有进气管和出气管，所述进气管的前端和所述出气管的前端穿过所述导向通道并向外延伸。优选地，所述气囊外壁覆盖有耐磨层。优选地，所述进气管内设有单向阀，所述出气管上设有调节阀。</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{[30, 31],部件},{[19, 26],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+          <t>{[144, 146],部件},{[150, 152],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{[51, 52],部件},{[57, 62],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{[127, 130],部件},{[134, 136],零件},部分关系</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中“喷淋管的喷淋方向固定，喷淋范围有限，当托板上菌包放置较多时，无法对托板上菌包进行全方面喷洒，补水效果有待提高”的缺陷，从而提出一种食用菌种植放置架。为了实现上述目的，本发明采用了如下技术方案：一种食用菌种植放置架，包括底座，所述底座上侧对称固定连接有侧板，所述侧板上固定连接有安装座，所述安装座上固定连接有水箱，所述水箱内固定安装有水泵，所述水泵的输水端固定连接有输水主管，所述输水主管延伸至侧板内，所述侧板一侧设有多组喷淋机构，两个所述侧板之间等间距转动连接有多个承载板，每个所述承载板内均设有多个托板，每个所述托板上均固定连接有把手，所述底座上设有驱动机构。优选的，所述驱动机构包括驱动电机，所述驱动电机固定安装在底座上侧，所述驱动电机的输出端固定连接有转轴，所述转轴的上端转动连接在安装座的底侧，每个所述承载板均固定穿插在转轴上。优选的，所述喷淋机构包括分流管，所述分流管固定连接在侧板上，所述分流管上设有控制阀门，所述分流管与输水主管相连通，所述分流管的一端固定连接有喷头。"</t>
+          <t>优选的，所述滑槽和滑座的大小适配。优选的，所述限位块大于L形夹板的短端贯穿的半径。优选的，所述L形夹板的长端均套装有橡胶套。</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{[401, 403],部件},{[395, 398],零件},部分关系</t>
+          <t>{[23, 25],部件},{[28, 34],位置},空间关系</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{[82, 93],方法},{[13, 78],效果},方案优点</t>
+          <t>{[58, 60],部件},{[45, 53],位置},空间关系</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{[146, 147],部件},{[135, 138],位置},空间关系</t>
+          <t>{[6, 7],部件},{[9, 10],位置},空间关系</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1002,185 +1001,188 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>发明内容本发明提出一种采用价带谱进行X射线光电子能谱校正的方法，以提高X射线光电子能谱校正的准确性。本发明的技术方案是通过以下步骤实现的：一种采用价带谱进行X射线光电子能谱校正的方法，其特征在于，包括以下步骤：(1)采用X射线光电子能谱仪对材料进行特征X射线光电子能谱及价带谱的扫描，得到高分辨的谱图；(2)从步骤(1)检测的谱图上识别出材料中各元素特征峰的位置，并以切线相交方式从步骤(1)检测的价带谱得到材料的测试带隙数值；(3)查阅文献及书籍，得到材料的标准带隙数值；(4)将所述的标准带隙数值减去所述的测试带隙值得到的差值进行移动，得到材料真实的特征X射线光电子能谱。所述的步骤(1)中扫描的步长为0.05eV。本发明的有益效果是：采用价带谱进行X射线光电子能谱校正，发展了X射线光电子能谱校正的方法，得到了材料真实的特征X射线光电子能谱。此方法为X射线光电子能谱校正提供了一种新的途径，且结果准确、实施简便。</t>
+          <t>本发明引线框的进一步改进在于，所述引线框还包括排切割线，所述排切割线位于所述引脚上。本发明引线框的进一步改进在于，所述引线框单元在行方向的尺寸不超过塑封模具中塑封所述引线框单元的容置子腔在行方向的预设值。本发明引线框的进一步改进在于，每列的各个所述引线框单元在行方向的尺寸相等。</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{[303, 306],数值},{[307, 308],属性},参数关系</t>
+          <t>{[130, 135],数值},{[124, 128],属性},参数关系</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{[26, 30],方法},{[43, 48],效果},方案优点</t>
+          <t>{[98, 100],数值},{[59, 70],属性},参数关系</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{[84, 90],方法},{[142, 149],效果},方案优点</t>
+          <t>{[30, 33],部件},{[38, 39],位置},空间关系</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>{[375, 376],方法},{[399, 402],效果},方案优点</t>
+          <t>{[23, 26],部件},{[17, 19],零件},部分关系</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>步骤四：铣削完成后退刀。所述旋转的铣刀的参数X、Y、r满足如下公式：式中，r0为上一次铣刀结束的半径，为上一次铣刀结束的弧度，为角度增量，原始孔半径，r1为扩口后的半径，N为径向分层数，当位于原孔中心为起点时，r＝r0，r0即为原始孔半径。所述铣刀的旋转线速度Vc为80m/min，每齿进给量0.02mm，每层切厚1mm，为角度增量为1度。</t>
+          <t>优选的，所述感光鼓外壁的一侧设置有连接板，所述连接板的底部固定连接有刮板，所述刮板的底部呈弧形，且所述刮板与感光鼓的外壁相接触。优选的，所述连接板的顶部转动穿插连接有圆杆，所述圆杆的两端与机壳的两侧内壁固定连接。优选的，所述刮板的下方设置有承载箱，所述承载箱的正面和背面均设置有弹簧钢片，所述弹簧钢片的两侧分别与机壳的两侧内壁固定连接，所述承载箱的正面和背面均固定连接有卡块。</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{[37, 38],数值},{[48, 49],属性},参数关系</t>
+          <t>{[17, 19],部件},{[4, 13],位置},空间关系</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{[146, 149],数值},{[150, 151],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>{[120, 122],部件},{[110, 116],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{[83, 84],部件},{[68, 75],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是提供应用于茶叶加工的茶叶分拣装置，能够解决传统的茶叶分拣方式，在分拣的流程中，需要进行多次的筛选才能将茶叶分拣完全，其茶叶分拣效率并不高的问题。为了解决上述技术问题，本发明的技术方案如下：应用于茶叶加工的茶叶分拣装置，包括壳体和进料斗，所述进料斗固定连接于壳体上，所述壳体的内侧壁依次固定连接有导料板和隔板，所述导料板和隔板的内壁之间分别固定连接有第一过滤网和第二过滤网，所述壳体的内壁固定连接有数量为两个且输出端分别与第一过滤网和第二过滤网接触的振动电机，所述壳体的外侧呈对称布置有位于导料板与隔板之间的吸料机构，所述隔板的内部呈对称开设有与吸料机构相对应的出料口，所述壳体的内壁活动连接有位于隔板下方的接料机构；所述接料机构包括滑动连接于壳体内壁上且分别位于第二过滤网和出料口下方的主料箱和副料箱。优选的，所述吸料机构包括固定连接于壳体侧壁上的风机和活动连接于导料板与隔板之间的第三过滤网，所述风机的输出端固定连接有贯穿入壳体内的吸风管。</t>
+          <t>此外，该供液管路利用供液泵从该药液储槽汲取药液至该处理槽的蓄液区，该抽吸管路利用抽吸泵让药液通过电路板的通孔，且将药液抽吸至该药液储槽。再者，该处理槽内部相对该定位框具有定位座。藉此，该定位框与电路板被定位于该处理槽内部后，该供液管路则开始供给药液至该处理槽的蓄液区，当药液达到工作液位时，该抽吸管路经由抽吸罩进行抽吸，所抽吸的药液送至该药液储槽，再由该供液管路供给药液至该处理槽的蓄液区循环使用，药液因该抽吸管路的抽吸而持续性流经电路板通孔进行化学处理或电化学处理。</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{[131, 133],部件},{[139, 141],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+          <t>{[85, 87],部件},{[72, 76],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{[93, 99],部件},{[105, 109],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{[35, 37],部件},{[48, 53],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于克服现有技术方案的不足，提供一种增强浮体波浪能的方法，旨在当波浪高度明显低于波浪能发电装浮筒的设计额定波浪高度时，提高现有波浪能发电装置效率。为了达到上述目的，本发明所采用的技术方案是：一种增强浮体波浪能的方法，所述波浪能增强方法包括浮力增强方法或/和重力增强方法。</t>
+          <t>优选的，所述螺纹旋钮的内侧表面开设有内螺纹，所述旋转轴的外表面开设有与内螺纹相匹配的外螺纹。优选的，所述防护罩的外表面开设有矩形滑槽，所述第一固定片的外表面固定连接有与矩形滑槽相匹配的滑凸。优选的，所述防护罩的内部开设有穿孔，所述防护罩通过穿孔啮合套接有丝杆，所述第一固定片的外表面位于丝杆的一侧固定连接有固定块，所述丝杆的一端固定连接有拨块，且所述拨块与固定块活动套接。</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{[120, 126],部件},{[129, 134],零件},部分关系</t>
+          <t>{[6, 9],部件},{[18, 20],零件},部分关系</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{[28, 37],方法},{[69, 81],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>{[52, 54],部件},{[62, 65],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{[101, 103],部件},{[110, 111],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于，针对现有技术的上述不足，提出一种打磨高效的金属制品打磨装置。本发明的一种可滑动的金属制品打磨装置，包括放置工件的操作台和用以操作台上的工件打磨的第一打磨装置和第二打磨装置，所述第一打磨装置和第二打磨装置分别可沿操作台长度延伸方向滑动的设置在所述操作台两侧侧，且所述第二打磨装置沿垂直操作台长度延伸方向滑动，以滑动靠近或远离所述第一打磨装置。</t>
+          <t>作为本发明的一种优选技术方案，所述底盖与顶盖形状为方形盒，所述底盖与顶盖内部均为中空，所述底盖顶端及顶盖底端均不封口。作为本发明的一种优选技术方案，所述底盖与顶盖尺寸大小相同，所述顶盖背面底端通过活叶与底盖背面顶端活动连接。作为本发明的一种优选技术方案，所述外壳与内壳形状均为方形盒，所述外壳与内壳内部均为中空，所述外壳与内壳顶端均为不封口，所述内壳外侧高度尺寸大小小于外壳内侧高度尺寸大小。</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{[53, 60],部件},{[92, 97],零件},部分关系</t>
+          <t>{[183, 194],数值},{[173, 180],属性},参数关系</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{[101, 113],部件},{[135, 140],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>{[101, 110],部件},{[90, 95],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{[3, 13],方法},{[55, 57],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种高抗干扰拖令电缆。为了实现上述目的，本发明采用了如下技术方案：一种高抗干扰拖令电缆，包括外护套和内护套，所述外护套的内表面粘贴有橡胶层，所述橡胶层的外表面设置有金属涂块，所述橡胶层的内部两侧对称嵌设有钢索，所述内护套的外表面包裹有外金属屏蔽层，且外金属屏蔽层的外表面包裹有绝缘层，所述内护套的内部嵌设有纤芯，所述纤芯的内表面设置有内金属屏蔽层，且内金属屏蔽层的内表面设置有垫块，所述垫块的下表面通过粘贴的减震球与压块弹性连接，且压块的内侧设置有导体，所述内护套的内部中心处嵌设有中心加强芯。所述作为上述技术方案的进一步描述：所述钢索共设置有两组，且每组钢索共设置有三个，并且每组钢索之间均通过钢丝条相互铰接。作为上述技术方案的进一步描述：所述橡胶层为三段式结构，其中端为矩形结构，两端为半圆平滑结构。作为上述技术方案的进一步描述：所述外金属屏蔽层和内金属屏蔽层均由金属丝组成，且金属丝共设置有三层，并且每层金属丝均为双绞式结构。作为上述技术方案的进一步描述：所述纤芯共设置有四个，且四个纤芯之间呈环形且等角度结构分布。作为上述技术方案的进一步描述：所述垫块共设</t>
+          <t>进一步的，上述的蓝牙耳机带有话筒，可采集声音并通过电路板上的蓝牙模块发送给其他设备。进一步的，上述的蓝牙耳机从正面视图来看，所述的外壳的头部到外壳的中部宽度逐渐缩小，外壳的中部到外壳的尾部宽度一致，外壳的整体结构成U形。进一步的，上述的电池也可以被安装在外壳的头部内，同时电池的输出导线和同样安装在外壳的头部内的电路板相连。</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{[76, 82],部件},{[65, 72],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>{[115, 119],部件},{[127, 132],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>{[8, 15],方法},{[17, 40],效果},方案优点</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>明内容针对上述情况，为克服现有技术的缺陷，本发明提供一种高效钠升级液相色谱柱的分压填充方法，有效的解决了钠升级色谱柱柱价格昂贵，色谱柱的填充效率较低的问题。为实现上述目的，本发明包括如下步骤：a)准备聚酰亚胺石英毛细管一根；b)采用拉针仪将聚酰亚胺石英毛细管一端拉细至5um，拉出的聚酰亚胺石英毛细管的针尖平滑；c)色谱柱填充，1、利用甲醇混合色谱柱填料(以C18填料为例)，2、连接填充装置，将拉制好的聚酰亚胺石英毛细管色谱柱固定在填充装置上，3、分压填充设置：观察聚酰亚胺石英毛细管针尖悬浊液外溢状态，确保针尖正常无破损，填充开始时，设定压力值4MPa，填充在聚酰亚胺石英毛细管全柱长的1/3时，设定压力值4.2MPa，填充在全柱长的2/3时，设定压力值4.5MPa，直至填充完毕，填充完毕后，关掉氮气阀，待填充装置自动泄压后取下聚酰亚胺石英毛线管色谱柱；d)聚酰亚胺石英毛细管色谱柱针尖处理，利用乙腈浸泡聚酰亚胺石英毛细管色谱柱针尖30分钟，取出浸泡好的聚酰亚胺石英毛细管色谱柱的针尖，用无尘纸擦洗干净；e)色谱柱组装，将聚酰亚胺石英毛细管色谱柱与四通阀完成组装；f)填充液置换，利用钠升级液相色谱，将填充色谱柱的甲醇</t>
+          <t>现为了克服上述技术存在的缺陷，本发明提出了一种罐体自动装载设备。本发明所要解决的技术问题采用以下技术方案来实现：一种罐体自动装载设备，包括底板以及焊接在底板上左端的弯折杆，所述弯折杆上通过轴承安装有存储圆筒，所述存储圆筒的左部圆弧面上均布有卡槽。每个卡槽的中部连通有两个侧槽，每个侧槽内均滑动安装有滑块，每个滑块与对应的侧槽内壁之间均设有与二者均通过挂钩相连的一号弹簧，每个滑块在靠近对应的卡槽一侧均设有一号倾斜面，每个卡槽的径向外侧设有两个二号倾斜面。</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{[28, 44],方法},{[49, 76],效果},方案优点</t>
+          <t>{[58, 65],部件},{[67, 84],零件},部分关系</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{[329, 334],数值},{[312, 323],属性},参数关系</t>
+          <t>{[123, 126],部件},{[128, 129],位置},空间关系</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{[134, 136],数值},{[131, 132],属性},参数关系</t>
+          <t>{[23, 30],方法},{[3, 13],效果},方案优点</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1188,51 +1190,49 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>对本方案的进一步补充说明，所述加热装置包括加热部、与加热部连接的温控传感器、与加热部连接的温控装置。对本方案的进一步补充说明，所述加热部加热方式为紫外线。对本方案的进一步补充说明，所述化学胶为PUR热熔胶水。</t>
+          <t>为实现以上目的，本发明通过以下技术方案予以实现：一种纱窗清洗装置，包括框体、旋转辊、传送条、安装套筒、皮带轮、皮带、滑槽、传送带、连接板、橡胶棒、清洁毛细管、吸水孔、喷嘴、安装座、伸缩杆。其中：所述框体的内部转动连接有旋转辊，所述旋转辊之间的传动连接有传送条，所述传送条的内部转动连接有安装套筒，所述安装套筒靠近传送条内部的一端固定安装有皮带轮，所述皮带轮之间传动连接有皮带，所述皮带轮的内侧开设有滑槽，所述框体内滑槽的内部转动连接有传送带，所述框体内传送带的右侧固定安装有连接板，所述安装套筒远离传送条内部的一侧固定连接有橡胶棒，所述橡胶棒的外围固定安装有清洁毛细管，所述框体的内部开设有吸水孔，所述框体靠近传送条一侧的内壁上固定安装有喷嘴，所述框体的后端固定安装有安装座，所述安装座的底部转动连接有伸缩杆。</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{[15, 18],部件},{[21, 23],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>{[175, 177],部件},{[178, 179],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>{[24, 31],部件},{[35, 92],零件},部分关系</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明解决了传统设备抛光效果差、缺乏稳定性、除尘效果差的问题。（二）有益效果与现有技术相比，本发明提供了一种加工陶瓷的除尘抛光自动加工装置，具备以下有益效果：1、该加工陶瓷的除尘抛光自动加工装置起到了抛光效果好的效果。2、该加工陶瓷的除尘抛光自动加工装置起到了稳定性好的效果。3、该加工陶瓷的除尘抛光自动加工装置起到了除尘效果好的效果。</t>
+          <t>作为本发明的一种优选技术方案，所述滑块通过滑槽与故障指示器本体的外表面滑动连接，且滑块与转动杆焊接固定。作为本发明的一种优选技术方案，所述转动杆通过第一转轴与故障指示器本体的内部转动连接，且转动杆通过第一弹簧与故障指示器本体构成弹性结构。作为本发明的一种优选技术方案，所述扣环的左端设置有与齿轮相啮合的齿牙，所述齿牙的数量为若干组。</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{[170, 179],方法},{[183, 187],效果},方案优点</t>
+          <t>{[17, 22],部件},{[24, 34],位置},空间关系</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{[141, 150],方法},{[154, 157],效果},方案优点</t>
+          <t>{[162, 164],数值},{[156, 160],属性},参数关系</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{[83, 92],方法},{[124, 128],效果},方案优点</t>
+          <t>{[69, 71],部件},{[79, 88],位置},空间关系</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1240,29 +1240,26 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于：为了解决传统的漏电保护开关一般是通过螺丝直接固定安装在安装区域上，进行拆卸时，还需要找来工具拧下螺丝才能拆下漏电保护开关，拆装较为麻烦的问题，而提出的一种便于安装的漏电保护开关。为了实现上述目的，本发明采用了如下技术方案：一种便于安装的漏电保护开关，包括漏电保护开关外壳，所述漏电保护开关外壳的上下外壁上固定安装有安装板，所述漏电保护开关外壳的壳腔内通过滑片滑动安装有安装柱，所述安装柱的一端固定安装有安装卡板，所述安装柱由伸缩柱与定型柱组成，所述伸缩柱一端通过弹簧b滑动安装在定型柱的内部，所述漏电保护开关外壳的顶面内壁上固定安装有弹簧a，所述漏电保护开关外壳的背面外壁上开设有行程槽。作为上述技术方案的进一步描述：所述安装板上开设有安装孔，且安装孔内螺纹安装有安装螺丝。</t>
+          <t>优选的，所述吸盘的形状为前端面比后端面小的圆台，吸盘为橡胶材质的真空吸盘。优选的，所述旋钮的形状为圆柱形，旋钮的外表面设置有条形防滑纹路。优选的，所述第一连接块的上侧形状为半圆，第一连接块下侧形状为长方体，第二连接块是由两组形状与第一连接块相反的物体组成。</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{[345, 348],部件},{[336, 339],位置},空间关系</t>
+          <t>{[110, 124],部件},{[103, 107],零件},部分关系</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{[90, 100],方法},{[15, 82],效果},方案优点</t>
+          <t>{[62, 67],部件},{[53, 58],位置},空间关系</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{[170, 172],部件},{[149, 164],位置},空间关系</t>
+          <t>{[27, 30],材料},{[32, 35],效果},材料优点</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1270,51 +1267,49 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是提供一种兰花香型茶叶制备装置，能够解决目前茶叶制备的过程中，发酵过程往往是通过铺设一层潮湿的布，然后将人工将盛放茶叶的器皿加热来进行发酵，该种方法不仅无法良好的控制发酵热量，还会导致潮湿的布因加热而不再潮湿从而使茶叶因湿度不够而无法良好的发酵，最终使茶叶的整体品质下降的问题。为了解决上述技术问题，本发明的技术方案如下：一种兰花香型茶叶制备装置，包括发酵箱，所述发酵箱内腔前后侧壁之间固定连接有托板，所述托板的顶部开设有通风孔，托板的顶部活动安装有圆簸箕，发酵箱的前后侧壁均固定安装有循环风扇，发酵箱的左侧连通有加湿管，加湿管的左侧连通有加湿器，加湿器的入水端连通有位于加湿器上方且右侧与发酵箱固定连接的混合水箱，混合水箱的内腔顶壁固定安装有小型马达，小型马达的输出轴处固定安装有搅拌片，混合水箱的顶部连通有漏斗，混合水箱的顶部活动连接有量杯，混合水箱的内腔底壁固定安装有加热丝，发酵箱的顶部固定安装有输出端与加热丝电连接的温控器，发酵箱的内腔顶壁固定安装有与温控器的输入端电连接的感温棒。</t>
+          <t>根据本发明的一个具体但非限制性的实施方案，所述分布器的Y型沟槽由两个分岔的半圆形沟槽，下接一圆管构成。根据本发明的一个具体但非限制性的实施方案，所述分级滑道由有机玻璃制成。根据本发明的一个具体但非限制性的实施方案，在离所述分级滑道较近的地方设置宽度较小、用于接收直径较小锆球的接料容器。</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{[221, 223],部件},{[213, 217],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>{[32, 41],部件},{[23, 30],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{[138, 141],部件},{[111, 119],位置},空间关系</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供电机铁芯的齿结构，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，限位效果好，实用性强。为了实现上述目的，本发明是通过如下的技术方案来实现：电机铁芯的齿结构，包括齿牙、电机铁芯主体、连接孔以及便于限位组件，所述电机铁芯主体环形侧面设置有齿牙，所述电机铁芯主体上端面开设有连接孔，所述电机铁芯主体内部设置有便于限位组件，所述便于限位组件包括限位柱、导向槽、强力双面胶、连接座、锁定块、固定螺栓、导向块以及卡紧弹簧，所述连接孔内部右侧安装有限位柱，所述电机铁芯主体上端面开设有导向槽，所述限位柱右端面下侧固定有导向块，所述限位柱右端面安装有卡紧弹簧，所述卡紧弹簧右端面连接有锁定块，所述电机铁芯主体内部右侧安装有连接座，所述连接座右端面粘接有强力双面胶，所述导向块右端面连接有固定螺栓。进一步地，所述限位柱右端面开设有圆孔，且圆孔内部设置有内螺纹，所述固定螺栓贯穿导向块与限位柱通过螺纹相连接。进一步地，所述锁定块右端面开设有连接槽，所述连接座左端面开设有连接槽，所述锁定块与连接座通过连接槽相连接。</t>
+          <t>本发明的目的是为了克服已有技术的缺陷，为了解决传统的镜面面形设计方法存在效率低、占用硬件资源大的问题，提出了一种新的光学镜面面形计算方法。本发明提供的光学镜面面形计算方法，包括以下步骤：S1、建立光学镜组的三维模型；S2、通过有限元分析软件对三维模型进行网格划分及位移约束；S3、对光学镜组中每个镜面进行多种载荷工况条件下的有限元仿真计算，获得每一种载荷工况条件下镜面的面形节点坐标和面形节点位移值，并输出为多个独立的符合面形计算要求的仿真结果文件；S4、对多个仿真结果文件中镜面的面形进行拟合计算，获得多个面形结果；S5、对多个面形结果进行整理，输出一个结果文件。本发明能够取得以下技术效果：在不修改及影响原有软件的情况下，可以完成一个三维模型的多个载荷工况的计算，输出每个载荷步的面形节点位移值，并自动调用面形拟合软件完成多个载荷步面形的计算，再调用结果整理软件对面形结果整理输出为一个文件，从而实现镜面设计工作的自动化，提高单次设计仿真计算及结果后续处理的工作效率，减少设计人员在低效工作中的精力及时间消耗，减少工作中由重复复杂操作造成的失误。</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{[22, 31],方法},{[34, 47],效果},方案优点</t>
+          <t>{[0, 2],方法},{[7, 67],效果},方案优点</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{[442, 444],部件},{[431, 438],位置},空间关系</t>
+          <t>{[69, 84],方法},{[297, 396],效果},方案优点</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{[388, 389],部件},{[377, 384],位置},空间关系</t>
+          <t>{[283, 285],方法},{[400, 473],效果},方案优点</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1322,29 +1317,26 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机械配件清洗用污水收集装置，以解决上述背景技术中提出现有的污水收集装置的滤网利用效率低和杂质不能较好的排出的问题。为实现上述目的，本发明提供如下技术方案：一种机械配件清洗用污水收集装置，包括装置主体、进水口、电机和开关。与现有技术相比，本发明的有益效果是：1、解决了现有的滤网的利用效率较低的问题，提高了滤网的利用率。2、解决了现有的污水收集装置的杂质不能排出完全的问题，避免杂质堆积产生异味，提高了装置的实用性。</t>
+          <t>优选的，所述底部主盖板、顶部主盖板是由部/底部盖板E型瓦楞纸与侧板C型瓦楞纸瓦楞纸及面纸、中纸、里纸组成的多层盖板。优选的，所述底部左侧支撑板、底部右侧支撑板、顶部左侧支撑板、顶部右侧支撑板是由部/底部盖板E型瓦楞纸与侧板C型瓦楞纸瓦楞纸及面纸、中纸、里纸组成的多层盖板。优选的，所述侧板是由侧板B型瓦楞纸与侧板C型瓦楞纸瓦楞纸及面纸、中纸、里纸组成的多层盖板。</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{[95, 107],部件},{[111, 114],零件},部分关系</t>
+          <t>{[97, 127],部件},{[64, 94],零件},部分关系</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{[16, 28],方法},{[190, 200],效果},方案优点</t>
+          <t>{[19, 49],部件},{[6, 16],零件},部分关系</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{[16, 28],方法},{[168, 173],效果},方案优点</t>
+          <t>{[146, 172],部件},{[142, 143],零件},部分关系</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1352,167 +1344,161 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明的实施例提供了一种建材板生产压板装置，旨在代替传统的人工操控方式，保障了建材板生产品质的一致性。本发明的实施例提供一种建材板生产压板装置，包括安装座、压制组件以及压合组件。由于压制板端部与安装座顶部相抵接，使得待压合工件压合程度保持一致，将待压合工件压制于安装座上，再利用压合组件驱动压合板压合于压制板的端部，以使得待压合工件的中部和端部均能被充分压合，可提高待压合工件的压合程度，可代替传统的人工操控方式，保障了建材板生产品质的一致性。</t>
+          <t>本发明的目的在于提供一种可驱虫的方便开关的双窗，以解决上述背景技术中提出的问题。作为本发明进一步的方案：所述窗框靠近另一个窗框侧壁固定连接有橡胶垫。作为本发明进一步的方案：所述L形限位板的水平面和垂直面分别设有通孔，转轴一和转轴二的一端贯穿通孔并且与L形限位板水平面上通孔转动连接，主轴一和主轴二的一端贯穿L形限位板垂直面上通孔并且与通孔转动连接。</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{[71, 79],部件},{[87, 90],零件},部分关系</t>
+          <t>{[70, 72],部件},{[52, 64],位置},空间关系</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{[148, 156],部件},{[160, 165],位置},空间关系</t>
+          <t>{[88, 100],部件},{[105, 106],零件},部分关系</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{[100, 113],方法},{[122, 129],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>{[133, 136],部件},{[140, 143],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[0, 2],方法},{[8, 22],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术的不足，本发明提供一种用于绿茶加工的杀青机，具备保温效果好且资源利用率高等优点，解决了传统的绿茶杀青机在保持桶体的温度时，其内部的热气容易溢散到外界，就需要持续开启加热设备进行保温，容易造成资源浪费的问题。为实现上述保温效果好且资源利用率高的目的，本发明提供如下技术方案：一种用于绿茶加工的杀青机，包括壳体，所述壳体的两侧均呈对称连通有通气管，两个所述通气管的另一端均固定连接有除湿室，两个所述除湿室的另一侧均固定连接有导通管，两个所述导通管的另一端均与吹风室固定连接，所述吹风室的一侧与套于壳体外部的均热罩连通，另一侧固定连接有吹风机构；所述吹风机构包括固定连接于吹风室上的防护盒，防护盒的外侧固定连接有传动机构，传动机构的输出端固定连接有贯穿入防护盒内部且与吹风室朝向相同的吹风叶片。优选的，所述除湿室内壁呈对称布置有卡位台，同侧两个所述卡位台之间依次卡接有过滤网和除湿罩，所述除湿室的表面开设有开口，所述除湿室表面固定连接有与开口相吻合的闭合机构。</t>
+          <t>本发明提供了一种石灰石智能化料场上料方法，通过控制系统控制抓斗自动堆取料，可提高石灰石堆料高度，实时监控料场石灰石储量，实现无人化操作。为了达到上述目的，本发明采用以下技术方案实现：一种石灰石智能化料场上料方法，包括：1)封闭式料场划分为多个汽车卸料区、多个堆取料区和多个受料斗区；其中每个汽车卸料区、每个堆取料区均划分为若干个长度×宽度＝a×b的网格；每个汽车卸料区、堆取料区内均设有料位监测装置一；每个受料斗区内设有多个受料斗，每个受料斗上均设有料位监测装置二；2)封闭式料场设控制系统，分别与料位监测装置一和料位监测装置二相连，各部分料位通过控制系统的操作界面实时显示，并自动统计出封闭式料场当前的石灰石总储量；3)封闭式料场的上部设多个自动行车，自动行车上设有抓斗、走行控制器及抓斗控制器，走行控制器及抓斗控制器与控制系统相连，通过走行控制系统控制自动行车的移动、停车及自动定位；通过抓斗控制器控制抓斗的升降、开闭和料位探测；4)堆料时：自动行车上的抓斗从汽车卸料区抓取石灰石，每次抓料后都向堆取料区内料位最低的网格内堆料，直到堆取料区内所有网格内的料位均达到设定的上限料位；5)封闭式料场的控制系统与石灰窑上料系统</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{[21, 30],方法},{[32, 111],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>{[91, 104],部件},{[109, 511],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{[21, 35],方法},{[38, 66],效果},方案优点</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>发明内容本发明具备以下有益效果：1、该无臭生物炭基有机肥加工用双重破碎装置，可以将进入箱体内的肥料给有效的进行双重破碎，减小了体积较大的肥料发酵缓慢。2、该无臭生物炭基有机肥加工用双重破碎装置，可以改变固定板的角度，保证了送料板将肥料打到磨料块上时，磨料块能以最大的接触面积来粉碎肥料。3、该无臭生物炭基有机肥加工用双重破碎装置，可以方便了送料板因使用长时间变形后，方便更换的目的。4、该无臭生物炭基有机肥加工用双重破碎装置，可以保证了肥料在进入箱体时，有效的为肥料补充水分，避免肥料太过干涸，不容易被砸碎的情况。</t>
+          <t>本发明的目的是提供一种抽屉防跌落装置，通过在滑轨左端设有挡板，滑轮在滑轨内滑动，挡板对滑轮进行限位，防止滑轮滑出滑轨导致抽屉掉落，转动支撑杆对抽屉进行支撑和转动传输，解决了抽屉抽出费力并且容易从开关柜中跌落的问题。本发明提供一种抽屉防跌落装置，包括开关柜和抽屉，开关柜两侧对称设有滑轨，抽屉两侧后端设有滑轮，滑轮在滑轨内滑动，滑轨左端设有挡板，滑轨左端上侧设有缺口，缺口长度和滑轮外径相同；开关柜底端底端等距设有转动支撑杆，转动支撑杆贴合抽屉下侧设置，转动支撑杆设有不止一个。进一步改进在于：最左侧三个转动支撑杆两端通过连接架串联，中间的转动支撑杆两端穿过连接架中间与开关柜两侧连接，两侧的转动支撑杆分别连接在连接架内左右两端，三个转动支撑杆通过连接架形成杠杆结构。进一步改进在于：抽屉上设有把手，把手上设有绝缘防滑层。</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{[158, 163],方法},{[183, 186],效果},方案优点</t>
+          <t>{[114, 120],部件},{[124, 129],零件},部分关系</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{[206, 211],方法},{[247, 252],效果},方案优点</t>
+          <t>{[19, 81],方法},{[83, 105],效果},方案优点</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{[90, 95],方法},{[130, 136],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>{[31, 36],方法},{[60, 73],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[346, 347],部件},{[354, 358],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>发明内容本发明是为了克服现有技术的不足，提供一种集热效率高、发射比低、保温效果好的太阳能真空集热管。本发明为了解决上述技术问题而提出的技术解决方案是这样的：一种太阳能真空集热管，包括：玻璃外管、菲涅尔透镜、上转换发光材料膜层、真空层、上下方标记、防辐射涂层、玻璃内管、翅片、选择性吸收膜层、弹簧支架、吸气剂，其特征在于：所述玻璃外管的内侧镀有上转换发光材料膜层；所述玻璃外管与玻璃内管之间置有菲涅尔透镜；所述玻璃外管与玻璃内管之间为真空层；所述玻璃内管上部的外侧镀有选择性吸收膜层；所述玻璃内管下部的外侧镀有防辐射涂层；所述玻璃内管的内侧加工有翅片。进一步的，所述玻璃外管与玻璃内管底部之间设置有弹簧支架，弹簧支架上设有吸气剂。进一步的，所述玻璃内管外侧的上部镀有选择性吸收膜层，下部镀有防辐射涂层，上下部之间的分界线为玻璃管圆心的150°夹角。进一步的，所述玻璃外管和玻璃内管为高硼硅玻璃管。进一步的，所述玻璃外管、玻璃内管、菲涅尔透镜均为同轴设置。进一步的，所述玻璃外管外侧上部或者下部设有上下方标记。进一步的，所述菲涅尔透镜的数量为3个或更多。</t>
+          <t>发明内容发明目的:由于青蒿素产业产值过剩，供大于求，导致青蒿素原材料价格下降，为了一改青蒿素产业颓势，本发明从青蒿素下脚料中提取叶绿素可大提高青蒿素产业价值。余液趁热倒出，待其冷却后得到固体蜡状物及水。将水倒出，80度水浴恒温加热蜡状物使其融化，加入工业酒精，利用强极性溶剂乙醇使绿素溶解在其中。</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{[174, 179],部件},{[162, 168],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+          <t>{[54, 66],方法},{[67, 77],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>{[79, 90],方法},{[91, 99],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{[123, 138],方法},{[140, 146],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>发明内容本发明提供一种具有提高显示装置壳体内部应用空间的笔记型电脑，利用改变控制电路板摆放位置与角度，使屏幕可挪动位置，腾出更多空间给予其他元件使用。本发明提出一种具有提高显示装置壳体内部应用空间的笔记型电脑，包括一显示装置及一主机装置，所述显示装置包括：一壳体、一液晶显示模组、一控制电路板及一连接单元；控制电路板电性连接并设置于所述主机装置的一端，连接单元系电性连接液晶显示模组及控制电路板。接下来便结合图式和具体实施例对本发明作进一步说明，以使本领域的技术人员可以更轻易理解本发明并加以实施运用。</t>
+          <t>作为本发明的一种优选技术方案，所述安装顶板的下方位于两组支撑板之间固定连接有固定板，所述胶液箱的数量为若干组，若干组胶液箱的后部与固定板固定连接。作为本发明的一种优选技术方案，所述分流管的数量为若干组，且分流管的材质为橡胶软管材料。作为本发明的一种优选技术方案，所述胶液箱的前端外表面设置有观测窗，所述观测窗的形状为正方形，所述点胶头上设置有刻度线。</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{[99, 103],部件},{[108, 111],零件},部分关系</t>
+          <t>{[145, 147],部件},{[133, 141],位置},空间关系</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{[121, 124],部件},{[129, 130],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+          <t>{[51, 53],数值},{[44, 49],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{[97, 99],数值},{[90, 95],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{[38, 40],部件},{[17, 32],位置},空间关系</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机械配件用万能打磨抛光装置，以解决上述背景技术中提出的传统的打磨抛光装置往往只能通过防护装置对碎屑和烟尘进行简单的收集，但仍会有大量的烟尘碎屑散布到空气中的问题。为实现上述目的，本发明提供如下技术方案：一种机械配件用万能打磨抛光装置，包括底座、打磨抛光装置、滑轨和水泵，所述底座的顶端左侧设置有收集腔，所述收集腔的中部焊接有打磨抛光装置，所述打磨抛光装置的前后两端中部皆焊接有收集盘，所述收集盘的底端与第二导流管的上端固定连接，所述底座的内部左侧中端设置有过滤篮，所述底座的内部底端设置有水箱，所述水箱的右部与水泵固定连接，所述底座的顶端右侧通过螺栓固定安装有滑轨，且滑轨的上端通过螺丝固定安装有限位环，所述限位环的内部套设有转动球，且转动球的内部套设有操作杆，所述操作杆的左端通过转轴固定安装有夹头，且夹头的内部设置有弹簧，所述操作杆的右侧设置有滑动环，且滑动环通过牵引钢丝绳与夹头固定连接。优选的，所述收集腔的内部左侧设置有排水口，且排水口的底端焊接有第一导流管，且第一导流管的底端与过滤篮的设置位置对应。</t>
+          <t>优选地，步骤(1)中，所述的预处理是指对有机膦废水进行泥沙沉淀，调节pH值至7～10。优选地，步骤(2)中，金属盐溶液为Fe(NO3)3溶液。优选地，步骤(3)中，在太阳光或人工光源下促使金属-有机膦配合物分解成PO43-，选用TiO2为光催化剂。</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{[430, 432],部件},{[419, 426],位置},空间关系</t>
+          <t>{[60, 69],部件},{[54, 58],零件},部分关系</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{[16, 28],方法},{[31, 95],效果},方案优点</t>
+          <t>{[38, 41],数值},{[20, 24],属性},参数关系</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{[135, 149],部件},{[119, 131],零件},部分关系</t>
+          <t>{[106, 110],部件},{[94, 102],零件},部分关系</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1520,29 +1506,26 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>优选的，所述电磁罐的内侧固定连接有磁感线，电磁罐的左右两侧均固定连接有电磁板。优选的，所述气压吸尘装置的顶端固定连接有吸气管，吸气管的底端活动连接有扭矩弹簧，气压吸尘装置的左右两侧均固定连接有曲形气囊，扭矩弹簧的底端活动连接有挤压杆。优选的，所述气压吸尘装置的外侧固定连接有通水管，气压吸尘装置的底端固定连接有连水管。</t>
+          <t>本发明的目的就在于为了解决上述问题而提供一种制备可溶海藻膳食纤维的生产工艺。优选的，所述的步骤四为将海藻渣输送至于脱色罐内，加入脱色剂开始脱色，时间1h-12h，根据物料颜色变化确实脱色时间。优选的，所述的步骤五为将上一工序物料用真空过滤设备分离出固体和液体，液体物料进入下一工序。</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{[141, 146],部件},{[155, 157],零件},部分关系</t>
+          <t>{[74, 79],数值},{[72, 73],属性},参数关系</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{[6, 8],部件},{[10, 11],位置},空间关系</t>
+          <t>{[110, 113],部件},{[124, 128],零件},部分关系</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{[45, 50],部件},{[59, 61],零件},部分关系</t>
+          <t>{[0, 2],方法},{[18, 36],效果},方案优点</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1550,73 +1533,80 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种可用于调节气氛的智能娱乐吊灯，具备不需要额外电力驱动即可实现灯光变幻效果，在照明同时可自动喷洒调节气氛用物料，在工作时可提供照明效果，不工作时可节省空间的优点，解决了现有吊灯功能单一，不能够满足人们对调节气氛要求的问题。（二）技术方案为实现上述不需要额外电力驱动即可实现灯光变幻效果，在照明同时可自动喷洒调节气氛用物料，在工作时可提供照明效果，不工作时可节省空间的目的，本发明提供如下技术方案：一种可用于调节气氛的智能娱乐吊灯，包括电动转轴，所述电动转轴的外壁活动安装有转轮，转轮通过连接杆固定安装有反应装置；</t>
+          <t>发明内容本发明的目的在于提供一种多效修润护发精华液的制备方法，合理地解决了现有技术的修复滋润护发精华液配方配伍偏枯、中药的有效成分和生物活性灭失、不利头发和头皮对药物的吸收利用和疗效差的问题。本发明采用水、丁二醇、丙二醇、黄原胶、芦芭油、乙醇、6％浓度的红参(PANAXGINSENG)水提取物、护色修复蛋白、1:1质量比的甘油水解酵母蛋白混合物、1:1质量比的甘油和5％浓度的亚麻籽(LINUMUSITATISSIMUM)乙醇提取液混合物、5.5％浓度的卤虫(ARTEMIA)乙醇提取物、水溶咖啡因、水解玉米淀粉燕麦四糖和基质组方，实现配伍温和、药效全面、提取方法科学合理、最大限度地保留中药和多种蛋白的有效成分和生物活性，45℃以下低温调制，药物和多种蛋白有效成分损失少、活性高。组方理念为加强发质和毛囊的营养、改善毛囊皮肤的分化、突出护发防脱的功效。</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{[248, 251],部件},{[239, 244],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+          <t>{[99, 265],方法},{[347, 376],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>{[99, 265],方法},{[269, 340],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{[16, 29],方法},{[37, 94],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种高效散热的商场大型LED灯具，具备结构简单、散热面大、安装方便等优点，解决了LED灯消耗大、散热局限以及通风效果差的问题。（二）技术方案为实现上述结构简单、散热面大、安装方便目的，本发明提供如下技术方案：一种高效散热的商场大型LED灯具，包括外壳，所述外壳内部的顶部固定连接有总电源，总电源的顶部固定连接有贯穿外壳顶部的安装杆，总电源的底部设有一号固定块，一号固定块的底部固定连接有支撑轴，支撑轴的外侧固定套接有散热片，支撑轴的底部固定连接有二号固定块，二号固定块的底部固定连接有金属块，金属块的底部固定连接有贯穿外壳的发光灯组，外壳的底部固定连接有灯罩，外壳的左侧固定连接有冷却箱，冷却箱的内部设有电动机，冷却箱与电动机的左右两侧均设有支撑杆，电动机的顶部活动连接有转轴，转轴的顶部活动连接有风扇，外壳的右侧固定连接有出风管。优选的,所述冷却箱的左侧与出风管的右侧均设有过滤网，用于壳内防尘。优选的，所述外壳的左右两侧均开设有与冷却箱与出风管相对应的风口，便于通风。优选的，所述灯罩的内壁设有反光镜，提高LED灯具的照明效果。优选的，所述总电源的底部固定连接</t>
+          <t>(一)技术方案为实现上述常温干燥目的，本发明提供如下技术方案：一种利用干燥剂吸水原理的药物离心干燥装置，包括外壳体，外壳体为内部结构提供了良好的工作环境，所述外壳体的内部固定连接有装配间隙，装配间隙的存在保证了本设备其他部件具有一定的调整空间，外壳体的顶端固定连接有顶盖，顶盖保证设备了的封闭性，顶盖的内部固定连接有转轴，顶盖可以顺着转轴打开过翻转运动，顶盖的顶端开设有观察口，顶盖的顶端固定连接有把手，通过把手可以更加方便的打开顶盖，顶盖的右端开设有药材入口，需要干燥的药材从药材入口处进入设备，外壳体的内部固定连接有升降槽，升降槽的内部活动连接有转筒，转筒的内部固定连接有干燥层，升降槽的内部活动连接有升降腔，升降腔的内部固定连接有传送带滚轴，传送带滚轴的表面固定连接有传送带，外壳体的右侧固定连接有药材出口，干燥完毕的药材从药材出口处离开设备，装配间隙的内部固定连接有马达，马达的顶端固定连接有传动轴，传动轴远离马达的一端固定连接有旋转平台，旋转平台通过与马达相连的传动轴一起被马达带动旋转的，旋转平台的顶端固定连接有液压缸，液压缸的内部活动连接有液压杆，液压杆远离液压缸的一端固定连接有顶杆。</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{[170, 172],部件},{[158, 164],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+          <t>{[19, 29],方法},{[8, 17],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>{[387, 388],部件},{[375, 381],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{[450, 453],部件},{[462, 464],零件},部分关系</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>明内容本发明提出的一种便于更换广告布的广告灯箱，解决了现有的广告灯箱在安装较为柔软的广告布时，由于灯箱框架之间连接紧密，不易拉动广告布的端部对广告布进行捋直，且在拉动广告布的外端时，容易一并牵动广告布，增加了广告布安装和更换难度的问题。为了实现上述目的，本发明采用了如下技术方案：一种便于更换广告布的广告灯箱，包括竖箱板和横箱板，所述竖箱板与横箱板均设置有一对，四个所述竖箱板与横箱板之间卡合连接有广告布，单个所述横箱板的一端活动卡合连接有活动卡件，且所述活动卡件与广告布的边缘角卡合连接。优选的，所述横箱板的一端内部活动套接有丝杆，所述丝杆的一端贯穿横箱板的前表面后固定连接有旋钮，所述活动卡件的一端外表面固定连接有衔接杆，所述衔接杆的一端固定连接有丝杆套，所述丝杆套与丝杆啮合连接。</t>
+          <t>优选地，对三维模型进行前处理，包括如下步骤：赋予材料属性、划分有限元网格、添加载荷工况条件。优选地，对三维模型进行有限元仿真计算，包括多种载荷工况条件下重力和温度数值的计算。本发明能够取得以下技术效果：在不修改及影响原有软件的情况下，读取三维建模软件导出的多个计算结果文件，输出为符合面形计算软件格式要求的文件，并自动调用面形拟合软件完成多个载荷步面形的计算，再调用结果整理软件对面形结果整理输出为一个文件，从而实现镜面设计工作的自动化，提高单次设计仿真计算及结果后续处理的工作效率，减少设计人员在低效工作中的精力及时间消耗，减少工作中由重复复杂操作造成的失误。</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{[309, 311],部件},{[296, 303],位置},空间关系</t>
+          <t>{[67, 85],部件},{[51, 63],零件},部分关系</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{[289, 290],部件},{[269, 282],位置},空间关系</t>
+          <t>{[22, 44],部件},{[5, 13],零件},部分关系</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{[264, 265],部件},{[251, 261],位置},空间关系</t>
+          <t>{[101, 202],方法},{[206, 279],效果},方案优点</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1624,103 +1614,111 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>发明内容本发明针对以上现有技术上存在的问题，提供了改良的PBL教学法，应用于大班教学，通过特殊的教学流程及评价体系，使之达到标准PBL6～12名学生的小班教学效果，并与LBL混合应用，构建一种改良PBL与LBL混合式大班教学方法。培养基础与临床的双向思维。本发明的有益效果为：提供了改良的PBL及与LBL混合的教学流程和评价体系，实施例中应用于超过45人的教学班；本发明提供的教学方法显著提高80～100分高分段学生人数；59.22～61.20％的学生对本教学法持肯定态度，54.70～67.50％的学生对知识点的理解以及团队协作能力得以提升，较多学生的学习能力，尤其是发现(60.64～70.83％)、解决问题(56.74～71.20％)以及自主学习能力(48.94～66.67％)得以培养。</t>
+          <t>作为本发明的一种优选技术方案，所述第一凹槽的形状为正六边形，所述连接杆的形状为正六边形，所述第一凹槽的内径尺寸大小与连接杆的外径尺寸大小相适配。作为本发明的一种优选技术方案，所述连接盘的形状为圆柱形，所述连接杆通过焊接与连接盘固定连接。作为本发明的一种优选技术方案，所述第二凹槽的尺寸大小与第三凹槽的尺寸大小相适配，所述第二凹槽、第三凹槽相嵌合后的形状为正六边形。</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{[11, 14],方法},{[96, 113],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+          <t>{[17, 70],部件},{[8, 13],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>{[89, 116],部件},{[80, 85],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{[135, 156],部件},{[126, 131],零件},部分关系</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>进一步地，所述切割器位于下位间隙处，切割器由移动模组驱动产生切割垃圾袋运动。进一步地，所述切割器通过悬臂安装于移动模组上。进一步地，所述切割器为刀片。</t>
+          <t>本发明提供了一种锂离子电池硅基负极粘结剂的制备方法，本发明通过化学交联制备一种三维交联网络粘结剂。本发明的另一目的在于提供一种用所述交联三维网状粘结剂制备的硅基负极电极。为实现上述目的，本发明采用以下技术方案：一种锂离子电池负极粘结剂，所述粘结剂是交联三维网状粘结剂，由原料聚丙烯酰胺和聚丙烯酸按照一定比例混合均匀后，在室温下通过交联剂的作用下进行化学交联，从而得到三维网状粘结剂。所述粘结剂的分子结构为：进一步地，所述的聚丙烯酰胺为分子量400w及以上的阴离子型聚合物。</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{[7, 9],部件},{[12, 15],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+          <t>{[31, 34],方法},{[39, 47],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>{[106, 116],部件},{[135, 157],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{[6, 24],方法},{[59, 83],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>在上述的变压器用遮阳降温装置中，所述顶板内设有内部盛有石蜡的固定腔，所述固定腔位于空腔的上端并覆盖整个空腔设置。在上述的变压器用遮阳降温装置中，每块所述遮阳板均呈透明状设置，每块所述遮阳板内均设有吸热腔，所述空腔内密封滑动有两个对称设置的推块，所述空腔内的溴化银粉末位于两块推块之间，两块所述推块相背面与空腔内侧壁之间的空间与吸热腔连通并盛有水溶液，所述吸热腔内设有多个遮阳机构。在上述的变压器用遮阳降温装置中，所述遮阳机构包括固定连接在吸热腔靠近变压器本体的侧壁上的透明囊，所述透明囊内盛有遮光液。</t>
+          <t>发明内容本发明要解决的技术问题是：克服现有技术中的不足，提供一种氧化矿选别漏斗。该氧化矿选别漏斗结构设计合理，使用方便，筛选分离效率高，使用年限长，降低了设备检修成本，安全性高。本发明所述的氧化矿选别漏斗，包括锥体、下筒体和空气压缩机，空气压缩机通过高压软管与吹气管连接，高压软管上设有电磁阀，吹气管延伸至锥体内部；下筒体内从上向下依次设置第一刚性滤网和第二刚性滤网，第二刚性滤网的孔径小于第一刚性滤网的孔径，下筒体底板上等距设置钢板凸起。其中：第一刚性滤网与第二刚性滤网在下筒体内倾斜设置，相互平行。喷气嘴在吹气管上等距分布。第一刚性滤网上部一侧设置出料口，出料口上铰接第一挡板。第二刚性滤网上部一侧设置出料口，出料口上铰接第二挡板。下筒体底板的上部一侧设置出料口，出料口上铰接第三挡板。下筒体底板倾斜设置，与第三挡板的夹角为80-85°。第一刚性滤网与第二刚性滤网材质均为304钢。下筒体底部设置振打电机。本发明所述的氧化矿选别漏斗的工作过程与原理如下：空气压缩机制备出的高压空气通过高压软管和吹气管由吹气管上的喷气嘴喷出，高压气流对锥体内的物料起到初步分散作用，电磁阀起到控制气流大小的作用，减少物料之间的黏附，将物料</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{[8, 13],部件},{[30, 32],零件},部分关系</t>
+          <t>{[251, 253],部件},{[255, 258],位置},空间关系</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{[76, 78],材料},{[81, 83],效果},材料优点</t>
+          <t>{[223, 235],部件},{[237, 240],位置},空间关系</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{[198, 203],部件},{[219, 221],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>{[41, 49],方法},{[50, 87],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>{[105, 218],部件},{[95, 101],零件},部分关系</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>技术领域本发明是带除尘器的无刷同步发电机，属于无刷同步发电机技术领域。背景技术无刷发电机实际上是两台发电机构成的，一台作为励磁机，一台才是主发电机，还有二极管(或晶闸管)构成的旋转整流器。主发电机的励磁绕组在转子，电枢绕组在定子(将发出的电输出)。励磁机的电枢绕组在转子，励磁绕组在定子。1950年代由美国人克莱伦斯.算恩发明。无刷同步发电机内部的散热组件容易产生灰尘并积聚，长时间得不到有效导出，这样会影响散热效果，造成发电机内部高热而损坏零件，现有的无刷同步发电机散热组件容易积累灰尘，影响散热，现在急需带除尘器的无刷同步发电机来解决上述出现的问题。发明内容针对现有技术存在的不足，本发明目的是提供带除尘器的无刷同步发电机，以解决上述背景技术中提出的问题，本发明结构合理，便于将无刷同步发电机散热组件内灰尘有效排出。为了实现上述目的，本发明是通过如下的技术方案来实现：带除尘器的无刷同步发电机，包括无刷同步电机主体、配电箱、除尘机构、皮带轮、底座、定子以及转子，所述无刷同步电机主体内部装配有定子，所述定子内部装配有转子，所述无刷同步电机主体右侧装配有皮带轮，所述无刷同步电机主体下侧装配有底座，所述无刷同步电机主体左侧</t>
+          <t>针对现有技术存在的不足，本发明目的是提供一种UV印刷机，以解决现有技术的UV印刷机，因UV固化灯是在真空的石英管中加入定量的高纯汞(水银)的一种灯管，在进行印刷固化过程中，高温及不小心的碰撞时可能造成石英管破裂，导致汞外漏，在常温下易挥发的汞蒸气及未挥发的汞颗粒，均会威胁工作人员的健康安全的缺陷。为了实现上述目的，本发明是通过如下的技术方案来实现：一种UV印刷机，其结构包括支撑机台、工作台面、停滞台、竖向移动机构、横向移动机构、印刷装置、正反吸吹除汞装置，所述工作台面设于支撑机台上表面，所述停滞台设于支撑机台左侧方，所述竖向移动机构设于支撑机台两侧且滑动连接，所述横向移动机构设于竖向移动机构之间，所述印刷装置设于横向移动机构外表面且滑动连接，所述正反吸吹除汞装置设于印刷装置内部；所述正反吸吹除汞装置由外壳、UV灯、正反吸吹机构、单向收集机构、硫磺除汞机构组成，所述外壳与印刷装置呈一体化成型结构，所述UV灯设于外壳下表面，所述正反吸吹机构设于UV灯两侧，所述单向收集机构设于正反吸吹机构上方，所述硫磺除汞机构设于正反吸吹机构中间且与外壳通过电焊相连接。作为本发明进一步地方案，所述正反吸吹机构由转轴、调向盘、正反吸</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{[299, 312],方法},{[315, 328],效果},方案优点</t>
+          <t>{[495, 500],部件},{[502, 511],零件},部分关系</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{[401, 431],部件},{[386, 397],零件},部分关系</t>
+          <t>{[175, 181],部件},{[184, 228],零件},部分关系</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{[497, 498],部件},{[482, 493],位置},空间关系</t>
+          <t>{[18, 26],方法},{[29, 40],效果},方案优点</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1728,29 +1726,26 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>明内容针对现有技术存在的不足，本发明目的是提供一种超声电机用电机外壳，以解决上述背景技术中提出的问题，本发明结构合理，便于有效提高超声电机的动力输出值，实用性强。为了实现上述目的，本发明是通过如下的技术方案来实现：一种超声电机用电机外壳，包括电机外壳主体、便于传动机构以及安装座，所述电机外壳主体内部设置有便于传动机构，所述电机外壳主体左侧装配有安装座，所述便于传动机构包括接线口、定子座、弹簧一、定子、转子、轴承座、转子座、传动杆以及弹簧二，所述电机外壳主体前端面开设有接线口，所述电机外壳主体内部左侧安装有定子座，所述定子座内部装配有弹簧一，所述定子座内部右侧安装有定子，所述电机外壳主体内部右侧安装有转子座，所述转子座右侧安装有传动杆，所述转子座内部左侧装配有弹簧二，所述转子座内部左侧安装有转子，所述转子座环形侧面装配有轴承座。进一步地，所述定子右端面装配有多组压电陶瓷片，且多组压电陶瓷片规格相同，所述定子通过导线与外界电源相连接。</t>
+          <t>进一步地，所述基底层为锌铝合金材料制成，所述防水层由太盐保护材料构成，所述耐腐蚀层由碳纤维材料构成。进一步地，两组所述横板相对一侧外壁和主板四周外壁均设有耐腐涂层。进一步地，两组所述横板上下对称设置。</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{[317, 319],部件},{[307, 313],位置},空间关系</t>
+          <t>{[42, 46],材料},{[37, 39],效果},材料优点</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{[383, 389],部件},{[373, 379],位置},空间关系</t>
+          <t>{[77, 80],部件},{[57, 73],位置},空间关系</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{[21, 33],方法},{[36, 49],效果},方案优点</t>
+          <t>{[91, 92],部件},{[93, 98],位置},空间关系</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -1758,29 +1753,26 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>明内容针对现有技术存在的不足，本发明目的是提供通用型电机支架，以解决上述背景技术中提出的问题，本发明结构合理，调节效果好，安装便利。为了实现上述目的，本发明是通过如下的技术方案来实现：通用型电机支架，包括固定盖、支撑架、调节机构、底座、放置板以及电机主体，所述底座下端面安装有放置板，所述底座上端面右侧安装有支撑架，所述支撑架左端面安装有固定盖，所述底座上端面装配有电机主体，所述电机主体上端面安装有固定盖，所述底座上侧设置有调节机构，所述调节机构包括第一螺母座、轴承座、夹持板、连接杆、丝杠、把手、第二螺母座、压缩弹簧以及活动板，所述固定盖前端面连接有把手，所述把手后端面连接有丝杠，所述丝杠环形侧面前侧安装有第二螺母座，所述丝杠环形侧面后侧安装有第一螺母座，所述固定盖内部后侧安装有轴承座，所述轴承座前端面连接有丝杠，所述固定盖右端面安装有活动板，所述活动板上端面连接有压缩弹簧，所述支撑架内部上侧安装有压缩弹簧，所述第二螺母座下端面连接有连接杆，所述连接杆下端面连接有夹持板。进一步地，所述第一螺母座内部安装有左旋滚珠螺母，所述第二螺母座内部安装有右旋滚珠螺母，且左旋滚珠螺母和右旋滚珠螺母分别与丝杠相匹配。进一步地，</t>
+          <t>针对现有技术中存在的问题，本发明的目的在于提供一种船舶节能发电设备。本发明解决其技术问题所采用的技术方案是：一种船舶节能发电设备，包括发电部、位于发电部上方的风力部以及位于发电部下方的水力部，所述发电部包括外转子、内转子和集电环，外转子上部连接风力部的风力传动轴，风力传动轴通过风力固定轴承一和风力固定轴承二转动连接风箱，风力传动轴上设有均匀分布的风力叶片，风力传动轴上部还设有监测风力传动轴旋转方向和转速的风力转速传感器，风箱外侧设有多个进出风的集风口，集风口上设有控制挡风板旋转的转轴，转轴连接控制电机，用以控制风箱进风；风力传动轴上且在风箱的下方设有轴承，轴承通过支撑板连接多个伸缩器，伸缩器下端连接水力部的水箱，水箱通过水力固定轴承一和水力固定轴承二连接水力传动轴，水力传动轴上水箱内设有水力叶轮，水力传动轴上水箱上部设有监测水力传动轴旋转方向和转速的水力转速传感器，水力传动轴上端穿过外转子连接内转子。具体的是，所述外转子内侧下部设有磁铁，发电时内转子与磁铁同一水平线，停止发电时内转子向上移动与磁铁不同水平线。</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{[458, 463],部件},{[445, 454],位置},空间关系</t>
+          <t>{[21, 22],方法},{[27, 30],效果},方案优点</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{[21, 29],方法},{[32, 45],效果},方案优点</t>
+          <t>{[54, 63],部件},{[67, 94],零件},部分关系</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{[226, 264],部件},{[220, 223],零件},部分关系</t>
+          <t>{[422, 423],部件},{[414, 417],位置},空间关系</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1788,55 +1780,53 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>优选的，所述防护罩与防护块同为圆柱状，且防护罩的直径与防护块的直径尺寸相同，并且防护罩为透明玻璃材质，防护块为金属材质。优选的，所述滑槽与滑块设置有四组，且滑槽与滑块之间为滑动连接。优选的，所述第二挤压槽，第二弹簧与钢珠设置有八组，且第二挤压槽与钢珠之间通过第二弹簧构成伸缩结构。</t>
+          <t>为了解决上述背景技术中提出的问题，本发明提供一种RJ11转RJ45转换器。该转换器将RJ11输入的电话信号（2PIN）输出到RJ45中的不同PIN组上，通过USB端口或者其他端口下发命令，来控制RJ11到RJ45不同PIN组的切换，以实现测试RJ11信号的自动转发功能的目的。为实现上述目的，本发明提供如下技术方案：一种RJ11转RJ45转换器,包括接口转换芯片，以及与所述接口转换芯片电连接的RJ11接口、RJ45接口、RS232接口、RS485接口、RS422接口、电源接口和USB接口。优选地，所述RJ11接口和RJ45接口的个数为N个，其中N为大于等于3的正整数。</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{[119, 121],部件},{[123, 124],零件},部分关系</t>
+          <t>{[20, 35],方法},{[2, 15],效果},方案优点</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{[78, 79],部件},{[81, 82],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>{[158, 171],部件},{[175, 244],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{[76, 92],方法},{[94, 136],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种用于盆栽的肥料及其制备方法，以解决上述问题。与现有技术相比，本发明有以下技术效果：本发明为有机肥，含有丰富的氮、钾等元素及大量的有机质，能促使盆栽生长的结实和生长早，且生长期长，同时利用保水剂和沸石的添加，可起到吸水和保肥的功效，可防止土壤板结，提高土壤的肥力，抗干旱能力好，同时可使盆栽具有抗倒伏、抗干旱的能力，盆栽初苗期稳定性好，盆栽生长期长。</t>
+          <t>本发明从青蒿素下脚料中提取植物蜡可大提高青蒿素产业价值。余液趁热倒出，待其冷却后得到固体蜡状物及水。将水倒出，80℃水浴恒温加热蜡状物使其融化，加入工业酒精，静置冷却，将固体与液体分开，再次加入工业酒精在80℃恒温水浴使其融化，使叶绿素充分溶解在酒精中。</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{[109, 117],方法},{[121, 129],效果},方案优点</t>
+          <t>{[3, 15],方法},{[18, 26],效果},方案优点</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{[61, 63],部件},{[67, 82],零件},部分关系</t>
+          <t>{[28, 39],方法},{[42, 48],效果},方案优点</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{[18, 28],方法},{[84, 97],效果},方案优点</t>
+          <t>{[55, 57],数值},{[58, 63],属性},参数关系</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -1844,29 +1834,26 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种大型电机方便转子注油结构，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，注油效果好，注油保养速度快。为了实现上述目的，本发明是通过如下的技术方案来实现：一种大型电机方便转子注油结构，包括支撑座、连接座、便于注油组件以及电机主体，所述电机主体下端面装配有连接座，所述连接座下端面安装有支撑座，所述电机主体上侧设置有便于注油组件，所述便于注油组件包括拉柄、盖板、固定块、注油箱体、密封板、螺栓、注油管道、支架以及螺纹柱，所述电机主体上端面固定有注油箱体，所述注油箱体上端面安装有盖板，所述盖板上端面装配有拉柄，所述盖板与注油箱体连接处装配有固定块，所述电机主体内部下侧安装有支架，所述电机主体上端面连接有螺纹柱，所述支架上端面安装有注油管道，所述注油管道左右端面均装配有密封板，所述注油管道下端面连接有螺栓。进一步地，所述注油管道左右端面均开设有密封槽，所述密封板规格与密封槽规格相匹配。进一步地，所述注油管道内部上侧开设有注油孔，所述注油孔设置有多组，且多组注油孔规格相同。</t>
+          <t>进一步地，在所述炉盘上设有点火针，在所述点火针的一侧设有连接在炉盘上的反馈针，所述点火针和反馈针分别与控制装置的对应端口连接。锅体2底部温度逐渐增加，热传感器5将探测到锅体2底部的温度信号，发送给控制系统4，当热传感器5测到温度达到150℃时，控制系统4给电磁阀7发出关闭信号，切断燃气管10的燃气供给；切断燃气后，锅体2底部温度开始降低，当低于150度时，控制系统4重新向脉冲点火器6和电磁阀7发出接通指令，点燃燃气再次加热；在循环进行以上保温过程到15分钟时，由控制系统4同时关闭脉冲点火器6和电磁阀7，完成烹饪过程。有益效果：本发明设置热传感器探针前端和锅体底部接触，控制系统预先设定保温温度和保温时间，使焖锅巴饭中的锅巴的形成稳定可控。</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{[207, 240],部件},{[201, 204],零件},部分关系</t>
+          <t>{[13, 15],部件},{[8, 10],位置},空间关系</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{[22, 37],方法},{[40, 53],效果},方案优点</t>
+          <t>{[116, 119],数值},{[105, 113],属性},参数关系</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{[444, 446],部件},{[431, 440],位置},空间关系</t>
+          <t>{[269, 303],方法},{[306, 320],效果},方案优点</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1874,199 +1861,223 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明提供了一种便捷，灵活性高，适用于FDM的增强纤维添加系统及方法。为实现上述目的，本发明所述的增强纤维添加系统包括丝材入口、纤维入口、恒温器、切断挤出装置、打印喷头、打印工作台、计算机；所述丝材入口喂入Φ1.75mm~5mm的改性丝材；所述纤维入口喂入单根长纤维；所述恒温器由电加热器、温度器和控温系统组成；所述切断挤出装置包括动力电机、外壳和齿轮。切断挤出装置提供恒定流量和压力将塑化后的丝材挤出打印喷头，同时将纤维切断。</t>
+          <t>进一步的，所述模板上端内腔的上内壁固定安装有挡板，主要是将手工皂溶液等量隔开，方便以后切割。进一步的，所述加热块为倒梯形状。进一步的，所述转动快的右端与加热块的左侧搭接。进一步的，所述支架内设置有甲基橙试液。</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{[167, 172],部件},{[175, 178],零件},部分关系</t>
+          <t>{[22, 23],部件},{[5, 16],位置},空间关系</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{[112, 122],数值},{[124, 127],属性},参数关系</t>
+          <t>{[98, 102],部件},{[90, 94],位置},空间关系</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{[58, 65],部件},{[73, 76],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>{[145, 147],部件},{[158, 161],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[76, 81],部件},{[69, 74],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>域发明涉及电动清扫车技术领域，具体为一种高度可调式防撞电动清扫车。背景技术电动清扫车起到清扫的作用，其利用蓄电池作为动力来源，无二次污染，无废气排放，节能环保，受到越来越多的企事业单位的喜爱。由于电动清扫车其独特的功能，和作用范围广的特点，所以其工作的地点不止局限于平坦的水泥或柏油路面，有些时候也会在一些坑洼的石子路面进行工作。但现有的电动清扫车为了减轻清扫部件的重量，来使更多的能源用于清扫作业，其往往采用塑料或者其他的轻质材料制成，当其需要工作在凹凸不平的路段，由于洒水机构的高度不能调节，所以其喷出的水量不能根据路面的情况调整喷水和清扫的力度，导致污垢灰尘堆积在坑洼部位，虽然现有的设备能够人为调整喷水的力度，但是并不能完全根据路面真实情况进行调节，此外，洒水机构很容易触及地面，使部件出现损毁的现象，损坏不仅仅会使用大笔维修费用，而且也会影响其投放使用的时间，因此一种高度可调式防撞电动清扫车应运而生。发明内容为实现上述不会与地面碰撞且会根据高度控制喷水量的目的，本发明提供如下技术方案：一种高度可调式防撞电动清扫车，包括车体，所述车体的表面固定连接有水箱，车体的表面且位于水箱的底部固定连接有支撑架，支撑架的内部</t>
+          <t>本发明的目的旨在克服现有技术的不足，提供一种可实现梯度耐温的多层陶瓷绵纸，使得绵纸在不同的温度梯度下实现长时间服役。为实现本发明的目的所采用的技术方案是：一种可实现梯度耐温的多层陶瓷绵纸，是一种非均质材料，其特征在于绵纸总厚度为2-4mm，由单层陶瓷绵纸构成，单层绵纸厚度为0.2-0.5mm，层与层之间添加复合胶黏剂，当热面温度较高时，复合胶黏剂中的低熔点玻璃纤维出现熔融现象，与无机胶黏剂共同作用，实现层与层之间的无缝粘结。进一步的，所述的绵纸中锆乳胶含量沿厚度方向呈梯度分布，表层锆乳胶含量为15-20%，逐渐向内层减少，至最内层减少为0-2%；单层绵纸由水平方向排布的陶瓷纤维铺设而成，无Z轴贯穿纤维，陶瓷纤维平均直径为2-3µm，呈正态分布，表层绵纸最高耐温为1500-1600℃，最内层绵纸最高耐温为1000-1100℃，沿厚度方向呈梯度变化；常温下导热系数为0.025-0.035W/(m·K)，1100℃导热系数为0.080-0.100W/(m·K)。</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{[33, 61],方法},{[63, 95],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+          <t>{[335, 344],数值},{[332, 333],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>{[62, 74],方法},{[201, 212],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{[18, 35],方法},{[37, 56],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>{[288, 291],部件},{[321, 324],位置},空间关系</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>根据本发明的一些实施例，所述金属外壳由铝合金制作而成。根据本发明的一些实施例，所述电池为锂电池。根据本发明的一些实施例，所述石墨烯发热贴片与所述金属外壳形状相匹配。</t>
+          <t>本发明的目的就是针对现有技术存在的缺陷，提供一种随钻仪器聚四氟垫片取出工装。其技术方案是：随钻仪器聚四氟垫片取出工装，包括扶正体，所述的扶正体为管状，所述的扶正体一端封闭，另一端开口，封闭一端的扶正体中心位置安装有弹簧柱塞螺钉，所述的弹簧柱塞螺钉周围安装端盖，所述的弹簧柱塞螺钉上安装芯轴，所述的芯轴上设有拉锤，所述的端盖到扶正体另一端设有对称的通孔，所述的通孔内放置旋转轴，所述的旋转轴上靠近拉锤的一端设有隔环，所述的隔环上部的旋转轴上安装弹簧挡圈，所述的弹簧挡圈上部的旋转轴上安装扳手，所述的旋转轴远离拉锤的一端安装刀片。进一步，所述的刀片通过内六角沉头螺钉安装在旋转轴上。本发明与现有技术相比较，具有以下优点：设计合理、结构简单，由于聚四氟垫片本来就是一次性使用，而随钻测量仪器聚四氟垫片取出工装恰好可以将聚四氟垫片破坏掉，以至于用拉锤在不损坏任何零件的情况下将聚四氟垫片拉取出来，实用性强。</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{[62, 64],材料},{[65, 66],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+          <t>{[289, 291],方法},{[308, 316],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>{[0, 2],方法},{[8, 36],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{[107, 112],部件},{[92, 103],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于，针对现有技术的上述不足，提出一种打磨高效的一种带载运装置的打磨设备。本发明的一种带载运装置的打磨设备，包括机架，还包括运载工件的载运装置和用以对载运装置上的工件打磨的第一打磨装置和第二打磨装置，所述第一打磨装置固定设置在所述机架一端，所述第二打磨装置通过滑动装置可水平滑动的设置在所述机架的另一端，并可沿所述机架滑动靠近或远离所述第一打磨装置。</t>
+          <t>本发明提出的是一种铝壳机座加工用非标三刀头刀柄结构，其目的旨在克服现有技术存在的上述不足，使铝壳机座加工无需多次换刀，提高铝壳机座加工效率。本发明的技术解决方案：一种铝壳机座加工用非标三刀头刀柄结构，其结构包括三刀位刀柄和铝壳加工用刀片，其中三刀位刀柄头部铣加工有三个刀片安装槽，刀片安装槽的形状与对应的铝壳加工用刀片的形状配合，铝壳加工用刀片通过刀片安装螺钉与三刀位刀柄连接固定，安装螺钉旋入刀片安装槽内的安装螺孔。优选的，所述的三刀位刀柄由T10A钢调质加工而成。</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{[59, 62],部件},{[77, 80],零件},部分关系</t>
+          <t>{[3, 24],方法},{[27, 43],效果},方案优点</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{[178, 183],部件},{[167, 168],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>{[216, 220],部件},{[222, 226],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{[81, 98],部件},{[103, 117],零件},部分关系</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>发明内容本发明为克服上述情况不足，旨在提供一种能解决上述问题的技术方案。自动开料机自动拨刀机构，包括外壳，外壳的内部由上至下依次横向设置有第一转轴和第二转轴；所述外壳的两侧内壁上均安装有轴承座，第一转轴和第二转轴的两端分别与轴承座转动配合，所述第一转轴和第二转轴上均同轴安装有多个环形刀具，所述第一转轴上的环形刀具与第一转轴滑动配合，所述第二转轴上的环形刀具与第二转轴滑动配合，所述第一转轴的上方和第二转轴的下方分别设有拨刀装置，拨刀装置由固定板和滚轮组组成、所述滚轮组包括：伺服电机、同步带、同步轮组、滚珠丝杆、直线导轨、活动板和拨刀滚轮，所述固定板的两端与第一转轴两端的轴承座固定连接，固定板的下面横向成型有直线导轨，所述活动板安装在直线导轨上且与之滑动配合，所述伺服电机和滚珠丝杆均横向安装有活动板的上面，所述同步轮组安装滚珠丝杆的螺母上，伺服电机通过同步带驱动同步轮组，所述拨刀滚轮安装在活动板的下面且与之转动配合</t>
+          <t>优选的，所述锥形杆的上壁面中心位置开设有梅花孔，梅花孔为一种螺丝孔，双层斜角成型铣刀刀杆下端固定安装有异形刀身，异形刀身是横截面为梯形的异形块，异形刀身四边角处均为切削刀刃，异形刀身的中间位置开设有刀槽。优选的，所述刀槽贯穿了异形刀身的两侧，异形刀身的下端固定安装有刀尖，刀尖为棱锥形，刀尖的棱锥为切削刀刃，异形刀身的前壁面开设有定位孔，定位孔有两组，刀槽内设置有活动刀片，活动刀片有两个。优选的，所述活动刀片是横截面为梯形的刀片，且两个活动刀片相对的一侧上端拐角均设有斜坡，两个活动刀片相对的一侧壁面贴合。</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{[50, 51],部件},{[36, 46],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+          <t>{[20, 22],部件},{[6, 16],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>{[235, 236],部件},{[217, 231],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{[133, 134],部件},{[121, 127],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>作为进一步限定，所述上壳体为多级伸缩结构。作为进一步限定，所述上壳体的外柱面上设置有交通指示标识。作为进一步限定，所述底座中设置有配重单元。</t>
+          <t>基于以上技术方案，优选的，所述多孔基膜厚度为1-40微米，孔径为0.1-2微米，孔隙率为45％-90％。基于以上技术方案，优选的，所述聚乙烯吡咯烷酮的分子量为50000-1500000；所述杂多酸为磷钨酸、磷钼酸、硅钨酸、硅钼酸中的一种或多种。基于以上技术方案，优选的，浇铸法中，复合膜的烘干温度为50-140℃，烘干时间为6-48h；热压法中，复合膜的热压温度为60-100℃，压力为0.05MPa-5MPa，热压时间为5-600min。</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{[59, 60],部件},{[65, 68],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+          <t>{[79, 91],数值},{[67, 77],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>{[149, 155],数值},{[140, 147],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{[22, 27],数值},{[15, 20],属性},参数关系</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种基于涡轮原理的飞轮储能装置，具备节约电能，结构简单，制造成本低的优点，解决了飞轮启动时消耗大量电量，结构复杂，制造成本高的问题。（二）技术方案为实现上述节约电能，结构简单，制造成本低的目的，本发明提供如下技术方案：．一种基于涡轮原理的飞轮储能装置，包括飞轮，所述飞轮的外侧活动连接有外壳，飞轮的表面开设有楔形槽，飞轮的内部活动连接有第一转轴，第一转轴的外侧活动连接有轴承，轴承的上方活动连接有轴帽，轴帽的左侧活动连接有合页，轴帽的下方活动连接有轴座，轴帽的右侧活动连接有固定螺栓，轴座的下方活动连接有支架，支架的下方活动连接有底座，支架的右侧活动连接有涡轮机，涡轮机的右上方开设有进风口，涡轮机的内部活动连接有第二转轴，第二转轴的外侧活动连接有叶片，第二转轴的下方活动连接有支撑杆，支撑杆的左侧活动连接有通道。优选的，所述飞轮的直径为五十公分，其表面的楔形槽开设有不少于二十个，且均匀分布。优选的，所述外壳的直径为五十五公分，壁厚为三公分，且为封闭设计。优选的，所述轴承设置有两个，规格相同，分别设置在飞轮的两侧。优选的，所述轴帽和轴座的内部均开设有和固定螺栓</t>
+          <t>本发明的目的在于克服现有技术的缺点，提供一种工艺简单、提高零件使用寿命、提高零件质量的超厚带料小R角度冲压成型方法。本发明的目的通过以下技术方案来实现：一种超厚带料小R角度冲压成型方法，它包括以下步骤：S1、选用板材，在板材上绘制出零件的外轮廓线；S2、在板材上绘制出多条冲压线，确保冲压线位于外轮廓线的外侧；S3、采用冲压机沿着最外侧的冲压线冲板材，从而得到留有余量的半成品；S4、采用另一压机沿着中间的冲压线冲板材，如此循环操作，即可得到带有R角度的零件，经检测零件上的弧形凸起上并没有凹坑，通过多次冲压得到零件，减小了冲压力，避免了零件变形，极大提高冲压质量。所述板材采用电磁铁或压板固定住。所述冲压线采用雕刻机走线，避免冲压线由于多次加工而变得模糊。所述板材为矩形状，板材的厚度为2~3mm。本发明具有以下优点：本发明工艺简单、提高零件使用寿命、提高零件质量。</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{[32, 44],方法},{[46, 94],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+          <t>{[301, 310],方法},{[312, 327],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>{[43, 56],方法},{[22, 41],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{[289, 294],材料},{[295, 296],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>{[248, 253],方法},{[259, 281],效果},方案优点</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>明内容针对现有技术存在的不足，本发明目的是提供电机调试安装结构，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，调节便捷，使用效果好。为了实现上述目的，本发明是通过如下的技术方案来实现：电机调试安装结构，包括电机主体、传动轴、安装架体、紧固螺丝以及便于安装调节组件，所述安装架体内部上侧安装有电机主体，所述安装架体左右端面安装有紧固螺丝，所述电机主体右端面装配有传动轴，所述电机主体环形侧面下侧设置有便于安装调节组件，所述便于安装调节组件包括固定杆、施力连接板、调节架、滑动推架、调节螺杆、支撑板、转动轴以及稳定卡架，所述安装架体环形侧面安装有调节架，所述安装架体与调节架连接处安装有转动轴，所述安装架体右端面固定有支撑板，所述支撑板内部连接有固定杆，所述安装架体左端面下侧固定有稳定卡架，所述调节架前后端面安装有滑动推架，所述滑动推架后端面连接有支撑板，所述滑动推架与支撑板连接处安装有调节螺杆。进一步地，所述调节架上端面右侧开设有安装槽，所述施力连接板下端面右侧与安装槽相匹配，且安装槽上端面均开设有螺纹孔，所述固定杆环形侧面设置有外螺纹，所述固定杆贯穿施力连接板与调节架通过螺纹相连接。</t>
+          <t>本发明的目的在于提供一种支撑效果好的道路桥梁隔音板，以解决上述背景技术中提出的问题。作为本发明再进一步的方案：所述雨水槽的顶部设有条形开口，集水槽底部的第一漏水槽穿过顶端封板并与雨水槽相连通。作为本发明再进一步的方案：所述缓冲层为石棉板层。</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{[228, 264],部件},{[220, 225],零件},部分关系</t>
+          <t>{[0, 2],方法},{[8, 24],效果},方案优点</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{[424, 426],部件},{[411, 420],位置},空间关系</t>
+          <t>{[76, 80],部件},{[70, 74],位置},空间关系</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{[21, 30],方法},{[33, 72],效果},方案优点</t>
+          <t>{[65, 68],部件},{[55, 62],位置},空间关系</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2074,115 +2085,107 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>明内容本发明的目的在于提供一种机械配件用清洗装置的输送机构，以解决上述背景技术中提出的现有的机械配件用清洗装置的输送机构冲洗过程中水溅射影响环境，以及输送机构上的存放盘不能平稳输送的问题。为实现上述目的，本发明提供如下技术方案：一种机械配件用清洗装置的输送机构，包括固定架，所述固定架皆与输送履带连接，输送固定架内皆开设有放置槽，且放置槽内皆固定有固定仓，所述固定仓内皆通过第一弹簧与活动杆连接，所述活动杆的外端皆穿过开槽与拨动杆固定，所述开槽皆开设固定架上，所述活动杆的内端皆与滑块固定，所述滑块皆与滑槽滑动连接，所述滑槽皆开设在固定仓上，所述活动杆上皆固定有卡合块，且卡合块皆与卡合仓卡合，所述卡合仓皆开设在挡水板内，所述挡水板皆放置在放置槽上，所述输送履带上皆固定固定板，且固定板内皆设置有连接杆，所述连接杆的外端皆与限位杆固定，所述连接杆上皆缠绕设置有第二弹簧，所述连接杆的内端皆固定有夹持板，所述夹持板皆与存放盘贴合，所述存放盘皆放置在输送履带上。优选的，所述放置槽设置有四组，每组所述放置槽的形状皆为“T”形。</t>
+          <t>为了克服上述的技术缺陷，本发明提供一种新型的果糖非酶电化学传感器及其检测方法。本发明采用如下技术方案：一种果糖非酶电化学传感器，包括参比电极、对电极、双工作电极以及用于固定电极的基底，所述基底上设置有加液孔，所述双工作电极包括：表面修饰有铂-氧化石墨烯纳米材料涂层的修饰电极和未修饰的裸电极。在一些实施例中，所述修饰电极的铂-氧化石墨烯纳米材料涂层的厚度范围在1-5μm，例如2μm、3μm、4μm。</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{[397, 399],部件},{[385, 392],位置},空间关系</t>
+          <t>{[51, 62],部件},{[64, 90],零件},部分关系</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{[133, 135],部件},{[116, 129],零件},部分关系</t>
+          <t>{[175, 184],数值},{[161, 173],属性},参数关系</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{[11, 28],方法},{[31, 92],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>{[144, 147],部件},{[116, 129],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[17, 37],方法},{[2, 10],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明提供了一种祭祀用纸的制浆方法，采用水稻、小麦秸秆等原料，制作过程中实现碱溶液的回收利用，制备成本低、过程环保。本发明提供一种祭祀用纸的制浆方法，包括以下步骤：备料；制碱；煮料；洗浆；漂白；打浆。本发明提供的技术方案带来的有益效果是：采用低成本原料，制备过程实现碱回收，对环境无污染。</t>
+          <t>本发明的目的是针对现有技术的不足，提供一种减少多晶硅太阳能电池的光衰程度的方法，该方法简单可行，可以实现多晶硅PERC电池的光衰程度降低到1％以内，而且也不会增加现有多晶硅PERC电池生产流程的复杂性。该方法具体是：步骤(1).将多晶硅太阳能电池片置于150-250℃下正向施加1-4V的电压，处理10分钟。作为优选，温度为175℃，正向电压1V，处理10分钟。步骤(2).将步骤(1)多晶硅太阳能电池置于300-550℃下反向施加0.2-2V的电压，处理1分钟。作为优选，温度为400℃，正向电压0.3V，处理1分钟。所述的多晶硅太阳能电池片是通过传统工艺中已经做好的PERC太阳能电池片。本发明具有的有益效果是：1.本发明的操作过程比较简单，而且对设备要求也比较低。该方法不会对环境造成危害，具有工业大规模生产的可能性。2.本发明可以减少多晶硅太阳能电池的光衰程度到1％以下。3.本发明还可以实现一定程度的多晶硅太阳能电池的晶界钝化。</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>{[74, 80],方法},{[56, 60],效果},方案优点</t>
+          <t>{[297, 298],方法},{[302, 305],效果},方案优点</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{[22, 25],部件},{[32, 35],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>{[17, 38],方法},{[398, 417],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{[17, 38],方法},{[40, 99],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种用于制造电机壳消失模的模具，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，取出便捷，使用效果好。为了实现上述目的，本发明是通过如下的技术方案来实现：一种用于制造电机壳消失模的模具，包括上模座、上模仁、下模座、便于推送机构、下模仁以及消失模模腔，本发明结构合理，便于组合安装，取出便捷，使用效果好。</t>
+          <t>在本说明书的其他实施例中，散热系统还包含一电池容置区与第一发热源、第二发热源分离，单一风扇更用以产生朝向电池容置区以及电池容置区与第一发热源、第二发热源之间的复数气流。在本说明书的其他实施例中，第一发热源包含中央处理器与绘图处理器其中之一者。在本说明书的其他实施例中，第二发热源包含中央处理器与绘图处理器其中另一者。在本说明书的其他实施例中，第三热管垂直地热耦合于第一、二热管。在本说明书的其他实施例中，第一散热阵列包含复数第一散热鳍片，每一第一散热鳍片垂直地热耦合于第三热管。在本说明书的其他实施例中，单一风扇包含扇叶、马达以及复数根支撑柱，该些根支撑柱之间定义复数个出气口，马达驱动扇叶以产生该些气流通过该些个出气口。</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>{[28, 38],方法},{[64, 69],效果},方案优点</t>
+          <t>{[97, 119],部件},{[85, 94],零件},部分关系</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{[112, 122],部件},{[138, 143],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>{[41, 44],方法},{[48, 82],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{[258, 270],部件},{[252, 255],零件},部分关系</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机械配件装配用固定装置，以解决上述背景技术中提出的传统的固定装置并未设计针对不同宽度和不同形状的设计，降低了适应范围的问题。为实现上述目的，本发明提供如下技术方案：一种机械配件装配用固定装置，包括底座和工件，所述底座的内部设置有第一空腔，且第一空腔内部顶端的中间位置处设置有卡槽，所述卡槽的顶端设置有工件，所述工件两侧的底座顶端皆设置有固定箱，所述固定箱的底端皆固定有移动块，所述移动块的底端皆套设在反向丝杆的外壁上，所述移动块的底端皆通过螺纹与反向丝杆连接，所述反向丝杆的一端通过轴承连接在第一空腔的内壁上，所述反向丝杆的另一端贯穿底座并延伸至底座的外部，所述反向丝杆的另一端固定有把手，所述固定箱靠近工件一侧的顶端皆设置有转动杆，且转动杆的外侧固定有限位板，所述限位板内部的转动杆外壁设置有第二空腔，所述转动杆的内部设置有限位腔，且限位腔的内部固定有弹簧，所述弹簧靠近转动杆的一端固定在限位腔的内部，所述弹簧远离转动杆的一端固定有第一连接块，所述第二空腔内部远离转动杆的一侧固定有与第一连接块相互配合的第二连接块。优选的，所述卡槽的两侧皆设置有与移动块相互配合的开槽。</t>
+          <t>优选的，所述从动轴与滑板之间连接有轴承，起固定作用，可使滑板带动从动轴下移，进而带动钻杆进行打孔。优选的，所述翘杆的后端设置有防滑条纹，可防止操作者手打滑。优选的，所述从动轴的上端设置有与主动轴的下端相配合的轴孔，利于主动轴与从动轴的连接与脱离。</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>{[499, 500],部件},{[479, 485],位置},空间关系</t>
+          <t>{[56, 66],方法},{[68, 76],效果},方案优点</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{[378, 381],部件},{[368, 375],位置},空间关系</t>
+          <t>{[17, 18],部件},{[7, 13],位置},空间关系</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{[12, 26],方法},{[29, 77],效果},方案优点</t>
+          <t>{[85, 105],方法},{[107, 121],效果},方案优点</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2190,29 +2193,26 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种高效防尘户外电机风罩，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，防尘效率高。为了实现上述目的，本发明是通过如下的技术方案来实现：一种高效防尘户外电机风罩，包括电机以及防尘机构，所述电机左侧设置有防尘机构，所述防尘机构包括紧固螺栓、防尘罩、出风口、防尘网、风罩、耐磨板、防滑弹簧、凹槽以及调节螺栓，所述电机左侧安装有风罩，所述风罩左侧设置有出风口，所述出风口内部安装有防尘网，所述风罩上侧安装有防尘罩，所述风罩环形侧面安装有紧固螺栓，所述防尘罩前侧安装有耐磨板，所述耐磨板前端面开设有凹槽，所述耐磨板前侧安装有调节螺栓，所述调节螺栓环形侧面安装有防滑弹簧。进一步地，所述风罩环形侧面开设有通孔，且通孔内部设置有内螺纹，所述紧固螺栓与风罩通过螺纹密闭连接，所述紧固螺栓设置有四组，且四组紧固螺栓规格相同，所述四组紧固螺栓对称安装在风罩环形侧面。</t>
+          <t>优选的，所述驱动电机上安装有散热片。优选的，所述支撑腿远离萃取箱的一端固定连接有稳固板。优选的，所述冷却箱的材料为不锈合金材质，所述通水管的材质为聚乙烯材质。</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{[22, 35],方法},{[38, 51],效果},方案优点</t>
+          <t>{[6, 9],部件},{[14, 16],零件},部分关系</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{[329, 330],部件},{[318, 325],位置},空间关系</t>
+          <t>{[40, 42],部件},{[24, 34],位置},空间关系</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{[146, 182],部件},{[140, 143],零件},部分关系</t>
+          <t>{[50, 52],部件},{[57, 60],零件},部分关系</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2220,175 +2220,169 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>明内容本发明提出使用上货电梯或者升降吊篮来递送外卖物品，方便顾客取货，减少外卖工作人员等候，满足快捷服务和节能环保的需求。要解决的问题：顾客从高层建筑下楼取物耗时、耗电，而到晚了又与外卖员工产生矛盾的问题。技术方案：在高层建筑安装载重限于十几公斤的超小型货梯，或者升降吊篮，用于递送外卖物品。</t>
+          <t>本发明为克服现有技术不足，提供一种模具温度高于坯料温度的热成形方法，该方法可实现大高径比棒料镦粗以及改善普通高径比镦粗鼓肚现象。具体通过使模具温度高于坯料温度实现该成形方法，并在热模锻基础工艺镦粗工艺进行验证。该方法有别于传统热锻造成形方法，传统热锻造成形方法为模具温度低于坯料温度(热锻)或模具温度等同于坯料温度(等温锻)，通过该方法可以获得超越传统镦粗高径比极限，及改善普通镦粗高径比范围内鼓肚现象。本发明的技术方案是：一种模具温度高于坯料温度的热成形方法，它包括以下步骤：一、准备原始坯料：检查原始的挤压棒材，用锯床进行下料，得到一定尺寸的棒材；二、镦粗制坯：将得到的棒材加热后在不同温度平砧模具上进行镦粗，以1mm/s的速度镦粗至51.75mm，变形量为50-60％；模具温度高于坯料温度，高于的温度区间为30℃-120℃；三、将镦粗后的锻件冷却至室温，测量鼓肚处和两端面的直径，进行鼓肚程度的计算；KD＝(DG-DD)÷DD，其中：DG为镦粗后锻件鼓肚处直径；DD镦粗后锻件端面直径，KD表征鼓肚程度。</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{[8, 26],方法},{[28, 59],效果},方案优点</t>
+          <t>{[66, 85],方法},{[87, 103],效果},方案优点</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{[108, 135],方法},{[139, 144],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>{[212, 229],部件},{[236, 237],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{[15, 32],方法},{[37, 62],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>明内容为实现上述粉碎混合一体化、由内而外进行加热的目的，本发明提供如下技术方案：一种生物炭基有机肥无臭制作装置，包括壳体，所述壳体的内部活动连接有螺杆，螺杆的表面套接有移动杆，移动杆的表面活动连接有混合机构，壳体的表面固定连接有燃烧室，燃烧室的内部固定连接有流出口，流出口的内部与螺杆活动连接，螺杆的表面且位于流出口的上方套接有粉碎件，所述混合机构包括弹簧，弹簧的左端固定连接有抽吸槽，弹簧的右端固定连接有储料槽，弹簧的表面固定连接有支撑架。本发明的有益效果是：1.通过将待加工的竹炭放置在燃烧室内，对燃烧室内通入一定量的氧气，转动粉碎件，使粉碎球相互摩擦产生火花，将燃烧室内的空气点燃，根据空气燃烧的反应原理可知，空气燃烧会产生蒸馏水，蒸馏水受重力影响通过流出口落在承接板表面，承接板受到蒸馏水的重量影响会向下移动，并挤压移动杆，移动杆在螺杆和滑轨的表面进行移动，并带动螺杆做旋转运动，螺杆旋转再次带动粉碎件旋转，从而达到了准备炭基制作环境的同时进行粉碎的效果。2.通过上述氧气在燃烧内燃烧，并使燃烧室处于缺氧负压的状态，随着燃烧反应的结束，燃烧室内具有一定的温度，此时再开启加热部件对其进行加热，承接板上的蒸馏水随着温度</t>
+          <t>本发明提供了一种轨道交通用车辆转向机构，具备避免转动轮与轴接盘之间过度干燥，产生过度的摩擦损耗，提高了车辆转向机构在运转过程中低磨损效果的优点，解决了背景技术中所提到的问题。为实现以上目的，本发明提供如下技术方案予以实现：一种轨道交通用车辆转向机构，包括转向架，所述转向架的内部活动套接有轴接杆，所述轴接杆的内部通过轴接盘活动套接有转动轮，所述轴接杆的正面活动套接有联动盘，所述联动盘正面的中部固定连接有防溢机构，所述转动轮的正面固定安装有锥形箱，所述锥形箱内侧的顶端与轴接盘外侧的顶端相接触。可选的，所述防溢机构包括有圆盘，所述圆盘的背面与联动盘正面的中部固定连接，所述圆盘的底部固定连接有弧形固定块，所述弧形固定块的底部与转动轮内侧的底部活动连接。可选的，所述圆盘的顶部固定连接有锥形连接板，所述锥形连接板的顶部固定连接有防溢挡板，所述防溢挡板的右侧开设有限位槽。</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{[73, 74],部件},{[63, 67],位置},空间关系</t>
+          <t>{[3, 18],方法},{[20, 70],效果},方案优点</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{[319, 406],方法},{[413, 427],效果},方案优点</t>
+          <t>{[260, 261],部件},{[268, 278],位置},空间关系</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{[438, 439],材料},{[441, 445],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>{[332, 333],部件},{[335, 336],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>{[113, 123],部件},{[127, 129],零件},部分关系</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>明内容本发明要解决的技术问题是：克服现有技术的不足，提供一种安全控料漏斗，从源头上控制给料量，避免因料大给下道工序产生安全隐患，保障生产活动正常运行。本发明为解决其技术问题所采用的技术方案为：所述安全控料漏斗，包括漏斗，漏斗内壁相对设置一对固定槽，固定槽顶部和底部均设置开口，两个固定槽之间设置可沿固定槽槽底上下滑动的控料板，所述控料板顶部设有挡板，挡板底面积不大于漏斗底部开口的面积，所述控料板和挡板厚度不少于1.5mm，固定槽上对应控料板设有控料调节件。使用时，将控料板插入两个固定槽内，因挡板占用漏斗内的部分空间，破碎料的下落路径部分被阻挡，落料量有一定程度的减少，进而减少漏斗出料口的出料量，避免破碎料在传送皮带上产生堆积，挡板的位置可通过控料调节件进行调节，挡板越高，漏斗出料口的出料量越大，设置控料板在固定槽内可自由升降，防止有尺寸较大的破碎料在漏斗底部卡住。</t>
+          <t>本发明的目的在于提供一种球口弹性销及其生产方法，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种球口弹性销，包括本体，所述本体成圆柱形设置，且所述本体的外侧边缘处均设有螺纹槽口，所述本体的两端的端口处内径均变小。一种球口弹性销的生产方法，所述方法中使用冲床设备，且冲床设备包括叉口底座，且叉口底座的顶部开设有一出料口B、出料口A、成型槽C、成型槽B、成型槽A，且叉口底座的顶部从左至右依次设置有推尺前限位、多组滑块、滑块压、成型底座、剪口B，且剪口B的右侧固定连接有推尺，推尺的右侧设有推尺座，推尺座的顶部为一固定座；推尺前限位的顶部从背面至正面设有缩口推尺、缩口，且推尺前限位的正面连接有推尺针、推尺针的正面设有弹簧槽；冲床设备还包括一顶座，顶座的底部从上至下依次对应设有叉口、推尺顶、上攻B、上攻A、剪口A。</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{[26, 35],方法},{[41, 73],效果},方案优点</t>
+          <t>{[273, 277],部件},{[279, 280],位置},空间关系</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{[206, 210],数值},{[201, 202],属性},参数关系</t>
+          <t>{[60, 66],部件},{[90, 94],位置},空间关系</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{[334, 337],方法},{[339, 349],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>{[10, 22],方法},{[24, 38],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>{[146, 149],部件},{[152, 271],零件},部分关系</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>发明内容本发明的主要目的在于提供一种电机，以解决现有技术中电机工作时转子组件受到朝向叶轮前方的力影响电机的稳定性的问题。为实现上述目的，本发明提供了一种电机，包括：壳体，具有进风口；转子组件，设置在壳体内；力产生结构，设置在壳体上，电机工作时力产生结构对转子组件产生的作用力抵消转子组件受到朝向进风口的方向的力。本发明技术方案，具有如下优点：电机工作时，力产生结构对转子组件产生的作用力可以抵消转子组件受到朝向进风口的方向的力，保证电机的稳定性，维持电机长期稳定运行。</t>
+          <t>本发明的有益效果为：1.本发明中，旋转电机启动，通过带轮与皮带的配合，使旋转轴转动和连接台一起转动，连接台通过支撑柱带动旋转台转动，旋转台带动展示台转动，展示台缓慢转动，使展品旋转向客人展示，有利于展品的全面立体的展示，便于展示的使用。2.本发明中，通过液压缸的升降带动支撑板和安装板一起升降，使安装板上的部件一起升降，进而控制展示台的升降，有利于调整展示台的高度，便于升降台的使用。3.本发明中，将展品的宣传手册或单张放置在放置槽内，为参观者了解展品信息，通过显示屏可以向参展者提供展品的电子信息，有利于展品的宣传使用，便于参观者进一步的了解展品信息。</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{[87, 89],部件},{[99, 101],位置},空间关系</t>
+          <t>{[17, 83],方法},{[85, 116],效果},方案优点</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{[76, 77],部件},{[82, 83],零件},部分关系</t>
+          <t>{[203, 209],部件},{[213, 216],位置},空间关系</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{[183, 186],方法},{[219, 221],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>{[91, 94],部件},{[99, 101],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[125, 158],方法},{[183, 190],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>更进一步地，第一连接部的宽度小于第一石墨烯带和传感部的宽度。更进一步地，在第二石墨烯带和传感部之间设有第二连接部，第二连接部的材料为石墨烯。更进一步地，第二连接部的宽度小于第二石墨烯带和传感部的宽度。</t>
+          <t>本发明的目的就是针对现有技术存在的不足，提供一种高韧性弯管的铸造工艺，本发明的铸造工艺得到的铸件韧性好，成本低，能够成型结构复杂的铸件，具有良好的推广价值。优选地，本发明中所述钢水中各成分的要求为：所述铁水中各成分的质量分数为，C0.57%，Mn1.18%，S0.05%，P0.06%，Si0.13%，Ni0.09%，Alt0.09%。本发明的铸造工艺得到的铸件韧性好，成本低，能够成型结构复杂的铸件，具有良好的推广价值。</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{[6, 10],数值},{[27, 28],属性},参数关系</t>
+          <t>{[168, 170],方法},{[179, 209],效果},方案优点</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{[76, 80],数值},{[82, 83],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>{[0, 2],方法},{[8, 76],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{[114, 166],数值},{[108, 111],属性},参数关系</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种电子式漏电开关脱扣装置，解决了上述背景技术中提出的问题。（二）技术方案为实现以上目的，本发明通过以下技术方案予以实现：一种电子式漏电开关脱扣装置，包括脱扣装置本体，所述脱扣装置本体左侧的两端均设置有卡扣件，所述脱扣装置本体左侧的两端均开设有滑动槽，所述滑动槽的内腔竖直固定连接有滑杆，所述滑杆的表面套设有滑套，所述滑套的表面固定连接有连接套，所述连接套的左侧固定连接有连接块，所述连接块与卡扣件粘合连接，所述脱扣装置本体左侧的两端均开设有与连接块相适配的开口,所述滑杆的表面套设有弹簧，所述弹簧的两端分别与滑动槽和连接套固定连接。可选的，所述脱扣装置本体包括两个外壳，两个外壳之间设置有多个弹性球，两个外壳相对的一侧均开设有与弹性球相适配的多个凹槽，所述弹性球通过树脂胶与外壳粘合连接。</t>
+          <t>本发明的目的在于提供一种植物饮料及其加工方法，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种植物饮料及其加工方法，包括下列原料平卧菊、荞麦、燕麦、桑叶、人参、炒白术、五味子、花生蛋白肽和富硒食用菌粉，其质量百分数为平卧菊55-65％、荞麦5-15％、燕麦5-15％、桑叶5％、人参1％、炒白术2％、五味子2％、花生蛋白肽5％、富硒食用菌粉5％。作为本发明的进一步优选方案：所述原料质量百分数最优方案为：平卧菊60％、荞麦10％、燕麦10％、桑叶5％、人参1％、炒白术2％、五味子2％、花生蛋白肽5％、富硒食用菌粉5％。与现有技术相比，本发明的有益效果是：采用本发明的植物饮料及其加工方法，其中所使用的炒白术具有健脾益气，燥湿利水，保肝，抗溃疡、止汗，安胎，提高免疫力的功效，抗氧化、延缓衰老，且平卧菊主要功效为滋养身体、补钙、抗病毒、消炎止痛，因此具有丰富的药用价值，保养功效显著，且成品为粉末状，可随时冲泡，使用携带均非常便捷。</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>{[216, 218],部件},{[203, 210],位置},空间关系</t>
+          <t>{[292, 307],方法},{[389, 428],效果},方案优点</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{[27, 42],方法},{[44, 58],效果},方案优点</t>
+          <t>{[8, 15],方法},{[24, 31],效果},方案优点</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{[327, 329],部件},{[316, 321],位置},空间关系</t>
+          <t>{[122, 185],数值},{[116, 120],属性},参数关系</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -2396,29 +2390,26 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于克服现有技术中的缺点与不足，提供一种高效的袖套热转印装置，其可连续、高效地在多件袖套上转印图案，且印刷图案牢度均匀。为了达到上述目的，本发明是通过以下技术方案实现的：一种高效的袖套热转印装置，包括机台、设置在机台上的预热组件和转印组件。所述预热组件，其包括设置在机台上的转台及设置在机台下方的伺服电机，所述伺服电机的输出轴连接转台，并驱动转台旋转；所述转台的顶部沿着转台的周向均匀竖向开设有若干安装槽，该安装槽内可拆卸地安装有袖套套筒，且所述安装槽的深度足以让所述袖套套筒插入一半到安装槽内；所述转台的侧壁上横向开设有若干个转印孔，每个转印孔与一个所述安装槽对应，且每一个转印孔均与对应的所述安装槽连通。""</t>
+          <t>本发明的目的是提供一种潮汛浮岛，整体呈“曰”字形设计，浮床单元的同侧采用固定装置八字形固定，减小浮岛的迎风面，减小风浪的影响，增强浮岛的稳定性和安全性，使浮岛能随着潮水上下起伏，达到不管来自什么方向的水流、季风，浮岛都能实现流不动、飘不走的目标。为解决上述技术问题，本发明提供了一种潮汛浮岛，包括若干个浮床单元和固定装置，所述若干个浮床单元呈“曰”字形排列，每个浮床单元包括浮床框体、若干个并列设置的浮床床体和浮床基质，所述若干个浮床床体通过连接绳连接，所述连接绳固定在所述浮床框体上，所述浮床床体外包裹有网片，所述浮床床体上设有若干个通孔，所述浮床基质嵌装在所述通孔内，所述浮床基质内生长浮床植物；所述固定装置有若干组，每四组固定装置固定四个浮床单元，四组固定装置分别设置在四个浮床单元的两侧，同侧的两组固定装置呈八字形排布，所述固定装置包括单齿锚、连接扣和缆绳，所述连接扣固定在所述浮床单元上，所述缆绳的一端固定在连接扣上，另一端固定在所述单齿锚上，所述单齿锚包括锚轴、锚栓和锚齿，所述锚轴的一端套设在所述锚栓上，所述锚齿为L形，其竖直端固定在所述锚轴上，横向部与所述锚轴之间设有支撑板。具体地，所述潮汛浮岛还包括人工鱼</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>{[274, 276],部件},{[258, 265],位置},空间关系</t>
+          <t>{[139, 144],部件},{[146, 159],零件},部分关系</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{[30, 39],方法},{[42, 68],效果},方案优点</t>
+          <t>{[445, 446],部件},{[467, 494],位置},空间关系</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{[110, 128],部件},{[97, 106],零件},部分关系</t>
+          <t>{[7, 14],方法},{[46, 87],效果},方案优点</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2426,29 +2417,26 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种防伪磁性彩印涂料的喷涂设备。本发明的有益效果为：1、提高了工作效率。2、本防伪磁性彩印涂料的喷涂设备，在固定罩内设置了两个加热灯，对所需喷涂的物件进行初步烘干，加速整个工作的效率，同时余温还提高了固定罩内的温度，可防止存料箱涂料凝固。</t>
+          <t>为了解决上述现有技术存在的问题，本发明的目的在于提供一种具有自发光功能的园林景观灯及其制造方法，该灯具发光亮度较高、发光时间长，可用于广场、公园等景观的装饰。为了达到以上目的，本发明采用如下技术方案：一种具有自发光功能的园林景观灯，包括发光灯体2以及用于支撑该发光灯体2的灯座1，其特征在于，所述发光灯体2由蓄能自发光材料制成，所述蓄能自发光材料包括按以下重量份配比的各组分：蓄能自发光粉50～70份透明树脂15～30份固化剂8～15份填料5～10份。所述的蓄能自发光粉是由荧光粉和蓄光粉按照质量比1:1混合并且在氮气保护下经过800℃、2h热处理后的物质。</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>{[91, 95],部件},{[84, 87],位置},空间关系</t>
+          <t>{[28, 46],方法},{[51, 62],效果},方案优点</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{[32, 44],方法},{[58, 64],效果},方案优点</t>
+          <t>{[229, 234],部件},{[238, 243],零件},部分关系</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{[124, 125],方法},{[139, 147],效果},方案优点</t>
+          <t>{[95, 98],方法},{[102, 108],效果},方案优点</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -2456,29 +2444,26 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>进一步地，所述供电端具有第二整流滤波装置、逆变器以及第二拓扑补偿电路，串联于外部电源与发射线圈装置之间，并根据主控制器的控制产生高频交变磁场。进一步地，所述电动载运工具端设有第一无线收发装置，供电端设有第二无线收发装置，用于实现主、从控制器之间的无线通信。进一步地，所述发射线圈装置采用利兹线缠绕的线圈，将高频交流电转变为高频交变磁场。</t>
+          <t>优选的，所述柜体外壳底端的拐角位置处皆焊接有支撑脚座。优选的，所述遮挡门体的表面焊接有推拉把手。优选的，所述防尘顶盖的内部安装有换气板。</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>{[78, 84],部件},{[89, 94],零件},部分关系</t>
+          <t>{[43, 46],部件},{[33, 39],位置},空间关系</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{[7, 9],方法},{[62, 69],效果},方案优点</t>
+          <t>{[64, 66],部件},{[54, 60],位置},空间关系</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{[135, 140],方法},{[158, 166],效果},方案优点</t>
+          <t>{[22, 25],部件},{[6, 17],位置},空间关系</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2486,73 +2471,84 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>此发明内容针对现有技术中的缺陷，本发明提出了一种带有颅钻的定位臂，通过将定位臂与颅钻结合在一起，以此通过本方案的定位臂，能够在大小鼠头部实验手术过程中，同时完成定位与钻孔，无需手动进行标记，整个流程方便准确迅速；且操作简便，能有效缩短手术定位钻孔时间；通用性强，可安装在市面上绝大多数大小鼠脑立体定位仪上使用。具体的，本发明提出了以下具体的实施例：本发明实施例公开了一种带有颅钻的定位臂，应用于动物的脑区实验，包括：颅钻、用以进行定位的定位固定组件；其中，所述定位固定组件设置有可松紧的连接套；所述颅钻通过套接在所述连接套内并被所述连接套紧固的方式，实现与所述定位固定组件的可拆卸连接。在一个具体的实施例中，所述颅钻包括：驱动杆、钻头；其中，所述驱动杆可拆卸连接所述钻头，以驱动所述钻头转动。在一个具体的实施例中，所述驱动杆包括:钻头连接杆、导向管、主电机、壳体、滑座、内螺纹管、螺杆、进给电机、控制器、导轨；所述钻头连接杆可拆卸连接所述钻头；所述壳体的前端设置有所述导向管；所述钻头连接杆被容纳在所述导向管内；所述钻头连接杆的后端连接所述主电机的电机轴；所述主电机的后端连接所述滑座的前侧；所述壳体内沿长度方向设有多条导轨</t>
+          <t>解决的技术问题针对现有技术的不足，本发明提供了一种便捷式休息拐棍，其体积较小，降低空间限制，出行较为轻便美观，且降低绊倒老人可能性，减少安全隐患。优选的，所述限定机构包括限定钮、限定弹簧和外螺纹螺帽，所述限定弹簧的一端与限定钮连接，限定弹簧套装在外螺纹螺帽外侧所述，限定钮的螺纹端与支撑轴顶底两端或者上支撑杆顶端连接，所述上支撑杆底端和下支撑杆顶端以及上支撑杆顶端均设置有两组限位豁口。优选的，所述坐布设置为0.111mm厚的二级碳纤维布。</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>{[19, 46],方法},{[61, 153],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+          <t>{[85, 98],部件},{[79, 82],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>{[116, 120],部件},{[123, 129],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{[204, 210],数值},{[213, 218],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>{[25, 31],材料},{[39, 71],效果},材料优点</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种铣床加工气阀锥面工装，以至少解决现有技术中舰船气阀锥面加工时存在的阀杆校调时间较长，工作效率较低的技术问题，同时能够解决现有技术中舰船气阀锥面加工时存在的对使用加工的刀具要求很高。分析可知，与现有技术相比，本发明的优点和有益效果在于：一、本发明在使用过程中更方便，数据更精确，还能缩短工期；总体上体现了便捷、精度高等优点。二、本发明在结构稳定、数据精确的前提下，主体结构灵活多变，可应对不同直径的阀杆，总体上体现了便捷、精度高等优点。</t>
+          <t>本发明旨在至少在一定程度上解决相关技术中的技术问题之一。实际应用时，皮托管制造时仅需要按图纸尺寸加工，并对准气流方向，在使用时不需要人工再进行调整皮托管位置和调整皮托管对准气流方向，测量结果不会受人工因素影响。在实际使用中，流量测量既省时，测量精度又好。</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>{[214, 215],方法},{[170, 172],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+          <t>{[34, 89],方法},{[91, 103],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>{[105, 110],方法},{[112, 125],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{[0, 2],方法},{[7, 26],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>发明内容（一）解决了目前抛光装置不能够有效的抛光瓷器内部的问题。（二）技术方案为实现上述抛光板距离大小可调，可对任何瓷器的面进行抛光且抛光装置可防止碎片飞出伤害人体目的。（三）有益效果与现有技术相比，本发明提供了一种可以抛光产品内壁的陶瓷加工用抛光装置，具备以下有益效果：1、可以抛光瓷器的曲面或者内壁的效果。2、稳定固定瓷器的效果。</t>
+          <t>在其中一个实施例中，采用沉积工艺于所述凸起结构的侧壁及所述介质层的上表面形成阻挡层包括：于所述凸起结构的侧壁、上表面及所述介质层的上表面形成阻挡材料层；去除位于所述凸起结构的上表面的所述阻挡材料层以形成所述阻挡层。在其中一个实施例中，所述阻挡材料层的厚度为40nm～80nm。通过上述技术方案，阻挡材料层的厚度沉积达到40nm～80nm使得阻挡材料层在去除部分凸起结构时不易坍塌。在其中一个实施例中，采用化学机械抛光工艺去除所述凸起结构上表面的所述阻挡材料层。</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>{[44, 46],方法},{[72, 81],效果},方案优点</t>
+          <t>{[159, 167],数值},{[147, 154],属性},参数关系</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{[117, 125],方法},{[157, 162],效果},方案优点</t>
+          <t>{[200, 209],方法},{[210, 229],效果},方案优点</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{[12, 15],方法},{[22, 27],效果},方案优点</t>
+          <t>{[76, 97],方法},{[99, 105],效果},方案优点</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2560,125 +2556,134 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明的目的在于克服现有技术的缺点和不足，提供一种毛丝、断头少，性能高的生产涤纶长丝的方法。为了实现上述目的，本发明提供的技术方案是：一种高性能涤纶长丝，其特征在于，所述涤纶长丝的原料包括：废弃聚对苯二甲酸乙二醇酯的重量比为74-77％、玻璃纤维的重量比为20-30％、软化剂的重量比5-7％，二甘醇的重量比为2.1-4％、二氧化钛的重量比为0.5-0.8％。优选地，所述废弃聚对苯二甲酸乙二醇酯为废弃的聚对苯二甲酸乙二醇酯瓶的碎片。</t>
+          <t>所述的滑行轨道上设有限位装置以固定行走门吊在船舶调遣时的位置。所述的船的尾部设有全回转推进系统。所述的垂向支撑架设有吊梁以适用于起吊长形的结构件。</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>{[180, 187],数值},{[176, 178],属性},参数关系</t>
+          <t>{[10, 13],部件},{[3, 7],位置},空间关系</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{[164, 169],数值},{[176, 178],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>{[58, 59],部件},{[51, 55],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{[40, 46],部件},{[34, 37],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>优选的，所述挡板与所述防护环为一体化结构。优选的，所述限位板与所述连接环为一体化结构。优选的，所述耐高温纤维编织层具体为玄武岩纤维。</t>
+          <t>发明内容发明目的:由于青蒿素产业产值过剩，供大于求，导致青蒿素原材料价格下降，为了一改青蒿素产业颓势，本发明从青蒿素下脚料中提取精油可大提高青蒿素产业价值。用水蒸气蒸馏法将挥发油提取出来。中称取青蒿素下脚料约100g，将其放置于圆底烧瓶中，加入500ml水，利用水蒸气蒸馏法将挥发油提取出去。将待处理的污水厂废水中加入加入反硝化聚磷菌；将所述减磷处理水进行第二次缺氧处理，去除剩余的含磷氧化物，得到缺氧待处理出水；将所述缺氧待处理出水进行富氧处理，去除含氮氧化物，得到硝化液和富氧处理污泥；</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>{[27, 29],部件},{[33, 35],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+          <t>{[104, 107],数值},{[97, 102],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>{[9, 24],方法},{[26, 37],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{[210, 222],方法},{[224, 243],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>发明内容本发明要解决的技术问题是：克服现有技术的不足，提供一种高效除尘装置。该除尘装置结构简单，方便实用，除尘效率高，既保证了回收下来的粉尘材料的充分利用，又将作业环境中的粉尘降到最低。本发明所述的高效除尘装置，由重力沉降室、一级净化系统和二级净化系统组成；重力沉降室通过管路与一级净化系统中的反应塔相连，一级净化系统中的反应塔通过管路与二级净化系统中的填料塔相连；一级净化系统中的反应塔底部与第一管路相连，碱性物料添加池上部与第二管路相连，第一管路与第二管路汇合后通过第三管路延伸至反应塔内部。第三管路上等距设置喷淋装置。重力沉降室进气口与进气管道相连，重力沉降室内下部设置集尘斗。一级净化系统包括反应塔、储水池、碱性物料添加池和循环泵。储水池通过管路与反应塔底部相连，管路上设置循环泵。碱性物料添加池内为氢氧化钠溶液。填料塔内设有填料层和多个滤水板，滤水板为2-3个，且等距设置在填料层的上方。填料层是陶瓷散堆填料，陶瓷散堆填料是十字环、花环、多面空心球或扁环陶瓷散堆填料中的一种。</t>
+          <t>进一步地，所述步骤S2中，强压处理的区域为待处理棱线两侧各10mm范围内。进一步地，所述步骤S2中，强压数值为0.1mm。进一步地，所述步骤S1中，覆盖件外板为翼子板时，待处理棱线主要包括翼子板的轮罩处棱线。</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>{[107, 125],部件},{[99, 104],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
+          <t>{[29, 32],数值},{[21, 27],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>{[94, 96],部件},{[98, 102],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{[55, 59],数值},{[50, 51],属性},参数关系</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>发明内容为解决上述技术问题，本发明提供一种低重金属含量再生稻二茬的种植方法，其特征在于，在第一茬稻穗收割后，向稻田土壤表面撒施重金属钝化剂，所起的作用是缓和地降低稻田土壤的酸性和提高土壤的pH值，可在如一年以上时间抑制土壤中镉的溶出浓度和降低水稻植株对镉的吸收量。</t>
+          <t>优选的，所述把手的一侧开设有电池槽，所述电池槽内设有蓄电池，所述电池槽的一侧内壁上铰接有槽盖，所述槽盖与电池槽的开口相适配。优选的，所述螺杆远离方形块的一端延伸至腔体内并固定安装有限位块。优选的，所述第一夹板与第二夹板相互靠近的一侧均固定安装有橡胶防滑垫。</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>{[64, 68],材料},{[89, 96],效果},材料优点</t>
+          <t>{[122, 126],部件},{[100, 115],位置},空间关系</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{[64, 68],材料},{[83, 87],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>{[90, 92],部件},{[68, 77],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{[14, 16],部件},{[6, 10],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>优选的，所述的一种量子云平台前端开发方法中针对电路编程的量子门进行操作，重新划分量子门的存储数组，对存储数组进行遍历，将存储数组展示成QASM代码格式，使用svg进行前端的布局渲染。一种量子云平台前端开发系统，包括编辑模块、解析模块及布局模块，编辑模块进行前端页面电路编程的同时，对语言编程进行编辑生成QASM代码，解析模块将QASM代码解析成前端代码，布局模块针对前端代码在前端页面上使用svg进行前端的布局渲染。优选地，所述的一种量子云平台前端开发系统中编辑模块通过相应操作改变QASM代码修改前端页面，布局模块重新对前端页面使用svg进行前端的布局渲染。</t>
+          <t>作为本发明的一种优选技术方案，所述弹簧伸缩板与固定板内部传动连接，所述锥形卡接软体通过粘粘与弹簧伸缩板外表面固定连接。作为本发明的一种优选技术方案，所述弹簧伸缩板与固定板内部传动连接，所述锥形卡接软体通过粘粘与弹簧伸缩板外表面固定连接。作为本发明的一种优选技术方案，所述锥形卡接软体为硬塑胶卡接板，所述安装孔贯穿固定板的内部。</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>{[9, 19],方法},{[86, 89],效果},方案优点</t>
+          <t>{[35, 40],部件},{[46, 53],位置},空间关系</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{[217, 227],方法},{[258, 264],效果},方案优点</t>
+          <t>{[151, 153],部件},{[156, 161],位置},空间关系</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{[93, 103],方法},{[203, 206],效果},方案优点</t>
+          <t>{[94, 99],部件},{[105, 112],位置},空间关系</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -2686,125 +2691,134 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>发明内容为解决上述技术问题，本发明提供了一种引导型人体感应渐亮渐灭LED灯光控制装置，包括多个调节光源驱动器、人体红外传感器和光源，极大的减少了光源对人眼的刺激，保护了眼睛的健康。另外，避免了设备的安装对装修美观的破坏。</t>
+          <t>作为本发明的一种优选技术方案，所述防护网的数量为若干组，且若干组防护网呈环状等距分布。作为本发明的一种优选技术方案，所述毛刷的形状为圆柱长条状，且毛刷的表面设有软毛。作为本发明的一种优选技术方案，所述连接杆的横截面形状为“L”型，且连接杆的表面为光滑平面。作为本发明的一种优选技术方案，所述滑轮和滑杆的数量为两组，且两组滑轮和滑杆以底座滑槽的水平中心线呈轴对称安装。</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>{[22, 41],部件},{[45, 53],零件},部分关系</t>
+          <t>{[80, 81],部件},{[73, 77],位置},空间关系</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{[63, 64],方法},{[66, 79],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>{[154, 155],数值},{[145, 149],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{[24, 26],数值},{[17, 19],属性},参数关系</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>前述的一种弹性针织布料的拼接方法中，所述步骤b中热压的温度为178℃。前述的一种弹性针织布料的拼接方法中，所述步骤b中热压的时间为15～25s。前述的一种弹性针织布料的拼接方法中，所述步骤a中的聚氨酯为片状。</t>
+          <t>为解决上述背景技术中存在的问题，本发明提出一种齿链，其可用于大型齿轮的制造过程中，可以降低大型齿轮的制作难度，节约大型齿轮的制造成本。本发明实现上述功能的技术方案是：一种齿链，其特殊之处在于：包括齿单元、连接片和连接板；所述齿单元的数量为多个，所述齿单元包括第一齿节和第二齿节，所述连接片上设有第一销孔和第二销孔；所述第一齿节通过第一销钉与连接片铰接，所述第一销钉穿过第一销孔；所述第二齿节通过第二销钉与连接片铰接，所述第二销钉穿过第二销孔；所述第一销孔和第二销孔均为长圆形孔；相邻两个齿单元之间通过连接板进行连接，所述连接板上设有第三销孔和第四销孔，所述第三销孔和第四销孔均为长圆形孔；相邻两个齿单元中，其中一个齿单元的第二销钉穿过连接板上的第三销孔，另外一个齿单元的第一销钉穿过连接板上的第四销孔。另外，本发明还提出一种齿条与齿链啮合式三辊卷弯成形大直径齿轮的方式，其工艺流程相对简单、成形精度，可节约大型齿轮的制造成本。</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>{[40, 50],方法},{[59, 60],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+          <t>{[354, 383],方法},{[385, 411],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>{[19, 24],方法},{[41, 65],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{[83, 86],部件},{[96, 108],零件},部分关系</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种缩小占用空间的多功能服装设计台，具备操作平台可旋转、放置台可移动，高度可调节，废料收集方便、夹具适用范围广等优点，解决了一些现有设备的放置台影响工作，高度不适合多人群使用，没有废料收集装置、夹持装置适用范围小的问题。（二）技术方案为实现上述操作平台可旋转、放置台可移动，高度可调节，废料收集方便、夹具适用范围广的目的，本发明提供如下技术方案：一种缩小占用空间的多功能服装设计台，包括安装板，所述安装板的上部活动连接有转轴，转轴的外侧套接有转动板，转动板的右侧固定连接有垂直支撑板，垂直支撑板的左侧固定连接有工具箱，工具箱的内部固定连接有隔板，转轴的外侧且位于活动板的上部套接有操作平台，操作平台的顶部固定连接有第一伸缩杆，第一伸缩杆的顶部上固定连接有第二伸缩杆，第二伸缩杆的内部螺接有螺纹杆，螺纹杆的顶端固定连接有旋钮，螺纹杆的底端固定连接有压板，安装板的底面固定连接有支架内筒，支架内筒通过螺栓固定连接有支架外筒，支架外筒通过连接块固定连接有废料箱。优选的，所述安装板设置有与转轴适配的安装孔，利用安装孔将转轴安装在安装板内部。优选的，所述安装板的内部设置有</t>
+          <t>本发明目的是为解决全息近眼显示器出瞳小和计算时间长的问题，而设计的一种全息平面混合近眼显示系统。本发明的目的是通过以下技术方案来实现的：一种基于光波长范围大出瞳快速计算的全息平面混合近眼显示系统，该系统包括：眼球跟踪单元、点光源、准直透镜、偏振分束器、四分之一波片、相位型空间光调制器、面光源、平面显示器、波长分光膜、透镜、带孔的波长分光膜和目镜。所述眼球跟踪单元用于跟踪视觉中心的方向，根据视觉中心的方向把待显示图像分成视觉中心区域和视觉外部区域，全息显示的图像视觉中心区域为通过待显示图像的视觉中心区域全息计算得到的全息图，视觉外部区域的灰度值设为0，得到的图像用相位型空间光调制器显示；平面显示的图像只有视觉外部区域显示和待显示图像一样，视觉中心区域的灰度值设为0，得到的图像用平面显示器显示。</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>{[374, 376],部件},{[363, 370],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+          <t>{[68, 96],部件},{[104, 172],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>{[194, 223],方法},{[278, 294],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{[33, 46],方法},{[7, 27],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>优选的，所述燕尾西服的内部设有多个纽扣，且纽扣均匀分布成三排。优选的，所述燕尾的上方缝有固定带，固定带的上方设有固定孔。优选的，所述西服前布的外部安装有拉链a，所述所述西服前布的内部设有保温层槽，保温层槽位于透气孔a的下方，保温层槽内部放置保温材料a。</t>
+          <t>本发明针对现有技术的不足设计提供了一种粉末挤压制备高致密度细晶钛合金的方法，其目的是以氢化钛为主要原料，利用简单工艺制备高致密钛合金。该方法工艺简单，成本低，产品力学性能优异，适用范围广。本发明的目的是通过以下技术方案来实现的：该种粉末挤压制备高致密度细晶钛合金的方法包括以氢化钛和相应的中间合金粉末为原料，通过冷等静压制备粉末压坯，其特征在于：该方法包括：利用氢气/氩气混合气氛烧结，制备含氢的钛合金粉末烧结坯；对含氢钛合金粉末烧结坯进行热挤压，再对挤压后的合金进行真空热处理，得到脱氢的钛合金坯料。进一步，对含氢的钛合金粉末进行烧结的工艺参数为：烧结温度为1000～1450℃，保温时间为1～4h，气氛中氢气体积分数为10～100％，其余为氩气，升温速率为3～20℃/min。进一步，氢化钛和相应的中间合金粉末粒度为100～500目。</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>{[6, 9],部件},{[17, 18],零件},部分关系</t>
+          <t>{[17, 36],方法},{[52, 65],效果},方案优点</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{[48, 50],部件},{[52, 53],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>{[275, 367],数值},{[255, 267],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{[17, 36],方法},{[70, 92],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机械配件装载运输箱，以解决上述背景技术中提出的传统的传统的搬运箱需要大量频繁的开关抽屉，增加工人的劳动量，降低搬运效率的问题。为实现上述目的，本发明提供如下技术方案：一种机械配件装载运输箱，包括底座，所述底座的顶端的两侧的开设有滑槽，且滑槽内嵌设有滑块，所述滑块的顶端焊接在装载箱的底端，所述装载箱的外端皆铰接有伸缩杆，且伸缩杆的外端皆铰接在活动板的内端上，所述活动板的底端铰接在底座的两侧，所述活动板的顶端皆铰接有上端盖，右侧所述上端盖内侧的顶端轴承连接有圆柱，且圆柱的外壁上焊接有卡销，所述卡销的左端卡合在卡块内部，所述卡块焊接在左侧上端盖内侧的顶端，所述装载箱内部设置有格栅板，所述装载箱和格栅板配合围成槽室，且槽室的底端开设有开口槽，所述开口槽内部的两侧的皆铰接有夹板，且夹板的外端皆连接有弹簧，所述弹簧的外端皆焊接在开口槽的内壁上。优选的，所述装载箱的数量设置为对称的三组，下侧两个所述装载箱顶端的边缘皆开设有另一滑槽，且滑槽内皆嵌合有另一滑块，另一所述滑块的底端皆焊接在上侧装载箱的底端的边缘。</t>
+          <t>优选的，所述刀刃板外侧壁面上均设有刀片，所述刀片是横截面为梯形刀刃，相邻两组梯形刀刃之间形成V型的凹槽。优选的，所述刀头前壁面中间位置开设有顶孔，所述顶孔为矩形的孔，所述刀头前方设置有定位锥，所述定位锥是横截面为梯形的圆台，所述定位锥后端固定连接有固定矩形柱，所述定位锥通过固定矩形柱插接在刀头的顶孔内部。优选的，所述定位锥侧壁面处固定安装有四个侧刀，所述侧刀将定位锥外圆等分四份，所述定位锥前壁面开设有固定圆孔，所述固定圆孔为圆形的槽口，所述定位锥前端设置有钻头，所述钻头为横截面为三角形圆锥。</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>{[428, 429],部件},{[408, 421],位置},空间关系</t>
+          <t>{[70, 71],部件},{[58, 66],位置},空间关系</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{[304, 306],部件},{[294, 300],位置},空间关系</t>
+          <t>{[17, 18],部件},{[6, 13],位置},空间关系</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{[12, 24],方法},{[27, 77],效果},方案优点</t>
+          <t>{[171, 174],部件},{[159, 165],位置},空间关系</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -2812,29 +2826,26 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机械配件钻孔用碎屑清理装置，以解决上述背景技术中提出的钻孔时，碎屑飞溅，使清理较为麻烦的问题。为实现上述目的，本发明提供如下技术方案：一种机械配件钻孔用碎屑清理装置，包括机体和连接块，所述机体右侧底端焊接有支架，所述支架表面套装有套筒，且套筒左侧焊接有连接板，所述连接板左侧有物流板，所述物流板左右两侧皆被第二连接杆贯穿，所述第二连接杆上端焊接有推板，所述第二连接杆底端焊接有推杆，所述机体左侧底端螺纹安装有连接块，且连接块底端焊接有第一套壳，所述第一套壳底端内嵌有第二套壳，且第二套壳底端内嵌有第三套壳，所述第三套壳底端内嵌有第四套壳，且第四套壳底端焊接有第五套壳，所述第五套壳左右两侧皆焊接有限位板，两组所述限位板中部和第五套壳左右两侧皆被第一连接杆贯穿，所述第一连接杆上端焊皆焊接有限位块，所述第一连接杆底端皆焊接有抵压槽，所述第一连接杆表面皆套装有弹簧。优选的，所述物流板表面开设有两组腰形孔，所述物流板表面开设的两组腰形孔内壁直径与第二连接杆的表面直径相等。</t>
+          <t>进一步，所述的左侧压圈与右侧压圈通过螺纹与丝杠连接。进一步，所述的丝杠上设有扳手。进一步，所述的套筒另一端设有手柄。</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>{[359, 362],部件},{[346, 354],位置},空间关系</t>
+          <t>{[12, 15],部件},{[4, 10],位置},空间关系</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{[413, 415],部件},{[401, 407],位置},空间关系</t>
+          <t>{[55, 56],部件},{[45, 52],位置},空间关系</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{[12, 28],方法},{[31, 61],效果},方案优点</t>
+          <t>{[38, 39],部件},{[30, 35],位置},空间关系</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -2842,248 +2853,237 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了克服现有技术的不足，提供了一种实验用大鼠观察装置。本发明是通过以下技术方案实现：本发明提供了一种实验用大鼠观察装置，该实验用大鼠观察装置包括底座。在上述实施例中，本申请有效减少与大鼠的直接接触，减少抓捕对大鼠的影响，也降低了实验过程中操作人员被大鼠咬伤的机率，而且本申请采用透明的观察箱便于观察，封堵板上的过尾缝方便大鼠尾部外露，并将大鼠的尾部固定在封堵板上，以使气囊导管及大鼠尾部外露，方便对气囊导管进行注气。</t>
+          <t>针对上述问题，本发明提供一种汽车电动尾门弹簧的加工工艺。一种汽车电动尾门弹簧的加工工艺，至少包括选料、机械成型、回火、端面磨削、去毛刺、电泳、植绒工序。所述回火工序包括三道回火处理，第一道回火处理后，对弹簧进行压并处理，在弹簧处于压并状态下进行第二道回火处理，然后释放弹簧并进行电泳处理后，再次对弹簧进行压并处理，在弹簧处于压并状态下进行第三道回火处理。进一步的，所述第一道回火处理的温度为300-350℃，时长30-40min；所述第二道回火处理的温度为120-135℃，时长25-35min；所述第三道回火处理的温度为110-125℃，时长40-50min。进一步的，弹簧采用超高抗拉强度的FDSiCrV级别钢丝制成；所述电泳涂层厚度≤0.2mm。</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>{[75, 80],部件},{[83, 84],零件},部分关系</t>
+          <t>{[297, 307],材料},{[290, 295],效果},材料优点</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{[166, 168],部件},{[161, 164],位置},空间关系</t>
+          <t>{[84, 89],部件},{[91, 175],零件},部分关系</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{[28, 36],方法},{[97, 108],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>{[150, 155],方法},{[156, 159],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>{[180, 190],方法},{[194, 218],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[39, 42],部件},{[48, 74],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决背景技术中的问题，而提出的一种景区停车场用节能道闸。在上述的景区停车场用节能道闸中，位于所述安装槽后端的地面上固定安装有配合承重板使用的减速带。在上述的景区停车场用节能道闸中，所述第一弹簧和第二弹簧均采用不锈钢材质的复位弹簧。</t>
+          <t>优选的，所述扣座的外表面开设有与所述扣柱相适配的扣槽。优选的，所述提柄的下端设有第二连接片，且提柄通过第二连接片与所述盒盖活动连接。优选的，所述提柄的外表面固定套接有防滑套，且防滑套为橡胶套。</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>{[117, 121],材料},{[123, 124],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
+          <t>{[83, 85],部件},{[72, 77],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>{[24, 25],部件},{[6, 11],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{[40, 44],部件},{[33, 37],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种服装生产用可以自动收衣服的晾衣装置，具备自动收取衣物且不会出现拉拽衣服领口或者袖口等优点，解决了现有技术中人工收衣物耗时耗力且有可能会影响衣物产品质量的问题。（二）技术方案为实现上述自动收取衣物且不会出现拉拽衣服领口或者袖口等目的，本发明提供如下技术方案：一种服装生产用可以自动收衣服的晾衣装置，包括支架，所述支架上活动安装有传动杆，传动杆的右边固定安装有操控装置，传动杆上固定安装有均匀分布的连接杆，连接杆的下端通过螺纹杆螺纹连接有椭圆基座，椭圆基座的左右端均通过转盘活动连接有支撑杆，支撑杆的相背面且靠近转盘的位置转动连接有转动杆，椭圆基座的下端固定安装有挡板，支架底部的右端固定安装有阻挡装置，支架底部左右端分别固定安装有第一脚架与第二脚架，第二脚架的左端固定安装有支撑板，支撑板的顶部固定安装有摩擦杆，摩擦杆上固定安装有均匀分布的凸块，支撑板的下端固定安装有第三脚架优选的，所述连接杆的下方开设有与螺纹杆对应的螺纹槽，椭圆基座可以通过螺纹连接的方式连接在连接上，方便以后的拆卸。优选的，所述挡板与支撑杆之间固定连接有弹簧，在椭圆基座经过阻挡装置时，阻挡</t>
+          <t>为解决上述背景技术中提出的问题。本发明提供了一种煤矿滚筒采煤机，具有具备较好开采效率和根据煤矿层情况有更多调节性的特点。为实现上述目的，本发明提供如下技术方案：一种煤矿滚筒采煤机，包括采煤机本体、采煤机本体上安装的滚筒以及滚筒表面上的第一破碎头，滚筒的一侧通过螺栓固定连接有第一衔接层，第一衔接层异于滚筒的一侧设置有第二衔接层，第一衔接层与第二衔接层外部均环形分布有第二破碎头，第一衔接层和第二衔接层表面上与第二破碎头相对应的位置处一体成型有转环，第二破碎头与转环之间设置有连块，转环的内部开设有转槽，第二破碎头通过连块和转槽与转环相连接。优选的，第二衔接层的表面上设置有连接块，连接块与第二衔接层为一体式结构，第一衔接层内部与连接块相对应的位置处开设有卡槽，第二衔接层和第一衔接层通过连接块和卡槽相连接。</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>{[31, 48],方法},{[50, 109],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+          <t>{[274, 278],部件},{[280, 281],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>{[82, 88],部件},{[92, 121],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{[19, 30],方法},{[32, 58],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>优选的，所述过滤块的底部安装在沙土层的右侧下方，水从沙土层流向右侧过滤井时经过过滤块的过滤。优选的，所述螺旋桨的偏心轴上连接有连杆二，连杆二的顶部连接在齿轮的前侧偏心轴上，螺旋桨转动时通过连杆二可带动齿轮转动。优选的，所述空腔内位于蓄水池的左侧上端与空腔的连接处安装有空气筒，活塞和单向阀门二均安装在空气筒内，空气筒的右侧开设有孔。</t>
+          <t>本发明针对现有技术的不足设计提供了一种粉末锻造制备高致密度细晶钛合金的方法，其目的是以氢化钛为主要原料，利用简单工艺制备高致密钛合金。该方法工艺简单，成本低，产品力学性能优异，适用范围广。本发明的目的是通过以下技术方案来实现的：该种粉末锻造制备高致密度细晶钛合金的方法包括以氢化钛和相应的中间合金粉末为原料，通过冷等静压制备粉末压坯，其特征在于：该方法包括：利用氢气/氩气混合气氛烧结，制备含氢的钛合金粉末烧结坯；对含氢钛合金粉末烧结坯进行一次等温模锻，再对锻造后的合金锻件进行真空热处理，得到脱氢的钛合金锻件。进一步，对含氢的钛合金粉末进行烧结的工艺参数为：烧结温度为1000～1450℃，保温时间为1～4h，气氛中氢气体积分数为10～100％，其余为氩气，升温速率为3～20℃/min。进一步，氢化钛和相应的中间合金粉末粒度为100～500目。</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>{[7, 11],部件},{[19, 22],位置},空间关系</t>
+          <t>{[12, 36],方法},{[42, 65],效果},方案优点</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{[52, 58],部件},{[63, 65],零件},部分关系</t>
+          <t>{[114, 165],方法},{[98, 112],效果},方案优点</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{[138, 144],部件},{[150, 153],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
+          <t>{[280, 372],数值},{[274, 277],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>{[12, 36],方法},{[70, 92],效果},方案优点</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的，在于提供一种可搭设在农业用棚架上增加空气对流的具可拆装的排风装置。为解决上述问题，本发明提供一种具可拆装的排风装置，是搭设在农业用棚架上，借以增加空气的对流，借此，可以产生温度的调节作用，进而达到农作物可以顺利生长的目的，当不需要使用时，并方便自该农业用棚架上拆卸下来。</t>
+          <t>所述的起重机构包括：至少一套行走门吊、驱动装置和制动锁紧装置，其中：行走门吊设置于滑行轨道上，驱动装置设置于行走门吊的下方，制动锁紧装置设置于滑行轨道上。所述的行走门吊包括：吊具、垂向支撑架和水平横梁，其中：垂向支撑架和水平横梁组成倒U字形桁架主体，吊具位于水平横梁上。所述的水平横梁上设有与吊具配合的行走车以调整起吊位置。所述的驱动装置为油缸，其中：油缸的一端与垂向支撑架的底端相连，另一端通过插销与滑行轨道相连。</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>{[60, 67],部件},{[73, 78],位置},空间关系</t>
+          <t>{[182, 189],部件},{[176, 180],位置},空间关系</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{[35, 42],方法},{[82, 88],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>{[125, 126],部件},{[129, 133],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{[34, 37],部件},{[41, 45],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>明内容本发明的目的是为了解决现有技术中农民在利用喷灌方式时，要将利用车子将灌溉的工具运输至田间，然后将灌溉工具固定组装好，灌溉接结束时又需要将灌溉工具拆卸运回家，加大了农民的工作量，降低了灌溉的效率和固定在田间的灌溉装置在农民使用农用机械工作时，会影响农用机械使用的问题，而提出的一种农业智能自动化灌溉装置。为了实现上述目的，本发明采用了如下技术方案：一种农业智能自动化灌溉装置，包括水箱和放置仓，所述水箱的侧壁固定连接有高压水泵，所述高压水泵的进水口固定连通有出水管，所述出水管与水箱固定连通，所述高压水泵的出水口固定连通有排水歧管，所述放置仓的上表面开设有伸缩孔，所述伸缩孔内插接有喷水管，所述喷水管的下侧壁固定连通有连接管，所述排水歧管远离高压水泵的一端与连接管固定连通，所述喷水管的管壁固定连接有多个雾化喷水头，所述喷水管的下侧壁固定连接有左右对称前后放置的两个固定板，两个所述固定板通过连接轴转动连接有第一连杆，所述第一连杆远离固定板的一端开设有凹槽且通过连接轴转动连接有第二连杆，所述放置仓的内壁固定连接有左右对称前后放置的两个支撑板，两个所述支撑板通过连接轴与第二连杆远离第一连杆的一端固定连接，所述放置仓的后</t>
+          <t>本发明提出一种空调功率计量方法、功率检测电路及使用该方法的空调器，以提高空调功率计量的准确度。本发明提出一种空调功率计量方法，所述的功率计量方法针对空调每部分元器件的功率分别进行计算，提高计量精度。本发明中，针对空调外机功率的计量包括压缩机驱动板功率和电源整流桥功率。</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>{[263, 266],部件},{[250, 257],位置},空间关系</t>
+          <t>{[3, 14],方法},{[34, 45],效果},方案优点</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{[231, 233],部件},{[218, 225],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>{[211, 214],部件},{[201, 205],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[50, 61],方法},{[92, 97],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种防尘控温式电脑主机。为了实现上述目的，本发明采用了如下技术方案：一种防尘控温式电脑主机，包括主机箱，所述主机箱内安装有计算机主板，所述主机箱的侧壁开设有抽风槽，所述抽风槽的内壁上安装有抽风扇，所述抽风槽的内壁上开设有进风口，所述主机箱的侧壁开设有储水槽，所述储水槽的内壁上开设有加水口，所述储水槽内设有导管，且所述导管的进水端固定连接在抽风槽的内底部，所述导管环绕设置在计算机主板的侧壁上，所述导管位于储水槽内的部分侧壁开设有多个孔径极小的通孔，所述导管的出水端连通有单向回液管，所述单向回液管的出液口设置在储水槽的内底部。优选地，所述储水槽与抽风槽之间通过气槽连通，且所述气槽内安装有定时电磁阀，所述储水槽内嵌设有密封塞，所述导管的进水端固定连接在密封塞的上端，所述密封塞上还安装有细导管，且所述加水口位于密封塞的下方，所述导管的侧壁固定连接有与其内部连通的进水管，且所述进水管内安装有泄压阀。优选地，所述主机箱的侧壁开设有沉淀槽，所述导管的出水端与单向回液管的进液口分别设置在沉淀槽的两个相对内壁上，所述储水槽与沉淀槽之间连通有单向抽液管。本发明具有以下有</t>
+          <t>所述的行走门吊上设有吊具小车，其中：吊具小车设置于桁架主体底部。所述的行走门吊上设有全回转起重机，其中：全回转起重机设置于桁架主体上。所述的滑动轨道为T型轨道，包括：若干块U型滑块。</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>{[436, 438],部件},{[445, 447],零件},部分关系</t>
+          <t>{[52, 57],部件},{[61, 65],位置},空间关系</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{[114, 116],部件},{[124, 126],零件},部分关系</t>
+          <t>{[18, 21],部件},{[25, 30],位置},空间关系</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{[333, 335],部件},{[340, 342],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>{[210, 211],部件},{[220, 224],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[67, 73],部件},{[83, 89],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明提供了一种汽车的涡轮增压器。本发明提供一种汽车的涡轮增压器，包括机壳、涡轮轴、涡轮叶片、驱动单元和过滤装置，所述机壳设有与其内部连通的进风管和出风管，所述涡轮轴同轴设置在所述机壳内部，其一端与所述机壳的内壁转动连接，其另一端延伸至靠近所述进风管，所述驱动单元设置在所述机壳外，其驱动轴伸入所述机壳内，并与所述涡轮轴传动连接，所述涡轮轴的外周沿其周向均匀间隔设有所述涡轮叶片，所述过滤装置设置在所述出风管内，其用于过滤气体中的杂质。进一步地，所述过滤装置包括多个过滤板，所述过滤板为与所述出风管匹配的圆盘结构，且多个所述过滤板沿所述出风管的轴向间隔设置，所述过滤板上均设有过滤网。进一步地，所述过滤板设有两个。进一步地，所述机壳内设有消音装置，所述消音装置用于消除噪音。</t>
+          <t>优选的，所述进气箱内壁套接有一层过滤网，且进气箱面积大于出气网板。优选的，所述电机外部套接有一圈机罩，且机罩由隔热材质制成。优选的，所述电机带动的桨叶转动时会将冷却塔壳体内空气抽离。</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>{[79, 85],部件},{[68, 69],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+          <t>{[46, 49],部件},{[39, 42],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>{[69, 76],方法},{[80, 89],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{[16, 18],部件},{[7, 10],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>发明内容针对上述情况，为克服现有技术的缺陷，本发明提供一种可分解甲醛的汽车脚垫，有效的解决了目前市场上的汽车脚垫无法对甲醛进行分解，始终存在有害气体，威胁驾驶人员的身体健康、无法拆卸，局部损坏或产生污垢时，无法进行有效的清洗和更换的问题。为实现上述目的，本发明提供如下技术方案：一种可分解甲醛的汽车脚垫，包括硅胶壳层。与现有技术相比，本发明的有益效果是：1)、保证了该汽车脚垫在使用时可对甲醛进行分解，去除有害气体，安全环保，无二次污染；2)、保证了该汽车脚垫在使用时拆卸简单，局部损坏或产生污垢时，可以进行有效清洗和便捷更换。</t>
+          <t>针对上述现有技术存在的问题，本发明提供一种基于极化偏移的超前多层速度精细建模方法，能确定各个地层的实际速度，从而能建立准确的各个地层速度模型。为了实现上述目的，本发明采用的技术方案是：一种基于极化偏移的超前多层速度精细建模方法，该方法的具体步骤为：A、在隧道两帮中的任一帮沿巷道走向布设16个三分量检波器，16个三分量检波器相互之间的间距为2m且处在同一水平面，16个三分量检波器均与地震仪连接；在沿最后一个三分量检波器向后方10m的该帮上布置1个炮点；然后在该炮点向前方激发地震波，此时16个三分量检波器分别接收地震波信号，并传递给地震仪记录；B、对地震仪记录的每个三分量检波器采集到三分量地震信号利用拉冬变换提取三分量反射信号，然后根据反射信号同相轴确定反射界面层数；C、根据隧道施工已有的地层岩性资料确定首层界面后方速度v1的范围并对步骤B中确定的反射界面层数中第一层反射信号选取振幅最大位置及上下一个周期长度区域；D、以1m为边长二维网格化隧道掌子面前方的探测区，根据三分量反射信号振幅最大点计算第一层反射信号主极化参数，并在步骤C确定的速度v1范围内选取不同的速度v1值和选取的波组区间计算出极化偏移界面；E、利用</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>{[147, 150],部件},{[154, 157],零件},部分关系</t>
+          <t>{[28, 39],方法},{[41, 52],效果},方案优点</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{[29, 38],方法},{[254, 262],效果},方案优点</t>
+          <t>{[192, 194],部件},{[153, 161],零件},部分关系</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -3092,29 +3092,26 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种炭基有机肥造粒之前的高效除尘装置，具备有效除尘等优点，解决了现有技术中通过过滤袋吸附灰尘，无法清除原料内部灰尘的问题。（二）技术方案为实现上述高效除尘目的，本发明提供如下技术方案：一种炭基有机肥造粒之前的高效除尘装置，包括框架，所述框架的左边固定安装有电机，电机的右边转动连接有转动轴，转动轴的轴心固定安装有第一通风管，转动轴上固定安装有均匀分布的搅拌杆，搅拌杆的内部固定安装有第二通风管，搅拌杆远离转动轴的端面固定安装有弧形板，搅拌杆上固定安装有均匀分布的出风管，出风管上开设有均匀分布的出气孔，框架顶部的左端固定安装有入料口，框架顶部的右端固定安装有鼓风机，框架的右下端固定连接有吸风装置，框架的底端活动连接筛选板，筛选板的左端固定安装有固定杆，固定杆上开设有滑槽，筛选板的下端安装有造粒装置，造粒装置的左边通过支撑杆转动连接有转动轮，造粒装置底部的左右两端均固定安装有支撑脚架，造粒装置的下端且在支撑脚架之间固定安装有出料口。优选的，所述转动轴与框架的连接关系为转动连接，转动轴带动搅拌杆搅动框架里的原料，使其不断的被翻转，这样原料中的灰尘就会被翻转出来。</t>
+          <t>本发明针对现有技术的不足，提供一种阻燃防火电缆护套层及其制备方法，主要解决由于电缆橡胶护套层为了提高阻燃特性添加无机物颗粒，导致电缆护套结合力差，容易过早报废的问题。本发明通过以下技术手段实现解决上述技术问题的：一种阻燃防火电缆护套层，由内至外依次包括绝缘层、橡胶层I和橡胶层II，所述橡胶层II侧壁设置有多个透气孔。1、一种阻燃防火电缆护套层的制备方法，其特征在于：包括以下几个步骤，(1)原胶的制备：以重量份为单位，混合天然橡胶胶乳150～200份和丁苯橡胶60～100份，放入开炼机薄通3～5次，然后加入密炼机中，密炼温度75℃混炼3～4min；(2)石英石颗粒改性处理：对石英石进行粗粉碎成5～10cm的块状，然后球磨机精磨粉碎至粒度为500～800μm，放入浓度为0.1～0.2g/ml的NaOH溶液中90℃恒温搅拌3～4h，捞出洗涤至中性并烘干，将硅烷偶联剂KH550溶于甲苯溶液中制成改性液，将前述石英石颗粒放入改性液中，在90℃条件下恒温反应3～4h，反应结束后抽滤并干燥，得到改性的石英石颗粒；(3)橡胶料II的制备：以重量份为单位，将(1)得到的原胶160～200份依次加入硬脂酸2～4份、ZnO3～6份</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>{[157, 158],部件},{[147, 151],位置},空间关系</t>
+          <t>{[15, 31],方法},{[35, 81],效果},方案优点</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{[470, 494],方法},{[498, 510],效果},方案优点</t>
+          <t>{[106, 116],部件},{[118, 139],零件},部分关系</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{[31, 35],材料},{[50, 53],效果},材料优点</t>
+          <t>{[173, 176],方法},{[188, 191],效果},方案优点</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -3122,29 +3119,26 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>明内容针对现有技术存在的不足，本发明目的是提供电机转子压铸模具，以解决上述背景技术中提出的问题，本发明结构合理，方便电机转子压铸成型，便捷取出。为了实现上述目的，本发明是通过如下的技术方案来实现：电机转子压铸模具，包括下模座、上模座以及压铸机构，所述下模座上侧安装有上模座，所述上模座与下模座之间设置有压铸机构，所述压铸机构包括浇注口、拉环、中心轴、垫板、成型模具、型腔、底板、顶出口以及圆柱槽，所述下模座上侧安装有成型模具，所述成型模具内部下侧安装有底板，所述底板上端面中间位置安装有中心轴，所述中心轴上端面焊接有拉环，所述下模座上端面中间位置开设有圆柱槽，所述中心轴下侧嵌入至圆柱槽，所述中心轴与成型模具构成型腔，所述成型模具上端面安装有垫板，所述浇注口开设在上模座内部左右两侧，所述顶出口开设在下模座内部左右两侧。进一步地，所述顶出口内部安装有堵头。进一步地，所述浇注口呈喇叭状。进一步地，所述中心轴环形侧面下侧刻设有外螺纹，所述圆柱槽内环形侧面刻设有内螺纹，且内螺纹与外螺纹相啮合。进一步地，所述拉环外表面包裹有防滑软胶套。</t>
+          <t>优选的，所述步骤4中的松解液的注射量为1.5-3ml，所述松解液使用现有骨康宁松解液或者风痛宁松解液。优选的，所述步骤5中的通痹酊剂注射量为10-15ml，所述热敷贴选用现有的热敷贴。优选的，所述步骤4或5保证医疗时的无菌操作。</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>{[375, 376],部件},{[365, 371],位置},空间关系</t>
+          <t>{[19, 25],数值},{[15, 17],属性},参数关系</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{[21, 30],方法},{[33, 46],效果},方案优点</t>
+          <t>{[70, 76],数值},{[62, 68],属性},参数关系</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{[109, 121],部件},{[98, 105],零件},部分关系</t>
+          <t>{[96, 102],方法},{[109, 112],效果},方案优点</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -3152,24 +3146,21 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>明内容本发明一种依靠食物诱导式种猪测重设施解决了上述缺陷，采用长方形的磅板，在磅板底部的四个角分别垂直安装一个圆盘形的重力感应器、在每个重力感应器的底部分别安装一个螺旋形的平衡弹簧、四个重力感应器分别通过电源线与长方形控制盒内部的控制器连接，在磅板上面的左边安装长方形的食槽，在磅板上面的前边及后边分别垂直横向安装E型的栏杆，当饲养员需要对种猪进行测重时、饲养员双手紧握栏杆提起磅板将测重设施放入种猪的猪舍内、有食槽的一端挨着墙壁或护栏、然后饲养员将已称重的饲料倒入食槽中、再接通电源、待种猪自行走上磅板后开始采食、重力感应器将感应的数据提供给控制器、控制器将种猪的重量显示在显示屏上面。一种依靠食物诱导式种猪测重设施，其特征是包括，磅板、栏杆、重力感应器、食槽、电源线、控制盒、控制器、显示屏、平衡弹簧；所述磅板为轻型材料制成的长方形，底部的四个角分别水平设置了一个圆盘状的重力感应器、四个重力感应器的底部分别设置了一个螺旋形的平衡弹簧，上面的前边及后边分别横向垂直设置了一扇E型的栏杆，上面整体设置了一层长方形的橡胶防滑垫，上面的左边水平纵向设置了中空长方形的食槽、食槽的上方为开口；所述控制盒为中空长方形，前面设置了长</t>
+          <t>优选的，所述转动杆贯穿所述矩形通孔，所述转动杆与所述矩形通孔滑动连接。优选的，所述安装箱的顶部固定安装有垫板，所述垫板为软性橡胶材料。优选的，所述安装箱的顶部焊接有四个支撑杆，支撑杆与相应的限位杆固定连接。</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>{[298, 308],部件},{[317, 351],零件},部分关系</t>
+          <t>{[52, 53],部件},{[41, 46],位置},空间关系</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{[8, 20],方法},{[280, 292],效果},方案优点</t>
+          <t>{[82, 86],部件},{[73, 78],位置},空间关系</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -3178,29 +3169,26 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种精确控制钢帘线扭转波动的生产方法及其装置，在生产钢帘线时进一步提高钢帘线扭转稳定性。为达到上述目的，本发明的技术方案是：一种精确控制钢帘线扭转波动的装置，包括依次设置的放线工字轮、第一反向导轮、成绳辅助架、飞轮环、第二反向导轮、虚捻器、过线导轮、扭转探测轮、导轮、张力控制装置、收线装置。本发明所述的精确控制钢帘线扭转波动的生产方法，其包括如下步骤；1)放线，钢丝通过放线工字轮、恒张力放线；2)成绳，经两道反向轮、飞轮环、成绳辅助架，将钢丝加捻成钢帘线；3)扭转控制，通过扭转探测轮、虚捻器、张力控制装置配合，实现对钢帘线残余扭转的控制；期间，张力控制装置对钢帘线进行张力控制，过线张力控制在0.3～2kg；4)收线，将成品钢帘线均匀收在收线装置成品工字轮。</t>
+          <t>本发明的目的在于提供原煤自动取样器，该装置可以提高原煤取样的代表性，省去人工，避免安全隐患，结构紧凑，维护简单。为达到以上目的，提供以下技术方案：原煤自动取样器，其特征在于，结构包括传动机构、输送机构、行走机构、导轨，所述传动机构固定连接于输送机构的顶部，所述行走机构固定连接于输送机构的底部，所述导轨位于行走机构的底部，所述传动机构结构包括电机一、减速机一、皮带轮一、皮带、皮带轮二，所述电机一的左端与减速机一固定连接，所述减速机一的左端与皮带轮一固定连接，所述皮带轮二位于皮带轮一的正下方，所述皮带轮一与皮带轮二通过皮带相互连接，所述输送机构结构包括螺旋输送机、接料口、出料口，所述螺旋输送机的左端与皮带轮二固定连接，所述接料口固定连接于螺旋输送机的右端顶部，所述出料口固定连接于螺旋输送机的左端底部，所述行走机构结构包括电机二、减速机二、链轮一、链条、链轮二、支架、轮轴、行走轮、带座轴承组、支撑座，所述电机二的右端与减速机二固定连接，所述减速机二的底部与支撑座的顶部固定连接，所述支撑座是由钢板焊接而成的长方体，所述支撑座位于支架的内部，且固定连接于支架底部的上平面，所述支架为一定长度的方钢管焊接而成的架体，所述螺</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>{[16, 35],方法},{[38, 56],效果},方案优点</t>
+          <t>{[355, 360],部件},{[363, 401],零件},部分关系</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{[313, 319],数值},{[308, 309],属性},参数关系</t>
+          <t>{[8, 16],方法},{[23, 54],效果},方案优点</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{[100, 158],部件},{[78, 91],零件},部分关系</t>
+          <t>{[73, 79],部件},{[91, 126],零件},部分关系</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -3208,29 +3196,26 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>明内容针对现有技术存在的不足，本发明目的是提供大角度斜槽电机绝缘结构，以解决上述背景技术中提出的问题，本发明结构合理，便于大角度斜槽电机绝缘结构进行提升。为了实现上述目的，本发明是通过如下的技术方案来实现：大角度斜槽电机绝缘结构，包括转子主体、铁芯、轴承、转轴、绝缘组件以及电刷，所述转子主体内部装配有转轴，所述转轴环形侧面装配有铁芯，所述转轴右侧装配有轴承，所述转轴左侧装配有电刷，所述转子主体内部设置有绝缘组件，所述绝缘组件包括线圈、橡胶套、聚氯乙烯管套、密封胶、塑料托环、防滑纹、热塑管以及接线头，所述转轴环形侧面左侧设有防滑纹，所述转轴左侧装配有塑料托环，所述电刷右侧装配有接线头，所述接线头环形侧面装配有热塑管，所述铁芯内部装配有线圈，所述线圈左右两侧装配有橡胶套，所述线圈外侧装配有密封胶，所述线圈外侧装配有聚氯乙烯管套。进一步地，所述橡胶套为弹性结构，所述橡胶套内侧嵌入在铁芯内部。</t>
+          <t>优选的，所述螺纹杆上开设有两段旋向相反的外螺纹，两个第一支撑板相互靠近的一侧分别开设有第一通孔，两个第一通孔的内壁上开设有相同的内螺纹，两段外螺纹与两段内螺纹相旋合，使得螺纹杆转动的同时可以驱动第一支撑板滑动。优选的，所述腔体的两侧内壁上对称固定安装有限位杆，两个第一支撑板相互靠近的一侧分别开设有第二通孔，两个第一支撑板分别与两个限位杆滑动连接，使得第一支撑杆得以滑动，防止第一支撑板转动。优选的，所述底座的顶部开设有第三通孔，且第三通孔与腔体相连通，所述第三通孔的内壁与支撑座滑动连接，使得支撑座得以升降。</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>{[5, 8],方法},{[74, 75],效果},方案优点</t>
+          <t>{[20, 22],部件},{[6, 9],位置},空间关系</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{[103, 113],部件},{[118, 138],零件},部分关系</t>
+          <t>{[125, 128],部件},{[111, 118],位置},空间关系</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{[374, 376],部件},{[393, 396],位置},空间关系</t>
+          <t>{[210, 213],部件},{[202, 206],位置},空间关系</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -3238,141 +3223,138 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供永磁电机转子保护装置，以解决上述背景技术中提出的问题，本发明结构合理，为永磁电机转子提供保护，避免磨损。为了实现上述目的，本发明是通过如下的技术方案来实现：永磁电机转子保护装置，包括电机壳、转子主体、保护机构以及电机轴。</t>
+          <t>进一步地，所述单向阀的出水端设有第三控制阀门，所述第三控制阀门设于单向阀和回灌井之间的供水管道上。进一步地，所述回灌井的出水端上设有第一出水阀，所述第一出水阀与自然回灌通路连通。进一步地，所述紊流装置为脉冲射流发生器。</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>{[30, 33],方法},{[71, 74],效果},方案优点</t>
+          <t>{[25, 30],部件},{[33, 47],位置},空间关系</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{[102, 111],部件},{[119, 122],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>{[66, 70],部件},{[56, 63],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>{[16, 21],部件},{[7, 13],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于，针对现有技术的上述不足，提出一种用于金属制品加工的激光切割装置。本发明的一种用于金属制品加工的激光切割装置，包括运输机构和对运输件上的工件进行切割的切割机构；所述运输机构包括第一运输件和第二运输件，所述切割机构设置在所述第一运输件和第二运输件之间，用于对处于第一运输件和第二运输件之间的工件进行切割，所述第二运输件上设有抵挡工件的抵挡机构。</t>
+          <t>本发明公布了一种铅基合金电池板栅的脱模剂配置熟成工艺,该发明内容由主要在配制工艺上进行了高温高压处理，首先将配方量的纯水、软木粉、聚乙烯醇和其它胶黏剂依次加入高压锅中，将上述材料搅拌至充分湿润、无干团，确保液面高度不超过高压锅规定的液面高度安全线，然后开火煮沸，当限压阀开始泄蒸汽时计时保持高温高压15～30min熟成过程。该发明工艺配制的脱模剂易喷涂，软木粉充分附着、耐磨耐用、抗高压、排气通畅等优点，浇铸过程产品的重量、厚度稳定性大幅提高，非常适用于高温重力浇铸的铅钙合金、铅锑合金、稀土合金等各类铅基合金板栅，能极其有效的减少板栅的气孔、裂纹等现象，同时能大幅度减少单位时间内的喷模次数，提高生产效率及提升产品质量。本发明是通过以下技术方案实现的：一种板栅浇铸用脱模剂及熟成工艺，由以下重量配比的物质组成，软木粉0.05-0.1％：聚乙烯醇0.03-0.07％；水玻璃0.03-0.07％；余量为纯化水。作为优选，所述的脱模剂量配比为：软木粉0.07％：聚乙烯醇0.05％；水玻璃0.05％；余量为纯化水。</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>{[114, 117],部件},{[123, 135],位置},空间关系</t>
+          <t>{[413, 415],部件},{[421, 454],零件},部分关系</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{[178, 181],部件},{[165, 170],位置},空间关系</t>
+          <t>{[170, 172],材料},{[173, 197],效果},材料优点</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{[60, 65],部件},{[87, 90],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>{[94, 97],部件},{[106, 110],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[35, 49],方法},{[6, 25],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术中的不足之处，本发明提供一种竹子合成板、加工装置及其加工工艺。为了达到上述目的，本发明技术方案如下：一种竹子合成板，包括多个凹凸板和多个圆柱销，所述凹凸板截面呈现底面凹槽凸字形，凹凸板下表面的凹槽与上表面的凸块轮廓相吻合，凹凸板上设有多个上下贯穿孔，所述圆柱销插入上下贯穿孔将多个凹凸板组合在一起。一种竹子合成板加工装置，包括钻孔装置，修型装置和机架；所述钻孔装置包括滑动板，电机，皮带轮，连座轴承，滑套和钻头，所述滑动板利用滑套设置于机架上，所述电机设置于滑动板中部，所述皮带轮设有多个，设置于滑动板上，所述皮带轮a设置于电机下方，所述连座轴承设有多个，设置于所述皮带轮两端，所述钻头设有多个，设置于下端连座轴承下方，位于滑动板外侧；所述修型装置包括进料口，浮动刀架板，送料滚筒，去节刀，定宽定厚刀和定型刀，所述浮动刀架板共两块，设置于机架上，分别位于进料口两侧，所述浮动刀架板两端分别设有弹簧，所述送料滚筒共六个，所述送料滚筒a与送料滚筒b设置于浮动刀架板上，所述去节刀设置于送料滚筒a与送料滚筒b中间，所述送料滚筒c与送料滚筒d设置于机架上，位于浮动刀架板右侧，所述定宽定厚刀设置于送料滚筒c与送料</t>
+          <t>为了解决上述技术问题，本发明提供一种具有防水性能的高强度电缆连接板结构，以解决现有的接线端子，接线触点外露，在使用中容易因为受潮造成线芯和铜片锈蚀，造成接触不良，同时现有的线缆在使用中，仅通过螺钉对线芯压紧，连接强度较差，同时接线过程需要旋转螺钉，操作较为复杂的问题。本发明一种具有防水性能的高强度电缆连接板结构的目的与功效，由以下具体技术手段所达成：一种具有防水性能的高强度电缆连接板结构，包括外壳体、保护套压紧下卡口、连接卡槽、连接卡块、密封台、手柄卡台、密封压紧板、保护套压紧上卡口、线芯压紧板、螺钉、压紧板滑台、压紧连杆、中间连杆、操作手柄和中间连接铜芯；所述外壳体顶部轴性连接有两组所述操作手柄；所述外壳体的左右两侧均通过四组所述压紧连杆铰链接有一组所述密封压紧板；内侧的两组所述压紧连杆均通过一组所述中间连杆与所述操作手柄铰链接；所述密封压紧板的底部滑动连接有一组所述线芯压紧板；所述外壳体的中部固定连接有一组所述中间连接铜芯。进一步的，同侧的两组所述压紧连杆为对称安装，所述外壳体、所述密封压紧板、所述压紧连杆共同构成双摇杆机构；</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>{[70, 80],部件},{[62, 66],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+          <t>{[466, 470],部件},{[442, 461],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>{[180, 194],部件},{[196, 280],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>{[14, 34],方法},{[36, 132],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>进一步的说，本发明所述的步骤4）中的平均值的求取方式为，根据每个岩心算出的岩心体积节理数，按其体积与岩心总体积的比值作为权系数加权求和取平均值。再进一步的说，本发明所述的平均值即为该场地的岩体体积节理数的平均值。本发明的有益效果是，解决了背景技术中存在的缺陷，一、通过岩心结构面的描述与计算判别地下埋藏较深的岩体的完整程度，能够解决现有技术中存在的缺陷，受外界影响条件小，操作简单；二、不需要额外成本，仅需对钻探取出的岩心进行描述、分析、计算。</t>
+          <t>针对上述问题，本发明的目的在于提供一种定向隔离的瓷嘴清洗机分放设备，具有可将焊线机瓷嘴进行定向的隔离分放，且分放过程中瓷嘴不易碰撞磕损的优点。本发明为实现技术目的采用如下技术方案：一种定向隔离的瓷嘴清洗机分放设备，包括支撑台，所述支撑台上转动连接有转轴，所述转轴的外侧固定套接有套筒，所述转轴外侧的左端固定套接有缓冲板，所述缓冲板的外侧与套筒通过连板连接，所述套筒的外壁上开设有三个均匀分布的出料口，所述支撑台的顶部固定连接有进料管，所述支撑台的内部且位于套筒的外侧固定连接有柔性垫，所述柔性垫的底部开设有与出料口对应的方孔，所述柔性垫的底部固定连接有出料管，所述出料管的下方安装有转轮，所述转轮的外侧固定连接有接收板，所述转轮的右侧安装有冲洗管组件，所述套筒的内部放置有瓷嘴主件。作为优化，所述套筒的内壁上设置有橡胶垫，以减少瓷嘴下落时的冲击力，所述缓冲板的右侧为弧形坡状，对从进料管内滑落的瓷嘴进行缓冲保护。</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>{[18, 25],方法},{[67, 70],效果},方案优点</t>
+          <t>{[90, 105],部件},{[109, 111],零件},部分关系</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{[106, 108],方法},{[116, 128],效果},方案优点</t>
+          <t>{[348, 359],方法},{[361, 372],效果},方案优点</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{[143, 160],方法},{[186, 189],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>{[376, 386],方法},{[388, 404],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>{[15, 32],方法},{[34, 69],效果},方案优点</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供改进型电机后盖，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，使用效果好。为了实现上述目的，本发明是通过如下的技术方案来实现：改进型电机后盖，包括电机后盖主体、便于安装拆卸机构以及安装网架，所述电机后盖主体内部右侧安装有安装网架，所述安装网架左侧设置有便于安装拆卸机构，所述便于安装拆卸机构包括卡紧弹簧、安装活动轴、施力杆、按压板、限位板、卡紧头、安装台以及导向块，所述电机后盖主体上下端面安装有按压板，所述按压板下侧连接有施力杆，所述施力杆左端面连接有安装台，所述安装台下端面安装有卡紧头，所述卡紧头左端面固定有导向块，所述卡紧头上端面连接有卡紧弹簧，所述按压板下侧固定有限位板，所述施力杆中间位置与电机后盖主体连接处安装有安装活动轴。进一步地，所述按压板下端面固定有连接架，所述连接架与施力杆连接处安装有活动杆，所述施力杆通过活动杆与连接架转动连接。进一步地，所述安装台安装在卡紧头上端面中间位置，所述安装台与施力杆连接处安装有转动轴，所述施力杆通过转动轴与安装台转动连接。</t>
+          <t>具体的，套筒为喇叭状结构。具体的，固定座与套筒为可拆卸式连接。具体的，千斤顶设置在工作台上。</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>{[367, 369],部件},{[356, 363],位置},空间关系</t>
+          <t>{[35, 37],部件},{[41, 44],位置},空间关系</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{[105, 125],部件},{[95, 101],零件},部分关系</t>
+          <t>{[4, 5],部件},{[7, 9],零件},部分关系</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{[414, 418],部件},{[422, 431],位置},空间关系</t>
+          <t>{[17, 19],部件},{[21, 29],位置},空间关系</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -3380,81 +3362,96 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种生物碳基有机肥除臭装置，具备操作简单、多层过滤、氧化除臭等优点，解决了除臭装置降解效果差、二氧化碳含量高、方法单一的问题。（二）技术方案为实现上述操作简单、多层过滤、氧化除臭目的，本发明提供如下技术方案：一种生物碳基有机肥除臭装置，包括壳体，所述壳体内部的底部设有凹形水槽，凹形水槽的凹陷处活动连接有抽拉柜，抽拉柜内壁的两侧均设有电热棒，抽拉柜的外侧设有接线口，抽拉柜的上方且壳体的内壁固定连接有环形水槽，环形水槽的内壁固定连接有圆锥过滤网，环形水槽左右两侧的凹陷处均设有回水管，环形水槽的上方且壳体内部的顶部固定连接注有支撑杆，支撑杆的底部固定连接有喷淋头，喷淋头的右侧固定连接有注水管，注水管贯穿壳体的右侧固定连接至凹形水槽的内部，注水管的底部且凹形水槽的底部固定连接有水阀，壳体的左侧固定连接有氧化箱，氧化箱内部的顶部固定连接有电动机，电动机的顶部活动连接有风扇，氧化箱内部的左右两侧均设有紫外线灯，氧化箱的底部贯穿固定连接有二氧化碳催化器，二氧化碳催化器的底部固定连接有排气管。优选的，所述凹形水槽内部为除臭剂水溶液，配合圆锥过滤网过滤除臭，同时清理圆</t>
+          <t>有鉴于此，本发明提出一种简单有效的非等距离全频音响扩声处理方法及系统。本发明的技术方案是这样实现的：一种非等距离全频音响扩声处理方法，包括以下步骤：步骤S1，获取主听位的位置；步骤S2，获取两组与主听位距离不等的全频音箱，距离主听位远的定义为第一组全频音箱，距离近的定义为第二组全频音箱；步骤S3，依据两组全频音箱的距离计算出延迟时间；步骤S4，对第二组全频音箱进行延迟时间的调节；步骤S5，获取第二组全频音箱的频率范围；步骤S6，对第二组全频音箱切除小于1000赫兹的中低频。作为所述非等距离全频音响扩声处理方法的进一步可选方案，所述依据两组全频音箱的距离计算出延迟时间，具体公式为：T＝(a-b)/344，其中，T表示为延迟时间，a表示为第一组全频音箱离主听位的距离，b表示为第二组全频音箱离主听位的距离。一种非等距离全频音响扩声处理系统，包括：位置采集模块，用于获取主听位的位置；距离获取模块，用于获取两组全频音箱与主听位的距离；计算模块，用于计算延迟时间；调节模块，用于对第二组全频音箱进行延迟时间的调节；频率获取模块，用于获取第二组全频音箱的频率范围；中低频切除模块，用于对第二组全频音箱切除小于1000赫兹的中低</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>{[32, 42],方法},{[64, 91],效果},方案优点</t>
+          <t>{[357, 370],部件},{[481, 487],零件},部分关系</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{[488, 493],部件},{[481, 486],位置},空间关系</t>
+          <t>{[50, 65],方法},{[71, 72],效果},方案优点</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{[164, 167],部件},{[155, 161],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+          <t>{[357, 370],部件},{[457, 462],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>{[357, 370],部件},{[375, 380],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>{[357, 370],部件},{[393, 398],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>{[27, 30],方法},{[17, 26],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>{[357, 370],部件},{[432, 435],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>{[357, 370],部件},{[418, 421],零件},部分关系</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于蓝光荧光材料具有半幅宽为约20nm的放射光谱，有助于多个产业别的发光应用。本发明的目的是由以下技术方案实现的。在本发明揭露内容的各种实施例中，此荧光材料以化学式表示为NaxKyEu1-x-yLi3SiO4，其中x为0.25至0.95的数值，y为0.01至0.85的数值。本发明的目的是由以下技术措施实现的。在本发明揭露内容的多个实施例中，x大于或等于0.35，但小于或等于0.85。在本发明揭露内容的多个实施例中，x为0.37、0.47、0.57、0.67、0.77或0.87。在本发明揭露内容的多个实施例中，y大于或等于0.05，但小于或等于0.65。在本发明揭露内容的多个实施例中，y为0.1、0.2、0.3、0.4或0.5。在本发明揭露内容的多个实施例中，x/y的比值为约0.45至约1.5。在本发明揭露内容的多个实施例中，x/y的比值为约约1.8至约6。在本发明揭露内容的多个实施例中，此荧光材料在波长约420nm的蓝光激发下，产生的放射光谱的波长范围为约450nm至约600nm，且该放射光谱在波长为约480nm至约490nm处具有一峰值。本发明与现有技术相比具有明显的优点和有益效果。"</t>
+          <t>本发明的目的在于提供一种电瓶车控制器防腐处理方法，以解决背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种电瓶车控制器防腐处理方法，所述一种电瓶车控制器防腐处理方法包括以下步骤：步骤一：将成型之后的控制器外壳利用砂纸对其表面进行打磨处理，随后将其表面打磨的粉尘进行水洗去除；步骤二：将步骤一水洗完成的外壳进行烘干处理，烘干过程中烘干温度为55-65℃，烘干至表面无水渍即可；步骤三：对步骤二烘干完成的外壳进行淬火处理，在淬火过程中淬火温度为860-880℃，淬火时间为3-5min，淬火之后将其放入水溶液中进行快速冷却；步骤四：将步骤三淬火完成的外壳进行烘干处理，烘干过程中烘干温度为45-50℃，烘干至表面无水渍即可；步骤五：配制防腐溶液，防腐溶液配置完成之后利用平面喷溅的方式喷溅在外壳的表面，所述喷溅厚度为50-100um，喷溅次数为3-5次，每次喷溅的过程中间隔3-5min；步骤六：喷溅完成之后将其表面进行烘干，烘干过程中温度设置为55-65℃，烘干过程中对其表面进行鼓风风干即可得到一种防腐电瓶车控制器。进一步的，所述步骤三中使用的水溶液为含量为5-8%的NaCl水溶液。进一步的，所述步骤五中防</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>{[25, 28],数值},{[30, 33],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>{[71, 72],方法},{[94, 95],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>{[12, 23],方法},{[26, 37],效果},方案优点</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>明内容本发明正是针对现有技术中存在的问题，提供一种矿山铲运机故障快速检测装置，该技术方案提供了一种矿山铲运机故障快速检测装置，对设备24小时在线检测，对检测出的结果定时上传，以解决现有技术中存在的问题。为了实现上述目的，本发明的技术方案如下，一种矿山铲运机故障快速检测装置，其特征在于，所述检测装置包括检测器装置、连接线、检测装置电源连接盒、无线发射天线，所述检测装置的电源接口通过电源线进入接线装置电源连接盒，无线发射天线连接检测装置上的无线发射天线接口。作为本发明的一种改进，所述检测装置电源连接盒上设置有电源接头、线管、与设备CAN连接头、电源保险、设备接线端子排、设备电源保险以及线路快速连接插头，所述检测装置的电源接口连接电源线、电源线进入检测装置电源连接盒，连接线通过线路快速连接插头进行连接，连接电源保险和设备接线端子排，设备电源保险给电源保险供电，CAN输入接口1号连接CAN连接线，CAN连接线进入检测装置电源连接盒，连接线通过线路快速连接插头进行连接，连接与设备CAN连接头、连接线采用线管进行保护，地线连接设备接线端子排，此连接实现电源供给和车辆信息连接。</t>
+          <t>为实现上述打磨产生的碎屑不划伤盘片、打磨的同时进行附磁的目的，本发明提供如下技术方案：一种利用电磁关系的非接触式电脑硬盘加工设备，包括支撑架，所述支撑架的表面滑动连接有伸缩杆，伸缩杆远离支撑架的一端滑动连接有气缸，支撑架的内部固定连接有壳体，壳体的内部固定连接有中空通道，中空通道的内部固定连接有气流槽，气流槽的表面活动连接有档持板，壳体的右侧固定连接有电磁机构，所述电磁机构包括电极板，电极板的表面调节有轴套，轴套的内部固定连接有气流通道，电极板远离壳体的一侧固定连接有喷嘴。本发明的有益效果是：1.通过将未打磨的盘片放置在对称的支撑架中心线处，启动气缸工作，气缸产生的气体进入壳体内，因为中空通道的开口小于气缸喷出气流的口径，所以气流在进入中空通道时被加压，被加压的气流经气流槽进入电磁机构内，当气流流动至喷嘴位置时，会将储存槽内的打磨混合材料抽吸出来，两者混合后与盘片表面接触，盘片在重力的作用下向下移动，当盘片脱离支撑架时刚好打磨完成，打磨产生碎屑被高压气流吹散并通过分离板进入电磁机构内，从而达到了打磨产生的碎屑不划伤盘片的效果。2.通过上述在打磨的同时，电极板会产生电流并在线圈的作用下产生磁性，对盘片被打磨过的</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>{[21, 85],方法},{[88, 99],效果},方案优点</t>
+          <t>{[43, 63],方法},{[5, 29],效果},方案优点</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{[255, 301],部件},{[242, 250],零件},部分关系</t>
+          <t>{[88, 90],部件},{[91, 98],位置},空间关系</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{[151, 176],部件},{[145, 148],零件},部分关系</t>
+          <t>{[251, 279],方法},{[315, 329],效果},方案优点</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -3462,51 +3459,53 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>发明内容为实现上述安装可进行调节、不用摩擦制动的目的，本发明提供如下技术方案：一种轨道机械吊车用防起热刹车设备，包括壳体，所述壳体的内部活动连接有滚轮，滚轮的表面固定连接有连杆，连杆的内部固定连接有弹簧，弹簧的表面活动连接有挤压管，弹簧的下端固定连接有风板，弹簧的上端固定连接有滑板，滑板远离弹簧的一侧固定连接有活塞杆，活塞杆的表面套接有波管，滚轮的内部固定连接有分割板，分割板的表面固定连接有磁板。本发明的有益效果是：1.通过启动驱动部件使滚轮在轨道的表面进行滚动，当需要制动时，可控制滚轮内部的磁板通电，因为磁板为环形放置，所以处于对称位置的滚轮会产生相斥的磁力，从而实现制动的作用，与此同时，在滚轮滚动的过程中，因为滚轮与轨道表面直接接触且摩擦产生一定的热量，当进行制动的时候，由于对称的磁板产生相斥的力，所以两者会在短暂时间内脱离轨道表面，滚轮离开轨道表面一段距离同时，会挤压弹簧，弹簧受到挤压向上移动推动滑板滑动，进而挤压波管，波管被挤压释放气体，气体从风板表面的风口排出，吹在轨道表面，从而达到了刹车不产热的同时对轨道表进行散热的效果；由于滚轮的数量是四个，且只有以轨道为中心对称的一组滚轮产生制动效果，另一组起</t>
+          <t>优选的，所述收纳槽的内侧内壁固定连接有立柱，所述固定座的内端表面开设有圆槽，所述圆槽与立柱相互对应且处于同一轴线。优选的，所述立柱的端部固定在圆槽的端口内部，所述立柱的端面与圆槽的顶部内壁固定连接有内弹簧。优选的，所述立柱的外侧环绕固定连接有外弹簧，所述外弹簧的端部固定在固定座的内端表面。</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>{[85, 87],部件},{[76, 80],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+          <t>{[121, 123],部件},{[109, 113],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>{[19, 20],部件},{[6, 11],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>{[74, 77],部件},{[63, 67],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>明内容本发明的目的在于克服现有技术中的缺点与不足，提供一种袖套的热转印装置，其可连续、高效地在多件袖套上转印图案，且印刷图案牢度均匀。为了达到上述目的，本发明是通过以下技术方案实现的：一种袖套的热转印装置，包括机台、设置在机台上的预热组件和转印组件。所述预热组件，其包括设置在机台上的转台、设置在转台中央的轴筒、设置在轴筒顶部的加强板、以及设置在机台下方的伺服电机，所述伺服电机的输出轴连接转台，并驱动转台、轴筒及加强板一体旋转；所述转台的顶部沿着转台的周向均匀开设有若干安装槽，该安装槽内可拆卸地安装有袖套套筒；所述转印组件，其包括横向设置在机台中部的转印机，该转印机的高温烫头朝向所述转台的轴心；该转印机底部设置有一燕尾滑块，该燕尾滑块与横向开设在机台上的燕尾滑槽相匹配；该转印机的与所述高温烫头相对的一侧连接有一气缸；所述转印机的两侧分别设置有一放卷架、一收卷架及若干导向架，导向架上设置有导向轮。</t>
+          <t>针对上述现有技术，本发明在于提供一种水稻种子晒场使用装置，基本能够使得原本位于上方的种子翻到下方，原本位于下方的种子翻到上方，晾晒均匀，降低劳动力。本发明的技术方案是这样实现的：一种水稻种子晒场使用装置，包括空压机、输气管、进料罩、分离盒和伸缩杆，所述进料罩内壁设有条形的气腔，所述气腔通过出气间隙连通至进料罩的内表面，所述气腔通过输气管和所述空压机连通，所述进料罩与水平面倾斜，进料罩和所述分离盒连通；顺着气流方向，所述分离盒的横截面大于所述进料罩的横截面；所述分离盒竖直放置，所述分离盒下方设有出料口，所述分离盒和伸缩杆连接。进一步的，所述分离盒底部设有第一滚轮，所述进料罩底部设有第二滚轮。</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>{[105, 123],部件},{[94, 101],零件},部分关系</t>
+          <t>{[89, 100],部件},{[102, 122],零件},部分关系</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{[252, 255],部件},{[241, 244],位置},空间关系</t>
+          <t>{[272, 274],部件},{[275, 276],位置},空间关系</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{[25, 36],方法},{[40, 65],效果},方案优点</t>
+          <t>{[14, 27],方法},{[29, 72],效果},方案优点</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -3514,55 +3513,53 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>发明内容为了解决上述问题，本发明提供了一种减震支撑座，主要包括：底座、套筒、支撑部、减震柱和支撑板。本发明提供的技术方案带来的有益效果是：结构简单，具有减震缓冲和高度调节的作用，具备实用性和适用性。</t>
+          <t>优选的，所述过滤笼的上端固定连接有上端开口的保护管，所述保护管内滑动连接有活塞，所述活塞与保护管的内管底之间固定连接有弹簧，所述活塞远离弹簧的一端固定连接有支撑柱，所述支撑柱的另一端穿过保护管的管口并固定连接有锥形的防护罩。优选的，所述第一下坡面上固定连接有导泥沙网板。优选的，所述活塞的环形侧壁上开设有活塞槽，所述活塞槽内套设有活塞环，所述活塞环的外环壁设置在保护管的内管壁上。</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>{[21, 25],部件},{[42, 44],零件},部分关系</t>
+          <t>{[129, 133],部件},{[118, 123],位置},空间关系</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{[69, 72],方法},{[91, 97],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>{[22, 24],部件},{[6, 11],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>{[152, 154],部件},{[141, 148],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种利用微生物发酵挥发水的速率控制的发酵装置，具备自动根据发酵时的温度调节湿度和温度等优点，解决了传统发酵时温度和湿度不好控制的问题。（二）技术方案为实现上述自动根据发酵时的温度调节湿度和温度等目的，本发明提供如下技术方案：一种利用微生物发酵挥发水的速率控制的发酵装置，包括发酵箱，所述发酵箱内部的顶部固定连接有导流板，所述导流板的下方活动连接有积水槽，所述积水槽的下方固定连接有导流管，所述导流管的外侧套接有积水弹簧，所述积水弹簧的下方与发酵箱之间固定连接有定位板，所述定位板的下方活动连接有中转水仓，所述中转水仓的内部固定连接有活动滑轨，所述中转水仓内部活动连接有活动杆，所述中转水仓的下方活动连接有控流弹簧，所述中转水仓的下方活动连接有进水管，所述进水管的下方活动连接有雾化喷头，所述发酵箱的右侧底部活动连接有活动门，所述积水槽的下方固定连接有承重杆，所述发酵箱内部的底部的右侧固定连接有风轨道，所述风轨道的内部活动连接有承重滑块，所述发酵箱内部的左侧活动连接有风扇。优选的，所述导流板与发酵箱有一定夹角，保证水分蒸发之后可以在导流板是凝结。优选的，所述导流管</t>
+          <t>作为优选，色谱柱的柱温设定为20～40℃，更优选为35℃。作为优选，检测波长为285～289nm，更优选为286nm。该方法专属性高、分析速度快、准确度好，重现性高，便于对丹酚酸A相关产品的质量检测及安全提供保障。</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>{[234, 237],部件},{[223, 230],位置},空间关系</t>
+          <t>{[14, 19],数值},{[5, 10],属性},参数关系</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>{[470, 483],方法},{[485, 501],效果},方案优点</t>
+          <t>{[39, 47],数值},{[34, 37],属性},参数关系</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{[26, 50],方法},{[75, 94],效果},方案优点</t>
+          <t>{[53, 57],数值},{[34, 37],属性},参数关系</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -3570,181 +3567,200 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种流水线服装生产印花装置，具备适用于流水线印花效率高，产品良品率高的优点，解决了传统服装印花效率低，良品率低的问题。（二）技术方案为实现上述适用于流水线印花效率高，产品良品率高目的，本发明提供如下技术方案：一种流水线服装生产印花装置，包括机体，所述机体的内部设有主动轮、从动轮和压轴，所述从动轮的正面活动安装有调节轮，所述压轴的下方固定安装有印花盘，所述机体的内部且位于印花盘的下方设有放置台，所述放置台的内部开设有放置槽，所述放置槽的内部设有转动体和压杆，所述放置台的两侧设有固定块，所述固定块远离放置台的一端活动连接固定杆，所述固定杆的顶端固定安装有固定盘，所述固定杆远离固定盘的一端活动连接伸缩杆，所述转动体的内部固定连接有连接轴，所述连接轴的正面固定连接有调节杆.</t>
+          <t>所述三维拖链上任意相邻的两个拖链节通过所述扣槽结构连接，其中在拖链节A上设有带扣槽的扣槽板，在拖链节B上设有带球状凸起的凸起板，且连接时所述球状凸起嵌入所述扣槽中。所述拖链接头设有通过所述锁扣结构相连的第一接头部和第二接头部，所述第一接头部设有第一锁扣板，在所述第一锁扣板上设有突出部，所述第二接头部设有第二锁扣板，且所述第二锁扣板与第二接头部本体之间形成一插槽，在所述第二锁扣板上设有通孔，连接时所述第一锁扣板插入第二锁扣板与第二接头部本体之间的插槽中，且所述突出部嵌入所述通孔中。所述管夹包括底座、夹圈、螺钉和螺母，所述底座与对应的拖链接头固连，在所述底座中部设有凸块，且所述螺钉穿过所述凸块，所述夹圈两端均安装于所述螺钉上且分设于所述凸块两侧，在所述螺钉尾端设有螺母。</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>{[27, 42],方法},{[68, 87],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
+          <t>{[42, 44],部件},{[31, 35],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>{[301, 302],部件},{[311, 323],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>{[101, 111],部件},{[84, 87],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>优选地，所述弓形杆两端口外端与抓杆连接，所述横杆与导向座连接。优选地，所述中部组件由若干个中间连接杆连接而成。优选地，所述中部组件由若干个中间连接杆螺纹连接而成。</t>
+          <t>优选的，所述螺纹杆上转动套设有位于螺纹槽外的定位板，且定位板固定安装在通孔的内壁上。优选的，所述通孔的底部内壁上开设有位于两个定位板之间的凹槽，且转轴的底端延伸至凹槽内，并固定套设有轴承，且轴承的外圈与凹槽的内壁固定连接。优选的，所述通孔的顶部内壁和底部内壁上均开设有限位槽，同一个滑杆的顶部和底部均固定安装有限位块，且四个限位块分别滑动安装在相对应的四个限位槽内。</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>{[61, 64],部件},{[74, 75],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+          <t>{[134, 136],部件},{[117, 129],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>{[69, 70],部件},{[48, 55],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>{[22, 24],部件},{[15, 20],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种消声器的组合式降噪结构，以解决上述背景技术中提出的传统的消声器降噪结构中组件与消音器难以分离，使得对消音器组件的检修工作十分麻烦的问题。为实现上述目的，本发明提供如下技术方案：一种消声器的组合式降噪结构，包括消音器壳体。与现有技术相比，本发明的有益效果是：1、实现了降噪组件的快速拆卸，间接方便了工人对降噪组件的检修工作，降低工人工作难度。2、实现了对消音器壳体内壁的清理工作变得顺利方便，保持消音器壳体内壁干净，间接提高消音效果。</t>
+          <t>作为本发明的一种优选技术方案，所述收缩杆的数量为两组，且两组收缩杆以外接杆的水平中心线呈轴对称安装。作为本发明的一种优选技术方案，所述固定套环的形状为圆环状，且固定套环的表面为光滑曲面。作为本发明的一种优选技术方案，所述弹簧的数量为若干组，且若干组弹簧呈直线等距分布。</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>{[110, 116],部件},{[120, 124],零件},部分关系</t>
+          <t>{[116, 118],数值},{[110, 111],属性},参数关系</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{[192, 198],方法},{[225, 230],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>{[88, 91],部件},{[80, 86],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>{[24, 25],数值},{[17, 19],属性},参数关系</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于，针对现有技术的上述不足，提出一种切割方便，效率高的金属板生产用的切割运输系统。本发明的一种金属板生产用的切割运输系统，包括传送带、切割机构、转移机构和运输机构。本发明的金属板生产用的切割运输系统通过传送带连续不断的传输金属板，在利用切割机构对其进行切割，在切割完后继续在传送带上进行运输，并由转移机构将切割后的转移至运输机构，运输机构将其运输至其他工位。</t>
+          <t>本发明的目的在于：为了解决现有的缩口封头测量误差大和操作较为不便的问题，而提出的一种缩口封头高度检测工具。为了实现上述目的，本发明采用了如下技术方案：一种缩口封头高度检测工具，包括测量杆以及测量杆外部设置的刻度线，还包括第一支架，所述第一支架的顶部中心处设置有固定壳体，所述固定壳体的内腔设置有竖直方向上的滑套，且滑套的两侧均设置有齿轮盘，所述齿轮盘的远离滑套的一侧固定有转动臂，且转动臂的延伸端贯穿固定壳体两侧开设的通槽延伸至其外部并通过转轴转动连接有夹持块。作为上述技术方案的进一步描述：两个所述齿轮盘的中心处均设置有传动轴，所述传动轴与固定壳体的前后表壁之间均通过轴承转动连接，且两个所述传动轴的其中一个贯穿固定壳体的前表壁与设置在固定壳体外部的驱动马达的输出轴传动连接。</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>{[65, 70],部件},{[83, 86],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+          <t>{[75, 86],部件},{[89, 105],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>{[36, 51],方法},{[11, 31],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>{[246, 252],部件},{[254, 256],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明提供了一种汽车内饰件的烘干装置。本发明提供一种汽车内饰件的烘干装置，包括筒体、多个加热单元和夹持件，其后端封闭设置，所述筒体水平设置，所述筒体的下端设有支架，多个所述加热单元均设置在所述筒体内，所述夹持件设置在所述筒体内，其与所述筒体滑动连接，在外力作用下，其可沿所述筒体的轴向移动至伸出所述筒体外，或收回所述筒体内，所述夹持件用于放置汽车内饰件，所述加热单元用于对所述筒体内部进行加热，所述筒体的前端可转动的安装有用以打开或关闭其的门板。进一步地，所述加热单元为加热管，其沿所述筒体的轴向设置，并沿所述筒体的周向均匀间隔的分布在所述筒体的上部。进一步地，所述加热管设有九根。进一步地，所述夹持件为矩形结构的槽体，其长度方向与所述筒体的轴向一致，其上端设有敞口，所述夹持件与所述筒体的内壁滑动连接。进一步地，所述夹持件的底壁上设有多个漏孔。进一步地，所述筒体两侧内侧壁上分别沿其轴向开有滑槽，所述滑槽的两端分别延伸至所述筒体的两端，所述夹持件后侧的两侧分别设有与所述滑槽相对应的滑块，每个所述滑块分别嵌入对应的所述滑槽内，并可带动所述夹持件沿所述筒体的轴向移动。进一步地，所述滑槽的横截面为“T”型，</t>
+          <t>本发明的主要目的在于提出一种视觉离线示教仪注册方法，其具体操作方法为：一、设计一个三维夹角工具，示教尖点可以顶到三维夹角工具顶端位置，当示教仪绕任意方向小幅度旋转时，保证示教尖点仍在同一位置；二、示教仪围绕三维夹角工具旋转n角度，n为任意角度，在旋转时示教仪主体每个位置保证尖点在同一个位置，每个角度位置利用双目重建系统来重建标志点阵列，以此得到n点云；三、对这上述n点云中的点云进行匹配，得出相对的外参参数，即旋转参数R和平移参数T；四、如果匹配成功则利用这些点云的匹配关系，拟合出尖点的精确位置，具体方法如下：设尖点位置为P(x,y,z),点云Set1和点云Seti的旋转关系为Seti＝*Set1.但同时满足P(x,y,z)＝*P(x,y,z),由于可以求出多组的.根据这些信息就可以用最小二乘法拟合出P(x,y,z)的值，进而求出尖点相对阵列的精确位置；五、如果步骤三匹配失败，则需要将匹配失败的点云剔除，然后重新再相似位置进行采集，直到凑够n幅能够正确匹配的点云，然后利用这些点云的匹配关系，拟合出尖点的精确位置，具体方法如下：设尖点位置为P(x,y,z),点云Set1和点云Seti的旋转关系为Seti＝*Set</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>{[48, 60],部件},{[35, 44],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
+          <t>{[336, 363],方法},{[365, 379],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>{[37, 65],方法},{[83, 94],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>{[100, 120],方法},{[169, 176],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>{[220, 248],方法},{[326, 335],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>{[383, 419],方法},{[437, 460],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>{[179, 193],方法},{[195, 203],效果},方案优点</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种具有隔热结构的防火阀，以解决上述背景技术中提出现有的防火阀不具备过滤结构和手动扳手易受热形变的问题。为实现上述目的，本发明提供如下技术方案：一种具有隔热结构的防火阀，包括阀体、滤网和手动扳手。与现有技术相比，本发明的有益效果是：1、解决了现有的防护阀的阀体内易沾染杂物的问题，保证了防火阀关闭时的密封性。2、解决了现有的防护阀的手动扳手在起火时易受热形变的问题，保证阀体再次利用时可以正常调节打开。</t>
+          <t>本发明的目的就是解决现有技术存在的上述不足，提供一种三通铸件的加工工艺，本发明的加工工艺得到的铸件尺寸精度高、表面粗糙度小、内部金属流动性好，其抗拉强度、耐磨性能、机械性能大幅提升。优选地，本发明中所述保护层的原料的主成分为表面活性剂和防锈剂。本发明的加工工艺得到的铸件尺寸精度高、表面粗糙度小、内部金属流动性好，其抗拉强度、耐磨性能、机械性能大幅提升。</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>{[95, 97],部件},{[107, 110],零件},部分关系</t>
+          <t>{[22, 34],方法},{[36, 89],效果},方案优点</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{[18, 25],方法},{[164, 166],效果},方案优点</t>
+          <t>{[122, 124],方法},{[135, 175],效果},方案优点</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{[18, 25],方法},{[189, 195],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>{[95, 97],部件},{[101, 102],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>{[95, 97],部件},{[104, 105],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[112, 120],材料},{[101, 102],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>发明内容本发明为解决上述问题，提供了一种2,2,2-三氟乙基己酸酯的制备方法。本发明制备方法简单，收率高。本发明为实现其目的采用的技术方案是：2,2,2-三氟乙基己酸酯的制备方法，包括以下步骤：以正己酸为原料，加入催化剂，升温至70-90℃，滴加三氟乙醇，1-2.5h滴毕，然后升温至回流，回流3-5h，冷却至室温，然后将反应液洗涤至中性，分液，有机相干燥，抽滤，常压蒸馏，收集153-154℃的馏分，得到2,2,2-三氟乙基己酸酯。进一步的，正己酸与三氟乙醇的摩尔比为1：(1.3-2.0)。进一步的，催化剂为H型离子交换树脂，H型离子交换树脂与正己酸的质量比为0.4-0.5:1。进一步的，催化剂为固体酸，固体酸用量为正己酸质量的0.9％-1.2％。进一步的，干燥时，选用硅胶或无水硫酸镁作为干燥剂进行干燥。本发明的有益效果是：本发明制备方法简单，三废少，收率高，利于工业化大批量生产和绿色环保理念"</t>
+          <t>本发明的目的在于提供一种纳米针状ZSM-11及其混晶分子筛的合成方法，以解决背景技术中提出的现有常规形貌ZSM-11分子筛晶体内微孔扩散路径过长的问题。为实现上述目的，本发明提供了一种纳米针状ZSM-11及其混晶分子筛的合成方法，所述纳米针状ZSM-11分子筛的合成方法的具体步骤为：步骤1、按照水/SiO2＝10～800、Si/Al＝3～800、模板剂/SiO2＝0.2～50和合成助剂1/SiO2＝0.2～50的摩尔配比，将硅源、铝源、无机酸、无机碱、模板剂、合成助剂1和蒸馏水调配成为合成液于水热合成釜中，在10～300℃和搅拌速率为60～900r/min的条件下老化处理0.1～150小时，然后降至室温，得到老化处理的合成液；步骤2、按照合成助剂2/SiO2＝0.2～100的摩尔比例，向老化处理的合成液中添加合成助剂2，然后密封水热合成釜，在100～200℃和搅拌速率为60～900r/min的条件下晶化24～300小时，随后冷却至室温，出料、洗涤、分离、干燥并焙烧，得到不同晶粒大小的纳米针状ZSM-11分子筛；所述步骤1合成液配置过程中，按照诱导晶种重量与合成液中硅源以SiO2计重量之间比例为0.05～0.3</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>{[282, 290],数值},{[278, 280],属性},参数关系</t>
+          <t>{[504, 511],数值},{[478, 502],属性},参数关系</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{[338, 345],材料},{[353, 354],效果},材料优点</t>
+          <t>{[8, 28],方法},{[36, 74],效果},方案优点</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{[15, 37],方法},{[8, 13],效果},方案优点</t>
+          <t>{[155, 160],数值},{[148, 153],属性},参数关系</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -3752,51 +3768,53 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的就是针对上述缺点，提供一种成本低的整箱感光材料板。本发明所采用的技术方案是：一种成本低的整箱感光材料板，包括箱体，所述箱体的四面内壁上均安装有减震板，减震板朝向箱体内壁的一侧两端分别与一根垂直于减震板的减震器的一端固定连接，减震器的另一端与箱体的内壁固定连接，减震器为弹簧减震器，在箱体内码放有多张感光材料板和纸张，感光材料板包括基板和基板上面的感光药液层，具有感光药液层的是感光材料板的正面，露出基板的是感光材料板的背面；其特征是：所述的感光材料板两张是一组感光材料板，成为感光材料板组，这两张感光材料板背面相向设置，相向设置的两张感光材料板之间没有纸张，所述的纸张具有中间是空洞的中空结构，相邻的感光材料板组之间加设一张纸张。进一步地讲，所述的纸张是90克单胶纸。本发明的有益效果是：这样的整箱感光材料板具有成本低的优点；所述的纸张具有中间是空洞的中空结构，还具有成本更低的优点；所述的纸张是90克单胶纸，具有保证纸张起到保护作用、并且成本低的优点。</t>
+          <t>本发明的目的就是提供一种农用机用曲轴的加工工艺，本发明的加工流程简单，加工精度高，能够满足客户的要求，同时降低操作人员的劳动强度，降低了生产成本，提高了生产效率。优选地，本发明中所述清洗剂的主要成分为表面活性剂。本发明的加工流程简单，加工精度高，能够满足客户的要求，同时降低操作人员的劳动强度，降低了生产成本，提高了生产效率，具有良好的推广和应用前景。</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>{[159, 163],部件},{[151, 153],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
+          <t>{[89, 93],部件},{[100, 104],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>{[106, 108],方法},{[110, 174],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>{[0, 2],方法},{[8, 79],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>发明内容为实现上述搅动水流使堆积物分离、增加氧气含量的目的，本发明提供如下技术方案：一种切割水流增加氧气含量的鱼菜共生装置，包括缸体，所述缸体的内部固定连接有种植层，种植层的内部固定连接有喂料管道，种植层的内部且位于喂料管道的表面固定连接有换水管道，种植层的底部固定连接有增氧机构，所述增氧机构包括支撑架，支撑架的表面固定连接有弹性囊，支撑架的内部活动连接有形变球，形变球的表面铰接有连杆，连杆远离形变球的一端活动连接有滚轮，形变球的表面固定连接有螺纹管。本发明的有益效果是：1.通过将鱼饵饲料经喂料管道投放进入缸体内，一部分饲料会进入螺纹管内，因螺纹管的下端为悬空放置，所以饲料在螺纹管内流动时，会带动螺纹管进行上下晃动，螺纹管晃动会带动增氧机构内的形变球相互挤压碰撞，两者碰撞的时候会释放其内部的氧气，与此同时，形变球会通过连杆带动滚轮在弹簧的限制下进行左右移动，滚轮左右移动的同时会拉动弹性囊发生形变，弹性囊被挤压会将之前释放出来的氧气带动到水中，从而达到了增加氧气含量的效果；设计多个移动方式的作用，是为了使水分进行不规则搅动，为下一步使堆积物分离做准备。2.通过上述螺纹管被饲料带动移动的同时，由于其观察缸体的内部</t>
+          <t>在一个优选地实施方式中，所述滤尘网的外围套有紧固垫圈，所述滤尘网上的磁铁片与衔铁片之间通过磁力吸附的方式相连接。在一个优选地实施方式中，所述保护外壳后表面的四个拐角位置处分别安装有一组支撑垫脚，所述支撑垫脚采用橡胶材质制作而成。在一个优选地实施方式中，所述保护外壳前方铰接安装有盖板。</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>{[79, 81],部件},{[67, 73],位置},空间关系</t>
+          <t>{[92, 95],部件},{[68, 83],位置},空间关系</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{[274, 284],方法},{[288, 351],效果},方案优点</t>
+          <t>{[22, 25],部件},{[12, 19],位置},空间关系</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{[358, 425],方法},{[432, 437],效果},方案优点</t>
+          <t>{[139, 140],部件},{[126, 133],位置},空间关系</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -3804,29 +3822,26 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>优选地，所述安装口的内壁粘接有防尘网，且防尘网尺寸与安装口内壁尺寸相适配。优选地，所述电器设备、散热扇、微型水泵、半导体制冷芯片、温度传感器和PLC控制器均通过导线连接有开关，且开关连接有外部电源。优选地，所述半导体制冷芯片吸热面朝向水箱内壁，且半导体制冷芯片散热面朝向水箱外壁。</t>
+          <t>为了简化探针的使用并降低探针数据的误差，本发明提出一种集成的探针诊断系统电路模块、诊断系统及诊断方法。本发明的技术方案如下：将Langmuir探针、Faraday探针以及发射探针三种静电探针的电路集成到一个模块上，使用时将探针电源、数据采集仪、探针以及地线通过带有屏蔽层的接口连接到本发明上，即可正常使用。通过手动开关可以调节档位，以适应不同参数范围的诊断需求。一种集成的等离子体探针诊断系统电路模块，其包括金属外壳、多个BNC接头、电路板，将电路板固定在所述金属外壳内部，金属外壳将模块内部与外界隔离开，所述电路板包括至少两个探针电路，每个探针电路具有与外壳固接的开关及多路电阻，通过开关调节档位，适应不同参数范围的诊断需求，将BNC接头的屏蔽层与金属外壳连接，以实现信号的全程屏蔽，所述BNC接头使用时分别与探针电源、数据采集仪、至少两种探针以及地线通过带有屏蔽层的接口相连接。</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>{[123, 125],材料},{[126, 127],效果},材料优点</t>
+          <t>{[181, 199],部件},{[202, 219],零件},部分关系</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{[43, 46],部件},{[80, 81],零件},部分关系</t>
+          <t>{[23, 49],方法},{[2, 18],效果},方案优点</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{[6, 8],部件},{[15, 17],零件},部分关系</t>
+          <t>{[101, 104],部件},{[63, 94],零件},部分关系</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -3834,55 +3849,53 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>进一步的，所述有机污染物是芳环有机污染物和染料。进一步的，所述芳环有机污染物为2-萘酚，所述染料是罗丹明B。进一步的，2-萘酚的初始浓度为400-600mg/L，罗丹明B的初始浓度为40-60mg/L。</t>
+          <t>本发明目的是提供一种高效汽车覆盖件模具顶料装置，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种高效汽车覆盖件模具顶料装置，包括顶料装置本体、模具座、下撑座、传动支承、顶料板，所述顶料装置本体置于模具座内部，且顶料装置本体由下撑座、传动支承以及顶料板组成，所述模具座的两内侧面顶端均固定设有若干缓冲块，且模具座的两内侧面上部均开有通孔，所述缓冲块对称均匀分布，具体数量为四个，且缓冲块的底端固定设有缓冲垫，缓冲块的下方均设有挡板，所述挡板的连接端面与穿过模具座侧面通孔的螺栓杆固定连接，且挡板的工作端面与顶料板侧端面固定设有的缓冲垫活动接触。进一步的，所述顶料板的顶端面对称均匀分布四个顶块销，且顶料板的两侧面与顶端面间圆弧过渡，顶料板的顶端面开有四个螺纹槽。</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>{[81, 84],数值},{[88, 89],属性},参数关系</t>
+          <t>{[292, 294],部件},{[296, 298],位置},空间关系</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{[59, 62],数值},{[66, 67],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>{[60, 74],部件},{[78, 100],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>{[6, 22],方法},{[24, 38],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种无结块易操作的有机肥装袋装置，具备无结块易操作的优点，解决了有机肥装袋有结块，装置不好操作的问题。（二）技术方案为实现上述无结块易操作的目的，本发明提供如下技术方案：一种无结块易操作的有机肥装袋装置，包括管体，所述管体的顶部开设有进口，所述管体的内部开设有通道，所述管体的底部固定安装有挂钩，所述管体的左侧活动安装有堵板，所述管体的内部且位于通道的右侧固定安装有弹性装置，所述弹性装置的顶部固定连接有受力板，所述管体的内部且位于通道的右侧开设有放置槽，所述管体的内部且位于通道的左侧固定安装有转轴，所述转轴的顶部固定安装有电动机，所述电动机的右侧固定安装有粉碎扇，所述电动机的顶部固定安装有开关，所述管体的左侧固定安装有供能箱，所述供能箱的底部远离通道的一侧固定安装有复位顶杆，所述供能箱的底部靠近通道的一侧固定安装有启动档杆。优选的，所述管体的上顶面有吸附装置。优选的，所述进口的直径小于通道的直径。</t>
+          <t>本发明使用滚片以及保护边组成滚筒，同时滚片与滚片之间的缝隙设置有过风网，可以一边加热一边通过空气流动的方式使中药材迅速干燥，而且有利于中草药的全面干燥，避免了中草药干燥不均的情况发生。3.本发明设计了液压伸缩杆以及旋转轴，因为桶内的大批量中草药不变取出，所以采用液压伸缩杆将机壳一边撑起，再通过出料台直接输送到输送机上，提高了生产效率，缩短了生产周期，节省了人工。5.本发明的风干机设置在地下，可以充分减少本发明的使用面积。</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>{[408, 411],部件},{[399, 406],位置},空间关系</t>
+          <t>{[32, 34],部件},{[19, 25],位置},空间关系</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>{[417, 423],数值},{[424, 425],属性},参数关系</t>
+          <t>{[36, 52],方法},{[53, 90],效果},方案优点</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{[212, 215],部件},{[192, 206],位置},空间关系</t>
+          <t>{[129, 158],方法},{[160, 180],效果},方案优点</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -3890,177 +3903,180 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>发明内容本发明的主要目的在于弥补现有技术的不足，提供一种能更有效地利用贵金属催化剂的体系或方法。具体地，本发明提出了一种膜电极组件，其特征在于，包括电解质膜、电极、以及微孔膜；所述电极由碳浆料涂覆基体而来，所述碳浆料包括可溶或可分散的贵金属催化剂的原子、配体化合物、络合物、复合物或基团；所述微孔膜位于所述电解质膜和所述电极之间，用于防止所述可溶或可分散的贵金属催化剂的原子、配体化合物、络合物、复合物或基团迁移到所述电解质膜。根据本发明一具体实施方式，所述贵金属催化剂的原子选自铂原子。根据本发明一具体实施方式，所述配体化合物中的配体选自氧、氮、硫或磷或它们的任何组合。根据本发明一具体实施方式，所述可溶或可分散的贵金属催化剂的原子、配体化合物、络合物、复合物或基团由氯化铂盐与醇在聚(二甲基硅氧烷)-聚(乙二醇)反应而来。根据本发明一具体实施方式，所述微孔膜的平均孔径为10-100nm。根据本发明一具体实施方式，所述微孔膜的平均孔径为10-25nm。根据本发明一具体实施方式，所述微孔膜选自聚醚砜。本发明还提出了一种微孔膜在燃料电池或氢气净化装置中的膜电极组件的应用，其特征在于，所述膜电极组件的电极由碳浆料涂覆基体而</t>
+          <t>本发明为克服上述情况不足，旨在提供一种能解决上述问题的技术方案。作为本发明进一步的方案：所述屏蔽门靠近地面一端通过锁紧螺钉固定连接有挡水板。作为本发明进一步的方案：所述屏蔽门的外表面均匀喷涂有多层防水耐磨涂料。</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>{[74, 87],部件},{[60, 64],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
+          <t>{[19, 30],方法},{[4, 11],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>{[66, 68],部件},{[46, 54],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>{[96, 103],部件},{[84, 90],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明提供一种装置简单、生产过程短、产品质量高的有色涤纶短纤维的制备方法。本发明采用的技术方案是：一种制备白涤纶短纤维的方法，其特征在于，包括以下步骤：(1)将废旧聚酯或瓶片加入高温高压反应器中，再加入降解剂以及乙二醇进行反应；(2)上述反应1.5分钟之后，用过滤器对熔体进行过滤，将过滤得到的纯净的低聚体送入聚合装置发生聚合反应；(3)将步骤(2)得到的聚合物送入混合器中，同时加入炭黑母粒，与聚合物充分混合得到混合熔体；(4)用过滤器对上述混合熔体进行过滤，并送到纺丝组件；(5)对步骤(4)中过滤后的熔体，进行纺丝、冷却、拉伸、高温定型处理，得到涤纶短纤维。进一步地，所述高温高压反应器的温度为270-290℃、压强为10MPa。进一步地，所述降解剂为COD降解剂。</t>
+          <t>作为本发明进一步的方案：所述第一消音组件的两端均设置有缓冲室。作为本发明再进一步的方案：所述均压管远离缓冲室的一端安装有接口。作为本发明再进一步的方案：所述均压管远离接口的一端呈密封状态，位于所述缓冲室内的均压管上设置有多个通孔。</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>{[309, 316],数值},{[306, 307],属性},参数关系</t>
+          <t>{[27, 29],部件},{[14, 22],位置},空间关系</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>{[321, 325],数值},{[318, 319],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>{[112, 113],部件},{[94, 106],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>{[60, 61],部件},{[46, 56],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>优选的，本发明所述梯田面由内向外倾斜5～10°。优选的，本发明所述集水渠和集水池由混凝土浇筑得到。优选的，本发明所述步骤(2)中砾石粒径为10～12cm。</t>
+          <t>本发明的目的是针对以上技术的不足，提供一种有别于传统防臭技术的处理，完全可达到瞬间除臭功效的抗菌除臭袜的加工方法。所述的铜改性聚丙烯腈与主纤维的重量比为5~30：95~70。本发明的有益效果体现在于，与现有技术相比，本发明通过将消臭棉纱及抗菌棉纱经过酸化处理后再编入袜子的底部，采用酸碱中和原理将袜子本身带有的酸性与人体汗液的尿素和乳酸分解所产生的氨臭（碱性）酸碱中和从而起到瞬间除臭功效；该产品具有优异的耐洗涤性，无论怎么洗均可保持优异的抗菌除臭功能。</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>{[69, 73],数值},{[74, 75],属性},参数关系</t>
+          <t>{[76, 85],数值},{[72, 74],属性},参数关系</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>{[18, 21],数值},{[22, 22],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>{[195, 197],方法},{[217, 225],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>{[21, 32],方法},{[39, 42],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>步骤一：分析操作系统访问控制安全需求，定义访问控制规则及安全属性，并通过分析系统规约和系统动态行为，描述安全属性规约条件，给出具有严格定义的包括形式和语义的安全规约，实现在较高的层次上描述操作系统访问控制的规范；步骤二：对操作系统的访问控制模块进行形式化抽象，定义基本抽象机及其要素，对形式化规范进行分析和推理，确定静态和动态特性；在严格保证语义的前提下，对抽象描述规范进行逐步求精与细化，以递增的方式构建目标抽象机，推导出更接近实现的包含更多细节的形式化规范，实现访问控制模型；步骤三：利用定理证明工具对访问控制模型的证明义务进行自动化证明和人工交互证明，保证抽象机在初始化规范、推理分析和精化实现阶段的内在一致性，进而根据证明结果分析访问控制模型的安全性；</t>
+          <t>本发明的目的在于提供一种虚拟同步机响应功率指令的快速控制方法，以解决现有技术中导致的上述响应调度功率指令时调节缓慢，丧失了逆变型电源功率可快速调节优势的缺陷。一种虚拟同步机响应功率指令的快速控制方法，所述方法包括如下步骤：接收功率指令并发送至控制模块；通过所述控制模块计算出参考电压相角；将参考电压相角送入电压电流双环控制环节；电压电流双环控制环节通过反馈控制将逆变器端口电压相角控制为与所述参考电压相角相同。优选地，所述控制模块包括虚拟同步机控制模块和功率指令前馈控制模块；所述虚拟同步机控制模块通过运算输出参考电压幅值和参考电压相角一；所述功率指令前馈控制模块通过运算输出参考电压相角二。</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>{[246, 251],方法},{[296, 301],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>{[4, 9],方法},{[98, 104],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[8, 29],方法},{[32, 56],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>发明内容因此，本发明要解决的技术问题在于克服现有技术中的双轴承组件在受力不均匀的情况下容易造成轴承失效的缺陷。为此，本发明提供一种轴承组件，包括：轴承室，内部设置有容纳腔；两组轴承，相对固定在所述容纳腔的两端；两组弹性件，分别设置在所述轴承的内侧面位置，所述容纳腔至少与所述轴承的内端面相对应的位置处设置有凸起部，所述弹性件设置在所述凸起部与所述轴承的内侧面之间。本发明提供的轴承组件，两个所述弹性件的预紧力不同。本发明提供的轴承组件，两个所述弹性件的弹性系数不同。本发明提供的轴承组件，与其中一组所述轴承相对应的所述凸起部的长度大于与另一组所述轴承所对应的所述凸起部的长度。本发明提供的轴承组件，所述凸起部呈矩形设置，且所述凸起部的两端分别与所述弹性件的内侧面相接触。本发明提供的轴承组件，所述凸起部的硬度高于所述轴承室的硬度。本发明提供的轴承组件，所述凸起部一体成型在所述轴承室的内侧壁上。本发明提供的轴承组件，所述弹性件为波形垫圈。本发明提供的轴承组件，所述弹性件与所述凸台之间设置有垫圈。本发明提供的轴承组件，所述轴承涨紧设置在所述轴承室的内壁上。</t>
+          <t>优选的，所述固定座的顶端表面开设有定位槽，所述定位槽的底部内壁固定连接有N极磁体。优选的，所述防护盖的底端外壁固定连接有固定扣，所述固定扣与定位槽相互对应且在一条直线上。优选的，所述固定扣安装在定位槽的内部，所述固定扣的端面与N极磁体的表面相互贴合。</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>{[153, 155],部件},{[129, 149],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
+          <t>{[60, 62],部件},{[47, 54],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>{[91, 93],部件},{[97, 102],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>{[17, 19],部件},{[6, 13],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供永磁同步电机的转子冲片，以解决上述背景技术中提出的问题，本发明结构合理，提高转子冲片的轻量化效果，便于卡装，方便后期维修。为了实现上述目的，本发明是通过如下的技术方案来实现：永磁同步电机的转子冲片，包括冲片主体、销孔以及轻量化便于卡装机构，本发明结构合理，提高转子冲片的轻量化效果，便于卡装，方便后期维修。</t>
+          <t>优选的，所述棘齿一侧的顶部固定连接有转杆，所述防护框顶部的两侧与转杆对应位置处开设有圆形通孔，所述转杆通过轴套与圆形通孔转动穿插连接，且所述转杆的一端开设有内六角开槽。优选的，所述盖板为透明塑料板。优选的，所述防护框内壁底端的内侧开设有条形槽，所述条形槽的内腔填充有干燥剂，所述条形槽的顶部固定卡接有过滤网。</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>{[134, 142],方法},{[67, 69],效果},方案优点</t>
+          <t>{[18, 19],部件},{[4, 12],位置},空间关系</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>{[118, 121],部件},{[125, 128],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>{[118, 120],部件},{[103, 114],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>{[42, 45],部件},{[21, 30],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种枣树用肥料及其制备方法，以解决上述问题。一种枣树用肥料及其制备方法，包括以下步骤：步骤1，按配方比例称取各组分原料，向称取的向日葵盘粉末加入水拌湿润，以手抓料时，不滴水为限，堆制、发酵成有机肥；步骤2，按配方比例将尿素和肥料添加剂搅拌15-20分钟后，加入膨润土后再充分搅拌20-30分钟，转入搅拌机；步骤3，将步骤2搅拌好物料和磷酸二氢钾、硝酸钾及配方中的其余物料充分混合后再和发酵好的向日葵盘粉末充分混合，然后转入肥料造粒机中造粒成型，然后在颗粒料上喷涂适量的石蜡。</t>
+          <t>优选的，所述第一主体机架的底部还连接有定位机构。优选的，所述定位机构设置有两组。优选的，所述射出机构的输出端连接有滑动块，所述热流道模块连接在滑动块上。</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>{[153, 159],数值},{[142, 152],属性},参数关系</t>
+          <t>{[37, 38],数值},{[28, 35],属性},参数关系</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>{[239, 241],部件},{[248, 249],零件},部分关系</t>
+          <t>{[57, 59],部件},{[44, 53],位置},空间关系</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{[133, 139],数值},{[131, 132],属性},参数关系</t>
+          <t>{[19, 22],部件},{[4, 14],位置},空间关系</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -4068,343 +4084,339 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>发明内容为解决上述技术问题，本发明提供一种盐水黄花菜的制备方法，包括以下步骤：(1)以质量份数计，新鲜黄花菜50-60份，加食盐2-3份混匀并适度揉搓，室温放置10-30hr，放置过程中根据黄花菜出水及食盐溶解情况进行多次混匀和/或揉搓，至菜条变软、菜色由黄绿色变为淡黄色时，得盐渍黄花菜；(2)盐渍黄花菜，加水至盐渍黄花菜与水的总质量100份，加含二氧化氯0.0025-0.0040份的消毒剂或消毒水混匀进行消毒灭菌，加柠檬酸0.2-0.3份溶解并搅匀，再加抗坏血酸0.05-0.1份、苯甲酸钠0.03-0.1份，搅至全溶解并混均匀；(3)密封包装，得盐水黄花菜。所述盐水黄花菜的制备方法，其步骤(1)中所加食盐应具有适当粒度，如80-100目，以便揉搓时能刺穿黄花菜的表面，但基本不影响最终制备盐水黄花菜中黄花菜的外观和色泽；所述盐渍过程实现了黄花菜的杀青，盐渍黄花菜可立即用于步骤(2)，也可常温密闭存放再用于步骤(2)，常温密闭存放3-5天不影响最终制备盐水黄花菜的色泽、风味、口感、营养和保质期。步骤(2)中加二氧化氯消毒剂或消毒水后的消毒灭菌时间为3-10min，可实现充分的消毒灭菌，消毒灭菌后所加柠檬酸可将剩</t>
+          <t>本发明先让带有粉尘的气体通过洗气桶内的水，绝大多数的粉尘会溶于水中或者在水中沉淀，气体浮出水面后即使有残存的粉尘颗粒也会在雾化喷水头喷出的水雾带动下沉降至水面，这两步操作可以有效去除绝大多数粉尘，处理后排出的气体干净无污染。本发明内没有过滤网和其他阻碍空气运动的装置，整个操作只是利用水将粉尘去除掉，不容易造成堵塞从而影响空气流通性，大大提高了除尘效率。本发明洗气桶内壁设置的液面感应器和排水管上的液体阀门联动，可保持液面高度不变，溶有粉尘的脏水会从底部排水管排出，雾化喷水头喷出的新水持续的注入，保证洗气桶里的水总是处于清洁状态，不会因为水过于脏而造成出气孔堵塞的情况，大大提高了除尘效率。</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>{[248, 256],数值},{[244, 247],属性},参数关系</t>
+          <t>{[188, 204],方法},{[206, 294],效果},方案优点</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{[64, 67],数值},{[62, 63],属性},参数关系</t>
+          <t>{[3, 78],方法},{[85, 110],效果},方案优点</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{[420, 423],数值},{[414, 417],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>{[168, 171],数值},{[157, 167],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>{[214, 221],数值},{[211, 213],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>{[234, 242],数值},{[230, 233],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>{[480, 486],数值},{[473, 478],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>{[179, 192],数值},{[175, 178],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>{[80, 86],数值},{[78, 79],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>{[316, 322],数值},{[312, 313],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>{[54, 59],数值},{[49, 53],属性},参数关系</t>
-        </is>
-      </c>
+          <t>{[116, 132],方法},{[140, 175],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>所述燕尾形滑块与所述燕尾形凹槽的内端之间固定有抵压弹簧，所述竖支板在所述抵压弹簧的作用下反向外移。所述板体和拱形软橡胶板的内侧面一体固定有橡胶防滑凸柱。所述V形卡块为至少三个，所述插板在竖向通槽内升降时，所述限位销杆处于不同的V形卡块内进行限位。</t>
+          <t>本发明的目的在于提供一种警示作用好方便施工的桥梁支撑托架，以解决上述背景技术中提出的问题。作为本发明再进一步的方案：所述升降筒的两侧壁下部开设有通槽，滑块的前端面两侧均通过转轴转动连接活动杆的一端，活动杆的另一端朝下倾斜穿过通槽并通过转轴转动连接支板一端上表面，支板的另一端通过转轴转动连接升降筒的侧壁下缘。作为本发明再进一步的方案：所述支板的下表面复合连接有多个防滑条。</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>{[10, 14],部件},{[23, 26],零件},部分关系</t>
+          <t>{[72, 73],部件},{[58, 68],位置},空间关系</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{[54, 59],部件},{[61, 63],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>{[0, 2],方法},{[8, 27],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>{[182, 184],部件},{[167, 174],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明提供了一种用于塑料生产的配料釜。本发明提供一种用于塑料生产的配料釜，包括釜体、搅拌轴、驱动单元和清洁单元，所述釜体为圆柱体结构，且其内部中空，所述釜体竖直设置，其下端设有多个支脚，所述搅拌轴竖直设置在所述釜体的内部，其上下两端均与所述釜体的对应端转动连接，所述驱动单元设置在所述釜体的上端，其驱动端与所述搅拌轴的上端传动连接，所述驱动单元驱动所述搅拌轴转动，所述搅拌轴上沿其轴向设有多组搅拌组件，所述搅拌组件用于对原料进行搅拌，所述清洁单元设置在所述釜体内，其用于对所述釜体内壁上的原料进行刮取，所述釜体的上设有与其内部连通的进料口和出料口。进一步地，所述驱动单元为电机，其设置在所述釜体上，且其驱动轴朝下设置，并伸入所述釜体的上端与所述搅拌轴传动连接。进一步地，所述搅拌组件设有两组。</t>
+          <t>在本发明具体实施方式中，所述开合驱动机构包括气缸、水平滑轨、左滑块、右滑块、左L型曲柄、右L型曲柄，所述气缸和水平滑轨均固定在所述托架支撑板上，所述水平滑轨位于气缸的下方，所述气缸的活塞杆向下延伸，端头固定有连接板，所述左滑块和所述右滑块位于所述水平滑块上，所述左L型曲柄的两端分别铰接在所述左滑块和所述连接板的左下角，所述右L型曲柄的两端分别铰接在所述右滑块和所述连接板的右下角，所述左托臂连接在所述左滑块上，所述右托臂连接在所述右滑块上。在本发明具体实施方式中，所述左托臂和所述右托臂上沿长度方向分布有两个定位沟槽。这样的结构使得一个托架具有两对定位沟槽，能够同时输送两个晶圆盒，从而提高了晶圆盒转移的效率。在本发明具体实施方式中，所述左托臂和所述右托臂包括有定位条、支撑条，所述定位条固定在所述支撑条上，所述定位条上内侧具有条状缺口与所述支撑条的上表面形成所述台阶结构的所述定位沟槽，所述条状缺口的三个侧壁形成所述定位沟槽的槽壁。</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>{[99, 100],部件},{[93, 94],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+          <t>{[365, 368],部件},{[357, 362],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>{[116, 118],部件},{[123, 127],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>{[110, 112],部件},{[123, 127],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>{[253, 258],部件},{[235, 249],位置},空间关系</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种用于服装生产的均匀熨烫装置，具备熨烫均匀、快速熨烫的优点，解决了熨烫不均匀、速度慢的问题。（二）技术方案为实现上述熨烫均匀、快速熨烫的目的，本发明提供如下技术方案：一种用于服装生产的均匀熨烫装置，包括盒体，所述盒体的内部贯穿有传送带，所述传送带的内部固定安装有水箱，所述水箱右侧的上表面固定安装有输送管，所述输送管的左侧固定连接有隔热盒，所述隔热盒的顶部和底部固定安装有导气管，所述盒体右侧的内壁固定安装有加热丝，所述传送带的上表面设置有服饰，所述隔热盒的内部固定安装有转轴，所述转轴的表面且位于导气管的背面固定安装有两个传动盒，两个所述传动盒的内部固定安装有弹簧，两个所述弹簧相背的一侧固定安装有传动块，所述转轴的左侧且位于盒体的外部固定连接有电机，所述导气管的底部安装有熨烫底板，两个所述导气管内部的底部固定安装有风扇，所述传送带的上表面且位于导气管的背面开设有传动槽。优选的，所述传动槽有多组，与传动块活动连接，所述传动块在竖直时自身的重力大于弹簧的弹力。优选的，所述导气管位于服饰的正面，所述转轴的正面安装有圆形齿轮，所述圆形齿轮能与传动齿轮啮合。优选</t>
+          <t>优选的，所述圆杆上螺纹套设有滑杆，两个滑杆相互靠近的一端分别延伸至两个凹槽外并分别与两个方形板固定连接。优选的，所述滑杆上开设有第二通孔，所述第二通孔的内壁上开设有内螺纹，所述圆杆上开设有外螺纹，所述圆杆与对应的第二通孔螺纹连接。优选的，所述横板的顶部对称固定安装有两个推杆电机，所述推杆电机的输出轴上固定安装有第二电机，所述第二电机的输出上固定安装有刀片。</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>{[30, 44],方法},{[46, 75],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
+          <t>{[14, 15],部件},{[6, 11],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>{[135, 138],部件},{[121, 125],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>{[64, 67],部件},{[58, 60],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>较佳地，所述通孔的数量为四个，且所述通孔的内侧设置有两个相对称的第三U形凹槽。较佳地，每个所述纵梁的下端设置有两个所述限位杆，且限位杆设置在所述纵梁的两端，所述限位杆上设置有两个可以插入所述第三U形凹槽的凸起条。较佳地，所述伸缩杆的数量为两个，每个所述横梁下方设置有一个所述伸缩杆。</t>
+          <t>针对上述背景技术提出的不足，本发明提供了一种流动式市政信号灯，解决了上述背景技术提出的问题。本发明具备以下有益效果：1、该流动式市政信号灯，通过配重块、齿块、滑槽、支撑杆和拉块之间的相互配合，便于更好的将信号灯固定在道路的中间，使得信号灯在外力的作用下不会发生位置的偏移，避免了信号灯在外力的作用会发生位置的偏移，提高了信号灯移动后的稳定性。2、该流动式市政信号灯，通过移动杆、螺栓和螺母之间的相互配合，便于更好的调节信号灯箱所处的高度，使得驾驶人员能更加直观的观察信号灯上的指示灯，避免了驾驶人员无法有效的观察到信号灯上的指示灯，提高了信号灯的实用性。</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>{[18, 19],部件},{[34, 37],零件},部分关系</t>
+          <t>{[102, 104],部件},{[108, 112],位置},空间关系</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>{[64, 66],部件},{[72, 76],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>{[14, 16],方法},{[17, 44],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>{[173, 200],方法},{[242, 275],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种防水的滑触线系统。为了实现上述目的，本发明采用了如下技术方案：一种防水的滑触线系统，包括线槽和碳刷组，所述线槽表面一侧套接有挂架，另一侧套接有密封管，所述线槽由上槽体和下槽体组成，且上槽体和下槽体之间通过连接件焊接，所述碳刷组由两个碳刷单体组成，且两个碳刷单体之间通过连接板卡接固定。所述作为上述技术方案的进一步描述：所述上槽体和下槽体的侧视截面均呈U型结构，且上槽体和下槽体的对应水平端内表壁均等距焊机有四个导线插座。作为上述技术方案的进一步描述：所述上槽体的两侧水平端内表壁对称开设有插槽，且插槽的内表壁焊接有上挡板。作为上述技术方案的进一步描述：所述下槽体的两侧水平端内表壁对称焊接有下挡板，所述下槽体的内部且位于下挡板的底部嵌设有集水盒。作为上述技术方案的进一步描述：所述上挡板和下挡板的截面均呈倾斜式结构，其倾斜角度大小均为45度。作为上述技术方案的进一步描述：所述碳刷单体由碳刷架、挡油板和护盖组成，且碳刷架和挡油板均焊接在碳刷单体的上方，护盖焊接在碳刷单体的下方作为上述技术方案的进一步描述：所述护盖外表壁两侧错位焊接有两个碳刷片，所述护盖的内部</t>
+          <t>本发明的目的是克服现有技术的不足，提供一种气缸盖罩的减振防松型连接结构，它通过花键轴使螺杆与锁紧部一体连接，避免了锁紧部产生松动且它的结构稳定，通过减震垫可大幅降低气缸盖、气缸盖罩与螺栓之间的振动。本发明解决所述技术问题的方案是：一种气缸盖罩的减振防松型连接结构，包括气缸盖和设置在气缸盖上方的气缸盖罩，所述气缸盖的上端平面上成型有多个上小下大的台阶孔，所述气缸盖罩的下端外壁上的凸缘上成型有多个与台阶孔一一对应的通孔，气缸盖罩的下端面与凸缘的下底面齐平设置；所述台阶孔与通孔内套接有衬套，衬套内套接有螺杆，螺杆的下端固定有与其偏心设置的圆台，圆台远离螺杆的一端插入到台阶孔的大端孔内；所述衬套穿过通孔的上伸出端的外壁上成型有外翻边，外翻边与凸缘的上底面之间夹持有减震垫；所述外翻边的上方设有锁紧部，所述锁紧部的内部成型有同轴心设置的花键通孔和螺纹孔，螺纹孔螺接在螺杆的上端，所述螺杆的上端成型有同轴心设置的花键沉孔和限位孔，所述花键通孔内套接有花键轴，花键轴的下端插套在花键沉孔内，所述花键轴的下端成型有与限位孔过盈配合的固定轴，固定轴插套在限位孔。</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>{[76, 81],部件},{[68, 72],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+          <t>{[17, 34],方法},{[7, 15],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>{[154, 156],部件},{[158, 162],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>{[115, 130],部件},{[132, 150],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>{[37, 52],方法},{[54, 70],效果},方案优点</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>优选的，所述屏蔽层一喷涂在绝缘层一的上表面，所述屏蔽层二喷涂在绝缘层二的下表面，所述屏蔽层一与屏蔽层二为石墨烯电磁屏蔽涂料。优选的，所述绝缘层一与绝缘层二为高分子绝缘膜，所述绝缘层一通过胶水层一与导电布芯层粘贴连接，所述绝缘层二通过胶水层二与导电布芯层粘贴连接。优选的，所述胶水层一与胶水层二均为导电胶水。</t>
+          <t>优选的，所述冷却管为扁平管，且由铜材料制成，且与冷却管焊接的凝水片也由铜制成。优选的，所述冷却漏水板，由多块铝片组合而成，铝片水平于聚液板上开有的口，且铝片层层叠放，铝片与铝片之间由两根铜管连接而成，且铝片上开有多个漏洞。优选的，所述电机转动部分通过转动杆焊接有桨叶。</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>{[137, 139],材料},{[148, 149],效果},材料优点</t>
+          <t>{[131, 132],部件},{[117, 122],位置},空间关系</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>{[52, 54],材料},{[56, 58],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>{[30, 32],部件},{[24, 26],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>{[52, 55],部件},{[45, 49],零件},部分关系</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>发明内容为实现上述控制橡胶温度、调节刚性的目的，本发明提供如下技术方案：一种刚度可调式工程车用橡胶减震设备，包括轮胎，所述轮胎的内部活动连接有转轴，转轴的表面套接有中空通道，中空通道的内部固定连接有抽吸管道，抽吸管道的内部固定连接有抽吸囊，中空通道的内部且位于抽吸管道的表面固定连接有送气管道，所述中空通道的表面固定连接有橡胶套，转轴的内部固定连接有挤压弹簧，挤压弹簧远离转轴的一端固定连接有支撑板，支撑板远离挤压弹簧的一侧固定连接有气囊包。本发明的有益效果是：1.通过将此设备与工程车轮胎结合并安装在工程车上，根据工程车拉动的重量调整好各部件，当外部环境的温度没有达到橡胶套变化的温度时，橡胶套内部的压力与抽吸囊内部的压力相同，当外部环境的温度小于橡胶套变化的温度时，橡胶套外部收缩变形，导致其内部的压力会小于抽吸囊内的压力，与此同时，随着工程车在路面上移动会带动挤压弹簧挤压或拉伸气囊包，气囊包不断产生气体，此气体被抽吸囊抽吸并进入橡胶套内，以此来抵抗橡胶套的变形力，从而达到了当外部温度过低时，减少橡胶套收缩变形的效果；橡胶套收缩变形会使其硬度变大，刚性增强，会改变预期的工作效果。2.通过上述气囊包被挤压弹簧不断的拉</t>
+          <t>本发明的目的是针对现有技术的不足以及性质的欠缺，基于简单、快速的超声以及刻蚀方法提出了一种铜镓铟三元多晶材料的合成方法及其应用。所合成的材料，尤其是以泡沫铜为基材合成的铜镓铟三元多晶材料，展现了良好二氧化碳电催化还原成一氧化碳的能力，对比商用的铜基底和液态金属本身，可直接作为电极使用，催化性能有了大幅提升。本发明的目的是通过以下技术方案实现的：一种三元铜镓铟多晶材料的合成方法，包括以下步骤：(1)将铜片浸没于二元镓铟液态金属中，搅拌20～120min，取出得到表面粘有均匀二元镓铟液态金属的铜片。(2)将步骤(1)中得到的表面粘有均匀二元镓铟液态金属的铜片浸没于0.05～1M氢氧化钾溶液中超声3～10min，待溶液浑浊后，将铜片取出，用去离子水冲洗，得到银灰色的铜片。</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>{[35, 219],方法},{[9, 19],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+          <t>{[283, 289],数值},{[267, 276],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>{[43, 62],方法},{[7, 39],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>{[84, 92],材料},{[94, 115],效果},材料优点</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种苹果树营养土及其配制方法，以解决上述问题。与现有技术相比，本发明有以下技术效果：本发明的营养土，含有丰富的磷、钾等元素及大量的有机质，能促使苹果生长的结实和生长早，且生长期长，可防止土壤板结，提高土壤的肥力，抗干旱能力好，同时可使苹果具有抗倒伏、抗干旱的能力，苹果树初苗期稳定性好，苹果树生长期长。</t>
+          <t>发明内容针对上述存在的技术不足，本发明的目的是提供一种治疗哮喘的中药，对于寒性哮喘的治疗具有疗效明显、无毒副作用等优点，可以长期使用。为解决上述技术问题，本发明采用如下技术方案：一种治疗哮喘的中药，由以下重量份的原料制备而成：瓜萎5-15，柴胡3-10，人参5-20，黄芩5-15，甘草8-15，姜半夏8-12，老生姜5-15，大枣3-15，黑芝麻10-15；优选地，所述中药为胶囊制剂。本发明的有益效果在于：对于寒性哮喘的治疗具有疗效明显、无毒副作用优点，可以长期使用。</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>{[60, 62],部件},{[66, 81],零件},部分关系</t>
+          <t>{[115, 118],数值},{[113, 114],属性},参数关系</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>{[16, 27],方法},{[83, 96],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+          <t>{[129, 132],数值},{[127, 128],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>{[136, 140],数值},{[134, 135],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>{[122, 125],数值},{[120, 121],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>{[25, 33],材料},{[35, 65],效果},材料优点</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>进一步的，所述安装部件的内部开设有凹槽，且凹槽的内部设置安装有弹簧机构，所述弹簧机构的下端设置连接有连接杆，所述连接杆的下端固定安装有固定件，通过设置弹簧机构便于蓄水池的复位，从而提升了设备的实用性。进一步的，所述第一齿轮块与第二齿轮块相对着转动齿轮的一侧均设置有齿轮条，通过设置齿轮条便于与转动齿轮相啮合。进一步的，所述蓄水池与第一齿轮块之间固定连接有支撑杆，通过储水池中的雨水不断的收集，同时增加了储水池的重量，通过支撑杆带动第一齿轮块向下运动。</t>
+          <t>本发明的目的在于提供一种用于微距摄影的环形灯，以解决上述背景技术中提出的问题。优选的，所述滑块的两侧均螺纹穿插连接有螺栓，所述螺栓的一端与滑轨的两侧相贴合。优选的，所述第一连接杆的底端固定连接有圆板，所述圆板的底端呈环形阵列固定连接有三个支腿，相邻所述支腿之间固定连接有加强筋。</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>{[21, 22],部件},{[31, 32],零件},部分关系</t>
+          <t>{[0, 2],方法},{[8, 21],效果},方案优点</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>{[73, 78],方法},{[96, 98],效果},方案优点</t>
+          <t>{[97, 98],部件},{[82, 91],位置},空间关系</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{[165, 169],部件},{[177, 179],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>{[107, 111],部件},{[132, 134],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[58, 59],部件},{[45, 49],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>作为本发明进一步的方案：所述第三粘结层下端粘结有仪器。作为本发明进一步的方案：所述侧板内侧均开设有滑轨，滑轨滑动连接有滑块，滑块之间安装有安装块。作为本发明进一步的方案：所述安装块一侧安装有转动轴，转动轴外侧安装有透明压板，透明压板和安装块之间夹有功能书写纸。作为本发明进一步的方案：所述安装块一侧开设有拉手。</t>
+          <t>针对现有技术中存在的问题，本发明提供一种抗辐照高压驱动电路，结构简单，设计合理，能够提供连续稳定的高压浮动电源，很好地实现了电机驱动器的持续高压驱动。本发明是通过以下技术方案来实现：一种抗辐照高压驱动电路，包括电平转换单元和驱动单元；所述的电平转换单元包括电阻R1、电阻R2、N沟道VDMOST1和双极NPN晶体管Q1；所述的驱动单元包括二极管D1、电容C1、稳压管D2、电阻R3和驱动芯片；输入信号VIN经电阻R1分别与N沟道VDMOST1的栅极和双极NPN晶体管Q1的集电极相连；N沟道VDMOST1的源极和双极NPN晶体管Q1的基极与电阻R2的一端相连，电阻R2另一端和双极NPN晶体管Q1的发射极连接地；N沟道VDMOST1的漏极连接驱动芯片的输入端；电源电压VDD连接二极管D1的阳极，二极管D1的阴极连接电容C1的一端、电阻R3的一端及驱动芯片的VDD端；电容C1的另一端连接稳压管D2的阳极且与驱动芯片的VSS连接至输出VS，电阻R3的另一端连接稳压管D2的阴极且连接驱动芯片的输入端；驱动芯片的输出为高压驱动电路的输出HO。优选的，所述的驱动芯片为抗辐照MOSFET驱动芯片。</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>{[14, 18],部件},{[19, 20],位置},空间关系</t>
+          <t>{[90, 101],部件},{[105, 115],零件},部分关系</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>{[52, 53],部件},{[59, 60],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>{[477, 480],材料},{[482, 484],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>{[16, 28],方法},{[30, 73],效果},方案优点</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是针对现有技术中的不足，提供一种液气增压系统。其技术方案如下：一种液气增压系统，包括现场操作台、蓄能装置、阀箱、电动液压泵；所述现场操作台内部管路从左至右依次连通高压气输出管、过滤器、保压阀、缓冲管组、第一单向阀；过滤器和保压阀之间管段设有第一压力表、第一压力传感器，第一泄压阀，第一泄压阀并列连通第二泄压阀，第一保压阀和缓冲管之间设有第二压力表和第二压力传感器；所述蓄能装置包括筒体，筒体上端连通三通阀，筒体下端连通第三电磁阀，第一单向阀依次连通第一电磁阀、三通阀、第二电磁阀、安全头；所述阀箱内部设有气路和液路，气路从左至右依次连通安全头、第二单向阀、第一集气输入阀、第四电磁阀、外部气源，第一集气输入阀并列连通第二集气输入阀，安全头和第二单向阀之间管路设有第三压力表，第二单向阀和第一集气输入阀之间管路设有安全阀和第三压力传感器；液路包括高压液路、回流液路、泄压液路，高压液路从左至右依次连通第三电磁阀、第三单向阀、第五电磁阀、电动液压泵工作端，回流液路从左至右依次连通第三单向阀、回流阀、电动液压泵回流端，泄压液路从左至右依次连通第三电磁阀、排液阀、电动液压泵，排液阀并列连通第三泄压阀。进一步的</t>
+          <t>优选的，所述胶皮卷轴通过卷轴支撑杆与底板相连接。优选的，所述张紧机构包括张紧轴以及支撑板。优选的，所述气缸位于支撑架下端面中间部位。</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>{[52, 70],部件},{[43, 48],零件},部分关系</t>
+          <t>{[30, 33],部件},{[36, 43],零件},部分关系</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>{[262, 266],部件},{[254, 259],位置},空间关系</t>
+          <t>{[6, 9],部件},{[10, 22],位置},空间关系</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{[11, 20],方法},{[22, 31],效果},方案优点</t>
+          <t>{[49, 52],部件},{[55, 64],位置},空间关系</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -4412,99 +4424,83 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>发明内容为实现以上目的，本发明通过以下技术方案予以实现：一种基于气压缓冲的汽车车门橡胶减震装置，包括车门、矩形筒、活塞、安装座、连接杆、滑槽、左接头、缓冲气囊、右接头、连接管、门条、安装部、缓冲部、金属条、防滑齿、膨胀管、固定座。其中：所述车门的内部固定安装有矩形筒，所述矩形筒的内部滑动连接有活塞，所述活塞的左端通过安装座转动连接有连接杆，所述矩形筒的左侧开设有滑槽，所述矩形筒的右端通过左接头固定连接有缓冲气囊，所述缓冲气囊的右端通过右接头固定连接有连接管，所述连接管的数量共有两根，分别与门条断开处上下两侧的膨胀管固定连接，所述车门的内侧固定连接有门条，所述门条包括安装部和缓冲部，所述安装部的内部固定安装有金属条，所述安装部的内侧固定安装有防滑齿，所述缓冲部的内部贯穿有膨胀管，所述门条断开处的外围包裹有固定座。优选的，所述矩形筒和缓冲气囊均呈扁平状，且固定连接在车门的内部，减小了矩形筒和缓冲气囊对于车门内部横向的占用面积。优选的，所述连接杆一端与活塞转动连接，另一端与车门门框靠近旋转中心的一侧转动连接，因此，在关闭车门时，连接杆能够推动活塞向右移动，在打开车门时，能够拉动活塞向左移动。优选的，所述左接头和右接</t>
+          <t>优选的，所述螺栓固定槽设有圆弧固定槽。优选的，所述两侧面导丝槽设有上下五组导丝槽。优选的，所述上下五组导丝槽设有圆形导丝槽与防脱丝钩。</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>{[130, 132],部件},{[120, 124],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
+          <t>{[56, 65],部件},{[48, 53],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>{[13, 17],部件},{[6, 10],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>{[33, 39],部件},{[25, 30],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明提供了一种纸制品的加香方法，制作得到的纸制品能持久散发香味，且当温度较高时可以释放浓郁香味。本发明提供的技术方案带来的有益效果是：制得的带香味的纸制品具有微分子能量化香料，所述微分子能量化香料能与纸制品中的纤维物紧密结合，长久存在于纤维物中；可以根据实际需求选用特定香料进行加香。</t>
+          <t>进一步，所述标志牌盒可沿水平直径方向打开，上下两部分依靠一侧合页相连，另一侧设置有安全锁。进一步，所述标志牌盒内部由内隔板分成若干收纳格，其中正面第一个收纳格为主收纳格，其余为副收纳格，主收纳格内的标志牌用于显示交通信息，副收纳格内的标志牌为备用标志牌，所述标志牌盒的厚度可根据收纳格的数量进行调整，每个收纳格的厚度应与标志牌的厚度相匹配，其中标志牌厚度一般不超过7mm，内隔板的厚度一般不超过5mm，副标志牌收纳格数量一般不少于2个。</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>{[21, 24],方法},{[35, 40],效果},方案优点</t>
+          <t>{[197, 199],数值},{[186, 191],属性},参数关系</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>{[84, 86],部件},{[89, 96],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>{[182, 184],数值},{[172, 176],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>{[41, 43],部件},{[35, 37],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>本发明的某些实施例中，所述进风口沿参考轴所在直线在参考面的投影面积设为S1，所述主壳体沿所述参考轴所在直线在所述参考面的投影面积设为S2，S1与S2的比值K不小于0.25、不大于1。本发明的某些实施例中，所述导风斜腔流道的倾斜面与所述参考轴所在直线的夹角设为斜度角A，斜度角A大于0、不超过50°。进一步地，斜度角A介于15°至39°之间。本发明的实施例至少具有以下有益效果：气流沿轴向从进风口进入风机，从叶轮出流后通过导风斜腔流道汇聚引流至出风流道，实现气流沿叶轮径向出流至出风流道轴流导向的流通，实现轴向进风和轴向出风。本发明可广泛应用于通风技术领域。</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>{[171, 175],方法},{[250, 260],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>{[40, 42],部件},{[46, 52],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>{[104, 109],部件},{[122, 126],位置},空间关系</t>
-        </is>
-      </c>
+          <t>在一个优选地实施方式中，所述支撑杆与第一固定块连接处设有轴承，所述支撑杆与底板连接处设有轴承。在一个优选地实施方式中，所述横杆两端均设有支撑柱，所述横杆两端均与支撑柱外壁一侧固定连接。在一个优选地实施方式中，所述支撑柱的数量设置为两个，两个所述支撑柱对称分布于底板底端。</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>发明内容本发明提出一种电子装置及其上锁方法，改善先前技术的问题。在本发明的一实施例中，本发明所提出的电子装置，其包含无线接收器以及处理器，处理器电性连接无线接收器。无线接收器与无线发射器建立无线通讯，当无线发射器与无线接收器之间的距离超出无线通讯的有效范围时，处理器执行安全上锁程序。在本发明的一实施例中，当无线发射器与无线接收器之间的距离在无线通讯的有效范围之内时，无线发射器发送上锁指令给无线接收器，使处理器执行安全上锁程序。在本发明的一实施例中，当无线发射器与无线接收器之间的距离在无线通讯的有效范围之内但超出预设距离时，处理器自动执行安全上锁程序。在本发明的一实施例中，无线接收器为蓝牙接收器。在本发明的一实施例中，无线发射器为蓝牙发射器。在本发明的一实施例中，本发明所提出的电子装置的上锁方法包含以下步骤。透过电子装置的无线接收器与无线发射器建立无线通讯；当无线发射器与无线接收器之间的距离超出无线通讯的有效范围时，执行安全上锁程序。在本发明的一实施例中，上锁方法更包含：当无线发射器与无线接收器之间的距离在无线通讯的有效范围之内时，透过无线发射器发送一上锁指令给无线接收器，以执行安全上锁程序。在本发明的一实施例</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>{[58, 67],部件},{[50, 53],零件},部分关系</t>
-        </is>
-      </c>
+          <t>本发明提出的一种石材加工的多规格固定装置，解决了现有石材输送时没有较好的制动机构，从而不利于石材固定的问题。为了实现上述目的，本发明采用了如下技术方案：一种石材加工的多规格固定装置，包括放置板，所述放置板的顶部两侧焊接有支撑板，两个所述支撑板相互靠近的一侧转动连接有多个水平设置的转轴，位于正面所述转轴的外部固定套设有从动齿轮，所述从动齿轮的下方设有与放置板固定连接的驱动电机，所述驱动电机的输出轴末端固定连接有主动齿轮，且主动齿轮与从动齿轮啮合传动，所述转轴的外圈固定套设有链轮，所述链轮的外部套设有链条，所述转轴的外圈固定套设有两个输送轮，所述输送轮的上方设有与支撑板固定连接的推杆电机，所述推杆电机的输出轴末端固定连接有制动板，两个所述制动板相互靠近的一侧设有夹持辊，所述夹持辊的内部活动套设有多个缓冲机构。优选的，所述缓冲机构包括两个导向杆、固定轴和弹簧，所述固定轴活动套设在夹持辊的内部，所述固定轴伸出夹持辊内部的两侧活动套设有导向杆，所述固定轴和支撑板之间连接有套设在导向杆外圈的弹簧。优选的，所述固定轴的外圈固定套设有挡圈，所述夹持辊的内部开设有活动孔，且挡圈的外径大于活动孔的内径，所述固定轴贯穿活动孔。优选</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
@@ -4512,21 +4508,14 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种基于电磁铁同极相斥原理的新型减震器，具备减震舒适，减震效果强烈等优点，解决了传统减震器减震效果弱的问题。（二）技术方案为实现上述减震舒适，减震效果强烈的目的，本发明提供如下技术方案：一种基于电磁铁同极相斥原理的新型减震器，包括减震器主体，所述减震器主体包括缓冲弹簧下减震装置以及上减震装置，所述下减震装置的内部设置有阻尼缸筒，所述下减震装置内部的最底部设置有压缩簧片，所述下减震装置的外壁上设置有补偿阀片，所述阻尼缸筒的上方活动安装有活塞，所述活塞的上方活动安装有复原阀片以及流通阀片，所述活塞的上方活动安装有活塞杆，所述活塞杆的表面开设有阻尼孔，所述活塞杆的外部套接有阻尼弹簧，所述下减震装置的顶部活动安装有电磁铁一，所述上减震装置的底部活动安装有电磁铁二，所述下减震装置的底部且与缓冲弹簧相连接处设置有基座，所述基座的下方连接有下拉环，所述上减震装置的上方设置有上拉环。优选的，所述下减震装置与上减震装置内部结构相同，互相配合进行减震缓冲。优选的，所述电磁铁一与电磁铁二分为N极与S极。</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>{[32, 48],方法},{[49, 83],效果},方案优点</t>
-        </is>
-      </c>
+          <t>优选的，所述调节杆远离第二轴承的一端固定连接有转动把手。优选的，所述箱体外的上下两端对称固定连接有安装板，所述安装板上开设有通孔，所述通孔内插设有螺钉，所述螺钉的一端穿过通孔设置，并固定在墙壁内。优选的，所述转动把手上设有防滑纹。</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
@@ -4534,105 +4523,44 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>优选的，所述防护罩的高度大于人体的高度，且金属探测器与防护罩两侧内壁之间的距离相适配。优选的，所述金属探测器、报警灯均通过导线与控制器进行连接，且金属探测器、报警灯和控制器通过电源线与外部的电源进行连接。优选的，所述第一支撑杆、第二支撑杆均位于防护罩相同的一端，且第二支撑杆的高度大于第一支撑杆的高度。</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>{[21, 25],部件},{[27, 29],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>{[132, 136],数值},{[138, 139],属性},参数关系</t>
-        </is>
-      </c>
+          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种阀板的打磨装置，以解决上述背景技术中提出的问题，本发明结构合理，使用稳固，除尘效果好，打磨效率高。进一步地，所述固定盘下侧设置有固定壳，所述固定壳内部设置有第一电机，所述第一电机上端面连接有转轴，所述转轴上端面连接有限位盖。进一步地，所述支腿设置有两个，且两个支腿的规格相同，两个支腿左右对称连接在工作台下端面。进一步地，所述卡槽上下两端面设置有齿牙，所述齿牙与齿轮相啮合。</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>发明内容为实现上述遇到火灾且喷水时，自动断电且堵塞连接口、收卷电线的目的，本发明提供如下技术方案：一种用于弱电智能化场所的吸潮膨胀式连接器，包括壳体，所述壳体的内部活动连接有连杆，连杆的表面固定连接有卡块，卡块远离连杆的一端活动连接有卡槽，连杆的表面且位于卡块的右侧铰接有推杆，所述推杆远离连杆的一端固定连接有电连板，电连板的内部固定连接有气流通道，气流通道的表面固定连接有填充包，填充包远离气流通道的一端固定连接有阻尼块，电连板的表面且位于阻尼块的上方开设有阻流口。</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>{[187, 189],部件},{[175, 181],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>{[230, 232],部件},{[212, 217],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>{[87, 88],部件},{[77, 81],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>{[117, 118],部件},{[103, 111],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>{[61, 68],部件},{[72, 73],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>{[136, 137],部件},{[120, 124],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>{[208, 210],部件},{[191, 202],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>{[170, 173],部件},{[159, 164],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>{[100, 101],部件},{[90, 94],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>{[155, 157],部件},{[141, 149],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr"/>
+          <t>优选的，所述滑座和滑槽大小适配。优选的，所述推杆电机位于壳体上壁的位置与滑槽对应。优选的，所述转动轴上固定安装有多个对称分布的切割刀。</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是克服现有激光瞄具、尤其是小激光瞄具使用中因振动或反光导致瞄具精度受到不利影响的问题。本发明的有益效果：通过增设与水平调整螺钉或垂直调整螺钉可产生交叉干涉的水平阻尼限位柱或垂直阻尼限位柱，从而紧固水平调整螺钉或垂直调整螺钉与螺孔的接触力或固定稳定性，提高抗震性能，确保水平调整螺钉或垂直调整螺钉的使用稳定性；同时避免反光沿入射光(入射到保护玻璃上的光即瞄具的出射光)光路返回造成瞄具出射光功率下降，确保反光光斑不会反射回激光管内的光电传感器上，造成输出功率稳定性变差的问题。</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>{[64, 79],方法},{[106, 133],效果},方案优点</t>
-        </is>
-      </c>
+          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种计算机硬件维护用剥线装置。优选的，两个所述螺纹块的内侧壁螺纹方向相反。本发明的有益效果为：本发明中，通过转动手把、第一螺纹杆、螺纹块、固定板、切割刀环、放置板、滑动块、移动块、切割刀片、第二螺纹杆、滑动块之间的配合使用，实现了对连接线的快速剥开，解决了传统方式操作繁琐的问题，有效地提高了工作效率，避免了不必要的麻烦。</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -4640,175 +4568,89 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于，针对现有技术的上述不足，提出一种操作简单、折弯效果好的条状金属制品折弯装置。本发明的一种条状金属制品折弯装置，包括固定装置和折弯装置，向所述固定装置的上端，并在驱动端水平安装有折弯件，使得折弯装置给予条状金属制品一个垂直于所述条状金属制品长度延伸方向的作用力即可实现条状金属制品的折弯，再需要将条状金属制品取出时取出条状金属制品即可，本装置结构简单，操作方便。</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>{[101, 103],部件},{[93, 95],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>{[57, 66],部件},{[75, 78],零件},部分关系</t>
-        </is>
-      </c>
+          <t>发明内容本发明提出的一种鞋类设计用皮革裁剪设备，解决了机械裁剪时容易割坏机器的问题。优选的，所述切割台主体的顶部内壁固定连接有两个套筒，所述套筒内部设有第二弹簧。优选的，所述安装架的两侧底部分别套接在套筒的顶部内圈里，所述第二弹簧的顶端固定连接在安装架的底部。</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>发明内容本发明要解决的技术问题在于，针对上述目前饼干中没有添加艾草成分的技术问题，提供一种艾草饼干及其制作方法解决上述技术缺陷。一种艾草饼干，其配方的重量比为低筋面粉100份、调和油65份、糖粉45份、鸡蛋液20份、艾草叶20份和膨松剂2份。</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>{[118, 119],数值},{[115, 117],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>{[104, 106],数值},{[101, 103],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>{[111, 113],数值},{[108, 110],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>{[97, 99],数值},{[95, 96],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>{[91, 93],数值},{[88, 90],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>{[83, 86],数值},{[79, 82],属性},参数关系</t>
-        </is>
-      </c>
+          <t>本发明是为了解决智能电力仪表终端设备出现软件死机时，因系统中的硬件电路仍有电源在供电，导致常规的复位方式无法有效进行复位的问题，现提供一种可定时自动上下电控制电路。本发明所述的可定时自动上下电控制电路包括功率开关管开/关控制电路、定时电路、以及时间设定电路；所述的时间设定电路用于对定时电路的计时周期进行设定；所述的定时电路与时间设定电路连接，用于按照设定的计时周期自动控制功率开关管开/关控制电路中的功率开关管的导通与关断；所述的功率开关管开/关控制电路与定时电路连接，用于根据功率开关管的工作状态控制远程模块控制系统上电或断电。可选地，所述的定时电路包括第一定时电路与第二定时电路；所述第一定时电路采用包含振荡器单元和计数器的集成芯片实现，用于控制功率开关管开/关控制电路中的功率开关管的导通；所述第二定时电路采用具有三态输出的单路总线缓冲器芯片实现，用于控制功率开关管开/关控制电路中的功率开关管的关断。可选地，还包括线性稳压电路，所述线性稳压电路用于从直流供电电源取电、并为功率开关管开/关控制电路和定时电路提供3V3D上拉电源；所述的功率开关管开/关控制电路包括功率开关管Q1及引导其开/关的控制电路，所述的控制电</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的就是克服现有技术中的不足，而设计一种安全智能红绿灯警示装置通过在红绿灯旁边安装提示装置，让驾驶员在看到红绿灯时就能够看到闯红灯提示情况，可以有效方便和安全地减少闯红灯造成的交通事故。为了实现上述目的，本发明所采用的技术方案是：一种安全智能红绿灯警示装置，由超声波检测电路、距离和速度计算电路、警示和显示电路、电源组成。进一步的，所述超声波检测电路为常用的交通设施超声波测距检测电路，通过发射和接受超声波获得被测物体与检测点之间的距离和速度变化等数据。</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>{[138, 165],部件},{[125, 135],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>{[203, 210],方法},{[211, 233],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>{[41, 52],方法},{[80, 99],效果},方案优点</t>
-        </is>
-      </c>
+          <t>本发明的目的在于提供一种套筒结构，能够实现对螺柱的锁付，结构简单，使用方便。为了实现上述目的，本发明采用如下的技术方案：一种套筒结构，用于锁付螺柱，所述套筒结构包括套筒本体，所述套筒本体具有相对设置的第一端及第二端；所述第一端与电批连接；所述第二端开设有内螺纹孔，所述内螺纹孔能够与所述螺柱之间螺纹配合；所述套筒本体的侧部开设有收容孔，所述收容孔与所述内螺纹孔连通；所述收容孔内设有垫片。进一步地，所述内螺纹孔的进口处设有导向孔。进一步地，所述导向孔为锥台形孔。进一步地，所述收容孔的中心轴线与所述内螺纹孔的中心轴线之间垂直设置。进一步地，所述垫片由多个薄垫片叠加组成。进一步地，所述第一端的端面开设有供所述电批的连接端伸入的安装孔，所述安装孔与所述收容孔及所述内螺纹孔隔开设置；所述安装孔的侧部开设有贯通的连接孔，所述连接孔内设有销钉，以锁紧连接所述电批的连接端及所述第一端。进一步地，所述安装孔的截面呈多边形。</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>发明内容本发明提供了一种祭祀用纸的抄造方法，包括以下步骤：纸浆筛选；网部；压榨部；干燥部；压光；取卷及复卷。进一步地，所述纸浆筛选过程中，采用压力筛进行筛选。进一步地，所述网部过程中，采用铜丝网或者塑料网。</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>{[61, 64],部件},{[71, 73],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>{[86, 89],部件},{[94, 96],零件},部分关系</t>
-        </is>
-      </c>
+          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种公园健身用双人双位漫步机。为了实现上述目的，本发明采用了如下技术方案：一种公园健身用双人双位漫步机，包括支撑腿，所述支撑腿的侧壁安装有多个转动机构，多个所述转动机构的底部均固定安装有第一脚踏板，多个所述第一脚踏板内均开设有移动槽，多个所述第一脚踏板上均设置有第二脚踏板，多个所述第二脚踏板的端部均固定连接有移动板，多个所述移动板内均开设有固定槽，多个所述第一脚踏板的侧壁均贯穿设置有固定腔，多个所述固定腔内均设置有固定机构，多个所述第一脚踏板的侧壁均开设有限位槽，多个所述限位槽内均安装有限位机构，所述限位机构的侧壁与固定机构的侧壁相抵紧，所述支撑腿的上端安装有扶手。</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>发明内容（一）技术方案为实现上述飞轮自动调整飞轮主体与曲轴端面的跳动量，保证稳定性的目的，本发明提供如下技术方案：一种自动调整飞轮平面跳动量的校正装置，包括飞轮主体，所述飞轮主体通过接合盘固定安装在曲轴上，曲轴的外壁上内嵌有调整装置，调整装置包括支撑板，曲轴的外侧开设有与调整装置对应的凹槽，支撑板通过铰接轴活动安装在凹槽内，支撑板的外侧固定安装有垫片，凹槽的内壁上固定安装有齿板，支撑板的内侧固定连接有插入齿板内部的滑板，齿板的内部固定设置有棘齿，滑板上活动安装有与棘齿对应的棘爪，支撑板与凹槽的内壁之间安装有压簧。优选的，所述接合盘固定插在飞轮主体的内部，且接合盘固定套接在曲轴的外侧。优选的，所述调整装置均匀分布在曲轴的外侧，且关于曲轴的轴心对称分布，通过这种设置可保证对飞轮主体调整的均匀性。优选的，所述垫片伸出至曲轴的外侧，使得垫片能顶在接合盘的内壁上，从而固定卡死接合盘，使其不能晃动。优选的，所述垫片、齿板、滑板和压簧均关于铰接轴对称分布，通过这种设置，保证了无论接合盘的哪个位置出现了过度晃动，都能有效的进行调整。优选的，所述棘齿为斜齿，棘齿与棘爪组成单向移动机构，保证了滑板只能在齿板内向外移动，而不能回移</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>{[484, 489],方法},{[494, 511],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>{[301, 327],方法},{[339, 348],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>{[354, 380],方法},{[392, 397],效果},方案优点</t>
-        </is>
-      </c>
+          <t>发明内容本发明的目的在于提供一种快速拆装连接方式房车窗户，以解决上述背景技术中提出的问题。优选的，所述内框上设有与猛钢弹片相插接的锥形插口。优选的，所述外框固定座上设有与安装压块上的插接凸起相插接的凹槽。优选的，所述猛钢弹片插接于弹片固定型材上，所述猛钢弹片以及弹片固定型材通过弹片固定铝材螺丝固定在外框固定座上，所述外框固定座与弹片固定型材螺接固定形成7字型。</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明提供了一种用于塑料粒生产的切粒机。本发明提供一种用于塑料粒生产的切粒机，主要包括壳体、切刀和干燥装置，所述壳体为内部中空的矩形结构，其左侧的上部设有进料口，其左侧的下部设有出料口，所述支架用于支撑塑料条，所述切刀设置在所述壳体内，并靠近所述进料口处，所述切刀用于对所述塑料条进行切割，所述干燥装置设置在所述壳体内，并均位于所述出料口的下方，所述干燥装置用于对塑料粒进行干燥。进一步地，所述干燥装置包括第一干燥板和第二干燥板，所述第一干燥板和第二干燥板上下间隔的设置在所述进料口的下方，其中，所述第一干燥板的左端与所述壳体的左侧内壁固定连接，其右端朝下倾斜设置，并延伸至靠近所述壳体的右侧内壁，且所述第一干燥板的前后两侧均延伸至与所述壳体对应的内壁固定连接，所述第二干燥板的右端与所述壳体的右侧内壁固定连接，其左端朝下倾斜设置，并延伸至靠近所述壳体的左侧内壁，且所述第二干燥板的前后两侧均延伸至与所述壳体对应的内壁固定连接，所述第一干燥板和所述第二干燥板上均设有干燥单元。进一步地，所述干燥单元为与所述第一干燥板和所述第二干燥板匹配的干燥海绵，所述干燥海绵可拆卸的安装在所述第一干燥板和所述第二干燥板上</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>{[52, 61],部件},{[44, 46],零件},部分关系</t>
-        </is>
-      </c>
+          <t>本发明的目的是为了解决现有技术中由于挡板通过连接件固定在桥梁的混凝土上，安装和拆卸比较麻烦，从而导致工作效率比较低，不便于人们使用的问题，而提出的一种混凝土工程伸缩缝垂直止水结构。为了实现上述目的，本发明采用了如下技术方案：一种混凝土工程伸缩缝垂直止水结构，包括设置在两个梁端部之间两个支撑板，两个所述支撑板之间设有开设有设有止水带，且止水带的两侧分别与两个支撑板的侧壁固定连接设置，两个所述支撑板的底部均固定连接有连接板，且两个连接板分别与两个梁端部相接触设置，两个所述连接板之间对称设有多个弹性伸缩杆，且多个弹性伸缩杆的两端分别与两个连接板的侧壁固定连接设置，且两个连接板之间设有调节机构。</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
@@ -4816,339 +4658,179 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>优选的，所述单向排气管的出气端延伸至防护网表面处。优选的，所述减震液为非牛顿流体。优选的，所述防护网的表面安装有簧片，所述簧片位于单向排气管的出气端并与端口方向垂直设置。</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>{[47, 49],部件},{[56, 57],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>{[61, 62],部件},{[71, 73],位置},空间关系</t>
-        </is>
-      </c>
+          <t>本发明就是为了解决上述背景技术的问题，其提供了一种高纯度盐酸贝尼地平的制备方法。为此，本发明提供了一种高纯度盐酸贝尼地平的制备方法，具体包含以下步骤：（1）在温度为20～30℃的碱性条件下使2,6-二甲基-4-(间硝基苯基)-1,4-二氢吡啶-5-羧酸甲酯-3-羧酸与氯磷酸酯反应，生成混酸酐；（2）将步骤（1）得到的混酸酐与N-苄基-3-羟基哌啶反应，制得贝尼地平溶液；（3）将贝尼地平溶液用活性炭脱色；（4）将步骤（3）中脱色后的贝尼地平用二氯甲烷溶解，依次用NaOH溶液、水、盐酸和水洗涤，干燥得盐酸贝尼地平粗品；（5）将步骤（4）中的盐酸贝尼地平粗品溶解在乙醇和丙酮的混合液中后，回流、降温、搅拌，析出盐酸贝尼地平纯品。优选地，步骤（1）中2,6-二甲基-4-(间硝基苯基)-1,4-二氢吡啶-5-羧酸甲酯-3-羧酸与氯磷酸酯的摩尔比为1：（1～1.6）。</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>可选地，在上述电磁摩擦式制动器中，所述摩擦片的中部开设有正多边形的安装孔，所述联轴器的一端与所述安装孔过盈配合连接。可选地，在上述电磁摩擦式制动器中，所述摩擦片与所述联轴器通过胶粘接，并由螺钉锁紧固定。可选地，在上述电磁摩擦式制动器中，所述联轴器为弹性联轴器。可选地，在上述电磁摩擦式制动器中，所述联轴器为膜片联轴器。</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>{[7, 14],部件},{[19, 21],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>{[65, 72],部件},{[83, 85],零件},部分关系</t>
-        </is>
-      </c>
+          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种用于卷辊芯轴插拔的机器人全自动抓手。为了实现上述目的，本发明采用了如下技术方案：一种用于卷辊芯轴插拔的机器人全自动抓手，包括抓勾板，所述抓勾板的上端固定连接有气压缸，所述气压缸向下延伸有气压杆，所述气压杆的下端固定连接有连接块，所述连接块的下端固定连接有聚氨脂板，所述聚氨脂板的下方设置有芯轴棒，所述抓勾板的下端固定连接有横杆，所述横杆的上端中部在芯轴棒的下方依次固定连接有检测机构和定位机构，所述检测机构和定位机构的两侧均设置有Z形承重板，所述Z形承重板的上端个设置有滑槽，所述连接块的侧壁固定连接有承重柱，所述承重柱贯穿Z形承重板上端的滑槽，所述Z形承重板的下端设置有滚轮。作为上述技术方案的进一步描述：所述检测机构包括检测支架，所述检测支架的中部上端固定连接有检测块。作为上述技术方案的进一步描述：所述检测支架的两端均设置有长通孔，所述长通孔中设置有第一螺栓且通过第一螺栓检测支架与横杆固定连接。作为上述技术方案的进一步描述：所述定位机构包括定位支架，所述定位支架的中部上端规定那个连接有指针。作为上述技术方案的进一步描述：所述定位支架的两端均通过第二螺栓与横杆</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>作为一种优选的实施方式，所述底座的上表面对称开设有滑槽，且两个滑块分别滑动连接在两个滑槽内。作为一种优选的实施方式，所述丝杆一和丝杆二的长度相同，且丝杆一和丝杆二的螺纹旋向相反。作为一种优选的实施方式，所述定位板一靠近定位板二的一侧沿长度方向均匀开设有卡槽，定位板二靠近定位板一的一侧沿长度方向均匀设置有卡块，且卡块与卡槽尺寸相匹配。</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>{[126, 127],部件},{[152, 153],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>{[25, 26],部件},{[31, 32],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>{[74, 76],部件},{[84, 87],位置},空间关系</t>
-        </is>
-      </c>
+          <t>本发明的目的是提供一种脂溶性维生素自乳化组合物及其制剂的制备方法，解决目前市售口服维生素药物吸收慢，生物利用度低的问题。本发明解决上述技术问题是通过如下方案实现的：1、本发明公开了一种脂溶性维生素自乳化组合物及其制剂的制备方法，所述组合物由脂溶性维生素、油相、乳化剂、助乳化剂组成，将脂溶性维生素制成自乳化体系，能够有效的提高脂溶性维生素的生物利用度。2、本发明所述脂溶性维生素选自维生素D3，维生素K2，维生素A和维生素E中的一种或多种。</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>明内容针对上述背景技术中提到的问题，本发明提供了自导流式流态扰动后截面均匀分布可调风粉均衡分配器，极大的提高了制粉系统的风粉分配特性，且压阻降低到传统技术的约1/10-1/5，风量分配误差和粉料分配误差降低到传统技术的约1/2，且消除了大颗粒输送可能造成的堵塞问题，可有效降低气固两相流输送的风机能耗，节省能源。本发明提出了解决上述问题的技术方案：自导流式流态扰动后截面均匀分布可调风粉均衡分配器，包括三个部件，分别是流态扰动后截面均匀分布部件，可调导流式阀瓣，分配部件；三个部分可为独立的个体，现场安装时中间采用法兰连接，其内径和电厂输送管道内径一致，两端用法兰和电厂输送管道连接。流态扰动后截面均匀分布部件是一个定制的防磨防腐特制部件。其物理形态根据计算机流体仿真设计而来，其功能是改变流体的直线流动，强迫流体通过设计的弯道，使得截面分布不均匀的气固两相流在经过该部件后恢复到全截面均匀分布，以便于后续阀瓣和分配部件的均匀分配。流态扰动后截面均匀分布部件的表面贴有碳化硅、氧化锆或氧化铝等耐磨层。</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>{[434, 436],部件},{[416, 431],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>{[442, 444],部件},{[416, 431],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>{[21, 47],方法},{[50, 154],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>{[209, 234],部件},{[189, 197],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>{[438, 440],部件},{[416, 431],位置},空间关系</t>
-        </is>
-      </c>
+          <t>本发明的目的就是克服现有技术中的不足，而设计一种能在一个教具中演示呼吸的全过程（包括全过程的四个部分（肺的通气、肺泡内的气体交换、气体在血液中运输、组织里的气体交换））的教学仪器。为了实现上述目的，本发明所采用的技术方案是：呼吸的全部四过程组合演示仪，由肺的通气演示器、气体交换和血液循环演示器、电源组成。所述肺的通气演示器位于所述呼吸的全部四过程组合演示仪的正面，所述气体交换和血液循环演示器位于所述呼吸的全部四过程组合演示仪的反面，所述电源位于所述呼吸的全部四过程组合演示仪的一侧。</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机械配件自动喷码装置，以解决上述背景技术中提出的现阶段的喷码设备需要用户一个一个拿取配件进行喷码，较为麻烦，且效率较低，且部分配件喷码结束后墨要是没有凝固容易被蹭掉，从而需要重复喷码，增加工作人员的工作量的问题。为实现上述目的，本发明提供如下技术方案：一种机械配件自动喷码装置，包括基台、第二电机和扇叶，所述基台的左侧安装有第一电机，所述基台的右侧安装有传动齿轮，所述第一电机的输出端焊接有半齿齿轮，所述半齿齿轮和传动齿轮之间通过齿条相连接，所述齿条的表面均匀焊接有支撑杆，且支撑杆的一侧皆焊接有夹持轴，所述夹持轴皆为两组，所述夹持轴远离支撑杆的一侧皆焊接有夹持板，所述传动齿轮的前后两端皆焊接有抵触杆，所述基台的顶端安装有自动喷码机主体，所述基台的顶端安装有安装台，所述安装台的内部安装有第二电机，所述第二电机的输出端上焊接有扇叶，所述扇叶的下方安装有加热丝，且加热丝位于安装台的内部，所述基台的右侧设置有收集箱。优选的，所述半齿齿轮与齿条相啮合，所述第一电机与半齿齿轮、传动齿轮和齿条形成传动结构。</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>{[211, 214],部件},{[198, 207],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>{[12, 25],方法},{[28, 120],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>{[441, 459],部件},{[462, 465],零件},部分关系</t>
-        </is>
-      </c>
+          <t>一种根据发动机温度自动调节降温水流量的机构，其特征是包括，汽车大梁、发动机、回水管、流量调节阀、水箱、出水管、温控开关、电源线、电磁阀、回位弹簧、电磁阀铁芯、阀芯伸缩仓、阀芯；所述汽车大梁为长方形，左边顶端的上面垂直纵向设置了长方形的水箱，左边的中部横向设置了长方形的发动机；所述回水管为中空S型，左边与流量调节阀的右边连接，右边与发动机左边上方的进水口连接；所述温控开关为圆柱形、设置于发动机前面的中央，输入端通过圆形电源线与车载电源连接，输出端通过电源线与电磁阀连接。</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术的不足，本发明提供了一种两节式小壳体水田桥，解决了两节式小壳体水田桥重量大及装配方便的问题。为实现上述目的，本发明提供如下技术方案：一种两节式小壳体水田桥，包括中央桥壳。与现有技术相比，本发明提供了一种两节式小壳体水田桥，具备以下有益效果：该两节式小壳体水田桥，通过设置左腔室、右腔室及差速器，液压油缸直径不变，分成两段式左腔室及右腔室整体为一个Z结构，使安装差速器总成装配方便，通过性好，壳体变小，减重。</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>{[183, 185],方法},{[210, 211],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>{[78, 86],部件},{[90, 93],零件},部分关系</t>
-        </is>
-      </c>
+          <t>本发明的目的是解决上述背景技术的不足，提供一种条件温和、操作方便、降解效率高的水处理方法，通过利用零价金属诱导低价铜再生从而催化活化过硫酸盐处理抗生素废水，克服了传统Fenton体系只能处理酸性废水、铁泥大量沉积、氧化剂利用率不足、Cu2+/Cu+转化效率低下等问题。一种利用零价金属强化铜活化过硫酸盐的水处理方法按照以下条件实施：1、处理前调整四环素水样pH分别为2、3、4、5、6、7、8、9、10；2、过硫酸盐(过硫酸氢钾，PMS)投量为0.25mmol/L；3、水样中二价铜离子初始浓度为10mmol/L；4、零价金属投量为0.2g/L。</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>发明内容发明目的：为了解决现有技术的不足，本发明提供了一种高效液相色谱仪对注射用苯磺顺阿曲库铵含量测定的方法，在降本增效的基础上节能减排，提高分析效率。技术方案：一种高效液相色谱仪对注射用苯磺顺阿曲库铵含量测定的方法，包括如下步骤：(1)、供试品溶液配制：取本品10瓶，各置于25ml量瓶中，用流动相A溶解定容至刻度，摇匀，制成每1ml约含顺阿曲库铵0.2mg的溶液，作为供试品溶液，共配制10份样品；(2)、对照品溶液配制：精密称取苯磺顺阿曲库铵对照品13.4mg，置50ml量瓶中，用流动相A溶解定容至刻度，摇匀，作为对照品溶液，共配制两份对照品；(3)、测定：精密量取2份苯磺顺阿曲库铵对照品溶液，第1份对照品进样5次，第二份对照品进样2次，精密量取10份供试品溶液各进样一次，进样量为20μl，记录色谱图，按外标法以峰面积计算求出10瓶供试品的平均含量，即得。有益效果：本发明的方法大大缩短了该品种的含量测定时间，在稳定性及其他研究时使用该方法，不仅能降本增效，还能大大减少危废的排放体积，从原来的每24小时排放2L废液，减少到每24小时仅排放0.16L废液，减少了环境污染。</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>{[235, 236],数值},{[237, 238],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>{[390, 394],方法},{[430, 433],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>{[49, 53],方法},{[69, 74],效果},方案优点</t>
-        </is>
-      </c>
+          <t>本发明所要解决的技术问题在于克服现有技术的上述不足，提供一种可有效降低组装难度，保持密封稳定效果的车灯调光结构。其所要解决的技术问题可以通过以下技术方案来实施。一种车灯调光结构，其特点为，包括一调光螺钉，所述调光螺钉经其连接螺纹与车灯灯体直接或间接连接；还包括一套接于所述调节螺钉头部的套接件，所述套接件可拆卸的连接于调光支架上，与所述调光螺钉头部调节槽所处位置相对应，所述套接件上开设有便于调节工具伸入该调节槽内的避让部。作为本技术方案的进一步改进，所述套接件为一转动连接件，所述转动连接件至少包括一第一转动位和一第二转动位，所述转动连接件转动到所述第一转动位时，所述转动连接件与所述调光支架相连接，所述转动连接件转动到所述第二转动位时，所述转动连接件与所述调光支架相分离。作为本发明的优选实施例，所述调节螺钉的杆体上设有沿径向向外凸起的限位挡圈，所述限位挡圈设于所述调节螺纹靠近调节螺钉头部一侧的螺纹末端位。也作为本技术方案的进一步改进，所述调光螺钉经一联动杆与所述车灯灯体相连。</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>明内容针对现有技术存在的不足，本发明目的是提供一种对流式同步电机用环保除尘装置，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，对流除尘效果好，实用性强。为了实现上述目的，本发明是通过如下的技术方案来实现：一种对流式同步电机用环保除尘装置，包括环保防尘主体、电机以及对流防尘机构，所述环保防尘主体内部安装有电机，所述环保防尘主体内部设置有对流防尘机构，所述对流防尘机构包括安装座、控制按钮、风机、防尘膜、鼓风机、第一密封板、进气管、第二密封板以及出气管，所述环保防尘主体内部安装有安装座，所述环保防尘主体右端面装配有控制按钮，所述环保防尘主体内部固定有第一密封板，所述环保防尘主体内壁粘接有防尘膜，所述第一密封板左端面和环保防尘主体连接处固定有第二密封板，所述环保防尘主体内部左侧安装有鼓风机，所述环保防尘主体内部下侧装配有风机，所述鼓风机内部左侧连接有进气管，所述鼓风机内部下侧连接有出气管。进一步地，所述安装座右端面开设有圆孔，所述电机环形侧面右侧与圆孔相匹配。</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>{[420, 421],部件},{[409, 416],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>{[129, 145],部件},{[120, 125],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>{[384, 386],部件},{[372, 380],位置},空间关系</t>
-        </is>
-      </c>
+          <t>本发明的目的是提供一种用于杨梅酒发酵用具有密封作用的加料机构，解决了现有技术中管道相对发酵罐处于固定状态，管道在加入白酒和蔗糖溶液时，添加溶剂处于发酵液的某个区域内，分散不均匀，导致添加的白酒和蔗糖溶液套有杨梅酒混合程度较低，加长杨梅酒的发酵时间，影响杨梅酒的品质的问题。为了实现上述目的，本发明采用了如下技术方案：一种用于杨梅酒发酵用具有密封作用的加料机构，包括罐体，罐体的内部设有一端贯穿罐体顶部呈中空状态的插杆，插杆的表面位于罐体的外侧处设有手把环，手把环和罐体之间设有螺纹套，螺纹套套接于插杆的表面，插杆的底部开设有若干个呈中心对称分布的转动槽，每个转动槽的内部通过转轴转动连接有一个摆动杆，摆动杆的内部开设有通道，通道与插杆之间通过软管连通，插杆包括螺纹段和平直段。优选的，当摆动杆转动至转动槽顶部时，摆动杆转动的角度为45度。优选的，螺纹段的长度为插杆长度的一半。优选的，螺纹段表面的螺牙与水平方向形成的锐角为30度。优选的，插杆的顶部固定连接有漏斗。优选的，摆动杆的两端均设有圆角。本发明至少具备以下有益效果：使用插杆插入罐体内部，摆动杆转动，变成“伞状”，再将需要添加的溶剂倒入插杆的内部，拉动手把环，手把环</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>进一步的，步骤a)中通过公式计算方块灰度直方图p(rk)，式中rk为该方块的灰度级，nk为具有灰度rk的像素的个数，MN为该方块中像素个数。进一步的，步骤b)中将方块灰度直方图的横坐标以1个像素为单位表示成256*1*3的三通道矩阵。进一步的，步骤c)中EnhanceNet网络采用步长为2的3*3的卷积核对矩阵进行卷积处理。进一步的，步骤e)中特征映射图像的直方图输出压缩为64×1×3。</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>{[93, 93],数值},{[95, 96],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>{[12, 13],方法},{[14, 15],效果},方案优点</t>
-        </is>
-      </c>
+          <t>发明内容本发明的目的在于提供一种银耳鲜露饮料及其生产工艺，通过将红枣和枸杞经传统工艺长时间熬煮后提纯成汁来制备饮品，代替直接使用红枣和枸杞，以解决上述背景技术中提出的问题。优选的，步骤三中，先将上述制得的红枣汁和枸杞汁混合搅拌均匀，得到混合液，再将上述制得的糖汁加入混合液中搅拌均匀，得到营养配液。优选的，步骤四中，原料为银耳,选取优质的新鲜银耳，去杂和去掉银耳蒂部后进行清洗和切碎,得到20～40g的银耳备用。</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>优选地，相邻所述导轨管A采用外套套管电热熔连接。优选地，相邻所述导轨管A的接口不平整度小于1mm，缝隙宽度不大于1mm。优选地，所述导轨管为HDPE耐磨圆形导轨管。</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>{[45, 45],数值},{[46, 47],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>{[70, 73],材料},{[74, 75],效果},材料优点</t>
-        </is>
-      </c>
+          <t>本发明的目的是为了解决现有技术中的垃圾存储装置不具备干湿分离功能，垃圾和污水混合在一起存放十分的容易滋生细菌污染环境，传播危害，且为了便于人们丢垃圾垃圾桶的上端一般是开口的，这导致垃圾存放的难闻气味会四处飘散，造成了市政环境污染，不便于实际使用的问题，而提出的一种用于城市道路清洁的垃圾存储装置。为了实现上述目的，本发明采用了如下技术方案：一种用于城市道路清洁的垃圾存储装置，包括U形防护板，所述U形防护板相对一侧竖直内壁均通过多个连接块固定连接有同一个外筒，所述外筒内活动套接有内筒，所述内筒的底部设为过滤网板，所述内筒的上端固定连接有卡接在外筒上端的定位环板，所述外筒的上端后侧固定连接有U形支架，所述U形支架相对一侧侧壁之间通过转轴转动连接有同一个连接板，所述连接板的侧壁固定连接有盖接在内筒上端的密封盖板，所述U形防护板水平部的上端前后对称固定连接有两个卡板，两个所述卡板之间通过转轴转动连接有同一根翘杆，所述翘杆的一端固定连接有踩踏板，所述翘杆的另一端转动连接有推拉杆，所述推拉杆的上端转动连接在连接板的下端。优选的，所述U形防护板的下端相背两侧均固定连接有固定板，所述固定板的表面开设有固定螺孔且固定螺孔内螺纹连</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种便于更换球网的羽毛球拍。为了实现上述目的，本发明采用了如下技术方案：一种便于更换球网的羽毛球拍，包括外框、球拍主体和第一球杆，所述球拍主体的顶部、底部与一侧均固定连接有卡紧装置。本发明的有益效果为：1，减轻了球网更换过程中的负担，更好的保证了羽毛球拍的使用，实用性强。2，能够对羽毛球拍球杆进行收缩，便于使用者进行携带。</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>{[116, 119],部件},{[102, 109],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>{[171, 176],方法},{[182, 190],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>{[75, 78],部件},{[90, 93],零件},部分关系</t>
-        </is>
-      </c>
+          <t>发明内容本发明的目的在于提供一种挖掘铲斗，以解决上述背景技术中提出的结构强度低、质量重、不易清理以及零部件不易拆卸和拼接的问题。优选的，所述主体内部靠近纳米二氧化钛层的一侧设置有加强腔，且加强腔的内部均匀设置有铝合金加强筋，所述铝合金加强筋的横截面呈W形。优选的，所述主体内部靠近纳米石墨抗氧化层的一侧设置有减震腔，且减震腔内部的两侧皆均匀设置有气囊减震块，所述气囊减震块之间减震腔的内部均匀设置有减震弹簧。</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种具有健身及清洁功能的电动轮椅，具备残疾人士坐在轮椅上即可进行健身活动，可较方便及时的对垃圾进行清扫，清扫工作不需消耗电动轮椅本身电能的优点，解决了现有轮椅功能单一，残疾人士坐在轮椅上无法清扫地面垃圾，加装的扫地装置需要消耗电动轮椅电力的问题。（二）技术方案为实现上述残疾人士坐在轮椅上即可进行健身活动，可较方便的对垃圾进行清扫，清扫工作不需消耗电动轮椅本身电能的目的，本发明提供如下技术方案：一种具有健身及清洁功能的电动轮椅，包括支撑座，所述支撑座通过电动转轴活动安装有车轮，支撑座的顶部左右两侧均固定安装有扶手，支撑座的背面固定安装有靠板，扶手的内部固定安装有反应装置，支撑座的底部固定安装有吸尘装置，反应装置的内部固定安装有底座，反应装置的内部且位于底座顶部活动安装有弹簧伸缩杆，弹簧伸缩杆通过弹力钮固定安装有按压板，反应装置的内部且位于按压板底部固定安装有磁性杆，反应装置的内部且位于磁性杆的外侧固定安装有磁线圈，反应装置的内部且位于磁线圈底部固定安装有储能装置，吸尘装置的内部活动安装有驱动轴，驱动轴的底部活动安装有从动轴，从动轴通过连接件固定安装有叶</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>{[30, 45],方法},{[102, 151],效果},方案优点</t>
-        </is>
-      </c>
+          <t>发明内容本发明提出的一种工业计算机的悬挂支撑机构，解决了不同规格的工业计算机便捷安装的问题。优选的，所述壳体的顶部内壁通过螺栓连接有电机，所述壳体的底部设有开口，所述壳体的两侧内壁上焊接有竖板，所述竖板上开设有第一滑槽，所述第一滑槽的内壁滑动连接有第一滑块。优选的，两个所述第一滑块相靠近的一侧铰接有第一撑杆，所述第一撑杆的下方设有位于第一滑块上的固定块，所述固定块的底部铰接有第二撑杆，两个所述竖板相靠近一侧的底端焊接有第一横板。</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -5156,21 +4838,14 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>发明内容为实现上述冲孔完成后，利用冲孔升降行程完成扣子铆接的目的，本发明提供如下技术方案：一种利用冲压行程对衣服进行装扣的设备，包括壳体，所述壳体的内部活动连接有转轴，转轴的表面套接有推杆，推杆远离转轴的一端铰接有装扣机构，装扣机构的两侧均活动连接有弹簧杆，弹簧杆远离装扣机构的一端活动连接有导向轮，导向轮远离弹性杆的一侧铰接有压紧辊，所述装扣机构包括箱体，箱体的内部活动连接有压缩弹簧，压缩弹簧的上端与推杆活动连接，压缩弹簧的下端固定连接有挡持板，挡持板的内部通过复位弹簧活动连接有拨动板，挡持板远离压缩弹簧的一端固定连接有冲孔板。本发明的有益效果是：1.通过提前在放置槽内放入一定量的扣子，启动驱动部件使转轴旋转，带动推杆挤压装扣机构内的压缩弹簧，使其挤压挡持板向下移动，并使冲孔板上的锯齿与壳体下方的服装接触，在挤压力的作用下，锯齿在服装需要打孔的位置挤压出孔径，当挤压完成后，转轴反转，装扣机构内的压缩弹簧失去压力的作用开始向两侧伸展，并带动挡持板向上移动，挡持板向上移动的过程中会带动拨动板也向上移动，并使拨动板远离放置槽的表面，放置槽内扣子失去挡持力从其内部掉落出来，随着挡持板的不断上升，扣子最终会水平躺着在冲</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>{[221, 223],部件},{[209, 215],位置},空间关系</t>
-        </is>
-      </c>
+          <t>内容针对现有技术存在的问题，本发明专利提供了一种新款锂电池。本发明专利是这样实现的，一种新款锂电池包括电池壳体，所述电池壳体内部固定有保护板，所述保护板远离与所述电池壳体固定端固定有高温阻燃热缩管，所述高温阻燃热缩管关于所述保护板中部对称设置两根，两根所述高温阻燃热缩管之间固定有电池本体，所述电池壳体一侧固定有电池插头线，所述电池插头线一侧延伸置电池壳体外部，所述电池插头线延伸出电池壳体侧固定有电池插头，所述电池壳体两端还固定有耐高温环氧树脂板。作为本发明专利一种新款锂电池优选的技术方案，所述电池壳体两端开设有圆矩形槽，所述耐高温环氧树脂板固定在所述圆矩形槽内部。</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -5178,47 +4853,29 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>优选的，所述石墨烯基复合抗菌抗病毒粉末吸收光源中能量，激活粒子表面的电子，逸离原先轨道，表面生成带正电的空穴，逸出的电子和空穴与空气中的水气反应生成活性氧和氢氧自由基。优选的，所述逸出的电子进行还原反应，空穴进行氧化反应。优选的，所述络合银离子、锌离子和铜离子与蛋白质发生反应，或者置换酶中金属离子，使酶失活，杀死病毒。</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>{[6, 8],材料},{[19, 25],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>{[141, 148],方法},{[155, 158],效果},方案优点</t>
-        </is>
-      </c>
+          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种可调式止回防火阀，以解决上述背景技术中提出的问题，本发明结构合理，方便对防火止回阀内部开启角度进行调节，结构简单，使用成本低。进一步地，所述限位钢珠右侧安装有挤压弹簧。进一步地，所述防火阀片通过转轴与防火止回阀本体相连接。</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>发明内容为解决上述问题，本发明提供了一种往复式拾热器，有效防止了现有技术拾热装置会出现不少一氧化碳和颗粒物杂质、房间里热量难以掌控并且危害区域卫生、耗能费用高、热量利用性能不高的缺陷。为了克服当下技术中的不足，本发明提供了一种往复式拾热器的解决方案。</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>{[20, 25],方法},{[84, 90],效果},方案优点</t>
-        </is>
-      </c>
+          <t>为解决上述背景技术中提出的问题。本发明提供了一种火车上便于进行维修的卫星信号集电箱，解决了卫星信号集电箱拆卸和安装不方便的问题。为实现上述目的，本发明提供如下技术方案：一种火车上便于进行维修的卫星信号集电箱，包括底座，所述底座的侧面固定连接有连接板，所述连接板的表面开设有通孔，所述底座的表面开设有第一安装槽，所述第一安装槽的内部贯穿设置有第一滑动门，所述第一滑动门的表面设置有观察窗，所述第一滑动门的表面开设有通风孔，所述底座的顶部开设有第二安装槽，所述第二安装槽的内部贯穿设置有第二滑动门，所述第一滑动门的一侧固定安装有门锁，所述第二滑动门的顶部通过凹槽连接有固定板，所述固定板的顶部安装有定位连接板，所述定位连接板的表面开设有螺纹孔，所述固定板的底部安装有限位轴，所述限位轴的表面套设有旋转管，所述旋转管的表面固定连接有分隔板，所述分隔板的一侧通过销钉连接有支撑板，所述分隔板的底端固定安装有底部支撑板，所述底部支撑版的底部安装有支撑杆，所述底座的顶部开设有第三安装槽。优选的，所述连接板关于底座的中心线对称设置，且两块连接板的表面均开设有若干个通孔。优选的，所述第二滑动门的表面对应开设有一组通风孔，所述第一滑动门和</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
@@ -5226,133 +4883,74 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种摄影云台锁紧装置，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种摄影云台锁紧装置，包括底座，所述底座的两侧均固定连接有侧板，所述侧板的顶部固定嵌设有连接板，两个所述连接板之间设置有第一安装板，所述侧板的上方设置有第一螺纹杆，所述第一螺纹杆的一端螺纹穿过其中一个侧板固定连接有手柄，所述第一螺纹杆的另一端与其中另一个侧板转动连接，所述第一螺纹杆的外部螺纹套接有螺母座，所述螺母座的外部设置有支撑杆，所述支撑杆的上方设置有连接座，所述连接座的顶端与第一安装板下表面的一侧固定连接，所述连接座的内部开设有圆槽，所述圆槽的内腔中活动嵌设有滚珠。优选的，所述支撑杆的顶端固定连接有连接块，所述连接块与滚珠的外壁固定连接。</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>{[90, 91],部件},{[79, 83],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>{[16, 23],方法},{[26, 39],效果},方案优点</t>
-        </is>
-      </c>
+          <t>有鉴于此，本发明提供一种电路结构简单，成本低廉，传输和控制效率稳定、安全，能够使电子产品微型化的一种双TYPE-C接口控制电路。为了实现本发明目的，可以采取以下技术方案：一种双TYPE-C接口控制电路包括两个TYPE-C接口控制电路、MCU芯片和显示控制电路，所述MCU芯片分别控制该两个TYPE-C接口控制电路，该MCU芯片控制该显示控制电路；所述TYPE-C接口控制电路包括第一TYPE-C接口、第二TYPE-C接口、USB切换控制器、USB接口；所述第一TYPE-C接口、第二TYPE-C接口分别通过通过USB切换控制器控制该USB接口信号；所述第一TYPE-C接口、第二TYPE-C接口分别输入信号至该显示控制电路。所述MCU芯片为型号是FL7102的芯片。所述显示控制电路包括显示芯片，该芯片为型号是RTD2556-CG或者是型号为RTD2556T-CG的芯片。所述USB接口包括至少两个USB接口。</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种节能玻璃加工用的固定装置，具备通过玻璃的自身重力对玻璃进行夹持，夹持方便，且夹持的力度稳定，不会对玻璃造成损坏，同时便于对玻璃进行转动来进行周边的加工打磨等优点，解决了背景技术提出的问题。（二）技术方案为实现上述通过玻璃的自身重力对玻璃进行夹持，夹持方便，且夹持的力度稳定，不会对玻璃造成损坏，同时便于对玻璃进行转动来进行周边的加工打磨的目的，本发明提供如下技术方案：一种节能玻璃加工用的固定装置，包括固定架，所述固定架上开设有放置槽，所述放置槽内设置有两对称设置的支撑杆，所述放置槽的内壁固定连接有连接杆，所述支撑杆的外侧固定连接有转动座，所述连接杆与转动座转动连接，所述支撑杆的上端固定连接有套环，所述支撑杆的上方设置有两个对称设置的挤压板，两个所述挤压板的外侧中间位置固定连接有连接轴，所述连接轴转动连接在套环内，所述支撑杆的内侧下端开设有滑槽，位于两支撑杆之间设置有承载装置，所述承载装置的两端与两侧的滑槽滑动连接，所述支撑杆的下端外侧固定连接有压缩弹簧，所述压缩弹簧的另一端与放置槽内壁固定连接。优选的，所述承载装置包括两侧左右设置的固定块，所述固定</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>{[47, 62],方法},{[78, 86],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>{[282, 284],部件},{[271, 276],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>{[265, 267],部件},{[252, 255],位置},空间关系</t>
-        </is>
-      </c>
+          <t>本发明就是为了解决上述背景技术中的问题，提供了一种溶出度高、能够快速被吸收的盐酸贝尼地平片剂及其制备方法。为此，本发明提供了一种盐酸贝尼地平片剂，由重量份数的以下组分组成：盐酸贝尼地平0.1～20％，亲水性填充剂20～60%、润湿剂0.5～6.0%、崩解剂25～50%、粘合剂2.5～4.0%、助流剂1%～3%，固体分散载体为余量。优选地，所述亲水性填充剂为淀粉类、淀粉衍生物、糊精、糖类、微晶纤维素的一种或几种。</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>发明内容本发明的主要目的在于提供一种扩压器及电机，以解决现有技术中提高扩压器的配合面的精度造成成本急剧增加的问题。为实现上述目的，本发明提供了一种扩压器，包括：底盘和叶片组件，叶片组件通过升降结构与底盘连接，以调节叶片组件的配合面的高度。本发明技术方案，具有如下优点：叶片组件通过升降结构与底盘连接，可以调节叶片组件的配合面的高度，实现安装过程中根据前面工序的安装结果进行扩压器的配合面的高度的线上调节，进而可将叶轮和轮盖之间的间隙调至较高的精度。并且升降结构的设置基本不会造成加工和装配成本的增加，在保证低成本的情况提高装配精度。</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>{[226, 229],方法},{[242, 245],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>{[73, 75],部件},{[83, 86],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>{[94, 97],方法},{[218, 222],效果},方案优点</t>
-        </is>
-      </c>
+          <t>本发明提出的一种毛刷生产用打孔装置，解决了毛刷生产的过程中需要对其打孔的问题。为了实现上述目的，本发明采用了如下技术方案：一种毛刷生产用打孔装置，包括传送架，所述传送架的顶部固定连接有传送辊，所述传送辊的外圈套接有传送带，所述传送架的顶部前后壳壁焊接有安装架，所述安装架的顶部底侧焊接有套筒，所述套筒的背面设有与安装架的顶部底侧焊接的支撑杆，所述支撑杆的底端通过螺栓连接有第一驱动电机，所述第一驱动电机的输出轴固定连接有第一转轴，所述第一转轴贯穿套筒的背面壳壁，所述第一转轴远离第一驱动电机的一端固定连接有连接杆，所述连接杆远离第一转轴的一端正面滑动套接有镂空板，所述镂空板的底部焊接有固定杆，所述固定杆的底端通过螺栓连接有第二驱动电机，所述第二驱动电机的输出轴固定连接有第二转轴，所述第二转轴的底端固定连接有钻头。优选的，所述传送架的顶部设有五个传送辊，五个所述传送辊之间的间距均相同，所述传送带的外圈设有防滑纹。</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>发明内容为了解决上述问题，本发明提供了一种地质勘探仪器租赁方法、设备及存储设备，当工程时间较短时，采用租赁的方式去使用地质勘探仪器，对于需要使用地质勘探仪器的一方来说，可以节省花费资金，对于地质勘探仪器闲置方来说，也可以提高地质勘探仪器的利用率，赚取地质勘探仪器租赁金，提高了地质勘探仪器资源的利用率。利用本方案，出租方也可以根据机械设备的租赁信息及时的将闲置的地址勘探设备进行出租，提高地质勘探仪器资源的利用率。</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>{[21, 30],方法},{[119, 121],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>{[21, 30],方法},{[86, 91],效果},方案优点</t>
-        </is>
-      </c>
+          <t>为了克服安装螺钉时，很难安装上去，同时工作人员必须借助梯子才能安装上去，导致每次下井必须携带梯子，耗费人力的缺点，技术问题为：提供一种无需使用梯子，可单人使用，方便安装的矿山导线点自动安装设备。本发明的技术方案是：一种矿山导线点自动安装设备，包括有长杆、机械箱、箱体、滑轨、滑块、安装板、钉套、第一齿条、第一齿轮、调节装置、固定套、推杆、电钻和缓冲顶块，长杆上设置有机械箱，机械箱顶部设置有箱体，箱体内壁设置有滑轨，滑轨上滑动式设置有滑块，滑块上滑动式设置有安装板，安装板上均匀设置有钉套，安装板底部设置有第一齿条，机械箱上通过转动轴转动式设置有第一齿轮，机械箱侧壁滑动式设置有固定套，固定套上套接有电钻，固定套下侧设置有推杆，固定套与调节装置连接，调节装置用于安装板横向移动调节，箱体底部设置有缓冲顶块，缓冲顶块位于电钻正上方。进一步，调节装置包括有第一皮带轮、第二齿轮、棘爪、第二齿条、第二皮带轮和平皮带，第一齿轮前侧设置有第二皮带轮，机械箱内前壁转动式设置有第一皮带轮，第一皮带轮上开有棘轮槽，机械箱内后壁转动式设置有第二齿轮，第二齿轮前侧设置有棘爪，棘爪与棘轮槽配合，固定套上连接有第二齿条，第二齿条与第二齿轮啮合，</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的就是针对上述缺点，提供一种节省保护纸、降低包装成本、更好地保护印刷感光材料板的一种便于移动的整箱感光印刷材料板。本发明所采用的技术方案是：一种便于移动的整箱感光印刷材料板，所述包装盒的内壁上焊接有放置盒，包装盒的外壁上焊接有把手，包装盒里面具有多张单体的印刷感光材料板，在印刷感光材料板之间夹设有保护纸，印刷感光材料板具有正面和背面，所述的正面是具有感光涂层的一面，所述的背面是基板呈现的一面；所述的保护纸是一个框体，框体是配合印刷感光材料板周边的结构，保护纸周围还有超出印刷感光材料板的超出部分，所述的印刷感光材料板正面朝下设置，所述的印刷感光材料板的厚度是保护纸厚度的6-7倍。</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>{[296, 299],数值},{[287, 288],属性},参数关系</t>
-        </is>
-      </c>
+          <t>发明内容本发明的目的在于提供一种健康开胃的陈皮面条及其制作方法，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种健康开胃的陈皮面条，原料包括陈皮和面粉，所述陈皮包括青皮、二红柑、大红柑。优选的，二红柑5-10份，面粉110-140份。优选的，青皮8-12份，面粉100-150份。</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
@@ -5360,47 +4958,29 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>发明内容针对上述情况，为克服现有技术的缺陷，本发明提供一种可分解甲醛的汽车坐垫，有效的解决了目前坐垫上的活性炭去除甲醛速率慢，易二次污染，以及坐垫不具备按摩功效，驾驶易疲劳的问题。与现有技术相比，本发明的有益效果是：(1)、本发明无二次污染，无需光照加热，除甲醛能力强；(2)、通过在底垫和靠垫上设置的气囊条、凸起、磁铁片以及弹簧，能够进一步提高人员舒适感。</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>{[142, 146],部件},{[151, 164],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>{[35, 38],方法},{[30, 33],效果},方案优点</t>
-        </is>
-      </c>
+          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种保护性约束监护仪传感器固定装置。为了实现上述目的，本发明采用了如下技术方案：一种保护性约束监护仪传感器固定装置，包括固定模块、传感器安装腔体和传感器，所述固定模块设置有引线端子，所述固定模块设置有旋转轴，所述传感器安装腔体的外壁套接有支撑体。优选的，所述旋转轴的外壁套接有卷弹簧。优选的，所述卷弹簧的外壁设置有外环套。</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>发明内容本发明在于提供一种笔记本电脑，藉以在有限的空间内设置天线，并且天线不易被屏蔽而能正常运作。本发明之一实施例所公开的笔记本电脑，包含一主机、一显示器、一连接件、一天线以及一电磁能隙结构。主机具有彼此相对的一第一侧以及一第二侧。显示器具有彼此相对的一第三侧以及一第四侧。连接件具有彼此相对的一第一端以及一第二端，第一端枢转地设置于主机的第二侧，第二端枢转地设置于显示器的第三侧。天线设置于显示器的第四侧并且电磁能隙结构设置于主机的第一侧，或者天线设置于主机的第一侧并且电磁能隙结构设置于显示器的第四侧。根据上述实施例所公开的笔记本电脑，当显示器相对于主机枢转360度时，天线会因为所正向面对的电磁能隙结构的作用而不至于被第一表面处的金属材质壳体屏蔽住天线本身的幅射场，因而能在天线发挥正常功能的同时亦保有金属材质壳体的美观外型。以上的关于本发明内容的说明及以下的实施方式的说明用以示范与解释本发明的原理，并且提供本发明的专利申请权利要求保护范围更进一步的解释。</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>{[69, 94],部件},{[61, 65],零件},部分关系</t>
-        </is>
-      </c>
+          <t>作为本发明的进一步方案：所述滑槽为燕尾槽，所述滑块的形状与滑槽的形状相适配。作为本发明的进一步方案：所述第一螺纹杆的左端固定连接有转板，所述转板左侧面的上方固定连接有把手。作为本发明的进一步方案：所述第二螺纹杆的顶端固定连接有挡板，所述挡板的长度大于第二螺纹杆的直径。作为本发明的进一步方案：所述第一隔离板左侧面的下方固定连接有两个支撑腿，两个所述支撑腿分别位于第一隔离板左侧面的前侧和后侧。</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -5408,137 +4988,74 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>为了方便生产制造，本发明改进有，所述第一垫块和所述第二垫块材质相同。为了保证密封性，本发明改进有，所述第一垫块和所述第二垫块材质为橡胶，所述第一垫块和所述第二垫块材质也可为硅胶。为了防止车窗玻璃在玻璃支架上移动，本发明改进有，所述车窗玻璃与所述玻璃支架之间通过密封胶连接。</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>{[86, 87],材料},{[91, 104],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>{[115, 118],部件},{[124, 125],零件},部分关系</t>
-        </is>
-      </c>
+          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种输电线路山火预警方法。为了实现上述目的，本发明采用了如下技术方案：设计一种输电线路山火预警方法，具体步骤如下：S1、输入气象观测站点每日最高气温预报数据，计算出每日最高气温山火风险天气指数A值；S2、输入气象观测站点每日最小相对湿度预报数据，计算出每日最小相对湿度山火风险天气指数B值；S3、输入气象观测站点当日降水预报数据，及过去八天的降水实况数据，计算出降水山火风险天气指数C值；S4、输入气象观测站点每日最大风力预报数据，计算出每日最大风力山火风险天气指数D值；S5、获取防火期生物及非生物物候期季节的影响的订正指数E值，与A、B、C、D值取和值，计算出火险天气指数HTZ值；S6、根据HTZ计算出火险等级，并筛选出达到山火风险的气象观测站点的数据集Station_Dataset(包含经纬度，火险等级)；S7、输入电力线杆塔数据集Tower_Dataset(包含经纬度，电力线信息)、Station_Dataset使用java程序计算出杆塔附近1km是否存在达到山火风险的气象观测站点，若有则该电力杆塔具有山火风险，得出具有山火风险的杆塔数据集TowerDis</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种锑纳米片的制备方法。实现本发明目的的技术解决方案为：一种锑纳米片的制备方法，包括以下步骤：(1)将锑粉分散在浓酸中，在恒温水浴下搅拌，结束后静置一段时间；(2)将步骤(1)所得悬浮液在搅拌下匀速缓慢溶于超纯水中，抽滤、洗涤、真空干燥。较佳的，步骤(1)中，浓酸包括浓盐酸、浓硫酸、浓硝酸等。较佳的，步骤(1)中，锑粉与浓酸的比例1:100～150g/ml。较佳的，步骤(1)中，在0～40℃恒温水浴下搅拌4～24h，结束后静置30～60min。较佳的，步骤(2)中，为了提高锑纳米片的纯度，向超纯水中提前鼓吹氩气30～60min以去除水中溶解氧。较佳的，步骤(2)中，步骤(1)所得悬浮液与超纯水的体积比为1:5～20。较佳的，步骤(3)中，真空干燥温度为25～45℃，时间为1～8h。本发明与现有技术相比，其具有显著优点：(1)本发明的制备方法操作简单，在常温常压下进行，锑纳米片厚度约为2～5nm(2)原料及设备普及度高价格低廉，可大量制备。因此，本发明对纳米材料制备具有良好的应用前景。</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>{[344, 349],数值},{[341, 342],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>{[411, 415],数值},{[407, 408],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>{[148, 158],部件},{[144, 145],零件},部分关系</t>
-        </is>
-      </c>
+          <t>：本发明的目的是为了解决上述问题，发明目的：本发明针对四探测线圈无线充电定位系统提出了一种用于四探测线圈无线充电定位装置的定位方法，通过事先测量的参数结合模糊数学理论中的隶属度函数模型，描述待测位置与参照位置的接近程度，从而实现对待测位置的定位工作。为了达到上述目的，本发明采用的方法是：一种用于四探测线圈无线充电定位系统的定位方法，该定位方法是基于四线圈定位系统置实现的，所述的四线圈定位装置包括四个小型探测线圈，所述的四个小型探测线圈布置在在与接收线圈同高度的平面，四个平衡线圈的中心连线交汇于接收线圈中心，且探测线圈与接收线圈的相对位置固定；所述的定位方法包括如下步骤：1)、将定位范围内的空间划分为若干网格；2)、在每个网格化参照点测量记录四个探测线圈的感应电压有效值并将该信息存储于存储设备中；3)、定位工作开始后读取当前位置的四个线圈感应电压有效值；4)、利用四个探测线圈的全部感应电压信息来表征当前位置与参照点位置的变化，如下式所示：ΔU＝|up1-ur1|+|up2-ur2|+|up3-ur3|+|up4-ur4|其中，up1,up2,up3,up4为当前位置四个探测线圈感应电压值，ur1,ur2,ur3</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>发明内容本发明为了解决上述现有技术中存在的缺陷和不足，提供了一种采用微波加热液体产生蒸汽配合发泡塑料进行发泡，一方面可以使得发泡成型机的结构简单紧凑，缩小发泡成型机的整体体积，另一方面微波发生器只需使用电能，能耗较小，无污染，不仅降低制作和使用成本，而且节能环保的利用微波加热使可发性塑料颗粒发泡成型的方法。本发明的技术方案：一种利用微波加热使可发性塑料颗粒发泡成型的方法，步骤如下:1)模具入料及加入液体:通过注料枪利用压缩空气把原料和液体注入到模具腔室内，其中模具采用塑料类耐高温绝缘材料制作；2)加热发泡:在模具腔室外配置微波屏蔽罩和微波发生器，通过微波发生器给模具腔室内发送微波,使模具腔室内的液体受热汽化给原料颗粒加热成型；3)冷却:通过真空冷却系统或者风冷系统冷却模具腔室内的成型产品；4)脱模:利用开模动力源将模具打开，把模具腔室内成型完成的产品自动或者手动脱离模具，并取出产品。本发明采用微波加热液体产生蒸汽配合发泡塑料进行发泡，一方面可以使得发泡成型机的结构简单紧凑，缩小发泡成型机的整体体积，另一方面微波发生器只需使用电能，能耗较小，无污染，不仅降低制作和使用成本，而且节能环保。"</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>{[400, 421],方法},{[423, 498],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>{[322, 335],方法},{[336, 347],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>{[27, 53],方法},{[55, 149],效果},方案优点</t>
-        </is>
-      </c>
+          <t>为了实现上述目的，本发明是由窗扇、支架、窗纱、卷管组成。本发明的窗纱和窗扇是一体的结构，即窗纱的支架就是窗扇的侧边框，窗纱卷在卷管上，卷管带弹簧自由旋转可以自动回位，窗纱可以随卷管的旋转自由伸缩，窗纱外漏部分可以和窗框自由连接；当打开窗扇时，窗纱随窗扇一起拉开，当关闭窗扇时，窗纱可以随卷管收起来，隐藏在窗扇的边框里，形成一体的结构。另外可以根据需要安装在窗扇的任意一侧。</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明提供了一种便捷，灵活性高，适用于FDM的添加连续长纤维的长丝添加系统及方法。为实现上述目的，本发明所述的长丝添加系统包括丝材入口、纤维入口、恒温器、切断装置、打印喷头、打印工作台、计算机、用于控制打印喷头在水平方向移动的X轴、Y轴控制系统、用于控制工作台在竖直方向上移动的Z轴控制系统；所述丝材入口喂入Φ1.75mm~5mm的改性丝材，包括PLA、PA、PET、PBT、PC、ABS；所述纤维入口喂入单根长纤维，包括玻璃纤维、碳纤维。</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>{[64, 69],部件},{[86, 89],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>{[212, 216],部件},{[220, 223],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>{[212, 216],部件},{[206, 209],位置},空间关系</t>
-        </is>
-      </c>
+          <t>发明内容本发明的目的在于提供一种山上养殖用饲料运输装置，具备可根据情况改变外型，适用于不同的种类的饲料运输的优点，解决了运输不同材质物品所需不同车型的问题。优选的所述插销槽数量为两个，两个插销槽以铁网中轴线对称分布在。优选的所述第二滑道数量为两个，第二滑道安装在插销槽和限位板之间。优选的所述第二挡板数量为两个，两个第二挡板焊接在两个所述第一挡板相对一侧的铁网上。优选的所述第二挡板上安装的第一滑道位于第二滑道正上方。</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种降低色差的波导镜片及AR显示装置。本发明提供一种波导镜片，包括波导基底、设置在所述波导基底表面由光栅组成的功能区域，所述功能区域包括用于将图像光线耦合进入所述波导基底的耦入区域、用于将经所述耦入区域及所述波导基底传导过来的图像光线改变方向的中继区域，以及用于将所述中继区域经所述波导基底传导过来的图像光线投射到波导镜片外部空间中的耦出区域，所述中继区域包括用于将经所述耦入区域及所述波导基底传导过来的图像光线向两侧传递的中间转折区和分布在所述中间转折区两侧用于将所述中间转折区传递过来的所述图像光线向所述耦出区域传导的边部转折区。"</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>{[47, 72],部件},{[40, 43],零件},部分关系</t>
-        </is>
-      </c>
+          <t>本实验采用双氧水-甲酸体系对地沟油的环氧化进行了合成，流程操作简单，成本低，易于实现工业化。为达到上述目的，本发明所采用的技术方案包括以下步骤：地沟油的改性：取原油静置沉淀，并虑去上层油中的杂物，将地沟油加热至50-60℃过滤、白土脱色，然后加入油料质量0.2%的磷酸和2%的水，继续在40℃下搅拌脱胶30min，最后得到脱色、去味、澄清的地沟油以备用。地沟油的环氧化：将预处理后的油料与甲醇、浓硫酸按质量比100：30:1.5加入反应器中，在75℃回流条件下酯化3h，酯化后的油料用3%的碳酸氢钠溶液水洗至约中性再用饱和食盐水溶液水洗一次，最后减压蒸馏脱水；再将酯化后的油料与甲醇、氢氧化钠按质量比50:20:1混合加入反应器，在65℃、回流条件下酯交换2h，反应完毕后，将产物用约0.1mol/L的盐酸溶液洗至约中性再用饱和食盐水洗一次，静置分层，取油层减压脱水，获得脂肪酸甲酯；将脂肪酸甲酯、双氧水、甲酸、硫酸、尿素按质量比200:150:25:2:3.8称量，环氧化反应前，先将双氧水、甲酸、硫酸及尿素混合，再采用滴加方式将其加入70℃的油料中，滴加时间控制在1-2h内，滴加完毕后继续保温反应，每隔一定时间间隔取样</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
@@ -5546,21 +5063,14 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术中的缺陷，本发明提出了脑部修块装置，通过磁吸的特征，可以根据需要快速的组合刀片与卡座，快速进行大小鼠鼠脑修块操作，可在极短的时间准确完成修块；操作简便，组合灵活，可完成各种形状的脑块修块操作；且通用性强，大鼠与小鼠的鼠脑均可使用，此外修块准确，解决了传统修块误差大的缺点。具体的，本发明提出了以下具体的实施例：本发明实施例提出了脑部修块装置，应用于鼠类脑部的修块，包括：金属材质的卡座、一个或多个刀片；其中，所述刀片的背部带有磁性，所述刀片的背部与所述卡座通过磁吸实现连接。在一个具体的实施例中，所述刀片包括刃部与具有磁性的背部；所述刃部与所述背部连接。在一个具体的实施例中，所述背部为磁铁条。在一个具体的实施例中，所述刃部的侧视图截面为等腰三角形。在一个具体的实施例中，所述背部的宽度大于所述刃部顶端的厚度。在一个具体的实施例中，所述背部的长度小于所述刃部的长度。在一个具体的实施例中，所述卡座为圆形金属板。在一个具体的实施例中，所述卡座为铁质圆板。在一个具体的实施例中，所述卡座的形状为方形。在一个具体的实施例中，所述卡座的顶端还设置有防滑层。以此，本发明实施例提出了脑部修块装置，应用于鼠类脑部的修</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>{[18, 79],方法},{[132, 144],效果},方案优点</t>
-        </is>
-      </c>
+          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种楼房排风道防火阀，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，防火效果好。进一步地，所述叶片前端面开设有安装孔，且安装孔内部设置有内螺纹，所述螺丝贯穿安装板与叶片通过螺纹相连接。进一步地，所述叶片后端面右侧开设有锥形槽，且锥形槽设置有两组，所述第一锥形卡板和第二锥形卡板与锥形槽相匹配。</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
@@ -5568,21 +5078,14 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>发明内容针对上述内容，为了给复方脉通方进一步的药效学实验研究提供质优的中药复方制剂，本研究以丹参中的丹参酮ⅡA及当归中的阿魏酸含量作为评价指标，采用正交实验优选出中药复方制剂复方脉通口服液最佳的水提工艺条件。本发明的上述目的通过以下技术方案实现：采用中药丹参、川芎、葛根、三七、当归、郁金进行组方，采用正交设计试验对提取时间、溶剂用量、浸膏的密度、醇沉时的含醇量四因素进行优化，以丹参中的丹参酮ⅡA和当归中的阿魏酸含量为评定指标，水提醇沉法提取有效成分制成复方脉通口服液，选出最佳工艺条件。优选地，总提取时间为3.5h(提取三次，提取时间分别为1.5h、1.5h、1.5h)。优选地，总加水量为药材质量的20倍(提取三次，加水量分别为药材质量的8倍、6倍、6倍)。优选地，提取液浓缩至相对密度d为1.35(热测)。优选地，醇沉时的含醇量为65％。本发明的有益效果：本发明筛选出中药复方制剂复方脉通口服液最佳工艺条件，工艺条件切实可行，可用于工业制备推广。</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>{[72, 102],方法},{[13, 40],效果},方案优点</t>
-        </is>
-      </c>
+          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种组合式防漏风空调组件及滤芯结构，以解决上述背景技术中提出的问题，本发明结构合理，密封效果好，有效避免组合式空调中滤芯漏风。进一步地，所述连接座安装有两组，且两组连接座内部穿插有连接螺丝。进一步地，所述折叠滤芯上下端面对称卡装有卡块，所述折叠滤芯与卡块之间通过固定螺钉相连接，所述折叠滤芯由无纺布纤维毡材料制成。</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -5590,107 +5093,59 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种弦乐器共振箱玻璃纤维网胶合板的制作方法，合理地解决了现有技术的弦乐器共振箱主要采用单层箱板结构，导致音色比较枯燥、缺乏层次感和穿透力，有的共振箱为了加强结构的稳固性，内部加入一些连接块，从而影响声波的共振和碰撞，影响音质的问题。本发明采用如下技术方案：一种弦乐器共振箱玻璃纤维网胶合板的制作方法,包括共振箱板、玻璃纤维网、内衬板和美国太棒木工胶，其特征在于：所述制作方法包括以下步骤：步骤一、裁切打磨；步骤二、箱板施胶；步骤三、安装网片；步骤四、二次施胶。克服了现有技术的不足。</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>{[105, 107],材料},{[124, 125],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>{[19, 34],方法},{[95, 97],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>{[144, 157],部件},{[171, 175],零件},部分关系</t>
-        </is>
-      </c>
+          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种防火阀门保护机构，以解决上述背景技术中提出的问题，本发明结构合理，可以有效对防火阀主体进行保护，安装便捷，使用成本低。进一步地，所述防滑软胶垫圈安装有两组，且两组防滑软胶垫圈规格相同。进一步地，所述防火阀主体通过连接法兰与第一管道和第二管道相连接。进一步地，所述上夹板和下夹板规格相同。</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供可选择微调同步电机，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，微调移动便捷，使用效果好。为了实现上述目的，本发明是通过如下的技术方案来实现：可选择微调同步电机，包括电机座、电机、调节孔以及便于微调机构，所述电机座内部安装有电机，所述电机座上端面开设有调节孔，所述电机左侧设置有便于微调机构，所述便于微调机构包括固定板、支撑座、转动柱、转动盘、夹力孔、导向柱、防松垫圈以及螺栓，所述电机左端面固定有固定板，所述固定板左端面安装有导向柱，所述导向柱左侧装配有支撑座，所述支撑座内部安装有转动柱，所述转动柱左端面装配有转动盘，所述转动盘上端面开设有夹力孔，所述支撑座上端面安装有螺栓，所述螺栓环形侧面套设有防松垫圈。进一步地，所述固定板左端面开设有圆孔，所述支撑座右端面开设有圆孔，所述导向柱直径与圆孔内径相匹配，所述导向柱设置有四组，且四组导向柱规格相同。进一步地，所述支撑座右端面开设有通孔，且通孔内部设置有内螺纹，所述转动柱环形侧面设置有外螺纹，所述转动柱与支撑座通过螺纹相连接。进一步地，所述夹力孔设置有多组，且多组夹力孔规格相同。""</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>{[116, 133],部件},{[104, 112],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>{[426, 427],部件},{[415, 422],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>{[22, 32],方法},{[35, 48],效果},方案优点</t>
-        </is>
-      </c>
+          <t>的是为了解决上述问题，发明目的：本发明针对四探测线圈无线充电定位系统提出了一种用于四探测线圈无线充电定位装置的定位方法，通过事先测量的参数结合模糊数学理论中的隶属度函数模型，描述待测位置与参照位置的接近程度，从而实现对待测位置的定位工作。为了达到上述目的，本发明采用的方法是：一种用于四探测线圈无线充电定位系统的定位方法，该定位方法是基于四线圈定位系统置实现的，所述的四线圈定位装置包括四个小型探测线圈，所述的四个小型探测线圈布置在在与接收线圈同高度的平面，四个平衡线圈的中心连线交汇于接收线圈中心，且探测线圈与接收线圈的相对位置固定；所述的定位方法包括如下步骤：1)、将定位范围内的空间划分为若干网格；2)、在每个网格化参照点测量记录四个探测线圈的感应电压有效值并将该信息存储于存储设备中；3)、定位工作开始后读取当前位置的四个线圈感应电压有效值；4)、利用四个探测线圈的全部感应电压信息来表征当前位置与参照点位置的变化，如下式所示：ΔU＝|up1-ur1|+|up2-ur2|+|up3-ur3|+|up4-ur4|其中，up1,up2,up3,up4为当前位置四个探测线圈感应电压值，ur1,ur2,ur3,ur4为某</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>进一步地，所述RS-232通信模块用于采集燃料电池的相关参数。进一步地，所述RS-485通信模块用于采集太阳能控制器的相关参数。进一步地，所述4G通信模块同时接收RS-232通信模块和RS-485通信模块发送的燃料电池和太阳能控制器的相关参数。</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>{[71, 76],方法},{[79, 80],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>{[7, 16],方法},{[19, 20],效果},方案优点</t>
-        </is>
-      </c>
+          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种智慧办公用安防装置。作为上述技术方案的进一步描述：所述喇叭通过第三传输线连接有计算机，所述第三传输线滑动连接在该侧的第一安装槽与凹槽内。作为上述技术方案的进一步描述：所述第一出线槽贯穿箱体顶壁，所述摄像头通过第一传输线连接有计算机，所述第一传输线滑动连接在该侧的第一出线槽内，两个所述第一出线槽位于两个凹槽之间。</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>发明内容（一）解决的技术问题针对现有技术的不足，本发明提供了一种利用针头缝纫速度控制布料移速的缝纫装置，具备根据针头缝纫速度自动移动布料，防止损坏针头等优点，解决了传统缝纫机必须缝纫时必须用手按住移动的问题。（二）技术方案为实现上述根据针头缝纫速度自动移动布料，防止损坏针头等目的，本发明提供如下技术方案：一种利用针头缝纫速度控制布料移速的缝纫装置，包括机体，所述机体的内部活动连接有脚踏板，所述脚踏板的上方活动连接有主动转轮，所述脚踏板与主动转轮之间活动连接有活动杆，所述机体的上方外表面活动连接有缝纫箱，所述缝纫箱的内部活动连接有从动转轮，所述从动转轮内部固定连接有主动齿轮，所述主动齿轮的右下方活动连接有移动齿轮，所述移动齿轮的左侧活动连接有针齿轮，所述针齿轮的左侧活动连接有针齿条，所述针齿条的左侧固定连接有固定滑轨，所述固定滑轨内部活动连接有移动滑块，所述针齿条的下方活动连接有固定夹，所述固定夹的下方活动活动连接有移动台，所述针齿轮的下方活动连接有平动齿轮。优选的，所述主动转轮与从动转轮和针齿轮与平动齿轮之间均通过带传动连接，保证了传动的同步性。优选的，所述移动齿轮的内侧设计有轮齿，保证了移动齿轮可以带动针齿</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>{[32, 50],方法},{[52, 102],效果},方案优点</t>
-        </is>
-      </c>
+          <t>本发明的目的在于提供一种性能优良，成本低廉的钾离子电池正极材料及其制备方法，制得的正极材料具有开放的三维空间网络结构，能够可逆存储钾离子。为达到上述目的，本发明采用的技术方案为：一种钾离子电池正极材料，其特征在于：该正极材料的化学式为KxMyFezPO4，其中0≤x≤1，0≤y≤1，0≤z≤1，M为过渡金属离子(包括Co2+，Ni2+，Mn2+中的一种或多种)；该正极材料具有开放的三维空间网络结构，能够可逆存储钾离子。如上所述的钾离子电池正极材料的制备方法，包括以下步骤：a.按质量比称量九水硝酸铁、聚乙烯吡咯烷酮(K30)和其他过渡金属硝酸盐，称量的原料溶解在去离子水中超声搅拌形成均匀的溶液，然后完全干燥并研磨成粉；b.将研磨好的粉体转移至坩埚中，然后将坩埚置于管式炉中在氩气气体氛围中以4～6℃/min的升温速率加热至800～850℃，并保温1～2h；随后以4～6℃/min的降温速率降温至350～400℃，通入氧气，保温2～3h，得到铁基过渡金属氧化物纳米颗粒；c.按质量比称量铁基过渡金属氧化物纳米颗粒和磷酸氢二钾，混合物研磨混合均匀后置于管式炉中在氮气氛围中以4～6℃/min的升温速率加热至700～900℃</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
@@ -5698,21 +5153,14 @@
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机床工作台废屑清理机构，以解决上述背景技术中提出的现代的废屑清理机构，不能够适应不同厚度的机床工作台，使得适用性较差，且不能够对废屑进行收集，使用后需要对地面上的废屑进行清扫的问题。为实现上述目的，本发明提供如下技术方案：一种机床工作台废屑清理机构，包括底板、支撑台和主箱，所述底板的正面和背面均安装有滑轨，且滑轨的顶端设置有滑动机构，其中：所述支撑台的上方安装有液压缸，且支撑台位于滑动机构上方，所述液压缸的顶端安装有连接台，且连接台的一端设置有连接轴；所述主箱的底面设置有防护网板，且主箱位于连接轴的末端，所述主箱的内部安装有风机，且风机的上方设置有连接管，所述连接管的末端设置有收集机构，所述主箱的背面安装有海绵垫。优选的，所述滑动机构包括滑杆和塑胶垫，且滑动机构的内部安装有滑杆，所述滑动机构的底面设置有塑胶垫。优选的，所述滑杆与滑轨之间构成滑动结构，且滑动机构与滑杆之间为滑动连接，并且滑动机构的竖直中心线与塑胶垫竖直中心线重合，同时塑胶垫与滑动机构之间为固定连接。</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>{[12, 26],方法},{[29, 105],效果},方案优点</t>
-        </is>
-      </c>
+          <t>本发明的目的在于提供一种降血糖的药剂，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种降血糖的药剂，包括如下步骤：a.称取质量份数比为4:2:2:1的苦瓜、荞麦、薏米和稻米；b.分别将苦瓜、荞麦、薏米和稻米进行烘焙，烘焙后研磨粉，制成苦瓜提取物、荞麦提取物、薏米提取物和稻米提取物；c.称取质量份数比为4:2:2:1的苦瓜提取物、荞麦提取物、薏米提取物和稻米提取物混合，搅拌，制成药剂。与现有技术相比，本发明的有益效果是：本发明设计了一种降血糖的药剂，以苦瓜、荞麦、薏米和稻米为主原料，在患者食用过程中，具有良好的降血糖效果，没有任何副作用，材料简单，制作成本低，效果好。</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -5720,14 +5168,11 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>优选的，所述入液口与出液口的长度及宽度等于内液管的宽度及高度。优选的，所述内液管的长度与冷却管长度相等，所述内液管的宽度为冷却管的内腔宽度的三分之一。优选的，所述阻隔板的组数等于硬盘的个数加一，且每组共有四个，每两个相对所述阻隔板为一对。</t>
+          <t>本发明为一种脱除废气中含硫化合物的方法，具体包括以下步骤：(1)将碳酸钙和碳酸钠以4：1至6:1的比例，混合、粉碎；(2)将步骤(1)的产物研磨至40~60目，在二氧化碳的气体保护条件下，以500℃至1000℃温度煅烧2-4小时；(3)将步骤(2)制得的吸附剂用于同时脱除硫化氢、二硫化碳等含硫化合物；(4)将含硫氧化物的废气，以至下而上的方式，通过步骤(2)制得的吸附剂，吸附剂上方覆盖透气过滤网筛,可以保证废气能够与吸附剂充分接触，保证脱硫效果；(5)透气过滤网筛材质为锦纶合成纤维，编织方式为平纹席形组织，直径为0.55毫米；(6)经过透气过滤网筛的净化过程，得到净化后的气体。与现有技术相比，本发明的有益效果：首先，吸附剂通过吹扫含硫化物的废气以提供适宜的工作气氛，脱硫效率高，可以在不同的规制的设备中使用；本发明的脱硫方法，相比于现有工艺，操作简单，降低安全风险；并且，现有脱硫工艺，能耗高，吸附剂需要频繁补充，损失较多，而本法能耗显著降低，吸附剂损失少，吸附剂可循环利用，成本更低，无有害副产物产生，对环境友好。</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -5738,14 +5183,11 @@
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术的不足，本发明提供了一种小马力行星减速前桥，解决了前桥的高度差较大，前桥的最低点容易与农作物造成接触，同时在安装时比较复杂，传统的水田型前桥的转向角度较小，无法进行较大范围的转向，且传统的水田型前桥安装步骤复杂，结构的稳定度不高的问题。作为本发明的一种优选技术方案，所述前桥通过前后支座贯穿连接在拖拉机上。作为本发明的一种优选技术方案，所述两组末端行星减速机构与转向节主销保持水平连接，所述两组末端行星减速机构关于前后支座的垂直中心线呈轴对称。作为本发明的一种优选技术方案，所述前桥壳体安装在转向节的前端中部，所述末端行星减速机构通过固定螺丝与转向节两端转动连接。与现有技术相比，本发明提供了一种小马力行星减速前桥，具备以下有益效果：该小马力行星减速前桥，通过设置一种新型小马力减速前桥，通过调整的前桥整体的高度差，使前桥较大的远离地面，避免前桥与农作物相碰，同时通过特殊的油缸排布，增大前桥在转向时的转向角度，使前桥能够获得更大的转向角，消除的高度差能够有效提升的前桥结构的稳定性，同时方便了前桥的安装。</t>
+          <t>进一步的，所述垃圾桶为塑料、金属材质。进一步的，所述垃圾桶圆柱形状一端封闭，另一端有可开闭的盖子。进一步的，所述垃圾桶圆柱形状的中部有一块不超过半圆的圆弧形状的缺口。进一步的，所述中部可打开的盖板为塑料、金属材质。进一步的，所述中部可打开的盖板形状和所述垃圾桶中部的缺口大小、形状能够保持嵌合。</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -5756,14 +5198,11 @@
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明的实施例提供了一种具有保温功能的建材浆料搅拌装置，旨在提高搅拌装置内的温度，提高浆料的搅拌效率。进一步地，所述第一进风口和所述出风口位于所述驱动电机的两侧。进一步地，所述外罩外侧壁设有第一保温层。</t>
+          <t>本发明就是为了解决上述背景技术的问题，其提供了一种反应时间短、反应效率高、杂质含量较低的盐酸贝尼地平的制备方法。为此，本发明提供了一种盐酸贝尼地平的制备方法，具体包含以下步骤：(1)在超声条件下，使2，6-二甲基-4-(3-硝基苯基)-1，4-二氢吡啶-3，5-二羧酸单甲酯均匀分散于N，N-二甲基甲酰胺和二氯甲烷的混合溶剂中，所得混悬液在冰浴冷却下加入氯化亚砜，搅拌得澄清溶液，制得单氯酰化2，6-二甲基-4-(3-硝基苯基)-1，4-二氢吡啶-3，5-二羧酸单甲酯；(2)将步骤（1）中制得的单氯酰化2，6-二甲基-4-(3-硝基苯基)-1，4-二氢吡啶-3，5-二羧酸单甲酯加入1-苄基-3-羟基哌啶，并继续反应；(3)将步骤（2）的反应液经水和或饱和食盐水洗涤若干次后，回收溶剂，得盐酸贝尼地平粗晶；(4)将步骤（3）制得的盐酸贝尼地平的粗晶溶于有机溶剂，用超声波作用若干时间，通过一次或多次结晶，直接获得淡黄色的盐酸贝尼地平的粉末状结晶。优选地，步骤（1）～（4）中的超声条件包括超声温度、超声频率、超声时间和超声功率。</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -5774,14 +5213,11 @@
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是提供一种燃料组件仪表管钻孔装置，其能够满足仪表管钻孔装置需要。本发明的显著效果如下：分度头对仪表管进行精确定量旋转，保证了流水孔的位置精度，保证了产品质量。V型座在高度及同轴度等方面均可进行较大范围的调整，方便了设备调试，保证了设备在高度及同轴度的一致性，使得仪表管在钻孔过程中直线度没有收到较大影响。</t>
+          <t>优选的，所述活动板通过限位块与装置本体活动连接，且限位块的外表面与限位槽的内表面相切。优选的，所述第一收集箱和第二收集箱均通过旋转轴与装置本体活动连接，且第一收集箱和第二收集箱的上表面均开设有通孔。优选的，所述支撑脚通过螺纹槽与螺纹轴活动连接，且螺纹槽的表面涂有润滑油。优选的，所述防滑垫与支撑脚之间设有粘合剂，且防滑垫的外表面开设有多个凹槽。</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -5792,14 +5228,11 @@
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供用于再制造电机的防拆结构，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，有效防拆。为了实现上述目的，本发明是通过如下的技术方案来实现：用于再制造电机的防拆结构，包括接线盒、防拆机构、输出轴、支承座、电机外壳以及风罩，所述接线盒下侧安装有电机外壳，所述电机外壳下侧安装有支承座，所述电机外壳左端面设置有防拆机构，所述电机外壳左侧安装有输出轴，所述电机外壳右端面安装有风罩，所述防拆机构包括防拆罩、盖板、卡齿、槽孔、伸缩弹簧、调节螺栓、紧固螺栓、卡槽以及凹槽，所述电机外壳左侧安装有防拆罩，所述防拆罩左侧安装有盖板，所述防拆罩左端面设置有凹槽，所述防拆罩左端面设置有槽孔，所述槽孔内部安装有调节螺栓，所述调节螺栓环形侧面安装有伸缩弹簧，所述调节螺栓右端面安装有卡齿，所述卡齿环形侧面设置有卡槽，所述凹槽内部安装有紧固螺栓。进一步地，所述盖板以及防拆罩左端面中间位置开设有轴孔，所述轴孔直径略大于输出轴直径。</t>
+          <t>进一步地，所述第一磁铁极性与第二磁铁极性相反，所述第一磁铁与第二磁铁通过磁力相吸。进一步地，所述压缩弹簧直径与活动板直径相同，所述活动板直径与第二磁铁直径相同，所述空心座内径略大于第一磁铁、第二磁铁、活动板以及压缩弹簧直径。进一步地，所述空心座后端面上侧开设有活动孔，且活动孔与弹性连接绳相匹配，所述弹性连接绳通过活动孔与空心座相连接。</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -5810,14 +5243,11 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>进一步的，所述上主轴和下主轴上均安装有多个环形刀片。进一步的，所述外壳的进口内由上到下依次设有上胶轴和下胶轴，上胶轴在上主轴的底端前方，下胶轴在下主轴的顶端前方，所述下主轴的前端同轴安装有驱动齿轮，所述下胶轴的前端同轴安装有联动齿轮，驱动齿轮与联动齿轮之间连接有链轮，所述上胶轴与下胶轴之间摩擦配合。进一步的，所述外壳的下端的四个角落上均安装有升降脚板。</t>
+          <t>本发明的目的是克服现有技术的不足，提供一种铲车板生产工艺，其将铲车板设计成模块式的若干块，便于其进行前期强化处理，并通过良好的强化工艺，制造出强度更高的铲车板。本发明采用以下技术方案：铲车板生产工艺，其包括以下步骤：步骤一：锻打，通过锻打机器对板材进行锻打8-12分钟；步骤二：机加工：将锻打后的板材加工成尺寸为长50cm、宽22-23cm、厚3-3.5cm的子板；步骤三：加热：将子板加热到800-900度；步骤四：淬火：将子板放入水中淬火，淬火时间4-6分钟。作为一种改进，步骤二还包括，在子板上加工出安装孔。作为一种改进，还包括步骤五：将若干子板依次排列安装于一底板的长度方向上，若干所述子板的一侧边缘突出于底板之外形成用于与外部接触铲物的铲物部。作为一种改进，底板和子板上具有相互对应的安装孔，底板和子板之间通过紧固件进行安装；底板和子板上的安装孔具有三个，并且安装孔呈等腰三角形排列，其中两个安装孔并排靠近铲物部设置，第三个安装孔设置于其他安装孔之间的位置并远离铲物部设置。作为一种改进，若干子板相互之间整齐排列在底板形成整体的矩形体。作为一种改进，底板上还设置有间隔排列的铲齿，若干子板分别相适配的安装于相邻铲齿</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -5828,14 +5258,11 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种析出强化型可植入镁合金及其制备工艺。本发明旨在从生物安全性出发，在前期试验中确定低含量Yb添加无明确生物毒性的前提下，以Mg-Zn-Yb-Zr系合金为对象，充分发挥Mg良好的生物相容性、Zn的时效强化作用、Yb对第二相形态及氧化膜结构的改善作用以及Zr细化晶粒作用。优选合金成分和Yb添加量，开发新型医用镁合金及其制备工艺。</t>
+          <t>本发明提供一种超高分辨率球幕数字内容制作技术与工具，利用球幕拍摄系统以及3D虚拟球幕数字制作技术生成球形影像。本发明采用鱼眼镜头等距投影，采用多摄像机拍摄拼接和三维动画制作软件进行制作。使用5台摄像机，结合自主研发的球幕拍摄云台系统（图1），摄像机的拍摄画面设为正方形，视场角（FOV）均设为90度，素材拍摄完成后，使用自主研发的球幕融合拼接技术，可以将各个摄像机获取的影像合成为球幕影像。</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -5846,14 +5273,11 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>发明内容针对上述情况，为克服现有技术的缺陷，本发明提供一种发光汽车坐垫，有效的解决了目前市场上的发光汽车坐垫乘坐一段时间后，会产生较大的热量，且无法进行有效散热，影响驾驶人的驾驶舒适度、汽车夜晚开灯需要耗费一定的能源，造成汽车整体能源损耗，局部损坏时，无法进行零部件更换的问题。优选的，所述坐垫框的侧壁开设有固位孔，且坐垫框上的固位孔内腔与橡胶球的外部相契合。优选的，所述封闭框的大小与坐垫框的大小相同，且封闭框与坐垫框呈上下并列设置。优选的，所述固位块的顶部固定有调节块，且固位块底部位于封闭框内腔的侧壁一端开设有螺纹。</t>
+          <t>本发明的目的在于提供一种便于安装导流片的空调组件，以解决上述背景技术中提出的导流片损坏更换安装麻烦的问题。为实现上述目的，本发明提供如下技术方案：一种便于安装导流片的空调组件，包括空调本体，所述空调本体的右侧内部插设有推杆，且推杆的左侧铰接有铰接轴，所述铰接轴的底端铰接有滑杆，且滑杆的底端与梯形凸块表面相抵触，所述梯形凸块的左侧固定连接有第一连接杆，且第一连接杆插设在第一限位块的内部，所述第一限位块的底端内部插设有抵触块，所述第一连接杆的左侧插设在导流片的内部，所述导流片的左侧固定连接有第二连接杆，且第二连接杆的表面套接有第二齿轮，且第二齿轮的顶端与第一齿轮相啮合，所述第一齿轮的左侧固定连接有摇把，所述空调本体的左侧内部固定有连接块，且连接块的内部插设有滑块，所述第二连接杆的底端与第二限位块的表面相抵触，所述第二连接杆的左侧底端内部固定有第二固定块，所述空调本体的右侧底端内部固定有第一固定块。优选的，所述空调本体的右侧内部固定有卡块，且卡块的底端与梯形凸块的表面相抵触，所述梯形凸块与卡块形成卡合式结构。</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -5864,14 +5288,11 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供无铁芯电机定转子装配装置，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，固定便捷，使用效果好。进一步地，所述顶板下端面开设有圆孔，且圆孔内部设置有内螺纹，所述顶出气缸环形侧面上侧设置有外螺纹，所述顶出气缸与顶板通过螺纹相连接。进一步地，所述顶出气缸通过气管与电磁阀相连接，所述电磁阀通过气管与外界气源相连接，所述电磁阀右端面安装有按钮。进一步地，所述支撑板上端面开设有柱形孔，且柱形孔内部设置有内螺纹，所述蝶形螺栓贯穿压块与支撑板通过螺纹相连接。</t>
+          <t>进一步的在风轮轴与防护伞的连接处设有两处台阶，第一台阶和第二台阶，安装时将防护伞直接套在风轮轴上，防护伞中间开的孔径刚好穿过第一台阶后固定在第二台阶上。更优的，在防护伞上设置红、绿、黄三种色相，方便维护人员在每个铁塔上都可以辨别该输电线路的相序。进一步的轴承选用的是微型轴承，一般铁塔的高度是15米至60米，在这样的高度上，风力足以带动设置的迎风叶轮和轴承套筒旋转。</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -5882,14 +5303,11 @@
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明的实施例提供了一种五金件用分类盛放箱，旨在实现将五金件固定于盛放箱内，同时对不同五金件进行分类。进一步地，所述固体腔相对的两侧壁顶部向下凹陷形成第一滑槽，所述第一挡板顶部两端向外延伸再向下弯折形成第一卡接部，所述第一卡接部与所述第一滑槽相适配，多个所述第一挡板可选择地卡接于所述第一滑槽内，将所述固体腔分隔为多个并行设置的腔室。进一步地，所述第一腔室的长度比所述第二腔室的长度大。</t>
+          <t>并且由于锁扣分离，铺装后不易出现高低差，并且由于无须预留锁扣的刨边面积，能够使木地板加工时出材率更高优化资源利用率。该木地板锁扣加工难度低，拼法方案自由个性，地板损耗率低，可回收重复使用，并且适合多规格多样式混铺，且适合所有常规铺方法。本发明的技术方案包括地板锁扣分离技术，以及元宝形独立锁扣技术。不影响木地板装饰面的木地板侧边斜边内凹槽，既扣口结构（6），以及一根独立的元宝锁扣条（1）。</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -5900,14 +5318,11 @@
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>作为本发明进一步的方案：所述散热片的表面位置处间隔开设有通风孔，所述通风孔的截面形状为圆形。作为本发明进一步的方案：所述防护盖的内侧表面位置处固定设置有卡紧扣，所述网关机体的侧面与卡紧扣相对应的位置处开设有卡紧槽，所述防护盖的外侧表面位置处固定设置有提手。作为本发明进一步的方案：所述固定底板的底端表面位置处固定设置有耐磨垫，所述耐磨垫是一种材质为橡胶的构件，所述耐磨垫的底端表面位置处开设有防滑凹槽。</t>
+          <t>本发明的目的是设计一种二维轴心旋转调节架，反射镜的反射面可以实沿镜面所在平面内的两条相互垂直且经过圆心的轴线转动，水平方向上可以360°转动，垂直方向上可以±4°转动。本发明一种二维轴心旋转调节架，主要包括：一个调节架固定座，用来装配测微头、压缩弹簧钉、调节架旋转台、调节架旋转台限位块、调节架旋转台限位环、调节架旋转台锁定块；一个调节架俯仰调节装卡件，用来装卡反射镜；一个调节架俯仰调节固定座，用来连接调节架旋转台以及调节架俯仰调节装卡件；一个测微头，测微头的调节范围是5mm，分辨率是0.02mm；一个螺纹副，安装在调节架俯仰调节装卡件上，用来调节反射镜垂直方向的转动；一个反射镜卡环挡圈，用来挡住反射镜卡环；一个反射镜卡环，用来卡紧反射镜；一个调节架旋转台限位环，套在调节架旋转台限位块上；一个调节架旋转台锁定块，用来和调节架旋转台连接，把调节架旋转台限制在调节架固定座的中心大圆孔内；一个压缩弹簧钉，配合测微头实用，使得测微头调节的时候带动调节架旋转台限位环转动，压缩弹簧钉对调节架旋转台限位环转动方向施加一个反向的力；四根带钩拉黄，用来拉住调节架俯仰调节装卡件和调节架俯仰调节固定座；一个调节架旋转台，调节架旋转台</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -5918,14 +5333,11 @@
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的就是针对上述缺点，提供一种耐印率高、使用成本低的感光材料板——一种耐印耐热感光材料板。进一步地讲，所述的第一感光材料层的厚度大于第二感光材料层的厚度。本发明的有益效果是：这样的感光材料板具有耐印率高、使用成本低的优点；所述的感光材料层分为两层，分别是第一感光材料层和第二感光材料层，靠近铝箔的是第一感光材料层，两层感光材料层之间有一层亲水材料涂剂层，所述的亲水材料涂剂层和亲水层具有相同的结构和材料，具有容易制造的优点；所述的第一感光材料层的厚度大于第二感光材料层的厚度，具有使用效果更好的优点。</t>
+          <t>为了解决水稻育种和研究中的上述问题，本发明提供了一种通过水稻种子组培成苗拯救水稻材料、加速水稻世代进程的方法和培养基，达到缩短生长周期，加快育种进程的目的。本方明可用于拯救常规水稻，杂交水稻，转基因水稻，基因编辑水稻等等的水稻种子，上述种子可为未成熟的种子或者成熟种子。使用本发明的方法，不会影响未成熟种子的正常萌发成苗，而且可极大地缩短水稻的生长周期，加速水稻的世代。本发明使用授粉后7天以上的水稻种子，去掉颖壳，经过消毒、接种于萌发培养基上可萌发长成健壮的植株。所述的萌发培养基的配方为：含有葡萄糖10-30g/l,植物凝胶2.0-3.0g/l的1/2MS-1XMS培养基,PH值为5.0-7.5。</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -5936,14 +5348,11 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机械配件的高精度打磨抛光装置，以解决上述背景技术中提出的传统的传统的高精度打磨抛光机在使用中不能应对大小不同的零件，装置的适用性较低和打磨中产生尘屑落在底部，人为清理增加工作负担的问题。优选的，所述卡块和垃圾袋顶端的形状皆设置为“L”形。且两个“L”形配合扣接。优选的，所述滑槽和滑块的形状皆设置为梯形，且滑块的外壁与滑槽的内壁抵接。优选的，所述第一滚轮和第二滚轮的外壁上皆开设有凹槽，所述抛光布皆套装在凹槽里。</t>
+          <t>优选的，两个所述第二连接板互相远离的一端均通过铰链活动连接在主架上。优选的，两个所述转盘的左、右两端均穿过腔体，且延伸在竖板的左、右两侧面外。优选的，两个所述螺纹筒滑动连接在腔体内，所述滑块滑动连接在滑道内。优选的，所述螺纹筒螺纹套接在螺杆的外表面。</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -5954,14 +5363,11 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种永磁直线同步电机进给装置，以解决上述背景技术中提出的问题，本发明结构合理，便于有效进给安装转子，防止电机损伤。进一步地，所述匹配槽宽度略大于嵌入保护滑片厚度，所述匹配槽设有多组，且多组匹配槽位于同一同心圆内。进一步地，所述第一搭扣后端面设置有绒状面，所述第二搭扣前端面设置有钩状面，且钩状面与绒状面相贴合。</t>
+          <t>优选地，所述收集机构包括设在收集板下端的收集框，所述收集框内滑动连接有抽屉，所述抽屉贯穿出收集框外侧壁，所述抽屉的外侧固定连接有拉栓。优选地，所述固定机构包括固定连接在装置块下端的多个固定栓。优选地，两个所述装置块之间通过第二螺栓固定连接。</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -5972,14 +5378,11 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于解决现有技术存在的缺点和不足，提供一种纤维白度高，并且其他各项性能均比较优异的制备方法。为了实现上述目的，本发明采用的方案是：一种制备白涤纶短纤维的方法，其特征在于，所述白涤纶短纤维的成分为化纤泡泡料的重量比为50-55％，聚酯瓶片的重量比为39.51-45.51％，软化剂的重量比为5％,增白母粒的重量比为0.45％，增白剂的重量比为0.0326％。优选地，所述白涤纶短纤维的成分为化纤泡泡料的重量比为55％，聚酯瓶片的重量比为39.51％，软化剂的重量比为5％，增白母粒的重量比为0.45％，增白剂的重量比为0.0326％。优选地，所述软化剂为磺化油、高碳数脂肪酸乳浊液或者硅油。</t>
+          <t>本发明的目的在于提供一种具有散热功能的电表，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种具有散热功能的电表，包括壳体、连接孔和隔离板，所述壳体的顶部两侧均焊接有上固定板，且壳体的底部两侧均连接有下固定板，所述壳体的底部中端安装有接线端，且接线端的正前方覆盖有闭合罩，所述连接孔通过一次性切削加工设置于闭合罩的两侧，所述壳体的中部设置有显示区，且显示区的中部内置有显示面板，所述隔离板设置于接线端的内部，且隔离板的后方通过滑块连接开设有滑槽，所述隔离板的两侧均粘接有保护垫，所述壳体的正面通过浇筑加工开设有契合开口，且契合开口的正前方覆盖有安装框，所述安装框的内部通过一体式设置安装有网罩，且安装框的底部焊接有卡块，所述卡块的外端开设有凹槽。优选的，所述壳体的顶部两侧设置有呈对称结构的上固定板，且壳体和显示面板的连接构成内嵌结构。优选的，所述接线端和壳体的连接构成一体式结构，且接线端通过连接孔和闭合罩固定连接。</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -5990,14 +5393,11 @@
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机械配件的吊装装置，以解决上述背景技术中提出的传统的机械配件的吊装装置，绳索不方便固定和机身底座缺少移动装置的问题。优选的，所述绳索的另一端固定连接有固定块，且固定块前端内嵌有转动轴，所述转动轴后端焊接有齿轮，且齿轮齿合连接有齿条，所述齿条左端固定连接有活动块，且活动块左端内嵌于开槽，所述开槽开设于固定块内部，且活动块顶端固定连接有卡块。优选的，右端所述开关左端焊接有螺纹杆，所述螺纹杆左端螺纹连接有螺纹槽，且螺纹槽开设于滑动块内部，所述滑动块滑设于滑动槽内部，所述滑动槽开设于底座内壁上，且滑动块固定连接有轮子。</t>
+          <t>本发明的目的在于提供一种纺织货物存放柜，具备便于存放的优点，解决了不便于存放的问题。为实现上述目的，本发明提供如下技术方案：一种纺织货物存放柜，包括外壳、连接板和门板，所述外壳上表面开设有放置槽，所述放置槽内部设置有连接板，所述外壳上端外壁对称开设有螺孔，且螺孔位于放置槽两侧，所述外壳一侧外壁对称设置有门板，所述门板一侧外壁对称设置有合页，所述外壳内壁上端设置有第一滤网，所述第一滤网上端外壁放置有干燥剂，所述外壳内壁下端安装有支撑板，所述支撑板内部开设有等距平行分布的透气孔，所述支撑板下端外壁安装有吸气罩，所述吸气罩下端外壁插接安装有连接管。优选的，所述连接板内部开设有等距平行分布的通孔，所述通孔内壁设置有海绵。</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -6008,14 +5408,11 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种具有防堵塞结构的风口过滤网，以解决上述背景技术中提出的过滤网不易拆卸和过滤网堵塞的问题。优选的，所述矩形槽的底端两侧固定连接有两组对称的套环，所述插销为T形结构，所述套环的中心位置开设有与插销相对应的通孔。优选的，所述第一弹簧的一端固定连接在插销的外侧底部，另一端固定连接在矩形框的外壁上。</t>
+          <t>本发明的目的在于提供一种电池串的搭接方法，其能同步搭接多个电池片，可提高电池串的搭接效率。为实现上述目的，本发明的技术方案是设计一种电池串的搭接方法，包括如下步骤：沿左右方向依次排列多个平置且背面朝上的电池片，各电池片位于同一高度；各电池片分别设有正面边缘电极和背面电极；正面边缘电极位于其所在电池片的正面左侧边缘或右侧边缘；同一电池片的左右两侧边线，以其中靠近正面边缘电极的一侧边线为第一边线，以其中远离正面边缘电极的一侧边线为第二边线；各电池片的第一边线在左右方向上朝向相同；以正面边缘电极在左右方向上的宽度为正面边缘电极宽度，各电池片的正面边缘电极宽度相同；相邻两个电池片的间距不小于正面边缘电极宽度；每个电池片的背面电极都焊接有独立的带状或条状连接件，连接件沿左右方向设置，连接件不伸至其所在电池片第一边线的外侧，连接件伸至其所在电池片第二边线的外侧，且连接件超出其所在电池片第二边线的长度等于正面边缘电极宽度；以连接件超出其所在电池片第二边线的部分为连接件的外置段；将各个电池片同步吸起，再将各电池片分别转动一定角度，各电池片的转动方向都为第一边线向上且第二边线向下，使各电池片都小角度倾斜；减小相邻两个电池片的间</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -6026,14 +5423,11 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种便于安装的消声静压箱，以解决上述背景技术中提出的静压箱与墙面连接的连接杆是单独放置的，在拆卸后，连接杆易丢失的问题。优选的，所述固定槽和固定块内部皆开设有圆孔，所述固定槽和固定块内部开设的圆孔内壁直径与转轴的表面直径相等。优选的，所述套筒左右两侧皆开设有腰形孔，所述套筒左右两侧开设的腰形孔内壁直径与螺杆的表面直径相等。</t>
+          <t>本申请的目的在于，提供一种远程交互方法，以及远程交互系统，能够让车辆主机被远程唤醒后，当车主离车辆较远时车辆主机保持待机状态，节省电量。为解决上述技术问题，本发明提供一种远程交互方法，适用于车辆主机，包括以下步骤：接收到远程终端发送的远程唤醒指令后，开机并直接进入待机状态；实时监测车辆主机所在车辆的钥匙是否在车辆预设范围内，若在，则从待机状态切换为正常工作状态；反之，则仍保持待机状态。在一实施方式中，所述接收到远程终端发送的远程唤醒指令后，开机并直接进入待机状态的过程包括：接收到远程终端发送的远程唤醒指令后，开机上电并控制非音频模块正常工作，控制显示屏和音频模块进入待机状态。</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -6044,14 +5438,11 @@
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种低压稳压半导体发光二极管的制造工艺，通过选用高浓度P型衬底取代N型衬底，通过控制N型扩散的浓度及结深，可以精确的控制稳压管的电压值，然后在合金结和电极间加入氧化层，然后通过调整氧化层厚度和合金条件来调整稳压电压合金，从而在降低集成电路的功耗的同时稳定二极管的电流传输。本发明的目的可以通过以下技术方案实现：(1)在二极管芯片衬底上层叠外延层，将P型衬底设于原N型衬底层的上方；(2)并且逐层设置电流阻挡层、透明导电层、钝化层，主要包括n型层、发光层、p型层，在P型外延层上方沉积氧化层，并在氧化层上形成复数个沟槽窗口；(3)选用高浓度P型衬底取代N型衬底，通过控制N型扩散的浓度及结深，并且在合金结和电极间增设氧化层，通过沟槽窗口在N-外延层上刻蚀生成复数个有源区的沟槽以及两个终端区的沟槽，然后去除氧化层；(4)通过调节上述氧化层厚度和合金条件来调整稳压电压大小。外延层上开有凹槽，将P型的衬底电极放置在所述n型层上，在终端区的上表面沉积一钝化层；(5)在上述钝化层上增加电流阻挡层连接透明导电层，透明导电层连接发光层后层叠钝化层，并且上开有延伸到所述透明导电层的通孔；(6)孔内置放p型衬</t>
+          <t>优选的，所述万向轮通过螺栓与底座的底部固定连接，所述驱动电机通过螺栓与支撑板的顶部固定连接。优选的，所述第一侧板的顶部开设有垃圾口，所述垃圾口的内径为20～30cm，所述第二侧板的顶部沿高度开设有通孔，所述连接块穿过通孔与宣传栏铰接。优选的，所述支撑板的顶部开设有滑槽，所述滑槽内套设有滑块，所述宣传栏的底部与滑块铰接，所述滑槽与滑块的竖截面为T型。</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -6062,14 +5453,11 @@
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的就是为了克服上述现有技术存在的缺陷而提供一种单面内侧包胶纸塑结合成型的包装盒。本发明中，优选纸部由纸板成型，纸板可以是普通纸板、瓦楞纸板或其他形式的纸板。本发明中，塑料部起到联接定型加固纸边，使成整体达到防渗漏等作用。</t>
+          <t>本发明的目的在于提供一种防止挂件松动的空调外机用防护装置，以解决上述背景技术中提出的现有的空调外机用防护网在长时间使用后，由于外机工作长时间振动，会导致固定螺栓松动，产生安全隐患的问题。为实现上述目的，本发明提供如下技术方案：一种防止挂件松动的空调外机用防护装置，包括支撑台，所述支撑台的顶端设置有防护网框，所述支撑台顶端的中部设置有安装台，所述支撑台顶端的中部均匀开设有插槽，且插槽的中部皆插设有插杆，所述插杆的顶端皆与支撑台底部焊接固定，所述安装台顶部的左右两侧皆开设有螺栓孔，所述支撑台背面的左右两侧皆焊接有挂架，且挂架的表面皆均匀开设有三组安装孔，所述支撑台的左右两侧皆铰接有两组压杆，且压杆远离支撑台的一侧皆铰接有拉钩，所述防护网框左右两侧的底端皆焊接有勾板，所述拉钩的顶端皆勾卡在勾板的中部，所述压杆的底端皆焊接有拨头。</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -6080,14 +5468,11 @@
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中“现有装置通过雾化喷头对栽培板中食用菌进行喷淋的过程中，无法旋转，进无法对栽培板上的食用菌进行充分均匀的灌溉，不利于食用菌的正常生长”的缺陷，从而提出一种食用菌培育箱。优选的，所述外壳上端面设置有风机，所述风机通过通风管与外壳内相连通。优选的，所述外壳的底端面固定安装有储水箱，每个所述储水箱的上端面均设有开口并与培育腔相连通。</t>
+          <t>本发明的目的在于提供一种降尿酸的药剂，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种降尿酸的药剂，包括如下步骤：a.称取质量份数比为20:50:100:1的薏米、百合、萝卜和大米；b.分别将薏米、百合、萝卜和大米进行烘焙，烘焙后研磨粉，制成薏米粉提取物、百合提取物、萝卜提取物和大米提取物；c.称取质量份数比为20:50:100:1的薏米粉提取物、百合提取物、萝卜提取物和大米提取物混合，搅拌，制成药剂。优选的，所述大米以非转基因大米为原料。与现有技术相比，本发明的有益效果是：本发明设计了一种降尿酸的药剂，以薏米、百合、萝卜和大米为主原料，在患者食用过程中，具有良好的降尿酸效果，副作用小，材料简单，制作成本低，效果好。</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -6098,14 +5483,11 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种增大视场的全息波导及AR显示装置。本发明提供一种全息波导，包括波导基底、设置在所述波导基底表面由光栅组成的功能区域，所述功能区域将光源发出的入射光耦入至所述波导基底后再经所述波导基底内传递至所述功能区域后耦出，所述波导基底呈曲面，以实现所述入射光线在所述波导基底内全反射角度的增大。在其中一实施例中，当所述入射光的一级衍射光与法线的夹角为90度时，nd取1.8，d/R取-0.3,λ取520nm，T取400nm时，所述曲面全息波导的视场为70°。</t>
+          <t>针对现有技术的不足，本发明提供一种泵浦激光器封装结构，有效解决光不能完全吸收和余光产热的问题。本发明还提供一种泵浦激光器封装结构的封装方法。本发明的技术方案如下：一种泵浦激光器封装结构，包括mini巴条、钨铜热沉、AlN陶瓷片、散热热沉和电极，mini巴条和钨铜热沉焊接组成巴条阵列，巴条阵列通过AlN陶瓷片焊接在散热热沉上，电极通过电极绝缘片封装到散热热沉两端。优选的，巴条阵列上方安装透镜，透镜通过垫条进行固定，垫条固定于散热热沉上端。</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -6116,14 +5498,11 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的就是针对上述缺点，提供一种更能保护感光材料板、防止感光材料板周围曝光的整体包装的印刷感光材料。进一步地讲，所述的超出的部分是黑色的，所述的超出部分的宽度是1.5-2.5厘米，所述的超出部分上面还涂有还原剂层。进一步地讲，所述超出部分中间具有多个缝隙，多个缝隙使超出部分形成分隔条。</t>
+          <t>本发明所要解决的技术问题是一种能够解决上述问题的便携式蓝牙音响，具有放置稳定，防撞效果好的优点。本发明是通过以下技术方案来实现的：一种便携式蓝牙音响，蓝牙音响主体和音响保护壳；所述音响保护壳上设有中心孔，蓝牙音响主体放置在中心孔内，音响保护壳上设有多个凸起部，凸起部内均设有发光组件，发光组件上设有散热板，散热板的一端延伸至中心孔内，散热板和中心孔的内壁相紧贴，散热板上形成有中心安装孔，中心安装孔内安装有蓝牙音响主体，蓝牙音响主体包括有音响外壳，音响外壳内设有安装腔，音响外壳的中间处设有加厚部，加厚部的上下两端均凸出与柔性音响外壳，加厚部内设有储气腔，储气腔内储存有气体；音响外壳包括多个硬质壳体和多个柔性音响外壳，柔性音响外壳设置在相邻两个硬质壳体之间，柔性音响外壳内设有第一空腔和第二空腔，第一空腔和第二空腔互不导通，第一空腔和储气腔相导通，柔性音响外壳上设有支撑部，第一空腔延伸至支撑部上。作为优选的技术方案，凸起部内设有储物腔，发光组件包括LED电路板、灯珠，灯珠设置在LED电路板上，各个凸起部内的灯珠颜色不一；凸起部上均设有多个透光孔，透光孔内安装有固定导光板，导光板呈半球形结构；LED电路板的一侧固定有散</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -6134,14 +5513,11 @@
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是提出的一种食用菌筛分机，解决现有技术中存在的现有技术中，食用菌除杂和筛选主要采取人工进行操作，操作繁琐，需要耗费大量的劳动时间和劳动精力，使得食用菌除杂和筛选的过程效率较低的问题。优选地，所述缓冲装置包括两个侧板，两个所述侧板固定连接在底座上侧，所述支撑板滑动连接在两个侧板之间，所述支撑板与底座之间固定连接有多个复位弹簧。优选地，所述振筛框上设有两个喷水器，所述喷水器的开口呈喇叭状设置。</t>
+          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种管道焊接用固定支撑架。为了实现上述目的，本发明采用了如下技术方案：一种管道焊接用固定支撑架，包括底座，底座左、右两端均固定安装有固定板，固定板上均设有滑槽，固定板顶面均固定安装有推杆电机，滑槽内均滑动安装有滑座，推杆电机的输出端均连接有推拉杆，推拉杆均贯穿滑槽与滑座连接，滑座上均安装有螺纹杆，左、右两侧滑座连接有同一个导向杆，底座顶面固定安装有套筒，套筒内固定安装有压缩弹簧，压缩弹簧上端固定安装有限位块，限位块上端固定连接有支撑杆，支撑杆上端固定安装有双轴电机，双轴电机的左、右输出端分别与两侧的螺纹杆连接，螺纹杆上分别螺纹安装有螺纹套，螺纹套上端均贯穿同一个导向杆，螺纹套底面均固定安装有L形夹取臂，L形夹取臂的内侧端均固定安装有夹取头，夹取头内壁上端均设有小滑槽，小滑槽内均安装有两个小滑座，小滑座上均均铰接有推动杆，推动杆另一端均铰接有夹紧头,L形夹取臂的长端均固定安装有小推杆电机，小推杆电机的输出端均连接有辅助杆，辅助杆均与右侧的小滑座连接。</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -6152,14 +5528,11 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>发明内容有鉴于此，本发明的实施例提供了一种切削铁屑收集装置，旨在对铁屑进行收集的同时，对铁屑进行筛分。进一步地所述第一接收桶、所述第二接收桶以及所述第三接收桶的底壁均呈朝外倾斜设置，所述通孔设于所述侧壁底部。进一步地还包括安装座以及驱动电机，所述箱体安装于所述安装座上，具有沿上下向的位移，所述驱动电机驱动所述箱体在上下向移动。</t>
+          <t>针对上述问题，本发明提供一种垂直式EHBR黑臭河道处理装置及其使用方法，解决EHBR膜组件淹没入河道底泥中，将EHBR膜组件悬浮在水体内，更好地使EHBR膜组件发挥其作用，提高使用效率，使河道水体污染物得到降解，恢复河道水体的自净化能力。本发明是通过以下技术方案来实现：一种垂直式EHBR黑臭河道处理装置，其包括风机、供气管路、阀门、支架和EHBR膜组件，所述EHBR膜组件是通过气体支路相连接，通过阀门调节风机供给EHBR膜组件的压力和流量；所述EHBR膜组件通过固定件固定于支架上，悬浮于河道水体中。进一步地，所述EHBR膜组件根据河道水体的深度制定EHBR膜丝的长度。进一步地，所述EHBR膜组件采用下端进气，各组件之间采用气体支路连接，末端EHBR膜组件的端头封堵。进一步地，所述支架是由主筋、次筋、竖筋和斜筋组成的，所述竖筋长度为200-600mm，所述斜筋布设在支架底部，所述次筋连接固定EHBR膜组件。</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -6170,14 +5543,11 @@
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种用于制造电机壳体的浇注模，以解决上述背景技术中提出的问题，本发明结构合理，方便电机壳体浇注成型，浇注便捷。进一步地，所述动模下端面安装有密封圈，所述定模上端面开设有密封槽，且密封槽与密封圈相匹配。进一步地，所述浇注口呈喇叭状。</t>
+          <t>针对以上现有技术存在的缺点和不足之处，本发明的首要目的在于提供一种含以螺芴为中心的有机发光材料。该螺芴分子结构简单，便于化学修饰和功能化。本发明利用螺芴构筑了高固态发光效率的材料。将螺芴与既有空穴传输能力又有电子传输能力的集团相连，能够得到同时具有高固态发光效率和双级传输特性的发光材料。</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -6188,14 +5558,11 @@
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机械配件用快速打孔装置，以解决上述背景技术中提出的钻头更换拆卸时复杂更换麻烦和手动推动进行打孔具有一定的风险性的问题。优选的，所述活动壳的两侧固定设置有两组相对称的第二滑块，所述固定外壳的两侧内部开设有与第二滑块相对应的滑槽。优选的，所述第一弹簧的一端固定在活动壳的左侧，所述第一弹簧的另一端固定连接在推动杆的一侧。</t>
+          <t>本发明的目的是提供一种用于数字操作的DDIIR压降补偿电路，以解决现有技术存在的上述缺陷。为达上述目的，本发明采用的技术方案如下：一种用于数字操作的DDIIR压降补偿电路，包括参考电压发生器(1)和数字电源电压调节器(2)，所述参考电压发生器(1)的地端连接第一地(VSS1)，所述参考电压发生器(1)的输出端通过第一电阻(R1)连接数字域的电源端(A)，所述数字域的地端(B)通过第二电阻(R2)连接第二地(VSS2)，所述数字电源电压调节器(2)包括第一开关管(MOS_A)、第二开关管(MOS_B)和控制器(21)，所述第一开关管(MOS_A)跨接在所述第一地(VSS1)和所述参考电压发生器(1)的增益级电阻(R_Up和R_Down)的地端之间，所述第二开关管(MOS_B)跨接在所述数字域的地端(B)和所述参考电压发生器(1)的增益级电阻(R_Up和R_Down)的地端之间，所述控制器(21)分别连接所述第一开关管(MOS_A)的控制端和所述第二开关管(MOS_B)的控制端、用于选择所述第一开关管(MOS_A)导通或所述第二开关管(MOS_B)导通。当第一开关管(MOS_A)导通、第二开关管(MOS_B)截止</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -6206,14 +5573,11 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于，针对现有技术的上述不足，提出一种打磨高效的金属制品加工装置。优选的，所述第二打磨装置通过滑动装置可水平滑动的设置在所述机架的另一端。优选的，所述滑动装置包括蜗杆、与所述蜗杆啮合的蜗轮和驱动蜗轮转动的第一驱动装置，所述蜗杆可滑动的水平设置在所述机架上，所述第二打磨装置固定设置在所述蜗杆靠近所述第一打磨装置的一端，所述蜗轮可转动设置在机架的一侧，且其齿轮与所述蜗杆上的螺纹啮合。优选的，所述蜗轮竖直可转动设置在蜗杆的下方，且其齿轮与所述蜗杆上的螺纹啮合。</t>
+          <t>本发明的目的是设计一种一维移动兼二维俯仰调节架，此调节架既能够水平方向一维调节5mm范围，分辨率0.02mm，也能够垂直平面上实现两个相互方向的俯仰调节，两个方向上俯仰角调范围±4°。本发明一种一维移动兼二维俯仰调节架，主要包括：一个调节架固定座，用来装配测微头、压缩弹簧导向柱、刀片、光轴，和俯仰调节装卡件定架共同实现被装卡器件的两个相互垂直方向的俯仰调节；一个俯仰调节固定架，用来安装螺纹副、钩住弹簧用的顶丝；一个俯仰调节装卡件，用来装卡反射镜、透镜、光源等；一个调节架固定座盖板，用来盖住调节架固定座的刀片部分；一个测微头，测微头的调节范围是5mm，分辨率是0.02mm；一个调节架滑块，用来连接俯仰调节固定架，从带动被装卡的反射镜、透镜、光源实现一维移动一个压缩弹簧，用来对调节滑块提供一个移动方向反向的力，使得调节架滑块移动过程中保持稳定；一个压缩弹簧导向柱，用来限制压缩弹簧，让弹簧在一条直线上伸缩；四个刀片，刀片用来组合成导轨；两个光轴，用来限制支撑调节滑块；一个不锈钢滚珠，让俯仰调节固定架和俯仰调节装卡件在调节俯仰的时候产生滚动摩擦，减小摩擦阻力；两个手拧螺纹副，装配在俯仰调节固定架上，用来调节两个相互垂</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -6224,14 +5588,11 @@
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>发明内容本发明提供一种可有效克服现有技术不足的干旱区植树造林蓄水抗旱装置。本发明的干旱区植树造林蓄水抗旱装置包括：可置于地表的集水装置、有储水功能的储水装置和连通集水装置与储水装置间的导水软管。优选地，本发明的干旱区植树造林蓄水抗旱装置的导水纤维束伸出储水桶部分的上游设置有一小段用不透水材料制成的保护套管，既起定向导水作用，又可进一步避免储水桶内水分的无效损失，且导水方向由储水桶水面经过储水桶壁上端后到达植物根部，完全通过导水纤维束的渗透作用，实现水份定向缓慢输送，避免了重力作用对水分传输和损失的影响，达到了蓄水抗旱目的。</t>
+          <t>本发明的目的是提供一种无硫茯苓饮片生产加工用转运机构，解决了现有技术中茯苓饮片在转运时操作复杂，转运不稳定的问题。为了实现上述目的，本发明采用了如下技术方案：一种无硫茯苓饮片生产加工用转运机构，包括推车主体，推车主体内侧设有多个呈均匀分布的放置区，推车主体位于放置区的两侧内壁上开设有呈对称分布的滑槽，滑槽内滑动连接有滑块，同一放置区内两个滑块之间固定连接有推板，每个放置区内均设有推出组件，每个放置区的上方均设有铺平组件，推车主体的表面对应于每个放置区的出口位置处均设有可转动的固定板，每个固定板均通过锁紧件与推车主体的表面连接。优选的，推出组件包括螺纹杆与滑动杆，放置区内其中一个滑块螺纹连接于螺纹杆的外侧，另一个滑块滑动套设于滑动杆的外侧，推车主体外侧设有与螺纹杆固定连接的转轮。优选的，铺平组件包括开设在推车主体内部的铺平槽，放置区的内部设有铺平板，铺平板的两侧均固定连接有铺平杆，铺平杆与铺平槽的内壁滑动连接。优选的，铺平杆的截面为矩形，铺平槽分为滑动段和转动段，转动段位于放置区的出口端。</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -6242,14 +5603,11 @@
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>发明内容为解决上述问题，本发明提供了一种牵引块系统，有效防止了现有技术烧制的牵引块会添加额外的成本并费工费时、无法达到节约成本、减少耗时的性能的缺陷。为了克服当下技术中的不足，本发明提供了一种牵引块系统的解决方案，具体如下：一种牵引块系统，包括撑持用块状体2、引导用装配块Z3、引导用装配块Y4、保护板装配柱4、引导用装配块X6。这样的所述牵引块系统全部是熔接达成的，所述撑持用块状体2上设置着第一、第二、第三、第四、第五不同结构的开口，其效应分别为把变频器、受控用蜗轮、用于阻止的阻止件装配于牵引块上，这里受控用蜗轮的辊子装配于第一开口里。</t>
+          <t>本发明的目的在于提供一种负泊松比胞体结构桥梁抗震耗能挡块，能有效的解决上述问题。为有效解决上述技术问题，本发明采取的技术方案如下：一种负泊松比胞体结构桥梁抗震耗能挡块，该挡块由底板、后承板、后侧板、中承板、中侧板、前承板、前侧板、翼板、扶壁板、螺杆和螺帽组成；负泊松比胞体结构其中，所述的底板通过螺杆和螺帽固定于墩顶的盖梁两侧；所述的后承板底边焊接于底板，并通过扶壁板加固；所述的后、中、前承板分别与两块后、中、前侧板焊接成为无底板的等腰梯形体，后板梯形体与中板梯形体在分别侧板边缘与两翼板焊接成船形结构；所述的前板梯形体与船形结构焊接成元宝形胞体结构，该胞体结构具有负泊松比特征；所述的元宝形胞体结构除后承板与底板焊接之外，其他板件均与底板分离。特别的，所述的前承板直接与梁体接触或隔开一定距离；发生较小地震时，前承板首先约束梁体位移，通过元宝形胞体结构的弹性变形消耗地震能量。特别的，所述的翼板会在元宝形胞体结构受到较大地震的撞击挤压时发生内旋变形；此时，翼板和前承板共同约束梁体位移，通过元宝形胞体结构的弹塑性变形消耗地震能量。</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -6260,14 +5618,11 @@
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于，针对现有技术的上述不足，提出一种金属制品切割装置。优选的，所述运输件包括传输带。优选的，所述切割装置包括安装架、切割刀和驱动件，所述安装架安装在所述机架上，所述切割刀安装在所述安装架上，所述驱动件与切割刀传动连接，所述驱动件驱动所述切割刀上下运动，以切割所述工件。</t>
+          <t>发明内容本发明的目的在于提供一种韧性强的棉纸双面胶带，以解决上述背景技术中提出的韧性不足和如果在使用不当时胶带产生的裂纹问题。优选的，所述胶圈两侧的支撑轴上皆竖向开设有安装槽。与现有技术相比，本发明的有益效果是：该韧性强的棉纸双面胶带通过玻璃纤维布的加入不仅具有更好的韧性，可以在更多需要的场合使用，而且自带切割装置，在不需要使用时，刀片会放在收刀槽内，需要使用时，刀片就会因为弹簧的影响伸出收刀槽外，使用完后松开手横板会因为弹簧产生的弹性势能的影响弹回原处使得刀片缩回收刀槽内，操作简单，方便。</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -6278,14 +5633,11 @@
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于，针对现有技术的上述不足，提出一种结构简单、操作方便的金属制品喷漆设备。本发明的一种金属制品喷漆设备，包括运输带、喷漆装置和喷漆烘干室；所述喷漆装置设置在所述运输带的前端一侧同于对运输带上金属制品喷漆印花，所述运输带的后端穿过所述喷漆烘干室对运输带上已喷漆的金属制品进行烘干；所述喷漆烘干室设有供所述运输带穿过其内部的进口和出口，所述述喷漆烘干室内设有加热器，处于所述喷漆烘干室内的运输带为迂回弯曲的曲线型。优选的，所述喷漆装置包括设有喷漆头的喷漆机、悬挂在所述运输带的金属制品上方的罩子、和驱动所述罩子上下运动的驱动装置，所述罩子的外壁设有镂空位，所述驱动装置驱动所述罩子向下罩住运输至其下的金属制品，所述喷漆机的喷漆头朝所述罩子的镂空位喷漆。</t>
+          <t>（一）解决的技术问题针对现有技术的不足，本发明公开了一种喷砂除锈机用的砂浆罐，以解决上述背景技术中提出的问题。（二）技术方案为实现以上目的，本发明通过以下技术方案予以实现：一种喷砂除锈机用的砂浆罐，包括砂浆罐主体，所述砂浆罐主体底部设有砂浆出口，所述砂浆罐主体的侧壁固定连接有把手，所述砂浆罐主体的底部固定安装有支撑架，所述支撑架包括第一支腿和第二支腿，所述第一支腿和第二支腿的数量均为两组且对称分布在支撑架的底部，两组所述第二支腿的侧壁均滑动连接有滑动方管，两组滑动方管上设置有锁紧组件，两组所述滑动方管的侧壁均固定连接有轴套，两组所述轴套内部转动连接有轮轴，所述轮轴的两端穿过两组轴套的轴心处并转动连接有滚轮。优选的，两组所述第二支腿的侧壁均开设有多组第一圆孔，所述第一圆孔的数量为6-12个，所述第一圆孔在竖直方向均匀分布。优选的，所述滑动方管的侧壁开设有与第一圆孔相对应的第二圆孔，所述第二圆孔与第一圆孔半径相同。优选的，所述锁紧组件包括锁紧杆，所述锁紧杆的一端固定连接有限位板，所述锁紧杆远离限位板的一端依次穿过第二圆孔和第一圆孔。优选的，所述锁紧杆远离限位板的一端开设有第三圆孔，所述第三圆孔内插接有螺栓，所述螺</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -6296,14 +5648,11 @@
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种机械配件冲压用防护支撑装置，以解决上述背景技术中提出的板材冲压时碎屑飞溅的问题。优选的，所述第二滑道的内壁与按钮的表面相抵触，所述按钮与第二滑道形成滑动式结构。优选的，所述第一外杆的内壁与第一内杆的表面相抵触，且第一内杆与第一外杆形成伸缩式结构。</t>
+          <t>(一)解决的技术问题针对现有技术的不足，本发明提供了一种带有消防灭火功能的油烟机，具备灭火迅速彻底、灭火后不残留污渍等优点，解决了一般带灭火功能的油烟机灭火不迅速彻底、灭火后残留污渍的问题。(二)技术方案为实现上述灭火迅速彻底、灭火后不残留污渍等目的，本发明提供如下技术方案：一种带有消防灭火功能的油烟机，包括外壳，所述外壳的内腔上壁固定安装有伸缩杆，伸缩杆的下方固定连接有风箱，风箱的上方固定连接有波纹管，外壳的内腔上壁且位于伸缩杆的左侧和右侧均固定安装有消防喷头，外壳的内腔左壁固定安装有第一隔板，第一隔板的右侧活动连接有第二隔板，第二隔板的右侧活动连接有第三隔板，第一隔板和第二隔板的内腔均设置有第一弹簧，第一隔板和第二隔板的内腔底部均设置有第一缓冲棉，第三隔板的下方设置有第二缓冲棉，第三隔板的右侧活动连接有第一固定块，第三隔板的右侧且位于第一固定块的后方活动连接有第二固定块，第二固定块的内侧设置有第二弹簧，第二弹簧的前方固定连接有压块，在第一固定块和压块之间设置有毛巾，外壳的内腔前壁上固定安装有多孔喷头，外壳的内腔前壁上且位于多孔喷头的下方设置有水槽，外壳的左壁上固定安装有处理器，处理器上活动插接有挡杆，外壳</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -6314,14 +5663,11 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>发明内容本申请主要解决的技术问题是提供一种吸管，能够解决吸管内部残渣不好清洗且生产成本高的问题。所以本申请可以在不适用金属材质的情况下，利用弹性管体的两种状态，即预设的第一部分和第三部分不弹性抵接的状态，此时管道是不密封的。此时的吸管便于清洗内部残留的残渣；当第一部分和第三部分弹性抵接时，弹性管体形成密封的管道，此时的吸管可以像传统吸管一样正常使用。</t>
+          <t>本发明提出的一种门板加工固定装置，解决了现有门板加工固定装置通用性低，不便于多尺寸门板的加工，且不方便上下料，智能化程度低的问题。为了实现上述目的，本发明采用了如下技术方案：一种门板加工固定装置，包括支架、挡板，所述支架的上表面设置有转板，所述支架内设置有液压杆，所述转板的下表面开设有滑轨，所述液压杆的顶杆活动套接有滚筒，所述支架上表面的右侧开设有第一滑槽，所述第一滑槽内设置有第一滑块，所述第一滑块侧面与第一滑槽内壁之间连接有弹簧，所述挡板的左侧面开设有第二滑槽，所述支架顶端活动连接有工字型螺纹筒，所述工字型螺纹筒内螺纹套接有螺杆，所述螺杆的下端固定连接有卡爪，所述工字型螺纹筒上端面的右侧设置有电机，且电机的输出端固定连接有齿轮，所述齿轮与工字型螺纹筒上端侧面啮合连接，所述卡爪右侧固定连接有第二滑块。优选的，所述液压杆的顶端穿过支架的上表面延伸在滑轨内，且延伸端活动套接有滚筒。</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -6332,14 +5678,11 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种永磁同步电机转子拆卸工装，以解决上述背景技术中提出的问题，本发明结构合理，便于有效拆卸永磁同步电机转子，安全可靠。进一步地，所述嵌入防护套右侧开设有斜口，所述嵌入防护套内径与螺纹伸缩筒内径相同。进一步地，所述螺纹伸缩筒内壁开设有滑板嵌入槽，且滑板嵌入槽深度与滑板厚度相同。</t>
+          <t>发明目的：针对以上问题，本发明目的是提供一种轨道交通门系统，该门系统在门扇打开后实现不同的上、下摆出距离。技术方案：本发明提出了一种轨道交通门系统，包括门框、门扇、承载驱动机构、锁闭装置，所述门框安装在车体入口处，当门扇关闭并锁紧时，门框和门扇实现门系统的密封，所述承载驱动机构安装在车体入口上部，承载驱动机构设置在门框上方，为列车开关门提供动力输出，承载驱动机构上设置有上导轨，实现门扇上部导向作用，所述锁闭装置安装在车体入口侧面，控制门扇的开、关状态，所述门扇在打开后门扇上部、下部实现不同的塞出量。所述承载驱动机构上还设置有携门架，门扇上部安装到携门架上，携门架上设置有滚轮，通过滚轮，携门架带动门扇沿着上导轨运动，实现门系统的开关动作。所述上导轨安装在承载驱动机构上的位置不同时，门扇上部有不同的塞出量。所述门系统还包括下摆臂，下摆臂安装在车体入口的侧面偏下位置处，门扇底部设置有下导轨，下摆臂和下导轨实现门扇下部导向作用。所述门扇下部的塞出量通过改变下导轨末端曲面来实现。所述门系统还包括紧急解锁装置，通过螺栓紧固在车体上，通过钢丝绳与锁闭装置相连接，实现紧急情况下的解锁功能，紧急解锁装置包括外部紧急解锁装置和内</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -6350,14 +5693,11 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>发明内容根据本申请的一个方面，提供了一种芳烃的制备方法，该方法通过醇或醚与醛耦合制取芳烃，解决了制芳烃过程中单程芳烃选择性低问题。可选地，所述酸性分子筛在使用前在非活性气氛、300～600℃下活化2～6h。可选地，所述非活性气氛为氮气、氩气或氦气。</t>
+          <t>发明内容本发明的目的是为了解决现有技术中建筑领域在除锈作业时往往需要人工进行除锈作业，使得效率低下，且除锈质量低，不能够适用于大批量除锈使用的问题，而提出的一种用于建筑工程的钢材除锈装置。优选的，所述U形支撑板两个竖直部的下端均固定连接有底板。优选的，所述移动块的上端固定连接有限位滑块，所述U形支撑板水平部的下端开设有与限位滑块匹配滑接的限位滑槽。</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -6368,14 +5708,11 @@
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是提供一种容易拆装磨刀组件的磨豆机技术，其解决了磨豆刀拆装清洗的问题提高了磨刀组件的使用寿命，减少了细菌的产生，确保了食物加工的卫生安全。根据上述方案，所述容纳腔内侧上周向方向设有若干定位孔；按此设计可更快捷的提供磨刀组件装入和取出的效率，更便捷。根据上述方案，所述定位机构包括上盖，所述上盖内成型有进料腔，所述上盖中部设置有定位架，所述上盖底部与下盖上部扣合连接；按此设计可确保磨刀组件的定位精度，同时更有利于上盖的清洗，提高本发明的可操作性。</t>
+          <t>发明内容本发明提供了一种燃烧生物质清洁燃料的发动机。本发明是以旋转配气为构思，气缸顶端由旋转配气轴封闭，在配气轴与配气轴中间留有一定宽度设置控制位，控制位用以具体需要安装控制器件与装置。控制位用以安装生物质清洁燃料控制器件与装置。</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -6386,14 +5723,11 @@
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于，针对现有技术的上述不足，提出一种打磨高效的金属制品打磨装置。优选的，所述机架上沿所述第二打磨装置的滑动方向设有刻度标线。优选的，所述打磨装置还包括载运装置，所述载运装置包括运输件和承载台，所述承载台设置在所述运输件上，所述工件放置在所述承载台上，所述运输件的一端设置在所述第一打磨装置和第二打磨装置之间。</t>
+          <t>本发明的目的是提供一种有机光电器件封装薄膜及其制备方法，用以解决目前有机光电器件利用化学气相沉积、物理气相沉积法生长的封装薄膜存在表面粗糙度较大，致密性较差，甚至会出现针孔裂纹等缺陷，无法有效阻隔水氧的问题。本发明所述的一种有机光电器件封装薄膜的制备方法，其特征在于：在待封装的有机光电器件上生长第一封装层，然后在第一封装层上通过先生长金属单质薄层后再原位进行化学处理生成第二封装层，最后通过第一封装层和第二封装层的交替生长完成有机光电器件封装薄膜的制备。金属单质薄层的生长增加了第一封装层的表面粗糙度，而再原位化学处理使得金属单质薄层中的金属原子获得足够高的能量，在第一封装层表面进行再分布，同时进行化学反应生成金属化合物作为第二封装层，填补了第一封装层表面的缺陷，第二封装层表面平均粗糙度较第一封装层表面平均粗糙度有大幅度降低，且经过原位化学处理后的金属化合物薄膜在可见光波段透过率有所提高。</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -6404,14 +5738,11 @@
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种便于拆卸的风机用过滤网，以解决上述背景技术中提出的滤网拆卸麻烦和清理麻烦的问题。优选的，所述卡块的一端固定焊接有弹簧，且弹簧的另一端固定焊接在第一内腔的内端。优选的，所述矩形块的内部开设有条形滑槽，所述第一连接杆的相互靠近的一端设置有与滑槽相对应的凸起。</t>
+          <t>优选的，所述平衡槽和移动槽均为环形槽，且平衡槽的形状与遮挡块的形状相适配。优选的，所述幕布为透明PVC塑料布，且幕布环绕在遮挡块的外侧。优选的，所述平衡槽内壁的宽度与平衡杆的直径相适配，而移动槽左右两侧内壁的宽度大于齿轮的厚度。</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -6422,14 +5753,11 @@
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术的不足，本发明提供了一种废纸粉碎回收处理装置。本发明的目的是设计一种废纸粉碎回收处理装置，为实现上述目的，本发明提供如下技术方案：一种废纸粉碎回收处理装置，包括粉碎结构和研磨结构构成，废纸由进料口（1）进入，通过压杆（10）压紧后进入粉碎结构，通过电机（3）带动的粉碎刀片（4）碎纸后，过滤板（5）后然后通过进水管（2）导入水和制浆剂，进入研磨结构，未成功废纸再次回到粉碎区域进行破碎。粉碎结构里底端设有推动杆（6）转动，保证充分碎纸，然后研磨结构中内部设有搅拌棒一（7）、搅拌棒二（8），通过转动两个搅拌棒来实现均匀搅拌，最后通过出浆口（9）出浆。作为本发明进一步的方案：设备底端可以固定安装有用于维持支脚底部稳定的防滑块。作为本发明进一步的方案：压杆可以采用液压或者后置液压快。作为本发明进一步的方案：可以在研磨结构内增设滤网。与现有技术相比，本发明的有益效果在于：本发明所述一种废纸粉碎回收处理装置可以实现废纸粉碎回收的一体化处理，从而减少工序，充分节约人力，使得废纸可以多次回收利用，降低生产成本的同时实现资源的充分利用。</t>
+          <t>本发明旨在提供一种能够在剥皮后即进行切片的往复切片式条形中药材去皮切片装置，解决了中药剥皮切片通过不同的设备来完成需要进行剥皮的中药进行转运的问题。以上技术问题是通过以下技术方案解决的：一种往复切片式条形中药材去皮切片装置，其特征在于，包括切片机构和剥皮机构，所述剥皮机构包括导向管、一端穿设在导向管一端内的滑管、密封滑动连接在滑管内的活塞、一端经滑管的另一端伸入滑管内同活塞连接在一起的驱动杆和连接在驱动杆的另一端驱动活塞进行平移的活塞平移机构，所述滑管通过若干沿导向管周向分布的连接筋同导向管连接在一起，所述导向管和滑管之间形成沿导向管周向延伸的环形的出皮通道，所述滑管位于导向管内的一端的端部设有沿滑管周向延伸的用于沿滑管的轴向刺入插入滑管内的中药材内的环形的滑管部刃口，所述切片机构包括刀条和驱动刀条沿垂直于滑管的方向往复平移的刀条驱动机构，所述刀条位于所述导向管远离滑管的一端，所述刀条的延伸方向同是导向管的轴向交叉，所述刀条用于将从所述导向管内伸出的中药材切断。通过本发明进行中药材（如山药）去皮切片的方法为：通过剥皮机构进行剥皮，通过切片机构对剥皮机构的滑管内的中药进行切片；进行中药剥皮的具体方法为：通过人工</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
@@ -6440,14 +5768,11 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>发明内容本发明目的在于制备一种具有荧光功能的纳米纤维。针对传统共混纺丝法制备的掺杂性纤维，荧光活性较低的缺陷，本发明采用光聚合接枝技术在电纺丝纤维表面接枝铕离子有机配合体。将共混纺丝和光接枝相结合，将共混纺丝法制备的负载有光引发剂的感光纳米纤维，沉浸于铕离子有机配体溶液中，通过紫外光引发聚合，制备了具有高活性的表面荧光纳米纤维。</t>
+          <t>发明内容本发明提出的一种服装设计用便携式画板，解决了服装画板不易搬运的问题。优选的，两个所述前支撑腿远离转轴的一端内侧固定连接有第一固定杆，两个所述后支撑腿远离转轴的一端内侧固定连接有第二固定杆。优选的，所述画板位于两个所述前支撑腿和两个所述后支撑腿的中间，且画板的顶部固定连接有卡夹。优选的，所述转轴的右端贯穿位于右侧所述前支撑腿，所述套筒的内圈转动套接在转轴的右端外圈上。</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -6458,14 +5783,11 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>发明内容本发明为克服上述情况不足，旨在提供一种能解决上述问题的技术方案。进一步的，气缸安装板上沿其长度方向分布设有调距长孔，真空气缸固定安装于调距长孔内的任意位置。进一步的，气缸安装板上安装有距离传感器。</t>
+          <t>针对现有技术存在的上述缺陷，本发明提出了一种锂电池恒温运行方法。本发明所述的锂电池恒温运行方法，包括如下步骤：将锂电池与相变储能材料相接触，锂电池与相变储能材料与外界隔绝；预加热或预制冷相变储能材料至预定温度，所述预定温度为相变储能材料的相变温度±10℃范围内，所述相变温度接近锂电池的最佳工作温度；在锂电池组充放电时，获取锂电池组内锂电池区块的温度，在获取锂电池组内锂电池区块的温度后，向用户展示锂电池组内锂电池区块的温度。优选地，所述锂电池组内温度大于预设温度值的锂电池区块进行降温的预设时间后，获取锂电池组内锂电池区块的温度，并统计锂电池组内锂电池区块的温度大于预设温度值的锂电池区块个数n，当n≥m时，发出警报通知。优选地，所述锂电池采用多个温度传感器获取锂电池组内锂电池区块的温度。优选地，所述锂电池组的温度控制系统通过控制导热/冷却板的温度，使得各导热/冷却板其与相变材料进行换热从而控制电池组的内部的温度。优选地，所述锂电池板安全管理检测的方法其能对其进行分区域温度监测。</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -6476,14 +5798,11 @@
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种迷宫式平板超薄音箱，合理地解决了现有技术的音箱音箱整体的体积和厚度都很大，结构复杂、制作成本高、耗电量大的问题。进一步地，所述条形磁铁为矩阵式排列的钕铁硼条形磁铁，保证强大的磁推动力，产生清晰的声场。进一步地，所述镀层振膜片为高分子聚酯薄膜，表面复合铝镀层。进一步地，所述镀层音圈为斜切向铝镀层音圈。</t>
+          <t>本发明针对现有技术的问题提供一种多电池组并联控制的BMS管理方法。为了解决上述技术问题，本发明采用如下技术方案：本发明提供的一种多电池组并联控制的BMS管理方法，包括以下步骤：A，系统上电运行；B，循坏采集两电池组总电压信息，并执行系统自检；C，若两个电池组自检均通过，则比较两电池组的总电压大小，多次比较确认后，选择总电压较大的电池组的动力回路导通，另一电池组动力回路维持断开状态；若只有一个电池组自检通过，则选择该电池组动力回路导通，另一电池组动力回路维持断开状态；D，在单电池组工作状态下，如果接收到待机或者是放电指令，则维持当前状态，继续使用总电压较高的电池组继续工作；如果接收到的是充电指令，则执行单电池组相互切换工作的操作，选择总电压较高的电池组工作；E，设定总电压差值最小允许阈值VoltDown以及最大允许阈值VoltUp，其中，VoltDown&lt;VoltUp；在单电池组运行过程，两电池组的总电压的会逐渐缩小；当总电压差值缩小到设定的最小允许阈值VoltDown时，执行单电池组切换双电池组并联工作的操作；F，在多电池组并联工作过程中，当其中一个电池组出现异常或者是两者的总电压差值大于设定的最大允许阈值V</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -6494,14 +5813,11 @@
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>本发明的有益效果为：本发明结构简单、操作方便、经济实用。以清水代替昂贵的过滤材料，净化效果好、更换方便，使用成本极低。省去了又脏又累的滤网清洁操作，提高了用户的使用积极性和体验感，大大的改善了人们的生活居住环境。</t>
+          <t>为了克服上述缺陷，本发明提供了一种基座稳固的路灯。本发明解决其技术问题所采用的技术方案是：一种基座稳固的路灯，包括灯杆、灯头、太阳能电池和蓄电池，所述太阳能电池安装在灯杆的顶部，所述灯头安装在灯杆上部，所述灯杆低端设有基座，所述基座预埋在地面下，所述灯杆固接于基座，所述灯杆下端处、基座上方还设有套管，所述套管与灯杆间通过焊接连接。进一步，套管包括两个相互匹配的半圆形套件。本发明的有益效果是：采用上述结构后，通过在灯杆低端设置的基座，在灯杆下部处设置套管来增加灯杆整体的结构，避免在风大的地区路灯灯杆被吹倒，且加固后的灯杆结构性更强，便于延长其使用寿命。</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
@@ -6512,14 +5828,11 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>发明内容为了克服现有技术的上述缺陷，本发明的实施例提供一种发光汽车椅套，通过设置了发光件，柔性发光条和荧光带的搭配使用，能够使得椅套本体在夜间发出相对柔和的光线，能够最大程度的利用了太阳能，节约了资源，另外，发出的光线在夜间能够给乘坐人员一个良好的光亮度，避免了明亮的光线对驾驶人员造成影响，具备较高的实用性。在一个优选地实施方式中，两组所述柔性发光条与汽车电源之间通过导电线相连接并串联有开关按钮，所述柔性发光条的前表面贴合安装有一组保护膜。在一个优选地实施方式中，所述替换件包括有与安装槽相适配的替换垫，所述替换垫的下表面固定设置有定位柱，所述定位柱的下方设置有衬垫，所述衬垫的内部开设有定位扣，所述衬垫与安装槽内侧壁固定连接在一起。在一个优选地实施方式中，所述衬垫上的定位扣与替换垫上的定位柱通过卡合方式相连接，所述定位扣的内侧壁固定设置有紧固垫圈。在一个优选地实施方式中，所述替换垫内部设置有抗菌层，所述抗菌层由竹纤维丝交错编制而成。</t>
+          <t>本发明的目的是提供一种无硫茯苓饮片净选用筛分机构，解决了现有技术中将茯苓片成堆的倒入筛板上时，茯苓片堆积在一起，茯苓片之间的部分碎屑较难完全筛分出，筛分效果较差，而且茯苓片筛分完毕后，直接从筛板的底部排出，部分碎屑直接顺着茯苓片直接排出，分离程度较低的问题。为了实现上述目的，本发明采用了如下技术方案：一种无硫茯苓饮片净选用筛分机构，包括壳体，壳体的顶部固定连接有上料板，壳体的一侧设有接料框，壳体的内部设有驱动轴，驱动轴贯穿壳体的一端固定连接有从动轮，从动轮的一侧设有与壳体固定连接的驱动电机，驱动电机的自由端固定连接有主动轮，主动轮和从动轮之间通过皮带传动连接，驱动轴的侧面套设有凸轮，凸轮的顶部设有与壳体转动连接的筛板，筛板的顶部设有若干个隔板，两个相邻隔板之间形成筛分区域，隔板的左侧设有与筛板固定连接的挡板。优选的，挡板靠近隔板的侧面为倾斜面。优选的，筛板与壳体长度方向形成的锐角为30度。优选的，凸轮的表面开设有滑槽，筛板的底部设有与滑槽相适配的滑块。优选的，滑块为圆柱状。</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -6530,14 +5843,11 @@
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种全自动地面装饰瓷砖铺平装置。优选的，所述套环上固定连接有磁铁，且转轴上安装有和磁铁对应的吸铁石。本发明提出的一种全自动地面装饰瓷砖铺平装置，有益效果在于：本装置在铺平装置主体上设储料机构，通过灰浆导管把灰浆导于圆环的环腔内，在电机作用下带动圆环转动，灰浆从呈环形阵列状分布的出浆头输出，喷出灰浆会更加均匀；本装置通过将压平辊设于套接在圆环上的套环上，在电机带动圆环转动下，间接带动压平辊转动，从而将瓷砖进行充分均匀压平，保证瓷砖铺贴质量，保证装修整体质量，不会浪费人力物料。</t>
+          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种过墙式防火阀安装结构，以解决上述背景技术中提出的问题，本发明结构合理，便于防火阀有效缓冲，平衡气流影响。进一步地，所述墙体内部开设有固定通孔，且钢套嵌入在固定通孔内部。进一步地，所述滑块内部开设有滑槽，且滑槽内径略大于滑杆直径，所述滑杆上下两侧装配有固定帽。</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -6548,14 +5858,11 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>发明内容为解决上述问题，本发明提供了一种铜合金切割用具，有效避免了现有技术中不能弯折、不便于折合与运送的缺陷。为了克服现有技术中的不足，本发明提供了一种铜合金切割用具的解决方案，具体如下：一种铜合金切割用具，包括用来联结在刀体上的联结件11，所述联结件上固连着直角折尺状勾连件12，所述直角折尺状勾连件12上带着槽口朝向更低处的凹槽，还有经由销杆转动连接在所述联结件上的刀把13。所述联结件为铜合金材料。</t>
+          <t>优选的，所述支撑杆远离底板的一端转动安装有安装块，安装块背离支撑杆的一端焊接有支撑块。优选的，所述转动轴和转盘的外壁均开设有与皮带相适配的环槽，皮带位于环槽内。优选的，所述收卷筒背离转动块的一端开设有凹槽。</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -6566,14 +5873,11 @@
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>进一步地，所述起点采集部件和终点采集部件均采用迪马斯短距离位移传感器EDS-C30。进一步地，所述起点坐标和终点坐标均为二维坐标。进一步地，所述中央处理器和所述控制器均采用STM32系列的STM32F103型单片机。</t>
+          <t>发明内容本发明的主要目的在于提供一种园林用手持式梳草机，可以有效解决背景技术中的问题。优选的，所述手持握把的前面安装有电源开关和电源插槽，且电源开关位于电源插槽的一侧。优选的，所述第一固定转动轴穿过两组推轮和固定滑板，所述第二固定转动轴穿过两组推轮和固定滑板。优选的，所述两组子母合页的上面分别安装有四组调节螺丝，且两组子母合页通过八组调节螺丝与机壳固定连接。</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -6584,14 +5888,11 @@
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>发明内容本发明提供一种紧急呼叫装置，当有紧急需求时，可提供有效且立即的救援效果及医疗处置。在本发明的一实施例中，上述的多功能语音遥控器更设置一屏幕遥控器以控制所述智能型平板装置的一屏幕的显示画面。在本发明的一实施例中，上述的多功能语音遥控器更设置一多合一读卡机，用以读取一金融卡并透过所述智能型平板装置连接至一金融消费平台以进行金融消费及付款。</t>
+          <t>针对上述存在的技术不足，本发明的目的是提供男用小便冲水器，其在现有的冲水阀上加装可用于冲洗男性生殖器的软管和控制阀，解决背景技术中提到的问题。为解决上述技术问题，本发明采用如下技术方案：本发明提供男用小便冲水器，包括冲水阀本体，所述冲水阀本体上设有进水口和出水口，所述出水口上设有一个三通管，所述三通管的其中一个出水口设有出水管，另一个出水口设有活接三通接头，所述活接三通接头的出水口设有冲洗软管。优选地，所述冲水阀本体为手按式冲水阀或感应式冲水阀。</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -6602,14 +5903,11 @@
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>进一步地，所述凹模和凸模相匹配，所述凸模为可上下移动结构。进一步地，所述升降筒下端面为左低右高结构，所述升降筒与梯形滑座相匹配。进一步地，所述稳定基座内部下侧开设有滑动腔。</t>
+          <t>针对现有技术中存在的上述缺陷，提供一种场站汽车分段停车充电管理的方法可以有效解决这个问题。本发明提供一种场站汽车分段停车充电管理的方法，其特征在于，包括：RFID系统、充电桩系统、停车管理系统、安防报警系统和处理中心系统；RFID系统，包括RFID标签、RFID读卡器，用于车辆与场站之间的信息交流，可以达到车辆账户信息查询、费用结算等功能；充电桩系统，在传统的充电桩上安装有充电状态数据采集器和传输设备，能够将车辆充电的状态及时反馈到信息处理中心，并且通过处理中心系统的网络，将数据反馈给车主用户；安防报警系统，安防报警系统主要为顾客提供空余车位提示、充电车辆安防，为场站管理者提供车辆状态显示等；处理中心系统，用于对场站进行管理，通过信息处理中心整合RFID系统和车辆管理系统，并且通过网络传输将信息进行实时共享在车辆驶入停车场站充电区域时，位于场站内的RFID读卡器检测RFID标签的信号后，根据数据库内的信息匹配，决定是否允许车辆入场；进一步，车辆进场在停车管理系统的指引下，寻找合适的充电停车位将车停好后，开始对车辆进行充电，车位状态在现场监控视频的监控下；进一步，车辆充电结束后，包括车辆充满和自动停止两个状态，</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -6620,14 +5918,11 @@
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是提供一种电池级N,N-二甲磺酰基-O-甲基羟胺的合成方法，合成路线简单，反应易于控制，反应温和，所得产物的收率和纯度较高。干燥采用无水硫酸钠干燥。本发明的有益效果是：本发明合成方法简单，合成过程温和稳定，合成产物的收率高，达90％以上，纯度高，达99.9％。</t>
+          <t>本发明的目的是针对现有消防阀存在的上述问题，提供一种能够精确控制流量、能够防止压力升高时阀盖飞出、能够防止阀板振动脱落的流量控制消防阀。本发明解决上述技术问题而采用的技术方案为：一种流量控制消防阀，包括阀体、阀芯组件、阀盖、O型圈、压紧螺母、手轮、垫片、螺母Ⅰ、数显套、指针、十字螺钉、紧定螺钉；所述阀芯组件包括阀杆、锁紧螺母、垫片、紧定螺钉、密封座、密封垫、阀板、螺母Ⅱ、O型圈和止动垫片；所述阀芯组件设置在阀体上，所述阀杆向上穿过阀盖与手轮相连，所述阀杆与手轮之间通过螺母Ⅰ固定；所述数显套设置在手轮和阀杆之间，可以随着阀杆作上下移动；所述指针用十字螺钉固定在阀盖上；所述阀盖与阀体之间通过螺纹连接，通过胶水密封；所述阀杆与阀盖之间通过O型圈密封。作为改进，所述阀体上设置有凸台，对应的，阀盖上设置有凹槽，阀体与阀盖通过螺纹连接固定后，阀体上的凸台在阀盖上的凹槽内，可以防止阀门腔体内压力升高时，阀盖飞出。</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -6638,9 +5933,741 @@
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>作为本发明进一步的方案：所述集成插座的表面位置处开设有插孔，所述限位滑槽与限位滑块滑动连接，所述防护封盖的上端表面位置处固定设置有提手。作为本发明进一步的方案：所述限位滑块的侧面固定设置有第二吸附磁块,所述第一吸附磁块与第二吸附磁块相靠近的一端磁性互为相反。作为本发明进一步的方案：所述放置板的底端位置处固定设置有连接轴，所述连接座与连接轴转动连接。</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>针对现有技术存在的上述问题，本发明的目的是提供镀膜生产线的真空系统，所述真空系统均匀布置在各个箱体上，保证各个腔室均匀的被抽真空；各个腔室之间设有门阀，使各个腔室被分隔成独立的功能室，能被单独抽取真空；包括波纹管和支撑架，有效降低抽取真空时的震动和噪声；所述系统各部件充分利用镀膜生产线的高度差，布置紧凑。为了实现上述目的，本发明所采用的技术方案是：镀膜生产线的真空系统，所述镀膜生产线包括多个依次连接的箱体，各箱体内为腔室，待镀膜的基片在各所述腔室内运行，待镀膜的基片在每个独立的腔室内完成相应工艺，各箱体之间设有门阀，以将各个箱体对应的腔室分隔开来，所述真空系统，包括至少一泵组、主抽气管道、至少一泵组管道和多组抽真空组件，每个箱体设有一组抽真空组件，各组抽真空组件并联连接后通过主抽气管道和泵组管道连接泵组。作为上述技术方案的进一步改进为：抽真空组件包括至少一个分子泵、一个分子泵管道、耦合器和波纹管。每组抽真空组件包括两个分子泵，分子泵安装在箱体的壁面上，分子泵穿过所述箱体的壁面，分子泵的出口位于箱体内的腔室内，分子泵的另一端位于箱体的外部。</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>本发明涉及单独或与其他药剂组合的东莨菪碱透明经皮给药贴剂。这样的贴剂足够透明，可透过贴剂看清使用者皮肤。近距离不易发现带有浅色或白色墨水打印贴剂，但在仔细检查后可被发现。本发明采用透明聚合物膜作为背衬层，其对东莨菪碱的渗透率＜1μg/cm2/h，其中东莨菪碱最佳渗透率为0.5μg/cm2/h；对东莨菪碱的溶解度＜1%wt，其中最佳溶解度为0.1%wt。这样的膜厚度＜0.15mm，其中最佳膜厚度为0.15mm~0.10mm。这种薄膜与透皮贴剂的一种或多种组成（可移动的释放衬里除外）结合使用，例如药物储库、粘合剂和速率控制膜，足够透明，以达到可视皮肤的目的。贴剂成品的透明指数应＞55%，优选＞65%，更优选＞85%。</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>本发明的目的是提供一种家用风光发电无线控制器，可解决上述问题。本发明的目的是通过以下技术方案来实现：包括光强传感器、风力测试仪、太阳能电池板转向步进电机、风力发电机转向步进电机、单片机控制系统，上述光强传感器通过感知光线的强实现风光发电的光强，上述风力测试仪的检测风力的强度和方向，单片机控制系统根据光强控制太阳能电池板转向步进电机自动改变太阳能电池板与阳光的正对角度，单片机控制系统根据风力大小和方向控制风力发电机转向步进电机改变风力发电机扇叶与风的正对角度。本发明的有益之处实现风光发电的效益最大化。</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>因此，为了达到上述目的，本发明提供的一种风扇老化测试装置，用于对风扇进行老化测试，其包括：电源模块，其具有一电源输出端；降压模块，其具有一输入端、一降压芯片及一输出端，所述输入端与与所述电源输出端电性连接；老化箱，其具有若干个老化架、一加热器及一温控器，所述若干个老化架设置于所述老化箱中，所述温控器控制所述加热器的加热温度；检测模块，其具有一分析模块及一显示模块，所述分析模块对所述风扇进行监测分析并得出一分析结果，所述显示模块显示所述分析模块的分析结果。可选的，所述电源模块为一电源适配器，源适配器的输出电压在6V-20V之间。可选的，所述降压芯片为一AMS1117芯片，所述AMS1117芯片的输出电压在3V-5V之间。可选的，所述降压模块的输出端还串联若干个电阻。可选的，所述风扇老化测试装置还包括一报警模块，所述报警模块与所述检测模块连接。可</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>本发明的目的在于提供一种便于安装具有防潮除锈功能的水表，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种便于安装具有防潮除锈功能的水表，包括本体和水管，所述本体的底端内侧固定连接有弹簧，所述弹簧的另一端固定连接有卡板，所述卡板的底端固定连接有拉板，所述本体的内侧设有定位杆，所述定位杆的底端固定连接有螺纹杆，所述螺纹杆的外侧螺纹连接有套管，所述套管的外侧固定连接有导流针，所述本体的左右两端的外侧均转动连接有连接套，所述连接套的上下两端均固定连接有连接块，所述连接块的内侧固定连接有固定轴，所述固定轴的外侧固定连接有扭簧，所述扭簧的另一端固定连接有调节杆，所述调节杆的一端固定连接有限位环，所述限位环的内侧设有水管，所述水管的一端固定连接有连接螺纹管。优选的，位于连接套外侧的所述连接块的个数共有2个，两个所述连接块分别位于连接套的上下两端对称位置处，所述连接套与连接螺纹管螺纹连接。</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>进一步地，所述固定块右端面开设有插孔，所述螺母块左端面前后两侧对称安装有插杆，且插杆与插孔相匹配。进一步地，所述卡装条与卡装槽相匹配。进一步地，所述转动块外表面包裹有防滑软胶套。</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>本发明的目的在于提供一种具有防潮功能的电表，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种具有防潮功能的电表，包括表壳、透明罩、温湿度传感器和控制器，所述表壳前端面固定连接有透明罩，所述表壳下端面固定连接有防潮装置，所述防潮装置包括防潮壳、单向管和单向阀，所述防潮壳上端面与表壳固定连接，所述防潮壳左右端面内侧均连通有单向管，所述单向管外侧均固定连接有单向阀，所述防潮壳下端面内侧固定连接有固定架，所述固定架上端面与表壳固定连接，所述固定架中央固定连接有风机，所述风机右侧设有电热丝，所述电热丝右侧设有隔板，所述表壳下端面开设有呈左右分布的通孔，所述表壳下端面内侧固定连接有呈左右分布的温湿度传感器和控制器，所述表壳前端面上方开设有滑槽，所述滑槽内滑动连接有清扫装置，所述表壳右端面开设有卡槽。优选的，所述通孔数量为两个，所述通孔位于隔板左右两侧，所述电热丝下端面与防潮壳固定连接，所述电热丝上端面与表壳固定连接，所述隔板下端面与防潮壳固定连接，所述隔板上端面与表壳固定连接。</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>本发明的目的是提供一种实时3D场景共享互动设备，从根本上解决了上述问题，其具有结构简单紧凑、功能多样、用户体验良好、续航能力强等优点。为实现上述目的，本发明提供了如下技术方案：该实时3D场景共享互动设备包括镜架组件(1)、镜腿组件(2)，镜架组件(1)包括瞳距调节组件(14)、电路模组(19)，瞳距调节组件(14)包括载有菲涅尔透镜(143)的透镜支架(141)、调节旋钮(142)，调节旋钮(142)通过齿轮齿条结构啮合在一对透镜支架(141)之间，其技术要点是：电路模组(19)包括设置在显示屏(191)与散热板(152)之间的腔体(192)内的用于视频信号输入及输出的第一PCB电路板、设置在镜架侧部壳体内的用于输入控制信号与输出音频信号的第二PCB电路板，第一PCB电路板和第二PCB电路板之间通过用于交换数据的排线相连；第一PCB电路板上设有视频信号转换模块、用于安装摄像头模组的摄像头接口、冷光LED模组、电性设置在视频信号转换模块输入端的一对与菲涅尔透镜(143)对应设置的显示屏(191)；显示屏(191)背侧设有散热组件(15)，散热组件(15)包括设置在镜架组件(1)前端的散热板(152)以及设置在镜</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>发明内容针对上述存在的技术不足，本发明的目的是提供一种卧床病员裤，其采用了可分离式的裤子，且在裤子上还带有护踝和加厚垫，解决了卧床患者穿衣麻烦、下床活动不便、不易于做蹬车活动的问题。为解决上述技术问题，本发明采用如下技术方案：一种卧床病员裤，包括短裤、连袜裤，所述短裤的底端设有一号链条，所述连裤袜的上端设有与所述一号链条配合使用的二号链条，所述短裤上开设有档口，所述连袜裤的足背部、膝盖部、小腿中部均设有加厚垫，所述连袜裤的脚踝部还设有护踝。优选地，所述档口处设有遮挡帘，所述遮挡帘的四周均设有隐形拉链。优选地，所述短裤上还设有两个储物袋。优选地，所述连袜裤的足底部也设有加厚垫。</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>针对上述现有技术中，在供料枪送丝的时候未增加旋转轴设备打印端无法360°旋转，送丝方向与打印方向不一致，导致打印过程过程中送丝环节不能理想运行，降低了打印效率，打印精度也很不理想的问题，本发明提供了一种利用等离子发生器的3D打印装置。一种利用等离子发生器的3D打印装置，其特征在于包括：等离子3D打印头、旋转架、旋转装置、旋转装置安装台、供料枪、安装架、支撑架和激光测距仪，所述等离子3D打印头设置在旋转架上，所述旋转架上设置有用于带动旋转架进行旋转的旋转装置，所述旋转装置设置在旋转装置安装台上，所述供料枪设置在旋转架的一侧，所述旋转装置安装台设置在安装架上，所述安装架设置在支撑架上，所述支撑架的一侧设置有激光测距仪。所述供料枪与等离子3D打印头的相对位置固定不变。</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>本发明的目的是为了解决现有技术中存在不能对线路的覆盖冰率进行判断的缺点，而提出的一种输电线路气象覆冰位置确定方法。为了实现上述目的，本发明采用了如下技术方案：设计一种输电线路气象覆冰位置确定方法，包括以下步骤：S1、将输电线路的地理坐标数据、气象实况数据、预报数据统一纳入到GIS系统中，通过将线路数据、气象要素栅格数据相互叠加生成带有颜色标识的线路数据，可在GIS系统内只管展示线路覆冰情况；S2、采用java程序解析气象要素格点文件，根据要素阈值计算条件计算要素值，得出各个栅格点的数据集；S3、采用java程序解析线路数据，得出组成输电线路线数据中点数据集road_dataset；S4、采用java程序调用GDAL库对栅格点数据处理提取等值线，提取等值线是根据要素阈值等级划分进行提取，得到等值线数据集line_dataset；S5、采用java程序调用GDAL库处理等值线数据line_dataset，进行构面，得到等值面数据集polygon_dataset；S6、采用java程序调用GDAL库对输电线路的线数据road_dataset和等值面数据polygon_dataset进行叠加分析，将输电线路所在等值面</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>本发明提出的一种喷砂机清洗装置，解决了现有喷砂机清洗装置不能进行自主的清理，且不能够高效一体化解决的问题。为了实现上述目的，本发明采用了如下技术方案：一种喷砂机清洗装置，包括喷砂罐、支撑架，所述支撑架内设置有液压杆，所述液压杆的上端固定连接有卡框，所述支撑架前、后两侧均固定连接有箱体，两个所述箱体互相靠近的一侧面均开设有第一滑槽，两个所述第一滑槽左、右两侧内壁均开设有限位槽，所述限位槽内设置有T型限位杆，所述T型限位杆的一端固定连接有夹板，所述T型限位杆的一端与限位槽的内壁之间连接有弹簧，所述支撑架的左侧设置有第二滑槽，所述第二滑槽内设置有电机箱，所述第二滑槽的左侧内壁开设有滑轨，所述电机箱内设置有电机，且电机的输出端固定连接有齿轮，所述电机箱的右侧面上方设置有清洁擦，所述电机箱右侧面的下方设置有喷砂口。优选的，所述电机箱上、下两侧面均固定连接有限位块，所述第二滑槽上、下两侧内壁均开设有限位滑槽。优选的，所述限位块滑动连接在限位滑槽内，所述电机箱滑动连接在第二滑槽内。优选的，所述齿轮设置在电机箱的左侧，所述齿轮与滑轨的下内壁啮合连接。优选的，左、右两个所述T型限位杆的T型端均设置在限位槽内，且另一端延伸在限位</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>本发明所要解决的技术问题是：提供一种汽车模具泡沫模型起吊孔的加工制作方法用于解决现有技术中汽车钣金冲压模具泡沫模型侧面的起吊孔单独加工时同心度不好、生产效率低的技术问题。汽车模具泡沫模型起吊孔的加工制作方法，包括以下步骤，并且以下步骤顺次进行，步骤一、根据汽车模具泡沫模型的结构进行分层，确认起吊孔在分层后的模型中的位置；步骤二、根据起吊孔在分层后的模型中的位置进行起吊孔加工1）、起吊孔在分层后的一个模型中①在起吊孔所在的分层模型中，自模型分层面向内沿预加工的起吊孔两侧切线加工宽度为起吊孔直径、长度为起吊孔厚度的凹槽，凹槽的底部加工为与预加工的起吊孔重合的半圆；②将加工完成的汽车模具泡沫粘贴、拼接，形成汽车模具泡沫模型；③测量起吊孔圆心到分层面的距离，带锯机加工泡沫获得宽度为起吊孔的直径、长度为起吊孔厚度，高度为起吊孔圆心到分层面的距离的毛坯料；④以毛坯料前述宽度对应的边的中点为中心在毛坯料高度侧的侧壁上画出半圆，根据所画的半圆线通过带锯机加工得到切割半圆后的填充块；⑤将填充块的表面上除切割的半圆外均涂上胶，将填充块切割半圆的一端朝向步骤①获得的凹槽的底部，对应镶嵌在所述凹槽内，形成最终模型；2）、起吊孔同时位</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>本发明的目的在于提供一种具有防冻功能的水表，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种具有防冻功能的水表，包括水表壳和水表水腔，所述水表壳的左端外侧螺旋连接有连接管，所述连接管的左端内侧连通有进水管道，所述进水管道的外侧固定连接有橡胶圈，且橡胶圈与的外侧与连接管的左端内侧相贴合，所述进水管道的左端连通有进水接口，所述水表壳的右端连通有出水接口，所述水表壳的外侧固定连接有保温层，且保温层是由石棉材质的布料制成。优选的，所述水表壳的顶端内侧连通有温度感应器，所述水表壳的底端内侧固定连接有加热棒，所述加热棒的数量为2个，且对称分布在水表壳的底端内侧。优选的，所述水表壳的底端固定连接有电机箱，所述电机箱的内侧固定连接有电流感应器、电机和控制器，且电机设置在电流感应器的右侧，且控制器设置在电机的右侧，所述电机的主轴末端固定连接有转柱。</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>本发明是针对现有技术中的存在的问题，本发明人经过多年的研究和试验，创新出了一种水稻叶面肥复合添加剂，有利于降低重金属污染。为了达到上述目的，本发明是通过以下技术解决方案来实现：为实现上述目的，一种水稻叶面肥复合添加剂，为液体状，包括以下组分及重量百分比，具体组分配比为：植物生长调节剂5-20％、羟基磷酸钙10-20％、腐植酸钾10-20％、钝化剂10-20％、硅藻土5-10％、微量元素5-10％、稀土元素5-10%、硅酸钠5-10%、螯合剂为5%-10%。进一步的，本发明技术方案中：所述植物生长调节剂选自复硝酚钠、芸苔素内酯、胺鲜酯中的至少一种。进一步的，本发明技术方案中：所述钝化剂由下述组分按重量百分比组成：磷矿石30%-50%、磷酸氢钙15%-25%、钙镁磷肥15%-25%、烧结法赤泥5%-20%。</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>本申请的目的在于：克服现有技术的不足，提供一种可重复拆装圆柱型桥墩结构及其设计方法、专用接头结构及设计方法，本申请针对混凝土桥梁下部结构中的圆型桥墩的装配式施工，从而实现下结构轻型化预制、运输和安装。为实现上述目标，本申请提供了如下技术方案:一种可重复拆装圆柱型桥墩结构设计方法，其特征在于，整体结构采用分段预制形式，由多个预制节段拼装而成；其接头段采用可搭接并可拆装的专用接头，将受力节段快速连接，完成“正装”；反之进行“倒拆”，实现各节段的卸除，整体受力不受影响；根据需要可在异地重新拼装，实现圆柱梁墩的二次使用。上述设计方法得到的相应的可重复拆装圆柱型桥墩结构，其特征在于，包括若干受力节段1和连接于节段间的特殊连接头段2两部分；相邻上下受力节段1之间的接触端侧，设计有配对的凹凸结构，上下吊装时方便对位，静止后稳定可靠；所述连接头段2结构设计为上下对称，包括上下两个连接机构以及中间的限制机构；以上连接机构为例，包括预埋锚钉7、钢板3、插销板4，所述钢板3的下面均匀密布固定有插销板4，固定钢板3的上面密布均匀固定有锚钉7，各个锚钉7的另一端焊接于上节段1中的钢筋上；所述插销板4中间腰部设计有槽结构；分布于上下两个</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>本发明的目的在于提供一种便于安装阀芯的阀门，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种便于安装阀芯的阀门，包括阀壳，所述阀壳的上方外壁上固定安装有连接盘b，所述连接盘b上通过连接螺丝a固定安装有连接盘a，所述连接盘a上固定安装有安装顶块，所述连接盘a的顶面开设有导轨，所述安装顶块内螺纹安装有阀杆，所述阀杆的底端固定安装有阀芯，所述阀壳的内部设置有通液腔，所述阀杆的顶部通过连接杆固定安装有转盘，所述转盘的底部固定安装有定位杆，所述定位杆通过其底部固定安装的滑片滑动安装在导轨内。采用上述方案，将连接盘a与连接盘b通过连接螺丝a连接组合，将阀杆与阀芯安装在阀壳内，需要打开该阀门时，只需旋转转盘，转盘带动阀杆转动，抬升阀杆与阀芯，此时定位杆伸长，阀芯上升使通液腔联通，则液体通过通液腔与阀芯的间隙流通，需要关闭该阀芯时，反向旋转转盘，此时定位杆缩短，使阀芯下降，将通液腔闭合，完成对阀门的关闭，调节完毕后，为避免误操作使转盘转动，将滑片通过连接螺丝b固定安装在导轨内，对定位杆进行定位，从而对转盘进行定位，防止误触碰对阀门的开闭造成影响，当阀芯损坏或阀门内发生堵塞的情况时，直接拆卸下连接螺</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>发明内容本发明的目的是为了解决现有技术中水暖管道安装固定器大多使用螺丝固定，但螺丝长时间使用容易锈蚀损坏，导致螺丝不易拆卸，影响螺丝拆卸操作的便捷性，甚至影响固定器固定水暖管道稳定性的问题，而提出的一种水暖管道安装固定器。优选的，所述密封机构包括与连接孔内壁活动连接的L形块，所述L形块的上表面固定连接有橡胶块，所述L形块的外壁固定连接有限位环，所述限位环的内壁活动连接有T形插杆，所述T形插杆的杆壁活动套接有连接环，所述连接环的外壁与连接块的外壁固定连接，所述T形插杆的杆壁活动套接有弹簧，所述弹簧的两端分别T形插杆的外壁和连接环的外壁固定连接。优选的，所述上管夹和下管夹的内壁均固定连接有防滑垫。优选的，所述上管夹和下管夹的材质均为不锈钢。优选的，所述固定螺栓的外壁活动套接有垫圈。优选的，所述固定螺栓的外壁活动套接有橡胶防水套。</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>进一步地，所述侧海绵刷外侧呈弧形状。进一步地，所述正海绵刷后端面与过滤网前端面相贴合。进一步地，所述固定块内部开设有固定孔，且固定孔与固定件相匹配。</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>针对现有技术存在的上述缺陷，本发明提出了一种锂电池应力预测方法。本发明所述的锂电池应力预测方法，包括如下步骤：预测模块根据待测锂电池所在的环境温度、所述待测锂电池的充放电周期对应的放电容量和属性的锂电池对应的拟合公式，确定所述待测锂电池的最大应力和充放电周期的映射关系之前，获取至少两个样本锂电池的样本数据，采用电子拉伸测试法，测试包装膜的纵向和横向形成载荷曲线，并进行处理，分别转化为包装膜的纵向真实应力应变曲线和横向真实应力应变曲线；根据待测锂电池所在的环境温度、所述待测锂电池的充放电周期对应的放电容量和属性的锂电池对应的拟合公式，预测所述待测锂电池对应每个充放电周期的最大应力，所述拟合公式用于表征在至少一种温度和充放电周期对应的放电容量的组合下，属性的锂电池最大应力和充放电周期的映射关系；测量膜片断面处的包装膜铝层厚度，根据所述包装膜铝层厚度对包装袋样品的安全性进行评估。优选地，所述锂电池的充放电周期对应的放电容量、所述样本锂电池在每个充放电周期的容量保持率。</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>为了克服现有技术的不足，本发明的目的在于提供一种蜂箱，其在炎热的天气能够被动地对蜂箱进行降温，避免蜂箱内的温度过高。石门本地中蜂蜂箱降温方法，提供一种蜂箱，包括蜂箱本体以及设于所述蜂箱本体外表面的辐射制冷层，所述辐射制冷层包括基材以及分散在基材中的辐射制冷颗粒，所述辐射制冷层在7μm～14μm波长范围内的发射率为70％～100％。在其中一个实施例中，所述辐射制冷颗粒选自以下一种或多种：SiC、SiO2、TiO2、BaSO4、CaCO3，所述辐射制冷颗粒的粒径为1μm～30μm。在其中一个实施例中，所述辐射制冷层为薄膜或涂层。在其中一个实施例中，所述蜂箱还包括设于所述蜂箱本体与所述辐射制冷层之间的反射层，所述反射层对可见光及近红外光的反射率大于60％。</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>发明内容为了弥补以上不足，本发明的目的在于提供一种冰淇淋蒸发缸，旨在改善传统冰淇淋蒸发缸是单一方面制冷，里面只有一面的，蒸发面积小，制冷慢的问题。作为本技术方案的进一步优化，所述内制冷缸体和内外双面制冷缸体同轴设置，且所述内制冷缸体的外径大于内外双面制冷缸体的外径，所述外双面制冷缸体外端部中间部位开设有通孔。作为本技术方案的进一步优化，所述制冷剂入口Ⅰ和制冷剂出口Ⅰ位于同一纵垂线上，且所述制冷剂入口Ⅰ和制冷剂出口Ⅰ开口相对设置，且所述制冷剂入口Ⅰ和制冷剂出口Ⅰ以及制冷剂入口Ⅱ和制冷剂出口Ⅱ整体均为L形设置。</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>为了解决上述技术问题，本发明提供一种用于户外配电柜安装的辅助固定装置，以解决需要对配电柜的安装固定孔进行测量然后再现场固定，比较麻烦，需要一种能够匹配多规格的配电柜安装的辅助固定装置的问题。本发明用于户外配电柜安装的辅助固定装置的目的与功效，由以下具体技术手段所达成：一种用于户外配电柜安装的辅助固定装置，包括下卡座，上卡座；所述下卡座包括下固定卡板、下活动夹板、前插板以及侧插板，且下卡座通过螺钉连接在固定座上并卡装在配电柜的下端，所述固定座上还开设有固定孔，且固定座的一端侧连接有两组竖向支板，所述竖向支板的下端内侧通过T型连接杆活动连接有弹簧夹板，且T型连接杆上套装有复位弹簧，所述上卡座还包括L型上固定板、上活动夹板与T型滑动板，且上卡座卡装在配电柜的上端并滑动连接在竖向支板的内侧上端。进一步的，所述下卡座的四端角以及固定座上相对应的位置分别设有连接孔、螺纹孔，且连接孔的上端为台阶状结构。进一步的，所述下活动夹板通过下夹紧弹簧活动连接在下固定卡板的后侧并卡在配电柜的下端后侧，所述下活动夹板上还连接有下导向插杆，且下导向插杆还穿插在下导向插块内。</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>为了克服上述现有技术的缺点，本发明的目的在于提供一种制备锂/铜/锂箔材的深冷制备方法，有效地利用铜、锂金属的物理加工属性，避免锂箔粘辊，利用深冷轧制实现材料机械性能大幅提高，最终制备出高性能的锂/铜/锂复合箔材，该材料为层状复合材料。为了实现上述目的，本发明采用的技术方案是：一种制备锂/铜/锂箔材的深冷制备方法，包括如下步骤：第一步：采用铜箔和锂箔为原料，铜箔原料厚度为4-12μm，锂箔厚度为4-25μm，铜箔和锂箔宽度相同；第二步：保障整个工作区域空气干燥；第三步：将铜箔和锂箔分别放置到原料卷曲机组上，采用氩气对锂箔进行保护；第四步：开启表面处理装备，对铜箔的上下表面进行清理，清除表面氧化物；第五步：铜箔、锂箔通过传导辊进入深冷箱，深冷箱采用干冰进行冷却，冷却温度范围为-60℃～-20℃；第六步：在铜箔、锂箔经过深冷箱内的传导辊后，铜箔和锂箔完全叠合，得到锂/铜/锂复合箔材；第七步：在深冷箱中对锂/铜/锂复合箔材进行连续深冷处理，冷却至-40℃～-20℃；第八步：开启干冰冷却喷枪，对深冷轧机机组轧辊表面进行冷却，使轧辊变形区温度控制在-40℃～-20℃；第九步：利用所述深冷轧机机组对深冷处理的锂/铜/锂复合</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>本发明要解决的技术问题和提出的技术任务是克服现有桅柱顶部加装水平延伸的部件或者可水平伸出起吊部件时导致桅柱自身偏摆量过大的缺陷，提供一种桅柱升降实时防偏摆系统。为达到上述目的，本发明的桅柱升降实时防偏摆系统，包括由桅柱节依次伸缩组成的桅柱，所述桅柱的首节桅柱节固定于底架，所述首节桅柱节之外的所有桅柱节均同步相对于前一桅柱节伸缩（升高或者下降），其特征是：为所述桅柱配置有钢丝绳，所述钢丝绳的两端相对于底架固定，所述钢丝绳的中间部分经滑轮依次绕过桅柱节的上下两端，所述的钢丝绳上作用有预紧装置。作为优选技术手段：所述钢丝绳的一端绕过所述末节桅柱节上端的滑轮固定在底架上，所述钢丝绳的另一端固定于所述首节桅柱节。</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>发明内容为解决上述技术问题，本发明提供一种降低再生稻二茬稻米重金属含量的种植方法，其特征在于，在第一茬稻穗收割后，向稻田土壤表面撒施重金属钝化剂；以无水物和质量份数计，所述重金属钝化剂包括石灰石粉100份和铁钙浆料，所述铁钙浆料由硫酸亚铁20-30份的水溶液加入所需量石灰石粉反应至硫酸亚铁全部转化制备。所述重金属钝化剂施用时无需翻动土壤，且pH值为中性，对水稻植株根系没有伤害。所述直接撒施到稻田土壤的石灰石粉，具备较大的表面积和活性，所起的作用是缓和地降低稻田土壤的酸性和提高土壤的pH值，可在如一年以上时间抑制土壤中重金属的溶出浓度和降低水稻植株对重金属的吸收量。</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>(一)解决的技术问题针对现有技术的不足，本发明提供了一种超高压泵的增压器的高压密封组件结构，具备防止O型圈脱落、长久使用仍高效密封防泄漏等优点，解决了一般的高压泵中的增压器的高压密封组件O型圈易脱落、长久使用后密封性能差的问题。(二)技术方案为实现上述防止O型圈脱落、长久使用仍高效密封等目的，本发明提供如下技术方案：一种超高压泵的增压器的高压密封组件结构，包括液压缸，所述液压缸的右侧固定连接有液压缸端盖，液压缸端盖的右端设置有油封支撑架，液压缸的内腔设置有液压活塞，液压活塞的左侧固定连接有液压杆，液压活塞的右侧固定连接有活塞柱，活塞柱和液压缸端盖之间且位于油封支撑架的上方设置有油路油封，活塞柱上且位于液压缸端盖的右侧固定套接有高压缸，高压缸和活塞柱之间且位于油封支撑架的右侧固定套接有填料压紧环，高压缸和活塞柱之间且位于填料压紧环的右侧固定套接有紧固环，高压缸和活塞柱之间且位于紧固环的右侧设置有密封支撑环，高压缸和活塞柱之间且位于密封支撑环的右侧设置有第一O型圈，高压缸和活塞柱之间且位于第一O型圈的右侧设置有第二O型圈，高压缸和活塞柱之间且位于第二O型圈的右侧固定套接有套筒，高压缸的右侧固定连接有单向阀，单向阀</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>本发明的目的是为了解决现有技术中步骤较为繁琐，且烟草与碱液混合后对烟碱的提取效果差的问题，而提出的一种烟碱生产用原料进料装置。为了实现上述目的，本发明采用了如下技术方案：一种烟碱生产用原料进料装置，包括上端开口的进料罐，所述进料罐的上端通过对称设置的搭扣共同连接有罐盖，所述进料罐的内罐底设有过滤袋，所述罐盖的上端固定连接有驱动电机，所述驱动电机的输出端通过联轴器连接有偏心轮，所述罐盖的上端中心处开设有压孔，所述过滤袋的上端设有压板，所述压板另一端的中心处固定连接有压杆，所述压杆远离压板的一端穿过压孔并向罐盖的上方延伸，所述压杆远离压板的一端设置在偏心轮的轮壁下端，所述罐盖的下端固定连接有弹簧，所述弹簧的另一端固定连接有复位环，所述复位环固定套接在压杆的杆壁上，所述弹簧套设在压杆上，所述复位环通过两个对称设置的稳定组件连接在进料罐的内罐壁上。</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>有鉴于此，本发明提出了一种计算机断层扫描方法、设备和系统。根据本发明的第一方面，提供一种计算机断层扫描方法，包括：对受检对象进行定位像扫描并生成第一定位像；获取所述受检对象先前的定位像以及断层图像中标注了病灶的帧的位置；比较所述第一定位像和先前的定位像，以获得所述受检对象在其上的偏移；根据所述标注了病灶的帧的位置以及所述偏移，在所述病灶的位置以更高的剂量进行断层扫描。根据本发明的第二方面，提供一种计算机断层扫描设备，包括：第一扫描单元，其对受检对象进行定位像扫描并生成第一定位像；接收单元，其获取所述受检对象先前的定位像以及断层图像中标注了病灶的帧的位置；比较单元，其比较所述第一定位像和先前的定位像，以获得所述受检对象在其上的偏移；第二扫描单元，其根据所述标注了病灶的帧的位置以及所述偏移，在所述病灶的位置以更高的剂量进行断层扫描。根据本发明的第三方面，提供一种计算机断层扫描系统，包括：存储单元，其存储受检对象先前的定位像以及断层图像中标注了病灶的帧的位置；第一扫描单元，其对所述受检对象进行定位像扫描并生成第一定位像；接收单元，其从所述存储单元获取所述受检对象先前的定位像以及断层图像中标注了病灶的帧的位置；比较单</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>鉴于以上内容，本发明提供了一种具有较佳宣传效果的风扇。一种风扇，包括定子组件、转动组件，所述风扇还包括装饰件；所述定子组件包括底座、轴心及定子，所述轴心固定在所述底座上，所述定子环设于所述轴心外侧设置，所述转动组件套设在所述轴心上，所述装饰件与所述轴心远离所述底座的一端固定连接，所述定子用以驱动所述转动组件围绕所述轴心转动，而所述装饰件保持静止。本发明的风扇通过将装饰件固定至所述轴心，由于所述轴心固定至所述底座，因此所述转动组件无论怎么转动，所述装饰件都因与所述轴心固定连接而保持静止，从而使所述装饰件上印刷的文字及图案具有更好的宣传效果。</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>发明内容本发明的要点在于将具有杀菌、镇定、止痒作用的植物成分复配后与生物溶菌酶以及海藻活素融合，共同作用于瘙痒皮肤，全方位解决皮肤瘙痒、湿疹、过敏、红疹等各种皮肤问题。本发明选择的配方如下（组分及其重量百分比％）：垂盆草5.0-7.0、马齿苋3.0-5.0、薄荷1.0-3.0、灰灰菜4.0-6.0、龙葵果4.0-6.0、荆芥3.0-5.0、桑叶3.0-4.0、甘草5.0-7.0、桃叶3.0-5.0、按叶7.0-9.0、玫瑰2.0-4.0、复合溶菌酶1.0-3.0、海藻活素1.0-3.0、净化水至100。马齿苋是一种具有杀菌、消炎作用的植物成分，清热解毒，可缓解皮肤瘙痒、红肿，同时具有止痛的效果。</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种新型可调节防火阀，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，调节效果好，实用性强。进一步地，所述转动轴下端面开设有圆孔，且圆孔内部设置有内螺纹，所述电机环形侧面上侧设置有外螺纹，所述电机与转动轴通过螺纹相连接。进一步地，所述第一齿轮下端面开设有通孔，且通孔内部设置有内螺纹，所述转动轴环形侧面上侧设置有外螺纹，所述转动轴与第一齿轮通过螺纹相连接。</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>本发明的目的在于针对现有技术的缺陷和不足，提供一种设计合理的荞麦片的加工工艺，其工操作简单，能够加工制作出方便食用的荞麦片，且能够提高荞麦片的生产效率。为达到上述目的，本发明采用了下列技术方案：它的操作步骤如下：1、原辅料接收：原辅料采购验收，合格后接收；2、原辅料储存：验收合格的原辅料在常温、干燥清洁的库房储存；3、原料磁选：原料通过提升机进入磁选通道，去除磁性金属物质；4、碾磨：原料输送到磨筛碾磨成粉；5、调粉：荞麦粉开包按配比加入纯化水调制，调节水分含量约为20%左右；6、熟制：熟制过程，时间1-3分钟，熟制温度130-160℃，螺杆转速30Hz；7、压片：将熟制后的荞麦粉直接送入压片机，然后经压片机压至厚度1-2mm左右，直径5-10mm椭圆状方便食品，压片转速40-50Hz；8、烘烤杀菌：烘箱烘烤，去除水分；时间8-15分钟，烘烤温度：75-125℃；9、风冷：烘烤后的制品输送过风冷通道进行冷却到常温，风冷筛转速15-30Hz；10、过筛：风冷后的物料过筛，保证物料颗粒均匀，通过孔径φ5-10mm筛网，筛上物进入下道工序，筛下物（下脚料）废弃；11、包装：加工完成的最终产品须通过计量后可进行包装机，</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>本发明的目的在提供一种箱体的护角结构，其主要能保护箱体脆弱的边角，有效降低箱体边角因碰撞受损的问题。为了达成前述目的，依据本发明所提供一种箱体的护角结构，包含：箱体，具有四个分别位于四个边角处的组接部，各所述组接部具有外表面、相反于所述外表面的内表面、贯穿所述外表面与所述内表面的组接孔、及两分别由所述外表面凹设且设置于所述组接部两相对应侧处的组接槽道；以及四护角体，可拆组地分别设置于所述箱体的四组接部上，各所述护角体具有靠抵所述外表面的靠抵面、两设置于所述靠抵面且分别滑设定位于所述两组接槽道的卡接部、及设置于靠抵面且穿设定位所述组接孔的卡合柱。较佳地，其中所述卡合柱具有靠抵所述组接部的内表面的头部、及连接所述头部且贯穿所述组接孔的身部，所述卡合柱的头部设有两具有弹性且相距一距离的弹性段，所述两弹性段可在外力的作用下呈压迫状态，以通过所述组接孔。</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>优选的，所述液压杆设置在主箱前、后两侧的内部，所述液压杆的上端固定连接在推板的下表面。优选的，所述第一连接杆的一端通过铰链与第二连接座活动连接，所述第一连接杆的另一端通过铰链与第二连接杆活动连接。优选的，所述推板左、右两侧分别通过铰链与左、右两侧的第二连接杆通过铰链活动连接。</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>(一)解决的技术问题针对现有技术的不足，本发明提供了一种带有削皮功能的甘蔗压榨装置，具备轻松去除甘蔗皮、甘蔗在进入辊辘时不打滑等优点，解决了一般甘蔗压榨机榨汁不削甘蔗皮、甘蔗进入辊辘时打滑的问题。(二)技术方案为实现上述轻松去除甘蔗皮、甘蔗在进入辊辘时不打滑等目的，本发明提供如下技术方案：一种带有削皮功能的甘蔗压榨装置，包括外壳，所述外壳的上方开设有进料槽，外壳的内腔且位于进料槽的右侧固定安装有弹簧杆，弹簧杆的下方固定连接有从动轮，外壳的上方固定安装有水箱，水箱的下方且位于外壳的内腔固定连接有水管，水管的下方固定连接有清洁体，清洁体的内腔上部与底部均设置有喷头，清洁体的内腔上部与底部且位于喷头的右侧均设置有吸水布，外壳的内腔且位于水管的右侧固定安装有铡刀，外壳的内腔且位于铡刀的右侧固定安装有竖压板，外壳的内腔底部固定安装有污水箱，污水箱的上方固定安装有第一传送带，第一传送带的表面设置有挡板，污水箱的上方且位于第一传送带的右侧固定安装有第二传送带，污水箱的右侧固定连接有废料箱，废料箱的上方设置有束管，束管的右侧活动连接有削皮刀，废料箱的右侧活动轴接有废料门，在废料门与废料箱内腔之间设置有伸缩杆，废料门的右侧固定</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>本发明所解决的技术问题是提供一种工具，可以将鞋帮上的鞋面、鞋身、鞋头外护片、鞋头上护片、鞋头内护片准确定位并一次性完成缝制，使鞋帮对称一致。本发明的技术方案是：一种军用鞋帮缝制工具，包括鞋帮帮片底层，鞋帮帮片放置层，鞋帮帮片上固定层。所述的鞋帮帮片底层内放置鞋面、鞋身，所述的鞋帮帮片放置层内放置鞋头外护片、鞋头上护片、鞋头内护，鞋帮帮片上固定层盖合固定各帮片进行缝制，所述的一种军用鞋帮缝制工具可准确定位各帮片，一次性完成鞋帮各帮片的缝制工艺。本发明针对复杂的鞋帮制做工艺，通过一种军用鞋帮缝制工具一次性完成定位、缝制工艺。本发明结构简单、合理，利于操作。</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>本发明为解决农村有机废料在种植时会产生大量的菜叶、藤蔓、病株、残体等有机废料，提供一种植物残体废料制取的有机肥的方法，其可快速配制、大批量供应，为城市建绿增肥和城市绿地缺少肥土、回填种植土买购历程远，成本大等城市发展现状提供实体材料。为实现上述目的，本发明采用的技术方案为：一种利用植物残体废料制取有机肥的方法，其特征在于：包括以下重量份原料组成，其重量配比为：含水率15%秸秆植物30-50份，粒径为0.3-1.5cm、含水率为15%的构树30-50份，粉碎料2-5cm、含水率5%的蘑菇菌包5-10份，粉碎料2-5cm、高温酵素5-10份，土壤修复菌剂2-5份，具体制备方法的步骤是：A、将按重量配比备好的秸秆植物粒料、构树粉碎料、蘑菇菌包粉碎料均匀搅拌放置处理料场发酵待用；B、然后将已发酵的备用混合物料加入高温酵素，翻抛均匀后，再加入土壤修复菌剂拌匀随即装袋、待运，2-5天内回填应用。本发明技术方案中，所述的植物废料为玉米秸秆、油菜秸秆粉碎料或构树粉碎料。本发明技术方案中，所述的放置处理料场发酵方法包括：场内搅拌，每天搅拌2-3次，夏季3-4日，其他季节7-10日后，使各成分物料翻抛搅拌均匀；放置日保持场地内干</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>本发明旨在提供一种能够在剥皮后即进行切片的转动式中药材剥皮切片装置，解决了中药剥皮切片通过不同的设备来完成需要进行剥皮的中药进行转运的问题。以上技术问题是通过以下技术方案解决的：一种转动式中药材剥皮切片装置，其特征在于，包括机架，所述机架上设有切片机构和剥皮机构，所述剥皮机构包括导向管、一端穿设在导向管一端内的滑管和密封滑动连接在滑管内的活塞、一端经滑管的另一端伸入滑管内同活塞连接在一起的驱动杆、连接在驱动杆的另一端驱动活塞进行平移的活塞平移机构，所述导向管和活塞平移机构都固定在所述机架上，所述滑管通过若干沿导向管周向分布的连接筋同导向管连接在一起，所述导向管和滑管之间形成沿导向管周向延伸的环形的出皮通道，所述滑管位于导向管内的一端的端部设有沿滑管周向延伸的用于沿滑管的轴向刺入插入滑管内的中药材内的环形的滑管部刃口，所述切片机构包括沿滑管轴向延伸的旋转轴、驱动旋转轴转动的切割电机和若干连接在旋转轴上的沿旋转轴周向分布的用于对从所述导向管远离滑管一端伸出的中药材进行裁切的刀条。通过本发明进行中药材（如山药）去皮切片的方法为：通过人工将条形中药插入导向管且进入滑管内到同位于滑管内的活塞抵接在一起，在滑管部刃口的作</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>发明内容本发明的目的在于提供一种计算机数据接头，以解决上述背景技术中提出的问题。优选的，两个所述防尘板的另一侧通过对称开设的L型卡口活动卡接，且两个所述L型卡口的内壁均固定连接有密封垫。优选的，两个所述防尘板顶端的两侧对称固定连接有第一固定件，位于同一个所述防尘板顶端的两个第一固定件之间转动连接有导向辊。</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>发明内容本发明的目的在于提供一种金属回收用处理装置，具备对回收品进行加工，便与存储、运输和方便后期进行处理，提高回收效率的优点，解决现有设备结构简单，使用不便，效率低的问题。优选的，所述第一液压装置的下端固定在上压板的上端面中间处，且上压板位于压缩箱的上端开口处内部，所述上压板和下压板相对应。优选的，所述脚架共设有两个，且两个脚架的上端呈弧形设计，所述脚架的上端卡接固定在运料桶的两端下侧。优选的，所述运料桶背离电机的一端贯穿安装有连通管，且连通管背离运料桶的一侧连接压缩箱的内部。</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>作为本发明进一步的方案：所述烟雾传感器、温度传感器和亮度传感器的输出端均与控制处理器的输入端电性连接，所述控制处理器的输出端与声光报警器、温度显示器和灯光设备的输入端均电性连接。作为本发明进一步的方案：所述投影设备包括投影机、投影幕布与幕布收卷机，所述控制处理器的输出端连接于幕布收卷机的输入端。作为本发明进一步的方案：所述会议办公室内的窗口内侧固定设置有窗帘设备，所述窗帘设备设备包括遮光窗帘与窗帘收卷机，所述控制处理器的输出端连接于窗帘收卷机的输入端。</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>解决的技术问题针对现有技术的不足，本发明提供了一种火车上便于调节角度的卫星信号显示屏，解决了上述背景技术中提出的根本不能调节显示屏的角度的问题。技术方案为实现以上目的，本发明通过以下技术方案予以实现：一种火车上便于调节角度的卫星信号显示屏，包括外壳，所述外壳的一侧开设有槽口，所述槽口的内部设置有滑轮，所述滑轮的一侧设置有连接件，所述连接件的一侧固定安装有滑板，所述滑板的上表面固定安装有支撑件，所述支撑件的一端固定安装有支撑梁，所述支撑梁的内部设置有转动杆，所述转动杆的表面固定安装有横板，所述横板的一侧固定安装有夹持件，所述夹持件的一侧设置有显示屏。优选的，所述夹持件的内部设置有导杆，所述夹持件的一端设置有弹簧，所述导杆的一端固定安装有抵触件，所述夹持件的一侧设置有固定螺丝。优选的，所述外壳的一侧设置有转动轴，所述转动轴的表面设置有弧形板，所述弧形板的一侧固定安装有安装板，所述安装板的表面开设有安装孔。</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>针对现有技术存在的上述缺陷，本发明提出了一种锂电池储能容量优化配置方法。本发明所述的锂电池储能容量优化配置方法，包括如下步骤：不同循环充放电深度对锂电池寿命的衰减系数计算；电池充放电深度定义为电池在一定时间间隔内充放电电量与电池的实际容量的比值，以锂电池为研究对象，在实验条件下对锂电池进行不同充放电循环深度下进行充放电实验，得出了不同充放电循环深度与最大充放电次数的关系，预测得到被测铅酸蓄电池在工况下检视点ts之后的时间段ts～tf的预测荷电容量数据；将引入水至少分离成水性渗透流和浓缩废弃流；和输出水性渗透流和浓缩废弃流；基于预定水特征允许值控制多个处理装置的至少一个的操作，所述预定水特征允许值基于所述渗透水流的不同质量落入预定浓度范围内；基于识别到的特征和所述预定水特征允许值将所述多个处理装置中的至少两个的渗透水流结合；以及输出产物水流和至少一股废弃浓缩物流。优选地，所述锂电池充放电深度增加，充放电转换和锂电池过度放电给锂电池寿命衰减带来的不利影响减小；μ综合反映了充放电转换对锂电池寿命衰减的影响程度。</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>针对现有技术的不足，本发明提供了一种下置式多输入回转转盘装置。本发明的装置可以根据不同的需要改变输入模式,可为单输入、双输入、三输入或更多输入。由于采用了动力旋转的换向及回转支承的应用,使得下置式多输入回转转盘装置结构简单,运转平稳,传动扭矩大，使用寿命长，操作灵活。</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>：本发明的目的是公开一种均压式恒压碳刷支撑装置，该结构可以保证每个碳刷与集电环的接触压力一致、接触电阻相近，从而保证每个电刷的电流相等，温升一致。本发明的技术方案是：由第一波纹管、第二波纹管、第一连通支管、第二连通支管、环管、主管、配重块、密封缸体、气门组成，环管通过主管与密封缸体连通，第一连通支管和第二连通支管一端从环管引出，另一端分别连接第一波纹管和第二波纹管，第一波纹管和第二波纹管与第一碳刷、第二碳刷接触的一端是密封的，第一波纹管和第二波纹管由H级绝缘材料制成，密封缸体上密封面是软质改性聚氯乙烯,配重块放置在密封缸体上表面。技术效果：第一波纹管(1)和第二波纹管(2)的伸缩长度满足碳刷磨损量的使用要求。第一波纹管(1)和第二波纹管(2)由H级绝缘材料制成。密封缸体(8)上密封面是软质改性聚氯乙烯，其水平位置会随着密封缸体(8)的内外压力差上下变化，上下变化量满足波纹管伸缩量的使用要求。根据不同碳刷对支撑压力的具体要求进行配重块(7)的具体尺寸设计。通过气门(9)可以向密封缸体(8)中注入气体，通过密封缸体可上下浮动的上表面使配重块(7)停在适当位置，使密封缸体(8)中有一定的压力。第一波纹管(1)与第二</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>本发明实施例中提供了一种砷化镓基LED芯片的半切测试方法，以解决传统砷化镓基LED芯片半切测试过程中易导致晶片破裂，造成效率降低、产出减少的问题。为了解决上述技术问题，本发明实施例公开了如下技术方案：本发明第一方面提供了一种砷化镓基LED芯片的半切测试方法，包括以下步骤：S11,将经过研磨、完成背金面制作的晶片放置到贴膜盘；S12，将导线焊接到晶片的背金面上；S13，对焊接导线的晶片进行贴蓝膜作业；S14，对贴蓝膜的晶片进行半切；S15，将所述导线连接至测试设备的负极，对半切后的晶片进行测试；S16，对测试完成的晶片进行全切；S17，将所述蓝膜扩张，得到独立的晶粒。进一步地，步骤S11中，将放置到贴膜盘上晶片的背金面向上。进一步地，步骤S12中所述导线为铜丝，所述铜丝线径为50-80um。</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种玻璃加工用切割设备。为了实现上述目的，本发明采用了如下技术方案：一种玻璃加工用切割设备，包括支撑柱，所述支撑柱为十字型，所述支撑柱的外壁固定有电机，所述支撑柱的外壁固定有位于电机上方的减速离合器，所述电机输出端固定有主动轮，所述主动轮通过皮带连接有从动轮，所述从动轮连接于减速离合器输入端，所述减速离合器的输出端固定有转轴，所述转轴的另一端贯穿支撑柱外壁并延伸至支撑柱的内部，所述转轴的另一端固定有转盘，所述转盘上安装有转杆；所述转杆上嵌套有滑杆，且滑杆上开有滑槽，转杆嵌套于滑杆的滑槽内，所述滑杆底端转动连接有支撑杆，所述支撑杆另一端固定于支撑柱外壁，所述滑杆的底端固定有齿轮，所述齿轮啮合有齿轮杆，所述齿轮杆的两端均嵌套有固定环，所述固定环连接有第二支撑杆，所述第二支撑杆另一端固定于支撑柱外壁，所述齿轮杆的底端安装有切割装置本体，所述切割装置本体下方放置有与之相对应的底板，所述底板的底端安装有电动伸缩杆。优选的，所述底板顶端安装有第三支撑杆，所述第三支撑杆顶端安装有吸盘。优选的，所述电动伸缩杆有四根，分别位于底板的底端的四周，所述电动伸缩杆底端嵌套有橡胶保护</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/entity_relation_extraction.xlsx
+++ b/entity_relation_extraction.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,686 +475,510 @@
           <t>文本关系7</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>文本关系8</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>进一步，所述第一级套筒上设置有一弹性卡扣，所述第二级套筒上间隔设置有若干卡孔与所述弹性卡扣配合。进一步，所述复位弹簧的上端部连接所述凹形挂钩的内侧面，复位弹簧的下端连接所述卡槽支架的中部。进一步，所述凹形挂钩外端还转动设置有一挂环。</t>
+          <t>发明内容针对上述问题，本发明的目的在于提出一种多叶排烟口，不仅方便清理叶片，还能够手动复位叶片。本发明解决上述技术问题所采用的技术方案是：一种多叶排烟口，其特征在于，包括：排烟口箱体，所述排烟口箱体的前后两端开口，并互相连通，在所述排烟口箱体内的左侧设置有传动箱，所述传动箱内设有多个传动件，所述排烟口箱体内的右侧固定安装有隔板，所述隔板将所述排烟口箱体右侧分割成上下两个单元，所述隔板上侧为控制单元，所述隔板下侧为叶片单元，所述控制单元内安装有控制器，所述控制单元的后端封闭，所述控制单元的前端安装有箱门，所述叶片单元内自上而下依次安装有多个叶片安装框，每个所述叶片安装框上侧设有上插口，下侧设有下插槽，所述叶片插入所述叶片安装框中，所述叶片上设有挂绳，每个所述叶片安装框的左右两端固定安装有连接轴，每个所述叶片安装框右侧的连接轴与所述排烟口箱体内壁之间转动连接，每个所述叶片安装框左侧的连接轴伸入所述传动箱内与传动件传动连接，每个所述传动件分别与所述控制器电性连接。</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{[113, 114],部件},{[98, 105],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{[16, 19],部件},{[4, 11],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>{[66, 69],部件},{[54, 61],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[23, 27],方法},{[41, 46],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>其中，所述多个凹槽沿所述流体出口的周向连续排列。其中，所述流体进口设置在所述发热体的边缘区域，所述流体出口设置在所述发热体的中心区域。其中，所述加热装置还包括温度检测组件，所述温度检测组件设置在所述发热体上，并与所述流体出口的位置对应。</t>
+          <t>发明内容本发明意在提供一种汽车内饰管切割装置，以解决现有技术中汽车内饰管切割装置切割管材后，管材切口有压痕，影响管材使用和美观的问题。为了达到上述目的，本发明的基础方案提供了一种汽车内饰管切割装置，包括机架，所述机架固定连接有液压缸和第一电机，所述液压缸内滑动连接有活塞杆，所述活塞杆连接有滑块，所述滑块与机架滑动连接，所述滑块的两端均铰接有用于夹持汽车内饰管的圆弧形夹板，圆弧形夹板的凹面相对设置，所述第一电机的输出端连接有用于切割汽车内饰管的切割刀。本方案的技术原理为：先将汽车内饰管放入滑块两端的夹板之间，夹板将汽车内饰管夹持住，启动液压缸和第一电机，第一电机带动切割刀转动，液压缸的活塞杆推动滑块向切割刀的方向运动，滑块带动汽车内饰管向切割刀方向运动，直至汽车内饰管与切割刀接触，转动的切割刀将汽车内饰管切开，汽车内饰管被切开后，关闭液压缸，活塞杆不再推动滑块运动。</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{[29, 32],部件},{[36, 45],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{[7, 8],部件},{[12, 22],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>{[88, 93],部件},{[97, 102],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[106, 107],部件},{[108, 109],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种电流电压组合式数据采集装置，以解决现有电流电压组合式数据采集装置不能实现对电流电压信号的同步准确采集的问题。进一步的，所述信号调理单元还用于将电压传感器输出的模拟小电压信号进行滤波处理。进一步的，所述电压传感器为电容分压型电压传感器或电阻分压型电压传感器。</t>
+          <t>发明内容本发明的目的是提供一种阻挡发动机进气口进水的防护结构，既能够满足进气口的进气需求，又能在汽车涉水时，阻挡水进入发动机进气口，提高发动机的动力性和安全性，而且结构简单，安装方便。本发明所述的一种阻挡发动机进气口进水的防护结构，包括通过螺栓连接在车架上横梁上的进气口左防护构件和进气口右防护构件，并位于固定连接在车架上横梁中部的前罩锁安装支架的左右两侧，其特征是：所述进气口左防护构件和进气口右防护构件的前面与上格栅后面的上部正对，并且二者的底面靠近散热器上导风板的上面；所述进气口左防护构件位于发动机进气口的正下方。进一步，所述进气口左防护构件为钣金件，呈长条形，其后边和左右两边均设有向上的连接块、前边设有向上的竖直挡板，在所述进气口左防护构件的底面上中部设有第一中安装孔、后边的连接块上设有第一右安装孔和第一左安装孔，所述进气口左防护构件通过螺栓与其上的第一中安装孔、第一右安装孔和第一左安装孔配合固定连接在所述车架上横梁上；在所述进气口左防护构件底面上的第一中安装孔的两侧设有结构相同第一右导水孔和第一左导水孔。</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{[8, 24],方法},{[27, 64],效果},方案优点</t>
+          <t>{[141, 148],部件},{[171, 177],位置},空间关系</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{[118, 138],材料},{[112, 116],效果},材料优点</t>
+          <t>{[15, 24],方法},{[66, 78],效果},方案优点</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{[71, 78],方法},{[98, 103],效果},方案优点</t>
+          <t>{[132, 139],部件},{[171, 177],位置},空间关系</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>优选的，所述封密套内部安装有密封圈，且密封圈外部固定有凸出块，所述密封圈的一侧固定有支撑块。优选的，所述支撑块一端的两侧设置有卡块，所述封密套一侧进料口的底端固定有铰接块，且铰接块的两侧设置有卡槽。优选的，所述分装机构的内部依次设置有分流板、手柄、分流出口以及挡板，所述分流板的一侧设置有手柄，且手柄的一端延伸至分流板内部。优选的，：所述分流板的底端等间距的设置有分流出口，所述分流板内部手柄的外壁上设置有挡板，且挡板与分流出口相配合。</t>
+          <t>发明内容为解决上述技术问题，本发明提供一种能够进行选择性防臭的洗衣机用防止排水管脱离的自清洁地漏。为实现上述目的，本发明采用的技术方案是，一种洗衣机用防止排水管脱离的自清洁地漏，包括设有内螺纹的下水管，其结构要点是，下水管的下端连接有漏桶，漏桶的侧壁和底部均设有条形过水口，漏桶与下水管通过锥形筒连接，锥形筒内配合有锥形调节筒，锥形调节筒的内表面设有封环，所述的漏桶内设有位于锥形调节筒内且与封环紧密接触的封头，封头的下方连接有穿过漏桶的底部设置的轴杆，轴杆上设有限位环且限位环与漏桶的底部之间设有压缩复位弹簧，漏桶的底部连接有向上延伸且套设在压缩复位弹簧外的定位桶，所述的封头为顶面为设有弧形凹面的锥形柱，封头的表面设有等角度倾斜且围绕中心轴环形阵列设置的挡流板，且当封头与封环紧密接触时挡流板位于封环的下方，封头的下端面连接有向下延伸的竖杆，竖杆的末端连接有呈“L”形设置的弹性刮片，且当封头向下移动到压缩复位弹簧的压缩最大值时，弹性刮片与漏桶的底部的条形过水口配合，所述的锥形调节筒的上开口端连接有拧接在下水管内的控制管，控制管上与锥形调节筒连接端设有环形阵列设置的出水口，控制管的上端连接有环形设置的漏盖，漏盖的上端</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{[63, 64],部件},{[52, 59],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{[117, 131],部件},{[103, 111],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>{[27, 29],部件},{[19, 23],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[83, 87],方法},{[21, 29],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>优选的，所述弹簧的顶端与所述L形杆的底部相接触，所述弹簧与所述支撑杆滑动连接。优选的，所述第一压板与所述第二压板上均固定安装有垫板，所述垫板为橡胶阻燃材料。优选的，所述固定块上固定安装有轴承，所述螺杆固定套设在所述轴承的内圈上，所述螺杆远离所述支撑杆的一端固定安装有手把。</t>
+          <t>发明内容本发明的目的在于提供一种在萤石尾矿中提取稀有贵重金属的方法，解决现有萤石尾矿中的金、银、铂、铱、钨和锇等稀有贵重金属元素直接丢弃浪费资源、增加生产成本的问题。为解决上述的技术问题，本发明采用以下技术方案：一种在萤石尾矿中提取稀有贵重金属的方法，将含有尾矿和分离剂的浆料经过磁选机去除磁性物质，然后依次经过螺旋流槽、摇床得到比重大的物质，然后对其进行电解，通过调节外加直流电压的大小，将其中的稀有贵重金属分离出来，其中所述的比重加大是指比重大于3的物质。作为优选的，所述浆料包括萤石尾矿30重量份，分离剂0.5-1.5重量份和水65-72重量份。作为优选的，所述分离剂是聚丙锌胺。</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{[63, 64],部件},{[45, 56],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{[93, 94],部件},{[84, 87],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>{[98, 102],部件},{[107, 111],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[255, 261],数值},{[262, 264],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>优选的，所述主体内部的两侧均安装有温度传感器，温度传感器关于主体的中心线对称分布。优选的，所述主体内部的底端安装有加热管，加热管呈蛇形。优选的，所述搅拌棒顶端的两侧均安装有第一伸缩弹簧，且第一伸缩弹簧的一侧均安装有与第一卡槽相互配合的第一卡块，第一卡块与第一卡槽之间构成卡合结构。</t>
+          <t>发明内容本发明的目的在于提供一种更为简单的方法来合成超级电容器电极材料，以降低成本和技术要求，实现批量成产化的超级电容器电极材料。进一步地，在步骤3中，管式炉保持温度为600℃，退火时间保持在3h。本发明使用廉价且环境友好的Na3VO4和CoCl2·6H2O为原料，同时合成方法简单，与现有的制备方法相比，具有生产成本低，设备简单，安全性高，操作简便，易于批量生产等优点。同时，制备出的CoV2O6化合物材料具有极好的循环稳定性。</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{[17, 21],部件},{[6, 12],位置},空间关系</t>
+          <t>{[146, 149],方法},{[166, 169],效果},方案优点</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{[86, 91],部件},{[72, 81],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>{[57, 66],部件},{[45, 53],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[96, 97],数值},{[89, 92],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>优选的，所述防静电瓷轮本体还包括瓷轮，且瓷轮与瓷管固定连接。优选的，所述搬运机构包括把手，所述把手的两端均固定连接有转轴，且转轴与护套转动连接。优选的，所述护套的形状为半中空圆柱体，且所述护套的上表面设置有圆形孔洞，所述护套的内壁设置有圆形凹槽。</t>
+          <t>发明内容本发明所要解决的技术问题是，提供一种能够增加探测器输出响应度的基于天线直接匹配的锗硅异质结双极晶体管探测器。本发明所采用的技术方案是：一种基于天线直接匹配的锗硅异质结双极晶体管探测器，包括有用于探测的第一锗硅异质结双极晶体管和第二锗硅异质结双极晶体管，所述的第一锗硅异质结双极晶体管和第二锗硅异质结双极晶体管的基极分别连接用来接收太赫兹波信号的天线，所述的第一锗硅异质结双极晶体管和第二锗硅异质结双极晶体管的发射极均接地，所述第一锗硅异质结双极晶体管的集电极通过第一四分之一波长微带线至输出端，所述第二锗硅异质结双极晶体管的集电极通过第二四分之一波长微带线至输出端，所述第一锗硅异质结双极晶体管的基极和第二锗硅异质结双极晶体管的集电极之间连接第电容，所述第二锗硅异质结双极晶体管的基极和第一锗硅异质结双极晶体管的集电极之间连接第电容，所述天线中的直流偏置走线连接直流偏置电压。所述天线包括有由位于最顶层的金属构成的贴片天线，由位于最底层的金属构成的接地金属板，由位于接地金属板上一层金属构成的走线，所述走线通过通孔连接所述贴片天线，所述的通孔是形成在所述贴片天线中心至接地金属板上一层金属之间的通孔，所述贴片天线上设</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{[103, 106],部件},{[94, 99],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>{[58, 59],部件},{[47, 51],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>{[23, 24],部件},{[6, 12],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>{[16, 17],部件},{[6, 12],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[44, 56],材料},{[24, 33],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>基于以上现有技术的不足，本发明所解决的技术问题在于提供一种电梯梳齿板间隙及啮合深度检测装置，降低人工操作工作量，提高检测效率与检测结果的可靠性。为了解决上述技术问题，本发明通过以下技术方案来实现：本发明提供一种电梯梳齿板间隙及啮合深度检测装置，包括测量仪、数据处理系统、通讯装置；所述测量仪测出电梯梳齿板间隙及啮合深度的数据后将其反馈到数据处理系统中，所述数据处理系统通过读取所述测量仪反馈的检测结果与系统中预先设置的数据进行比对，生成检测结果；所述通讯装置将所述检测结果反馈到终端上，用于实时对电梯运行状态进行监测。优选的，所述测量仪包括水平放置于电梯的梯级上的旋转架、位于所述旋转架顶部的支撑台、设置在所述支撑台中的横向移动架、在所述横向移动架中转动的旋转轴，所述旋转轴上安装有激光测距仪。</t>
+          <t>发明内容本发明提供一种式I结构的罗丹明衍生物荧光探针，其特征在于式I结构如下：本发明的另一实施方案提供上述式I化合物的制备方法，其特征在于包括如下步骤：将化合物1与化合物2溶于CH2Cl2中，在Fe(acac)3和Et3N的作用下得到式I化合物；其中化合物1与化合物2的摩尔比为1:0.8-1.0，Fe(acac)3的摩尔用量为化合物1的0.10-0.12倍，每毫摩尔化合物1使用CH2Cl2的体积为12-15mL，使用Et3N的体积为0.5-0.6mL。反应温度优选在室温下进行，反应时间优选20-24小时。本发明的另一实施方案提供式I化合物在检测Hg2+中的应用。本发明的另一实施方案提供式I化合物在HeLa细胞成像中的应用。与现有技术相比，本发明的优点在于：本发明利用乙酰丙酮铁(Fe(acac)3)作为催化剂成功地实现了一步法合成罗丹明衍生物探针，且本发明合成的上述衍生物对Hg2+的检测灵敏度高，并能成功用于HeLa细胞成像。</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{[103, 120],部件},{[124, 138],零件},部分关系</t>
+          <t>{[169, 177],数值},{[159, 162],属性},参数关系</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{[265, 267],部件},{[270, 345],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>{[25, 44],方法},{[46, 70],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[200, 204],数值},{[197, 198],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>本发明提供的一种固话终端急来电响铃系统，包括显示模块，喇叭，以及相连接的振铃震荡信号产生模块和耦合电路；所述振铃震荡信号产生模块产生振铃震荡信号后经耦合电路降压；还包括：整流电路、MCU和系统主板；所述MCU包括通讯模块以及与通讯模块连接的解码模块和信号转换模块；所述解码模块用于解码ptsn信号得到来电号码信号；所述整流电路用于将经耦合电路降压后的振铃震荡信号进行整流得到振铃方波信号；所述信号转换模块用于将振铃方波信号转换为振铃数字信号；所述MCU将来电号码信号和振铃方波信号经通讯模块传输至系统主板；所述系统主板在预设时间阈值内接收到来电号码信号和振铃方波信号时向显示模块和喇叭发送驱动信号进行来电显示和响铃。</t>
+          <t>发明内容本发明的目的在于针对现有技术不足，提供一种高持水卡拉胶的加工方法，所得的改性卡拉胶不仅具备优良的持水性，还具有较高的凝胶强度。测试κ-卡拉胶、对比例1制得的一次超高压处理的卡拉胶及本发明实施例2制备的高持水卡拉胶性能，结果如表1所示。从中可以看出，运用本发明的技术及参数，制备的改性卡拉胶与未改性卡拉胶相比凝胶强度接近，持水率得到大幅度提升，总体表现为强度高、持水力强。表1κ-卡拉胶与不同处理得到的卡拉胶性能对比以上所记载，仅为利用本创作技术内容的实施例，任何熟悉本项技艺者运用本创作所做的修饰、变化，皆属本创作主张的专利范围，而不限于实施例所揭示者。"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{[22, 50],部件},{[8, 18],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>{[106, 130],部件},{[101, 103],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>{[159, 162],材料},{[165, 192],效果},材料优点</t>
-        </is>
-      </c>
+          <t>{[32, 35],方法},{[59, 65],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种铝箔精密分切机专用穿带牵引机构，具有结构稳定，自动牵引，方便上料的优点，解决了现有技术中的问题。为实现上述目的，本发明提供如下技术方案：一种铝箔精密分切机专用穿带牵引机构，包括第一转轴、安装壳体和第三转轴，所述第一转轴的两端分别与安装壳体连接，第一转轴的两端对称贯穿有小齿轮，小齿轮一侧第一转轴上通过隔套连接有弹簧，第一转轴两端的外部通过轴承连接有连接套，连接套的一端通过螺栓安装有连接块，连接块一端的上方安装有压板，连接块一端的下方安装有小链轮，第一转轴一端的安装架上通过轴承贯穿有第二转轴，第二转轴的一端贯穿连接有大齿轮，大齿轮与小齿轮啮合，第二转轴远离第一转轴的一端连接有联轴器，联轴器的一端连接有液压马达，联轴器的外部安装有联轴器套，第一转轴下端的安装壳体上安装有开关支架，所述第三转轴的两端通过轴承与安装壳体连接，第三转轴靠近安装壳体的两端对称贯穿有大链轮，第三转轴一侧的安装壳体上安装有小链轮，第三转轴的一端贯穿安装壳体，并连接有挡板，挡板的上方安装有减速电机，挡板的下端连接有销钉座，所述开关支架的一侧固定安装有限位开关，限位开关的上方安装有压板，限位开关的下方安装有调整板，调整板上安</t>
+          <t>发明内容本发明的目的就是为了解决现有技术存在的上述问题，提供一种分子标记鉴定用聚丙烯酰胺凝胶制备方法。本发明工艺简单、效率高，聚丙烯酰胺凝胶稳定性高，工作液能够长时间储存，将会大大节省药品成本，提高制胶效率，极大地确保分子标记鉴定的简易型和稳定性，为分子标记的多态性鉴定提供保障；同时利用本发明能够提高实验的精度和准确性，降低实验成本和实验人员工作量。本发明所采用的技术方案为：一种分子标记多态性鉴定用聚丙烯酰胺凝胶制备方法，包括以下步骤：1)26％聚丙烯酰胺母液制备及贮存；2)1.5M的Tris-HCl(pH8.8)配制及贮存；3)10％g/ml的APS的配制及贮存；4)聚丙烯酰胺凝胶工作液制备及贮存；5)使用前在聚丙烯酰胺凝胶工作液中加入10％APS和TEMED得到混合物，所述聚丙烯酰胺凝胶工作液、10％APS以及TEMED的比例为30ml:200μL:50μL；6)进行电泳。所述步骤1)称量8g的甲叉双丙烯酰胺，加入到2000ml的烧杯烧杯底部，称量252g丙烯酰胺单体加入到烧杯中，加入600ml的水，搅拌直至完全溶解，最后在量筒中定容至1000ml，避光在4℃条件下保存。</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{[89, 96],部件},{[100, 113],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>{[436, 437],部件},{[439, 440],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>{[436, 437],部件},{[452, 453],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>{[8, 26],方法},{[30, 43],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[32, 49],方法},{[54, 57],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>优选的，所述传动机构包括传动杆，所述传动杆竖直设置于空腔内部且上下两端均通过第三滚动轴承转动设置于空腔的上下两侧壁，所述传动杆的上端延伸至两个所述L型支撑板之间并固定设有第二齿轮，所述第一齿轮和第二齿轮可啮合设置。优选的，所述灯泡卡槽内部设置有橡胶垫。优选的，所述传动杆底部固定连接有摇杆。</t>
+          <t>发明内容针对以上问题，本发明的目的在于提供一种硅基多晶硅膜生长过程中石英弥散管连接装置，以延长弥散管使用寿命，提高工作效率。本发明的另一目的在于提供一种所述石英弥散管连接装置的连接方法。在本发明中，所述对接部件为不锈钢材质，该对接部件在靠近工艺气体输送管一端为圆筒形，在靠近石英弥散管一端为径向截面呈半圆形的弧形，该弧形部分沿轴向的高度为5.8-7.8mm，长度为半圆，作用是与弥散管对接配合定位。</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{[18, 20],部件},{[26, 29],位置},空间关系</t>
+          <t>{[34, 42],材料},{[55, 61],效果},材料优点</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{[142, 143],部件},{[132, 136],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>{[122, 124],部件},{[113, 118],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[169, 177],数值},{[166, 167],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>优选的，所述连接装置包括连接板，所述连接板的两侧均固定安装有卡块，所述卡块的外部与限位卡槽的内部卡接，所述连接板的正面卡斯开设有两个相互对称的滑槽，两个所述滑槽的内部均卡接有滑块。优选的，所述减速带本体的顶部设置有防滑纹络，所述减速带本体的两侧分别开设有两个高度不等的腰型槽，且两个腰型槽的内部分别活动套接有连接销套和连接销。优选的，所述连接销套的内部开设有定位孔，且定位孔的内径值等于连接销的外径值。</t>
+          <t>发明内容本发明所要解决的问题是：现有针织物易卷边的问题。为了解决上述技术问题，本发明提供了一种单面纬平针织布防卷边整理工艺，其特征在于，包括以下步骤：步骤1)：在增稠剂中加入去离子水，搅拌至均匀糊状，然后加如硬挺剂继续搅拌至充分混合均匀，制得防卷边整理剂；步骤2)：将步骤1)制得的防卷边整理剂沿针织布纹路方向均匀施加到织物的反面；步骤3)：将步骤2)防卷边整理后的织物依次经烘干、焙烘，即可。优选地，所述步骤1)中的增稠剂为淀粉及其衍生物、纤维素衍生物、海藻酸钠、丙烯酸类阴离子合成增稠剂和聚乙二醇醚类非离子增稠剂中的任意一种；硬挺剂为聚丙烯酸酯、聚醋酸乙烯酯和聚丙烯酸酯改性的聚氨酯中的任意一种。</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{[71, 72],部件},{[57, 60],位置},空间关系</t>
+          <t>{[81, 83],材料},{[53, 55],效果},材料优点</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{[179, 181],部件},{[169, 175],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>{[107, 110],部件},{[96, 103],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[104, 106],材料},{[53, 55],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>所述的动力系统包括：油缸和液压泵站。所述的双体船包括：两个单船体和连接桥，其中：单船体通过连接桥平行连接。所述的单船体甲板上尾部设有开槽，其中：滑行轨道设置于开槽两侧。</t>
+          <t>发明内容本发明的目的是提供一种微机控制电液伺服静载锚固试验机的锚具工装。本发明可显著改善试验准备工作的工作强度，并提高了装卸试样的效率。本发明为解决其技术问题所采用的技术方案是：一种微机控制电液伺服静载锚固试验机的锚具工装，包括本体以及本体左侧的承载梁端组件和本体右侧的千斤顶活塞杆端组件，所述的承载梁端组件包括第一锚具固定组件和相对位移测量组件，所述的千斤顶活塞杆端组件包括第二锚具固定组件和相对位移测量组件；所述第一锚具组件包括连接垫板、第一限位螺钉、第一垫板，所述的连接垫板为圆形，所述连接垫板通过螺钉紧固在本体左侧的承载梁上，其外圆上还开设有4个螺孔，所述连接垫板上还刚性连接有第一下挡圈，所述第一垫板开设有一个用于安装锚具的圆孔，所述第一垫板安装于连接垫板上，所述第一垫板与连接垫板通过第一限位螺钉连接；所述第二锚具固定组件包括挡圈、第二限位螺钉、第二垫板，所述挡圈通过螺钉固定在本体右侧的活塞杆上，所述挡圈为圆形，其外圆上还开设有4个螺孔，所述挡圈还刚性连接有第二下挡圈，所述第二垫板开设有一个用于安装锚具的圆孔，所述第二垫板安装于挡圈上，所述第二垫板与挡圈通过第二限位螺钉连接。所述的相对位移测量组件包括180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{[72, 75],部件},{[79, 82],位置},空间关系</t>
+          <t>{[208, 213],部件},{[218, 219],零件},部分关系</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{[3, 6],部件},{[10, 16],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>{[21, 23],部件},{[27, 35],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[15, 34],方法},{[57, 66],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>为提高水下航行器的水下操纵能力及方便水下航行器的运输，本发明提供一种折叠式双面舵及具有该双面舵的水下航行器。具体技术方案如下：一种折叠式双面舵，其不同之处在于，所述双面舵包括相对设置的两个舵面及连接在两个所述舵面之间的基座，所述基座可安装在舵机上。上述技术方案中，所述双面舵还包括连接于两个所述舵面之间的端板。上述技术方案中，所述舵面与所述基座可相对旋转。</t>
+          <t>发明内容提出了一种氧化铜纳米线的制备方法，尤其是一种利用氯化亚铜制备氧化铜纳米线的方法。其反应方程式为4CuCl+O2＝2CuCl2+2CuO，溶液为含氧的乙醇溶液。本发明采用如下技术方案：一种氧化铜纳米线的制备方法，包括如下步骤：(1)将氯化铜溶液涂覆于铜箔表面，中和反应快速发生，生成氯化亚铜；(2)将氯化亚铜从铜箔表面刮除收集，放入含氧的乙醇中封闭加热，反应生成氧化铜纳米线。步骤(1)中的氯化铜溶液浓度范围为0.01～1mol/L，溶剂为水、乙醇、丙醇、二氯甲烷、汽油、丁醇、丙酮、乙醚、乙醛、石油醚的一种或者混合溶液。</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{[63, 70],部件},{[80, 110],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>{[32, 52],方法},{[1, 25],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>{[134, 136],部件},{[152, 153],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[119, 131],方法},{[142, 147],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>有鉴于此，本发明提供了一种具有吸收-反射-吸收特性的频率选择表面，作为天线的反射板能在降低天线RCS的同时保证天线的辐射性能。实现本发明的技术方案如下：一种具有吸收-反射-吸收特性的频率选择表面，包括介质基底和设置在介质基底上表面的若干个呈矩形周期排布的金属单元，所述金属单元包含四个相同的由金属条构成的带缺口的矩形金属环结构，所述缺口由一个顶点起至该顶点所在长边的3/4处，所述金属条总长度的1/2处焊接有贴片电阻，以其中一个矩形金属环内部的一点为旋转中心，依次旋转90°，180°和270°，确定四个互不交叉和互不重叠的矩形金属环的位置。进一步地，所述金属的材料为铜。进一步地，所述介质基底采用介电常数为3，损耗正切值为0.0013的RogersRO3003材料。进一步地，对于反射频带为C波段的频率选择表面，金属条宽度为0.5mm，矩形金属环的四个边的长度分别为：4.5mm，14.5mm，18mm和14.5mm；与旋转中心最邻近的矩形金属环的两条边距离旋转中心的距离分别为4mm和7mm，相邻两个金属单元之间的距离为2mm。</t>
+          <t>发明内容本发明的目的在于针对现有技术的缺陷和不足，提供一种结构简单，设计合理、使用方便的兽医用灌药器，其能够避免动物的牙齿直接接触到灌药器注射管道，有效保护灌药器注射管道，降低其更换频率，安全性和实用性均得到提高。为实现上述目的，本发明采用的技术方案是：它包含灌药注射筒、活塞杆、推动片、储药罐、出药管、活塞、一号单向阀、二号单向阀、金属波纹管、连接管、出药头、滚珠、密封胶圈片；灌药注射筒的内部活动设有活塞，活塞的一端与活塞杆连接，活塞杆活动设置于灌药注射筒内，且活塞杆的外端连接有推动片，灌药注射筒的顶部贯通连接有储药罐，且灌药注射筒与储药罐的连接开口处设有一号单向阀，灌药注射筒的一端连接有出药管，出药管的内端口设有二号单向阀，出药管的外端套接固定有金属波纹管，金属波纹管的另一端插接固定有连接管，连接管插接固定在出药头的连接端管上，出药头的外侧面开设有若干个出药孔；所述的连接端管的内侧壁与连接管的外侧壁之间嵌设有若干个滚珠；所述的连接管上设有滚珠的一端连接端管内壁与连接管的外壁之间连接有密封胶圈片,所述密封胶圈片为波纹状结构，其具有一定的延展性。进一步地，所述的灌药注射筒上与储药罐的连接处设有螺纹连接管，所述的</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{[76, 96],部件},{[98, 114],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>{[411, 414],部件},{[416, 417],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>{[28, 31],材料},{[15, 22],效果},材料优点</t>
-        </is>
-      </c>
+          <t>{[44, 49],材料},{[86, 92],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>当下方活动门打开时，报警器传感器发出信号，控制报警器发出警报声。皮带机控制传感器和报警器传感器为位移传感器，通过上方活动门和下方活动门的位移变化发出信号。皮带运输机漏斗的皮带机控制传感器和报警器传感器设置于传感器安装支柱上。</t>
+          <t>发明内容发明目的：提出一种连续纤维的变刚度复合材料铺层以解决不连续纤维在面内存在相交处叠层，导致复合材料铺层不平整度的问题。进一步的，第一段纤维(1)、第二段纤维(2)、第三段纤维(3)在同一平面内。进一步的，单根纤维束由多根纤维丝编织而成。</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{[77, 99],部件},{[103, 110],位置},空间关系</t>
+          <t>{[18, 26],材料},{[28, 44],效果},材料优点</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{[32, 46],部件},{[48, 52],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>{[1, 8],方法},{[10, 30],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[105, 109],部件},{[111, 115],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种基于深度学习的工业零件关键点检测方法，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种基于深度学习的工业零件关键点检测方法，具体包括以下步骤：S1：训练关键点检测深度神经网络：构建由三条子网络组成的关键点检测深度神经网络，每条子网络之间采用多尺寸特征图融合技术进行特征融合，S1.1：第一条子网络的输入是原分辨率的图像，经过通过九个卷积层，形成第一路特征输出图1；S1.2：第二条子网络的输入是第一条子网络第二层卷积层的输出，然后经过七个卷积层，形成第二路特征输出图2；S1.3：第三条子网络的输入是第一条子网络第六个卷积层的输出和第二条子网络第四个卷积层融合的结果，再经过三个卷积层得到第三路特征输出图3；S1.4：三条子网络将分别与每条子网络之间的多尺寸特征图融合技术进行特征图的融合；S1.5：最后输出三层特征输出图的融合结果；S1.6：构建热力图的回归损失函数进行匹配校准，S2：将待检测的图像输出到训练关键点检测深度神经网络，利用训练得到的关键点检测深度神经网络检测到关键点，再利用关键点对工业零件进行匹配校准。优选的，每条所述子网络包含若干个3*3，步长为1到</t>
+          <t>发明内容本发明的目的是为了解决以上现有技术的不足，提供一种刚挠结合板的无毛刺铣切工艺。优选地，所述刚挠结合板的板厚为0.8mm-3mm。优选地，所述的刚挠结合板的刚性层所在区域还设有补强板。</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{[107, 112],部件},{[114, 135],零件},部分关系</t>
+          <t>{[58, 66],数值},{[55, 56],属性},参数关系</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{[12, 29],方法},{[32, 45],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>{[495, 497],部件},{[503, 511],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[27, 41],方法},{[13, 23],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>为解决上述技术问题，本发明采用如下技术方案：一种缓降通道装置，其特征在于，包括导向通道和多个气囊，所述气囊置于所述导向通道内壁上，所述气囊内设有弹簧，所述气囊上设有进气管和出气管，所述进气管的前端和所述出气管的前端穿过所述导向通道并向外延伸。优选地，所述气囊外壁覆盖有耐磨层。优选地，所述进气管内设有单向阀，所述出气管上设有调节阀。</t>
+          <t>发明内容为了解决室内植物病害发生普遍，现有的杀菌剂制剂配药麻烦、使用、储存不便的问题，本发明提供了一种左旋香芹酮气雾剂及其制备方法。作为优选，所述的乳化剂为月桂酸单甘油酯、十二烷基苯磺酸钙、吐温系列和司盘系列中的至少一种。作为优选，所述的乳化剂为吐温80。</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{[144, 146],部件},{[150, 152],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>{[51, 52],部件},{[57, 62],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>{[127, 130],部件},{[134, 136],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[51, 58],材料},{[6, 41],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>优选的，所述滑槽和滑座的大小适配。优选的，所述限位块大于L形夹板的短端贯穿的半径。优选的，所述L形夹板的长端均套装有橡胶套。</t>
+          <t>发明内容本发明的目的在于提供一种装袋载物两用机，能够对粮食进行收集、装袋，又能转载转移粮食。本发明所采用的技术方案是：一种装袋载物两用机，包括收集装置，收集装置铰接有填充装置，收集装置的底部设有伸缩装置，填充装置的底部固定连接有行走轮。本发明的特点还在于，收集装置包括收集框架，收集框架的底部固定连接有簸箕，簸箕一体连接有收集漏斗。</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{[23, 25],部件},{[28, 34],位置},空间关系</t>
+          <t>{[16, 22],材料},{[26, 35],效果},材料优点</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{[58, 60],部件},{[45, 53],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>{[6, 7],部件},{[9, 10],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[83, 86],部件},{[80, 81],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>本发明引线框的进一步改进在于，所述引线框还包括排切割线，所述排切割线位于所述引脚上。本发明引线框的进一步改进在于，所述引线框单元在行方向的尺寸不超过塑封模具中塑封所述引线框单元的容置子腔在行方向的预设值。本发明引线框的进一步改进在于，每列的各个所述引线框单元在行方向的尺寸相等。</t>
+          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种用双氧水和氨水清洁生产高纯五氧化二钒的方法。优选的，步骤（1）中，双氧水质量分数为0.1%-1%之间，氨水质量分数为5%-10%之间，粗制偏钒酸铵或粗制五氧化二钒与双氧水和氨水的混合溶液体积之比，即固液比为1:7.5-1:15。优选的，步骤（1）中，净化剂为氧化镁或氧化钙或氧化镁和氧化钙的混合物，加入量为100mL溶液加入0.5g-1.0g，氧化镁和氧化钙混合物中氧化镁与氧化钙的质量比为1:1-1:4。</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{[130, 135],数值},{[124, 128],属性},参数关系</t>
+          <t>{[90, 95],数值},{[85, 88],属性},参数关系</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{[98, 100],数值},{[59, 70],属性},参数关系</t>
+          <t>{[73, 79],数值},{[68, 71],属性},参数关系</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{[30, 33],部件},{[38, 39],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>{[23, 26],部件},{[17, 19],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[227, 233],数值},{[223, 225],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>优选的，所述感光鼓外壁的一侧设置有连接板，所述连接板的底部固定连接有刮板，所述刮板的底部呈弧形，且所述刮板与感光鼓的外壁相接触。优选的，所述连接板的顶部转动穿插连接有圆杆，所述圆杆的两端与机壳的两侧内壁固定连接。优选的，所述刮板的下方设置有承载箱，所述承载箱的正面和背面均设置有弹簧钢片，所述弹簧钢片的两侧分别与机壳的两侧内壁固定连接，所述承载箱的正面和背面均固定连接有卡块。</t>
+          <t xml:space="preserve">发明内容本发明克服了现有技术的不足，提供一种表面具有凸条纹路无纺布的制备装置，该装置可以解决纤网的行成问题。本发明一个较佳实施例中，所述非凹槽的横截面形状为弧形，所述非凹槽的弧形深度小于所述凹槽深度。本发明一个较佳实施例中，所述混纤组件还包括气泵和连接气泵的若干导气管，所述气泵设于所述水箱外，所述导气管设于所述水箱的底部，用于防止所述短纤沉于所述水箱底部。
+</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{[17, 19],部件},{[4, 13],位置},空间关系</t>
+          <t>{[114, 117],部件},{[121, 122],零件},部分关系</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{[120, 122],部件},{[110, 116],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>{[83, 84],部件},{[68, 75],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[137, 138],部件},{[143, 145],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>此外，该供液管路利用供液泵从该药液储槽汲取药液至该处理槽的蓄液区，该抽吸管路利用抽吸泵让药液通过电路板的通孔，且将药液抽吸至该药液储槽。再者，该处理槽内部相对该定位框具有定位座。藉此，该定位框与电路板被定位于该处理槽内部后，该供液管路则开始供给药液至该处理槽的蓄液区，当药液达到工作液位时，该抽吸管路经由抽吸罩进行抽吸，所抽吸的药液送至该药液储槽，再由该供液管路供给药液至该处理槽的蓄液区循环使用，药液因该抽吸管路的抽吸而持续性流经电路板通孔进行化学处理或电化学处理。</t>
+          <t>发明内容本发明提供一种四(4-氯代苯氧亚乙氧基)硅烷(简称TCPESi)，其特征在于所述TCPESi具有如下结构：本发明的另一实施方案提供一种制备TCPESi的方法，其特征在于包括如下步骤：将2-(4-氯苯氧)乙醇与乙腈混合，通入保护气体，搅拌5min，加入有机碱，升温至45-50℃后，加入四氯化硅，继续搅拌反应4-5h后，将反应液倒入冰水中，搅拌5min后，过滤，滤饼用去离子水、乙醇洗涤，真空干燥即得TCPESi。每摩尔2-(4-氯苯氧)乙醇使用乙腈0.6-0.8L乙腈，保护气体选自氮气或氩气，有机碱选自吡啶或三乙胺，2-(4-氯苯氧)乙醇、有机碱、四氯化硅的摩尔比为1:1:0.25。本发明的另一实施方案提供一种新型阻燃增韧高抗冲聚苯乙烯材料，其特征在于按重量份计，所述新型阻燃增韧高抗冲聚苯乙烯材料由以下成分组成：6-7份HIPS、2-3份TCPESi、1份CB[6]。</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{[85, 87],部件},{[72, 76],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>{[93, 99],部件},{[105, 109],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>{[35, 37],部件},{[48, 53],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[245, 249],材料},{[239, 242],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>优选的，所述螺纹旋钮的内侧表面开设有内螺纹，所述旋转轴的外表面开设有与内螺纹相匹配的外螺纹。优选的，所述防护罩的外表面开设有矩形滑槽，所述第一固定片的外表面固定连接有与矩形滑槽相匹配的滑凸。优选的，所述防护罩的内部开设有穿孔，所述防护罩通过穿孔啮合套接有丝杆，所述第一固定片的外表面位于丝杆的一侧固定连接有固定块，所述丝杆的一端固定连接有拨块，且所述拨块与固定块活动套接。</t>
+          <t>发明内容本发明的目的是解决现有技术存在的问题，提供一种结构简单，可提升乘客使用舒适度的带加湿装置的车用空调。为了实现上述目的，本发明采取的技术方案为：所提供的这种带加湿装置的车用空调，包括空调壳体，在所述空调壳体的前端设有空调出风口，其特征在于：在所述空调壳体上，靠近所述空调出风口一端设有加湿装置，所述加湿装置可拆卸的安装在所述空调壳体上。为使上述技术方案更加详尽和具体，本发明还提供以下更进一步的优选技术方案，以获得满意的实用效果：所述加湿装置包括置于所述空调壳体内的盒体，在所述盒体的一端设有配合安装在所述空调壳体上的插接段，所述空调壳体一侧设有配合插接安装所述插接段的安装座。</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{[6, 9],部件},{[18, 20],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>{[52, 54],部件},{[62, 65],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>{[101, 103],部件},{[110, 111],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[111, 115],部件},{[102, 108],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>作为本发明的一种优选技术方案，所述底盖与顶盖形状为方形盒，所述底盖与顶盖内部均为中空，所述底盖顶端及顶盖底端均不封口。作为本发明的一种优选技术方案，所述底盖与顶盖尺寸大小相同，所述顶盖背面底端通过活叶与底盖背面顶端活动连接。作为本发明的一种优选技术方案，所述外壳与内壳形状均为方形盒，所述外壳与内壳内部均为中空，所述外壳与内壳顶端均为不封口，所述内壳外侧高度尺寸大小小于外壳内侧高度尺寸大小。</t>
+          <t>发明内容鉴于上述现有技术的不足，本发明的目的在于提供一种电器盒，旨在解决现有技术中将风机电容焊接在空调内机控制板上，导致控制板型号较多，管理成本较高的问题。本发明的技术方案如下：一种电器盒，包括：电器盒壳体，其中，所述电器盒还包括：通用连接板，所述通用连接板固定连接于电器盒壳体，并开设有第一连接孔，所述第一连接孔用于适配风机电容上所开设的第二连接孔，风机电容通过第一连接孔及第二连接孔螺纹连接于通用连接板。在进一步地优选方案中，所述通用连接板包括：连接部及固定部，所述固定部固定连接于电器盒壳体；所述电器盒壳体开设有电器收容槽，所述连接部位于电器收容槽内，所述第一连接孔开设于连接部。</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{[183, 194],数值},{[173, 180],属性},参数关系</t>
+          <t>{[91, 93],部件},{[98, 102],零件},部分关系</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{[101, 110],部件},{[90, 95],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>{[3, 13],方法},{[55, 57],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[109, 111],部件},{[116, 120],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>进一步的，上述的蓝牙耳机带有话筒，可采集声音并通过电路板上的蓝牙模块发送给其他设备。进一步的，上述的蓝牙耳机从正面视图来看，所述的外壳的头部到外壳的中部宽度逐渐缩小，外壳的中部到外壳的尾部宽度一致，外壳的整体结构成U形。进一步的，上述的电池也可以被安装在外壳的头部内，同时电池的输出导线和同样安装在外壳的头部内的电路板相连。</t>
+          <t>发明内容本发明的目的是：提供一种既不损坏跟踪测温传感器，又能跟踪测量测温晶体传感器标定过程中退火温度历程的方法。所述测温晶体传感器1及跟踪测温传感器2进入加热炉及在加热炉内恒温的全部过程中,测温晶体传感器1所在位置与跟踪测温传感器2的测温端位置水平距离不超过20mm，垂直距离不超过5mm。所述升温及恒温数据的测量中，升温时间与恒温时间转换的节点，为跟踪测温传感器2温度变化第一次不大于0.1℃/10s的时间节点。</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{[115, 119],部件},{[127, 132],位置},空间关系</t>
+          <t>{[129, 132],数值},{[122, 125],属性},参数关系</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{[8, 15],方法},{[17, 40],效果},方案优点</t>
+          <t>{[141, 143],数值},{[134, 137],属性},参数关系</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1162,1928 +986,1375 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>现为了克服上述技术存在的缺陷，本发明提出了一种罐体自动装载设备。本发明所要解决的技术问题采用以下技术方案来实现：一种罐体自动装载设备，包括底板以及焊接在底板上左端的弯折杆，所述弯折杆上通过轴承安装有存储圆筒，所述存储圆筒的左部圆弧面上均布有卡槽。每个卡槽的中部连通有两个侧槽，每个侧槽内均滑动安装有滑块，每个滑块与对应的侧槽内壁之间均设有与二者均通过挂钩相连的一号弹簧，每个滑块在靠近对应的卡槽一侧均设有一号倾斜面，每个卡槽的径向外侧设有两个二号倾斜面。</t>
+          <t>发明内容为了克服现有技术中索非布韦晶型6制备过程中操作不便、不利于工业化生产的缺陷，本发明提供了一种简单、方便、利于工业化操作的制备索非布韦晶型6的方法。为实现上述技术目的，本发明采用如下技术方案：一种索非布韦晶型6的制备方法，包括下列步骤：步骤一：制备索非布韦的混合溶液，其中溶剂为二氯甲烷与水的混合溶剂，所述水与二氯甲烷的体积比为1:1-3，所述二氯甲烷与索非布韦的投料比为10-20mL/g；步骤二：将步骤一获得的索非布韦的混合溶液在常压下，边搅拌边将其中的二氯甲烷蒸出，至50℃，基本无二氯甲烷馏出，在搅拌下将体系温度冷却到5-10℃，搅拌析晶，得到混合物；步骤三：将步骤二获得的混合物过滤，烘干，得索非布韦晶型6。本发明使用的原料索非布韦，可以是各种形式的索非布韦产品，比如晶型1、2、3、4、5、A及α等。</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{[58, 65],部件},{[67, 84],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>{[123, 126],部件},{[128, 129],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>{[23, 30],方法},{[3, 13],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[294, 301],方法},{[303, 310],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>为实现以上目的，本发明通过以下技术方案予以实现：一种纱窗清洗装置，包括框体、旋转辊、传送条、安装套筒、皮带轮、皮带、滑槽、传送带、连接板、橡胶棒、清洁毛细管、吸水孔、喷嘴、安装座、伸缩杆。其中：所述框体的内部转动连接有旋转辊，所述旋转辊之间的传动连接有传送条，所述传送条的内部转动连接有安装套筒，所述安装套筒靠近传送条内部的一端固定安装有皮带轮，所述皮带轮之间传动连接有皮带，所述皮带轮的内侧开设有滑槽，所述框体内滑槽的内部转动连接有传送带，所述框体内传送带的右侧固定安装有连接板，所述安装套筒远离传送条内部的一侧固定连接有橡胶棒，所述橡胶棒的外围固定安装有清洁毛细管，所述框体的内部开设有吸水孔，所述框体靠近传送条一侧的内壁上固定安装有喷嘴，所述框体的后端固定安装有安装座，所述安装座的底部转动连接有伸缩杆。</t>
+          <t xml:space="preserve">发明内容本发明的目的是提出一种长纤维增强复合材料管件的制造工艺方法，有效降低甚至消除纤维搭桥缺陷，提升长纤维增强复合材料管件的成型质量与制造效率。本发明的技术解决方案是，(1)依据待制备的长纤维增强复合材料管件结构以及铺层结构形式，确定非0°方向铺层的总数量M及总层数N，将非0°方向铺层采用0°方向裁剪，总层数N≤M；(2)依据铺层结构的铺层顺序，将采用0°方向对接铺贴的非0°方向铺层编号为N1、N2…Nn；其中，n＝1，2…，每层上均采用两个对接接头，且两个对接接头在横断面圆周上180°相对，相邻铺层上的对接接头的弧度夹角为α；(3)按照长纤维增强复合材料管件铺层结构形式，确定采用0°方向对接铺贴的各非0°方向铺层的对接接头位置，在膨胀橡胶芯模上进行长纤维增强复合材料管件铺贴；
+</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{[175, 177],部件},{[178, 179],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>{[24, 31],部件},{[35, 92],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[15, 25],方法},{[36, 47],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>作为本发明的一种优选技术方案，所述滑块通过滑槽与故障指示器本体的外表面滑动连接，且滑块与转动杆焊接固定。作为本发明的一种优选技术方案，所述转动杆通过第一转轴与故障指示器本体的内部转动连接，且转动杆通过第一弹簧与故障指示器本体构成弹性结构。作为本发明的一种优选技术方案，所述扣环的左端设置有与齿轮相啮合的齿牙，所述齿牙的数量为若干组。</t>
+          <t>发明内容本发明的目的是：设计具有三个锁扣的锁紧结构并同时满足冗余防护，以解决同时满足锁紧结构和冗余防护的技术问题。所述的具有冗余设计的三锁扣卡箍锁紧机构还包括副锁扣13，所述的副锁扣13连接在A销轴7上，副锁扣13的根部中心设计有方槽131。增加有方槽131的副锁扣13可以避免与B锁扣2的端部发生干涉，并使得三个锁扣锁紧更牢固。</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{[17, 22],部件},{[24, 34],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>{[162, 164],数值},{[156, 160],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>{[69, 71],部件},{[79, 88],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[115, 116],部件},{[108, 111],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>优选的，所述吸盘的形状为前端面比后端面小的圆台，吸盘为橡胶材质的真空吸盘。优选的，所述旋钮的形状为圆柱形，旋钮的外表面设置有条形防滑纹路。优选的，所述第一连接块的上侧形状为半圆，第一连接块下侧形状为长方体，第二连接块是由两组形状与第一连接块相反的物体组成。</t>
+          <t>发明内容发明目的本发明的目的在于提供一种隔振器来克服或至少减轻现有技术的至少一个上述技术问题。发明技术解决方案为了实现上述发明目的，本发明采用下述的技术方案：一种防冲击摩擦隔振器，所述隔振器包括底座、盖体、芯轴、挡片、减振垫、隔离片、第一弹簧、涨紧弹簧、摩擦片、第二弹簧。优选的，所述隔振器的芯轴的凸台的环形凹槽内设置摩擦片。</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{[110, 124],部件},{[103, 107],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>{[62, 67],部件},{[53, 58],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>{[27, 30],材料},{[32, 35],效果},材料优点</t>
-        </is>
-      </c>
+          <t>{[81, 88],部件},{[113, 115],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>根据本发明的一个具体但非限制性的实施方案，所述分布器的Y型沟槽由两个分岔的半圆形沟槽，下接一圆管构成。根据本发明的一个具体但非限制性的实施方案，所述分级滑道由有机玻璃制成。根据本发明的一个具体但非限制性的实施方案，在离所述分级滑道较近的地方设置宽度较小、用于接收直径较小锆球的接料容器。</t>
+          <t>发明内容有鉴于此，本发明的目的之一在于提供一种松香改性蒙脱土增强聚乳酸3D打印材料的制备方法；目的之二在于提供一种松香改性蒙脱土增强聚乳酸3D打印材料。优选地，步骤(1)中，所述搅拌时间为6h。优选地，步骤(1)中，所述干燥为在50-60℃下干燥24-36h。</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{[32, 41],部件},{[23, 30],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>{[138, 141],部件},{[111, 119],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[94, 96],数值},{[89, 92],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>本发明的目的是为了克服已有技术的缺陷，为了解决传统的镜面面形设计方法存在效率低、占用硬件资源大的问题，提出了一种新的光学镜面面形计算方法。本发明提供的光学镜面面形计算方法，包括以下步骤：S1、建立光学镜组的三维模型；S2、通过有限元分析软件对三维模型进行网格划分及位移约束；S3、对光学镜组中每个镜面进行多种载荷工况条件下的有限元仿真计算，获得每一种载荷工况条件下镜面的面形节点坐标和面形节点位移值，并输出为多个独立的符合面形计算要求的仿真结果文件；S4、对多个仿真结果文件中镜面的面形进行拟合计算，获得多个面形结果；S5、对多个面形结果进行整理，输出一个结果文件。本发明能够取得以下技术效果：在不修改及影响原有软件的情况下，可以完成一个三维模型的多个载荷工况的计算，输出每个载荷步的面形节点位移值，并自动调用面形拟合软件完成多个载荷步面形的计算，再调用结果整理软件对面形结果整理输出为一个文件，从而实现镜面设计工作的自动化，提高单次设计仿真计算及结果后续处理的工作效率，减少设计人员在低效工作中的精力及时间消耗，减少工作中由重复复杂操作造成的失误。</t>
+          <t xml:space="preserve">发明内容针对现有技术不足，本发明所要解决的技术问题是提供一种插件稳定送料机构，以达到插件不易卡死的目的。为了解决上述技术问题，本发明所采用的技术方案为：该插件稳定送料机构，包括震动盘和用于将插件输送至整形组件处的送料轨道，所述震动盘的震动盘轨道与送料轨道相对接，所述震动盘轨道和送料轨道对接处的顶部设有整理插件防止卡死的电磁铁。进一步的，还包括控制器，所述送料轨道的后端设有物料传感器，所述电磁铁和物料传感器均与控制器相连。
+</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{[0, 2],方法},{[7, 67],效果},方案优点</t>
+          <t>{[79, 84],部件},{[106, 109],零件},部分关系</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{[69, 84],方法},{[297, 396],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>{[283, 285],方法},{[400, 473],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[79, 84],部件},{[88, 90],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>优选的，所述底部主盖板、顶部主盖板是由部/底部盖板E型瓦楞纸与侧板C型瓦楞纸瓦楞纸及面纸、中纸、里纸组成的多层盖板。优选的，所述底部左侧支撑板、底部右侧支撑板、顶部左侧支撑板、顶部右侧支撑板是由部/底部盖板E型瓦楞纸与侧板C型瓦楞纸瓦楞纸及面纸、中纸、里纸组成的多层盖板。优选的，所述侧板是由侧板B型瓦楞纸与侧板C型瓦楞纸瓦楞纸及面纸、中纸、里纸组成的多层盖板。</t>
+          <t>发明内容本发明的目的在于提供一种服务器CPU散热装置，用于解决提高CPU散热器效率的技术问题。进一步的，所述散热器的底端设有散热传导柱，散热传导柱的下端与CPU紧密接触。进一步的，所述散热器下端和CPU之间设有导热凝胶体。进一步的，所述导热凝胶体采用环形腔体结构，导热凝胶体套装在所述散热传导柱的外侧。</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{[97, 127],部件},{[64, 94],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>{[19, 49],部件},{[6, 16],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>{[146, 172],部件},{[142, 143],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[16, 25],材料},{[29, 45],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种可驱虫的方便开关的双窗，以解决上述背景技术中提出的问题。作为本发明进一步的方案：所述窗框靠近另一个窗框侧壁固定连接有橡胶垫。作为本发明进一步的方案：所述L形限位板的水平面和垂直面分别设有通孔，转轴一和转轴二的一端贯穿通孔并且与L形限位板水平面上通孔转动连接，主轴一和主轴二的一端贯穿L形限位板垂直面上通孔并且与通孔转动连接。</t>
+          <t>发明内容本发明的目的是提供一种用于车床的反刃车刀组，可以降低刀体震动，实现工件的平稳性切削，并且可以方便操作人员观看切削过程。本发明提供一种用于车床的反刃车刀组，包括刀具，所述刀具包括刀柄以及固设于所述刀柄端部的刀头，所述刀头的刀尖竖直向上设置；还包括用以固定所述刀柄的刀座。优选的，所述刀柄为五棱柱刀柄，包括由设于所述刀柄下部的相邻的两个侧面构成的V型尖端以及与所述V型尖端相对设置的平面结构。优选的，所述刀座设有用以与所述V型尖端相配合的V型槽以及与所述V型槽相通的方形槽。</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{[70, 72],部件},{[52, 64],位置},空间关系</t>
+          <t>{[83, 84],部件},{[92, 93],零件},部分关系</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{[88, 100],部件},{[105, 106],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>{[0, 2],方法},{[8, 22],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[83, 84],部件},{[106, 107],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>本发明提供了一种石灰石智能化料场上料方法，通过控制系统控制抓斗自动堆取料，可提高石灰石堆料高度，实时监控料场石灰石储量，实现无人化操作。为了达到上述目的，本发明采用以下技术方案实现：一种石灰石智能化料场上料方法，包括：1)封闭式料场划分为多个汽车卸料区、多个堆取料区和多个受料斗区；其中每个汽车卸料区、每个堆取料区均划分为若干个长度×宽度＝a×b的网格；每个汽车卸料区、堆取料区内均设有料位监测装置一；每个受料斗区内设有多个受料斗，每个受料斗上均设有料位监测装置二；2)封闭式料场设控制系统，分别与料位监测装置一和料位监测装置二相连，各部分料位通过控制系统的操作界面实时显示，并自动统计出封闭式料场当前的石灰石总储量；3)封闭式料场的上部设多个自动行车，自动行车上设有抓斗、走行控制器及抓斗控制器，走行控制器及抓斗控制器与控制系统相连，通过走行控制系统控制自动行车的移动、停车及自动定位；通过抓斗控制器控制抓斗的升降、开闭和料位探测；4)堆料时：自动行车上的抓斗从汽车卸料区抓取石灰石，每次抓料后都向堆取料区内料位最低的网格内堆料，直到堆取料区内所有网格内的料位均达到设定的上限料位；5)封闭式料场的控制系统与石灰窑上料系统</t>
+          <t>发明内容为了解决上述问题，本发明提供一种半导体压力传感器，所述半导体压力传感器呈顶栅型场效应晶体管结构，所述半导体压力传感器包括设置在第二衬底上表面的顶栅型场效应晶体管，所述顶栅型场效应晶体管包括设置在所述第二衬底上表面的源极/漏极、覆盖所述源极/漏极的半导体层、覆盖所述半导体层的栅极绝缘层，形成在所述栅极绝缘层上的栅极，所述栅极为压电层；正对所述顶栅型场效应晶体管设置在所述第二衬底下表面的凹槽，所述源极/漏极对称设置在所述凹槽的两侧，所述栅极的外侧端部边缘覆盖所述源极/漏极的内侧的端部边缘或者与所述源极/漏极的内侧的端部边缘相对齐。优选地，还包括第一衬底，所述第一衬底密封所述凹槽。优选地，所述栅极的外侧端部边缘与所述源极/漏极的内侧端部的边缘重叠区域的长度为5μm-50μm。</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{[91, 104],部件},{[109, 511],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>{[21, 35],方法},{[38, 66],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[87, 95],部件},{[141, 145],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>本发明的目的是提供一种抽屉防跌落装置，通过在滑轨左端设有挡板，滑轮在滑轨内滑动，挡板对滑轮进行限位，防止滑轮滑出滑轨导致抽屉掉落，转动支撑杆对抽屉进行支撑和转动传输，解决了抽屉抽出费力并且容易从开关柜中跌落的问题。本发明提供一种抽屉防跌落装置，包括开关柜和抽屉，开关柜两侧对称设有滑轨，抽屉两侧后端设有滑轮，滑轮在滑轨内滑动，滑轨左端设有挡板，滑轨左端上侧设有缺口，缺口长度和滑轮外径相同；开关柜底端底端等距设有转动支撑杆，转动支撑杆贴合抽屉下侧设置，转动支撑杆设有不止一个。进一步改进在于：最左侧三个转动支撑杆两端通过连接架串联，中间的转动支撑杆两端穿过连接架中间与开关柜两侧连接，两侧的转动支撑杆分别连接在连接架内左右两端，三个转动支撑杆通过连接架形成杠杆结构。进一步改进在于：抽屉上设有把手，把手上设有绝缘防滑层。</t>
+          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种美容整形外科微创手术引流的控制系统。为了实现上述目的，本发明采用了如下技术方案：一种美容整形外科微创手术引流的控制系统，包括引流管，所述引流管的一端外圈固定套接有圆环形结构的支撑套环，所述支撑套环远离引流管的一端设置有圆弧形结构的弹性板，所述弹性板上开设有引流孔，所述引流管靠近弹性板的一端设置有沿其轴线阵列分布的支撑杆，所述支撑杆远离引流管中心位置的一端顶部设置有阻挡板，所述引流管的另一端套接有软管，所述软管的另一端套接有滴管，所述滴管靠近软管的一端顶部安装有与滴管内侧壁固定套接的积液管，所述积液管的底部一侧安装有与滴管套接的连接管，所述连接管远离滴管的一端套接有气管，所述气管的另一端固定套接有套筒，所述套筒的内部固定套接有隔板，所述隔板靠近气管的一端中间位置设置有圆台型结构的引流块，所述隔板远离气管的一端活动套接有转轴。</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{[114, 120],部件},{[124, 129],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>{[19, 81],方法},{[83, 105],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>{[346, 347],部件},{[354, 358],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[32, 48],方法},{[13, 24],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>发明内容发明目的:由于青蒿素产业产值过剩，供大于求，导致青蒿素原材料价格下降，为了一改青蒿素产业颓势，本发明从青蒿素下脚料中提取叶绿素可大提高青蒿素产业价值。余液趁热倒出，待其冷却后得到固体蜡状物及水。将水倒出，80度水浴恒温加热蜡状物使其融化，加入工业酒精，利用强极性溶剂乙醇使绿素溶解在其中。</t>
+          <t>发明内容针对现有技术的不足，本发明是通过如下的技术方案来实现：用于胶囊咖啡机的防胶囊咬合张破板，其结构包括机盖、胶囊放置腔、防胶囊咬合装置、输出管、滴水盘、外壳，所述的机盖安装在外壳顶部并且与外壳活动连接，所述的防胶囊咬合装置安装在胶囊放置腔内底部，所述的输出管贯穿外壳，所述的滴水盘设于输出管正南方向上，所述的滴水盘与外壳固定连接。作为本发明的进一步优化，所述的防胶囊咬合装置由出液通道、凸起、张破板构成，所述的出液通道设有八个并且呈内外环分别四四等距分布，所述的出液通道贯穿张破板，所述的凸起与出液通道处于同一水平面上，所述的凸起与出液通道通过张破板相连接。作为本发明的进一步优化，所述的凸起由弹簧、环形轨、活动杆、中心固定轴、连接管道、活动板、一号腔、固定杆、二号腔、连接杆、滑块构成，所述的滑块设有两个，所述的弹簧的两端均与滑块固定连接，所述的弹簧安装在环形轨内，所述的滑块与环形轨采用间隙配合的方式相连接，所述的活动杆与滑块机械连接，所述的活动杆与滑块相连接的一端通过连接杆与固定杆机械连接，所述的固定杆与活动板互相垂直设立，所述的固定杆远离连接杆的一端与活动板机械焊接，所述的活动板设于一号腔中，所述的一号腔通过</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{[54, 66],方法},{[67, 77],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>{[79, 90],方法},{[91, 99],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>{[123, 138],方法},{[140, 146],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[106, 112],部件},{[116, 123],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>作为本发明的一种优选技术方案，所述安装顶板的下方位于两组支撑板之间固定连接有固定板，所述胶液箱的数量为若干组，若干组胶液箱的后部与固定板固定连接。作为本发明的一种优选技术方案，所述分流管的数量为若干组，且分流管的材质为橡胶软管材料。作为本发明的一种优选技术方案，所述胶液箱的前端外表面设置有观测窗，所述观测窗的形状为正方形，所述点胶头上设置有刻度线。</t>
+          <t>发明内容为了克服现有技术存在的各种不足，本发明提供一种呼吸自适应式矿用防尘面具，降低呼吸阻力，过滤效果好，增强佩戴舒适性，保护井下工作人员的身体健康。为了解决上述问题，本发明一种呼吸自适应式矿用防尘面具，包括封闭型面具罩体和安装在罩体呼吸通孔处的滤毒盒，面具罩体内还包括电磁活塞装置，面具罩体下方连接有胸带，胸带的中间固定有微型应变传感器、集成控制电路板和电源，胸带的两侧安装有附属装置，微型应变传感器感受佩戴者呼吸节奏并将信号输送至集成控制电路板，集成控制电路板中的MCU通过分析判断微型应变传感器输入的信号来输出不同强度的电流，并通过附属装置上的导线将电流输送至电磁活塞装置；</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{[145, 147],部件},{[133, 141],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>{[51, 53],数值},{[44, 49],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>{[97, 99],数值},{[90, 95],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>{[38, 40],部件},{[17, 32],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[27, 38],方法},{[61, 73],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>优选地，步骤(1)中，所述的预处理是指对有机膦废水进行泥沙沉淀，调节pH值至7～10。优选地，步骤(2)中，金属盐溶液为Fe(NO3)3溶液。优选地，步骤(3)中，在太阳光或人工光源下促使金属-有机膦配合物分解成PO43-，选用TiO2为光催化剂。</t>
+          <t>发明内容本发明的目的在于提供一种以MIL-53(Fe)修饰电极检测水体中四环素的方法。本发明采用如下手段：一种以MIL-53(Fe)修饰电极检测水体中四环素的方法，其特征在于，(1)以常规报道的方法制备MIL-53(Fe)；(2)将MIL-53(Fe)、质量浓度为5％的nafion溶液加入去离子水中，经过超声形成均匀分散的分散液；(3)将玻碳电极打磨至玻碳表面洁净平整，取由(2)所得分散液，逐液加至玻碳电极表面，然后烘干；(4)利用所制备的MIL-53(Fe)修饰的玻碳电极为工作电极，Ag/AgCl电极为参比电极，铂电极为对电极，以1MH2SO4溶液作为支持电解质溶液，通过微分脉冲伏安法(DPV)扫描法，设置起始电位为1.5V，最高电位为-0.8V，对不同浓度的四环素溶液进行检测。根据测得电流与四环素浓度的线性关系，确定四环素的浓度。</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{[60, 69],部件},{[54, 58],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>{[38, 41],数值},{[20, 24],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>{[106, 110],部件},{[94, 102],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[132, 133],数值},{[127, 130],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>本发明的目的就在于为了解决上述问题而提供一种制备可溶海藻膳食纤维的生产工艺。优选的，所述的步骤四为将海藻渣输送至于脱色罐内，加入脱色剂开始脱色，时间1h-12h，根据物料颜色变化确实脱色时间。优选的，所述的步骤五为将上一工序物料用真空过滤设备分离出固体和液体，液体物料进入下一工序。</t>
+          <t>发明内容针对现有技术的不足，本发明的目的是提供一种高效低成本电子级玻璃纤维布的织造工艺方法，科学合理，简单易行，使得生产效率提高20％以上，并且降低了生产成本。本发明所述的高效低成本电子级玻璃纤维布的织造工艺方法，包括以下操作步骤：(1)将包含石英砂、石灰石、纯碱、助溶剂和澄清剂的原料物质加入熔炉中混合溶解为共熔体，然后通过铂金漏板高速抽丝，制备成玻璃纤维成品纱；(2)将步骤1中制得的经纱包覆在特种石蜡型浸润剂中，无需进行二次上浆；(3)经纱按1628根的数量排列，直接整轴；(4)将整好的经轴上到喷气织布机上，在喷气织布机上投纬，不同经纬密度交织而成玻璃纤维坯布；(5)织成的玻璃纤维坯布经过表面处理后成为成品玻璃纤维布。</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{[74, 79],数值},{[72, 73],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>{[110, 113],部件},{[124, 128],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>{[0, 2],方法},{[18, 36],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[39, 44],方法},{[58, 63],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种多效修润护发精华液的制备方法，合理地解决了现有技术的修复滋润护发精华液配方配伍偏枯、中药的有效成分和生物活性灭失、不利头发和头皮对药物的吸收利用和疗效差的问题。本发明采用水、丁二醇、丙二醇、黄原胶、芦芭油、乙醇、6％浓度的红参(PANAXGINSENG)水提取物、护色修复蛋白、1:1质量比的甘油水解酵母蛋白混合物、1:1质量比的甘油和5％浓度的亚麻籽(LINUMUSITATISSIMUM)乙醇提取液混合物、5.5％浓度的卤虫(ARTEMIA)乙醇提取物、水溶咖啡因、水解玉米淀粉燕麦四糖和基质组方，实现配伍温和、药效全面、提取方法科学合理、最大限度地保留中药和多种蛋白的有效成分和生物活性，45℃以下低温调制，药物和多种蛋白有效成分损失少、活性高。组方理念为加强发质和毛囊的营养、改善毛囊皮肤的分化、突出护发防脱的功效。</t>
+          <t>发明内容本发明公开了一种用于家具木材的生产装置，其目的在于解决做形后的弯曲木材在钻盲孔过程中容易变形的问题。本方案中，在木材放置在上固定板与下固定板之间后，打开锁紧机构，滑动滑块进行微调，保证定位套正对打孔部位，进行精准定位，提高孔位的精度。本方案中，在滑动滑块的同时，取出卡块，停止对插销的固定，使得齿轮能够转动；转动齿轮，齿轮转动的过程中对定位套进行倾斜度上的调整，再利用卡块对插销进行固定；对定位套进行角度上的调整，从而调整加工孔的朝向，使得孔的朝向能够匹配木材的弯曲程度，提高加工的精度。</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{[99, 265],方法},{[347, 376],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>{[99, 265],方法},{[269, 340],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>{[16, 29],方法},{[37, 94],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[19, 22],方法},{[29, 52],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>(一)技术方案为实现上述常温干燥目的，本发明提供如下技术方案：一种利用干燥剂吸水原理的药物离心干燥装置，包括外壳体，外壳体为内部结构提供了良好的工作环境，所述外壳体的内部固定连接有装配间隙，装配间隙的存在保证了本设备其他部件具有一定的调整空间，外壳体的顶端固定连接有顶盖，顶盖保证设备了的封闭性，顶盖的内部固定连接有转轴，顶盖可以顺着转轴打开过翻转运动，顶盖的顶端开设有观察口，顶盖的顶端固定连接有把手，通过把手可以更加方便的打开顶盖，顶盖的右端开设有药材入口，需要干燥的药材从药材入口处进入设备，外壳体的内部固定连接有升降槽，升降槽的内部活动连接有转筒，转筒的内部固定连接有干燥层，升降槽的内部活动连接有升降腔，升降腔的内部固定连接有传送带滚轴，传送带滚轴的表面固定连接有传送带，外壳体的右侧固定连接有药材出口，干燥完毕的药材从药材出口处离开设备，装配间隙的内部固定连接有马达，马达的顶端固定连接有传动轴，传动轴远离马达的一端固定连接有旋转平台，旋转平台通过与马达相连的传动轴一起被马达带动旋转的，旋转平台的顶端固定连接有液压缸，液压缸的内部活动连接有液压杆，液压杆远离液压缸的一端固定连接有顶杆。</t>
+          <t>发明内容本发明提供了一种隔音结构设置在门本体内部的设防火芯的静音木门，解决了现有静音门外置隔音部件容易产生脱落的问题。以上技术问题是通过下列技术方案解决的：一种设防火芯的静音木门，包括木质的门本体和连接在门本体宽度方向一侧上的合页，其特征在于，所述门本体包括前后左右上下壁板，所述前后左右上下壁板围成隔音腔，所述隔音腔内设有防火芯，所述防火芯包括左防火板和右槽，所述左防火板包括左隔离板、左前隔离板和左后隔离板，所述左前隔离板的左端连接在左隔离板的前端，所述左后隔离板的左端连接在左隔离板的后端，所述右槽包括右隔离板、右前隔离板和右后隔离板，所述右前隔离板的右端连接在右隔离板的前端，所述右后隔离板的右端连接在右隔离板的后端，所述右槽的左端套设在左防火板的右端上而围成防火材料填充通道，所述防火材料填充通道内填充有隔音材料和设有若干驱动左防火板和右槽沿左右方向分开的弹簧。本技术方案通过将本本体设置为中空结构，然后在内部设置隔音结构进行隔音，所以不会产生隔音结构掉落现象。该防火芯能够从门本体内取出且能够进行左右方向即门的宽度方向进行伸缩，从而能够方便地填充满隔音腔。</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{[19, 29],方法},{[8, 17],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>{[387, 388],部件},{[375, 381],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>{[450, 453],部件},{[462, 464],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[250, 251],部件},{[254, 257],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>优选地，对三维模型进行前处理，包括如下步骤：赋予材料属性、划分有限元网格、添加载荷工况条件。优选地，对三维模型进行有限元仿真计算，包括多种载荷工况条件下重力和温度数值的计算。本发明能够取得以下技术效果：在不修改及影响原有软件的情况下，读取三维建模软件导出的多个计算结果文件，输出为符合面形计算软件格式要求的文件，并自动调用面形拟合软件完成多个载荷步面形的计算，再调用结果整理软件对面形结果整理输出为一个文件，从而实现镜面设计工作的自动化，提高单次设计仿真计算及结果后续处理的工作效率，减少设计人员在低效工作中的精力及时间消耗，减少工作中由重复复杂操作造成的失误。</t>
+          <t>发明内容为解决上述技术问题，本发明的目的是提供一种用于防止主轴轴承烧毁的控制方法。本发明中在阶梯状态运转的暖机工作时，PLC控制程序强制关闭复位、关机的操作，防止操作人员的误操作，而导致对机床造成不必要的损坏，而造成更大的损失。本发明由PLC控制程序进行控制，在不需要其他硬件的前提下，对机床进行额外的控制，使其确保主轴轴承的完好性，降低机床的主轴轴承的更换效率，提高机床的性能，对后期的维护成本也可相对减少。以上所述仅是本发明的优选实施方式，并不用于限制本发明，应当指出，对于本技术领域的普通技术人员来说，在不脱离本发明技术原理的前提下，还可以做出若干改进和变型，这些改进和变型也应视为本发明的保护范围。</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{[67, 85],部件},{[51, 63],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>{[22, 44],部件},{[5, 13],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>{[101, 202],方法},{[206, 279],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[36, 39],方法},{[27, 34],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>作为本发明的一种优选技术方案，所述第一凹槽的形状为正六边形，所述连接杆的形状为正六边形，所述第一凹槽的内径尺寸大小与连接杆的外径尺寸大小相适配。作为本发明的一种优选技术方案，所述连接盘的形状为圆柱形，所述连接杆通过焊接与连接盘固定连接。作为本发明的一种优选技术方案，所述第二凹槽的尺寸大小与第三凹槽的尺寸大小相适配，所述第二凹槽、第三凹槽相嵌合后的形状为正六边形。</t>
+          <t>发明内容针对上述问题，本发明提供一种涂层材料热冲击性能检测实验装置及其实验辅助装置，旨在通过使用机器控制，避免人直接接触实验中的恶劣环境，提高效率。本发明采取的技术方案为：一种涂层材料热冲击性能检测实验辅助装置，其特征在于，其包括将涂覆涂层材料的工件在加热工位、水淬工位来回传递的传递装置；所述传递装置包括支撑架，安装于支撑架上的自动旋转装置，所述自动旋转装置的转动轴上安装夹持工件的夹持装置。进一步的技术方案在于，所述自动旋转装置为减速步进电机，所述转动轴包括电机主动轴，以及通过联轴器与电机主动轴连接的从动轴；所述从动轴通过轴承座固定在支撑架上，所述夹持装置固定在从动轴上。</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{[17, 70],部件},{[8, 13],零件},部分关系</t>
+          <t>{[35, 40],方法},{[69, 72],效果},方案优点</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{[89, 116],部件},{[80, 85],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>{[135, 156],部件},{[126, 131],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[160, 162],部件},{[165, 170],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>本发明提供了一种锂离子电池硅基负极粘结剂的制备方法，本发明通过化学交联制备一种三维交联网络粘结剂。本发明的另一目的在于提供一种用所述交联三维网状粘结剂制备的硅基负极电极。为实现上述目的，本发明采用以下技术方案：一种锂离子电池负极粘结剂，所述粘结剂是交联三维网状粘结剂，由原料聚丙烯酰胺和聚丙烯酸按照一定比例混合均匀后，在室温下通过交联剂的作用下进行化学交联，从而得到三维网状粘结剂。所述粘结剂的分子结构为：进一步地，所述的聚丙烯酰胺为分子量400w及以上的阴离子型聚合物。</t>
+          <t>发明内容为解决上述问题，本发明提供了一种基于放电量加权累加的铅炭电池健康状态估算方法，该方法直接用历史累加数据实现SOH估算，不需要用到电池模型数据，不存在原始数据误差，提升了SOH估算精度。为实现上述目的，本发明采取的技术方案为：基于放电量加权累加的铅炭电池健康状态估算方法，其特征在于：包括如下步骤：S1、令铅炭电池的各循环寿命对应的总放电容量为CtotalN，则式中，Ce为电池额定容量(Ah)，NN为循环寿命(次)，DODN为循环寿命NN对应的放电深度(％)；S2、令电池最大总放电容量为Ctotalmax，则Ctotalmax与CtotalN的比值KN可表示为：各循环寿命(次)对应的总放电容量折算到最大总放电容量的表达式CtotalNmax为：CtotalNmax＝CtotalN×KN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{[31, 34],方法},{[39, 47],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>{[106, 116],部件},{[135, 157],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>{[6, 24],方法},{[59, 83],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[126, 137],方法},{[85, 94],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>发明内容本发明要解决的技术问题是：克服现有技术中的不足，提供一种氧化矿选别漏斗。该氧化矿选别漏斗结构设计合理，使用方便，筛选分离效率高，使用年限长，降低了设备检修成本，安全性高。本发明所述的氧化矿选别漏斗，包括锥体、下筒体和空气压缩机，空气压缩机通过高压软管与吹气管连接，高压软管上设有电磁阀，吹气管延伸至锥体内部；下筒体内从上向下依次设置第一刚性滤网和第二刚性滤网，第二刚性滤网的孔径小于第一刚性滤网的孔径，下筒体底板上等距设置钢板凸起。其中：第一刚性滤网与第二刚性滤网在下筒体内倾斜设置，相互平行。喷气嘴在吹气管上等距分布。第一刚性滤网上部一侧设置出料口，出料口上铰接第一挡板。第二刚性滤网上部一侧设置出料口，出料口上铰接第二挡板。下筒体底板的上部一侧设置出料口，出料口上铰接第三挡板。下筒体底板倾斜设置，与第三挡板的夹角为80-85°。第一刚性滤网与第二刚性滤网材质均为304钢。下筒体底部设置振打电机。本发明所述的氧化矿选别漏斗的工作过程与原理如下：空气压缩机制备出的高压空气通过高压软管和吹气管由吹气管上的喷气嘴喷出，高压气流对锥体内的物料起到初步分散作用，电磁阀起到控制气流大小的作用，减少物料之间的黏附，将物料</t>
+          <t>发明内容本发明的目的在于提供一种抗阴角开裂水性阻尼涂料及其制备方法。本发明所采取的技术方案是：一种抗阴角开裂水性阻尼涂料，由以下质量份的原料制备而成：核壳型乳液：40～80份；阻燃剂：5～20份；无机填料：60～150份；聚丙烯纤维：1～5份；润湿分散剂：0.3～3份；消泡剂：0.2～2份；硅烷偶联剂：0.5～3份；增稠剂：0.2～5份；成膜助剂：0.5～5份；水溶性助溶剂：2～10份；水：1～30份。所述核壳型乳液为苯丙乳液、纯丙乳液、硅丙乳液中的至少一种，玻璃化转变温度为10～20℃。所述阻燃剂为氢氧化镁、氢氧化铝、三氧化二锑、三聚氰胺中的至少一种。所述无机填料为云母粉、硅微粉、硅藻土、硅灰石、重质碳酸钙、滑石粉、硫酸钡中的至少两种。所述无机填料的粒径为40～1250目。所述聚丙烯纤维的长度为1～3mm，直径为18～48μm。</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{[251, 253],部件},{[255, 258],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>{[223, 235],部件},{[237, 240],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>{[41, 49],方法},{[50, 87],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>{[105, 218],部件},{[95, 101],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[163, 168],数值},{[159, 161],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>针对现有技术存在的不足，本发明目的是提供一种UV印刷机，以解决现有技术的UV印刷机，因UV固化灯是在真空的石英管中加入定量的高纯汞(水银)的一种灯管，在进行印刷固化过程中，高温及不小心的碰撞时可能造成石英管破裂，导致汞外漏，在常温下易挥发的汞蒸气及未挥发的汞颗粒，均会威胁工作人员的健康安全的缺陷。为了实现上述目的，本发明是通过如下的技术方案来实现：一种UV印刷机，其结构包括支撑机台、工作台面、停滞台、竖向移动机构、横向移动机构、印刷装置、正反吸吹除汞装置，所述工作台面设于支撑机台上表面，所述停滞台设于支撑机台左侧方，所述竖向移动机构设于支撑机台两侧且滑动连接，所述横向移动机构设于竖向移动机构之间，所述印刷装置设于横向移动机构外表面且滑动连接，所述正反吸吹除汞装置设于印刷装置内部；所述正反吸吹除汞装置由外壳、UV灯、正反吸吹机构、单向收集机构、硫磺除汞机构组成，所述外壳与印刷装置呈一体化成型结构，所述UV灯设于外壳下表面，所述正反吸吹机构设于UV灯两侧，所述单向收集机构设于正反吸吹机构上方，所述硫磺除汞机构设于正反吸吹机构中间且与外壳通过电焊相连接。作为本发明进一步地方案，所述正反吸吹机构由转轴、调向盘、正反吸</t>
+          <t>发明内容本发明目的在于针对现有技术存在的不足，提供一种一种防治朱砂叶螨的植物源杀螨剂及其制备方法和应用，对朱砂叶螨具有较高的防治效果，可直接用于防治此种虫害，且具有无公害、无污染和无残毒的特点，避免化学农药的危害。根据本发明的第一方面，提供一种植物源杀螨剂，由40～80％重量百分比的原料药和20～60％重量百分比的常规辅料组成，其中：所述原料药包含的组分及各组分所占原料药总量的重量百分含量为：南瓜提取物5～40％、番薯提取物2～40％、花生提取物5～30％、绿豆提取物2～30％。优选地，所述的南瓜(CapsicumannuumLinn.)取自南瓜修剪下来的茎、叶；所述的南瓜提取物是将南瓜修剪下来的茎、叶磨成粉末，浸提，过滤得到。优选地，所述的番薯(LycopersiconesculentumMill.)取自番薯修剪下来的茎、叶；所述的番薯提取物是将番薯修剪下来的茎或叶磨成粉末，浸提，过滤得到。</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{[495, 500],部件},{[502, 511],零件},部分关系</t>
+          <t>{[146, 151],数值},{[152, 156],属性},参数关系</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{[175, 181],部件},{[184, 228],零件},部分关系</t>
+          <t>{[36, 41],材料},{[29, 34],效果},材料优点</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{[18, 26],方法},{[29, 40],效果},方案优点</t>
+          <t>{[130, 135],数值},{[136, 140],属性},参数关系</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>进一步地，所述基底层为锌铝合金材料制成，所述防水层由太盐保护材料构成，所述耐腐蚀层由碳纤维材料构成。进一步地，两组所述横板相对一侧外壁和主板四周外壁均设有耐腐涂层。进一步地，两组所述横板上下对称设置。</t>
+          <t>发明内容本发明所要解决的技术问题是：为了解决了全景球面显示因为其曲面结构导致的构造、寻址困难问题，本发明提出一种基于全景球面显示器的纬线方向寻址显示方法。本发明为解决上述技术问题采用以下技术方案：本发明提出一种基于全景球面显示器的纬线方向寻址显示方法，包括步骤：步骤一、确定扫描时序：规定首先沿纬线方向扫描，一行扫描结束后进入相邻纬度的下一行；令扫描点与球心连线与z轴正半轴的夹角为扫描角α，令扫描点至z轴垂线与0度经线面的夹角为扫描角β；在沿同一纬度扫描过程中，扫描角β的范围从0度到360度；在纬度变化的扫描过程中，扫描角α的范围为0度到180度；</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{[42, 46],材料},{[37, 39],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>{[77, 80],部件},{[57, 73],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>{[91, 92],部件},{[93, 98],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[70, 75],方法},{[20, 47],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>针对现有技术中存在的问题，本发明的目的在于提供一种船舶节能发电设备。本发明解决其技术问题所采用的技术方案是：一种船舶节能发电设备，包括发电部、位于发电部上方的风力部以及位于发电部下方的水力部，所述发电部包括外转子、内转子和集电环，外转子上部连接风力部的风力传动轴，风力传动轴通过风力固定轴承一和风力固定轴承二转动连接风箱，风力传动轴上设有均匀分布的风力叶片，风力传动轴上部还设有监测风力传动轴旋转方向和转速的风力转速传感器，风箱外侧设有多个进出风的集风口，集风口上设有控制挡风板旋转的转轴，转轴连接控制电机，用以控制风箱进风；风力传动轴上且在风箱的下方设有轴承，轴承通过支撑板连接多个伸缩器，伸缩器下端连接水力部的水箱，水箱通过水力固定轴承一和水力固定轴承二连接水力传动轴，水力传动轴上水箱内设有水力叶轮，水力传动轴上水箱上部设有监测水力传动轴旋转方向和转速的水力转速传感器，水力传动轴上端穿过外转子连接内转子。具体的是，所述外转子内侧下部设有磁铁，发电时内转子与磁铁同一水平线，停止发电时内转子向上移动与磁铁不同水平线。</t>
+          <t>发明内容要解决的技术问题：本发明的目的是提供一种复合阻隔缠绕膜具有良好的力学性能，同时具有良好的阻隔性，能有效防止氧气、水气等小分子物质的渗透。技术方案：一种复合阻隔缠绕膜，由以下成分以重量份制备而成：纳米复合粉体30-40份、丙烯酸接枝聚乙烯120-150份、聚氯乙烯20-40份、聚乙烯醇10-20份、碳化硅晶须1-3份、分散剂2-3份、聚乙烯吡咯烷酮2-3份、乙烯-醋酸乙烯共聚物2-3份、微晶纤维素0.5-1份、γ-缩水甘油醚氧丙基三甲氧基硅烷5-10份、N-(β-氨乙基)-γ-氨丙基三甲氧基硅烷5-10份、鱼骨粉1-2份。进一步的，所述的一种复合阻隔缠绕膜，由以下成分以重量份制备而成：纳米复合粉体35份、丙烯酸接枝聚乙烯140份、聚氯乙烯30份、聚乙烯醇15份、碳化硅晶须2份、分散剂2.5份、聚乙烯吡咯烷酮2.5份、乙烯-醋酸乙烯共聚物2.5份、微晶纤维素0.8份、γ-缩水甘油醚氧丙基三甲氧基硅烷7份、N-(β-氨乙基)-γ-氨丙基三甲氧基硅烷8份、鱼骨粉1.5份。</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{[21, 22],方法},{[27, 30],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>{[54, 63],部件},{[67, 94],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>{[422, 423],部件},{[414, 417],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[24, 30],材料},{[53, 70],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>为了解决上述背景技术中提出的问题，本发明提供一种RJ11转RJ45转换器。该转换器将RJ11输入的电话信号（2PIN）输出到RJ45中的不同PIN组上，通过USB端口或者其他端口下发命令，来控制RJ11到RJ45不同PIN组的切换，以实现测试RJ11信号的自动转发功能的目的。为实现上述目的，本发明提供如下技术方案：一种RJ11转RJ45转换器,包括接口转换芯片，以及与所述接口转换芯片电连接的RJ11接口、RJ45接口、RS232接口、RS485接口、RS422接口、电源接口和USB接口。优选地，所述RJ11接口和RJ45接口的个数为N个，其中N为大于等于3的正整数。</t>
+          <t>发明内容本发明的目的在于要采取一种特殊的生产工艺制造这种耐-60℃低温的CrMo合金钢锻圆，包括美国牌号4130合金钢锻圆、国内等同或近似的CrMo合金钢锻圆牌号，以此生产出适合石油深部开采的钻杆，满足石油开采的实际需求；具体采用钢锭加热、锻造、调质热处理等工艺步骤，最终制造出适于石油深度钻探的钻杆材料，获得更多的综合效益。为实现上述的发明目的，针对终端产品的石油深度钻探所需钻杆对于低温冲击韧性的特殊要求，发明提出了一种石油机械用耐-60℃低温冲击合金钢锻圆的制备方法，包括等同或近似于牌号为AISI4130、4130和30CrMo的合金钢，工艺路线包括钢锭加热、锻压成型、调质热处理工序，具体内容如下：1)加热升温，将钢锭加热至600℃～750℃，保温1.5小时～3.5小时，然后加热至800℃～850℃，保温0.5小时～2.5小时，再加热至可锻的1180℃～1230℃，保温3小时～6.5小时，使钢锭的表面及内部温度基本一致，钢锭中的奥氏体组织达到均匀化；</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{[20, 35],方法},{[2, 15],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>{[158, 171],部件},{[175, 244],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>{[76, 92],方法},{[94, 136],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[36, 44],材料},{[153, 161],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>本发明从青蒿素下脚料中提取植物蜡可大提高青蒿素产业价值。余液趁热倒出，待其冷却后得到固体蜡状物及水。将水倒出，80℃水浴恒温加热蜡状物使其融化，加入工业酒精，静置冷却，将固体与液体分开，再次加入工业酒精在80℃恒温水浴使其融化，使叶绿素充分溶解在酒精中。</t>
+          <t xml:space="preserve">发明内容本发明提供一种电缆线使用的收放设备，用以解决上述背景技术中所提出的问题。为了解决上述问题，本发明提供技术方案如下：一种电缆线使用的收放设备，包括工作台，所述工作台底部的四个拐角处均设有支撑柱，所述工作台的纵向中轴线上从前向后依次设有驱动电机和两个支撑板，所述驱动电机的输出端贯穿前侧支撑板并连接有绕线圈，所述绕线圈的另一端通过轴承固定在后侧的支撑板上，所述驱动电机的两侧均设有丝杆电机，前侧所述支撑板和后侧所述支撑板的两侧且位于同一直线上设有第一固定块和第二固定块，两个所述丝杆电机的输出端分别贯穿前侧的第一固定块和第二固定块并连接有丝杆，两个所述丝杆的另一端均通过轴承固定在后侧的两个所述第一固定块和第二固定块上，两个所述丝杆上均套设有丝杆螺母，两个所述丝杆螺母的顶端均固定有电缆线通过固定装置。护范围；因此，本发明专利的保护范围应以所附权利要求为准。
+</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{[3, 15],方法},{[18, 26],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>{[28, 39],方法},{[42, 48],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>{[55, 57],数值},{[58, 63],属性},参数关系</t>
-        </is>
-      </c>
+          <t>{[69, 72],部件},{[76, 78],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>进一步地，在所述炉盘上设有点火针，在所述点火针的一侧设有连接在炉盘上的反馈针，所述点火针和反馈针分别与控制装置的对应端口连接。锅体2底部温度逐渐增加，热传感器5将探测到锅体2底部的温度信号，发送给控制系统4，当热传感器5测到温度达到150℃时，控制系统4给电磁阀7发出关闭信号，切断燃气管10的燃气供给；切断燃气后，锅体2底部温度开始降低，当低于150度时，控制系统4重新向脉冲点火器6和电磁阀7发出接通指令，点燃燃气再次加热；在循环进行以上保温过程到15分钟时，由控制系统4同时关闭脉冲点火器6和电磁阀7，完成烹饪过程。有益效果：本发明设置热传感器探针前端和锅体底部接触，控制系统预先设定保温温度和保温时间，使焖锅巴饭中的锅巴的形成稳定可控。</t>
+          <t>发明内容为克服现有旋压技术的不足，本发明提供一种电脉冲辅助旋压成形机床，其可最大限度地利用材料的电致塑性，降低生产成本，提高材料的旋压成形性能。为解决上述技术问题所采用的技术方案：一种电脉冲辅助旋压成形机床，包括机床本体、高能脉冲电源和控制单元，所述机床本体的两端分别固定有床头箱和尾顶，所述床头箱的主轴上安装有芯模，所述主轴、芯模和尾顶的中心线重合，所述芯模和尾顶的两侧各设有一个可在机床本体上移动的移动平台，各所述移动平台上均安装有可转动的旋轮座，各所述旋轮座上均安装有旋轮，所述高能脉冲电源的正极通过电刷与芯模连接，负极通过电刷与各旋轮连接，所述电刷与旋轮的接触面形状为开口圆环形，所述控制单元对主轴、尾顶、芯模、移动平台、旋轮座和旋轮的运动进行CNC控制，各旋轮座为多工位旋转旋轮座，一个多工位旋转旋轮座包括第一旋轮和第二旋轮，另一个多工位旋转旋轮座包括第三旋轮和第四旋轮，第一旋轮或第二旋轮与第三旋轮或第四旋轮可两两组合进行加工。</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{[13, 15],部件},{[8, 10],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>{[116, 119],数值},{[105, 113],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>{[269, 303],方法},{[306, 320],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[137, 139],部件},{[125, 131],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>进一步的，所述模板上端内腔的上内壁固定安装有挡板，主要是将手工皂溶液等量隔开，方便以后切割。进一步的，所述加热块为倒梯形状。进一步的，所述转动快的右端与加热块的左侧搭接。进一步的，所述支架内设置有甲基橙试液。</t>
+          <t>发明内容本发明的目的是针对现有技术存在的无法承受持续高温火焰灼烧的问题，提供一种能够承受持续高温火焰灼烧的防火聚合物复合材料及其制备方法。为实现以上目的，本发明提供了以下技术方案：一种防火聚合物复合材料，其原料组成为：有机硅/聚合物杂化材料80–100、助剂0.6–1.0，其中，所述有机硅/聚合物杂化材料的原料组成为：硅烷水解液10–13、苯乙烯5–8、丙烯腈5–8、1,3-丁二烯5–8、聚合引发剂0.2–0.6，所述硅烷水解液的原料组成为：硅烷0.6–0.8、催化剂1–3、水2–4，所述硅烷包括乙烯基苯基二乙氧基硅烷。所述硅烷还包括四乙氧基甲硅烷，所述四乙氧基甲硅烷与乙烯基苯基二乙氧基硅烷的重量份比为6–8:0.6–0.8。</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{[22, 23],部件},{[5, 16],位置},空间关系</t>
+          <t>{[53, 61],材料},{[42, 51],效果},材料优点</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{[98, 102],部件},{[90, 94],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>{[76, 81],部件},{[69, 74],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[305, 316],数值},{[300, 303],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>本发明的目的旨在克服现有技术的不足，提供一种可实现梯度耐温的多层陶瓷绵纸，使得绵纸在不同的温度梯度下实现长时间服役。为实现本发明的目的所采用的技术方案是：一种可实现梯度耐温的多层陶瓷绵纸，是一种非均质材料，其特征在于绵纸总厚度为2-4mm，由单层陶瓷绵纸构成，单层绵纸厚度为0.2-0.5mm，层与层之间添加复合胶黏剂，当热面温度较高时，复合胶黏剂中的低熔点玻璃纤维出现熔融现象，与无机胶黏剂共同作用，实现层与层之间的无缝粘结。进一步的，所述的绵纸中锆乳胶含量沿厚度方向呈梯度分布，表层锆乳胶含量为15-20%，逐渐向内层减少，至最内层减少为0-2%；单层绵纸由水平方向排布的陶瓷纤维铺设而成，无Z轴贯穿纤维，陶瓷纤维平均直径为2-3µm，呈正态分布，表层绵纸最高耐温为1500-1600℃，最内层绵纸最高耐温为1000-1100℃，沿厚度方向呈梯度变化；常温下导热系数为0.025-0.035W/(m·K)，1100℃导热系数为0.080-0.100W/(m·K)。</t>
+          <t>发明内容本发明所要解决的技术问题在于，克服现有技术中存在的问题，提供一种捆带原料用冷硬卷板的塔形修复方法。为了解决上述问题本发明的技术方案是这样的：一种捆带原料用冷硬卷板的塔形修复方法，准备一根硬质木棒，木棒一端为扁平结构，将硬质木棒的扁平端垂直于钢卷径向插入塔形曾错圈处；木棒环绕钢卷周向，与钢卷卷取方向相反旋转移动木棒，直至从钢带头部移出木棒；移出木棒后，轻轻用手推入对齐塔形钢卷，即完成塔形钢卷的修复工作。所述木棒直径30mm～40mm。</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{[335, 344],数值},{[332, 333],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>{[62, 74],方法},{[201, 212],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>{[18, 35],方法},{[37, 56],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>{[288, 291],部件},{[321, 324],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[212, 221],数值},{[208, 211],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>本发明的目的就是针对现有技术存在的缺陷，提供一种随钻仪器聚四氟垫片取出工装。其技术方案是：随钻仪器聚四氟垫片取出工装，包括扶正体，所述的扶正体为管状，所述的扶正体一端封闭，另一端开口，封闭一端的扶正体中心位置安装有弹簧柱塞螺钉，所述的弹簧柱塞螺钉周围安装端盖，所述的弹簧柱塞螺钉上安装芯轴，所述的芯轴上设有拉锤，所述的端盖到扶正体另一端设有对称的通孔，所述的通孔内放置旋转轴，所述的旋转轴上靠近拉锤的一端设有隔环，所述的隔环上部的旋转轴上安装弹簧挡圈，所述的弹簧挡圈上部的旋转轴上安装扳手，所述的旋转轴远离拉锤的一端安装刀片。进一步，所述的刀片通过内六角沉头螺钉安装在旋转轴上。本发明与现有技术相比较，具有以下优点：设计合理、结构简单，由于聚四氟垫片本来就是一次性使用，而随钻测量仪器聚四氟垫片取出工装恰好可以将聚四氟垫片破坏掉，以至于用拉锤在不损坏任何零件的情况下将聚四氟垫片拉取出来，实用性强。</t>
+          <t>发明内容本发明的目的是针对上述问题，提供一种防暴冲的增加摩擦力的公交车吊环。本实施例中，当公交车突然变速，乘客作用于吊环本体1上时，会使凸起囊14充气，提高乘客与吊环本体1的摩擦力，进一步避免乘客脱手的情况，另外，通过设置吊带13，使吊环本体1的活动范围变大，便于握持。以上所述仅为本发明的较佳实施例，并不用以限制本发明，凡在本发明的精神和原则之内，所作的任何修改、等同替换、改进等，均应包含在本发明的保护范围之内。</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{[289, 291],方法},{[308, 316],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>{[0, 2],方法},{[8, 36],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>{[107, 112],部件},{[92, 103],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[32, 36],材料},{[22, 30],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>本发明提出的是一种铝壳机座加工用非标三刀头刀柄结构，其目的旨在克服现有技术存在的上述不足，使铝壳机座加工无需多次换刀，提高铝壳机座加工效率。本发明的技术解决方案：一种铝壳机座加工用非标三刀头刀柄结构，其结构包括三刀位刀柄和铝壳加工用刀片，其中三刀位刀柄头部铣加工有三个刀片安装槽，刀片安装槽的形状与对应的铝壳加工用刀片的形状配合，铝壳加工用刀片通过刀片安装螺钉与三刀位刀柄连接固定，安装螺钉旋入刀片安装槽内的安装螺孔。优选的，所述的三刀位刀柄由T10A钢调质加工而成。</t>
+          <t>发明内容本发明的目的是提出一种基于里德所罗门码的图像压缩感知方法，能够大幅提高数据采集传输速率，减小海量图像视频数据存储的压力，提高重构图像精度。本发明的技术方案如下：一种基于里德所罗门码的图像压缩感知方法，包括以下几个步骤：步骤1：稀疏变换按照生成离散余弦变换矩阵的方法将待观测图像变换一个大小为n×n的离散余弦变换矩阵C1；步骤2：量化去噪根据对图像的采样率，设置合理的阈值对系数矩阵做去噪量化处理；步骤3：均匀化将量化过的稀疏矩阵中的数据流按列进行重新排布，列的长度应不等于原矩阵的列长度且相差较大，使得非零系数能够均匀分布到每个行向量中，然后系数矩阵的每个行向量表示一个新组成的待观测向量；步骤4：采样观测采用RS码的奇偶校验矩阵H对系数矩阵进行观测得出校验子，其中H表示具有范德蒙德结构的奇偶校验矩阵；步骤5：信道传输经过编码调制的信号进入信道进行传输。步骤6：译码重构通过关键方程求解模块和钱搜索福尼算法模块得到重构列向量，并将重构的列向量转化为系数矩阵A。步骤7：逆均匀化对步骤6得到的系数矩阵A按照步骤2的逆过程重新排列成离散余弦变换矩阵B；步骤8：逆稀疏变换用二维离散余弦逆变换对步骤7产生的系数矩阵B进行</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{[3, 24],方法},{[27, 43],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>{[216, 220],部件},{[222, 226],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>{[81, 98],部件},{[103, 117],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[24, 31],方法},{[64, 71],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>优选的，所述锥形杆的上壁面中心位置开设有梅花孔，梅花孔为一种螺丝孔，双层斜角成型铣刀刀杆下端固定安装有异形刀身，异形刀身是横截面为梯形的异形块，异形刀身四边角处均为切削刀刃，异形刀身的中间位置开设有刀槽。优选的，所述刀槽贯穿了异形刀身的两侧，异形刀身的下端固定安装有刀尖，刀尖为棱锥形，刀尖的棱锥为切削刀刃，异形刀身的前壁面开设有定位孔，定位孔有两组，刀槽内设置有活动刀片，活动刀片有两个。优选的，所述活动刀片是横截面为梯形的刀片，且两个活动刀片相对的一侧上端拐角均设有斜坡，两个活动刀片相对的一侧壁面贴合。</t>
+          <t>发明内容本发明的目的是提供一种生物纤维材料及其制备方法，具有优异的生物相容性以及力学性能。为达到上述发明目的，本发明采用的技术方案是：一种生物纤维材料的制备方法，包括以下步骤：（1）将聚苯乙烯微球分散至去离子水中，搅拌10～15分钟后加入丁二醇；然后搅拌30～40分钟，加入碳酸氢钾调节pH值至8.5；然后加入四乙氧基硅烷，搅拌20～30分钟，然后加入3-氨丙基三乙氧基硅烷，搅拌10～20分钟，接着加入异构十三醇聚氧乙烯醚；50～55℃搅拌70～80分钟；然后过滤，滤饼用丙酮洗涤后再用去离子水洗涤得到固体物；固体物经过热处理后得到粉末；热处理工艺为300℃/1小时+500℃/0.5小时+850℃/0.5小时；</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{[20, 22],部件},{[6, 16],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>{[235, 236],部件},{[217, 231],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>{[133, 134],部件},{[121, 127],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[15, 20],材料},{[30, 37],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>基于以上技术方案，优选的，所述多孔基膜厚度为1-40微米，孔径为0.1-2微米，孔隙率为45％-90％。基于以上技术方案，优选的，所述聚乙烯吡咯烷酮的分子量为50000-1500000；所述杂多酸为磷钨酸、磷钼酸、硅钨酸、硅钼酸中的一种或多种。基于以上技术方案，优选的，浇铸法中，复合膜的烘干温度为50-140℃，烘干时间为6-48h；热压法中，复合膜的热压温度为60-100℃，压力为0.05MPa-5MPa，热压时间为5-600min。</t>
+          <t>发明内容本发明的目的是为了解决背景有技术中存在的缺点，而提出的一种除尘布袋。为了实现上述目的，本发明采用了如下技术方案：一种除尘布袋，包括布袋筒及底盖，所述底盖设在布袋筒的下端，所述布袋筒上端的内部贯穿有呈环形的第一骨环，所述第一骨环的外环面上焊接有若干第一连接杆，所述第一连接杆呈水平状态，且所述第一连接杆的另一端延伸至布袋筒外表面的外部，所述第一连接杆位于布袋筒外表面外部的一端之间连接有搭环，所述第一连接杆的端部具体位于搭环的内环面，所述第一连接杆的端部与搭环的内环面之间焊接，所述布袋筒的筒体上贯穿设有若干呈环形的第二骨环，所述第二骨环之间的布袋筒上均匀设有弧形布盖，所述弧形布盖的一端贯穿布袋筒的筒壁，所述弧形布盖的另一端位于布袋筒的筒壁的外侧，所述弧形布盖的盖体内部贯穿设有骨筋。</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{[79, 91],数值},{[67, 77],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>{[149, 155],数值},{[140, 147],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>{[22, 27],数值},{[15, 20],属性},参数关系</t>
-        </is>
-      </c>
+          <t>{[62, 65],部件},{[69, 71],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>本发明的目的在于克服现有技术的缺点，提供一种工艺简单、提高零件使用寿命、提高零件质量的超厚带料小R角度冲压成型方法。本发明的目的通过以下技术方案来实现：一种超厚带料小R角度冲压成型方法，它包括以下步骤：S1、选用板材，在板材上绘制出零件的外轮廓线；S2、在板材上绘制出多条冲压线，确保冲压线位于外轮廓线的外侧；S3、采用冲压机沿着最外侧的冲压线冲板材，从而得到留有余量的半成品；S4、采用另一压机沿着中间的冲压线冲板材，如此循环操作，即可得到带有R角度的零件，经检测零件上的弧形凸起上并没有凹坑，通过多次冲压得到零件，减小了冲压力，避免了零件变形，极大提高冲压质量。所述板材采用电磁铁或压板固定住。所述冲压线采用雕刻机走线，避免冲压线由于多次加工而变得模糊。所述板材为矩形状，板材的厚度为2~3mm。本发明具有以下优点：本发明工艺简单、提高零件使用寿命、提高零件质量。</t>
+          <t>发明内容本发明的目的是为了克服现有技术中的不足之处，提供一种捕鼠设备。为了达到上述目的，本发明采用以下方案：一种捕鼠设备，包括有底板，其特征在于：在所述底板上方前后依次互相贴合有多个前后贯穿的捕抓筒，在所述捕抓筒下方的底板上设有多个插接柱，所述捕抓筒通过插接杆插接在插接柱内，在所述插接杆与插接柱上连接有弹簧，在最后一个捕抓筒后端的底板上设有第一封闭板，所述第一封闭板贴合最后一个捕抓筒的端面，在所述第一封闭板相对捕抓筒的位置上设有诱惑老鼠的第一诱惑装置，在所述捕抓筒前后两端设有第二封闭板，在所述前端的第二封闭板上设有能诱惑老鼠的第二诱惑装置，在第一个捕抓筒前端设有进入管道，在倒数第二个捕抓筒到第一个捕抓筒一侧的底板上分别设有能锁定捕抓筒的锁定装置，在每个捕抓筒上设有能通过重力解锁前面一个锁定装置的解锁装置。</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{[301, 310],方法},{[312, 327],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>{[43, 56],方法},{[22, 41],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>{[289, 294],材料},{[295, 296],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>{[248, 253],方法},{[259, 281],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[30, 33],方法},{[13, 24],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种支撑效果好的道路桥梁隔音板，以解决上述背景技术中提出的问题。作为本发明再进一步的方案：所述雨水槽的顶部设有条形开口，集水槽底部的第一漏水槽穿过顶端封板并与雨水槽相连通。作为本发明再进一步的方案：所述缓冲层为石棉板层。</t>
+          <t>发明内容本发明的目的是制备一种来源于木质素的高效酪氨酸酶抑制剂，同时针对木质素结构不均一、分散度高而造成木质素活性不均一的问题，利用二氯甲烷分级提取小分子量木质素的方法制备高效木质素源酪氨酸酶抑制剂。本发明主要包括：(1)木质素的制备粉碎玉米秸秆和50％-80％乙醇水溶液(体积比)以固液比(1∶10-20)混合，在不添加酸碱催化剂的条件下，150-180℃高压蒸煮反应釜中反应1-3h后进行抽滤，旋蒸浓缩、蒸馏水洗涤除去水溶性杂质，冷冻干燥得到玉米秸秆乙醇木质素。(2)木质素分级制备小分子木质素酪氨酸酶抑制剂将木质素原料和二氯甲烷以1∶40-1∶60固液比混合后，经过0.5-1h的超声使木质素原料充分溶解在二氯甲烷中，注意温度不能超过40℃，防止有机溶剂挥发；离心分离得到的上清液，上清液经过旋蒸除去二氯甲烷，得到小分子量木质素；将4mg小分子量木质素溶解于1mL二甲基亚砜中，用pH6.8磷酸缓冲液稀释10倍，得到0.4mg/mL小分子量木质素酪氨酸酶抑制剂。小分子量木质素酪氨酸酶抑制活性的测定：反应体系共3mL，包括1mL浓度为1.5mM的多巴溶液，1mL0.4mg/mL小分子木质素溶液，以及1mL50U/mL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{[0, 2],方法},{[8, 24],效果},方案优点</t>
+          <t>{[199, 208],方法},{[209, 215],效果},方案优点</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{[76, 80],部件},{[70, 74],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>{[65, 68],部件},{[55, 62],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[146, 152],数值},{[142, 144],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>为了克服上述的技术缺陷，本发明提供一种新型的果糖非酶电化学传感器及其检测方法。本发明采用如下技术方案：一种果糖非酶电化学传感器，包括参比电极、对电极、双工作电极以及用于固定电极的基底，所述基底上设置有加液孔，所述双工作电极包括：表面修饰有铂-氧化石墨烯纳米材料涂层的修饰电极和未修饰的裸电极。在一些实施例中，所述修饰电极的铂-氧化石墨烯纳米材料涂层的厚度范围在1-5μm，例如2μm、3μm、4μm。</t>
+          <t>发明内容本发明的目的在于提供一种皮疾渐除器，具有简单有效，少出血和伤疤的优点，解决了现有技术中的问题。优选的，所述抽气管的管口上连接有抽气泵，抽气管上还安装有阀门。优选的，所述第一嵌口弧板和第二嵌口弧板的端口接触构成圆环，圆环的直径与罐口的直径相适配。</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{[51, 62],部件},{[64, 90],零件},部分关系</t>
+          <t>{[71, 73],部件},{[79, 80],零件},部分关系</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{[175, 184],数值},{[161, 173],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>{[17, 37],方法},{[2, 10],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[16, 20],材料},{[24, 27],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>本发明的目的是针对现有技术的不足，提供一种减少多晶硅太阳能电池的光衰程度的方法，该方法简单可行，可以实现多晶硅PERC电池的光衰程度降低到1％以内，而且也不会增加现有多晶硅PERC电池生产流程的复杂性。该方法具体是：步骤(1).将多晶硅太阳能电池片置于150-250℃下正向施加1-4V的电压，处理10分钟。作为优选，温度为175℃，正向电压1V，处理10分钟。步骤(2).将步骤(1)多晶硅太阳能电池置于300-550℃下反向施加0.2-2V的电压，处理1分钟。作为优选，温度为400℃，正向电压0.3V，处理1分钟。所述的多晶硅太阳能电池片是通过传统工艺中已经做好的PERC太阳能电池片。本发明具有的有益效果是：1.本发明的操作过程比较简单，而且对设备要求也比较低。该方法不会对环境造成危害，具有工业大规模生产的可能性。2.本发明可以减少多晶硅太阳能电池的光衰程度到1％以下。3.本发明还可以实现一定程度的多晶硅太阳能电池的晶界钝化。</t>
+          <t>发明内容发明的目的在于提供一种腈纶毛线快速浸染装置，可以延长浸染时间，出染色腔之前进行沥干，避免滴液，加速烘干，保证染色效果，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种腈纶毛线快速浸染装置，包括染液箱，所述染液箱的两侧对称连接有第一支柱和第二支柱，染液箱外部的下表面固定安装有喷液泵，染液箱内部的底面上安装有搅拌桨，染液箱上表面的中间位置开设有安装槽，安装槽内固定安装有浸染箱，所述浸染箱的下端延伸至染液箱内，浸染箱的上端通过合页连接有箱盖，浸染箱一侧的上端开设有进料口，进料口的两侧活动连接有贯穿进料口的转柱，转柱的外壁上套有防磨套，浸染箱内部靠近进料口的一端活动连接有第一辊筒，浸染箱内部的另一端活动连接有第二辊筒，第一辊筒和第二辊筒的之间的浸染箱内安装有第三辊筒，第一辊筒、第三辊筒和第二辊筒呈下上下交错分布，第三辊筒的上端面低于染液箱箱顶的下表面，第一辊筒和第二辊筒的下方均安装有压紧带，第三辊筒的上方安装有压紧带，浸染箱的底部开设有进液口，所述箱盖内的两侧上活动安装有第一转轴和第二转轴，第二转轴上方的箱盖上开设有与第二转轴相互平行的出料口，所述第一支柱和第二支柱的上端连接有固定</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>{[297, 298],方法},{[302, 305],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>{[17, 38],方法},{[398, 417],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>{[17, 38],方法},{[40, 99],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[249, 251],部件},{[238, 245],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>在本说明书的其他实施例中，散热系统还包含一电池容置区与第一发热源、第二发热源分离，单一风扇更用以产生朝向电池容置区以及电池容置区与第一发热源、第二发热源之间的复数气流。在本说明书的其他实施例中，第一发热源包含中央处理器与绘图处理器其中之一者。在本说明书的其他实施例中，第二发热源包含中央处理器与绘图处理器其中另一者。在本说明书的其他实施例中，第三热管垂直地热耦合于第一、二热管。在本说明书的其他实施例中，第一散热阵列包含复数第一散热鳍片，每一第一散热鳍片垂直地热耦合于第三热管。在本说明书的其他实施例中，单一风扇包含扇叶、马达以及复数根支撑柱，该些根支撑柱之间定义复数个出气口，马达驱动扇叶以产生该些气流通过该些个出气口。</t>
+          <t xml:space="preserve">发明内容本发明的目的在于提供一种离心脱泥污水处理装置，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种离心脱泥污水处理装置，包括在竖直方向上依次叠加设置的净化箱和排泥筒，所述排泥筒内部插装有与其转动连接的离心桶，所述离心桶为圆柱形桶，且离心桶上端伸出排泥筒上方，离心桶底部设有密封门，且离心桶底部与排泥筒底面转动连接，离心桶上部侧面与排泥筒顶面转动连接，在排泥筒侧面设有第二电机，所述第二电机的输出轴通过传动带与离心桶外壁传动连接，所述传动带套装在离心桶外壁上；所述离心桶顶部设有进水斗，在进水斗顶部设有封盖，所述封盖由两个对接的半圆盖体组成，其中一个半圆盖体上开设有连接口用于连接污水输送管道，所述封盖中央开设有圆形的转轴孔
+</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>{[97, 119],部件},{[85, 94],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>{[41, 44],方法},{[48, 82],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>{[258, 270],部件},{[252, 255],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[116, 118],部件},{[101, 105],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>优选的，所述从动轴与滑板之间连接有轴承，起固定作用，可使滑板带动从动轴下移，进而带动钻杆进行打孔。优选的，所述翘杆的后端设置有防滑条纹，可防止操作者手打滑。优选的，所述从动轴的上端设置有与主动轴的下端相配合的轴孔，利于主动轴与从动轴的连接与脱离。</t>
+          <t>发明内容为解决上述问题，发明人前期试验使用红光(主波长为620nm)、红光(主波长为660nm)、蓝光(主波长为440nm)、蓝光(主波长为460nm)LED灯、UVA(主波长为365nm)、UVB(主波长为297nm)以及白色荧光灯(波长范围在380-760nm之间)多种光质处理，发现红光、UVA、UVB及白光照射处理无法同时提高蓝莓果实糖度和果皮花色苷含量，而440nm、460nm蓝光光照处理可以同时促进蓝莓果实糖度和果皮花色苷含量的提高。因此，发明人选用蓝光对蓝莓鲜果进行光质处理，得到适合鲜果采后糖度和果皮花色苷含量同时提高的最优光谱能量分布，提供一种借助于光源调控的有效提高蓝莓鲜果采后糖度的方法，有效避免长江流域产区蓝莓主栽品种采摘期下雨情况对蓝莓品质的影响，同时为无冷链贮运情况下确保蓝莓鲜果具备较高的外观和风味品质提供技术支持。本发明的目的是通过以下技术方案实现的：一种提高鲜食蓝莓采后糖度的光源调控方法，包括以下步骤：步骤(1)、采摘蓝莓鲜果；步骤(2)、光照处理：设置光源主波长为440-460nm，光照强度为20-100μmol·m-2·s-1，将蓝莓鲜果平铺一层，置于蓝光LED灯板下方照射，每隔</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>{[56, 66],方法},{[68, 76],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>{[17, 18],部件},{[7, 13],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>{[85, 105],方法},{[107, 121],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[123, 129],数值},{[118, 121],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>优选的，所述驱动电机上安装有散热片。优选的，所述支撑腿远离萃取箱的一端固定连接有稳固板。优选的，所述冷却箱的材料为不锈合金材质，所述通水管的材质为聚乙烯材质。</t>
+          <t xml:space="preserve">发明内容本发明的发明目的在于：针对上述存在的问题，提供一种基于透明导电薄膜的太阳能电池与天线的集成一体化装置，天线结构简单易加工，馈电结构简单，通过天线自身结构实现圆极化。本发明的太阳能圆极化天线包括开口圆环形馈电微带线、介质基板、金属地板、太阳能电池板和辐射贴片；其中，太阳能电池板位于介质基板之上；金属地板位于太阳能电池板的下方，作为太阳能电池板的衬底，并用作太阳能电池板的一个输出电极；且所述金属地板作为天线与太阳能电池板的共用接地板；介质基板的下方覆开口圆环形馈电微带线，用于为天线馈送能量；位于太阳能电池板的上方的辐射贴片为透明导电材料，且辐射贴片与太阳能电池板之间为空气介质；所述太阳能电池板上设置有四条贯穿太阳能电池板与金属地板的的长方形缝隙，四条长方形缝隙的宽度相同，交叉形成米字形交叉缝隙，所述米字形交叉缝隙的交叉点与开口圆环形馈电微带线所在圆环的圆心正对，且开口圆环形馈电微带线所在圆环的直径小于四条长方形缝隙中的最短长方形缝隙的长度；开口圆环形馈电微带线通过米字形交叉缝隙与辐射贴片进行耦合馈电从而产生电磁辐射。
+</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{[6, 9],部件},{[14, 16],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>{[40, 42],部件},{[24, 34],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>{[50, 52],部件},{[57, 60],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[29, 53],方法},{[80, 84],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>本发明为克服现有技术不足，提供一种模具温度高于坯料温度的热成形方法，该方法可实现大高径比棒料镦粗以及改善普通高径比镦粗鼓肚现象。具体通过使模具温度高于坯料温度实现该成形方法，并在热模锻基础工艺镦粗工艺进行验证。该方法有别于传统热锻造成形方法，传统热锻造成形方法为模具温度低于坯料温度(热锻)或模具温度等同于坯料温度(等温锻)，通过该方法可以获得超越传统镦粗高径比极限，及改善普通镦粗高径比范围内鼓肚现象。本发明的技术方案是：一种模具温度高于坯料温度的热成形方法，它包括以下步骤：一、准备原始坯料：检查原始的挤压棒材，用锯床进行下料，得到一定尺寸的棒材；二、镦粗制坯：将得到的棒材加热后在不同温度平砧模具上进行镦粗，以1mm/s的速度镦粗至51.75mm，变形量为50-60％；模具温度高于坯料温度，高于的温度区间为30℃-120℃；三、将镦粗后的锻件冷却至室温，测量鼓肚处和两端面的直径，进行鼓肚程度的计算；KD＝(DG-DD)÷DD，其中：DG为镦粗后锻件鼓肚处直径；DD镦粗后锻件端面直径，KD表征鼓肚程度。</t>
+          <t>发明内容本发明目的是为了解决振动测试过程中的数值积分问题，提供了一种振动测试中高精度快速积分计算方法，适合工程应用。本发明所述的组合辛普森数值积分方法，它包括以下步骤：(1)取数据序列初始点积分值为0；(2)应用梯形积分计算公式计算数据序列第2点的积分值；(3)将原始数据序列分成奇数序列和偶数序列，对于这两个序列分别应用辛普森积分计算公式，采用递推算法，得出奇偶序列每点的积分值；(4)将奇偶积分序列合并，得出整个数据序列的积分序列。</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{[66, 85],方法},{[87, 103],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>{[212, 229],部件},{[236, 237],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>{[15, 32],方法},{[37, 62],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[99, 99],数值},{[88, 97],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>本发明提供了一种轨道交通用车辆转向机构，具备避免转动轮与轴接盘之间过度干燥，产生过度的摩擦损耗，提高了车辆转向机构在运转过程中低磨损效果的优点，解决了背景技术中所提到的问题。为实现以上目的，本发明提供如下技术方案予以实现：一种轨道交通用车辆转向机构，包括转向架，所述转向架的内部活动套接有轴接杆，所述轴接杆的内部通过轴接盘活动套接有转动轮，所述轴接杆的正面活动套接有联动盘，所述联动盘正面的中部固定连接有防溢机构，所述转动轮的正面固定安装有锥形箱，所述锥形箱内侧的顶端与轴接盘外侧的顶端相接触。可选的，所述防溢机构包括有圆盘，所述圆盘的背面与联动盘正面的中部固定连接，所述圆盘的底部固定连接有弧形固定块，所述弧形固定块的底部与转动轮内侧的底部活动连接。可选的，所述圆盘的顶部固定连接有锥形连接板，所述锥形连接板的顶部固定连接有防溢挡板，所述防溢挡板的右侧开设有限位槽。</t>
+          <t>发明内容本发明所要解决的技术问题在于避免上述背景技术中的不足之处而提出了一种适于辅助复分接器的时钟同步装置。其中，还包括采样模块4和缓存模块5；采样模块4用于利用本地钟对输入数据进行采样，完成换钟操作，将采样后的数据输出至缓存模块5；缓存模块5用于利用本地钟对输入的数据进行缓存，并利用时钟调整模块3输出的数据钟对缓存的数据进行读取，使输出数据钟和输出数据对齐。其中，在发送端，时钟同步装置设置在调制解调器上实现；在接收端，时钟同步装置设置在辅助复分接器的FPGA上实现。</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{[3, 18],方法},{[20, 70],效果},方案优点</t>
+          <t>{[117, 121],方法},{[137, 138],效果},方案优点</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{[260, 261],部件},{[268, 278],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>{[332, 333],部件},{[335, 336],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>{[113, 123],部件},{[127, 129],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[72, 76],方法},{[96, 99],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种球口弹性销及其生产方法，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种球口弹性销，包括本体，所述本体成圆柱形设置，且所述本体的外侧边缘处均设有螺纹槽口，所述本体的两端的端口处内径均变小。一种球口弹性销的生产方法，所述方法中使用冲床设备，且冲床设备包括叉口底座，且叉口底座的顶部开设有一出料口B、出料口A、成型槽C、成型槽B、成型槽A，且叉口底座的顶部从左至右依次设置有推尺前限位、多组滑块、滑块压、成型底座、剪口B，且剪口B的右侧固定连接有推尺，推尺的右侧设有推尺座，推尺座的顶部为一固定座；推尺前限位的顶部从背面至正面设有缩口推尺、缩口，且推尺前限位的正面连接有推尺针、推尺针的正面设有弹簧槽；冲床设备还包括一顶座，顶座的底部从上至下依次对应设有叉口、推尺顶、上攻B、上攻A、剪口A。</t>
+          <t>发明内容本发明的目的在于提供一种隔热反射涂料制备方法，该涂料的制备方法能有效改善无机反射填料与涂层基体的相容性，引入了羽绒超细粉体材料，提高了涂层隔热反射能力。所述的一种隔热反射涂料制备方法，所述无机抗紫外粒子为二氧化钛、陶瓷空心微珠、空心玻璃微珠的一种或几种。所述的一种隔热反射涂料制备方法，所述有机抗紫外剂为绿原酸。</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{[273, 277],部件},{[279, 280],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>{[60, 66],部件},{[90, 94],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>{[10, 22],方法},{[24, 38],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>{[146, 149],部件},{[152, 271],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[16, 25],方法},{[68, 78],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>本发明的有益效果为：1.本发明中，旋转电机启动，通过带轮与皮带的配合，使旋转轴转动和连接台一起转动，连接台通过支撑柱带动旋转台转动，旋转台带动展示台转动，展示台缓慢转动，使展品旋转向客人展示，有利于展品的全面立体的展示，便于展示的使用。2.本发明中，通过液压缸的升降带动支撑板和安装板一起升降，使安装板上的部件一起升降，进而控制展示台的升降，有利于调整展示台的高度，便于升降台的使用。3.本发明中，将展品的宣传手册或单张放置在放置槽内，为参观者了解展品信息，通过显示屏可以向参展者提供展品的电子信息，有利于展品的宣传使用，便于参观者进一步的了解展品信息。</t>
+          <t>发明内容本发明的目的是提供一种用于先导阀座切削装置中的废料处理装置，其优点在于，可以对存储于废料箱内的废料进行初步处理，有效杜绝切削废料伸出废料箱外对路人造成的划伤现象，提高了安全性。本发明的上述技术目的是通过以下技术方案得以实现的:一种用于先导阀座切削装置中的废料处理装置，所述切削装置包括废料箱，所述废料处理装置包括设置在废料箱中间位置处的岛台，所述岛台内滑移连接有两根伸缩杆，所述伸缩杆远离岛台的一端均铰接有压板，两压板远离伸缩杆的一端均固定设有相互吸附的电磁铁，所述岛台内固定设有控制伸缩杆升降的气缸。本发明进一步设置为：所述岛台的上端呈圆锥状。</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{[17, 83],方法},{[85, 116],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>{[203, 209],部件},{[213, 216],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>{[125, 158],方法},{[183, 190],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[27, 32],材料},{[85, 90],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>本发明的目的就是针对现有技术存在的不足，提供一种高韧性弯管的铸造工艺，本发明的铸造工艺得到的铸件韧性好，成本低，能够成型结构复杂的铸件，具有良好的推广价值。优选地，本发明中所述钢水中各成分的要求为：所述铁水中各成分的质量分数为，C0.57%，Mn1.18%，S0.05%，P0.06%，Si0.13%，Ni0.09%，Alt0.09%。本发明的铸造工艺得到的铸件韧性好，成本低，能够成型结构复杂的铸件，具有良好的推广价值。</t>
+          <t>发明内容为了克服上述现有技术的不足，本发明的目的是提供一种筛选胍胶压裂液体系的评价方法，采用带有热敏温度计的钢罐及单片机记录的办法快速、准确的对不同胍胶压裂液体系温度随时间变化进行记录，通过温度变化确定粘度及耐温性能性能，为筛选胍胶压裂液提供了方便、准确的方法。采用了恒定温度加热条件下，相同的钢罐中不同粘度的压裂液传热速度不同的方法来判断不同系列的压裂液体系性能，从而筛选出性能最好的压裂液体系，达到快速筛选压裂液的目的。为了实现上述目的，本发明采用的技术方案是：一种筛选胍胶压裂液体系的评价方法，包括以下步骤：1）设定水浴或油浴温度为模拟压裂现场地层温度，控制水浴或油浴温度变化范围为±0.1℃；2）根据实验所需要研究的压裂体系配制不同浓度胍胶基液各500ml；3）制备不同粘度的压裂液，根据研究的需要在胍胶基液中加入不同浓度的交联剂或不同的交联剂，然后分别加入到混调搅拌器中，转动调速旋钮，待其中心微微隆起然后倒入事先准备好的钢罐中，盖好盖子后，用扳手将其拧紧；4）对于其他对比样进行类似操作，同时将所有钢罐置于恒温水浴或油浴锅中，采用单片机并记录温度变化；5）待测定完成后导出单片机数据记录，筛选出最佳的压裂体系；所</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{[168, 170],方法},{[179, 209],效果},方案优点</t>
+          <t>{[294, 298],数值},{[287, 292],属性},参数关系</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{[0, 2],方法},{[8, 76],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>{[114, 166],数值},{[108, 111],属性},参数关系</t>
-        </is>
-      </c>
+          <t>{[259, 267],方法},{[269, 278],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种植物饮料及其加工方法，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种植物饮料及其加工方法，包括下列原料平卧菊、荞麦、燕麦、桑叶、人参、炒白术、五味子、花生蛋白肽和富硒食用菌粉，其质量百分数为平卧菊55-65％、荞麦5-15％、燕麦5-15％、桑叶5％、人参1％、炒白术2％、五味子2％、花生蛋白肽5％、富硒食用菌粉5％。作为本发明的进一步优选方案：所述原料质量百分数最优方案为：平卧菊60％、荞麦10％、燕麦10％、桑叶5％、人参1％、炒白术2％、五味子2％、花生蛋白肽5％、富硒食用菌粉5％。与现有技术相比，本发明的有益效果是：采用本发明的植物饮料及其加工方法，其中所使用的炒白术具有健脾益气，燥湿利水，保肝，抗溃疡、止汗，安胎，提高免疫力的功效，抗氧化、延缓衰老，且平卧菊主要功效为滋养身体、补钙、抗病毒、消炎止痛，因此具有丰富的药用价值，保养功效显著，且成品为粉末状，可随时冲泡，使用携带均非常便捷。</t>
+          <t>发明内容本发明的目的在于提供一种变压器缠脚引出线去除工艺，简单杜绝漆包线吊脚现象，避免损伤绕线，提高加工效率。为达上述目的，本发明采用以下技术方案：一种变压器缠脚引出线去除工艺，其包括步骤：步骤1)将变压器的引出线预缠绕在骨架上的脚针上，并向两侧理顺；步骤2)将变压器放于辅助块上并下压，辅助块上对应两排脚针开设有两个槽，缠在脚针上的引出线由槽口限位贴靠于变压器骨架上；步骤3)扯掉变压器缠脚后多余线头。特别地，槽的宽度比脚针大0.1mm。方便脚针插入槽中，该间隙也满足槽口对缠脚线的限位需要。特别地，步骤3)中，用平口钳扯断线头，线头自然断于脚针处。相对于剪刀逐个剪断操作更简单，且不会损伤到缠脚线或线包。特别地，步骤1)中，预缠绕时引出线无需缠紧脚针。</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>{[292, 307],方法},{[389, 428],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>{[8, 15],方法},{[24, 31],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>{[122, 185],数值},{[116, 120],属性},参数关系</t>
-        </is>
-      </c>
+          <t>{[16, 27],方法},{[31, 39],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>本发明的目的是提供一种潮汛浮岛，整体呈“曰”字形设计，浮床单元的同侧采用固定装置八字形固定，减小浮岛的迎风面，减小风浪的影响，增强浮岛的稳定性和安全性，使浮岛能随着潮水上下起伏，达到不管来自什么方向的水流、季风，浮岛都能实现流不动、飘不走的目标。为解决上述技术问题，本发明提供了一种潮汛浮岛，包括若干个浮床单元和固定装置，所述若干个浮床单元呈“曰”字形排列，每个浮床单元包括浮床框体、若干个并列设置的浮床床体和浮床基质，所述若干个浮床床体通过连接绳连接，所述连接绳固定在所述浮床框体上，所述浮床床体外包裹有网片，所述浮床床体上设有若干个通孔，所述浮床基质嵌装在所述通孔内，所述浮床基质内生长浮床植物；所述固定装置有若干组，每四组固定装置固定四个浮床单元，四组固定装置分别设置在四个浮床单元的两侧，同侧的两组固定装置呈八字形排布，所述固定装置包括单齿锚、连接扣和缆绳，所述连接扣固定在所述浮床单元上，所述缆绳的一端固定在连接扣上，另一端固定在所述单齿锚上，所述单齿锚包括锚轴、锚栓和锚齿，所述锚轴的一端套设在所述锚栓上，所述锚齿为L形，其竖直端固定在所述锚轴上，横向部与所述锚轴之间设有支撑板。具体地，所述潮汛浮岛还包括人工鱼</t>
+          <t>发明内容本发明的目的在于提供一种防止苗木被折断的固定结构，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种防止苗木被折断的固定结构，包括地面，所述地面上设有第一固定块，所述第一固定块上铰接设有支撑杆，所述支撑杆上铰接设有传动杆，所述传动杆上设有减震装置，所述减震装置位于通孔内，所述通孔设在第一固定座上，所述第一固定座上设有连接装置，所述连接装置一端固定在第二固定座上，所述第二固定座上设有限位装置，所述限位装置包括螺母、螺栓和弹簧，所述螺母被螺栓贯穿，所述螺栓贯穿第二固定座转动设在第一固定装置上，所述螺栓外侧设有弹簧，所述弹簧连接第二固定座内侧和第一固定装置外侧，所述第一固定装置上设有橡胶带，所述橡胶带连接第二固定装置，所述第二固定装置外侧铰接传动杆，所述第二固定座外侧铰接有连接杆，所述连接杆下端固定设有第二固定块，所述第二固定块设在地面上。优选的，所述减震装置包括上弹簧和下弹簧，所述上弹簧设在通孔上半部，且上弹簧下端固定连接在传动杆上端面，所述传动杆下端面上设有下弹簧，所述下弹簧设在通孔下半部。</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>{[139, 144],部件},{[146, 159],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>{[445, 446],部件},{[467, 494],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>{[7, 14],方法},{[46, 87],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[24, 27],材料},{[16, 22],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>为了解决上述现有技术存在的问题，本发明的目的在于提供一种具有自发光功能的园林景观灯及其制造方法，该灯具发光亮度较高、发光时间长，可用于广场、公园等景观的装饰。为了达到以上目的，本发明采用如下技术方案：一种具有自发光功能的园林景观灯，包括发光灯体2以及用于支撑该发光灯体2的灯座1，其特征在于，所述发光灯体2由蓄能自发光材料制成，所述蓄能自发光材料包括按以下重量份配比的各组分：蓄能自发光粉50～70份透明树脂15～30份固化剂8～15份填料5～10份。所述的蓄能自发光粉是由荧光粉和蓄光粉按照质量比1:1混合并且在氮气保护下经过800℃、2h热处理后的物质。</t>
+          <t>发明内容本发明的目的是提供一种用于混凝土添加剂的高品质粉煤灰及其制备方法，通过对粉煤灰进行处理，提升粉煤灰的综合性能。本发明通过以下技术方案实现：一种用于混凝土添加剂的高品质粉煤灰的制备方法，包括以下步骤：（1）、取粉煤灰，去除粉煤灰里面的杂物，将除杂后的粉煤灰使用蒸馏水浸泡2-3天，然后过滤；（2）、将步骤（1）处理好的粉煤灰使用烘箱在100-120℃烘烤1h；（3）、将膨胀石墨与其重量2-3倍的去离子水混合，使用超声波处理30min，再向膨胀石墨分散液中添加其质量0.02%的三甲基硅醇钾，继续超声波处理1-2h，静置处理1小时，然后进行抽滤，清洗，烘干至恒重，即得改性膨胀石墨；（4）、将步骤（2）制备好的粉煤灰与二甲基亚砜、蒸馏水按重量比10:1:2的质量比混合搅拌均匀，然后加入粉煤灰重量3-5%的步骤（3）中的改性膨胀石墨，超声波处理30-40min，旋蒸去除溶剂后，使用无水乙醇清洗2-3遍，烘干，得到用于混凝土添加剂的高品质粉煤灰。</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>{[28, 46],方法},{[51, 62],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>{[229, 234],部件},{[238, 243],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>{[95, 98],方法},{[102, 108],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[24, 29],材料},{[48, 57],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>优选的，所述柜体外壳底端的拐角位置处皆焊接有支撑脚座。优选的，所述遮挡门体的表面焊接有推拉把手。优选的，所述防尘顶盖的内部安装有换气板。</t>
+          <t>发明内容本发明要解决的技术问题是：为了解决现有的制备方法的制成品寿命较短且强度不高的不足，本发明提供了一种用于钛合金表面快速制备渗碳/氧化/类金刚石沉积复合膜层的方法，通过特定的电解液中对其进行快速阴极渗碳/氧化/类金刚石沉积处理，形成下层为渗碳层、上层为包含类金刚石的氧化层的复合膜层，表面硬度可以达到钛基体的3倍以上。具体地，步骤a中，所述搅拌方式为超声波搅拌。具体地，步骤b中，所述清洗和预处理方法为：用360#-1200#砂纸对钛合金表面进行打磨，并用丙酮去除钛合金表面的杂质。</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>{[43, 46],部件},{[33, 39],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>{[64, 66],部件},{[54, 60],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>{[22, 25],部件},{[6, 17],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[74, 82],方法},{[19, 43],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>解决的技术问题针对现有技术的不足，本发明提供了一种便捷式休息拐棍，其体积较小，降低空间限制，出行较为轻便美观，且降低绊倒老人可能性，减少安全隐患。优选的，所述限定机构包括限定钮、限定弹簧和外螺纹螺帽，所述限定弹簧的一端与限定钮连接，限定弹簧套装在外螺纹螺帽外侧所述，限定钮的螺纹端与支撑轴顶底两端或者上支撑杆顶端连接，所述上支撑杆底端和下支撑杆顶端以及上支撑杆顶端均设置有两组限位豁口。优选的，所述坐布设置为0.111mm厚的二级碳纤维布。</t>
+          <t>发明内容本发明的目的在于提供一种散养的禽类鸭鹅快速擒拿装置，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种散养的禽类鸭鹅快速擒拿装置，包括有手持杆，所述手持杆的顶端安装有擒拿装置，所述所述擒拿装置包括有伸缩筒，所述伸缩筒内设置有活动架，所述活动架的底端安装有传动架，所述活动架上安装有若干道折叠连杆，所述活动架的顶端分别安装有夹持钳，所述夹持钳为燕尾状结构设计，所述夹持钳驱动端分别与折叠连杆的顶部相通过活动轴栓相连接，所述传动架的底端安装有固定座，所述手持杆有内置杆和外置管组成，所述内置杆穿设在外置管内，外置管的底部位置套设有有手持套，所述手持套与内置杆之间设置有若干到连接杆相连接，所述外置管底部的侧壁上设置有若干道导向槽，所述连接杆上安装有滑块，所述滑块均安装在相应的导向槽内，所述内置杆的顶端伸入至伸缩筒内并且与固定座相连接。作为本发明进一步的方案：所述手持杆的上端安装有网袋，所述网袋的上下端均通过固定套安装在手持杆上，所述网袋位于擒拿装置的正下方，所述网袋顶部设置有接物口，所述接物口位于擒拿装置的正下方，所述接物口为双层网料设计，所述双层网料之间设置有松紧带，所述松紧带穿出双层</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>{[85, 98],部件},{[79, 82],零件},部分关系</t>
+          <t>{[100, 103],部件},{[91, 96],位置},空间关系</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{[116, 120],部件},{[123, 129],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>{[204, 210],数值},{[213, 218],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>{[25, 31],材料},{[39, 71],效果},材料优点</t>
-        </is>
-      </c>
+          <t>{[100, 103],部件},{[116, 118],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>本发明旨在至少在一定程度上解决相关技术中的技术问题之一。实际应用时，皮托管制造时仅需要按图纸尺寸加工，并对准气流方向，在使用时不需要人工再进行调整皮托管位置和调整皮托管对准气流方向，测量结果不会受人工因素影响。在实际使用中，流量测量既省时，测量精度又好。</t>
+          <t>发明内容本发明所要解决的技术问题是：当前技术，在用于设计较大功率(几十到几百瓦)信号源时，难以保证精度指标和稳定度指标，且设计往往会很复杂；用于板级层面，弱电控制信号时，精度可达标，而功率通常很小，难以满足宽范围电压、可调频率、可调电流的输出；在特定应用中，难以兼容大功率输出和高精度及稳定度等输出，本发明提供了解决上述问题的一种新型高精度大功率交流恒流源设计方法，采用二级闭环控制方法，基于DSP+ARM架构；输出频率可调50-1500hz，电流恒流可调100-1000mA；。</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>{[34, 89],方法},{[91, 103],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>{[105, 110],方法},{[112, 125],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>{[0, 2],方法},{[7, 26],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[165, 181],方法},{[156, 161],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>在其中一个实施例中，采用沉积工艺于所述凸起结构的侧壁及所述介质层的上表面形成阻挡层包括：于所述凸起结构的侧壁、上表面及所述介质层的上表面形成阻挡材料层；去除位于所述凸起结构的上表面的所述阻挡材料层以形成所述阻挡层。在其中一个实施例中，所述阻挡材料层的厚度为40nm～80nm。通过上述技术方案，阻挡材料层的厚度沉积达到40nm～80nm使得阻挡材料层在去除部分凸起结构时不易坍塌。在其中一个实施例中，采用化学机械抛光工艺去除所述凸起结构上表面的所述阻挡材料层。</t>
+          <t>发明内容本发明的目的就在于为了解决上述的问题，而提供一种基于振动设备的加速度计。本发明通过以下技术方案来实现上述目的，一种基于振动设备的加速度计，包括底座、外壳和测量装置，所述底座的上方安装有外壳，所述外壳的上方安装有测量装置，所述测量装置的顶端安装有与其相适配的壳罩，所述测量装置包括测量杆、测量腔、感应器、连接杆、刻度线、指针和校准线，所述测量腔的内部设置有可移动的连接杆，所述测量腔的外壁设置有用于读数的刻度线，所述测量腔的外壁设置有用于感应指针位置的感应器，所述测量腔的内部安装有横向安装的圆形测量杆，所述测量杆的端部设置有校准线，所述感应器的一侧连接有PLC控制器，所述PLC控制器的一侧设置有导线管，所述导线管的内部安装有与USB接口连接的导线，所述USB接口内嵌于所述导线管的另一端的端部，所述连接杆的底端连接有拉杆。</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>{[159, 167],数值},{[147, 154],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>{[200, 209],方法},{[210, 229],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>{[76, 97],方法},{[99, 105],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[96, 97],部件},{[88, 92],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>所述的滑行轨道上设有限位装置以固定行走门吊在船舶调遣时的位置。所述的船的尾部设有全回转推进系统。所述的垂向支撑架设有吊梁以适用于起吊长形的结构件。</t>
+          <t>发明内容本发明的目的在于针对上述现有技术的不足，提供一种替米考星固体分散体，其为一种能够掩盖苦味、溶于水的可溶性粉，可有效提高生物利用度。同时提供该固体分散体的制备方法。本发明所采取的技术方案是：一种替米考星固体分散体，其由替米考星和复合载体按原料重量份计比例为1:3组成，所述复合载体按原料重量份计由PEG6000和泊洛沙姆188按20:1的混合比例组成。本发明经研究发现，如单一采用PEG6000载体制备得的替米考星固体分散体不易粘结且溶解速度稍慢，而单一采用泊洛沙姆188作为载体制备得的替米考星固体分散体粘性较大且容易粘结，但溶解速度较快。</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>{[10, 13],部件},{[3, 7],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>{[58, 59],部件},{[51, 55],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>{[40, 46],部件},{[34, 37],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[28, 36],材料},{[44, 51],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>发明内容发明目的:由于青蒿素产业产值过剩，供大于求，导致青蒿素原材料价格下降，为了一改青蒿素产业颓势，本发明从青蒿素下脚料中提取精油可大提高青蒿素产业价值。用水蒸气蒸馏法将挥发油提取出来。中称取青蒿素下脚料约100g，将其放置于圆底烧瓶中，加入500ml水，利用水蒸气蒸馏法将挥发油提取出去。将待处理的污水厂废水中加入加入反硝化聚磷菌；将所述减磷处理水进行第二次缺氧处理，去除剩余的含磷氧化物，得到缺氧待处理出水；将所述缺氧待处理出水进行富氧处理，去除含氮氧化物，得到硝化液和富氧处理污泥；</t>
+          <t>发明内容本发明的目的是：提出一种适用于结构模态耦合试验的扫频电压预估方法，给出结构模态耦合试验的扫频电压大小的理论依据，以降低试验风险。本发明的技术解决方案是：一种用于结构模态耦合试验的扫频电压预估方法；预知舵面特征长度c，结构能承受的最大过载nmax，安全系数s，扫频范围[f0,fmax]，扫频电压U和舵面转角θ的关系K，预估扫频电压U；本发明为结构模态耦合试验的扫频电压预估提供了理论基础，为试验的开展提供了支持；其中c的单位为m，nmax的单位为m·s-2，f0和fmax的单位为Hz，s的单位为1，U的单位为V，θ的单位为°，K的单位为°/V；其特征在于，一种用于结构模态耦合试验的扫频电压预估方法步骤如下：1、根据下式计算出舵面允许过载值n：2、根据下式计算出舵面允许振幅：3、根据下式计算出舵面转角：4、根据下式计算出扫频电压：本发明的优点是：给出了本发明为结构模态耦合试验的扫频电压预估提供了理论基础，为试验的开展提供了支持，而且输入数据简单，方法方便易行。</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>{[104, 107],数值},{[97, 102],属性},参数关系</t>
+          <t>{[395, 400],方法},{[423, 435],效果},方案优点</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{[9, 24],方法},{[26, 37],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>{[210, 222],方法},{[224, 243],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[28, 35],方法},{[61, 66],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>进一步地，所述步骤S2中，强压处理的区域为待处理棱线两侧各10mm范围内。进一步地，所述步骤S2中，强压数值为0.1mm。进一步地，所述步骤S1中，覆盖件外板为翼子板时，待处理棱线主要包括翼子板的轮罩处棱线。</t>
+          <t>发明内容本发明的目的：提出一种电液伺服作动筒24V直流电源分配板，以解决目前采用单个大电流电源进行集中电源分配的方式，存在的安装时工作量较大、拆分困难、不便于快速重构与部署、接线众多、不易辨识的问题。本发明的技术方案：一种电液伺服作动筒24V直流电源分配板，包括安装板及PCB电路板，所述的PCB板电路贴合于安装板的上表面，所述的安装板左右两端分别设置有两个对称的第一安装孔和第二安装孔，所述的安装板左端设置有LED灯孔，所述的LED灯孔位于第一安装孔右侧，所述的安装板中部设置有若干个均匀分布的电磁阀插座孔，所述的PCB电路板上设置有与安装板上的电磁阀插座孔数量相同，且位置一一对应的电磁阀插座，每个电磁阀插座插在对应的电磁阀插座孔上，每个电磁阀插座底部设置有电磁阀第一接线柱和电磁阀第二接线柱，所述的PCB电路板右端设置有三针直插式电源插座，所述的三针直插式电源插座底部设置有电源第一接线柱和电源第二接线柱，每个电磁阀插座的电磁阀第一接线柱均与三针直插式电源的电源第一接线柱连接，每个电磁阀插座的电磁阀第二接线柱均与三针直插式电源的电源第二接线柱连接。</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>{[29, 32],数值},{[21, 27],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>{[94, 96],部件},{[98, 102],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>{[55, 59],数值},{[50, 51],属性},参数关系</t>
-        </is>
-      </c>
+          <t>{[111, 127],部件},{[135, 140],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>优选的，所述把手的一侧开设有电池槽，所述电池槽内设有蓄电池，所述电池槽的一侧内壁上铰接有槽盖，所述槽盖与电池槽的开口相适配。优选的，所述螺杆远离方形块的一端延伸至腔体内并固定安装有限位块。优选的，所述第一夹板与第二夹板相互靠近的一侧均固定安装有橡胶防滑垫。</t>
+          <t>发明内容本发明的目的在于克服上述不足，提供一种光滑白板笔清洁器，有清洁与干燥同步、结构简单、重复循环多次利用、市场潜力巨大等特点。为了达到上述目的，本发明包括水箱，水箱顶部开设有注液口，水箱底部开设有出液口，水箱外设置有三通硬管，三通硬管的一端连接出液口，另外两端分别连接两个挤压式喷雾器，挤压式喷雾器的底部设置有集液罩，集液罩底部设置有海绵，集液罩的两端设置有钢管，钢管的顶部设置有弹簧，弹簧与水箱连接，弹簧用于集液罩挤压挤压式喷雾器后的复位。集液罩底部固定在活动板上，活动板通过加固杆与钢管连接。水箱内开始有滑槽，钢管作为活塞伸入滑槽内，弹簧的一端固定在滑槽内表面上，另一端固定在钢管上。水箱上设置有固定销，固定销能够伸入滑槽内对活塞进行限位。钢管上开设有通气口。水箱内设置有软管，软管为弯管，软管与出液口连接。软管的一端设置有铁球套。海绵的四周设置有吸水材料。集液罩为空心圆台状，集液罩的上表面开设有气孔。</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>{[122, 126],部件},{[100, 115],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>{[90, 92],部件},{[68, 77],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>{[14, 16],部件},{[6, 10],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[23, 30],方法},{[46, 53],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>作为本发明的一种优选技术方案，所述弹簧伸缩板与固定板内部传动连接，所述锥形卡接软体通过粘粘与弹簧伸缩板外表面固定连接。作为本发明的一种优选技术方案，所述弹簧伸缩板与固定板内部传动连接，所述锥形卡接软体通过粘粘与弹簧伸缩板外表面固定连接。作为本发明的一种优选技术方案，所述锥形卡接软体为硬塑胶卡接板，所述安装孔贯穿固定板的内部。</t>
+          <t>发明内容本发明目的就是为了弥补已有技术的缺陷，提供一种锂电池内外热阻估计方法。本发明是通过以下技术方案实现的：一种锂电池内外热阻估计方法，包括有以下步骤：(1)设置不同环境温度梯度，每个温度梯度下锂电池采用不同的放电倍率恒流放电；(2)分别记录每组温度下锂电池处于热平衡状态时的放电电流、电池内部温度和电池表面温度；(3)通过建立放电电流、环境温度与内部温度的三维关系曲面图，即热平衡面，结合内外温差和表面与环境温差，达到对内外热阻的准确测定。步骤(3)所述的建立三维关系曲面图，具体方法如下：动力锂电池的简化热电参数模型，包括内部热源Q、电池内部热容Cc、外部热熔Cs、电池内部温度Tc、电池表面温度Ts、外部环境温度Ta，内部热阻Ri表征锂电池内部热传导速率，外部热阻Ro表征电池表面与环境热交换速率,t表示时间常数；类比一阶RC滤波网络，得式(1)；式(1)为内外热阻与放电倍率及环境温度的函数关系表达式；结合锂电池内阻温度模型，并由式(1)，通过实验数据验算方法得出，锂电池内部热阻属于定值，而外部热阻与放电倍率无关，与环境温度存在的关系，用二次曲线拟合Ro＝pTa2+qTa+h，其中，p＝0.0002275,q＝</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>{[35, 40],部件},{[46, 53],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>{[151, 153],部件},{[156, 161],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>{[94, 99],部件},{[105, 112],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[163, 186],方法},{[211, 220],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>作为本发明的一种优选技术方案，所述防护网的数量为若干组，且若干组防护网呈环状等距分布。作为本发明的一种优选技术方案，所述毛刷的形状为圆柱长条状，且毛刷的表面设有软毛。作为本发明的一种优选技术方案，所述连接杆的横截面形状为“L”型，且连接杆的表面为光滑平面。作为本发明的一种优选技术方案，所述滑轮和滑杆的数量为两组，且两组滑轮和滑杆以底座滑槽的水平中心线呈轴对称安装。</t>
+          <t>发明内容本发明旨在至少解决现有技术中存在的技术问题之一。为此，本发明提供一种汽车整车空调环境模拟试验头部温度点工装，目的是提高可靠性。为了实现上述目的，本发明采取的技术方案为：汽车整车空调环境模拟试验头部温度点工装，包括承载架、设置于承载架上的热电偶和可移动的设置于承载架上且与承载架相配合以夹紧座椅头枕的滑动件。所述的汽车整车空调环境模拟试验头部温度点工装还包括设置于所述承载架上且对所述滑动件施加使其与座椅头枕保持接触的作用力的弹性元件。所述弹性元件设置多个，弹性元件与滑动件相连接。</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>{[80, 81],部件},{[73, 77],位置},空间关系</t>
+          <t>{[88, 106],部件},{[110, 112],零件},部分关系</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{[154, 155],数值},{[145, 149],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>{[24, 26],数值},{[17, 19],属性},参数关系</t>
-        </is>
-      </c>
+          <t>{[133, 135],部件},{[153, 155],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>为解决上述背景技术中存在的问题，本发明提出一种齿链，其可用于大型齿轮的制造过程中，可以降低大型齿轮的制作难度，节约大型齿轮的制造成本。本发明实现上述功能的技术方案是：一种齿链，其特殊之处在于：包括齿单元、连接片和连接板；所述齿单元的数量为多个，所述齿单元包括第一齿节和第二齿节，所述连接片上设有第一销孔和第二销孔；所述第一齿节通过第一销钉与连接片铰接，所述第一销钉穿过第一销孔；所述第二齿节通过第二销钉与连接片铰接，所述第二销钉穿过第二销孔；所述第一销孔和第二销孔均为长圆形孔；相邻两个齿单元之间通过连接板进行连接，所述连接板上设有第三销孔和第四销孔，所述第三销孔和第四销孔均为长圆形孔；相邻两个齿单元中，其中一个齿单元的第二销钉穿过连接板上的第三销孔，另外一个齿单元的第一销钉穿过连接板上的第四销孔。另外，本发明还提出一种齿条与齿链啮合式三辊卷弯成形大直径齿轮的方式，其工艺流程相对简单、成形精度，可节约大型齿轮的制造成本。</t>
+          <t>发明内容目的：为了克服现有技术中存在的不足，本发明提供一种叉车连接件组合焊装置。作为优选方案，所述前端固定安装架上设置有限位块。作为优选方案，所述第一安装板外侧设置有第四滑轨，第四滑轨上移动连接有定位安装板，定位安装板与第三移动气缸相连接，定位安装板上设置有定位气缸，定位气缸活塞杆上连接有定位销。</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>{[354, 383],方法},{[385, 411],效果},方案优点</t>
+          <t>{[134, 141],部件},{[145, 147],零件},部分关系</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{[19, 24],方法},{[41, 65],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>{[83, 86],部件},{[96, 108],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[120, 124],部件},{[129, 132],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>本发明目的是为解决全息近眼显示器出瞳小和计算时间长的问题，而设计的一种全息平面混合近眼显示系统。本发明的目的是通过以下技术方案来实现的：一种基于光波长范围大出瞳快速计算的全息平面混合近眼显示系统，该系统包括：眼球跟踪单元、点光源、准直透镜、偏振分束器、四分之一波片、相位型空间光调制器、面光源、平面显示器、波长分光膜、透镜、带孔的波长分光膜和目镜。所述眼球跟踪单元用于跟踪视觉中心的方向，根据视觉中心的方向把待显示图像分成视觉中心区域和视觉外部区域，全息显示的图像视觉中心区域为通过待显示图像的视觉中心区域全息计算得到的全息图，视觉外部区域的灰度值设为0，得到的图像用相位型空间光调制器显示；平面显示的图像只有视觉外部区域显示和待显示图像一样，视觉中心区域的灰度值设为0，得到的图像用平面显示器显示。</t>
+          <t>发明内容针对上述技术问题，本发明的目的是用一种修复型结构粘贴到太阳能组件用的受损背板上，进而达到重新对太阳能组件的保护，有效的修复受外物异常侵袭而老化的背板，极大地提高了太阳能组件封装修复的效率，保证了光伏组件在电池片无损坏的情况下继续稳定发电的目的，同时也降低了重新安装组件的成本，提高了光伏电站的能源利用率。本发明的有益效果为：本发明用一种修复型结构粘贴到太阳能组件用的受损太阳能封装背板上，进而达到重新对太阳能组件的保护，有效的修复受外物异常侵袭的背板，极大地提高了太阳能组件封装修复的效率，保证了光伏组件继续稳定发电的目的，同时也降低了重新安装组件形成的电站成本，操作简单快捷，提高了能源利用率；同时，本发明提供了特殊工艺，完美的利用各层膜的性能要求，使其结合在一起，完成修复型结构体的生产制造，已达到复合量产的可行性制造工艺。</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>{[68, 96],部件},{[104, 172],零件},部分关系</t>
+          <t>{[311, 314],方法},{[338, 350],效果},方案优点</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{[194, 223],方法},{[278, 294],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>{[33, 46],方法},{[7, 27],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[23, 27],材料},{[293, 300],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>本发明针对现有技术的不足设计提供了一种粉末挤压制备高致密度细晶钛合金的方法，其目的是以氢化钛为主要原料，利用简单工艺制备高致密钛合金。该方法工艺简单，成本低，产品力学性能优异，适用范围广。本发明的目的是通过以下技术方案来实现的：该种粉末挤压制备高致密度细晶钛合金的方法包括以氢化钛和相应的中间合金粉末为原料，通过冷等静压制备粉末压坯，其特征在于：该方法包括：利用氢气/氩气混合气氛烧结，制备含氢的钛合金粉末烧结坯；对含氢钛合金粉末烧结坯进行热挤压，再对挤压后的合金进行真空热处理，得到脱氢的钛合金坯料。进一步，对含氢的钛合金粉末进行烧结的工艺参数为：烧结温度为1000～1450℃，保温时间为1～4h，气氛中氢气体积分数为10～100％，其余为氩气，升温速率为3～20℃/min。进一步，氢化钛和相应的中间合金粉末粒度为100～500目。</t>
+          <t>发明内容本发明的目的在于提供一种基于物联网计算机用便携式录像设备，以解决上述背景技术中提出的问题。为实现上述技术目的，本发明提供了如下技术方案：一种基于物联网计算机用便携式录像设备，包括录像设备外壳体，还包括承重装置和防护装置，所述录像设备外壳体的底部固定设置有承重支架，所述承重支架的顶部固定设置有承重架连接板，所述录像设备外壳体的顶部固定设置有录像机承重壳，所述录像机承重壳的底部固定设置有缓冲固定盒，所述录像机承重壳的两侧通过胶水粘合设置有橡胶防护层，所述录像机承重壳的前表面固定设置有防护玻璃罩，所述承重装置包括缓冲固定盒，所述缓冲固定盒两侧均开设有第一固定孔，所述第一固定孔的一侧开设有第二固定孔，所述录像机承重壳的底部固定设置有支撑腿承重板，所述支撑腿承重板的顶部通过螺栓固定设置有固定弹簧，所述支撑腿承重板的两侧均设置有第一固定卡钮，所述支撑腿承重板和缓冲固定盒通过第一固定卡钮和第二固定孔或第一固定卡钮和第一固定孔卡合连接，所述支撑腿承重板的底部固定设置有固定卡帽。</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>{[17, 36],方法},{[52, 65],效果},方案优点</t>
+          <t>{[104, 107],部件},{[174, 179],零件},部分关系</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{[275, 367],数值},{[255, 267],属性},参数关系</t>
+          <t>{[109, 112],部件},{[197, 201],零件},部分关系</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{[17, 36],方法},{[70, 92],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+          <t>{[93, 99],部件},{[131, 134],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>{[104, 107],部件},{[150, 155],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>{[109, 112],部件},{[246, 250],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>{[109, 112],部件},{[260, 264],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{[109, 112],部件},{[223, 227],零件},部分关系</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>优选的，所述刀刃板外侧壁面上均设有刀片，所述刀片是横截面为梯形刀刃，相邻两组梯形刀刃之间形成V型的凹槽。优选的，所述刀头前壁面中间位置开设有顶孔，所述顶孔为矩形的孔，所述刀头前方设置有定位锥，所述定位锥是横截面为梯形的圆台，所述定位锥后端固定连接有固定矩形柱，所述定位锥通过固定矩形柱插接在刀头的顶孔内部。优选的，所述定位锥侧壁面处固定安装有四个侧刀，所述侧刀将定位锥外圆等分四份，所述定位锥前壁面开设有固定圆孔，所述固定圆孔为圆形的槽口，所述定位锥前端设置有钻头，所述钻头为横截面为三角形圆锥。</t>
+          <t>发明内容针对上述问题，本发明的目的在于提供一种导航桥梁，该导航桥梁可以在各桥孔的两侧形成横跨桥体，并竖立于水面的光墙，从而确保船只通过桥孔的安全性。本发明解决其技术问题所采用的技术方案是：该导航桥梁包括桥体，所述桥体下方形成一个以上的桥孔，各桥孔的两侧壁上分别设有一个激光器，所述激光器可形成横跨桥体，并竖立于水面的光墙。作为优选，所述激光器包括周向阵列于一个转盘上的激光头，所述转盘由驱动电机驱动，使转盘可在桥体的横截面内旋转；所述转盘的外周固定一个具有开口的反射环，所述反射环的开口朝下，且所述开口的张角为60°-120°；所述反射环的内壁制成白色光滑面或光滑镜面；从而使所述转盘在连续旋转过程中，激光从所述开口射出，在水面上形成横跨桥体的三角形激光墙。</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>{[70, 71],部件},{[58, 66],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>{[17, 18],部件},{[6, 13],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>{[171, 174],部件},{[159, 165],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[95, 98],部件},{[101, 102],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>进一步，所述的左侧压圈与右侧压圈通过螺纹与丝杠连接。进一步，所述的丝杠上设有扳手。进一步，所述的套筒另一端设有手柄。</t>
+          <t xml:space="preserve">发明内容本发明的目的在于提供一种水果苗木栽培过程中的支撑定位固定结构，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种水果苗木栽培过程中的支撑定位固定结构，包括底座和固定环，所述底座通过自攻螺钉固定在地面上，所述固定环的外侧通过固定杆和活动杆连接底座，所述固定环上开有螺纹孔，所述螺纹孔内通过螺纹连接压紧装置。优选的，所述固定环包括第一半环、卡槽、卡块和第二半环，所述第一半环端面开有卡槽，所述第二半环端面固定安装卡块，所述卡块活动卡接在卡槽内。
+</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>{[12, 15],部件},{[4, 10],位置},空间关系</t>
+          <t>{[83, 90],部件},{[94, 95],零件},部分关系</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{[55, 56],部件},{[45, 52],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>{[38, 39],部件},{[30, 35],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[83, 90],部件},{[97, 99],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>针对上述问题，本发明提供一种汽车电动尾门弹簧的加工工艺。一种汽车电动尾门弹簧的加工工艺，至少包括选料、机械成型、回火、端面磨削、去毛刺、电泳、植绒工序。所述回火工序包括三道回火处理，第一道回火处理后，对弹簧进行压并处理，在弹簧处于压并状态下进行第二道回火处理，然后释放弹簧并进行电泳处理后，再次对弹簧进行压并处理，在弹簧处于压并状态下进行第三道回火处理。进一步的，所述第一道回火处理的温度为300-350℃，时长30-40min；所述第二道回火处理的温度为120-135℃，时长25-35min；所述第三道回火处理的温度为110-125℃，时长40-50min。进一步的，弹簧采用超高抗拉强度的FDSiCrV级别钢丝制成；所述电泳涂层厚度≤0.2mm。</t>
+          <t>发明内容本发明的目的就在于为了解决上述问题而提供一种歌词歌曲匹配程度分析方法。本发明通过以下技术方案来实现上述目的：一种歌词歌曲匹配程度分析方法，包括以下步骤：步骤A、大量汉字发音通过时频谱算法生成二维图像；其中，时频谱算法是对音频中各个频率成分随时间变化的图像，时频谱在某些场合也被称作声纹或者声谱。时频谱图像的x方向或者y方向表示时间，另一个方向表示频率，时频谱的每一列或行可以由该时刻附近音频的傅里叶变换得出，这种取该时刻附近的方法也可以通过窗口函数来实现。音频每一个时刻附近的一段能够给出时频谱的一列或行，在不同的时刻重复此过程即得到时频谱二维图像；步骤B、辅以对应的发音训练分类器，分类器能够给出任何使用时频谱算法转化后的声音所生成的二维图像对应汉语四声的对应四个概率分数；</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>{[297, 307],材料},{[290, 295],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>{[84, 89],部件},{[91, 175],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>{[39, 42],部件},{[48, 74],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[296, 298],方法},{[299, 340],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>优选的，所述扣座的外表面开设有与所述扣柱相适配的扣槽。优选的，所述提柄的下端设有第二连接片，且提柄通过第二连接片与所述盒盖活动连接。优选的，所述提柄的外表面固定套接有防滑套，且防滑套为橡胶套。</t>
+          <t>发明内容本申请的目的是提供一种TC4钛合金自耗电极棒的制备方法，用于保证自耗电极不易氧化、不易开裂、不易弯曲，有效提高自耗电极的质量，提高熔炼质量。优选的，所述步骤S3中，对所述电极棒在真空炉内冷却≥1小时后出炉。优选的，所述步骤S2中，所述焊缝包括沿所述电极棒的周向依次排列的第一焊缝、第二焊缝、第三焊缝、第四焊缝、第五焊缝和第六焊缝，各焊缝沿所述电极棒的周向均匀分布。</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>{[83, 85],部件},{[72, 77],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>{[24, 25],部件},{[6, 11],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>{[40, 44],部件},{[33, 37],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[27, 30],方法},{[67, 72],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>为解决上述背景技术中提出的问题。本发明提供了一种煤矿滚筒采煤机，具有具备较好开采效率和根据煤矿层情况有更多调节性的特点。为实现上述目的，本发明提供如下技术方案：一种煤矿滚筒采煤机，包括采煤机本体、采煤机本体上安装的滚筒以及滚筒表面上的第一破碎头，滚筒的一侧通过螺栓固定连接有第一衔接层，第一衔接层异于滚筒的一侧设置有第二衔接层，第一衔接层与第二衔接层外部均环形分布有第二破碎头，第一衔接层和第二衔接层表面上与第二破碎头相对应的位置处一体成型有转环，第二破碎头与转环之间设置有连块，转环的内部开设有转槽，第二破碎头通过连块和转槽与转环相连接。优选的，第二衔接层的表面上设置有连接块，连接块与第二衔接层为一体式结构，第一衔接层内部与连接块相对应的位置处开设有卡槽，第二衔接层和第一衔接层通过连接块和卡槽相连接。</t>
+          <t>发明内容本发明的目的在于提供一种带锁紧装置的高精度砂轮架转塔，该转塔能解决复合磨削技术中多磨头电机及驱动模式的配置，实现模块化，并通过高精度分度机构保证其自身回转精度达到分辨率0.0001度的技术目标。为实现上述目的，本发明采用的技术方案如下：一种带锁紧装置的高精度砂轮架转塔，包括可回转塔体、力矩电机定子、力矩电机转子、转台轴承、圆柱滚子轴承、主轴、底座、锁紧装置、角度编码器、轴承密封机构，所述可回转塔体内装有力矩电机定子和力矩电机转子，力矩电机定子与可回转塔体配合固定连接，力矩电机转子与主轴配合固定连接；所述可回转塔体顶部的端盖通过圆柱滚子轴承与主轴连接，所述可回转塔体下部通过转台轴承与底座连接；所述主轴底部固定连接在底座上，顶部装有高精度角度编码器；所述可回转塔体四个外立面均可装载磨头；所述锁紧装置位于圆柱滚子轴承与力矩电机定、转子之间。进一步，所述可回转塔体装有撞块、底座上有两个挡块，用于限制切换砂轮刀具位时的旋转角度，防止旋转超程。</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>{[274, 278],部件},{[280, 281],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>{[82, 88],部件},{[92, 121],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>{[19, 30],方法},{[32, 58],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[389, 390],方法},{[419, 424],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>本发明针对现有技术的不足设计提供了一种粉末锻造制备高致密度细晶钛合金的方法，其目的是以氢化钛为主要原料，利用简单工艺制备高致密钛合金。该方法工艺简单，成本低，产品力学性能优异，适用范围广。本发明的目的是通过以下技术方案来实现的：该种粉末锻造制备高致密度细晶钛合金的方法包括以氢化钛和相应的中间合金粉末为原料，通过冷等静压制备粉末压坯，其特征在于：该方法包括：利用氢气/氩气混合气氛烧结，制备含氢的钛合金粉末烧结坯；对含氢钛合金粉末烧结坯进行一次等温模锻，再对锻造后的合金锻件进行真空热处理，得到脱氢的钛合金锻件。进一步，对含氢的钛合金粉末进行烧结的工艺参数为：烧结温度为1000～1450℃，保温时间为1～4h，气氛中氢气体积分数为10～100％，其余为氩气，升温速率为3～20℃/min。进一步，氢化钛和相应的中间合金粉末粒度为100～500目。</t>
+          <t>发明内容为了解决上述技术问题，本发明是提供一种可实时对过滤网进行清洗，从而可以保证过滤网的过滤稳定性，而且可有效的减少更换操作的频率，从而提高了适用性和实用性的能增加空气香味的空气净化装置。实现本发明目的的技术方案是一种能增加空气香味的空气净化装置，包括装置壳体，在所述装置壳体上设有进气通道和出气通道，在所述装置壳体内设有至少两个过滤柱，在所述装置壳体内还设有净化腔，所述过滤柱的侧壁顶部通过通孔与所述净化腔相连通，在所述过滤柱的内壁上贴有过滤网，在所述净化腔内设有隔板，所述隔板的底端抵接在所述过滤柱的顶壁上，所述净化腔被隔板分隔成净化吸附腔和增香混合腔，在所述装置壳体内设有驱动旋转电机，所述驱动旋转电机的主轴上设有驱动齿盘，在所述过滤柱的侧壁上设有与所述驱动齿盘相连通的传动齿槽，所述过滤柱在所述驱动齿盘的作用下实现旋转且使通孔活动连通净化吸附腔或增香混合腔，且所述净化吸附腔与所述增香混合腔的顶部通过Y型通道与出气通道相连接，在所述净化吸附腔内设有活性炭吸附颗粒填充体，在所述增香混合腔内设有除尘网层、除异味吸附层和PM2.5吸附层，在所述进气通道的内壁上设有环形槽，在所述过滤柱的侧壁上设有伸入所述环形槽内的环形</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>{[12, 36],方法},{[42, 65],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>{[114, 165],方法},{[98, 112],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>{[280, 372],数值},{[274, 277],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>{[12, 36],方法},{[70, 92],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[88, 93],材料},{[57, 65],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>所述的起重机构包括：至少一套行走门吊、驱动装置和制动锁紧装置，其中：行走门吊设置于滑行轨道上，驱动装置设置于行走门吊的下方，制动锁紧装置设置于滑行轨道上。所述的行走门吊包括：吊具、垂向支撑架和水平横梁，其中：垂向支撑架和水平横梁组成倒U字形桁架主体，吊具位于水平横梁上。所述的水平横梁上设有与吊具配合的行走车以调整起吊位置。所述的驱动装置为油缸，其中：油缸的一端与垂向支撑架的底端相连，另一端通过插销与滑行轨道相连。</t>
+          <t>发明内容为了克服现有技术的缺陷，本发明的目的在于提供一种压力式大功率双侧电磁致热器，用于解决现有大功率电磁致热系统致热面积小、利用率低、电磁辐射高的问题，降低安装、检修和维护的难度，实现不断电的维修；并进行主动防垢和除垢，提高包括后续管道的整个热系统的效率和使用寿命，有效节约能源。还具有成本较低、制造工艺简单、可带压工作、增加容量方便等优点。本发明解决其技术问题所采用的技术方案是：所述的压力式大功率双侧电磁致热器，包括加热水箱（1）、绝缘绝热层（2）、电磁线圈（3）、线圈座（4）、进水口（5）、进水管道（6）、出水口（7）、出水管道（8）。</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>{[182, 189],部件},{[176, 180],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>{[125, 126],部件},{[129, 133],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>{[34, 37],部件},{[41, 45],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[203, 207],部件},{[211, 214],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>本发明提出一种空调功率计量方法、功率检测电路及使用该方法的空调器，以提高空调功率计量的准确度。本发明提出一种空调功率计量方法，所述的功率计量方法针对空调每部分元器件的功率分别进行计算，提高计量精度。本发明中，针对空调外机功率的计量包括压缩机驱动板功率和电源整流桥功率。</t>
+          <t>发明内容为了解决了现有技术中存在的问题，本发明提供一种扰流片装配结构及其装配方法，扰流片装配过程中不用给扰流片施加轴向力，避免了扰流片因产生塑性变形造成报废，有效降低了生产成本，同时提高扰流片的安装质量，解决了现有技术的问题。为了实现上述目的，本发明采用的技术方案是，一种扰流片装配结构，包括第一圆环、第二圆环以及扰流片，第一圆环上开设有第一销孔，第二圆环上开设有第二销孔，扰流片的两端设置有第一柱销和第二柱销，第一柱销的直径小于第一销孔，第二柱销的直径与第二销孔的直径相同；第一柱销与第一销孔之间设置有金属套，金属套的内径与第一柱销的外径相同，金属套的外径与第一销孔的内径相同，金属套的高度与第一柱销的长度相同。第一销孔的直径与第一柱销的直径之差最小为3mm。金属套与扰流片以及第一圆环的材质相同。第一柱销与第一销孔及金属套外端面焊接固定，第二柱销与第二销孔外端面焊接固定。</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>{[3, 14],方法},{[34, 45],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>{[50, 61],方法},{[92, 97],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[27, 39],方法},{[81, 87],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>所述的行走门吊上设有吊具小车，其中：吊具小车设置于桁架主体底部。所述的行走门吊上设有全回转起重机，其中：全回转起重机设置于桁架主体上。所述的滑动轨道为T型轨道，包括：若干块U型滑块。</t>
+          <t>发明内容(一)解决的技术问题针对现有技术的不足，本发明提供了一种河蟹养殖用防逃防侵害装置，解决了现有的河蟹养殖用防逃装置就是设置简单的水泥板，阻挡河蟹逃出养殖区域，防逃效果差，而且防逃装置功能单一，不能同时起到防止河蟹受到侵害的作用。(二)技术方案为实现以上目的，本发明通过以下技术方案予以实现：一种河蟹养殖用防逃防侵害装置，包括底板、防护网、主连接杆和副连接杆，所述主连接杆下部设有副连接杆，所述副连接杆下部设有底板，所述副连接杆贯穿底板通过螺栓固定连接，所述底板下部设有固定块，所述固定块与底板通过螺栓固定连接，所述底板两侧设有防护网，所述防护网通过螺栓与底板固定连接，所述副连接杆两侧设有液压器，所述液压器下部设有伸缩杆，所述伸缩杆与固定块通过螺栓固定，所述副连接杆底部设有锥头，所述锥头与副连接杆一体成型，所述主连接杆两侧设有支撑杆，所述支撑杆通过螺栓与主连接杆固定连接，所述主连接杆顶部设有壳体，所述壳体内部设有电源。</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>{[52, 57],部件},{[61, 65],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>{[18, 21],部件},{[25, 30],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>{[67, 73],部件},{[83, 89],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[411, 412],部件},{[403, 408],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>优选的，所述进气箱内壁套接有一层过滤网，且进气箱面积大于出气网板。优选的，所述电机外部套接有一圈机罩，且机罩由隔热材质制成。优选的，所述电机带动的桨叶转动时会将冷却塔壳体内空气抽离。</t>
+          <t>发明内容本发明的目的：本发明基于起落架载荷标定试验、飞机飞行时测试记录的数据，提供一种诊断起落架缓冲器漏气发生时刻的方法，从而确定漏气时的缓冲器行程和起落架受载情况，为缓冲器漏气故障地面进一步分析提供数据基础。本发明的技术方案：一种起落架载荷试飞中缓冲器漏气故障诊断方法，用于着陆过程中的漏气故障诊断，所述方法包括以下步骤：步骤1：在飞机飞行前，在飞机起落架结构上加装应变计，对起落架进行载荷标定试验，获得标定试验数据，采用多元线性回归方法对该标定试验数据进行处理，获得起落架载荷方程；步骤2：在飞机飞行时，对应变和缓冲器行程进行测量和记录，在飞机结束飞行后，将测量得到的应变和缓冲器行程数据代入起落架载荷方程中，获得起落架上的垂向、航向和侧向载荷的时间历程；</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>{[46, 49],部件},{[39, 42],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>{[69, 76],方法},{[80, 89],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>{[16, 18],部件},{[7, 10],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[43, 59],方法},{[63, 81],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>针对上述现有技术存在的问题，本发明提供一种基于极化偏移的超前多层速度精细建模方法，能确定各个地层的实际速度，从而能建立准确的各个地层速度模型。为了实现上述目的，本发明采用的技术方案是：一种基于极化偏移的超前多层速度精细建模方法，该方法的具体步骤为：A、在隧道两帮中的任一帮沿巷道走向布设16个三分量检波器，16个三分量检波器相互之间的间距为2m且处在同一水平面，16个三分量检波器均与地震仪连接；在沿最后一个三分量检波器向后方10m的该帮上布置1个炮点；然后在该炮点向前方激发地震波，此时16个三分量检波器分别接收地震波信号，并传递给地震仪记录；B、对地震仪记录的每个三分量检波器采集到三分量地震信号利用拉冬变换提取三分量反射信号，然后根据反射信号同相轴确定反射界面层数；C、根据隧道施工已有的地层岩性资料确定首层界面后方速度v1的范围并对步骤B中确定的反射界面层数中第一层反射信号选取振幅最大位置及上下一个周期长度区域；D、以1m为边长二维网格化隧道掌子面前方的探测区，根据三分量反射信号振幅最大点计算第一层反射信号主极化参数，并在步骤C确定的速度v1范围内选取不同的速度v1值和选取的波组区间计算出极化偏移界面；E、利用</t>
+          <t>发明内容本发明的目的是提供一种交流定扭矩扳手扭矩的检测方法，其操作简单，测量精度高，且具备一定的抗干扰能力。本发明的目的是通过以下技术方案实现的：一种交流定扭矩扳手扭矩的检测方法，其特征在于，包括：检测并记录空载下串励电动机空载转矩值T0对应的空载转速n0；通过霍尔传感器检测出串励电动机工作时的转速n1；利用空载转速n0与工作时的转速n1，计算串励电动机的转速差Δn＝n1-n0；根据空载转矩值T0对应的空载转速n0、工作时的转速n1以及串励电动机的转速差Δn，通过数学模型检测出转速n1所对应的负载扭矩值T2，并显示。由上述本发明提供的技术方案可以看出，能够克服传统通过扭矩传感器因温度湿度等原因而引起的测量精度的不准确而造成的误差，提高了抗干扰性，同时适用于高速转轴的扭矩测量；此外，省去了扭矩传感器，节约了检测成本，并且计算简单，操作简单，稳定性好，可靠性较高。</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>{[28, 39],方法},{[41, 52],效果},方案优点</t>
+          <t>{[65, 68],方法},{[319, 325],效果},方案优点</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{[192, 194],部件},{[153, 161],零件},部分关系</t>
+          <t>{[25, 28],方法},{[31, 40],效果},方案优点</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -3091,76 +2362,57 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>本发明针对现有技术的不足，提供一种阻燃防火电缆护套层及其制备方法，主要解决由于电缆橡胶护套层为了提高阻燃特性添加无机物颗粒，导致电缆护套结合力差，容易过早报废的问题。本发明通过以下技术手段实现解决上述技术问题的：一种阻燃防火电缆护套层，由内至外依次包括绝缘层、橡胶层I和橡胶层II，所述橡胶层II侧壁设置有多个透气孔。1、一种阻燃防火电缆护套层的制备方法，其特征在于：包括以下几个步骤，(1)原胶的制备：以重量份为单位，混合天然橡胶胶乳150～200份和丁苯橡胶60～100份，放入开炼机薄通3～5次，然后加入密炼机中，密炼温度75℃混炼3～4min；(2)石英石颗粒改性处理：对石英石进行粗粉碎成5～10cm的块状，然后球磨机精磨粉碎至粒度为500～800μm，放入浓度为0.1～0.2g/ml的NaOH溶液中90℃恒温搅拌3～4h，捞出洗涤至中性并烘干，将硅烷偶联剂KH550溶于甲苯溶液中制成改性液，将前述石英石颗粒放入改性液中，在90℃条件下恒温反应3～4h，反应结束后抽滤并干燥，得到改性的石英石颗粒；(3)橡胶料II的制备：以重量份为单位，将(1)得到的原胶160～200份依次加入硬脂酸2～4份、ZnO3～6份</t>
+          <t>发明内容本发明的目的是提供一种转子磁钢灌胶设备，简单的快捷的实现对磁钢的灌胶操作。如上所述的转子磁钢灌胶设备，其中，所述流道具有多组，每组所述流道具有主流道，以及在所述主流道末端的分流道，所述分流道至少具有两个，每个所述分流道的末端形成所述第二通孔。如上所述的转子磁钢灌胶设备，其中，每个所述主流道的起始端汇集在一起，并与所述注胶口位置对应。</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>{[15, 31],方法},{[35, 81],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>{[106, 116],部件},{[118, 139],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>{[173, 176],方法},{[188, 191],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[15, 22],材料},{[36, 39],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>优选的，所述步骤4中的松解液的注射量为1.5-3ml，所述松解液使用现有骨康宁松解液或者风痛宁松解液。优选的，所述步骤5中的通痹酊剂注射量为10-15ml，所述热敷贴选用现有的热敷贴。优选的，所述步骤4或5保证医疗时的无菌操作。</t>
+          <t>发明内容本发明的目的在于为了改善切变过程中飞铝、毛刺的概率，提高涂料的耐折性，提供一种柔韧性优的镭射转移涂料组合物及其制备方法。该组合物柔韧性好、成膜优，切变过程中不会出现切边毛刺、飞铝的情况，成品烟包耐折性能好，此外，该涂料组合物兼有优异的剥离性能和VOCs释放性，可以大大地提高生产效率、产品合格率，减小损失并且满足环保需求。本发明的目的是通过以下技术方案来实现的：本发明涉及一种镭射转移涂料组合物，该涂料包括以下组分(重量份)：聚丙烯酸酯树脂6～22份，纤维素树脂0.1～15份，丙烯酸改性树脂0.1～3份，溶剂62～92份，助剂0.1～0.5份；所述丙烯酸改性树脂为丙烯酸改性的乙烯-醋酸乙烯酯共聚物、乙烯-丙烯酸共聚物、丙烯酸改性的丁二烯-丙烯腈共聚物、丙烯酸-丙烯酸羟乙酯共聚物、丙烯酸-丙烯酰胺共聚物中的一种或多种。</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>{[19, 25],数值},{[15, 17],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>{[70, 76],数值},{[62, 68],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>{[96, 102],方法},{[109, 112],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[43, 62],方法},{[14, 37],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>优选的，所述转动杆贯穿所述矩形通孔，所述转动杆与所述矩形通孔滑动连接。优选的，所述安装箱的顶部固定安装有垫板，所述垫板为软性橡胶材料。优选的，所述安装箱的顶部焊接有四个支撑杆，支撑杆与相应的限位杆固定连接。</t>
+          <t>发明内容本发明主要提供了一种正交相纳米棒状三氧化钼的制备方法，通过该方法可以获得直径100-300nm、长度3-5μm、均匀的正交相纳米棒状三氧化钼粉体材料。其技术方案如下：一种正交相纳米棒状三氧化钼的制备方法，其特征在于：包括以下步骤：(1)将钼酸盐溶于去离子水中，得到蓝色溶液；(2)向蓝色溶液中加入表面活性剂，加酸进行酸化，搅拌均匀，得到蓝色悬浊液；(3)将蓝色悬浊液转移至反应釜中，在180-200℃下进行水热反应，得深蓝色悬浊液；(4)将深蓝色悬浊液在3800-4200r/min速度下离心处理，将得到的固体颗粒进行洗涤，然后采用真空干燥箱干燥，得到正交相纳米棒状三氧化钼材料。优选的，步骤(1)中蓝色溶液的浓度为0.15-0.18mol/L。优选的，步骤(2)中所述表面活性剂为十二硫醇。</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>{[52, 53],部件},{[41, 46],位置},空间关系</t>
+          <t>{[42, 50],数值},{[40, 41],属性},参数关系</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{[82, 86],部件},{[73, 78],位置},空间关系</t>
+          <t>{[54, 58],数值},{[52, 53],属性},参数关系</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -3168,262 +2420,175 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供原煤自动取样器，该装置可以提高原煤取样的代表性，省去人工，避免安全隐患，结构紧凑，维护简单。为达到以上目的，提供以下技术方案：原煤自动取样器，其特征在于，结构包括传动机构、输送机构、行走机构、导轨，所述传动机构固定连接于输送机构的顶部，所述行走机构固定连接于输送机构的底部，所述导轨位于行走机构的底部，所述传动机构结构包括电机一、减速机一、皮带轮一、皮带、皮带轮二，所述电机一的左端与减速机一固定连接，所述减速机一的左端与皮带轮一固定连接，所述皮带轮二位于皮带轮一的正下方，所述皮带轮一与皮带轮二通过皮带相互连接，所述输送机构结构包括螺旋输送机、接料口、出料口，所述螺旋输送机的左端与皮带轮二固定连接，所述接料口固定连接于螺旋输送机的右端顶部，所述出料口固定连接于螺旋输送机的左端底部，所述行走机构结构包括电机二、减速机二、链轮一、链条、链轮二、支架、轮轴、行走轮、带座轴承组、支撑座，所述电机二的右端与减速机二固定连接，所述减速机二的底部与支撑座的顶部固定连接，所述支撑座是由钢板焊接而成的长方体，所述支撑座位于支架的内部，且固定连接于支架底部的上平面，所述支架为一定长度的方钢管焊接而成的架体，所述螺</t>
+          <t xml:space="preserve">发明内容本发明的目的在于提供一种结构简单，使用方便，放置在教室中美观、占用空间小的教室水杯放置柜。本发明是通过如下措施实现的：一种教室水杯放置柜，其特征在于，包括柜体和设置在所述柜体中的水杯放置架；所述柜体包括底座、顶板和设置在所述底座、顶板之间的若干弧形侧板，所述侧板之间设置有等距的开口，所述开口方便拿取放置在所述水杯放置架上的水杯，所述若干弧形侧板、所述底座和所述顶板形成所述柜体的容纳空间，所述柜体的容纳空间中设置有所述水杯放置架；所述水杯放置架包括转轴和设置在所述转轴上的若干杯座，所述杯座通过一对固定架固定在所述转轴上，所述转轴底端通过轴承设置在所述底座上，所述转轴顶端通过轴承设置在所述顶板上，所述转轴靠近所述底座一侧外表面设置有圆形固定板，所述圆形固定板设置在所述弧形侧板之间，所述固定板与所述底座之间设置有若干辅助滚轮，所述辅助滚轮固定设置在所述弧形侧板内侧所述底座上，所述圆形固定板上竖直设置有环形挡板，所述环形挡板和所述圆形固定板形成盛物盘，所述盛物盘用于摆放体积较大、带有把手的杯子，利用辅助滚轮支撑所述盛物盘和所述水杯放置架，使所述水杯放置架更加稳定。
+</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>{[355, 360],部件},{[363, 401],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>{[8, 16],方法},{[23, 54],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>{[73, 79],部件},{[91, 126],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[101, 102],部件},{[105, 109],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>优选的，所述螺纹杆上开设有两段旋向相反的外螺纹，两个第一支撑板相互靠近的一侧分别开设有第一通孔，两个第一通孔的内壁上开设有相同的内螺纹，两段外螺纹与两段内螺纹相旋合，使得螺纹杆转动的同时可以驱动第一支撑板滑动。优选的，所述腔体的两侧内壁上对称固定安装有限位杆，两个第一支撑板相互靠近的一侧分别开设有第二通孔，两个第一支撑板分别与两个限位杆滑动连接，使得第一支撑杆得以滑动，防止第一支撑板转动。优选的，所述底座的顶部开设有第三通孔，且第三通孔与腔体相连通，所述第三通孔的内壁与支撑座滑动连接，使得支撑座得以升降。</t>
+          <t xml:space="preserve">发明内容本发明的目的在于针对现有技术的不足，提供一种蓝绿色多组分蓄光陶瓷材料及其制备方法。所制备的材料，Mn2+及Zr4+为材料的共同发光中心，该蓄光陶瓷材料具有良好的化学稳定性与热稳定性；本发明蓄光陶瓷材料经灯光照射15分钟后，黑暗中可观察到发蓝绿色的光，发光时间长达8~12小时。激发发射光谱测定表明在486、529、542nm附近有发射峰，与所观察的蓝绿色光一致。为实现上述目的，本发明采用如下技术方案：一种蓝绿色多组分蓄光陶瓷材料，其化学组成为xMnO·(1-0.5x)ZrO2·SiO2；其中x=0.003~0.15。
+</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>{[20, 22],部件},{[6, 9],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>{[125, 128],部件},{[111, 118],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>{[210, 213],部件},{[202, 206],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[135, 140],数值},{[129, 132],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>进一步地，所述单向阀的出水端设有第三控制阀门，所述第三控制阀门设于单向阀和回灌井之间的供水管道上。进一步地，所述回灌井的出水端上设有第一出水阀，所述第一出水阀与自然回灌通路连通。进一步地，所述紊流装置为脉冲射流发生器。</t>
+          <t>发明内容本发明的目的是提出一种复合材料机身加强筋的成型方法，保证复合材料加强筋的成型质量(尤其是零件厚度和表面质量)，同时简化成型工艺、缩短制造周期并降低制造成本。本发明的技术解决方案是：(1)按照复合材料机身加强筋的制造技术指标设计并制造加强筋成型工装；(2)按照复合材料机身加强筋的制造技术指标准备预浸料自动下料文件和激光投影文件，复合材料机身加强筋的缘条和腹板的非0度铺层及缘条的0度铺层采用预浸料自动下料，并在激光投影辅助下在成型工装上进行手工铺贴；(3)0度铺层的腹板使用自动铺丝工艺的预浸料，按自动铺丝文件在模板上进行自动铺丝，将自动铺丝形成的0度铺层预成型体转移到成型工装上，其中后一个0度铺层的拼接缝与前一个0度铺层的拼接缝必须错开；(4)重复步骤2和3，每铺贴1～3层抽一次真空，直至所有铺层均完成铺贴；然后进行封装、固化及后续加工和检测。复合材料机身加强筋的截面是Z形、L形或J形。所述的后一个0度铺层的拼接缝与前一个0度铺层的拼接缝错开的距离为自动铺丝工艺的预浸料宽度的一半。</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>{[25, 30],部件},{[33, 47],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>{[66, 70],部件},{[56, 63],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>{[16, 21],部件},{[7, 13],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[25, 28],方法},{[61, 66],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>本发明公布了一种铅基合金电池板栅的脱模剂配置熟成工艺,该发明内容由主要在配制工艺上进行了高温高压处理，首先将配方量的纯水、软木粉、聚乙烯醇和其它胶黏剂依次加入高压锅中，将上述材料搅拌至充分湿润、无干团，确保液面高度不超过高压锅规定的液面高度安全线，然后开火煮沸，当限压阀开始泄蒸汽时计时保持高温高压15～30min熟成过程。该发明工艺配制的脱模剂易喷涂，软木粉充分附着、耐磨耐用、抗高压、排气通畅等优点，浇铸过程产品的重量、厚度稳定性大幅提高，非常适用于高温重力浇铸的铅钙合金、铅锑合金、稀土合金等各类铅基合金板栅，能极其有效的减少板栅的气孔、裂纹等现象，同时能大幅度减少单位时间内的喷模次数，提高生产效率及提升产品质量。本发明是通过以下技术方案实现的：一种板栅浇铸用脱模剂及熟成工艺，由以下重量配比的物质组成，软木粉0.05-0.1％：聚乙烯醇0.03-0.07％；水玻璃0.03-0.07％；余量为纯化水。作为优选，所述的脱模剂量配比为：软木粉0.07％：聚乙烯醇0.05％；水玻璃0.05％；余量为纯化水。</t>
+          <t>发明内容本发明的目的：减小同轴连接器电缆走线空间。包括线夹，同轴连接器通过螺母与机箱面板固定，其特征在于，在连接器与机箱面板固定连接处增加线夹，连接器通过线夹法兰孔将线夹固定在机箱面板上，连接器电缆嵌入在线夹上的两个限位槽内，减小电缆走线空间。所述第一电缆限位槽的位置需与电缆出线位置同轴，需距离连接器电缆根部一定的距离，保证电缆根部不发生弯折受力。</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>{[413, 415],部件},{[421, 454],零件},部分关系</t>
+          <t>{[124, 130],部件},{[135, 143],位置},空间关系</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{[170, 172],材料},{[173, 197],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>{[35, 49],方法},{[6, 25],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[30, 34],材料},{[113, 120],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>为了解决上述技术问题，本发明提供一种具有防水性能的高强度电缆连接板结构，以解决现有的接线端子，接线触点外露，在使用中容易因为受潮造成线芯和铜片锈蚀，造成接触不良，同时现有的线缆在使用中，仅通过螺钉对线芯压紧，连接强度较差，同时接线过程需要旋转螺钉，操作较为复杂的问题。本发明一种具有防水性能的高强度电缆连接板结构的目的与功效，由以下具体技术手段所达成：一种具有防水性能的高强度电缆连接板结构，包括外壳体、保护套压紧下卡口、连接卡槽、连接卡块、密封台、手柄卡台、密封压紧板、保护套压紧上卡口、线芯压紧板、螺钉、压紧板滑台、压紧连杆、中间连杆、操作手柄和中间连接铜芯；所述外壳体顶部轴性连接有两组所述操作手柄；所述外壳体的左右两侧均通过四组所述压紧连杆铰链接有一组所述密封压紧板；内侧的两组所述压紧连杆均通过一组所述中间连杆与所述操作手柄铰链接；所述密封压紧板的底部滑动连接有一组所述线芯压紧板；所述外壳体的中部固定连接有一组所述中间连接铜芯。进一步的，同侧的两组所述压紧连杆为对称安装，所述外壳体、所述密封压紧板、所述压紧连杆共同构成双摇杆机构；</t>
+          <t>发明内容为了解决上述问题，本发明提出了一种变厚度涂料涂敷保护方法，包括支架、工作台、夹子、塑料保护膜、可塑变形金属丝。包括以下步骤：1以可塑变形金属丝为轴，将塑料保护膜绕轴2周，以电吹风热封固定，制作比工作台尺寸大的单侧可塑变形的塑料膜；2将涂料涂敷工作台放置在支架上；3将零件放置于工作台上，将单侧可塑变形的塑料膜用夹子辅助，实施有效保护，单侧可塑变形的塑料膜可塑变形侧位于变厚度、变色保护区；4在涂敷第一层厚度涂料后，移走单侧可塑变形的塑料膜，直接在零件上实喷第二层涂料，实现零件上变厚度喷涂。</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>{[466, 470],部件},{[442, 461],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>{[180, 194],部件},{[196, 280],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>{[14, 34],方法},{[36, 132],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[90, 92],方法},{[93, 96],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>针对上述问题，本发明的目的在于提供一种定向隔离的瓷嘴清洗机分放设备，具有可将焊线机瓷嘴进行定向的隔离分放，且分放过程中瓷嘴不易碰撞磕损的优点。本发明为实现技术目的采用如下技术方案：一种定向隔离的瓷嘴清洗机分放设备，包括支撑台，所述支撑台上转动连接有转轴，所述转轴的外侧固定套接有套筒，所述转轴外侧的左端固定套接有缓冲板，所述缓冲板的外侧与套筒通过连板连接，所述套筒的外壁上开设有三个均匀分布的出料口，所述支撑台的顶部固定连接有进料管，所述支撑台的内部且位于套筒的外侧固定连接有柔性垫，所述柔性垫的底部开设有与出料口对应的方孔，所述柔性垫的底部固定连接有出料管，所述出料管的下方安装有转轮，所述转轮的外侧固定连接有接收板，所述转轮的右侧安装有冲洗管组件，所述套筒的内部放置有瓷嘴主件。作为优化，所述套筒的内壁上设置有橡胶垫，以减少瓷嘴下落时的冲击力，所述缓冲板的右侧为弧形坡状，对从进料管内滑落的瓷嘴进行缓冲保护。</t>
+          <t>发明内容本发明正是针对上述现有技术中存在的不足而设计提供了一种Ti3Al合金螺栓的制备方法，其目的是通过合理安排热处理与塑性加工工艺，可加工出性能优异、组织均匀的Ti3Al合金螺栓。本发明的目的是通过以下技术方案来实现的：该种Ti3Al合金螺栓的制备方法，其特征在于：该方法使用的Ti3Al合金的化学成分及重量百分比为：Al：10.5％～13.5％，Nb：26.0％～31.0％，Mo：1.5％～4.0％，余量为Ti和不可避免的杂质元素；其中不可避免的杂质元素为Fe、Si、C、O、N、H，Fe≤0.3％，Si≤0.15％，C≤0.15％，O≤0.15％，N≤0.05％，H≤0.0125％。</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>{[90, 105],部件},{[109, 111],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>{[348, 359],方法},{[361, 372],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>{[376, 386],方法},{[388, 404],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>{[15, 32],方法},{[34, 69],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[248, 251],数值},{[245, 246],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>具体的，套筒为喇叭状结构。具体的，固定座与套筒为可拆卸式连接。具体的，千斤顶设置在工作台上。</t>
+          <t>发明内容本发明的目的在于克服现有技术的缺陷，提供一种表面可做多种效果处理的贵金属熔焊分色工艺。其进一步技术方案为：所述步骤4具体为：将金属薄片分层叠合后，放入一组钢板之间，在钢板两端加压固定；将金属薄片组及钢板放入熔炼炉进行焙烤，达到熔点后各个金属薄片融合为一体。其进一步技术方案为：所述步骤5包括：步骤6：人工锤打制作纹理；步骤7：对不同纹理的工件进行表面处理。其进一步技术方案为：所述步骤7包括光泽处理及颜色处理；所述光泽处理为按需选用抛光亮、和/或抛光砂、和/或抛光丝表面处理工艺对工件进行表面处理；所述颜色处理为将工件回火二次焙烤，清洁后保持金属原色，氧化后得到所需表面颜色效果。其进一步技术方案为：所述金属原色包括：根据合成金属原料种类不同呈现出的白色、红色或者黄色。</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>{[35, 37],部件},{[41, 44],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>{[4, 5],部件},{[7, 9],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>{[17, 19],部件},{[21, 29],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[67, 70],部件},{[81, 84],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>有鉴于此，本发明提出一种简单有效的非等距离全频音响扩声处理方法及系统。本发明的技术方案是这样实现的：一种非等距离全频音响扩声处理方法，包括以下步骤：步骤S1，获取主听位的位置；步骤S2，获取两组与主听位距离不等的全频音箱，距离主听位远的定义为第一组全频音箱，距离近的定义为第二组全频音箱；步骤S3，依据两组全频音箱的距离计算出延迟时间；步骤S4，对第二组全频音箱进行延迟时间的调节；步骤S5，获取第二组全频音箱的频率范围；步骤S6，对第二组全频音箱切除小于1000赫兹的中低频。作为所述非等距离全频音响扩声处理方法的进一步可选方案，所述依据两组全频音箱的距离计算出延迟时间，具体公式为：T＝(a-b)/344，其中，T表示为延迟时间，a表示为第一组全频音箱离主听位的距离，b表示为第二组全频音箱离主听位的距离。一种非等距离全频音响扩声处理系统，包括：位置采集模块，用于获取主听位的位置；距离获取模块，用于获取两组全频音箱与主听位的距离；计算模块，用于计算延迟时间；调节模块，用于对第二组全频音箱进行延迟时间的调节；频率获取模块，用于获取第二组全频音箱的频率范围；中低频切除模块，用于对第二组全频音箱切除小于1000赫兹的中低</t>
+          <t>发明内容本发明的目的在于针对现有技术的缺陷和不足，提供一种新型光照射治疗仪。为实现上述目的，本发明采用的技术方案是：本发明所述的一种新型光照射治疗仪，它包括有输出盒子、主光纤线缆和弹性纤维编织层；所述输出盒子的内部设置有电源、控制器、光源发生器和光纤耦合器；所述电源用于为控制器和光源发生器供电；所述控制器用于控制光源发生器的通断以及光源发生器的输出功率；所述光源发生器的输出端与光纤耦合器的输入端相接通；所述光纤耦合器的输出端与主光纤线缆一端相接通；所述弹性纤维编织层的内部穿插固定有多根输出光纤；所述主光纤线缆另一端接通在各根输出光纤上；所述弹性纤维编织层的外侧表面覆盖有铝膜反射层；所述铝膜反射层的外侧表面覆盖有PTFE保护层；所述弹性纤维编织层的内侧表面覆盖有硅胶保护层。进一步地，所述主光纤线缆外套有线套；所述线套一端与输出盒子相固定连接；线套另一端与弹性纤维编织层相固定连接。</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>{[357, 370],部件},{[481, 487],零件},部分关系</t>
+          <t>{[79, 82],部件},{[105, 106],位置},空间关系</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{[50, 65],方法},{[71, 72],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>{[357, 370],部件},{[457, 462],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>{[357, 370],部件},{[375, 380],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>{[357, 370],部件},{[393, 398],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>{[27, 30],方法},{[17, 26],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>{[357, 370],部件},{[432, 435],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>{[357, 370],部件},{[418, 421],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[79, 82],部件},{[110, 127],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种电瓶车控制器防腐处理方法，以解决背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种电瓶车控制器防腐处理方法，所述一种电瓶车控制器防腐处理方法包括以下步骤：步骤一：将成型之后的控制器外壳利用砂纸对其表面进行打磨处理，随后将其表面打磨的粉尘进行水洗去除；步骤二：将步骤一水洗完成的外壳进行烘干处理，烘干过程中烘干温度为55-65℃，烘干至表面无水渍即可；步骤三：对步骤二烘干完成的外壳进行淬火处理，在淬火过程中淬火温度为860-880℃，淬火时间为3-5min，淬火之后将其放入水溶液中进行快速冷却；步骤四：将步骤三淬火完成的外壳进行烘干处理，烘干过程中烘干温度为45-50℃，烘干至表面无水渍即可；步骤五：配制防腐溶液，防腐溶液配置完成之后利用平面喷溅的方式喷溅在外壳的表面，所述喷溅厚度为50-100um，喷溅次数为3-5次，每次喷溅的过程中间隔3-5min；步骤六：喷溅完成之后将其表面进行烘干，烘干过程中温度设置为55-65℃，烘干过程中对其表面进行鼓风风干即可得到一种防腐电瓶车控制器。进一步的，所述步骤三中使用的水溶液为含量为5-8%的NaCl水溶液。进一步的，所述步骤五中防</t>
+          <t>发明内容本发明的目的是提供一种高软化点萜烯树脂的制备方法，能够大大提高α-蒎烯萜烯树脂的软化点，使其产品用途更广泛，使用价值和应用价值更高。进一步地，步骤(1)中所述的催化剂M为无水氯化锌、无水三氯化铝和无水四氯化锡中一种或几种的混合。进一步地，步骤(2)中所述溶剂与所述改性α-蒎烯的质量比为1～1.5:1；所述的溶剂为甲苯。</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>{[71, 72],方法},{[94, 95],效果},方案优点</t>
+          <t>{[24, 27],方法},{[63, 68],效果},方案优点</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{[12, 23],方法},{[26, 37],效果},方案优点</t>
+          <t>{[147, 153],数值},{[143, 145],属性},参数关系</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -3431,1553 +2596,1424 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>为实现上述打磨产生的碎屑不划伤盘片、打磨的同时进行附磁的目的，本发明提供如下技术方案：一种利用电磁关系的非接触式电脑硬盘加工设备，包括支撑架，所述支撑架的表面滑动连接有伸缩杆，伸缩杆远离支撑架的一端滑动连接有气缸，支撑架的内部固定连接有壳体，壳体的内部固定连接有中空通道，中空通道的内部固定连接有气流槽，气流槽的表面活动连接有档持板，壳体的右侧固定连接有电磁机构，所述电磁机构包括电极板，电极板的表面调节有轴套，轴套的内部固定连接有气流通道，电极板远离壳体的一侧固定连接有喷嘴。本发明的有益效果是：1.通过将未打磨的盘片放置在对称的支撑架中心线处，启动气缸工作，气缸产生的气体进入壳体内，因为中空通道的开口小于气缸喷出气流的口径，所以气流在进入中空通道时被加压，被加压的气流经气流槽进入电磁机构内，当气流流动至喷嘴位置时，会将储存槽内的打磨混合材料抽吸出来，两者混合后与盘片表面接触，盘片在重力的作用下向下移动，当盘片脱离支撑架时刚好打磨完成，打磨产生碎屑被高压气流吹散并通过分离板进入电磁机构内，从而达到了打磨产生的碎屑不划伤盘片的效果。2.通过上述在打磨的同时，电极板会产生电流并在线圈的作用下产生磁性，对盘片被打磨过的</t>
+          <t>发明内容本发明需要解决的技术问题是：提供一种乙二醇双（丙腈）醚的纯化方法，其成品纯度能有效提高。为解决上述问题，本发明采用的技术方案是：乙二醇双（丙腈）醚的纯化方法，包括以下步骤：在乙二醇双（丙腈）醚粗品中加入酰化试剂进行酰化反应，所述的酰化试剂为丁二酸酐与高氯酸的混合物，酰化试剂的质量为粗品质量的3%～7%，反应结束后的反应液进行后处理得二次粗品，二次粗品经减压精馏得成品。进一步地，前述的乙二醇双（丙腈）醚的纯化方法，其中，乙二醇双（丙腈）醚粗品是以乙二醇与丙烯腈为反应原料，在碱性催化剂的作用下加成反应后制得。</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>{[43, 63],方法},{[5, 29],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>{[88, 90],部件},{[91, 98],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>{[251, 279],方法},{[315, 329],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[32, 35],方法},{[38, 46],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>优选的，所述收纳槽的内侧内壁固定连接有立柱，所述固定座的内端表面开设有圆槽，所述圆槽与立柱相互对应且处于同一轴线。优选的，所述立柱的端部固定在圆槽的端口内部，所述立柱的端面与圆槽的顶部内壁固定连接有内弹簧。优选的，所述立柱的外侧环绕固定连接有外弹簧，所述外弹簧的端部固定在固定座的内端表面。</t>
+          <t>发明内容本发明的目的就是要提供一种磁黄铁矿的加工方法，该加工方法生产成本低、能耗低，且减少了副产物。为实现上述目的，本发明采用的技术方案是：一种磁黄铁矿的加工方法，包括以下步骤：1)将磁黄铁矿与硝酸铁溶液在一定温度下进行反应，得到气相产物和液固混合物，液固混合物固液分离后得硝酸铁溶液和氢氧化铁固体，硝酸铁溶液循环用于与磁黄铁矿反应；2)将步骤1)中所得气相产物与一定量空气混合后使用浓硫酸吸收，稀释后得浓硫酸产品，取部分浓硫酸产品循环用于吸收步骤1)中所得气相产物；3)将步骤2)中未吸收的气相产物与过量空气混合，充分氧化后使用步骤1)中的部分氢氧化铁固体吸收得硝酸铁溶液，硝酸铁溶液循环用于与磁黄铁矿反应；4)将剩余的氢氧化铁固体与步骤2)中部分浓硫酸产品混合，然后加入还原铁粉反应，过滤、蒸发结晶后得七水硫酸亚铁晶体。进一步地，所述步骤1)中，磁黄铁矿与硝酸铁溶液反应的温度为80～110℃，硝酸铁溶液的浓度为1～2mol/L。</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>{[121, 123],部件},{[109, 113],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>{[19, 20],部件},{[6, 11],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>{[74, 77],部件},{[63, 67],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[17, 25],方法},{[43, 48],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>针对上述现有技术，本发明在于提供一种水稻种子晒场使用装置，基本能够使得原本位于上方的种子翻到下方，原本位于下方的种子翻到上方，晾晒均匀，降低劳动力。本发明的技术方案是这样实现的：一种水稻种子晒场使用装置，包括空压机、输气管、进料罩、分离盒和伸缩杆，所述进料罩内壁设有条形的气腔，所述气腔通过出气间隙连通至进料罩的内表面，所述气腔通过输气管和所述空压机连通，所述进料罩与水平面倾斜，进料罩和所述分离盒连通；顺着气流方向，所述分离盒的横截面大于所述进料罩的横截面；所述分离盒竖直放置，所述分离盒下方设有出料口，所述分离盒和伸缩杆连接。进一步的，所述分离盒底部设有第一滚轮，所述进料罩底部设有第二滚轮。</t>
+          <t>发明内容为解决上述技术问题，本发明提供一种能够对头发等软质杂物进行过滤的同时又不影响排水的洗浴用防堵便清洁的地漏系统。为实现上述目的，本发明采用的技术方案是，一种洗浴用防堵便清洁的地漏系统，包括与下水管道连接的固定管，固定管的上端连接有与固定在地面上的固定盖，固定盖上设有圆形漏孔，其结构要点是，圆形漏孔内配接有截面为“L”形的过渡环，过渡环内固定有漏管，漏管的上开口的水平高度小于固定盖的水平高度，所述的圆形漏孔上活动配合有过滤盖，过滤盖一体成型连接有位于漏管的上开口的上方的扣盖，扣盖连接有向下延伸且环形阵列的竖杆，竖杆穿过套设在漏管上的封环，竖杆的下端设有限制封环的水平高度的限位球，所述的漏管上设有与封环位于最低位置时配合的下水口，所述的扣盖的盖面上设有环形阵列的向下倾斜设置的支杆，支杆连接有波浪线形的拦截杆，拦截杆的末端连接有插杆，所述的扣盖的圆心位置设有向下延伸的套管，套管的末端设有限位套，限位套内插设配合有设在固定管内的顶杆，顶杆上连接有横向支杆，横向支杆的末端设有滚轮，滚轮配合在设在固定管的内壁上的竖向滑槽内，所述的过滤盖的圆心位置设有贯穿孔，贯穿孔内设有与顶杆连接的螺纹杆，螺纹杆的上端连接有浮球，浮</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>{[89, 100],部件},{[102, 122],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>{[272, 274],部件},{[275, 276],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>{[14, 27],方法},{[29, 72],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[90, 93],方法},{[84, 88],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>优选的，所述过滤笼的上端固定连接有上端开口的保护管，所述保护管内滑动连接有活塞，所述活塞与保护管的内管底之间固定连接有弹簧，所述活塞远离弹簧的一端固定连接有支撑柱，所述支撑柱的另一端穿过保护管的管口并固定连接有锥形的防护罩。优选的，所述第一下坡面上固定连接有导泥沙网板。优选的，所述活塞的环形侧壁上开设有活塞槽，所述活塞槽内套设有活塞环，所述活塞环的外环壁设置在保护管的内管壁上。</t>
+          <t>发明内容本发明的目的是提供一种在用户处于休息状态的时候提醒用户将移动设备远离从而降低移动设备对处于休息状态下用户影响的辐射检测系统。通过采用上述技术方案，通过用户休息时间数据库、中央处理器可以实时获取当前时间是否处于用户的休息时间，并在处于用户时间的情况下，通过距离检测装置、辐射检测装置间接判断出移动设备是否对用户有影响，在对用户有影响的情况下，通过提醒装置及时通知到用户。本发明进一步设置为：还包括语音通知模块；若中央处理器以当前时间段为查询对象在用户休息时间数据库查询出用户处于休息时间，且同时距离检测装置所检测到的距离小于通过辐射检测装置探测出的本移动设备对用户的无辐射距离的时间达到中央处理器预设的时间，则语音通知模块进行通知。</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>{[129, 133],部件},{[118, 123],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>{[22, 24],部件},{[6, 11],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>{[152, 154],部件},{[141, 148],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[89, 93],材料},{[96, 114],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>作为优选，色谱柱的柱温设定为20～40℃，更优选为35℃。作为优选，检测波长为285～289nm，更优选为286nm。该方法专属性高、分析速度快、准确度好，重现性高，便于对丹酚酸A相关产品的质量检测及安全提供保障。</t>
+          <t>发明内容本发明目的在于提供一种氯噻酮的电化学手性识别检测方法，检测方法简单、准确，提高了氯噻酮对映异构体的识别效率。综上，本发明所述的检测方法将石墨烯羧基化并修饰于玻碳电极，而后电化学修饰N-乙酰-L-羟基脯氨酸，采用差分脉冲伏安法对氯噻酮异构体进行检测，扫描电位-0.2至0.5V，结果显示，R-氯噻酮具有较高的峰电流，S-氯噻酮具有较低的峰电流，实现R-氯噻酮和S-氯噻酮的快速识别，检测方法简单，检测效率高。以上所述仅为本发明的优选实施例，不能认定本发明的具体实施只局限于这些说明。对于本发明所属技术领域的相关技术人员来说，在不脱离本发明构思的前提下，还可以做出若干简单推演或替换，其中所作的任何修改、等同替换、改进等，均应包含在本发明的保护范围之内。</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>{[14, 19],数值},{[5, 10],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>{[39, 47],数值},{[34, 37],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>{[53, 57],数值},{[34, 37],属性},参数关系</t>
-        </is>
-      </c>
+          <t>{[24, 29],方法},{[33, 36],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>所述三维拖链上任意相邻的两个拖链节通过所述扣槽结构连接，其中在拖链节A上设有带扣槽的扣槽板，在拖链节B上设有带球状凸起的凸起板，且连接时所述球状凸起嵌入所述扣槽中。所述拖链接头设有通过所述锁扣结构相连的第一接头部和第二接头部，所述第一接头部设有第一锁扣板，在所述第一锁扣板上设有突出部，所述第二接头部设有第二锁扣板，且所述第二锁扣板与第二接头部本体之间形成一插槽，在所述第二锁扣板上设有通孔，连接时所述第一锁扣板插入第二锁扣板与第二接头部本体之间的插槽中，且所述突出部嵌入所述通孔中。所述管夹包括底座、夹圈、螺钉和螺母，所述底座与对应的拖链接头固连，在所述底座中部设有凸块，且所述螺钉穿过所述凸块，所述夹圈两端均安装于所述螺钉上且分设于所述凸块两侧，在所述螺钉尾端设有螺母。</t>
+          <t>发明内容本发明的目的是提供养殖平台振动能利用装置。本发明要解决的问题是目前没有将这些振动能利用起来的装置的问题。为实现本发明的目的，本发明采用的技术方案是：养殖平台振动能利用装置，包括链条、轮架、第一齿轮、叶片、支架、发电机、第二齿轮、液压缸、第二鱼眼轴承、连接轴、第一鱼眼轴承、水翼和养殖网箱，所述养殖网箱左右两侧各通过销轴安装水翼，水翼上安装第一鱼眼轴承，第一鱼眼轴承上安装连接轴，连接轴上端安装在第二鱼眼轴承上，液压缸的活塞杆安装在第二鱼眼轴承上，液压缸安装在支架上，支架安装在岸边，支架下安装轮架，轮架上安装叶轮，叶轮上安装叶片，叶轮的轴上安装第一齿轮，链条一端套设在第一齿轮上，链条另一端套设在第二齿轮上，第二齿轮设置在发电机转动轴上，发电机安装在支架上。</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>{[42, 44],部件},{[31, 35],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>{[301, 302],部件},{[311, 323],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>{[101, 111],部件},{[84, 87],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[323, 325],部件},{[329, 331],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>优选的，所述螺纹杆上转动套设有位于螺纹槽外的定位板，且定位板固定安装在通孔的内壁上。优选的，所述通孔的底部内壁上开设有位于两个定位板之间的凹槽，且转轴的底端延伸至凹槽内，并固定套设有轴承，且轴承的外圈与凹槽的内壁固定连接。优选的，所述通孔的顶部内壁和底部内壁上均开设有限位槽，同一个滑杆的顶部和底部均固定安装有限位块，且四个限位块分别滑动安装在相对应的四个限位槽内。</t>
+          <t>发明内容本发明的目的是提供一种膨胀丝绵被及其制备方法，以获得性能优良的膨胀丝绵被。为达到上述发明目的，本发明采用的技术方案是：一种膨胀丝绵被的制备方法，包括如下步骤：(1)将清洗后的蚕丝进行高温高压脱胶，得到脱胶丝素纤维溶液；(2)将姜黄提取物、醋酸和羧甲基纤维素的混合溶液加入脱胶丝素纤维溶液中，超声处理2～3小时，再加入聚脲甲醛、硒代胱胺盐酸盐，超声处理1～1.5小时；然后脱水、晒干，得到处理蚕丝；所述硒代胱胺盐酸盐的化学结构式如下：(3)将处理蚕丝于180℃加热30秒，然后于210℃加热20秒，得到带孔蚕丝；将带孔蚕丝制备成丝绵片后浸渍氨基聚乙二醇水溶液，得到处理丝绵片；(4)将处理丝绵片放入装有爆破膜可转动的密闭容器中进行膨化，得到膨胀湿丝绵片；(5)将膨胀湿丝绵片脱水、手工扯松后烘干，得到膨胀干丝绵片；(6)将膨胀干丝绵片与鹅绒组合、缝制，得到膨胀丝绵被。上述技术方案中，所述高温高压脱胶的压力为0.15～0.3MPa，温度为110～135℃，脱胶时间为10～20分钟。上述技术方案中，以蚕丝为原料，除杂、漂洗后，加入水浸泡至少30min，浴比为10～20∶1；然后脱水，完成清洗。</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>{[134, 136],部件},{[117, 129],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>{[69, 70],部件},{[48, 55],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>{[22, 24],部件},{[15, 20],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[22, 25],方法},{[32, 39],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>作为本发明的一种优选技术方案，所述收缩杆的数量为两组，且两组收缩杆以外接杆的水平中心线呈轴对称安装。作为本发明的一种优选技术方案，所述固定套环的形状为圆环状，且固定套环的表面为光滑曲面。作为本发明的一种优选技术方案，所述弹簧的数量为若干组，且若干组弹簧呈直线等距分布。</t>
+          <t>发明内容本发明的目的在于提供一种食物储存设备，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种食物储存设备，包括盒体，所述盒体内壁的底部开设有第一凹槽，所述第一凹槽内表面的左右两侧之间滑动连接有带动板，所述带动板的一侧固定连接有第一连接块，所述第一连接块的一端贯穿盒体且延伸至盒体的外部，所述盒体内壁左右两侧和前后两侧的内部均开设有楔形槽，所述盒体左右两侧和前后两侧的顶部均固定连接有两个限位杆，所述限位杆上套接有第一拉动块，所述第一拉动块的一侧固定连接有第二连接块，所述第二连接块一侧贯穿盒体且延伸至盒体的内部，所述第二连接块的一侧固定连接有密封块，所述盒体上开设有与密封块相匹配的第二凹槽，所述限位杆的一端固定连接有固定块，所述固定块的一侧与第一拉动块之间且位于限位杆的表面套接有第一弹性件，所述盒体的内壁开设有通槽。</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>{[116, 118],数值},{[110, 111],属性},参数关系</t>
+          <t>{[70, 71],部件},{[128, 132],零件},部分关系</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{[88, 91],部件},{[80, 86],位置},空间关系</t>
+          <t>{[70, 71],部件},{[208, 210],零件},部分关系</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{[24, 25],数值},{[17, 19],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
+          <t>{[70, 71],部件},{[85, 88],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>{[70, 71],部件},{[221, 225],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>{[70, 71],部件},{[242, 246],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>{[70, 71],部件},{[111, 113],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>{[70, 71],部件},{[180, 182],零件},部分关系</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>本发明的目的在于：为了解决现有的缩口封头测量误差大和操作较为不便的问题，而提出的一种缩口封头高度检测工具。为了实现上述目的，本发明采用了如下技术方案：一种缩口封头高度检测工具，包括测量杆以及测量杆外部设置的刻度线，还包括第一支架，所述第一支架的顶部中心处设置有固定壳体，所述固定壳体的内腔设置有竖直方向上的滑套，且滑套的两侧均设置有齿轮盘，所述齿轮盘的远离滑套的一侧固定有转动臂，且转动臂的延伸端贯穿固定壳体两侧开设的通槽延伸至其外部并通过转轴转动连接有夹持块。作为上述技术方案的进一步描述：两个所述齿轮盘的中心处均设置有传动轴，所述传动轴与固定壳体的前后表壁之间均通过轴承转动连接，且两个所述传动轴的其中一个贯穿固定壳体的前表壁与设置在固定壳体外部的驱动马达的输出轴传动连接。</t>
+          <t xml:space="preserve">发明内容本发明的目的在于克服现有技术中布风器流道和进风调节装置设计的缺陷，本发明提供了一种螺旋形流道变风量船用布风器，采用电动蝶阀、稳压旁通管控制流量和布风器内部螺旋形流道，借助气流漩涡为舱室内提供均匀送风，解决了现有布风器送风范围小、噪音大、精度低、节能效果差的问题。为了实现上述目的，本发明所采用的技术方案如下：一种螺旋形流道变风量船用布风器，在箱体侧面端部连接进风管，在进风管内部从进风口端至出风口端依次设有电控蝶阀和均流板，所述电动蝶阀由角度执行器控制，在电控蝶阀与进风管进风口侧之间连接稳压旁通管，螺旋形导流板顶面与箱体顶部焊接连接，螺旋形导流板的一端焊接在连接进风管的箱体侧壁上，所述螺旋形导流板与箱体内部的进风管段的内侧壁紧靠设置，在箱体的底板上焊接出风管，箱体的底板可拆卸，在箱体内部上方设有流量传感器和电加热器。进一步地，所述流量传感器沿送风管中心轴线放置，电加热器与送风管中心轴线垂直放置。
+</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>{[75, 86],部件},{[89, 105],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>{[36, 51],方法},{[11, 31],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>{[246, 252],部件},{[254, 256],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[388, 391],部件},{[400, 403],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>本发明的主要目的在于提出一种视觉离线示教仪注册方法，其具体操作方法为：一、设计一个三维夹角工具，示教尖点可以顶到三维夹角工具顶端位置，当示教仪绕任意方向小幅度旋转时，保证示教尖点仍在同一位置；二、示教仪围绕三维夹角工具旋转n角度，n为任意角度，在旋转时示教仪主体每个位置保证尖点在同一个位置，每个角度位置利用双目重建系统来重建标志点阵列，以此得到n点云；三、对这上述n点云中的点云进行匹配，得出相对的外参参数，即旋转参数R和平移参数T；四、如果匹配成功则利用这些点云的匹配关系，拟合出尖点的精确位置，具体方法如下：设尖点位置为P(x,y,z),点云Set1和点云Seti的旋转关系为Seti＝*Set1.但同时满足P(x,y,z)＝*P(x,y,z),由于可以求出多组的.根据这些信息就可以用最小二乘法拟合出P(x,y,z)的值，进而求出尖点相对阵列的精确位置；五、如果步骤三匹配失败，则需要将匹配失败的点云剔除，然后重新再相似位置进行采集，直到凑够n幅能够正确匹配的点云，然后利用这些点云的匹配关系，拟合出尖点的精确位置，具体方法如下：设尖点位置为P(x,y,z),点云Set1和点云Seti的旋转关系为Seti＝*Set</t>
+          <t>发明内容本发明提出一种氮化硅多孔陶瓷的制备方法，该制备方法烧结温度较低，获得的氮化硅多孔陶瓷气孔率高且断裂韧性高。本发明的技术方案是这样实现的：一种氮化硅多孔陶瓷的制备方法，包括以下步骤：1)按照重量百分数计算，称取氮化硅粉体40～95％、改性二氧化钛1～20％与稀土氧化物2～6％，混合均匀得到混合料；2)将步骤1)的混合料加入到质量浓度为0.5％～10％聚乙烯醇溶液中，进行球磨，球磨时间为2～24h，浆料烘干、过筛，然后模压成型为坯件；3)将坯件在氮气气氛下快速升温到1100℃，再慢速升温到1400℃，然后以0.5℃/min的升温速度升温到1500～1650℃，保温1～10小时，烧结过程中始终通入流动氮气，最后随炉冷却，即获得氮化硅多孔陶瓷；其中，所述改性二氧化钛主要由二氧化钛、椰壳粉与羟甲基纤维素制备得到。</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>{[336, 363],方法},{[365, 379],效果},方案优点</t>
+          <t>{[197, 201],数值},{[192, 195],属性},参数关系</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>{[37, 65],方法},{[83, 94],效果},方案优点</t>
+          <t>{[39, 41],材料},{[51, 55],效果},材料优点</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{[100, 120],方法},{[169, 176],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>{[220, 248],方法},{[326, 335],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>{[383, 419],方法},{[437, 460],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>{[179, 193],方法},{[195, 203],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[39, 41],材料},{[46, 49],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>本发明的目的就是解决现有技术存在的上述不足，提供一种三通铸件的加工工艺，本发明的加工工艺得到的铸件尺寸精度高、表面粗糙度小、内部金属流动性好，其抗拉强度、耐磨性能、机械性能大幅提升。优选地，本发明中所述保护层的原料的主成分为表面活性剂和防锈剂。本发明的加工工艺得到的铸件尺寸精度高、表面粗糙度小、内部金属流动性好，其抗拉强度、耐磨性能、机械性能大幅提升。</t>
+          <t>发明内容本发明的目的就是针对上述现有技术中的缺陷，提供了临时行枣树Y字形树形的改造方法，针对现有枣园栽种密植度高、行间枝条接头、株间枝条交叠、光能利用率低、作业不方便等问题进行技术方法改进，以不影响永久株的生长为前提，临时株本着改善光照、方便管理，降低树高，缩小冠径，为永久株“让路”的原则，修剪成Y字形，日常栽培管理便易程度得到大幅提升。技术方案：为了实现上述目的，本发明提供的技术方案为：一种枣树的改造整形方法，所述改造方法分两年完成，具体操作步骤为：1）第一年，树形改造：树形改造措施包括一次落头、疏枝、回缩、抹芽、主枝摘心、别枝器别枝、开角器开张枝条角度、环剥、反复抹芽和除萌蘖；所述一次落头是指：3月中下旬至4月中上旬，红枣冬季修剪时，将中心干进行落头，落头修剪应使剪口处有分枝，树体的高度降低在1.0m以内，树形定干高度50cm；所述疏枝是指：去掉定干后干高以下中心干上的所有枝条，不能留干桩，同时疏除非两个向行间延伸的主枝；所述回缩是指：对两个向行间延伸的主枝回缩后，剩6cm桩子；所述抹芽是指：5月上中旬，在新发主枝中，选留两个向行间延伸的健壮、角度呈180°的新枝做为主枝，其余萌发出来的枝条全部抹去；所述</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>{[22, 34],方法},{[36, 89],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>{[122, 124],方法},{[135, 175],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>{[112, 120],材料},{[101, 102],效果},材料优点</t>
-        </is>
-      </c>
+          <t>{[39, 42],方法},{[124, 127],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种纳米针状ZSM-11及其混晶分子筛的合成方法，以解决背景技术中提出的现有常规形貌ZSM-11分子筛晶体内微孔扩散路径过长的问题。为实现上述目的，本发明提供了一种纳米针状ZSM-11及其混晶分子筛的合成方法，所述纳米针状ZSM-11分子筛的合成方法的具体步骤为：步骤1、按照水/SiO2＝10～800、Si/Al＝3～800、模板剂/SiO2＝0.2～50和合成助剂1/SiO2＝0.2～50的摩尔配比，将硅源、铝源、无机酸、无机碱、模板剂、合成助剂1和蒸馏水调配成为合成液于水热合成釜中，在10～300℃和搅拌速率为60～900r/min的条件下老化处理0.1～150小时，然后降至室温，得到老化处理的合成液；步骤2、按照合成助剂2/SiO2＝0.2～100的摩尔比例，向老化处理的合成液中添加合成助剂2，然后密封水热合成釜，在100～200℃和搅拌速率为60～900r/min的条件下晶化24～300小时，随后冷却至室温，出料、洗涤、分离、干燥并焙烧，得到不同晶粒大小的纳米针状ZSM-11分子筛；所述步骤1合成液配置过程中，按照诱导晶种重量与合成液中硅源以SiO2计重量之间比例为0.05～0.3</t>
+          <t xml:space="preserve">发明内容本发明的目的是使学生发生意外时可以快速地紧急求救。为此，提供一种终端紧急求救方法，所述终端安置于学生的书包上，终端包括CPU、计算机可定存储介质、报警按钮、用于移动通信的4G通讯模块、用于收集语音的麦克风、用于播放语音的扬声器，报警按钮、计算机可定存储介质和4G通讯模块分别与CPU电连接，麦克风和扬声器分别经编码器和解码器连接至CPU，计算机可定存储介质内存储有程序，程序被CPU执行时实现以下步骤：号码排序步骤.在报警按钮受触发的情况下，CPU根据历史记录，将事先预存的至少两个电话号码按接通速度从快到慢进行排序并列出排序表；优先拨号步骤.CPU根据排序表，自动优先拨号接通速度快的电话号码。在优先拨号步骤之后还设有不断循环执行直至CPU在预设时长内拨通电话号码为止的循环拨号步骤：若本轮拨号的拨号时长超过预设时长，则CPU结束本轮拨号，并按排序表拨打下一个电话号码。在循环拨号步骤中，CPU累计每个电话号码的断开次数，将每个电话号码的本次断开次数和以往断开次数共同存储至CPU的内存序列中，从而形成所述历史记录。
+</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>{[504, 511],数值},{[478, 502],属性},参数关系</t>
+          <t>{[59, 60],部件},{[103, 105],零件},部分关系</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{[8, 28],方法},{[36, 74],效果},方案优点</t>
+          <t>{[59, 60],部件},{[89, 94],零件},部分关系</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{[155, 160],数值},{[148, 153],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+          <t>{[59, 60],部件},{[77, 80],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>{[59, 60],部件},{[114, 116],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>{[59, 60],部件},{[67, 75],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>{[59, 60],部件},{[63, 65],零件},部分关系</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>本发明的目的就是提供一种农用机用曲轴的加工工艺，本发明的加工流程简单，加工精度高，能够满足客户的要求，同时降低操作人员的劳动强度，降低了生产成本，提高了生产效率。优选地，本发明中所述清洗剂的主要成分为表面活性剂。本发明的加工流程简单，加工精度高，能够满足客户的要求，同时降低操作人员的劳动强度，降低了生产成本，提高了生产效率，具有良好的推广和应用前景。</t>
+          <t>发明内容本发明所要解决的技术问题在于提供一种能够在发电时保持恒压的压缩空气储能装置。本发明是通过以下技术方案解决上述技术问题的：一种恒压压缩空气储能装置，包括一储存室，所述储存室通过一水管连接有一蓄水池，所述蓄水池沿竖直方向高于储存室设置，储存室内设置有一储气袋，所述储气袋通过一穿过储存室的气管分别连接有压缩管路和发电管路，所述压缩管路将空气压缩送入储气袋中，所述发电管路将储存的高压气体释放出来进行发电。优选地，所述水管上还连接有一水泵。优选地，所述发电管路包括透平膨胀机和发电机，所述透平膨胀机的输入端与气管连接，透平膨胀机的输出轴能够带动发电机转动发电。</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>{[89, 93],部件},{[100, 104],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>{[106, 108],方法},{[110, 174],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>{[0, 2],方法},{[8, 79],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[70, 75],部件},{[80, 82],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>在一个优选地实施方式中，所述滤尘网的外围套有紧固垫圈，所述滤尘网上的磁铁片与衔铁片之间通过磁力吸附的方式相连接。在一个优选地实施方式中，所述保护外壳后表面的四个拐角位置处分别安装有一组支撑垫脚，所述支撑垫脚采用橡胶材质制作而成。在一个优选地实施方式中，所述保护外壳前方铰接安装有盖板。</t>
+          <t>发明内容(一)解决的技术问题针对现有技术的不足，本发明提供了一种水处理设备用固定安装装置，解决了现有水处理设备安装不牢固的问题。(二)技术方案为实现上述目的，本发明提供如下技术方案：一种水处理设备用固定安装装置，包括水处理设备本体，所述水处理设备本体的底部焊接有插柱，所述插柱的底部设置有插筒，所述插筒的内腔开设有插槽，所述插柱的底部延伸至插槽的底部，所述插筒的底部螺纹安装有螺柱，且螺柱贯穿插柱，所述螺柱与插筒外壁的接触处螺纹安装有锁紧螺母，所述插筒的内腔安装有固定轴，所述固定轴的外壁套接有弹簧，所述弹簧的外侧套接有伸缩筒，所述伸缩筒的顶部焊接有角块，所述插筒的顶部对称卡接有卡栓，且卡栓的底部与角块相互卡接，所述伸缩筒远离弹簧的一侧延伸至插筒的外部，所述伸缩筒的顶部焊接有梯形卡块，所述水处理设备本体的底部对称铰接有卡杆，所述卡杆的底部卡接至梯形卡块上，所述卡杆的一侧连接有拉簧，所述拉簧远离卡杆的一端连接在水处理本体的底部，所述插筒的底部焊接有底座。优选的，所述底座的左右两侧均开设有沉槽，所述沉槽内螺纹安装有沉头螺栓，所述沉头螺栓与沉槽底部的接触处套接有防锈片。(三)有益效果本发明提供了一种水处理设备用固定安装装</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>{[92, 95],部件},{[68, 83],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>{[22, 25],部件},{[12, 19],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>{[139, 140],部件},{[126, 133],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[144, 145],部件},{[136, 140],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>为了简化探针的使用并降低探针数据的误差，本发明提出一种集成的探针诊断系统电路模块、诊断系统及诊断方法。本发明的技术方案如下：将Langmuir探针、Faraday探针以及发射探针三种静电探针的电路集成到一个模块上，使用时将探针电源、数据采集仪、探针以及地线通过带有屏蔽层的接口连接到本发明上，即可正常使用。通过手动开关可以调节档位，以适应不同参数范围的诊断需求。一种集成的等离子体探针诊断系统电路模块，其包括金属外壳、多个BNC接头、电路板，将电路板固定在所述金属外壳内部，金属外壳将模块内部与外界隔离开，所述电路板包括至少两个探针电路，每个探针电路具有与外壳固接的开关及多路电阻，通过开关调节档位，适应不同参数范围的诊断需求，将BNC接头的屏蔽层与金属外壳连接，以实现信号的全程屏蔽，所述BNC接头使用时分别与探针电源、数据采集仪、至少两种探针以及地线通过带有屏蔽层的接口相连接。</t>
+          <t>发明内容本发明的目的是提供一种卫生通风肥皂盒，本发明通过使用支撑杆将肥皂顶起，支撑杆底部可以通风方便肥皂下底部保持干燥，且彻底分离了肥皂与皂液或污水的接触，减小了菌群的滋生。本发明的上述技术目的是通过以下技术方案得以实现的：一种卫生通风肥皂盒，包括支撑座以及皂液盒，所述的支撑座上侧表面阵列设置有支撑杆体，所述的支撑杆体的顶端设置有海绵套，所述的皂液盒的每侧边沿上均设置有两个防脱出挡板，两个所述的防脱出挡板与所设置侧边沿端部的距离小于两个所述防脱出挡板的间距，两个所述防脱出挡板之间的间距大于相邻两个所述支撑杆体之间的间距。作为本发明的优选，所述的支撑杆体的顶部设置有支撑平台，所述的海绵套完全保护于所述支撑平台外侧。</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>{[181, 199],部件},{[202, 219],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>{[23, 49],方法},{[2, 18],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>{[101, 104],部件},{[63, 94],零件},部分关系</t>
-        </is>
-      </c>
+          <t>{[39, 47],方法},{[78, 85],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>本发明目的是提供一种高效汽车覆盖件模具顶料装置，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种高效汽车覆盖件模具顶料装置，包括顶料装置本体、模具座、下撑座、传动支承、顶料板，所述顶料装置本体置于模具座内部，且顶料装置本体由下撑座、传动支承以及顶料板组成，所述模具座的两内侧面顶端均固定设有若干缓冲块，且模具座的两内侧面上部均开有通孔，所述缓冲块对称均匀分布，具体数量为四个，且缓冲块的底端固定设有缓冲垫，缓冲块的下方均设有挡板，所述挡板的连接端面与穿过模具座侧面通孔的螺栓杆固定连接，且挡板的工作端面与顶料板侧端面固定设有的缓冲垫活动接触。进一步的，所述顶料板的顶端面对称均匀分布四个顶块销，且顶料板的两侧面与顶端面间圆弧过渡，顶料板的顶端面开有四个螺纹槽。</t>
+          <t>发明内容本发明的目的是克服现有技术中存在的焊接质量差、焊接成型美观性差的缺陷与问题，提供一种焊接质量好、焊接成型美观性好的手工钨极氦弧焊焊接HFe59-1-1铁黄铜的方法。为实现以上目的，本发明的技术解决方案是：一种手工钨极氦弧焊焊接HFe59-1-1铁黄铜的方法，所述方法包括以下步骤：A、用不锈钢丝轮清理待焊试件的坡口及其周边20毫米范围内的氧化膜；B、对待焊试件进行整体预热，预热温度为250℃～350℃，达到预热温度后保温0.5小时～1小时，待焊试件厚度在25毫米基础上每增加25毫米增加保温时间0.5小时；C、待焊试件的装配间隙为5毫米～6毫米；D、对待焊试件采用手工钨极氦弧焊进行连续焊接，保护气体为99.99﹪氦气，焊丝为HSCuZn-1，焊丝直径为2毫米，焊丝的成分及其质量分数为：铜57﹪～61﹪、锡0.25﹪～1﹪、铝≤0.01﹪、铅≤0.05﹪、其他成分≤0.5﹪、余量为锌；</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>{[292, 294],部件},{[296, 298],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>{[60, 74],部件},{[78, 100],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>{[6, 22],方法},{[24, 38],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[378, 382],数值},{[376, 376],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>本发明使用滚片以及保护边组成滚筒，同时滚片与滚片之间的缝隙设置有过风网，可以一边加热一边通过空气流动的方式使中药材迅速干燥，而且有利于中草药的全面干燥，避免了中草药干燥不均的情况发生。3.本发明设计了液压伸缩杆以及旋转轴，因为桶内的大批量中草药不变取出，所以采用液压伸缩杆将机壳一边撑起，再通过出料台直接输送到输送机上，提高了生产效率，缩短了生产周期，节省了人工。5.本发明的风干机设置在地下，可以充分减少本发明的使用面积。</t>
+          <t>发明内容本发明意在提供一种用于房屋建筑的烧结砖内氧化钙检测装置，以解决现有技术中烧结砖在检测氧化钙的时候，检测人员搬动烧结砖的工作量比较大，导致工作负担较大的问题。与现有技术相比，本方案的优点在于：通过在蒸煮箱的侧部设置进料机构和出料机构，利用进料机构和出料机构来辅助烧结砖进出蒸煮箱时的竖向移动工作，从而减轻了检测人员的工作负担。进一步，所述进料支撑板包括至少两块分离式设置的移动板，相邻移动板之间设有伸缩式储气机构，伸缩式储气机构与蒸煮箱的内部连通。</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>{[32, 34],部件},{[19, 25],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>{[36, 52],方法},{[53, 90],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>{[129, 158],方法},{[160, 180],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[24, 30],材料},{[144, 149],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>本发明为克服上述情况不足，旨在提供一种能解决上述问题的技术方案。作为本发明进一步的方案：所述屏蔽门靠近地面一端通过锁紧螺钉固定连接有挡水板。作为本发明进一步的方案：所述屏蔽门的外表面均匀喷涂有多层防水耐磨涂料。</t>
+          <t>发明内容本发明的主要目的是提供一种智能伺服电动螺丝批，以解决上述背景技术中提出的问题。为实现上述目的，本发明提出的一种智能伺服电动螺丝批，包括电批驱动部件、电批芯部件、连接座、套筒、上盖和航空插头；所述电批芯部件套于连接座的中心孔内，连接座与电批驱动部件的电机安装端面紧密连接后再套上套筒，待航空插头安装在上盖后，将上盖安装在套筒上端面；所述电批驱动部件包括：联轴器和电机，所述的联轴器与电机输出轴为紧密固定连接，所述的电机采用减速电机组，联轴器安装于减速电机组的输出轴上；所述的电批芯部件包括：批头、滚珠滑套、卡圈、滑套弹簧、轴承套、孔用卡簧、轴承、限位滚珠、扭力传递销、批头主轴、顶杆和顶杆弹簧，所述批头主轴的上端面开有槽口H，槽口H两侧面对称于轴心线，中部设有扭力传递销安装孔ΦB，并且安装孔ΦB偏离轴心线距离K、以及限位滚珠安装孔ΦD和卡圈环形卡槽ΦG，所述的限位滚珠设置在安装孔ΦD孔中，卡圈套入环形卡槽ΦG内，滚珠滑套套于其圆柱面ΦE上，并滑动和转动。优选地，所述电批驱动部件还包括：传感器支架、光栅盘、导电球、导电球座、电路控制板和传感器外壳，所述的导电球与导电球座的圆锥面滑动接触，所述的导电球座嵌入在所述的</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>{[19, 30],方法},{[4, 11],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>{[66, 68],部件},{[46, 54],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>{[96, 103],部件},{[84, 90],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[101, 105],部件},{[108, 115],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>作为本发明进一步的方案：所述第一消音组件的两端均设置有缓冲室。作为本发明再进一步的方案：所述均压管远离缓冲室的一端安装有接口。作为本发明再进一步的方案：所述均压管远离接口的一端呈密封状态，位于所述缓冲室内的均压管上设置有多个通孔。</t>
+          <t>发明内容针对上述存在问题或不足，为解决现有空间行波管的群时延失真抑制和螺旋线与输入窗的匹配性不能兼顾的问题，本发明提供了一种空间行波管的螺旋线及其设计方法。一种空间行波管的螺旋线，包括输入螺旋线和输出螺旋线。输入螺旋线和输出螺旋线之间用切断隔开，在切断两边加入衰减器来抑制反射。</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>{[27, 29],部件},{[14, 22],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>{[112, 113],部件},{[94, 106],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>{[60, 61],部件},{[46, 56],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[86, 88],部件},{[92, 96],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>本发明的目的是针对以上技术的不足，提供一种有别于传统防臭技术的处理，完全可达到瞬间除臭功效的抗菌除臭袜的加工方法。所述的铜改性聚丙烯腈与主纤维的重量比为5~30：95~70。本发明的有益效果体现在于，与现有技术相比，本发明通过将消臭棉纱及抗菌棉纱经过酸化处理后再编入袜子的底部，采用酸碱中和原理将袜子本身带有的酸性与人体汗液的尿素和乳酸分解所产生的氨臭（碱性）酸碱中和从而起到瞬间除臭功效；该产品具有优异的耐洗涤性，无论怎么洗均可保持优异的抗菌除臭功能。</t>
+          <t>发明内容本发明所要解决的技术问题是如何使用室温固相法制备出混合均匀的铝酸盐前驱体，使前驱体经烧结后所获得的铝酸盐适用于大功率真空电子器件中阴极的制备。为解决上述技术问题，本发明所采用的技术方案如下：第一步：按摩尔比BaO:CaO:Al2O3＝6:1:2或5:1:4或5:3:4或4:1:2的比例计算出原料Ba(NO3)2、Ca(NO3)2·4H2O和Al(NO3)3·9H2O的质量，然后按摩尔比Ba(NO3)2：(NH4)2CO3＝0.2～0.25的比例计算出碳酸铵的质量。第二步：将第一步中所有原材料放入玛瑙罐中，并在玛瑙罐中加入10～20ml酒精，利用行星球磨机充分球磨混合。第三步：球磨结束后，将所得的样品用去离子水进行过滤5～8次，使溶液PH＝6.5～7.5。第四步：将过滤后的前驱体样品放入烘箱中烘干。第五步：前驱体样品充分烘干后，用压片机将其压制成圆饼状。第六步：将圆饼状前驱体放入刚玉坩埚中，置于高温马弗炉内烧结，烧结温度1200℃，保温时间200分钟以上。第七步：烧结结束后，将得到的铝酸盐样品取出，用玛瑙研钵将样品研磨成粉末并密封保存。</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>{[76, 85],数值},{[72, 74],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>{[195, 197],方法},{[217, 225],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>{[21, 32],方法},{[39, 42],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[267, 273],数值},{[274, 275],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种虚拟同步机响应功率指令的快速控制方法，以解决现有技术中导致的上述响应调度功率指令时调节缓慢，丧失了逆变型电源功率可快速调节优势的缺陷。一种虚拟同步机响应功率指令的快速控制方法，所述方法包括如下步骤：接收功率指令并发送至控制模块；通过所述控制模块计算出参考电压相角；将参考电压相角送入电压电流双环控制环节；电压电流双环控制环节通过反馈控制将逆变器端口电压相角控制为与所述参考电压相角相同。优选地，所述控制模块包括虚拟同步机控制模块和功率指令前馈控制模块；所述虚拟同步机控制模块通过运算输出参考电压幅值和参考电压相角一；所述功率指令前馈控制模块通过运算输出参考电压相角二。</t>
+          <t>发明内容本发明的目的在于针对上述技术需求而提供一种U型管蒸汽发生器蒸汽出口外特性模拟装置及模拟方法，在静态工况能够准确模拟蒸发器的“反滑”特性，在动态工况通过流量及温度控制，模拟蒸发器出口特性，进而模拟蒸汽系统超压过程。按上述方案，还包括测控系统，所述测控系统包括PID控制器、温度计、数个流量计和数个压力表，所述温度计安设于所述减压阀出口管路上，所述数个流量计和数个压力表分别安设于减压阀出口管路及数支饱和蒸汽管路上。按上述方案，所述减温器为文丘里式减温器。</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>{[8, 29],方法},{[32, 56],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>{[178, 180],部件},{[192, 198],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>{[126, 129],部件},{[132, 137],零件},部分关系</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>优选的，所述固定座的顶端表面开设有定位槽，所述定位槽的底部内壁固定连接有N极磁体。优选的，所述防护盖的底端外壁固定连接有固定扣，所述固定扣与定位槽相互对应且在一条直线上。优选的，所述固定扣安装在定位槽的内部，所述固定扣的端面与N极磁体的表面相互贴合。</t>
+          <t>发明内容本发明要解决的技术问题是克服现有技术的缺陷，提供一种工艺简单，产品性能好的改性聚四氟乙烯粉末的制备方法。本发明的硬质填料粉末均可市售取得，如可采用本领域常规的平均粒径为10纳米～500微米的硬质填料粉末。所述的硬质填料粉末优选为氧化铝粉末、二氧化硅粉末和碳纤维粉末中的一种。</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>{[60, 62],部件},{[47, 54],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>{[91, 93],部件},{[97, 102],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>{[17, 19],部件},{[6, 13],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[89, 97],数值},{[83, 86],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>优选的，所述棘齿一侧的顶部固定连接有转杆，所述防护框顶部的两侧与转杆对应位置处开设有圆形通孔，所述转杆通过轴套与圆形通孔转动穿插连接，且所述转杆的一端开设有内六角开槽。优选的，所述盖板为透明塑料板。优选的，所述防护框内壁底端的内侧开设有条形槽，所述条形槽的内腔填充有干燥剂，所述条形槽的顶部固定卡接有过滤网。</t>
+          <t>发明内容本发明的目的之一是提供一种用于复合铝热剂的胶体粘接剂，以解决粉状铝热剂难以应用的问题。本发明的目的之二是提供一种用于复合铝热剂的胶体粘接剂的制备方法，以制备得到可以将铝热剂胶体化的胶体粘接剂。本发明的目的之三是提供一种用于复合铝热剂的胶体粘接剂的应用。本发明的目的之一是这样实现的：一种用于复合铝热剂的胶体粘接剂，其包括23~30wt%的液态丁腈橡胶、18~23wt%的添加剂、43~57wt%的稀释剂和2~4wt%的助燃剂，其中，所述添加剂为KNO3，所述稀释剂为火棉胶，所述助燃剂为Mg粉。优选地，所述助燃剂（Mg粉）的量为2wt%，且所述液态丁腈橡胶、KNO3、火棉胶质量比为4∶3∶7。</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>{[18, 19],部件},{[4, 12],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>{[118, 120],部件},{[103, 114],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>{[42, 45],部件},{[21, 30],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[62, 77],方法},{[84, 98],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>优选的，所述第一主体机架的底部还连接有定位机构。优选的，所述定位机构设置有两组。优选的，所述射出机构的输出端连接有滑动块，所述热流道模块连接在滑动块上。</t>
+          <t>发明内容为了解决现有技术中存在的上述问题，本发明提出一种2-苯胺基苯并噻唑的合成方法。具体地说涉及一种2-苯胺基苯并噻唑的合成方法及组合物与应用。本发明人在实际研究中发现，适量控制反应原料硫磺的用量，在一定的反应条件下反应，在生成主产物促进剂M的前提下，同时可以得到一定量的2-苯胺基苯并噻唑，其结构如下结构I所示。为了进一步验证制备得到的2-苯胺基苯并噻唑的性能，本发明人对其在轮胎中的性能做了进一步的验证，通过与促进剂M的对比试验具有相当的物理参数，其同样具有能够促进橡胶硫化的性能，可以作为一种橡胶硫化促进剂使用。</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>{[37, 38],数值},{[28, 35],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>{[57, 59],部件},{[44, 53],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>{[19, 22],部件},{[4, 14],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[38, 41],方法},{[131, 145],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>本发明先让带有粉尘的气体通过洗气桶内的水，绝大多数的粉尘会溶于水中或者在水中沉淀，气体浮出水面后即使有残存的粉尘颗粒也会在雾化喷水头喷出的水雾带动下沉降至水面，这两步操作可以有效去除绝大多数粉尘，处理后排出的气体干净无污染。本发明内没有过滤网和其他阻碍空气运动的装置，整个操作只是利用水将粉尘去除掉，不容易造成堵塞从而影响空气流通性，大大提高了除尘效率。本发明洗气桶内壁设置的液面感应器和排水管上的液体阀门联动，可保持液面高度不变，溶有粉尘的脏水会从底部排水管排出，雾化喷水头喷出的新水持续的注入，保证洗气桶里的水总是处于清洁状态，不会因为水过于脏而造成出气孔堵塞的情况，大大提高了除尘效率。</t>
+          <t>发明内容本发明的主要目的是为了提供一种管型母线轨迹测量方法，实现绕包机自主进行管路循迹。进一步的，步骤1中，为了实现管路循迹的功能，提前知晓绕包设备接下来的位置信息，针对不同规则形状的弯管，绕包设备在绕包的过程中提前知道管子的偏转方向及偏转角度，激光传感器发射出来的激光与水平面呈45°，4个激光传感器均匀分布在绕包机转盘上。进一步的，步骤2中，激光传感器得到的数据是激光传感器与障碍物之间的直线距离，为了得到距离与偏转角度之间的关系，建立一个数学模型来找出距离与偏转角度之间的几何关系。</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>{[188, 204],方法},{[206, 294],效果},方案优点</t>
+          <t>{[17, 26],方法},{[30, 42],效果},方案优点</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{[3, 78],方法},{[85, 110],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>{[116, 132],方法},{[140, 175],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[222, 225],方法},{[227, 243],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种警示作用好方便施工的桥梁支撑托架，以解决上述背景技术中提出的问题。作为本发明再进一步的方案：所述升降筒的两侧壁下部开设有通槽，滑块的前端面两侧均通过转轴转动连接活动杆的一端，活动杆的另一端朝下倾斜穿过通槽并通过转轴转动连接支板一端上表面，支板的另一端通过转轴转动连接升降筒的侧壁下缘。作为本发明再进一步的方案：所述支板的下表面复合连接有多个防滑条。</t>
+          <t>发明内容为了解决上述问题，本发明提供了一种仿实木年轮炭的加工方法，其利用资源丰富、价格便宜的旋切碎单板，经特殊工艺处理，生产出端头具有实木年轮图案的木炭，该项技术能够满足因天然林禁伐导致的实木炭严重溃乏的问题，填补了国内木炭市场此方面的空白，具有广阔的发展前景。步骤3中为了粘贴牢固，每条胶带纸的横向间距为100mm。步骤4中涂胶量控制在150~180g/m2（单面）。</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>{[72, 73],部件},{[58, 68],位置},空间关系</t>
+          <t>{[169, 184],数值},{[163, 165],属性},参数关系</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{[0, 2],方法},{[8, 27],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>{[182, 184],部件},{[167, 174],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[153, 157],数值},{[148, 151],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>在本发明具体实施方式中，所述开合驱动机构包括气缸、水平滑轨、左滑块、右滑块、左L型曲柄、右L型曲柄，所述气缸和水平滑轨均固定在所述托架支撑板上，所述水平滑轨位于气缸的下方，所述气缸的活塞杆向下延伸，端头固定有连接板，所述左滑块和所述右滑块位于所述水平滑块上，所述左L型曲柄的两端分别铰接在所述左滑块和所述连接板的左下角，所述右L型曲柄的两端分别铰接在所述右滑块和所述连接板的右下角，所述左托臂连接在所述左滑块上，所述右托臂连接在所述右滑块上。在本发明具体实施方式中，所述左托臂和所述右托臂上沿长度方向分布有两个定位沟槽。这样的结构使得一个托架具有两对定位沟槽，能够同时输送两个晶圆盒，从而提高了晶圆盒转移的效率。在本发明具体实施方式中，所述左托臂和所述右托臂包括有定位条、支撑条，所述定位条固定在所述支撑条上，所述定位条上内侧具有条状缺口与所述支撑条的上表面形成所述台阶结构的所述定位沟槽，所述条状缺口的三个侧壁形成所述定位沟槽的槽壁。</t>
+          <t>发明内容提出了一种氧化亚铜纳米线材料的制备方法，尤其是一种利用氯化亚铜制备氧化亚铜纳米线的方法。本发明采用如下技术方案：一种氧化亚铜纳米线材料的制备方法，包括如下步骤：(1)将氯化铜溶液涂覆于铜箔表面，中和反应快速发生，将氯化亚铜从铜箔表面刮除收集；(2)将氢氧化钠、氯化钾与少许水加入到乙醇溶液中，通入氮气除氧，加入氯化亚铜粉末，封闭加热，反应生成氧化亚铜纳米线。步骤(1)中的氯化铜溶液浓度范围为0.01～1mol/L，溶剂为水、乙醇、丙醇、二氯甲烷、汽油、丁醇、丙酮、乙醚、乙醛、石油醚的一种或者混合溶液。步骤(1)中的中和反应温度为0～80℃。步骤(1)中的涂覆方法为滴涂、线棒涂膜法、喷涂法。步骤(2)中的氢氧化钠与氯化亚铜的质量比为0.5～2，氯化钾与氯化亚铜的质量比为0.6～1，水与乙醇的体积比为0.01～0.1。步骤(2)中的通入氮气除氧时间为10min～2h。步骤(2)中的加热温度为40～85℃，反应时间为8～24h。</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>{[365, 368],部件},{[357, 362],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>{[116, 118],部件},{[123, 127],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>{[110, 112],部件},{[123, 127],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>{[253, 258],部件},{[235, 249],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[87, 99],方法},{[110, 123],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>优选的，所述圆杆上螺纹套设有滑杆，两个滑杆相互靠近的一端分别延伸至两个凹槽外并分别与两个方形板固定连接。优选的，所述滑杆上开设有第二通孔，所述第二通孔的内壁上开设有内螺纹，所述圆杆上开设有外螺纹，所述圆杆与对应的第二通孔螺纹连接。优选的，所述横板的顶部对称固定安装有两个推杆电机，所述推杆电机的输出轴上固定安装有第二电机，所述第二电机的输出上固定安装有刀片。</t>
+          <t>发明内容本发明的目的是针对上述现有技术存在的不足而提供一种内掺入混凝土中，在混凝土凝结硬化过程中在其表面形成一层致密的薄膜，阻碍水分蒸发，抑制混凝土塑性收缩产生裂缝提高混凝土抗裂性能的专用外加剂及制备方法。本发明复合型混凝土抗裂剂可明显抑制混凝土表面水分蒸发，降低混凝土塑性收缩，抑制混凝土表面开裂，从而提高混凝土的耐久性。本发明目的通过以下技术方案来实现：一种复合型混凝土抗裂剂，包括以下质量百分比的各组分：聚丙二醇3～7％、聚乙烯醇7～10％、VAE乳液1～3％、消泡剂0.01％、纳米氧化锌10～15％、甲基硅酸钠3～5％，其余为水。</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>{[14, 15],部件},{[6, 11],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>{[135, 138],部件},{[121, 125],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>{[64, 67],部件},{[58, 60],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[92, 96],材料},{[82, 90],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>针对上述背景技术提出的不足，本发明提供了一种流动式市政信号灯，解决了上述背景技术提出的问题。本发明具备以下有益效果：1、该流动式市政信号灯，通过配重块、齿块、滑槽、支撑杆和拉块之间的相互配合，便于更好的将信号灯固定在道路的中间，使得信号灯在外力的作用下不会发生位置的偏移，避免了信号灯在外力的作用会发生位置的偏移，提高了信号灯移动后的稳定性。2、该流动式市政信号灯，通过移动杆、螺栓和螺母之间的相互配合，便于更好的调节信号灯箱所处的高度，使得驾驶人员能更加直观的观察信号灯上的指示灯，避免了驾驶人员无法有效的观察到信号灯上的指示灯，提高了信号灯的实用性。</t>
+          <t>发明内容针对现有技术存在的不足，本发明的目的在于提供一种高强度制备仿古木质材料的方法。并且在纳米二氧化硅溶液的选择上，优先选用纳米二氧化硅溶胶、亚硫酸1，3-丙烯酯、二异丙基亚硫酸盐、氢氧化钠、三甲基炔丙硅烷、N，N-三甲硅基二乙胺的混合物，通过该组合物的伸入，不仅仅能够提高木质材料本身的强度，还能提高变色的深度，这不是仅仅通过普通的纳米二氧化硅溶胶渗入能够达到的。而在金属盐溶液的选择上优选三氯化铁、高锰酸钾、氯化镁的混合物，本身纳米二氧化硅溶液的伸入就增加了木质材料变色的难度，因而在多次试验后，优选质量比为1∶3∶1的三氯化铁、高锰酸钾、氯化镁的混合物，能够达到最好的变色效果。</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>{[102, 104],部件},{[108, 112],位置},空间关系</t>
+          <t>{[117, 119],材料},{[136, 146],效果},材料优点</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>{[14, 16],方法},{[17, 44],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>{[173, 200],方法},{[242, 275],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[257, 261],数值},{[253, 255],属性},参数关系</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>本发明的目的是克服现有技术的不足，提供一种气缸盖罩的减振防松型连接结构，它通过花键轴使螺杆与锁紧部一体连接，避免了锁紧部产生松动且它的结构稳定，通过减震垫可大幅降低气缸盖、气缸盖罩与螺栓之间的振动。本发明解决所述技术问题的方案是：一种气缸盖罩的减振防松型连接结构，包括气缸盖和设置在气缸盖上方的气缸盖罩，所述气缸盖的上端平面上成型有多个上小下大的台阶孔，所述气缸盖罩的下端外壁上的凸缘上成型有多个与台阶孔一一对应的通孔，气缸盖罩的下端面与凸缘的下底面齐平设置；所述台阶孔与通孔内套接有衬套，衬套内套接有螺杆，螺杆的下端固定有与其偏心设置的圆台，圆台远离螺杆的一端插入到台阶孔的大端孔内；所述衬套穿过通孔的上伸出端的外壁上成型有外翻边，外翻边与凸缘的上底面之间夹持有减震垫；所述外翻边的上方设有锁紧部，所述锁紧部的内部成型有同轴心设置的花键通孔和螺纹孔，螺纹孔螺接在螺杆的上端，所述螺杆的上端成型有同轴心设置的花键沉孔和限位孔，所述花键通孔内套接有花键轴，花键轴的下端插套在花键沉孔内，所述花键轴的下端成型有与限位孔过盈配合的固定轴，固定轴插套在限位孔。</t>
+          <t>发明内容本发明的目的是提出一种复合材料机身加强筋的成型方法，保证复合材料加强筋的成型质量(尤其是零件厚度和表面质量)，同时简化成型工艺、缩短制造周期并降低制造成本。本发明的技术解决方案是：(1)按照复合材料机身加强筋的制造技术指标设计并制造加强筋成型工装；(2)按照复合材料机身加强筋的制造技术指标准备预浸料自动下料文件和激光投影文件，复合材料机身加强筋的缘条和腹板的非0度铺层及缘条的0度铺层采用预浸料自动下料，并在激光投影辅助下进行手工铺贴；(3)0度铺层的腹板使用自动铺丝工艺的预浸料，按照激光投影进行手工铺贴，其中后一个0度铺层的拼接缝与前一个0度铺层的拼接缝必须错开；(4)重复步骤2和3，每铺贴1～3层抽一次真空，直至所有铺层均完成铺贴；然后进行封装、固化及后续加工和检测。复合材料机身加强筋的截面是Z形、L形或J形。所述的后一个0度铺层的拼接缝与前一个0度铺层的拼接缝错开的距离为自动铺丝工艺的预浸料宽度的一半。</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>{[17, 34],方法},{[7, 15],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>{[154, 156],部件},{[158, 162],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>{[115, 130],部件},{[132, 150],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>{[37, 52],方法},{[54, 70],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[25, 28],方法},{[61, 66],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>优选的，所述冷却管为扁平管，且由铜材料制成，且与冷却管焊接的凝水片也由铜制成。优选的，所述冷却漏水板，由多块铝片组合而成，铝片水平于聚液板上开有的口，且铝片层层叠放，铝片与铝片之间由两根铜管连接而成，且铝片上开有多个漏洞。优选的，所述电机转动部分通过转动杆焊接有桨叶。</t>
+          <t>发明内容针对现有技术存在的问题，本发明旨在提供一种净水材料的制备方法，可以用于净化水中存在的有机污染物。该净水材料可以吸附水中的有机物并在光照下使之降解，适用于各种水污染净化领域。一种净水材料的制备方法，包括以下制备步骤：步骤1：制备Fe修饰ZSM-51.1在烧瓶中加入500mL的0.1mol/L氯化铁溶液，用0.2mol/L盐酸溶液调节使最终溶液的pH值为3，再加入30gZSM-5分子筛；1.2将上述混合物加热至80℃，在此温度回流3h，然后冷却，过滤，用去离子水冲洗，得到滤饼A；1.3将滤饼A在200℃干燥35h，然后在350℃煅烧4h，冷却至室温，得到Fe修饰ZSM-5。步骤2：配制钙溶液2.1在烧杯中加入120~170mL的0.2mol/L氯化钙溶液、6~9g乙二胺四乙酸，搅拌使之形成透明溶液A；2.2向溶液A中再加入5~7g碳酸氢钠，搅拌使之形成透明溶液，制得钙溶液。</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>{[131, 132],部件},{[117, 122],位置},空间关系</t>
+          <t>{[164, 167],材料},{[176, 180],效果},材料优点</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>{[30, 32],部件},{[24, 26],零件},部分关系</t>
+          <t>{[53, 56],材料},{[59, 75],效果},材料优点</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{[52, 55],部件},{[45, 49],零件},部分关系</t>
+          <t>{[149, 153],材料},{[176, 180],效果},材料优点</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>本发明的目的是针对现有技术的不足以及性质的欠缺，基于简单、快速的超声以及刻蚀方法提出了一种铜镓铟三元多晶材料的合成方法及其应用。所合成的材料，尤其是以泡沫铜为基材合成的铜镓铟三元多晶材料，展现了良好二氧化碳电催化还原成一氧化碳的能力，对比商用的铜基底和液态金属本身，可直接作为电极使用，催化性能有了大幅提升。本发明的目的是通过以下技术方案实现的：一种三元铜镓铟多晶材料的合成方法，包括以下步骤：(1)将铜片浸没于二元镓铟液态金属中，搅拌20～120min，取出得到表面粘有均匀二元镓铟液态金属的铜片。(2)将步骤(1)中得到的表面粘有均匀二元镓铟液态金属的铜片浸没于0.05～1M氢氧化钾溶液中超声3～10min，待溶液浑浊后，将铜片取出，用去离子水冲洗，得到银灰色的铜片。</t>
+          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种玻璃搬运器。作为上述技术方案的进一步描述：两个所述丝杆上均螺纹套接有连接块，所述L形固定板的外壁上均固定连接有伺服电机，且伺服电机与丝杆远离第二机械臂的一端固定连接。作为上述技术方案的进一步描述：所述连接块的底部中心处固定连接有推杆，且推杆远离连接块的端部固定连接有U形夹板。</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>{[283, 289],数值},{[267, 276],属性},参数关系</t>
+          <t>{[32, 36],方法},{[13, 24],效果},方案优点</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{[43, 62],方法},{[7, 39],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>{[84, 92],材料},{[94, 115],效果},材料优点</t>
-        </is>
-      </c>
+          <t>{[57, 58],部件},{[66, 68],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>发明内容针对上述存在的技术不足，本发明的目的是提供一种治疗哮喘的中药，对于寒性哮喘的治疗具有疗效明显、无毒副作用等优点，可以长期使用。为解决上述技术问题，本发明采用如下技术方案：一种治疗哮喘的中药，由以下重量份的原料制备而成：瓜萎5-15，柴胡3-10，人参5-20，黄芩5-15，甘草8-15，姜半夏8-12，老生姜5-15，大枣3-15，黑芝麻10-15；优选地，所述中药为胶囊制剂。本发明的有益效果在于：对于寒性哮喘的治疗具有疗效明显、无毒副作用优点，可以长期使用。</t>
+          <t>发明内容本发明意在提供一种用于固定持续负压引流装置的设备，以解决现有技术中取下空针后需要再次使用胶带固定空针，导致操作麻烦和治疗成本增加的问题。为了达到上述目的，本发明提供如下技术方案：一种用于固定持续负压引流装置的设备，包括松紧带，松紧带端部设置有魔术贴，松紧带上设置有套筒，套筒内横向滑动设置有夹板，夹板一侧连接有推杆，推杆自由端铰接有连杆，连杆自由端设置有滑杆，套筒一侧设置有底板，底板上竖向设置有限位槽，限位槽内倾斜设置有导向槽，导向槽低端靠近套筒，限位槽内滑动设置有滑板，滑板底部连接有驱动杆，滑板上倾斜设置有条形孔，条形孔的倾斜方向与导向槽相反，滑杆滑动连接在条形孔和导向槽内。本方案的原理为：套筒用于插设空针，夹板用于夹紧空针，从而将空针固定在套筒内，松紧带用于捆绑在患者头部，魔术贴用于固定松紧带，从而将整个装置固定在患者头部。</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>{[115, 118],数值},{[113, 114],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>{[129, 132],数值},{[127, 128],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>{[136, 140],数值},{[134, 135],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>{[122, 125],数值},{[120, 121],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>{[25, 33],材料},{[35, 65],效果},材料优点</t>
-        </is>
-      </c>
+          <t>{[113, 115],部件},{[125, 127],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种用于微距摄影的环形灯，以解决上述背景技术中提出的问题。优选的，所述滑块的两侧均螺纹穿插连接有螺栓，所述螺栓的一端与滑轨的两侧相贴合。优选的，所述第一连接杆的底端固定连接有圆板，所述圆板的底端呈环形阵列固定连接有三个支腿，相邻所述支腿之间固定连接有加强筋。</t>
+          <t>发明内容本发明的目的：给出了一种柔性电缆/管路过运动转轴的安装方案，该安装方案能够保证电缆/管路运动过程中不会与转轴产生干涉，解决电缆电缆/管路的磨损问题。进一步的，所述卡箍7将柔性电缆/管路4固定在挡板6上，使得转动部转动过程中，位于卡箍7固定下的电缆/管路与挡板6无相对运动，以防止电缆/管路与挡板6磨损。进一步的，所述柔性电缆/管路转动过程中的会发生弯曲或搓动，卡箍7将柔性电缆/管路4固定在挡板6上，且卡箍7与第一设备5之间的电缆/管路留出一定的余量，供转动过程中进行补偿。</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>{[0, 2],方法},{[8, 21],效果},方案优点</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>{[97, 98],部件},{[82, 91],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>{[58, 59],部件},{[45, 49],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[29, 32],方法},{[63, 76],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>针对现有技术中存在的问题，本发明提供一种抗辐照高压驱动电路，结构简单，设计合理，能够提供连续稳定的高压浮动电源，很好地实现了电机驱动器的持续高压驱动。本发明是通过以下技术方案来实现：一种抗辐照高压驱动电路，包括电平转换单元和驱动单元；所述的电平转换单元包括电阻R1、电阻R2、N沟道VDMOST1和双极NPN晶体管Q1；所述的驱动单元包括二极管D1、电容C1、稳压管D2、电阻R3和驱动芯片；输入信号VIN经电阻R1分别与N沟道VDMOST1的栅极和双极NPN晶体管Q1的集电极相连；N沟道VDMOST1的源极和双极NPN晶体管Q1的基极与电阻R2的一端相连，电阻R2另一端和双极NPN晶体管Q1的发射极连接地；N沟道VDMOST1的漏极连接驱动芯片的输入端；电源电压VDD连接二极管D1的阳极，二极管D1的阴极连接电容C1的一端、电阻R3的一端及驱动芯片的VDD端；电容C1的另一端连接稳压管D2的阳极且与驱动芯片的VSS连接至输出VS，电阻R3的另一端连接稳压管D2的阴极且连接驱动芯片的输入端；驱动芯片的输出为高压驱动电路的输出HO。优选的，所述的驱动芯片为抗辐照MOSFET驱动芯片。</t>
+          <t>发明内容本发明的目的是：为了解决现有技术深长柱面密封内孔圆柱度难以大幅提高的问题，本发明提出一种在数控加工中心上快速精密铰削后，再进行手工精密研磨的方法，改变以往加工效率低与研磨前孔径一致性差、接刀明显现象，并大幅提高深长孔铰削圆柱度；同时改进手工柔性微量研磨的加工方法，改变以往常出现的卡滞、局部损伤与研磨浮动量过大破坏圆柱度精度的问题，实现深长内孔精密研磨，大幅提高圆柱度等级。本发明的技术方案是：一种深长柱面密封内孔的加工方法，包括如下步骤：步骤1：零件粗加工与去应力时效；步骤2：精加工零件外形与沟通孔；步骤3：精研安装定位面步骤4：粗铰柱面密封内孔；</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>{[90, 101],部件},{[105, 115],零件},部分关系</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>{[477, 480],材料},{[482, 484],效果},材料优点</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>{[16, 28],方法},{[30, 73],效果},方案优点</t>
-        </is>
-      </c>
+          <t>{[203, 215],方法},{[14, 39],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>优选的，所述胶皮卷轴通过卷轴支撑杆与底板相连接。优选的，所述张紧机构包括张紧轴以及支撑板。优选的，所述气缸位于支撑架下端面中间部位。</t>
+          <t>发明内容针对现有技术的不足，本发明提供了一种一体式预制污水提升泵站，解决了杂物吸附在内壁上，影响正常使用的问题。为实现以上目的，本发明通过以下技术方案予以实现：一种一体式预制污水提升泵站，包括箱体，所述箱体内壁的顶部固定连接有内箱，并且内箱内壁底部的一侧固定连接有电机，所述内箱内壁的顶部转动连接有活动杆，所述活动杆的底端贯穿内箱并延伸至内箱的底部，所述电机输出轴的端固定连接有固定杆，并且固定杆的一端与内箱内壁的一侧转动连接，所述固定杆的表面固定连接有涡轮，并且活动杆的表面固定连接有与涡轮相啮合的蜗杆套筒，所述活动杆延伸至内箱底部的一端固定连接有透水板，并且透水板底部的两侧均固定连接有固定板，两个所述固定板相背离的一侧均固定连接有毛刷。优选的，所述箱体内壁的两侧均固定连接有卡板，并且透水板的表面与卡板的内部活动连接。</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>{[30, 33],部件},{[36, 43],零件},部分关系</t>
+          <t>{[96, 97],部件},{[113, 114],零件},部分关系</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>{[6, 9],部件},{[10, 22],位置},空间关系</t>
+          <t>{[96, 97],部件},{[132, 133],零件},部分关系</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{[49, 52],部件},{[55, 64],位置},空间关系</t>
+          <t>{[96, 97],部件},{[149, 151],零件},部分关系</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>优选的，所述螺栓固定槽设有圆弧固定槽。优选的，所述两侧面导丝槽设有上下五组导丝槽。优选的，所述上下五组导丝槽设有圆形导丝槽与防脱丝钩。</t>
+          <t>发明内容本发明的目的就在于为了解决上述问题而提供一种车载灭火器夹具工装。本发明通过以下技术方案来实现上述目的，一种车载灭火器夹具工装，包括固定底座，所述固定底座上设有夹板，所述固定底座底部设有两个可移动的固定夹，所述固定夹底部设有导向槽，所述固定底座内设有限位槽，所述固定底座底表面设有轴通槽，所述限位槽和所述轴通槽分别沿所述固定底座轴向分布，所述限位槽和所述轴通槽连通，所述固定夹正上方设有限位条，所述固定夹上表面设有连轴，所述限位条通过所述连轴固定在所述固定夹正上方，所述限位条嵌在所述限位槽内，所述连轴贯穿所述轴通槽，所述固定底座上设有夹板槽，所述夹板包括左夹板、右夹板和焊接板，所述左夹板和所述右夹板分别通过铰链接固定在所述焊接板上，所述焊接板底部设有第二弹簧柱，所述第二弹簧柱底部固定在所述夹板槽底表面。优选地，所述夹板为弧形凹槽结构，所述夹板上水平设有若干固定带。优选地，所述固定带至少为两个，所述固定带为弹簧圈。</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>{[56, 65],部件},{[48, 53],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>{[13, 17],部件},{[6, 10],位置},空间关系</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>{[33, 39],部件},{[25, 30],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[83, 84],部件},{[76, 79],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>进一步，所述标志牌盒可沿水平直径方向打开，上下两部分依靠一侧合页相连，另一侧设置有安全锁。进一步，所述标志牌盒内部由内隔板分成若干收纳格，其中正面第一个收纳格为主收纳格，其余为副收纳格，主收纳格内的标志牌用于显示交通信息，副收纳格内的标志牌为备用标志牌，所述标志牌盒的厚度可根据收纳格的数量进行调整，每个收纳格的厚度应与标志牌的厚度相匹配，其中标志牌厚度一般不超过7mm，内隔板的厚度一般不超过5mm，副标志牌收纳格数量一般不少于2个。</t>
+          <t>发明内容针对上述问题，本发明旨在提供一种高精度的水位检测系统。本发明创造的目的通过以下技术方案实现：一种高精度的水位检测系统，包括图像采集模块、数据传输模块、水位检测终端和报警模块，所述图像采集模块包括水位测量标尺、摄像机和定位单元，所述水位测量标尺竖直放置于水中，所述摄像机用于对所述水位测量标尺在水位上的部分进行拍摄，以获得水上标尺图像，所述定位单元用于提供获得的水上标尺图像的位置信息，将获得的水上标尺图像和所述位置信息通过数据传输模块传输至水位检测终端，所述水位检测终端用于对水上标尺图像进行图像处理，以获得当前的水位值，并对所述水位值和水位值的位置信息进行实时显示，所述报警模块用于当获得的水位值达到预设的警戒值时进行报警。本发明创造的有益效果：提供一种基于图像处理技术的水位检测系统，将图像处理技术和水位检测相结合，克服了传统方法中需要人为查看标杆上的刻度、操作不便以及误差较大的问题，实现了对水位的实时、自动检测，从而提高了水位检测的安全性。</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>{[197, 199],数值},{[186, 191],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>{[182, 184],数值},{[172, 176],属性},参数关系</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>{[41, 43],部件},{[35, 37],位置},空间关系</t>
-        </is>
-      </c>
+          <t>{[50, 61],方法},{[364, 427],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>在一个优选地实施方式中，所述支撑杆与第一固定块连接处设有轴承，所述支撑杆与底板连接处设有轴承。在一个优选地实施方式中，所述横杆两端均设有支撑柱，所述横杆两端均与支撑柱外壁一侧固定连接。在一个优选地实施方式中，所述支撑柱的数量设置为两个，两个所述支撑柱对称分布于底板底端。</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr"/>
+          <t>发明内容为了解决上述技术问题至少之一，本申请提供了一种尾浆变距疲劳试验装置，包括单耳组件、支撑座和底座，所述单耳组件包括相互连接的支臂和耳片，所述耳片上开设有连接孔，用于连接试验件；所述支撑座包括一体成型的上凸台和下凸台，所述上凸台用于固定所述试验件，所述下凸台与所述底座连接，所述支撑座与所述底座连接；所述底座与所述支撑座连接的一侧与另一侧之间的夹角呈预设角度。根据本申请的至少一个实施例，所述支臂的中心线与所述耳片的中心线位于同一直线上。根据本申请的至少一个实施例，所述上凸台上开设有多个第一安装孔，所述下凸台上开设有多个第二安装孔，所述第一安装孔用于连接所述试验件，所述第二安装孔用于与所述底座连接。根据本申请的至少一个实施例，所述第二安装孔与所述支撑座的中心所形成的直线与相邻最近的所述第一安装孔之间的夹角为4.84°。</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>{[27, 36],部件},{[40, 43],零件},部分关系</t>
+        </is>
+      </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>本发明提出的一种石材加工的多规格固定装置，解决了现有石材输送时没有较好的制动机构，从而不利于石材固定的问题。为了实现上述目的，本发明采用了如下技术方案：一种石材加工的多规格固定装置，包括放置板，所述放置板的顶部两侧焊接有支撑板，两个所述支撑板相互靠近的一侧转动连接有多个水平设置的转轴，位于正面所述转轴的外部固定套设有从动齿轮，所述从动齿轮的下方设有与放置板固定连接的驱动电机，所述驱动电机的输出轴末端固定连接有主动齿轮，且主动齿轮与从动齿轮啮合传动，所述转轴的外圈固定套设有链轮，所述链轮的外部套设有链条，所述转轴的外圈固定套设有两个输送轮，所述输送轮的上方设有与支撑板固定连接的推杆电机，所述推杆电机的输出轴末端固定连接有制动板，两个所述制动板相互靠近的一侧设有夹持辊，所述夹持辊的内部活动套设有多个缓冲机构。优选的，所述缓冲机构包括两个导向杆、固定轴和弹簧，所述固定轴活动套设在夹持辊的内部，所述固定轴伸出夹持辊内部的两侧活动套设有导向杆，所述固定轴和支撑板之间连接有套设在导向杆外圈的弹簧。优选的，所述固定轴的外圈固定套设有挡圈，所述夹持辊的内部开设有活动孔，且挡圈的外径大于活动孔的内径，所述固定轴贯穿活动孔。优选</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr"/>
+          <t>发明内容本发明所要解决的技术问题是针对上述现有技术提供一种包封模具及其包封方法，它能够解决使用传统包封工艺的产品在塑封过程中，产品单元的上表面由于塑封胶体回包产生的产品气泡问题。本发明解决上述问题所采用的技术方案为：一种包封模具，它包括下模组和上模组，所述上模组上设置有多个伸缩凸块，所述多个伸缩凸块的位置对应于单颗产品四周切割道。所述伸缩凸块连接空气压缩装置，通过气压控制其伸长或缩短。</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>{[122, 124],部件},{[137, 140],零件},部分关系</t>
+        </is>
+      </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>优选的，所述调节杆远离第二轴承的一端固定连接有转动把手。优选的，所述箱体外的上下两端对称固定连接有安装板，所述安装板上开设有通孔，所述通孔内插设有螺钉，所述螺钉的一端穿过通孔设置，并固定在墙壁内。优选的，所述转动把手上设有防滑纹。</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr"/>
+          <t>发明内容本发明的首要目的在于提供11-dehydroklaineanone在昆虫拒食中的应用。本发明的另一目的在于提供11-dehydroklaineanone在对昆虫有生长发育抑制活性的应用。本发明所采取的技术方案是：11-dehydroklaineanone在昆虫拒食中的应用。11-dehydroklaineanone在制备对昆虫有拒食活性药剂中的应用。11-dehydroklaineanone在制备对昆虫有生长发育抑制活性药剂中的应用。进一步的，所述的昆虫为鳞翅目昆虫和同翅目昆虫的至少一种。进一步的，所述的昆虫为夜蛾科、菜蛾科和蚜科昆虫的至少一种。11-dehydroklaineanone在制备抑制昆虫生殖细胞增殖的药剂中的应用。进一步的，所述的昆虫生殖细胞为斜纹夜蛾卵巢细胞、小菜蛾胚胎细胞。一种能在植物内输导的昆虫拒食剂，活性成分包括11-dehydroklaineanone。</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>{[234, 238],部件},{[231, 232],零件},部分关系</t>
+        </is>
+      </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种阀板的打磨装置，以解决上述背景技术中提出的问题，本发明结构合理，使用稳固，除尘效果好，打磨效率高。进一步地，所述固定盘下侧设置有固定壳，所述固定壳内部设置有第一电机，所述第一电机上端面连接有转轴，所述转轴上端面连接有限位盖。进一步地，所述支腿设置有两个，且两个支腿的规格相同，两个支腿左右对称连接在工作台下端面。进一步地，所述卡槽上下两端面设置有齿牙，所述齿牙与齿轮相啮合。</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
+          <t>发明内容本发明的目的：拟在发动机中采用一种燃油收集装置，该装置安装于发动机燃油总管，主要在发动机停车燃油总管来油关闭后，燃油总管内的残余燃油由于热回流效应等不同原因造成燃油总管燃油膨胀时，对膨胀燃油进行收集，确保燃油总管的压力不超过喷嘴打开压力设定值，避免膨胀燃油进入燃烧室。本发明的技术方案：一种防止发动机燃油泄漏的燃油收集装置，包括管路、收集腔和伺服控制阀；伺服控制阀的阀套上开有为低压回油口A、燃油总管来油口B、伺服控制油口C、第二腔油口D和储油腔口E；收集腔内设置有活塞，活塞将收集腔分隔为左右两个腔，左腔为活塞控制腔，右腔为储油腔；活塞一侧延伸形成密封隔板，所述密封隔板位于活塞控制腔，且密封隔板将活塞控制腔分隔为第一腔和第二腔，第一腔与大气环境连通，第二腔通过管路连通所述第二腔油口，储油腔通过管路连通所述储油腔口；燃油总管来油口与燃油总管连通，低压回油口与回油管路连通，伺服控制油连通到伺服控制油口</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>{[21, 26],方法},{[126, 136],效果},方案优点</t>
+        </is>
+      </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>优选的，所述滑座和滑槽大小适配。优选的，所述推杆电机位于壳体上壁的位置与滑槽对应。优选的，所述转动轴上固定安装有多个对称分布的切割刀。</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
+          <t>发明内容本发明型的目的是：提出一种能够满足叶片榫齿及其他同类型不规则试样固定要求的扫描电子显微镜试验用样品承载夹具。本发明型的技术方案是：调节夹具包括底座与外框、双向调节螺纹杆、套筒，外框与底座为一体设计，底座与外框的上部分为外框，外框内腔为楔形中空结构，外框内腔上设有两组齿状卡勾，上组卡勾为尖齿，上组卡勾的齿尖间隔与异型样品的最大宽度相吻合，下组卡勾为方齿，下组卡勾齿端间隔宽度与异型样品的最小宽度相吻合；底座与外框的上下部分分隔面上开有螺纹孔，双向调节螺纹杆的上段穿过底座与外框的上下部分分隔面上的螺纹孔置于外框内腔中，双向螺纹杆的下端与电镜样品台直接旋紧连接，套筒套接在底座与外框的下部分，在夹具上安装异型样品时，两组齿状卡勾中的一组与双向调节螺纹杆同时与异型样品三向接触。所述异型样品为带榫齿的叶片。</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>{[135, 140],部件},{[128, 131],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>{[41, 56],材料},{[19, 39],效果},材料优点</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种计算机硬件维护用剥线装置。优选的，两个所述螺纹块的内侧壁螺纹方向相反。本发明的有益效果为：本发明中，通过转动手把、第一螺纹杆、螺纹块、固定板、切割刀环、放置板、滑动块、移动块、切割刀片、第二螺纹杆、滑动块之间的配合使用，实现了对连接线的快速剥开，解决了传统方式操作繁琐的问题，有效地提高了工作效率，避免了不必要的麻烦。</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
+          <t>发明内容基于传统的吊舱推进器单元结构上述问题，本发明提出来一种新型的吊舱推进器单元，将吊舱推进器的结构按功能性进行了组合式模块化设计。所述的一种船用吊舱推进器单元，其筋板上根据水动力设计核算要求，设置有方孔结构的横向导流孔，导流孔的开口尺寸在满足强度要求的前提下，增加开孔尺寸，以便于减小回转的转舵力矩。所述的一种船用吊舱推进器单元，其防水壳体和挂舵体顶盘之间的筋板与挂舵体前盖板和挂舵体顶盘之间的筋板彼此错位，即在轴线方向采用了“夹心式”安装结构，便于安装的同时，与有助于减小水流对于“排管”结构的冲击。</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>{[106, 110],材料},{[142, 150],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>{[181, 182],材料},{[237, 252],效果},材料优点</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>发明内容本发明提出的一种鞋类设计用皮革裁剪设备，解决了机械裁剪时容易割坏机器的问题。优选的，所述切割台主体的顶部内壁固定连接有两个套筒，所述套筒内部设有第二弹簧。优选的，所述安装架的两侧底部分别套接在套筒的顶部内圈里，所述第二弹簧的顶端固定连接在安装架的底部。</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
+          <t>发明内容本发明要解决的技术问题是：克服现有技术的不足，提供一种铅和锌金属浸出工艺用的浸出釜。本发明解决其技术问题所采用的技术方案是：该浸出釜，包括设有夹套的釜体，其特征在于：包括设有夹套的釜体，其特征在于：所述的釜体的釜腔内设有两组搅拌桨；每个所述的搅拌桨均包括多层横向的搅拌页，两组搅拌桨的搅拌页上下交替设置；所述的搅拌桨均通过绝缘部件连接釜顶动力装置，各搅拌桨的上部均设有碳刷，碳刷上设有接线柱。本发明提供了一种能够同时进行浸出反应和电化学反应的浸出釜，在搅拌釜内直接以搅拌桨作为电极板，在接线柱分别接通正负电源后能够在搅拌釜内的浸出液中形成电化学反应的条件，使得矿石能够同时进行浸出液的浸出反应和电化学反应。</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>{[115, 118],部件},{[109, 111],位置},空间关系</t>
+        </is>
+      </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>本发明是为了解决智能电力仪表终端设备出现软件死机时，因系统中的硬件电路仍有电源在供电，导致常规的复位方式无法有效进行复位的问题，现提供一种可定时自动上下电控制电路。本发明所述的可定时自动上下电控制电路包括功率开关管开/关控制电路、定时电路、以及时间设定电路；所述的时间设定电路用于对定时电路的计时周期进行设定；所述的定时电路与时间设定电路连接，用于按照设定的计时周期自动控制功率开关管开/关控制电路中的功率开关管的导通与关断；所述的功率开关管开/关控制电路与定时电路连接，用于根据功率开关管的工作状态控制远程模块控制系统上电或断电。可选地，所述的定时电路包括第一定时电路与第二定时电路；所述第一定时电路采用包含振荡器单元和计数器的集成芯片实现，用于控制功率开关管开/关控制电路中的功率开关管的导通；所述第二定时电路采用具有三态输出的单路总线缓冲器芯片实现，用于控制功率开关管开/关控制电路中的功率开关管的关断。可选地，还包括线性稳压电路，所述线性稳压电路用于从直流供电电源取电、并为功率开关管开/关控制电路和定时电路提供3V3D上拉电源；所述的功率开关管开/关控制电路包括功率开关管Q1及引导其开/关的控制电路，所述的控制电</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr"/>
+          <t>发明内容针对有机絮凝剂絮体松散、沉降速率慢、pH适用范围窄等缺点，本发明目的在于提供一种两性有机高分子絮凝剂的制备方法。本发明的再一目的在于：提供一种上述方法制备的两性有机高分子絮凝剂产品。本发明的又一目的在于：提供一种上述产品的应用。</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>{[44, 53],材料},{[4, 31],效果},材料优点</t>
+        </is>
+      </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种套筒结构，能够实现对螺柱的锁付，结构简单，使用方便。为了实现上述目的，本发明采用如下的技术方案：一种套筒结构，用于锁付螺柱，所述套筒结构包括套筒本体，所述套筒本体具有相对设置的第一端及第二端；所述第一端与电批连接；所述第二端开设有内螺纹孔，所述内螺纹孔能够与所述螺柱之间螺纹配合；所述套筒本体的侧部开设有收容孔，所述收容孔与所述内螺纹孔连通；所述收容孔内设有垫片。进一步地，所述内螺纹孔的进口处设有导向孔。进一步地，所述导向孔为锥台形孔。进一步地，所述收容孔的中心轴线与所述内螺纹孔的中心轴线之间垂直设置。进一步地，所述垫片由多个薄垫片叠加组成。进一步地，所述第一端的端面开设有供所述电批的连接端伸入的安装孔，所述安装孔与所述收容孔及所述内螺纹孔隔开设置；所述安装孔的侧部开设有贯通的连接孔，所述连接孔内设有销钉，以锁紧连接所述电批的连接端及所述第一端。进一步地，所述安装孔的截面呈多边形。</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
+          <t>发明内容净水区设有多个取样口。四个基质层基质粒径由底至顶依层减小，选择吸附效果好、较大孔隙度的基质作为底部基质，选择吸附效果好、具有多孔结构的介质作为顶部基质。基质由底至顶依层设置不同厚度，不同粒径的基质层。</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>{[100, 102],部件},{[80, 81],零件},部分关系</t>
+        </is>
+      </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种公园健身用双人双位漫步机。为了实现上述目的，本发明采用了如下技术方案：一种公园健身用双人双位漫步机，包括支撑腿，所述支撑腿的侧壁安装有多个转动机构，多个所述转动机构的底部均固定安装有第一脚踏板，多个所述第一脚踏板内均开设有移动槽，多个所述第一脚踏板上均设置有第二脚踏板，多个所述第二脚踏板的端部均固定连接有移动板，多个所述移动板内均开设有固定槽，多个所述第一脚踏板的侧壁均贯穿设置有固定腔，多个所述固定腔内均设置有固定机构，多个所述第一脚踏板的侧壁均开设有限位槽，多个所述限位槽内均安装有限位机构，所述限位机构的侧壁与固定机构的侧壁相抵紧，所述支撑腿的上端安装有扶手。</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr"/>
+          <t>发明内容本发明采用了一种简单的加工方法，对TPV进行阻燃改性，从而获得了具有阻燃性能的TPV。相较于已有的阻燃TPV，其生产工序更加简单。本发明的目的是在PP/EPDM材料(TPV材料)中通过熔融共混的方法加入APP/PER膨胀阻燃体系，从而制得具有阻燃性能的TPV复合材料。本发明的目的是通过下述技术方案实现，具体包含下述步骤：将双辊开炼机升温至190-200℃，加入TPV材料，将TPV熔融塑化，然后加入膨胀阻燃剂聚磷酸铵APP/季戊四醇PER共混5-10min，再加入阻燃协效剂，一起共混15-20min，得到阻燃TPV复合材料。进一步的，所述TPV材料是经过动态硫化后的PP/EPDM弹性体。</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>{[43, 45],材料},{[36, 41],效果},材料优点</t>
+        </is>
+      </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种快速拆装连接方式房车窗户，以解决上述背景技术中提出的问题。优选的，所述内框上设有与猛钢弹片相插接的锥形插口。优选的，所述外框固定座上设有与安装压块上的插接凸起相插接的凹槽。优选的，所述猛钢弹片插接于弹片固定型材上，所述猛钢弹片以及弹片固定型材通过弹片固定铝材螺丝固定在外框固定座上，所述外框固定座与弹片固定型材螺接固定形成7字型。</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
+          <t>发明内容为解决上述问题，本发明提供了一种湿法炼铟的稀浸液方法，本发明通过使用氧化镁提高稀浸液步骤溶液的pH，没有增加反应体系的体积，从而大大降低了污水的排放，并为实现不增加反应体系不排放废水的封闭炼铟方式提供了基础。为达到上述技术效果，本发明的技术方案是：一种湿法炼铟的稀浸液方法，包括如下步骤：步骤一、在稀硫酸浸出液中加入氧化镁，使得稀硫酸浸出液pH为0.8-1.5将稀硫酸浸出液中的杂质成分浸出得到沉淀杂质和净化后的稀硫酸浸出液；步骤二、通过压滤将沉淀杂质和净化后的稀硫酸浸出液分离。进一步的改进，所述沉淀杂质为锡、铋、锑。</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>{[36, 52],方法},{[54, 64],效果},方案优点</t>
+        </is>
+      </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>本发明的目的是为了解决现有技术中由于挡板通过连接件固定在桥梁的混凝土上，安装和拆卸比较麻烦，从而导致工作效率比较低，不便于人们使用的问题，而提出的一种混凝土工程伸缩缝垂直止水结构。为了实现上述目的，本发明采用了如下技术方案：一种混凝土工程伸缩缝垂直止水结构，包括设置在两个梁端部之间两个支撑板，两个所述支撑板之间设有开设有设有止水带，且止水带的两侧分别与两个支撑板的侧壁固定连接设置，两个所述支撑板的底部均固定连接有连接板，且两个连接板分别与两个梁端部相接触设置，两个所述连接板之间对称设有多个弹性伸缩杆，且多个弹性伸缩杆的两端分别与两个连接板的侧壁固定连接设置，且两个连接板之间设有调节机构。</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr"/>
+          <t>发明内容本发明的目的是：本发明解决了锁扣销钉在高频感应钎焊中不能装置不能快速的将零件和工装从线圈中分离出来，容易造成零件的过烧的问题，同时也解决了目前焊接方法容易出现润湿不良好，焊缝不均匀，气孔等缺陷等问题。本发明的技术方案是：一种锁扣销钉焊接装置，包括陶瓷座1、升降杆2、脚踏连杆3、支座4、转轴5、复位弹簧6、感应线圈8、加热开关10和工作台9；升降杆2、脚踏连杆3、支座4、转轴5和复位弹簧6均安装在所述工作台9内部；支座4与工作台固定连接或一体形成，脚踏连杆3可转动的支撑在支座4上，且脚踏连杆3一端延伸到工作台外部并形成踏板，另一端与升降杆2下部通过转轴联接；</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>{[116, 123],部件},{[127, 129],零件},部分关系</t>
+        </is>
+      </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>本发明就是为了解决上述背景技术的问题，其提供了一种高纯度盐酸贝尼地平的制备方法。为此，本发明提供了一种高纯度盐酸贝尼地平的制备方法，具体包含以下步骤：（1）在温度为20～30℃的碱性条件下使2,6-二甲基-4-(间硝基苯基)-1,4-二氢吡啶-5-羧酸甲酯-3-羧酸与氯磷酸酯反应，生成混酸酐；（2）将步骤（1）得到的混酸酐与N-苄基-3-羟基哌啶反应，制得贝尼地平溶液；（3）将贝尼地平溶液用活性炭脱色；（4）将步骤（3）中脱色后的贝尼地平用二氯甲烷溶解，依次用NaOH溶液、水、盐酸和水洗涤，干燥得盐酸贝尼地平粗品；（5）将步骤（4）中的盐酸贝尼地平粗品溶解在乙醇和丙酮的混合液中后，回流、降温、搅拌，析出盐酸贝尼地平纯品。优选地，步骤（1）中2,6-二甲基-4-(间硝基苯基)-1,4-二氢吡啶-5-羧酸甲酯-3-羧酸与氯磷酸酯的摩尔比为1：（1～1.6）。</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr"/>
+          <t xml:space="preserve">发明内容本发明所要解决的技术问题是：提供一种能有效的获得粘度满足要求的用于特低粘羟乙基纤维素的制备方法。为解决上述技术问题所采用的技术方案是：一种用于特低粘羟乙基纤维素的制备方法，所述的制备方法通过将粘度不低于5000mpa.s(2％,25℃,LVT)的羟乙基纤维素在碱浓度不低于0.50％、双氧水浓度不低于0.6％的反应溶液中，在搅拌条件下以不低于50℃的反应温反应25min以上获得粘度符合要示的特低粘羟乙基纤维素。进一步的是，所述反应溶液的碱浓度在0.5％～1％之间。进一步的是，所述反应溶液的双氧水浓度在0.6％～0.8％之间。进一步的是，所述的反应温度在50℃～60℃之间。
+</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>{[85, 88],方法},{[41, 45],效果},方案优点</t>
+        </is>
+      </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种用于卷辊芯轴插拔的机器人全自动抓手。为了实现上述目的，本发明采用了如下技术方案：一种用于卷辊芯轴插拔的机器人全自动抓手，包括抓勾板，所述抓勾板的上端固定连接有气压缸，所述气压缸向下延伸有气压杆，所述气压杆的下端固定连接有连接块，所述连接块的下端固定连接有聚氨脂板，所述聚氨脂板的下方设置有芯轴棒，所述抓勾板的下端固定连接有横杆，所述横杆的上端中部在芯轴棒的下方依次固定连接有检测机构和定位机构，所述检测机构和定位机构的两侧均设置有Z形承重板，所述Z形承重板的上端个设置有滑槽，所述连接块的侧壁固定连接有承重柱，所述承重柱贯穿Z形承重板上端的滑槽，所述Z形承重板的下端设置有滚轮。作为上述技术方案的进一步描述：所述检测机构包括检测支架，所述检测支架的中部上端固定连接有检测块。作为上述技术方案的进一步描述：所述检测支架的两端均设置有长通孔，所述长通孔中设置有第一螺栓且通过第一螺栓检测支架与横杆固定连接。作为上述技术方案的进一步描述：所述定位机构包括定位支架，所述定位支架的中部上端规定那个连接有指针。作为上述技术方案的进一步描述：所述定位支架的两端均通过第二螺栓与横杆</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
+          <t>发明内容本发明要解决的技术问题是：克服现有技术的不足，提供一种浸取装置，能够在搅拌容器中形成电化学反应的条件，使得矿石能够同时进行浸出反应和电化学反应，浸出效率更高。本发明解决其技术问题所采用的技术方案是：该浸取装置，其特征在于：包括搅拌容器和搅拌动力装置，搅拌容器的外侧壁设有夹套，在搅拌容器内设有两个搅拌体，两个搅拌体的端部伸出搅拌容器并通过绝缘件连接搅拌动力装置，在搅拌容器的外部设有分别连接电源两极的两个接线柱，两个搅拌体的端部伸出搅拌容器后与接线柱连接。优选的，所述搅拌动力装置包括两个搅拌电机，每个搅拌电机的输出轴连接一个搅拌体的端部。优选的，所述搅拌容器上侧开口设置，在搅拌容器的上侧开口处固定有密封盖板，两个搅拌体横向设置在搅拌容器内。</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>{[139, 140],部件},{[134, 136],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>{[57, 58],材料},{[65, 74],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>{[31, 34],材料},{[38, 50],效果},材料优点</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>本发明的目的是提供一种脂溶性维生素自乳化组合物及其制剂的制备方法，解决目前市售口服维生素药物吸收慢，生物利用度低的问题。本发明解决上述技术问题是通过如下方案实现的：1、本发明公开了一种脂溶性维生素自乳化组合物及其制剂的制备方法，所述组合物由脂溶性维生素、油相、乳化剂、助乳化剂组成，将脂溶性维生素制成自乳化体系，能够有效的提高脂溶性维生素的生物利用度。2、本发明所述脂溶性维生素选自维生素D3，维生素K2，维生素A和维生素E中的一种或多种。</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr"/>
+          <t xml:space="preserve">发明内容本发明的第一目的是提供一种氧化石墨烯/壳聚糖季铵盐复合材料，所述氧化石墨烯/壳聚糖季铵盐复合材料为表面修饰壳聚糖季铵盐的氧化石墨烯。在本发明一个优选实施方式中，所述氧化石墨烯的尺寸为20～300nm，优选为200nm。在本发明一个优选实施方式中，所述壳聚糖季铵盐的重均分子量为10000～20000Da，优选为20000Da。在本发明一个优选实施方式中，所述氧化石墨烯与所述壳聚糖季铵盐的质量比为1:(0.5～1.5)，优选为1:1。
+</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>{[142, 154],数值},{[136, 140],属性},参数关系</t>
+        </is>
+      </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>本发明的目的就是克服现有技术中的不足，而设计一种能在一个教具中演示呼吸的全过程（包括全过程的四个部分（肺的通气、肺泡内的气体交换、气体在血液中运输、组织里的气体交换））的教学仪器。为了实现上述目的，本发明所采用的技术方案是：呼吸的全部四过程组合演示仪，由肺的通气演示器、气体交换和血液循环演示器、电源组成。所述肺的通气演示器位于所述呼吸的全部四过程组合演示仪的正面，所述气体交换和血液循环演示器位于所述呼吸的全部四过程组合演示仪的反面，所述电源位于所述呼吸的全部四过程组合演示仪的一侧。</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
+          <t>发明内容本发明的目的在于提供椎间孔镜穿刺定位器，以解决上述背景技术中提出的传统的穿刺定位装置，操作过程繁琐，难以使新手掌握穿刺的技巧以及难以调节孔镜穿刺针的位置，导致穿刺时间延长的问题。为实现上述目的，本发明提供如下技术方案：椎间孔镜穿刺定位器，包括主臂，所述主臂的顶部套设有第一套管，且主臂的底部设置有固定螺栓，所述第一套管的外壁安装有固紧栓，且第一套管的一侧设置有副臂，所述副臂的外部套设有滑管，所述滑管的底部安装有梁架，所述梁架的内部开设有滑槽，所述滑槽的内部设置有滑块，所述滑块的底部安装有支撑管，所述支撑管的外部套设有第二套管，所述第二套管的外部套设有第一定位块，所述第一定位块的前表面设置有第一定位管，且第一定位块与第一定位管通过转轴转动连接，所述第一定位块的一侧安装有第一伸缩杆，所述第一伸缩杆相对于第一定位块的一侧安装有第二伸缩杆，所述第二伸缩杆的顶部安装有第二定位块，且第二伸缩杆的下方设置有椎骨层，所述第二定位块的一侧设置有第二定位管。优选的，所述固定螺栓的底部套设有橡胶垫。</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>{[14, 22],材料},{[25, 52],效果},材料优点</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>{[144, 145],部件},{[152, 155],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>{[138, 141],部件},{[133, 134],位置},空间关系</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>一种根据发动机温度自动调节降温水流量的机构，其特征是包括，汽车大梁、发动机、回水管、流量调节阀、水箱、出水管、温控开关、电源线、电磁阀、回位弹簧、电磁阀铁芯、阀芯伸缩仓、阀芯；所述汽车大梁为长方形，左边顶端的上面垂直纵向设置了长方形的水箱，左边的中部横向设置了长方形的发动机；所述回水管为中空S型，左边与流量调节阀的右边连接，右边与发动机左边上方的进水口连接；所述温控开关为圆柱形、设置于发动机前面的中央，输入端通过圆形电源线与车载电源连接，输出端通过电源线与电磁阀连接。</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr"/>
+          <t>发明内容为了解决电子设备中高功耗的器件采用相变材料来储热时，存在邻近空间限制的问题，本发明提供一种分布式储热系统，可以克服此问题，同时具有良好的储热速率。本发明实施例提供一种分布式储热系统，所述系统包括至少两个储热单元(10)和至少两个导热板(20)，所述储热单元分别与对应的所述导热板接触，所述导热板之间通过热管(30)串联连接。可选的，所述储热单元(10)包括：金属壳体(18)和相变材料(19)，其中，所述相变材料封装在所述金属壳体内部。可选的，所述储热单元的个数不超过4个。</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>{[49, 55],方法},{[69, 75],效果},方案优点</t>
+        </is>
+      </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>本发明的目的是解决上述背景技术的不足，提供一种条件温和、操作方便、降解效率高的水处理方法，通过利用零价金属诱导低价铜再生从而催化活化过硫酸盐处理抗生素废水，克服了传统Fenton体系只能处理酸性废水、铁泥大量沉积、氧化剂利用率不足、Cu2+/Cu+转化效率低下等问题。一种利用零价金属强化铜活化过硫酸盐的水处理方法按照以下条件实施：1、处理前调整四环素水样pH分别为2、3、4、5、6、7、8、9、10；2、过硫酸盐(过硫酸氢钾，PMS)投量为0.25mmol/L；3、水样中二价铜离子初始浓度为10mmol/L；4、零价金属投量为0.2g/L。</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr"/>
+          <t>发明内容本发明所要解决的技术问题，是针对上述存在的技术不足，提供一种老年人清肺排痰装置。利用快速高频敲击与剪切增稠液的配合，更好的保护患者并传递振动，增强气道刺激，提高排痰治疗效果。本发明采用的技术方案是：提供一种老年人清肺排痰装置，包括佩戴单元、振动单元和吸痰单元；所述的佩戴单元包括定位板和环绕人体胸部的包裹衣；包裹衣的左右两端通过魔术贴连接；包裹衣外侧面的上下两端分别均匀固定有多个母扣；定位板的上下两端均安装有与母扣对应配合的子扣；定位板后端设置有保护袋；保护袋上端与定位板上侧固定连接；保护袋内均匀缝制有若干个袋腔；袋腔内填充有剪切增稠液；定位板上前后贯穿设置有多个螺纹孔；所述的振动单元包括与螺纹孔螺纹连接的安装管；安装管内前部固定安装有电磁铁；电磁铁后端固定连接有压簧；压簧的后端固定连接有敲击柱；敲击柱的前端中部垂直设置有铁质的调节杆；所述的吸痰单元包括工具台和负压泵；工具台上端安装有吸痰盒；负压泵的吸气端与吸痰盒上部连通；吸痰盒上部连通有吸痰管；吸痰管的头部外围均匀连接有橡胶管；橡胶管内填充有磁粉。</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>{[37, 42],材料},{[75, 80],效果},材料优点</t>
+        </is>
+      </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>本发明所要解决的技术问题在于克服现有技术的上述不足，提供一种可有效降低组装难度，保持密封稳定效果的车灯调光结构。其所要解决的技术问题可以通过以下技术方案来实施。一种车灯调光结构，其特点为，包括一调光螺钉，所述调光螺钉经其连接螺纹与车灯灯体直接或间接连接；还包括一套接于所述调节螺钉头部的套接件，所述套接件可拆卸的连接于调光支架上，与所述调光螺钉头部调节槽所处位置相对应，所述套接件上开设有便于调节工具伸入该调节槽内的避让部。作为本技术方案的进一步改进，所述套接件为一转动连接件，所述转动连接件至少包括一第一转动位和一第二转动位，所述转动连接件转动到所述第一转动位时，所述转动连接件与所述调光支架相连接，所述转动连接件转动到所述第二转动位时，所述转动连接件与所述调光支架相分离。作为本发明的优选实施例，所述调节螺钉的杆体上设有沿径向向外凸起的限位挡圈，所述限位挡圈设于所述调节螺纹靠近调节螺钉头部一侧的螺纹末端位。也作为本技术方案的进一步改进，所述调光螺钉经一联动杆与所述车灯灯体相连。</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr"/>
+          <t>发明内容本发明克服现有技术存在的不足，为了解决现有试验方法对仪器要求高、在特殊场所难以进行等问题，提出一种灵活方便、适用范围广、节约成本的大容量电力设备交流耐压试验方法。为了解决上述技术问题，本发明采用的技术方案为：一种大容量电力设备交流耐压试验方法，通过给待测设备串联一个串联电抗器组，同时在待测设备两端并联一个并联补偿电抗器组实现大容量电力设备交流耐压试验，所述串联电抗器组和并联电抗器组均为多个单个电抗器并联和串联组合后形成的电抗器组。所述的一种大容量电力设备交流耐压试验方法，包括如下步骤：S1、测量待测设备的电容值Cx，并根据公式Icx=2πfCxUc估算待测设备的容性电流Icx，其中，f表示试验频率，取值范围为45~55Hz，Uc表示试验电压值；S2、选配串联电抗器组，并确定选配好的串联电抗器组的电抗值Lc以及电流值IC；S3、计算并联补偿电抗器组的电抗值Lb的理论值和电流值Ib；S4、根据并联补偿电抗器组的电抗值Lb的理论值和电流值Ib，选配并联补偿电抗器组；S5、根据实际选配的串联电抗器组和并联补偿电抗器组的电抗值，待测设备的电容值和试验电压计算试验频率、试验电流，并判断其是否满足试验要求；核算变频</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>{[80, 83],方法},{[64, 71],效果},方案优点</t>
+        </is>
+      </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>本发明的目的是提供一种用于杨梅酒发酵用具有密封作用的加料机构，解决了现有技术中管道相对发酵罐处于固定状态，管道在加入白酒和蔗糖溶液时，添加溶剂处于发酵液的某个区域内，分散不均匀，导致添加的白酒和蔗糖溶液套有杨梅酒混合程度较低，加长杨梅酒的发酵时间，影响杨梅酒的品质的问题。为了实现上述目的，本发明采用了如下技术方案：一种用于杨梅酒发酵用具有密封作用的加料机构，包括罐体，罐体的内部设有一端贯穿罐体顶部呈中空状态的插杆，插杆的表面位于罐体的外侧处设有手把环，手把环和罐体之间设有螺纹套，螺纹套套接于插杆的表面，插杆的底部开设有若干个呈中心对称分布的转动槽，每个转动槽的内部通过转轴转动连接有一个摆动杆，摆动杆的内部开设有通道，通道与插杆之间通过软管连通，插杆包括螺纹段和平直段。优选的，当摆动杆转动至转动槽顶部时，摆动杆转动的角度为45度。优选的，螺纹段的长度为插杆长度的一半。优选的，螺纹段表面的螺牙与水平方向形成的锐角为30度。优选的，插杆的顶部固定连接有漏斗。优选的，摆动杆的两端均设有圆角。本发明至少具备以下有益效果：使用插杆插入罐体内部，摆动杆转动，变成“伞状”，再将需要添加的溶剂倒入插杆的内部，拉动手把环，手把环</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr"/>
+          <t>发明内容针对至少一些如上所述的技术问题，本发明旨在提出一种用于桥梁支座的调节装置。该调节装置不仅能够实现对桥梁支座运输与安装过程中的固定，而且还能够实现对桥梁支座的预偏量调节及再次调节。该调节装置安全性能高，施工效率高，施工成本低，并且通过预偏量调节能够有效避免在梁体内产生附加内力，从而减少对梁体造成不利影响，有效保证了桥梁支座的支撑性能。为此，根据本发明，提供了一种用于桥梁支座的调节装置，包括：用于配合安装桥梁支座的滑动板和支座板，所述桥梁支座安装在所述滑动板与所述支座板之间；预偏调整机构，包括与所述滑动板紧固连接的第一预偏调整板，以及与所述支座板紧固连接的第二预偏调整板；其中，在所述第一预偏调整板与所述第二预偏调整板之间设有传动组件，所述传动组件能够带动所述滑动板滑动，从而调节所述桥梁支座的预偏量。</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>{[36, 39],方法},{[50, 67],效果},方案优点</t>
+        </is>
+      </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种银耳鲜露饮料及其生产工艺，通过将红枣和枸杞经传统工艺长时间熬煮后提纯成汁来制备饮品，代替直接使用红枣和枸杞，以解决上述背景技术中提出的问题。优选的，步骤三中，先将上述制得的红枣汁和枸杞汁混合搅拌均匀，得到混合液，再将上述制得的糖汁加入混合液中搅拌均匀，得到营养配液。优选的，步骤四中，原料为银耳,选取优质的新鲜银耳，去杂和去掉银耳蒂部后进行清洗和切碎,得到20～40g的银耳备用。</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
+          <t>发明内容本发明的目的在于提供一种耐候反射隔热涂料，具有较好的耐候性。本发明的目的还在于提供一种耐候反射隔热涂料的制备方法，该制备方法简单，适于工业化生产。钛白粉和第二金红石型钛白粉组成，第一金红石型钛白粉的粒径小于第二金红石型钛白粉的粒径。</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>{[56, 59],方法},{[69, 75],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>{[18, 23],材料},{[27, 32],效果},材料优点</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>本发明的目的是为了解决现有技术中的垃圾存储装置不具备干湿分离功能，垃圾和污水混合在一起存放十分的容易滋生细菌污染环境，传播危害，且为了便于人们丢垃圾垃圾桶的上端一般是开口的，这导致垃圾存放的难闻气味会四处飘散，造成了市政环境污染，不便于实际使用的问题，而提出的一种用于城市道路清洁的垃圾存储装置。为了实现上述目的，本发明采用了如下技术方案：一种用于城市道路清洁的垃圾存储装置，包括U形防护板，所述U形防护板相对一侧竖直内壁均通过多个连接块固定连接有同一个外筒，所述外筒内活动套接有内筒，所述内筒的底部设为过滤网板，所述内筒的上端固定连接有卡接在外筒上端的定位环板，所述外筒的上端后侧固定连接有U形支架，所述U形支架相对一侧侧壁之间通过转轴转动连接有同一个连接板，所述连接板的侧壁固定连接有盖接在内筒上端的密封盖板，所述U形防护板水平部的上端前后对称固定连接有两个卡板，两个所述卡板之间通过转轴转动连接有同一根翘杆，所述翘杆的一端固定连接有踩踏板，所述翘杆的另一端转动连接有推拉杆，所述推拉杆的上端转动连接在连接板的下端。优选的，所述U形防护板的下端相背两侧均固定连接有固定板，所述固定板的表面开设有固定螺孔且固定螺孔内螺纹连</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
+          <t>发明内容本发明的目的在于克服上述现有技术存在的不足，设计一种基于阶梯介质的高增益、宽角扫描透镜天线，在实现天线高增益的基础上，同时实现宽角扫描、易操作和低成本化。为实现上述目的，本发明采取的技术方案是：一种基于阶梯介质的高增益、宽角扫描透镜天线，包括透镜天线，以及位于透镜天线下方水平放置的贴片天线馈源阵列。所述透镜天线包括紧密贴合的上层球壳部分、下层圆台部分、以及内部扇形球体部分；所述上层球壳部分为紧密贴合的2-5层由外至内介电常数递增的球壳结构；所述下层圆台部分为紧密贴合的2-5层由外至内介电常数递增的圆台结构；所述内部扇形球体部分为紧密贴合的3-7层介电常数不同的扇形球体结构。根据斯奈尔定律，下层外轮廓设计成圆台形状，将电磁波大角度折射，有利于天线的大角度扫描；内部设计成扇形球体结构，有利于聚集电磁波提高天线增益；上层球壳部分、下层圆台部分以及内部扇形球体部分的具体层数与介电常数分布均由目标扫描角度及电磁波照射幅度相位分布情况而定；各分块的组装遵从由内而外，由下而上的原则，通过胶层将各分块粘贴在一起；贴片天线馈源阵列位置可根据透镜天线尺寸和介电常数分布而变化，贴片天线馈源阵列数目根据要求的扫描角度而变化</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>{[30, 35],方法},{[37, 44],效果},方案优点</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>{[145, 152],部件},{[134, 139],位置},空间关系</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种挖掘铲斗，以解决上述背景技术中提出的结构强度低、质量重、不易清理以及零部件不易拆卸和拼接的问题。优选的，所述主体内部靠近纳米二氧化钛层的一侧设置有加强腔，且加强腔的内部均匀设置有铝合金加强筋，所述铝合金加强筋的横截面呈W形。优选的，所述主体内部靠近纳米石墨抗氧化层的一侧设置有减震腔，且减震腔内部的两侧皆均匀设置有气囊减震块，所述气囊减震块之间减震腔的内部均匀设置有减震弹簧。</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr"/>
+          <t>发明内容本发明利用压环的弹性，以夹紧的方式封闭吻合口，解决了上述问题。本发明提供了一种免缝合一体式分支覆膜支架血管，所述免缝合一体式分支覆膜支架血管包括人工血管、覆膜支架、压环组件；所述人工血管的远端与覆膜支架的近端连接；所述压环组件包括压环、固定件；所述人工血管的外壁上设有固定件；所述压环的一端活动连接在固定件上，使所述压环可绕固定件改变压环相对人工血管的位置。本发明优选为所述压环的形状为波形环。本发明优选为所述压环的内径小于覆膜支架的外径。本发明优选为所述压环由弹性金属或高分子材料制成，进一步优选为所述压环由镍钛合金制成，所述镍钛合金具有形状记忆能力和超弹性。本发明优选为所述压环组件还包括盖膜，所述盖膜置于覆膜支架外，且所述盖膜与固定件连接。</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>{[60, 73],部件},{[86, 89],零件},部分关系</t>
+        </is>
+      </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>发明内容本发明提出的一种工业计算机的悬挂支撑机构，解决了不同规格的工业计算机便捷安装的问题。优选的，所述壳体的顶部内壁通过螺栓连接有电机，所述壳体的底部设有开口，所述壳体的两侧内壁上焊接有竖板，所述竖板上开设有第一滑槽，所述第一滑槽的内壁滑动连接有第一滑块。优选的，两个所述第一滑块相靠近的一侧铰接有第一撑杆，所述第一撑杆的下方设有位于第一滑块上的固定块，所述固定块的底部铰接有第二撑杆，两个所述竖板相靠近一侧的底端焊接有第一横板。</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr"/>
+          <t>发明内容本发明针对现有技术中的不足，提供了一种用于提升树木健康性的设备，其自动化并全面的对树杆表面进行清除洞口木屑以及喷药操作，从而彻底杀死洞内的天牛卵，避免天牛卵成长为天牛后继续伤害树木，对树木进行有效的保护。为解决上述技术问题，本发明通过下述技术方案得以解决：一种用于提升树木健康性的设备，包括支撑柱、设置在所述支撑柱上的动力组件以及清扫喷药组件；所述动力组件包括设置在所述支撑柱底部的电机、与所述电机配合连接的转轴、一端与所述转轴相连的拉绳、设置在所述支撑柱顶部的滑轮以及滑动连接在所述支撑柱上的支撑块，所述拉绳另一端穿过所述滑轮后与所述支撑块相连；</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>{[134, 145],部件},{[149, 151],零件},部分关系</t>
+        </is>
+      </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>内容针对现有技术存在的问题，本发明专利提供了一种新款锂电池。本发明专利是这样实现的，一种新款锂电池包括电池壳体，所述电池壳体内部固定有保护板，所述保护板远离与所述电池壳体固定端固定有高温阻燃热缩管，所述高温阻燃热缩管关于所述保护板中部对称设置两根，两根所述高温阻燃热缩管之间固定有电池本体，所述电池壳体一侧固定有电池插头线，所述电池插头线一侧延伸置电池壳体外部，所述电池插头线延伸出电池壳体侧固定有电池插头，所述电池壳体两端还固定有耐高温环氧树脂板。作为本发明专利一种新款锂电池优选的技术方案，所述电池壳体两端开设有圆矩形槽，所述耐高温环氧树脂板固定在所述圆矩形槽内部。</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr"/>
+          <t xml:space="preserve">发明内容提供一种能够在齿轮泵正常工作状态下，降低燃油温升、并提高齿轮泵的填充效果的燃油引射填充机构。另外，还提供一种齿轮泵燃油引射填充方法。一种利用所述的齿轮泵燃油引射填充机构的燃油引射填充方法，引射喷嘴1内的高压压差回油经引射喷嘴1降压后与低压腔燃油交流后一起进入引射管，在引射管内增压后填充齿轮泵。
+</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>{[41, 48],方法},{[22, 27],效果},方案优点</t>
+        </is>
+      </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种可调式止回防火阀，以解决上述背景技术中提出的问题，本发明结构合理，方便对防火止回阀内部开启角度进行调节，结构简单，使用成本低。进一步地，所述限位钢珠右侧安装有挤压弹簧。进一步地，所述防火阀片通过转轴与防火止回阀本体相连接。</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr"/>
+          <t>发明内容本发明目的在于为克服传统氧碘化学激光器喷管出口气流总压低的缺点，提供一种用于氧碘化学激光器的高恢复压力的引射喷管。该套引射式喷管通过高马赫数喷管产生高总压的I2/N2引射气流，主气流O2(1Δ)通过亚音速喷管产生速度为音速的气流，二者通过挡板增强混合，进而产生高总压、低静压的混合气流，该气流通过光腔后的总压近300torr，这样的气流通过扩压器后的静压力可以达到近100torr。由此可以看出，该高恢复压力引射式喷管可以产生高总压气流，使得化学激光器的压力恢复系统的体积大大减小。</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>{[56, 59],材料},{[50, 54],效果},材料优点</t>
+        </is>
+      </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>为解决上述背景技术中提出的问题。本发明提供了一种火车上便于进行维修的卫星信号集电箱，解决了卫星信号集电箱拆卸和安装不方便的问题。为实现上述目的，本发明提供如下技术方案：一种火车上便于进行维修的卫星信号集电箱，包括底座，所述底座的侧面固定连接有连接板，所述连接板的表面开设有通孔，所述底座的表面开设有第一安装槽，所述第一安装槽的内部贯穿设置有第一滑动门，所述第一滑动门的表面设置有观察窗，所述第一滑动门的表面开设有通风孔，所述底座的顶部开设有第二安装槽，所述第二安装槽的内部贯穿设置有第二滑动门，所述第一滑动门的一侧固定安装有门锁，所述第二滑动门的顶部通过凹槽连接有固定板，所述固定板的顶部安装有定位连接板，所述定位连接板的表面开设有螺纹孔，所述固定板的底部安装有限位轴，所述限位轴的表面套设有旋转管，所述旋转管的表面固定连接有分隔板，所述分隔板的一侧通过销钉连接有支撑板，所述分隔板的底端固定安装有底部支撑板，所述底部支撑版的底部安装有支撑杆，所述底座的顶部开设有第三安装槽。优选的，所述连接板关于底座的中心线对称设置，且两块连接板的表面均开设有若干个通孔。优选的，所述第二滑动门的表面对应开设有一组通风孔，所述第一滑动门和</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr"/>
+          <t>发明内容本发明提供了一种发电机电磁兼容性试验方法，解决了发电机进行电源线传导发射的电磁兼容试验时受拖动变频器等影响的技术问题。本发明是通过以下技术方案解决以上技术问题的：一种发电机电磁兼容性试验方法，包括以下步骤：第一步、启动变频器整流单元，将变频拖动电动机、同步发电机、被试发电机拖动到额定转速，待被试发电机建立空载电压后，合上被试发电机的负载开关，使其带水电阻、电抗器负载，负载功率为1兆瓦；第二步、将同步发电机起励建压，将其励磁控制系统设定为恒励磁模式（FCR），通过调节励磁电流使同步发电机的电压达到待并电网电压，满足并网同期条件后，按下并网开关，使同步发电机并入电网，此时同步发电机做发电机运行；</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>{[12, 23],方法},{[25, 61],效果},方案优点</t>
+        </is>
+      </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>有鉴于此，本发明提供一种电路结构简单，成本低廉，传输和控制效率稳定、安全，能够使电子产品微型化的一种双TYPE-C接口控制电路。为了实现本发明目的，可以采取以下技术方案：一种双TYPE-C接口控制电路包括两个TYPE-C接口控制电路、MCU芯片和显示控制电路，所述MCU芯片分别控制该两个TYPE-C接口控制电路，该MCU芯片控制该显示控制电路；所述TYPE-C接口控制电路包括第一TYPE-C接口、第二TYPE-C接口、USB切换控制器、USB接口；所述第一TYPE-C接口、第二TYPE-C接口分别通过通过USB切换控制器控制该USB接口信号；所述第一TYPE-C接口、第二TYPE-C接口分别输入信号至该显示控制电路。所述MCU芯片为型号是FL7102的芯片。所述显示控制电路包括显示芯片，该芯片为型号是RTD2556-CG或者是型号为RTD2556T-CG的芯片。所述USB接口包括至少两个USB接口。</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr"/>
+          <t>发明内容本发明的目的是克服曲面玻璃难以实现高温镀膜的问题，提出一种用于曲面玻璃真空柔性加热的方法。本发明的技术解决方案是，加热方法为如下之一：1)采用柔性加热膜无缝贴合于玻璃背面，放入真空室内，并将柔性加热膜上的引出导线通过真空法兰与外接电源连接，柔性加热膜的加热温度区间为50～180℃，真空腔体抽真空；在镀膜前，通过外部的温控仪对玻璃温度进行调节，设定镀膜温度后，待温度稳定在镀膜温度后即可镀膜；需要时，可在基材周边布置温度传感器，增强对加热温度的准确监控。2)采用可拆卸式柔性加热套固定于玻璃背面并与玻璃良好贴合，将可拆卸式柔性加热套上的引出导线通过真空法兰与外接电源连接，可拆卸式柔性加热套的加热温度区间约为180～350℃，真空腔体抽真空；在镀膜前，通过外部的温控仪对玻璃温度进行调节，设定镀膜温度后，待温度稳定在镀膜温度后即可镀膜。所述柔性加热膜包括但不限于聚酰亚胺柔性加热膜。需要时，可在基材周边布置温度传感器，增强对加热温度的准确监控。</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>{[137, 143],数值},{[132, 135],属性},参数关系</t>
+        </is>
+      </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>本发明就是为了解决上述背景技术中的问题，提供了一种溶出度高、能够快速被吸收的盐酸贝尼地平片剂及其制备方法。为此，本发明提供了一种盐酸贝尼地平片剂，由重量份数的以下组分组成：盐酸贝尼地平0.1～20％，亲水性填充剂20～60%、润湿剂0.5～6.0%、崩解剂25～50%、粘合剂2.5～4.0%、助流剂1%～3%，固体分散载体为余量。优选地，所述亲水性填充剂为淀粉类、淀粉衍生物、糊精、糖类、微晶纤维素的一种或几种。</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr"/>
+          <t>发明内容为解决现有技术中出现的橡胶盲道砖硫化产品合格率低的技术问题，本发明提供了一种橡胶盲道砖硫化方法。本发明的方法大大提高了硫化合格率，可达99％，提高了生产效率，降低了成本。本发明的目的是提供一种橡胶盲道砖的硫化方法。包括：在半成品橡胶盲道砖胶片装模硫化前，向其表面喷洒纯净水。其中，优选：纯净水的用量为半成品橡胶盲道砖胶片重量的1.1％～1.3％。纯净水均匀喷洒在整个半成品橡胶盲道砖胶片上。硫化的温度为：158±3℃；硫化的时间为：10±0.5分钟；硫化压力为：17±1Mpa。</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>{[42, 50],方法},{[60, 67],效果},方案优点</t>
+        </is>
+      </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>本发明提出的一种毛刷生产用打孔装置，解决了毛刷生产的过程中需要对其打孔的问题。为了实现上述目的，本发明采用了如下技术方案：一种毛刷生产用打孔装置，包括传送架，所述传送架的顶部固定连接有传送辊，所述传送辊的外圈套接有传送带，所述传送架的顶部前后壳壁焊接有安装架，所述安装架的顶部底侧焊接有套筒，所述套筒的背面设有与安装架的顶部底侧焊接的支撑杆，所述支撑杆的底端通过螺栓连接有第一驱动电机，所述第一驱动电机的输出轴固定连接有第一转轴，所述第一转轴贯穿套筒的背面壳壁，所述第一转轴远离第一驱动电机的一端固定连接有连接杆，所述连接杆远离第一转轴的一端正面滑动套接有镂空板，所述镂空板的底部焊接有固定杆，所述固定杆的底端通过螺栓连接有第二驱动电机，所述第二驱动电机的输出轴固定连接有第二转轴，所述第二转轴的底端固定连接有钻头。优选的，所述传送架的顶部设有五个传送辊，五个所述传送辊之间的间距均相同，所述传送带的外圈设有防滑纹。</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
+          <t xml:space="preserve">发明内容本发明专利提供一种燃料电池用高效全屏流场双极板及其电池堆，有效提高了双极板的有效面积率，在确保相同输出功率的电池堆组装前提下，有效降低该电池堆的体积，最终实现提高车用燃料电池堆的体积功率密度的目的。阳级侧单级板或阴极侧单级板上均设置有气体和冷却液进出口，气体和冷却液进出口分别位于基板的四周边缘。阴极侧单级板的背面中心设置有冷却液流场，冷却液流场的上下两侧分别设置有冷却液流场入口和冷却液流场出口，冷却液流场入口和冷却液流场出口均位于基板的边缘。冷却液流场的外侧至基板的外边缘区域为密封粘接区，密封粘接区上设置有密封件。
+</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>{[166, 170],部件},{[152, 162],位置},空间关系</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>{[29, 31],材料},{[35, 46],效果},材料优点</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>为了克服安装螺钉时，很难安装上去，同时工作人员必须借助梯子才能安装上去，导致每次下井必须携带梯子，耗费人力的缺点，技术问题为：提供一种无需使用梯子，可单人使用，方便安装的矿山导线点自动安装设备。本发明的技术方案是：一种矿山导线点自动安装设备，包括有长杆、机械箱、箱体、滑轨、滑块、安装板、钉套、第一齿条、第一齿轮、调节装置、固定套、推杆、电钻和缓冲顶块，长杆上设置有机械箱，机械箱顶部设置有箱体，箱体内壁设置有滑轨，滑轨上滑动式设置有滑块，滑块上滑动式设置有安装板，安装板上均匀设置有钉套，安装板底部设置有第一齿条，机械箱上通过转动轴转动式设置有第一齿轮，机械箱侧壁滑动式设置有固定套，固定套上套接有电钻，固定套下侧设置有推杆，固定套与调节装置连接，调节装置用于安装板横向移动调节，箱体底部设置有缓冲顶块，缓冲顶块位于电钻正上方。进一步，调节装置包括有第一皮带轮、第二齿轮、棘爪、第二齿条、第二皮带轮和平皮带，第一齿轮前侧设置有第二皮带轮，机械箱内前壁转动式设置有第一皮带轮，第一皮带轮上开有棘轮槽，机械箱内后壁转动式设置有第二齿轮，第二齿轮前侧设置有棘爪，棘爪与棘轮槽配合，固定套上连接有第二齿条，第二齿条与第二齿轮啮合，</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
+          <t>发明内容本发明需要解决的技术问题是提供一种自动开膜袋装置，该种自动开膜袋装置结构简单，成本低，可以轻松的打开袋子，方便于消费者使用。本发明可以采取如下技术方案:一种自动开膜袋装置，其特征在于，包括底座、活动架、气筒结构、风管，出风头通过风管与气筒结构连通；活动架的末端与底座的末端通过铰轴铰接于一起；活动架的前端设有顶吸盘，顶吸盘设于活动架的底面上；底座的顶面设有底吸盘，底吸盘设于底座的前端上，活动架的底面与底座的顶面相对，底吸盘与顶吸盘的位置相对应；出风头设于底座上，出风头的出口对着顶吸盘、底吸盘之间；气筒结构包括筒体、推杆、活塞；活塞位于底部封闭的筒体内，活塞边缘与筒体的内壁匹配，活塞可以在筒体内上、下活动；风管在筒体的靠近底部处与筒体连接实现连通；推杆的上端与活塞连接，推杆的下端从筒体的底面伸出，推杆与筒体的底面之间设有密封圈；筒体与活动架连接固定；推杆的下端与底座可活动连接；活动架与底座之间设有能使活动架与底座张开的弹簧；按下活动架时，顶吸盘与薄膜袋的袋口处的上层膜的外表面接触并吸附，底吸盘与薄膜袋的袋口处的下层膜的外表面接触并吸附；松开活动架，活动架在弹簧作用下回复原来位置，筒体跟着向上运动，推杆被相</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>{[82, 88],部件},{[110, 111],零件},部分关系</t>
+        </is>
+      </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种健康开胃的陈皮面条及其制作方法，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种健康开胃的陈皮面条，原料包括陈皮和面粉，所述陈皮包括青皮、二红柑、大红柑。优选的，二红柑5-10份，面粉110-140份。优选的，青皮8-12份，面粉100-150份。</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr"/>
+          <t>发明内容本发明针对目前毛水苏面积大幅减少、退耕还湿工作缺乏产业及技术支撑、毛水苏种子育苗技术匮乏的技术问题，而提出一种毛水苏种子高效育苗的方法，旨在推动东北地区毛水苏规模化发展。本发明毛水苏种子高效育苗的方法按以下步骤实现：一、种子采集和预处理：根据毛水苏的物候期特征，于7月下旬至8月下旬之间多次采集毛水苏成熟的种子(黑褐色种子)，去除杂质及瘪粒后，将种子置于阴凉干燥处风干，得到风干种子；二、营养土配置：根据毛水苏野外生境特点和对养分的需求，将泥炭土和蛭石按1：1的体积比充分混合配置，得到营养基质；三、种子消毒：将步骤一得到的风干种子浸渍于蒸馏水中，得到浸水处理的种子，然后再转移到体积百分数为70％～75％的乙醇溶液中浸渍10s～20s，用无菌水冲洗干净，得到消毒处理的种子；四、催芽：将消毒处理的种子置于30～60℃温水中浸渍处理，得到催芽处理的种子，湿润保存；五、播种：将步骤二的营养基质填装入底部开有通气孔的培养杯中，催芽处理的种子播种在培养杯基质中，完成毛水苏种子的播种；六、水分调控：将步骤五播种有毛水苏种子的培养杯放置在水中，底部通气孔使培养杯内外水位条件一致，保证培养杯中的培养基表面高于水面0～5cm</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>{[176, 187],方法},{[189, 194],效果},方案优点</t>
+        </is>
+      </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种保护性约束监护仪传感器固定装置。为了实现上述目的，本发明采用了如下技术方案：一种保护性约束监护仪传感器固定装置，包括固定模块、传感器安装腔体和传感器，所述固定模块设置有引线端子，所述固定模块设置有旋转轴，所述传感器安装腔体的外壁套接有支撑体。优选的，所述旋转轴的外壁套接有卷弹簧。优选的，所述卷弹簧的外壁设置有外环套。</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
+          <t xml:space="preserve">发明内容有鉴于此，本发明的主要目的在于提供一种太阳模拟器，由光源模块和反射模块组成，所述反射模块与所述光源模块可转动的连接，所述光源模块产生均匀化的汇聚光束入射所述反射模块，所述反射模块对均匀化的汇聚光束进行准直输出到达辐照面。根据本发明的目的提出的一种太阳模拟器，包括一光源模块和一反射模块，所述反射模块与所述光源模块可转动的连接，所述光源模块产生均匀化的汇聚光束入射所述反射模块，所述反射模块对均匀化的汇聚光束进行准直输出。优选地，所述光源模块包括一氙灯光源、一锥轴椭球反光镜、一平面反射镜以及一积分匀光器，所述氙灯光源设置于所述锥轴椭球反光镜的第一焦点处，所述平面反射镜设置在所述锥轴椭球反光镜光轴第一焦点和第二焦点之间，且所述平面反射镜与所述锥轴椭球反光镜的光轴呈45°角，所述积分匀光器设置在所述锥轴椭球反光镜的第二焦点处。
+</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>{[127, 131],部件},{[142, 145],零件},部分关系</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>{[127, 131],部件},{[136, 139],零件},部分关系</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>作为本发明的进一步方案：所述滑槽为燕尾槽，所述滑块的形状与滑槽的形状相适配。作为本发明的进一步方案：所述第一螺纹杆的左端固定连接有转板，所述转板左侧面的上方固定连接有把手。作为本发明的进一步方案：所述第二螺纹杆的顶端固定连接有挡板，所述挡板的长度大于第二螺纹杆的直径。作为本发明的进一步方案：所述第一隔离板左侧面的下方固定连接有两个支撑腿，两个所述支撑腿分别位于第一隔离板左侧面的前侧和后侧。</t>
+          <t>技术领域发明内容本发明所要解决的技术问题，是针对上述存在的技术不足，提供了一种重型汽车用组合式防抱死制动鼓，采用所述制动鼓一侧设置有制动装置的结构，通过制动装置内部均匀排列的制动蹄，来提升刹车效果的同时，又解决了传统制动蹄在制动过程中极易受到制动鼓的带动从而刹死的问题；采用所述制动装置内部设置有驱动装置的结构，通过驱动装置内部的扩张器来对制动蹄进行驱动，从而利用组合式的驱动结构，增大了制动鼓内部的散热空间，解决了传统的制动鼓在频繁制动时，容易过热从而使得制动效果较差的问题。为解决上述技术问题，本发明所采用的技术方案是：包括制动鼓；所述制动鼓上部直径较窄的一端为安装面；所述安装面上部周圈均匀设置有安装孔；所述制动鼓内部为制动面；所述制动鼓一侧设置有制动装置；所述制动装置内部设置有驱动装置；所述制动装置与所述驱动装置之间采用螺栓连接。进一步优化本技术方案，所述制动装置包括支撑盘、支撑柱、支撑环和制动蹄；所述支撑盘与所述支撑环之间采用锁住支撑柱卡接；所述支撑盘上部居中位置设置有花键槽；所述支撑环外表面周圈均匀设置有多个固定块；多个所述固定块与所述支撑环之间采用螺栓连接；所述制动蹄设置在所述固定块居中位置并与所述固定</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -4987,12 +4023,11 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种输电线路山火预警方法。为了实现上述目的，本发明采用了如下技术方案：设计一种输电线路山火预警方法，具体步骤如下：S1、输入气象观测站点每日最高气温预报数据，计算出每日最高气温山火风险天气指数A值；S2、输入气象观测站点每日最小相对湿度预报数据，计算出每日最小相对湿度山火风险天气指数B值；S3、输入气象观测站点当日降水预报数据，及过去八天的降水实况数据，计算出降水山火风险天气指数C值；S4、输入气象观测站点每日最大风力预报数据，计算出每日最大风力山火风险天气指数D值；S5、获取防火期生物及非生物物候期季节的影响的订正指数E值，与A、B、C、D值取和值，计算出火险天气指数HTZ值；S6、根据HTZ计算出火险等级，并筛选出达到山火风险的气象观测站点的数据集Station_Dataset(包含经纬度，火险等级)；S7、输入电力线杆塔数据集Tower_Dataset(包含经纬度，电力线信息)、Station_Dataset使用java程序计算出杆塔附近1km是否存在达到山火风险的气象观测站点，若有则该电力杆塔具有山火风险，得出具有山火风险的杆塔数据集TowerDis</t>
+          <t>本发明需要解决的技术问题是提供施工周期短且成本低的隧间大跨径曲线简支钢箱梁梁上顶推箱梁的施工方法。本发明提供了一种隧间大跨径曲线简支钢箱梁梁上顶推箱梁的施工方法。本发明的隧间大跨径曲线简支钢箱梁梁上顶推箱梁的施工方法无需在第二钢箱梁顶推时安装导梁及配重，减少了导梁拆装及配重工期，有效的缩短了施工周期以及降低人、料、机的投入，降低了施工成本，解决了隧道内第二钢箱梁拆装及配重难的问题。</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -5002,12 +4037,11 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>：本发明的目的是为了解决上述问题，发明目的：本发明针对四探测线圈无线充电定位系统提出了一种用于四探测线圈无线充电定位装置的定位方法，通过事先测量的参数结合模糊数学理论中的隶属度函数模型，描述待测位置与参照位置的接近程度，从而实现对待测位置的定位工作。为了达到上述目的，本发明采用的方法是：一种用于四探测线圈无线充电定位系统的定位方法，该定位方法是基于四线圈定位系统置实现的，所述的四线圈定位装置包括四个小型探测线圈，所述的四个小型探测线圈布置在在与接收线圈同高度的平面，四个平衡线圈的中心连线交汇于接收线圈中心，且探测线圈与接收线圈的相对位置固定；所述的定位方法包括如下步骤：1)、将定位范围内的空间划分为若干网格；2)、在每个网格化参照点测量记录四个探测线圈的感应电压有效值并将该信息存储于存储设备中；3)、定位工作开始后读取当前位置的四个线圈感应电压有效值；4)、利用四个探测线圈的全部感应电压信息来表征当前位置与参照点位置的变化，如下式所示：ΔU＝|up1-ur1|+|up2-ur2|+|up3-ur3|+|up4-ur4|其中，up1,up2,up3,up4为当前位置四个探测线圈感应电压值，ur1,ur2,ur3</t>
+          <t>技术领域发明内容本发明的目的在于提供一种基于单层介质的双频宽带圆极化栅，在保证基于低剖面单层介质结构前提下，解决现有报道双频圆极化栅插损大、带宽窄的问题。为了实现上述目的，本发明采用的技术方案为：一种基于单层介质的双频宽带圆极化栅，包括从上往下依次层叠第一金属覆铜层1、介质层2、第二金属覆铜层3；其特征在于，所述第一金属覆铜层与第二金属覆铜层结构相同、且上下重叠设置；所述金属覆铜层由多个金属图形单元拼接而成，所述金属图形单元呈正方形、且沿其中心线呈对称结构；所述金属图形单元由一个十字型结构12及两个半“I”型偶极子11构成，其中，十字型结构位于金属图形单元中心点位置，十字型结构12由垂直方向设置的垂直“I”型偶极子121与水平方向设置的水平“I”型偶极子122构成、且垂直“I”型偶极子与水平“I”型偶极子的中心均与金属图形单元中心点重合，所述两个半“I”型偶极子11对称设置于水平“I”型偶极子122两侧；多个金属图形单元在垂直方向通过垂直“I”型偶极子121连通、在水平方向通过半“I”型偶极子11连通。进一步的，当线极化波沿着45度极化方向入射圆极化栅时，所述十字型结构的水平“I”型偶极子122提供低频谐振，</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -5017,12 +4051,11 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>为了实现上述目的，本发明是由窗扇、支架、窗纱、卷管组成。本发明的窗纱和窗扇是一体的结构，即窗纱的支架就是窗扇的侧边框，窗纱卷在卷管上，卷管带弹簧自由旋转可以自动回位，窗纱可以随卷管的旋转自由伸缩，窗纱外漏部分可以和窗框自由连接；当打开窗扇时，窗纱随窗扇一起拉开，当关闭窗扇时，窗纱可以随卷管收起来，隐藏在窗扇的边框里，形成一体的结构。另外可以根据需要安装在窗扇的任意一侧。</t>
+          <t>本发明提供了一种双保险消防喷淋头，具备喷淋头启动双保险的优点，解决了上述背景技术中提出的因人为误撞碎玻璃体导致水大量喷洒且启动火灾警报，造成很大的财产损失的问题。所述销钉的端部可伸入次级保险插孔内对封口塞形成卡接。所述玻璃管体伸入封口塞内腔的端部两侧均设有支管。</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -5032,12 +4065,12 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种山上养殖用饲料运输装置，具备可根据情况改变外型，适用于不同的种类的饲料运输的优点，解决了运输不同材质物品所需不同车型的问题。优选的所述插销槽数量为两个，两个插销槽以铁网中轴线对称分布在。优选的所述第二滑道数量为两个，第二滑道安装在插销槽和限位板之间。优选的所述第二挡板数量为两个，两个第二挡板焊接在两个所述第一挡板相对一侧的铁网上。优选的所述第二挡板上安装的第一滑道位于第二滑道正上方。</t>
+          <t xml:space="preserve">技术领域发明内容为克服现有技术的上述缺陷，本发明旨在提供一种抗震性能好的预制梁及梁节点。为实现上述目的，本发明采用如下技术方案：一种预制抗震梁及梁节点，所述梁两端至少一侧设有凸出的外翼、中翼、內翼；所述中翼插入连接柱内，外翼和內翼分别与连接柱两侧贴合；所述外翼、中翼、內翼中设有垂直于连接柱的压缩弹簧，所述压缩弹簧两侧连有缓冲板，所述缓冲板通过箍筋与梁主筋固定连接；所述外翼、中翼、內翼中填充有石墨烯泡沫。优选的：所述石墨烯泡沫外侧设有混凝土保护层。优选的：所述缓冲板为合金结构钢材料，优选12CrMo、15CrMo。优选的：所述外翼、中翼、內翼的长度为梁长度的0.067～0.125倍。优选的：所述缓冲板厚度为8～12mm，两侧的石墨烯泡沫保护层厚度在35～65mm。优选的：所述混凝土保护层厚度为25～30mm，优选强度C70以上的矿渣水泥混凝土。优选的：所述外翼外表面呈弧面或锥面。
+</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -5047,12 +4080,11 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>本实验采用双氧水-甲酸体系对地沟油的环氧化进行了合成，流程操作简单，成本低，易于实现工业化。为达到上述目的，本发明所采用的技术方案包括以下步骤：地沟油的改性：取原油静置沉淀，并虑去上层油中的杂物，将地沟油加热至50-60℃过滤、白土脱色，然后加入油料质量0.2%的磷酸和2%的水，继续在40℃下搅拌脱胶30min，最后得到脱色、去味、澄清的地沟油以备用。地沟油的环氧化：将预处理后的油料与甲醇、浓硫酸按质量比100：30:1.5加入反应器中，在75℃回流条件下酯化3h，酯化后的油料用3%的碳酸氢钠溶液水洗至约中性再用饱和食盐水溶液水洗一次，最后减压蒸馏脱水；再将酯化后的油料与甲醇、氢氧化钠按质量比50:20:1混合加入反应器，在65℃、回流条件下酯交换2h，反应完毕后，将产物用约0.1mol/L的盐酸溶液洗至约中性再用饱和食盐水洗一次，静置分层，取油层减压脱水，获得脂肪酸甲酯；将脂肪酸甲酯、双氧水、甲酸、硫酸、尿素按质量比200:150:25:2:3.8称量，环氧化反应前，先将双氧水、甲酸、硫酸及尿素混合，再采用滴加方式将其加入70℃的油料中，滴加时间控制在1-2h内，滴加完毕后继续保温反应，每隔一定时间间隔取样</t>
+          <t>技术领域发明内容本发明要解决的技术问题是针对现有技术的上述不足，提供一种结构紧凑，使用方便的喇叭测试曲线装置，可在导线装配前完成喇叭的测试曲线工序，无需连接喇叭导线测试，大大提高了测试效率，有效降低了生产成本。本发明的技术方案是这样的：一种全频喇叭测试曲线的装置，包括工作台、所述的工作台上设有可插接于喇叭底面的定位凸台，所述的定位凸台通过沉头螺钉可拆卸的安装在工作台上表面，所述的定位凸台上方设有用于压紧喇叭的压紧气缸，所述定位凸台一侧的工作台上还设有推动气缸，所述推动气缸的伸出端安装有推板，所述的推板上设有两个倾斜布置的套筒，两个所述的套筒外侧一端均滑动插接有伸缩管，所述的伸缩管外侧一端设有导电块，所述导电块与套筒之间的伸缩管外围套设有弹簧，所述导电块的内侧设有与其电连接的测试导线，所述的测试导线依次穿过伸缩管、套筒并延伸至套筒外侧。作为进一步地改进，所述的压紧气缸通过第一支架安装在工作台的上表面，相应的，所述的推动气缸通过第二支架安装在工作台的上表面。</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -5062,12 +4094,11 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种楼房排风道防火阀，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，防火效果好。进一步地，所述叶片前端面开设有安装孔，且安装孔内部设置有内螺纹，所述螺丝贯穿安装板与叶片通过螺纹相连接。进一步地，所述叶片后端面右侧开设有锥形槽，且锥形槽设置有两组，所述第一锥形卡板和第二锥形卡板与锥形槽相匹配。</t>
+          <t>所述洞室分层下挖至隧洞永久段洞口预裂范围内停止爆破，改为机械挖除，系统支护跟进，直至交叉洞口完全出露。进一步地，下部隧洞永久段的洞口内侧布置锁口锚杆，所述锁口锚杆环形布置多排，边顶拱处采用预应力锚杆，底板采用普通砂浆锚杆。进一步地，所述隧洞延伸段断面尺寸与隧洞永久段相同，在隧洞永久段系统喷锚挂网支护及洞口锁口锚杆施工后开挖延伸段，延伸段顶拱及边墙进行钢筋混凝土喷层支护临时支护。</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -5077,12 +4108,11 @@
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种组合式防漏风空调组件及滤芯结构，以解决上述背景技术中提出的问题，本发明结构合理，密封效果好，有效避免组合式空调中滤芯漏风。进一步地，所述连接座安装有两组，且两组连接座内部穿插有连接螺丝。进一步地，所述折叠滤芯上下端面对称卡装有卡块，所述折叠滤芯与卡块之间通过固定螺钉相连接，所述折叠滤芯由无纺布纤维毡材料制成。</t>
+          <t>"技术领域发明内容本发明的目的是提供一种钻杆套管切割器，具有使用寿命较长的优点。本发明的上述技术目的是通过以下技术方案得以实现的：一种钻杆套管切割器，包括切割管和割刀，切割管内圈中设有向内凸起的支撑环，所述切割管内滑动连接有控制管，所述控制管为变径管，所述控制管包括上管和下管，所述上管的直径大于下管的直径，所述上管的下端面与支撑环之间设有复位弹簧，所述切割管的两侧开设有与内部连通的刀槽，所述割刀转动连接于刀槽内，所述割刀的上端设有向内延伸的凸起，所述下管位于凸起的正上方。通过采用上述技术方案，将切割管下放至钻杆相应处，切割管的上端固接有小号的钻杆套管，向切割管内注入高压冷却液，高压冷却液通过控制管向下流动，由于控制管为变径管，冷却液从控制管流出时，冷却液会对控制管施加向下的压力。控制管压动复位弹簧下降，控制管压动割刀上的凸起，从而将割刀撑开。钻机启动，小号的钻杆套管转动，切割管转动，割刀将钻杆割断。钻杆在转动过程中，冷却液从控制管的下端流出，与割刀接触，不断流动的高压冷却液始终对割刀进行冷却保护，提高刀具的使用寿命。进一步的，所述切割管中固定有位于伸入下管中的排水管，所述排水管的上端伸入控制管内。通过采用上述</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -5092,12 +4122,11 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种防火阀门保护机构，以解决上述背景技术中提出的问题，本发明结构合理，可以有效对防火阀主体进行保护，安装便捷，使用成本低。进一步地，所述防滑软胶垫圈安装有两组，且两组防滑软胶垫圈规格相同。进一步地，所述防火阀主体通过连接法兰与第一管道和第二管道相连接。进一步地，所述上夹板和下夹板规格相同。</t>
+          <t>所述底盘是由矩形的横杆构成。所述控制系统与卷板机装置本体进行连接并进行实时控制。本发明的目的是克服上述问题，研制出一种扭轴同步四辊卷板机</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -5107,12 +4136,11 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>的是为了解决上述问题，发明目的：本发明针对四探测线圈无线充电定位系统提出了一种用于四探测线圈无线充电定位装置的定位方法，通过事先测量的参数结合模糊数学理论中的隶属度函数模型，描述待测位置与参照位置的接近程度，从而实现对待测位置的定位工作。为了达到上述目的，本发明采用的方法是：一种用于四探测线圈无线充电定位系统的定位方法，该定位方法是基于四线圈定位系统置实现的，所述的四线圈定位装置包括四个小型探测线圈，所述的四个小型探测线圈布置在在与接收线圈同高度的平面，四个平衡线圈的中心连线交汇于接收线圈中心，且探测线圈与接收线圈的相对位置固定；所述的定位方法包括如下步骤：1)、将定位范围内的空间划分为若干网格；2)、在每个网格化参照点测量记录四个探测线圈的感应电压有效值并将该信息存储于存储设备中；3)、定位工作开始后读取当前位置的四个线圈感应电压有效值；4)、利用四个探测线圈的全部感应电压信息来表征当前位置与参照点位置的变化，如下式所示：ΔU＝|up1-ur1|+|up2-ur2|+|up3-ur3|+|up4-ur4|其中，up1,up2,up3,up4为当前位置四个探测线圈感应电压值，ur1,ur2,ur3,ur4为某</t>
+          <t>"技术领域发明内容为了解决传统振镜或转镜扫描结构无法直接应用到椭球反射照明显微测量装置中的问题，本发明公开了一种双转盘式显微扫描结构，针对椭球反射照明显微测量装置的特殊结构，提供了一种能够置于显微测量装置内部的扫描机构，实现了径向30至120度的扫描范围以及轴向360度的扫描范围。本发明的目的是这样实现的：双转盘式显微扫描结构，包括第一转盘和第二转盘；所述第一转盘沿半径方向开有通槽，所述第二转盘开有螺旋形状的通槽，所述螺旋形状绕圆心旋转一周，始端和终端位于同一半径上，第一转盘通槽和第二转盘通槽的组合，形成通光孔；所述第一转盘和第二转盘均由磁性材料制作而成，异名磁极相对设置；第一转盘和第二转盘的对向均设置有环形凹槽，凹槽内部安装有滚珠，所述滚珠的相对位置由支架固定；利用异性相吸的原理，滚珠被夹持在第一转盘和第二转盘中间；第二转盘相对于第一转盘转动，能够改变径向照明角度；第二转盘和第一转盘整体转动，能够改变轴向照明角度。上述双转盘式显微扫描结构，第二转盘相对于第一转盘转动，第二转盘和第一转盘整体转动，通过以下结构实现：</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -5122,12 +4150,11 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中存在的缺点，而提出的一种智慧办公用安防装置。作为上述技术方案的进一步描述：所述喇叭通过第三传输线连接有计算机，所述第三传输线滑动连接在该侧的第一安装槽与凹槽内。作为上述技术方案的进一步描述：所述第一出线槽贯穿箱体顶壁，所述摄像头通过第一传输线连接有计算机，所述第一传输线滑动连接在该侧的第一出线槽内，两个所述第一出线槽位于两个凹槽之间。</t>
+          <t>本发明相对于现有技术，具有以下的优点：1、对比现有的贴片天线，本发明能同时实现小型化、结构紧凑、多频带等优点。本发明属于传统的贴片天线，其次具有电小尺寸，因此适用于低成本大规模的生产，非常适用于小型移动设备中。</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -5137,12 +4164,11 @@
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种性能优良，成本低廉的钾离子电池正极材料及其制备方法，制得的正极材料具有开放的三维空间网络结构，能够可逆存储钾离子。为达到上述目的，本发明采用的技术方案为：一种钾离子电池正极材料，其特征在于：该正极材料的化学式为KxMyFezPO4，其中0≤x≤1，0≤y≤1，0≤z≤1，M为过渡金属离子(包括Co2+，Ni2+，Mn2+中的一种或多种)；该正极材料具有开放的三维空间网络结构，能够可逆存储钾离子。如上所述的钾离子电池正极材料的制备方法，包括以下步骤：a.按质量比称量九水硝酸铁、聚乙烯吡咯烷酮(K30)和其他过渡金属硝酸盐，称量的原料溶解在去离子水中超声搅拌形成均匀的溶液，然后完全干燥并研磨成粉；b.将研磨好的粉体转移至坩埚中，然后将坩埚置于管式炉中在氩气气体氛围中以4～6℃/min的升温速率加热至800～850℃，并保温1～2h；随后以4～6℃/min的降温速率降温至350～400℃，通入氧气，保温2～3h，得到铁基过渡金属氧化物纳米颗粒；c.按质量比称量铁基过渡金属氧化物纳米颗粒和磷酸氢二钾，混合物研磨混合均匀后置于管式炉中在氮气氛围中以4～6℃/min的升温速率加热至700～900℃</t>
+          <t>针对现有技术存在的不足，本发明目的是提供一种滚动轴承钢球磨球机，以解决现有技术的滚动轴承钢球磨球机，在磨球过程中，因会有粉末产生，其粘附在钢球外表面，会影响其磨球，且部分粉末在磨球的驱动力作用下，随意飞扬污染环境，同时传统技术的滚动轴承钢球磨球机需要定时添加磨料，但其时长不易控制，且受的缺陷。为了实现上述目的，本发明是通过如下的技术方案来实现：一种滚动轴承钢球磨球机，其结构包括配电箱、操控面板、造球机体、除粉自添料磨球装置、中心柱、驱动机构，所述操控面板镶嵌于配电箱前表面，所述造球机体位于配电箱右侧方且电连接，所述除粉自添料磨球装置设于造球机体右前方，所述中心柱设于除粉自添料磨球装置中心且呈一体化成型结构，所述驱动机构设于除粉自添料磨球装置下方且与配电箱、操控面板电连接；所述除粉自添料磨球装置由磨球盘结构、添磨料机构、重感推顶机构、静电吸粉机构组成，所述磨球盘结构呈圆形结构，所述添磨料机构设于磨球盘结构内部，所述重感推顶机构设于磨球盘结构下方，所述静电吸粉机构设于磨球盘结构内部下方且电连接。作为本发明进一步地方案，所述磨球盘结构由盘体、磨球纹、滤粉板、顶架组成，所述盘体呈圆形结构，所述磨球纹设于盘体内壁且呈一</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -5152,12 +4178,11 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种降血糖的药剂，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种降血糖的药剂，包括如下步骤：a.称取质量份数比为4:2:2:1的苦瓜、荞麦、薏米和稻米；b.分别将苦瓜、荞麦、薏米和稻米进行烘焙，烘焙后研磨粉，制成苦瓜提取物、荞麦提取物、薏米提取物和稻米提取物；c.称取质量份数比为4:2:2:1的苦瓜提取物、荞麦提取物、薏米提取物和稻米提取物混合，搅拌，制成药剂。与现有技术相比，本发明的有益效果是：本发明设计了一种降血糖的药剂，以苦瓜、荞麦、薏米和稻米为主原料，在患者食用过程中，具有良好的降血糖效果，没有任何副作用，材料简单，制作成本低，效果好。</t>
+          <t>"技术领域发明内容针对上述存在问题或不足，为解决现有硅集成YIG/Ce:YIG薄膜材料损耗较高的问题，本发明提供了一种硅集成低光学损耗磁光薄膜及其制备方法，通过薄膜厚度、沉积气氛及扩散阻挡层工艺，显著降低此类氧化物薄膜硅集成时的光学损耗。具体技术方案如下：步骤1：在硅(Si)、SilicononInsulator(SOI)或氮化硅(SiN)基片上沉积一层5-10nm的SiO2扩散阻挡层薄膜材料；其作用是阻止随后生长的YIG和Ce:YIG薄膜与基片的Si相互扩散，同时不影响YIG,Ce：YIG材料的结晶性能和器件的模场分布。步骤2：在硅(Si)、SilicononInsulator(SOI)或氮化硅基片上沉积一层50-60nm厚的YIG薄膜。通过调控沉积的YIG薄膜厚度，以实现YIG薄膜材料的损耗调节；当薄膜厚度太薄时，YIG薄膜结晶不完全，材料散射损耗较高；而当YIG薄膜厚度太厚时，模式在Ce:YIG中的限制因子变小，导致所需器件长度变长，从而材料损耗也较高。步骤3：采用快速退火(RTA)技术，将步骤2制得的薄膜放入快速退火炉内，通入不低于0.5Torr的氧气，升温至800-1000℃，保温3-5分钟，自然冷</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -5167,12 +4192,11 @@
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>本发明为一种脱除废气中含硫化合物的方法，具体包括以下步骤：(1)将碳酸钙和碳酸钠以4：1至6:1的比例，混合、粉碎；(2)将步骤(1)的产物研磨至40~60目，在二氧化碳的气体保护条件下，以500℃至1000℃温度煅烧2-4小时；(3)将步骤(2)制得的吸附剂用于同时脱除硫化氢、二硫化碳等含硫化合物；(4)将含硫氧化物的废气，以至下而上的方式，通过步骤(2)制得的吸附剂，吸附剂上方覆盖透气过滤网筛,可以保证废气能够与吸附剂充分接触，保证脱硫效果；(5)透气过滤网筛材质为锦纶合成纤维，编织方式为平纹席形组织，直径为0.55毫米；(6)经过透气过滤网筛的净化过程，得到净化后的气体。与现有技术相比，本发明的有益效果：首先，吸附剂通过吹扫含硫化物的废气以提供适宜的工作气氛，脱硫效率高，可以在不同的规制的设备中使用；本发明的脱硫方法，相比于现有工艺，操作简单，降低安全风险；并且，现有脱硫工艺，能耗高，吸附剂需要频繁补充，损失较多，而本法能耗显著降低，吸附剂损失少，吸附剂可循环利用，成本更低，无有害副产物产生，对环境友好。</t>
+          <t>"技术领域发明内容本发明的目的是提出一种DMA数据同步传输变异步传输的方法，用以解决现有的DMA数据同步传输过程中由于占用CPU资源出现的资源浪费现象，以及对应的数据传输效率低的问题，具体技术方案如下：一种DMA数据同步传输变异步传输的方法，所述方法包括步骤：S1、将传输的当前数据包设置为高优先级任务，由CPU分配资源给所述当前数据包；S2、在CPU给所述当前数据包分配好资源的传输过程中启动与所述当前数据包对应的DMA传输，将所述DMA传输转至低优先级任务；S3、释放高优先级任务占用的CPU资源，由CPU分配所述MDA传输所需的资源，完成所述DMA传输；S4、重复步骤S1~S3，实现所有需要传输的数据包及其对应的DMA传输的数据传输操作。本发明的DMA数据同步传输变异步传输的方法，在数据传输过程中，将数据包部分设置为高优先级任务，与数据包对应的DMA传输设置为低优先级任务，首先由CPU给高优先级任务的数据包分配资源进行传输，并同时启动DMA传输，当前数据包传输完成后，释放对应CPU资源，并给DMA传输分配指定大小的资源进行DMA数据传输，实现数据包与DMA的异步传输；与现有技术相比，本发明可将数据包与DMA异</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -5182,12 +4206,12 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>进一步的，所述垃圾桶为塑料、金属材质。进一步的，所述垃圾桶圆柱形状一端封闭，另一端有可开闭的盖子。进一步的，所述垃圾桶圆柱形状的中部有一块不超过半圆的圆弧形状的缺口。进一步的，所述中部可打开的盖板为塑料、金属材质。进一步的，所述中部可打开的盖板形状和所述垃圾桶中部的缺口大小、形状能够保持嵌合。</t>
+          <t xml:space="preserve">技术领域发明内容本发明的目的在于提供一种单晶硅片倒金字塔制绒用辅助剂及其应用，该辅助剂可加入含有金属离子的酸性制绒液，辅助制绒液对单晶硅片进行制绒；辅助剂可控制制绒时挖孔、扩孔的方向和速度，还可改善脱泡效果和溶液浸润性，去除微结构，从而获得外观良好、结构均一、出绒率高的倒金字塔绒面。为实现上述目的，本发明提供一种单晶硅片倒金字塔制绒用辅助剂，其各组分的质量百分含量为：聚天冬氨酸0.5%～1%，甜菜碱0.2%～0.5%，聚乙烯醇1%～3%，明胶1%～3%，氟碳表面活性剂0.2%～0.5%，余量为水。优选的，所述水为去离子水。本发明还提供一种单晶硅片倒金字塔制绒用制绒液，其含有：酸溶液，金属离子，以及上述辅助剂；所述金属离子为金、银、铜、铁、镍离子中的一种或几种。优选的，所述酸溶液中配入了5%～30%的HF水溶液和2%～20%的H2O2水溶液，HF水溶液中含有49%的HF，H2O2水溶液中含有30%的H2O2；其中，百分含量为质量百分含量。优选的，所述金属离子与酸溶液的质量比为0.5～5:100。优选的，所述辅助剂与酸溶液的质量比为0.3～1.5:100。
+</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -5197,12 +4221,11 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>本发明就是为了解决上述背景技术的问题，其提供了一种反应时间短、反应效率高、杂质含量较低的盐酸贝尼地平的制备方法。为此，本发明提供了一种盐酸贝尼地平的制备方法，具体包含以下步骤：(1)在超声条件下，使2，6-二甲基-4-(3-硝基苯基)-1，4-二氢吡啶-3，5-二羧酸单甲酯均匀分散于N，N-二甲基甲酰胺和二氯甲烷的混合溶剂中，所得混悬液在冰浴冷却下加入氯化亚砜，搅拌得澄清溶液，制得单氯酰化2，6-二甲基-4-(3-硝基苯基)-1，4-二氢吡啶-3，5-二羧酸单甲酯；(2)将步骤（1）中制得的单氯酰化2，6-二甲基-4-(3-硝基苯基)-1，4-二氢吡啶-3，5-二羧酸单甲酯加入1-苄基-3-羟基哌啶，并继续反应；(3)将步骤（2）的反应液经水和或饱和食盐水洗涤若干次后，回收溶剂，得盐酸贝尼地平粗晶；(4)将步骤（3）制得的盐酸贝尼地平的粗晶溶于有机溶剂，用超声波作用若干时间，通过一次或多次结晶，直接获得淡黄色的盐酸贝尼地平的粉末状结晶。优选地，步骤（1）～（4）中的超声条件包括超声温度、超声频率、超声时间和超声功率。</t>
+          <t>具体地，所述步骤(S4)中编码间隔时间满足100～125us。与现有技术相比，本发明具有以下有益效果：(1)本发明在消防电话分机返回摘机命令后与消防电话主机实现通话，消防电话主机下发信息，并且下发的信息采用数字调制方式，相对于现有技术的模拟信号的传输方式来说，本发明采用数字传输方式很好的避免了在传输的过程中信号受到干扰、影响通话质量的情况发生，并且采用数字传输的方式有效地消除了回音，适用于大规模推广。(2)本发明在消防电话主机与消防电话分机实现通话后，消防电话主机依然实时对其他地址的消防电话分机进行巡检，从而避免了当消防电话主机与其中一消防电话分机通话而错过与其他消防电话分机间的响应，从而实现了全方位的监测，实用性更强。</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -5212,12 +4235,11 @@
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>优选的，所述活动板通过限位块与装置本体活动连接，且限位块的外表面与限位槽的内表面相切。优选的，所述第一收集箱和第二收集箱均通过旋转轴与装置本体活动连接，且第一收集箱和第二收集箱的上表面均开设有通孔。优选的，所述支撑脚通过螺纹槽与螺纹轴活动连接，且螺纹槽的表面涂有润滑油。优选的，所述防滑垫与支撑脚之间设有粘合剂，且防滑垫的外表面开设有多个凹槽。</t>
+          <t>本发明正是针对现有技术中存在的问题，提供一种用于极低功耗电源转换器的模式控制电路，该技术方案用于开关电容电源转换器的时钟模式控制，开关电容电源转换器对控制电路有以下需求：在上电初始，需要先启动电源内建时钟以支持电源转换器工作；当内核电压建立完成，控制电路根据模式选择信号的电平决定是否切换到外接时钟；当内核电压掉电后，控制电路自动唤醒内建时钟工作。</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -5227,12 +4249,11 @@
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>进一步地，所述第一磁铁极性与第二磁铁极性相反，所述第一磁铁与第二磁铁通过磁力相吸。进一步地，所述压缩弹簧直径与活动板直径相同，所述活动板直径与第二磁铁直径相同，所述空心座内径略大于第一磁铁、第二磁铁、活动板以及压缩弹簧直径。进一步地，所述空心座后端面上侧开设有活动孔，且活动孔与弹性连接绳相匹配，所述弹性连接绳通过活动孔与空心座相连接。</t>
+          <t>显然的，若拆卸过程中遇到需要轿厢10上升的情形，只需打开曳引机12的抱闸并使卷扬机19反向转动即可。为安全起见，在井道1内的作业人员应该配备高空作业安全带和生命线，以防意外跌落。在该步骤中，每当一楼层拆除完毕后，立即用遮挡物(如木板、警示线、网型围栏等)挡住该层厅门，并张贴“安全警示语”，以防发生意外。</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -5242,12 +4263,11 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>本发明的目的是克服现有技术的不足，提供一种铲车板生产工艺，其将铲车板设计成模块式的若干块，便于其进行前期强化处理，并通过良好的强化工艺，制造出强度更高的铲车板。本发明采用以下技术方案：铲车板生产工艺，其包括以下步骤：步骤一：锻打，通过锻打机器对板材进行锻打8-12分钟；步骤二：机加工：将锻打后的板材加工成尺寸为长50cm、宽22-23cm、厚3-3.5cm的子板；步骤三：加热：将子板加热到800-900度；步骤四：淬火：将子板放入水中淬火，淬火时间4-6分钟。作为一种改进，步骤二还包括，在子板上加工出安装孔。作为一种改进，还包括步骤五：将若干子板依次排列安装于一底板的长度方向上，若干所述子板的一侧边缘突出于底板之外形成用于与外部接触铲物的铲物部。作为一种改进，底板和子板上具有相互对应的安装孔，底板和子板之间通过紧固件进行安装；底板和子板上的安装孔具有三个，并且安装孔呈等腰三角形排列，其中两个安装孔并排靠近铲物部设置，第三个安装孔设置于其他安装孔之间的位置并远离铲物部设置。作为一种改进，若干子板相互之间整齐排列在底板形成整体的矩形体。作为一种改进，底板上还设置有间隔排列的铲齿，若干子板分别相适配的安装于相邻铲齿</t>
+          <t>发明内容现为了克服上述缺陷并实现对焊枪角度的便捷式调节，本发明提出了一种焊枪角度调节装置。本发明所要解决的技术问题采用以下技术方案来实现：一种焊枪角度调节装置，包括底座，所述底座上沿水平滑动安装有活动座，活动座的后部上侧焊接有后齿条，活动座的前部下侧焊接有前齿条；后齿条啮合有后齿轮，前齿条啮合有前齿轮；所述的后齿轮、前齿轮均通过轴承连接有通过轴承座安装在底座上的中心轴；所述中心轴中部通过键安装有棘轮，所述的后齿轮、前齿轮二者上部均以铰接方式安装有与棘轮的棘齿抵合相配的棘爪；中心轴前部固装有焊枪。本发明的有益效果是：本发明自动化程度高，通过棘爪单向推动棘轮旋转，不仅能够有效地控制焊枪进行单方向角度旋转调节，而且控制滑动方向可变，不仅控制方便而且还节省材料。</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -5257,12 +4277,11 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>本发明提供一种超高分辨率球幕数字内容制作技术与工具，利用球幕拍摄系统以及3D虚拟球幕数字制作技术生成球形影像。本发明采用鱼眼镜头等距投影，采用多摄像机拍摄拼接和三维动画制作软件进行制作。使用5台摄像机，结合自主研发的球幕拍摄云台系统（图1），摄像机的拍摄画面设为正方形，视场角（FOV）均设为90度，素材拍摄完成后，使用自主研发的球幕融合拼接技术，可以将各个摄像机获取的影像合成为球幕影像。</t>
+          <t>技术领域发明内容有鉴于此，本发明的目的在于提出一种水果分选机，采用成本更低更加利于市场推广的方法对水果进行分选。基于上述目的提供的一种水果分选机，包括输送部，用于输送需要进行分选的水果；框架，安装在输送部的输出端；称重部，安装在框架内，通过弹性材料连接在框架底部，可在框架内部沿竖直方向移动；称重触点，连接在称重部外部的一侧，随称重部一同移动；分选件，安装在称重触点的一侧，称重触点移动时可与分选件接触或分离，称重触点与分选件接触时构成分选回路；滑动部，安装在称重部内侧，方向垂直于输送部的输送方向；第一挡板和第二挡板，均活动连接在滑动部上，可沿滑动部移动，对称重部内的水果进行限位，并可带动水果移动，第一挡板和第二挡板均串联在分选回路中。第一分选通道和第二分选通道，安装在称重部远离所述输送部的一侧，用于运输分选后的水果。优选地，称重部靠近输送部一端的高度高于称重部远离输送部的一端，且称重部远离输送部的一侧设有闸板。优选地，闸板上覆盖有缓冲层。优选地，称重部内还设有若干竖直方向的滑槽，每个滑槽上均设有可沿滑槽移动的称重块，称重块两端通过弹性件连接在称重部底部，称重部在每个称重块底部位置设有体积检测开关，称重块向下移动</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -5272,12 +4291,11 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种便于安装导流片的空调组件，以解决上述背景技术中提出的导流片损坏更换安装麻烦的问题。为实现上述目的，本发明提供如下技术方案：一种便于安装导流片的空调组件，包括空调本体，所述空调本体的右侧内部插设有推杆，且推杆的左侧铰接有铰接轴，所述铰接轴的底端铰接有滑杆，且滑杆的底端与梯形凸块表面相抵触，所述梯形凸块的左侧固定连接有第一连接杆，且第一连接杆插设在第一限位块的内部，所述第一限位块的底端内部插设有抵触块，所述第一连接杆的左侧插设在导流片的内部，所述导流片的左侧固定连接有第二连接杆，且第二连接杆的表面套接有第二齿轮，且第二齿轮的顶端与第一齿轮相啮合，所述第一齿轮的左侧固定连接有摇把，所述空调本体的左侧内部固定有连接块，且连接块的内部插设有滑块，所述第二连接杆的底端与第二限位块的表面相抵触，所述第二连接杆的左侧底端内部固定有第二固定块，所述空调本体的右侧底端内部固定有第一固定块。优选的，所述空调本体的右侧内部固定有卡块，且卡块的底端与梯形凸块的表面相抵触，所述梯形凸块与卡块形成卡合式结构。</t>
+          <t>技术领域发明内容针对现有技术的不足，本发明是通过如下的技术方案来实现：两次缓冲防止轿厢冲顶的电梯检修保护装置，滑脚、三角锁定结构、检修平台、缓冲支柱，所述滑脚设有四个，均匀分成两组，这两组滑脚水平对称安装在检修平台两侧，所述滑脚末端与电梯井道采用活动配合，检修平台为长方体，且其顶端面的四个角落中皆安装有四根缓冲支柱，四根缓冲支柱分成两组，每组两根缓冲支柱之间安装有三角锁定结构。作为本技术方案的进一步优化，所述三角锁定结构由两个小支撑构成，所述小支撑的结构包括活动柱、第一支杆、关节、第二支杆，所述关节为方形结构并且其上下两端分别活动固定着第一支杆、第二支杆，所述第一支杆、第二支杆末端通过活动柱固定在缓冲支柱上下两端，两个小支撑的关节活动触碰。作为本技术方案的进一步优化，所述缓冲支柱由支座、内杆、压迫块、外筒、空腔、鼓膜缓冲器组成，所述外筒为空心柱体并且其内部空间为空腔，所述内杆为实心柱并且其直径小于外筒，所述内杆顶端垂直设于位于检修平台正上方的顶板，所述内杆底端安装有互相对称的压迫块，所述外筒的空腔底部安装有鼓膜缓冲器，所述鼓膜缓冲器和压迫块活动配合。作为本技术方案的进一步优化，所述鼓膜缓冲器设有鼓膜、气腔、充</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -5287,12 +4305,11 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>进一步的在风轮轴与防护伞的连接处设有两处台阶，第一台阶和第二台阶，安装时将防护伞直接套在风轮轴上，防护伞中间开的孔径刚好穿过第一台阶后固定在第二台阶上。更优的，在防护伞上设置红、绿、黄三种色相，方便维护人员在每个铁塔上都可以辨别该输电线路的相序。进一步的轴承选用的是微型轴承，一般铁塔的高度是15米至60米，在这样的高度上，风力足以带动设置的迎风叶轮和轴承套筒旋转。</t>
+          <t>本发明利用化成后内阻变化和高温搁置后内阻变化值来筛选出异常电池，由于化成后正极材料得到活化，同时负极表面会形成负极SEM膜，相同化成条件下电池部分电性能会通过内阻表现出来，同时高温条件下，部分SEM受到破坏，经过搁置后SEM会经过重组更加致密，电池内阻会有变化。根据此方法将电池进行首次分类后，成组一致性得到明显提高。</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -5302,12 +4319,11 @@
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>并且由于锁扣分离，铺装后不易出现高低差，并且由于无须预留锁扣的刨边面积，能够使木地板加工时出材率更高优化资源利用率。该木地板锁扣加工难度低，拼法方案自由个性，地板损耗率低，可回收重复使用，并且适合多规格多样式混铺，且适合所有常规铺方法。本发明的技术方案包括地板锁扣分离技术，以及元宝形独立锁扣技术。不影响木地板装饰面的木地板侧边斜边内凹槽，既扣口结构（6），以及一根独立的元宝锁扣条（1）。</t>
+          <t>优选的，所述增塑剂为矿物油。上述玻璃纤维胶粘带用热熔胶的制备方法包括以下步骤：将聚对苯二甲酸乙二醇酯、氢化松香季戊四醇酯、三乙酸甘油酯、抗氧剂和增塑剂加入双螺杆挤出机，进行混炼、挤出、冷却和切粒，得到玻璃纤维胶粘带用热熔胶。优选的，所述混炼的温度为140～180℃。本发明的有益效果是：本发明的玻璃纤维胶粘带用热熔胶具有软化点高、剥离强度高、耐高低温性能优异等优点，且制备工艺简单、生产成本低。</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -5317,12 +4333,11 @@
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>本发明的目的是设计一种二维轴心旋转调节架，反射镜的反射面可以实沿镜面所在平面内的两条相互垂直且经过圆心的轴线转动，水平方向上可以360°转动，垂直方向上可以±4°转动。本发明一种二维轴心旋转调节架，主要包括：一个调节架固定座，用来装配测微头、压缩弹簧钉、调节架旋转台、调节架旋转台限位块、调节架旋转台限位环、调节架旋转台锁定块；一个调节架俯仰调节装卡件，用来装卡反射镜；一个调节架俯仰调节固定座，用来连接调节架旋转台以及调节架俯仰调节装卡件；一个测微头，测微头的调节范围是5mm，分辨率是0.02mm；一个螺纹副，安装在调节架俯仰调节装卡件上，用来调节反射镜垂直方向的转动；一个反射镜卡环挡圈，用来挡住反射镜卡环；一个反射镜卡环，用来卡紧反射镜；一个调节架旋转台限位环，套在调节架旋转台限位块上；一个调节架旋转台锁定块，用来和调节架旋转台连接，把调节架旋转台限制在调节架固定座的中心大圆孔内；一个压缩弹簧钉，配合测微头实用，使得测微头调节的时候带动调节架旋转台限位环转动，压缩弹簧钉对调节架旋转台限位环转动方向施加一个反向的力；四根带钩拉黄，用来拉住调节架俯仰调节装卡件和调节架俯仰调节固定座；一个调节架旋转台，调节架旋转台</t>
+          <t>技术领域发明内容为了解决现有技术中存在的上述技术问题，本发明提供了一种镧系掺杂的硒化锌纳米材料的制备方法，本发明所采取的技术方案如下：一种镧系掺杂的硒化锌纳米材料的制备方法，其具体制备工艺为：(1)用天平称取一定量的硒化锌原料及镧系离子化合物，将其放入机器中进行充分的混合与研磨。(2)将已混合的物质放入管式炉，设置一定的温度制度并通入一定气体，进行烧结处理。(3)将烧结好的物质放入机器充分磨细，取一定量的粉末放入烧杯中，同时加入一定的有机溶剂使之分散。(4)将烧杯放入冰浴装置中，在烧杯上方放置超声仪器，进行超声处理。(5)把超声好的物质放入离心机，离心处理。(6)取出离心管的上层淡黄色溶液。所述步骤(1)中镧系离子的掺杂量为：0.1%～10%。所述步骤(2)中通入的气氛为：氮气、氦气、氩气、氮气与氢气平衡气压气体；管式炉的升温速率为：1℃/min～100℃/min，烧制时间为：1h～24h。所述步骤(3)中放入机器的研磨时间为：10min～60min；加入的有机溶剂为：乙醇，丙酮，环己烷，环己醇，甲基吡咯烷酮，去离子水。所述步骤(4)中冰浴温度为：-10℃～10℃；超声时间为：1h～24h。所述步骤(5)中离</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -5332,12 +4347,11 @@
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>为了解决水稻育种和研究中的上述问题，本发明提供了一种通过水稻种子组培成苗拯救水稻材料、加速水稻世代进程的方法和培养基，达到缩短生长周期，加快育种进程的目的。本方明可用于拯救常规水稻，杂交水稻，转基因水稻，基因编辑水稻等等的水稻种子，上述种子可为未成熟的种子或者成熟种子。使用本发明的方法，不会影响未成熟种子的正常萌发成苗，而且可极大地缩短水稻的生长周期，加速水稻的世代。本发明使用授粉后7天以上的水稻种子，去掉颖壳，经过消毒、接种于萌发培养基上可萌发长成健壮的植株。所述的萌发培养基的配方为：含有葡萄糖10-30g/l,植物凝胶2.0-3.0g/l的1/2MS-1XMS培养基,PH值为5.0-7.5。</t>
+          <t>技术领域发明内容本发明的目的在于提供一种新型汽车横向泊车系统，整套新型汽车横向泊车系统结构简单、成本低廉，适用于电动汽车等领域推广应用，让新手也能安全、快速地停车入库。本发明采用的技术方案如下：一种新型汽车横向泊车系统，主要由一个电机、一个拉杆和四个曲柄构成；其特征在于：电机安装在汽车底盘预留的圆孔里，电机上的转轴朝下，电机上的转轴末端安装有齿轮；拉杆为一根直杆，在拉杆的一侧设置有齿条，在拉杆的两端分别设有一个凸台，拉杆安装在底盘纵向中心的槽里，电机上的转轴末端安装的齿轮与拉杆侧面的齿条相啮合；曲柄分成三个部分，第一部分曲柄朝向车体外侧的一端与车轮直接连接，第二部分曲柄是圆弧形，装配在汽车底盘的圆弧槽内，第三部分曲柄设有滑轨，所述拉杆两端的凸台装配在四个曲柄的滑轨里。本发明所述一种应用新型汽车横向泊车系统的泊车方法，其特征在于方法步骤如下：（1）首先将汽车开到纵向停车位的正侧方；（2）然后启动电机正向旋转，通过拉杆带动曲柄，使四个车轮同步旋转90度，电机旋转时，齿轮带动齿条运动，使拉杆沿着车身纵向前后移动；当拉杆前后移动时，会同步带动四个曲柄绕车轮中心进行旋转；（3）最后开动车辆前进，将汽车横向进入停车位后，</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -5347,12 +4361,11 @@
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>优选的，两个所述第二连接板互相远离的一端均通过铰链活动连接在主架上。优选的，两个所述转盘的左、右两端均穿过腔体，且延伸在竖板的左、右两侧面外。优选的，两个所述螺纹筒滑动连接在腔体内，所述滑块滑动连接在滑道内。优选的，所述螺纹筒螺纹套接在螺杆的外表面。</t>
+          <t>该元件能够满足工作环境需要，有较大的应用前景。其有益之处是在结构设计上结合当前液压技术集成化、小型化、轻量化的发展趋势，把内齿轮液压马达和发电机两个独立的元件进行整合，在结构上大为简化，取消了马达输出轴以及液压马达和发电机之间的传动装置，其整体结构更加紧凑、体积更小、重量更轻、噪声更低、无外泄漏、效率更高、安装维护更方便、适用范围更广。该元件能够满足工作环境需要，有较大的应用前景。本发明利用液压能，通过齿轮马达组件直接驱动发电组件使液压能直接转换为电能输出。</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -5362,12 +4375,11 @@
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>优选地，所述收集机构包括设在收集板下端的收集框，所述收集框内滑动连接有抽屉，所述抽屉贯穿出收集框外侧壁，所述抽屉的外侧固定连接有拉栓。优选地，所述固定机构包括固定连接在装置块下端的多个固定栓。优选地，两个所述装置块之间通过第二螺栓固定连接。</t>
+          <t>"技术领域发明内容本发明的目的在于提供粗毛甘草素A在用于抗肿瘤药物中的用途。粗毛甘草素A（CAS:142474-52-0）化合物结构为式（Ⅰ）所示：式（Ⅰ）为粗毛甘草素A或其药学上可接受的酯、醚、盐、溶剂化物、立体异构体、互变异构体及前药中的任一种。上述的粗毛甘草素A在治疗肝癌药物中的用途。上述的粗毛甘草素A在治疗肺癌药物中的用途。在抗肿瘤药物的制备中，以粗毛甘草素A经常规的制剂工艺，单独或与其他药物配伍制备可在临床上使用的各种不同剂型的药物，包括注射剂、片剂、胶囊、软胶囊、微囊、纳米制剂、颗粒剂、膜剂、栓剂、气雾剂等多种剂型。本发明与现有技术相比，具有明显的有益效果，从以上技术方案可知：本发明对甘草化学成分的系统分离、纯化和结构鉴定，并进行活性筛选，发现多个具有显著生物活性的化合物。粗毛甘草素A具有显著抑制肺癌细胞A549和肝癌HepG2增殖的活性，和具有诱导癌细胞凋亡的作用；提示其可以用于肿瘤的治疗。本发明为研制以粗毛甘草素A组分为物质基础的抗肿瘤药物提供了科学依据，具有重大的应用价值。附图说明图1为粗毛甘草素A的化学结构式。图2为结晶紫染色法测定不同浓度粗毛甘草素A对HepG2和A4549细胞增殖的抑制</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -5377,12 +4389,11 @@
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种具有散热功能的电表，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种具有散热功能的电表，包括壳体、连接孔和隔离板，所述壳体的顶部两侧均焊接有上固定板，且壳体的底部两侧均连接有下固定板，所述壳体的底部中端安装有接线端，且接线端的正前方覆盖有闭合罩，所述连接孔通过一次性切削加工设置于闭合罩的两侧，所述壳体的中部设置有显示区，且显示区的中部内置有显示面板，所述隔离板设置于接线端的内部，且隔离板的后方通过滑块连接开设有滑槽，所述隔离板的两侧均粘接有保护垫，所述壳体的正面通过浇筑加工开设有契合开口，且契合开口的正前方覆盖有安装框，所述安装框的内部通过一体式设置安装有网罩，且安装框的底部焊接有卡块，所述卡块的外端开设有凹槽。优选的，所述壳体的顶部两侧设置有呈对称结构的上固定板，且壳体和显示面板的连接构成内嵌结构。优选的，所述接线端和壳体的连接构成一体式结构，且接线端通过连接孔和闭合罩固定连接。</t>
+          <t>旋转蒸发系统包括：旋转蒸发瓶与旋转装置。旋转蒸发瓶包括第一旋转蒸发瓶和第二旋转蒸发瓶；旋转装置包括：第一旋转装置和第二旋转装置。第一旋转蒸发瓶与第一旋转装置连接，第二旋转蒸发瓶与第二旋转装置连接，旋转装置与旋转蒸发瓶相连并带动旋转蒸发瓶旋转，2个旋转装置上端连接有三通承接管。</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -5392,12 +4403,11 @@
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种纺织货物存放柜，具备便于存放的优点，解决了不便于存放的问题。为实现上述目的，本发明提供如下技术方案：一种纺织货物存放柜，包括外壳、连接板和门板，所述外壳上表面开设有放置槽，所述放置槽内部设置有连接板，所述外壳上端外壁对称开设有螺孔，且螺孔位于放置槽两侧，所述外壳一侧外壁对称设置有门板，所述门板一侧外壁对称设置有合页，所述外壳内壁上端设置有第一滤网，所述第一滤网上端外壁放置有干燥剂，所述外壳内壁下端安装有支撑板，所述支撑板内部开设有等距平行分布的透气孔，所述支撑板下端外壁安装有吸气罩，所述吸气罩下端外壁插接安装有连接管。优选的，所述连接板内部开设有等距平行分布的通孔，所述通孔内壁设置有海绵。</t>
+          <t>本发明的目的在于克服以上不足之处，提供一种高强度电子光箔及其制造工艺，达到显著提升产品机械强度的目的。本发明的目的通过以下技术方案来实现：一种高强度电子光箔，该电子光箔为中间层为芯层，上下为容量层的三层复合结构，所述容量层为表面（100）晶面占比98.5%以上的超纯偏析铝构成，厚度为40-60μm，所述芯层为高强度的Al合金，厚度为15-30μm。本发明的目的通过以下技术方案来实现：一种高强度电子光箔，该电子光箔为中间层为芯层，上下为容量层的三层复合结构，所述容量层为表面（100）晶面占比98.5%以上的超纯偏析铝构成，厚度为40-60μm，所述芯层为高强度的Al合金，厚度为15-30μm。优选的是，芯层含Cu0.2-1.2％、Zn0.1-0.5％、Mn0.05-0.15％、Gd0.01-0.05％、Ce0.01-0.05％，余量为Al及杂质。</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -5407,12 +4417,11 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种电池串的搭接方法，其能同步搭接多个电池片，可提高电池串的搭接效率。为实现上述目的，本发明的技术方案是设计一种电池串的搭接方法，包括如下步骤：沿左右方向依次排列多个平置且背面朝上的电池片，各电池片位于同一高度；各电池片分别设有正面边缘电极和背面电极；正面边缘电极位于其所在电池片的正面左侧边缘或右侧边缘；同一电池片的左右两侧边线，以其中靠近正面边缘电极的一侧边线为第一边线，以其中远离正面边缘电极的一侧边线为第二边线；各电池片的第一边线在左右方向上朝向相同；以正面边缘电极在左右方向上的宽度为正面边缘电极宽度，各电池片的正面边缘电极宽度相同；相邻两个电池片的间距不小于正面边缘电极宽度；每个电池片的背面电极都焊接有独立的带状或条状连接件，连接件沿左右方向设置，连接件不伸至其所在电池片第一边线的外侧，连接件伸至其所在电池片第二边线的外侧，且连接件超出其所在电池片第二边线的长度等于正面边缘电极宽度；以连接件超出其所在电池片第二边线的部分为连接件的外置段；将各个电池片同步吸起，再将各电池片分别转动一定角度，各电池片的转动方向都为第一边线向上且第二边线向下，使各电池片都小角度倾斜；减小相邻两个电池片的间</t>
+          <t>本发明公开了一种软壳虾的特征提取算法。一种基于改进AlexNet的软壳虾特征提取方法。根据最大激活值的特征输出模式，依次获取改进AlexNet网络中每层的软壳虾的可视化特征</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -5422,12 +4431,11 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>本申请的目的在于，提供一种远程交互方法，以及远程交互系统，能够让车辆主机被远程唤醒后，当车主离车辆较远时车辆主机保持待机状态，节省电量。为解决上述技术问题，本发明提供一种远程交互方法，适用于车辆主机，包括以下步骤：接收到远程终端发送的远程唤醒指令后，开机并直接进入待机状态；实时监测车辆主机所在车辆的钥匙是否在车辆预设范围内，若在，则从待机状态切换为正常工作状态；反之，则仍保持待机状态。在一实施方式中，所述接收到远程终端发送的远程唤醒指令后，开机并直接进入待机状态的过程包括：接收到远程终端发送的远程唤醒指令后，开机上电并控制非音频模块正常工作，控制显示屏和音频模块进入待机状态。</t>
+          <t>本发明的目的是针对上述现有技术的不足，提供一种降低人工对抗磨环尺寸测量影响的多点电测检具。所述外测量环同轴套设在所述内检测环的外侧，二者之间留有供工件进入的间隙；所述内检测环上沿其周向设有多个内孔测头，所述外测量环上沿其周向设有多个外圆测头；所述测量支架包括环形件以及多个向所述环形件中心延伸的定位辐架，所述定位辐架的端部设有向上凸起的定位支点。所述滑块的上部铰接有上定位盖，所述上定位盖的下端面设有向下延伸的定位支柱。上定位盖翻转后盖在抗磨环的上端，支柱与抗磨环的上端面相接触。</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -5437,12 +4445,11 @@
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>优选的，所述万向轮通过螺栓与底座的底部固定连接，所述驱动电机通过螺栓与支撑板的顶部固定连接。优选的，所述第一侧板的顶部开设有垃圾口，所述垃圾口的内径为20～30cm，所述第二侧板的顶部沿高度开设有通孔，所述连接块穿过通孔与宣传栏铰接。优选的，所述支撑板的顶部开设有滑槽，所述滑槽内套设有滑块，所述宣传栏的底部与滑块铰接，所述滑槽与滑块的竖截面为T型。</t>
+          <t>技术领域发明内容本发明解决的技术问题是，实现低品位难选重晶石与白云石的分离，获得高品位重晶石精矿。为了解决上述技术问题，本发明的技术方案如下：一种重晶石与白云石的浮选分离方法，包括如下步骤：对含有白云石的重晶石原矿进行磨矿处理，使得重晶石矿物与脉石矿物解离，获得矿浆；向所述矿浆中加入抑制剂、捕收剂，搅拌均匀，再对所述混入了抑制剂和捕收剂的矿浆进行重晶石的粗选，获得粗选精矿和粗选尾矿；对所述粗选精矿进行擦洗磨矿；向经过擦洗磨矿处理的粗选精矿中加入抑制剂、捕收剂，进行多次精选，获得重晶石精矿产品；其中，按重量份计，所述抑制剂包括水玻璃100份、硫酸10-15份、柠檬酸1-2份、栲胶1-2份，所述水玻璃的模数为2.8-3.5；按重量份计，所述捕收剂包括十二烷基二苯醚二磺酸钠1份、十六烷基磺酸钠1份、油酸2-3份、碳酸钠4-6份。在本发明的一些实施例中，按重量份计，所述抑制剂包括水玻璃100份、硫酸10份、柠檬酸1份、栲胶1份。在本发明的一些实施例中，按重量份计，所述捕收剂包括十二烷基二苯醚二磺酸钠1份、十六烷基磺酸钠1份、油酸2份、碳酸钠4份。</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -5452,12 +4459,11 @@
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种防止挂件松动的空调外机用防护装置，以解决上述背景技术中提出的现有的空调外机用防护网在长时间使用后，由于外机工作长时间振动，会导致固定螺栓松动，产生安全隐患的问题。为实现上述目的，本发明提供如下技术方案：一种防止挂件松动的空调外机用防护装置，包括支撑台，所述支撑台的顶端设置有防护网框，所述支撑台顶端的中部设置有安装台，所述支撑台顶端的中部均匀开设有插槽，且插槽的中部皆插设有插杆，所述插杆的顶端皆与支撑台底部焊接固定，所述安装台顶部的左右两侧皆开设有螺栓孔，所述支撑台背面的左右两侧皆焊接有挂架，且挂架的表面皆均匀开设有三组安装孔，所述支撑台的左右两侧皆铰接有两组压杆，且压杆远离支撑台的一侧皆铰接有拉钩，所述防护网框左右两侧的底端皆焊接有勾板，所述拉钩的顶端皆勾卡在勾板的中部，所述压杆的底端皆焊接有拨头。</t>
+          <t>技术领域发明内容有鉴于此，本发明提供了一种基于复合柱肢的门式刚架连接结构，避免采用柱间交叉支撑或刚性框架结构且节省钢材。本发明采取的技术方案如下：一种基于复合柱肢的门式刚架连接结构，所述连接结构由复合柱肢门式刚架和门式刚架纵向连接支撑形成，共n跨，n不小于1，为正整数，包括复合柱肢刚架柱、斜梁、刚架柱、竖向钢梁及水平钢梁；所述复合柱肢刚架柱包括“工”字型柱肢和“T”型柱肢，“T”型柱肢的腹板固定在“工”字型柱肢腹板上；端跨两个复合柱肢刚架柱顶端“工”字型柱肢通过斜梁固定连接，下端固定在地面，构成复合柱肢门式刚架；两个刚架柱顶端通过斜梁固定连接，下端固定在底面，构成门式刚架；第一榀复合柱肢门式刚架和第二榀复合柱肢门式刚架连接构成第一跨，第一榀复合柱肢门式刚架上端“T”型柱肢的翼缘通过水平钢梁Ⅰ、水平钢梁Ⅱ固定连接第二榀复合柱肢门式刚架“T”型柱肢的翼缘，同时水平钢梁Ⅰ与水平钢梁Ⅱ之间通过竖向钢梁刚性连接，形成一个纵向刚性桁架；第n跨与第一跨结构一致；中间跨根据强度、变形控制要求设置复合柱肢门式刚架及纵向刚性桁架，所述强度、变形控制要求由门式刚架连接结构纵向柱距、受力情况和温度区段条件确定；其余跨均由两个门式刚架</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -5467,12 +4473,11 @@
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种降尿酸的药剂，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种降尿酸的药剂，包括如下步骤：a.称取质量份数比为20:50:100:1的薏米、百合、萝卜和大米；b.分别将薏米、百合、萝卜和大米进行烘焙，烘焙后研磨粉，制成薏米粉提取物、百合提取物、萝卜提取物和大米提取物；c.称取质量份数比为20:50:100:1的薏米粉提取物、百合提取物、萝卜提取物和大米提取物混合，搅拌，制成药剂。优选的，所述大米以非转基因大米为原料。与现有技术相比，本发明的有益效果是：本发明设计了一种降尿酸的药剂，以薏米、百合、萝卜和大米为主原料，在患者食用过程中，具有良好的降尿酸效果，副作用小，材料简单，制作成本低，效果好。</t>
+          <t>种电池系统SOP动态调整方法，与现有技术相比，具有如下改进及优点：其一：本发明能够避免整车电池组发生过充过放的情况，导致整车电池组断电而带来的安全隐患，既能保持电池的使用安全和寿命要求，又能满足驾驶员的动力需求；其二：本发明的技术方案软件实现简单且能够有效地保护电池且保证整车的动力性能；其三：本发明的技术方案可以通过实车标定的方式不断地优化参数。</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -5482,12 +4487,11 @@
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>针对现有技术的不足，本发明提供一种泵浦激光器封装结构，有效解决光不能完全吸收和余光产热的问题。本发明还提供一种泵浦激光器封装结构的封装方法。本发明的技术方案如下：一种泵浦激光器封装结构，包括mini巴条、钨铜热沉、AlN陶瓷片、散热热沉和电极，mini巴条和钨铜热沉焊接组成巴条阵列，巴条阵列通过AlN陶瓷片焊接在散热热沉上，电极通过电极绝缘片封装到散热热沉两端。优选的，巴条阵列上方安装透镜，透镜通过垫条进行固定，垫条固定于散热热沉上端。</t>
+          <t>技术领域发明内容本发明公开了一种显示面板和显示装置，目的是提高OLED显示面板开口区的对比度，以改善开口区光学组件的性能。为达到上述目的，本发明提供以下技术方案：一种显示面板，包括显示区和开口区，所述开口区用于设置光学组件，所述显示区至少部分包围所述开口区；所述显示区设有靠近所述开口区的边缘像素界定结构以及远离所述开口区的常规像素界定结构；所述边缘像素界定结构的反射率大于所述常规像素界定结构的反射率。上述显示面板，对靠近开口区的边缘像素界定结构进行了设置，使其反射率大于远离开口区的常规像素界定结构的反射率，从而，增加了开口区边缘的光线反射，可以使到达开口区的光线减少，进而可以提高开口区的对比度，因此，可以改善开口区光学组件的性能，为后续安装光学组件提供保障。可选的，所述显示区包括阵列分布的OLED显示单元；所述边缘像素界定结构包括位于相邻OLED显示单元之间、且沿所述开口区至远离所述开口区的方向排列的至少两层阻挡墙。可选的，靠近开口区的所述阻挡墙的高度大于远离开口区的所述阻挡墙的高度。可选的，所述阻挡墙包括阻隔层和包覆在所述阻隔层外面的界定层。可选的，每个所述OLED显示单元包括依次层叠于基板上的阳极层、发光</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -5497,12 +4501,11 @@
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>本发明所要解决的技术问题是一种能够解决上述问题的便携式蓝牙音响，具有放置稳定，防撞效果好的优点。本发明是通过以下技术方案来实现的：一种便携式蓝牙音响，蓝牙音响主体和音响保护壳；所述音响保护壳上设有中心孔，蓝牙音响主体放置在中心孔内，音响保护壳上设有多个凸起部，凸起部内均设有发光组件，发光组件上设有散热板，散热板的一端延伸至中心孔内，散热板和中心孔的内壁相紧贴，散热板上形成有中心安装孔，中心安装孔内安装有蓝牙音响主体，蓝牙音响主体包括有音响外壳，音响外壳内设有安装腔，音响外壳的中间处设有加厚部，加厚部的上下两端均凸出与柔性音响外壳，加厚部内设有储气腔，储气腔内储存有气体；音响外壳包括多个硬质壳体和多个柔性音响外壳，柔性音响外壳设置在相邻两个硬质壳体之间，柔性音响外壳内设有第一空腔和第二空腔，第一空腔和第二空腔互不导通，第一空腔和储气腔相导通，柔性音响外壳上设有支撑部，第一空腔延伸至支撑部上。作为优选的技术方案，凸起部内设有储物腔，发光组件包括LED电路板、灯珠，灯珠设置在LED电路板上，各个凸起部内的灯珠颜色不一；凸起部上均设有多个透光孔，透光孔内安装有固定导光板，导光板呈半球形结构；LED电路板的一侧固定有散</t>
+          <t>本发明是通过下述技术方案来解决上述技术问题：一种船舶，其特点在于，所述船舶包括翼桥、船舶的上层建筑和翼桥支撑组件，所述翼桥支撑组件的一端连接于所述翼桥，所述翼桥支撑组件的另一端连接于所述船舶的上层建筑，所述翼桥支撑组件包括：第一支撑件，所述第一支撑件的一端连接于所述翼桥，所述第一支撑件的另一端连接于所述船舶的上层建筑；第二支撑件，所述第二支撑件的一端连接于所述翼桥，所述第二支撑件的另一端连接于所述船舶的上层建筑；</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -5512,12 +4515,11 @@
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种管道焊接用固定支撑架。为了实现上述目的，本发明采用了如下技术方案：一种管道焊接用固定支撑架，包括底座，底座左、右两端均固定安装有固定板，固定板上均设有滑槽，固定板顶面均固定安装有推杆电机，滑槽内均滑动安装有滑座，推杆电机的输出端均连接有推拉杆，推拉杆均贯穿滑槽与滑座连接，滑座上均安装有螺纹杆，左、右两侧滑座连接有同一个导向杆，底座顶面固定安装有套筒，套筒内固定安装有压缩弹簧，压缩弹簧上端固定安装有限位块，限位块上端固定连接有支撑杆，支撑杆上端固定安装有双轴电机，双轴电机的左、右输出端分别与两侧的螺纹杆连接，螺纹杆上分别螺纹安装有螺纹套，螺纹套上端均贯穿同一个导向杆，螺纹套底面均固定安装有L形夹取臂，L形夹取臂的内侧端均固定安装有夹取头，夹取头内壁上端均设有小滑槽，小滑槽内均安装有两个小滑座，小滑座上均均铰接有推动杆，推动杆另一端均铰接有夹紧头,L形夹取臂的长端均固定安装有小推杆电机，小推杆电机的输出端均连接有辅助杆，辅助杆均与右侧的小滑座连接。</t>
+          <t>技术领域发明内容本发明的目的在于提供一种具有研磨功能的触头，解决了现有的触头压力较小，接触不能研磨的缺点。本发明所采用的技术方案是，一种具有研磨功能的触头，包括两个相对设置的静触头组件，两个静触头组件之间设置有倒U字型的拉杆，还包括设置在倒U字型的拉杆两个侧面之间的动触头组件，动触头组件位于两个静触头组件的正上方，动触头组件的上侧面与倒U字型的拉杆之间还设置有触头压力板簧，倒U字型的拉杆的两个侧面上均设置有长条孔，两个长条孔之间设置有连接轴且连接轴穿过动触头组件。本发明的特点还在于，动触头组件的底面与静触头组件接触的位置设置有动触头片，静触头组件的上表面与动触头组件接触的位置设置有静触头片。静触头片与动触头片的形状均为矩形、圆形或异形中的任意一种。静触头片与动触头片的接触面均为平面或弧面。长条孔沿长度方向的中线与水平杆方向成锐角夹角。</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -5527,12 +4529,11 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>针对上述问题，本发明提供一种垂直式EHBR黑臭河道处理装置及其使用方法，解决EHBR膜组件淹没入河道底泥中，将EHBR膜组件悬浮在水体内，更好地使EHBR膜组件发挥其作用，提高使用效率，使河道水体污染物得到降解，恢复河道水体的自净化能力。本发明是通过以下技术方案来实现：一种垂直式EHBR黑臭河道处理装置，其包括风机、供气管路、阀门、支架和EHBR膜组件，所述EHBR膜组件是通过气体支路相连接，通过阀门调节风机供给EHBR膜组件的压力和流量；所述EHBR膜组件通过固定件固定于支架上，悬浮于河道水体中。进一步地，所述EHBR膜组件根据河道水体的深度制定EHBR膜丝的长度。进一步地，所述EHBR膜组件采用下端进气，各组件之间采用气体支路连接，末端EHBR膜组件的端头封堵。进一步地，所述支架是由主筋、次筋、竖筋和斜筋组成的，所述竖筋长度为200-600mm，所述斜筋布设在支架底部，所述次筋连接固定EHBR膜组件。</t>
+          <t>技术领域发明内容本发明所要解决的技术问题，是针对上述存在的技术不足，提供了一种组合式汽车制动盘，采用制动盘上部设置有多组制动面的效果，从而提升至了制动盘在进行制动时，具有较高的制动效果；采用制动装置内部采用涡状滑槽的驱动方式，使得制动钳与制动盘的接触是一个循序渐进的过程，解决了传统的制动片在进行制动的时候，刚性冲击较大，容易损坏制动钳和制动盘的问题。为解决上述技术问题，本发明所采用的技术方案是：包括制动盘；所述制动盘上部周向端面方向设置有副制动面；所述副制动面两侧对称设置有主制动面和从制动面；所述主制动面设置在所述从制动面外部；所述从制动面内部设置有安装面；所述安装面上部设置有车轮端盖和传动轴；所述车轮端盖一端与所述安装面采用螺栓连接；所述车轮端盖另一端与所述传动轴采用卡接；所述制动盘靠近所述传动轴一侧设置有制动装置。进一步优化本技术方案，所述主制动面上部周圈均匀设置有弧形通孔；所述弧形通孔之间交错设置有弧形储垢槽。</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -5542,12 +4543,11 @@
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>针对以上现有技术存在的缺点和不足之处，本发明的首要目的在于提供一种含以螺芴为中心的有机发光材料。该螺芴分子结构简单，便于化学修饰和功能化。本发明利用螺芴构筑了高固态发光效率的材料。将螺芴与既有空穴传输能力又有电子传输能力的集团相连，能够得到同时具有高固态发光效率和双级传输特性的发光材料。</t>
+          <t>发明内容为解决上述问题。本发明提供了一种锌-铜合金的变质剂，加入少量便可达到减少ε相树枝晶分枝数目、减小晶粒尺寸的目的；同时还提供了该变质剂的变质方法，该方法简单易行。一种锌-铜合金的变质处理方法，向待处理的锌-铜合金中添加含有镁元素的变质剂。上述方法中，所述变质剂的加入量满足镁元素在锌-铜合金中占0.08wt.%—0.9wt.%。</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -5557,12 +4557,11 @@
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>本发明的目的是提供一种用于数字操作的DDIIR压降补偿电路，以解决现有技术存在的上述缺陷。为达上述目的，本发明采用的技术方案如下：一种用于数字操作的DDIIR压降补偿电路，包括参考电压发生器(1)和数字电源电压调节器(2)，所述参考电压发生器(1)的地端连接第一地(VSS1)，所述参考电压发生器(1)的输出端通过第一电阻(R1)连接数字域的电源端(A)，所述数字域的地端(B)通过第二电阻(R2)连接第二地(VSS2)，所述数字电源电压调节器(2)包括第一开关管(MOS_A)、第二开关管(MOS_B)和控制器(21)，所述第一开关管(MOS_A)跨接在所述第一地(VSS1)和所述参考电压发生器(1)的增益级电阻(R_Up和R_Down)的地端之间，所述第二开关管(MOS_B)跨接在所述数字域的地端(B)和所述参考电压发生器(1)的增益级电阻(R_Up和R_Down)的地端之间，所述控制器(21)分别连接所述第一开关管(MOS_A)的控制端和所述第二开关管(MOS_B)的控制端、用于选择所述第一开关管(MOS_A)导通或所述第二开关管(MOS_B)导通。当第一开关管(MOS_A)导通、第二开关管(MOS_B)截止</t>
+          <t>技术领域发明内容本发明的目的是提供一种织机电子卷取控制方法，在开机后就不会因齿轮啮合间隙留下开车痕。并且应用了这种控制方式后，对齿轮的公差制造要求也有所降低，节省了制造成本。一种织机电子卷取控制方法，当织机转动方向变化时，伺服电机先采用转矩控制方式，控制扭矩使与伺服电机相连的第一齿轮沿之前运动方向的反方向贴近第二齿轮消除齿轮间隙后，伺服电机切换至位置控制方式。进一步地，所述控制扭矩大小为伺服电机额定扭矩的1％--20％，控制扭矩大小满足消除第一齿轮与第二齿轮的齿轮间隙且不足以使卷取棍转动。进一步地，所述控制扭矩取值与织机幅宽以及织物情况相关。进一步地，所述织机转动方向变化包括：快车停车定位反转、正-反点动、反-正点动、快车停车定位反转后再正点、慢引纬后再反点。进一步地，所述控制扭矩使与伺服电机相连的第一齿轮沿之前运动方向的反方向贴近第二齿轮消除齿轮间隙步骤之前，还包括：主控电脑设定伺服控制器由转矩控制方式切换到位置控制方式的切换时长，所述切换时长由织物情况及织机卷取机构转动本身的阻力决定。发明内容中提供的效果仅仅是实施例的效果，而不是发明所有的全部效果，上述技术方案中的一个技术方案具有如下优点或有益效果：本发</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -5572,12 +4571,11 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>本发明的目的是设计一种一维移动兼二维俯仰调节架，此调节架既能够水平方向一维调节5mm范围，分辨率0.02mm，也能够垂直平面上实现两个相互方向的俯仰调节，两个方向上俯仰角调范围±4°。本发明一种一维移动兼二维俯仰调节架，主要包括：一个调节架固定座，用来装配测微头、压缩弹簧导向柱、刀片、光轴，和俯仰调节装卡件定架共同实现被装卡器件的两个相互垂直方向的俯仰调节；一个俯仰调节固定架，用来安装螺纹副、钩住弹簧用的顶丝；一个俯仰调节装卡件，用来装卡反射镜、透镜、光源等；一个调节架固定座盖板，用来盖住调节架固定座的刀片部分；一个测微头，测微头的调节范围是5mm，分辨率是0.02mm；一个调节架滑块，用来连接俯仰调节固定架，从带动被装卡的反射镜、透镜、光源实现一维移动一个压缩弹簧，用来对调节滑块提供一个移动方向反向的力，使得调节架滑块移动过程中保持稳定；一个压缩弹簧导向柱，用来限制压缩弹簧，让弹簧在一条直线上伸缩；四个刀片，刀片用来组合成导轨；两个光轴，用来限制支撑调节滑块；一个不锈钢滚珠，让俯仰调节固定架和俯仰调节装卡件在调节俯仰的时候产生滚动摩擦，减小摩擦阻力；两个手拧螺纹副，装配在俯仰调节固定架上，用来调节两个相互垂</t>
+          <t>发明内容为了克服上述现有技术的缺点，本发明的目的在于提供了一种土木工程建筑材料运输机，通过防滑机构对运输机进行稳定，同时能够实现车身内部的空气流通。为了达到上述目的，本发明采取的技术方案为：一种土木工程建筑材料运输机，包括车身2，车身2的顶部设有空气流通机构3，车身2的两侧设有防滑机构4；所述的防滑机构4包括车身2两侧固定的气缸12，气缸12和活塞杆11上端连接，活塞杆11下端连接有固定块5，固定块5上设有两个关于固定块5的竖向中心轴线对称的转盘6，每个转盘6通过一个转轴7和固定块5连接，每个转盘6上连接有一个摆动杆8，摆动杆8的上端外侧设有一个抓取单元9，摆动杆8的上端内侧设有一块磁铁10，两个摆动杆8上的磁铁10相互吸引。所述的空气流通机构3包括一个套筒13，套筒13底部与车身2的内部连通，套筒13的内部设有一个风机16，套筒13的上端设有一个圆盘14，圆盘14的直径大于套筒13的直径，且圆盘14的底部设有若干通气孔15，所述通气孔15沿着套筒13的外周周向均匀分布。</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -5587,12 +4585,11 @@
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>本发明的目的是提供一种无硫茯苓饮片生产加工用转运机构，解决了现有技术中茯苓饮片在转运时操作复杂，转运不稳定的问题。为了实现上述目的，本发明采用了如下技术方案：一种无硫茯苓饮片生产加工用转运机构，包括推车主体，推车主体内侧设有多个呈均匀分布的放置区，推车主体位于放置区的两侧内壁上开设有呈对称分布的滑槽，滑槽内滑动连接有滑块，同一放置区内两个滑块之间固定连接有推板，每个放置区内均设有推出组件，每个放置区的上方均设有铺平组件，推车主体的表面对应于每个放置区的出口位置处均设有可转动的固定板，每个固定板均通过锁紧件与推车主体的表面连接。优选的，推出组件包括螺纹杆与滑动杆，放置区内其中一个滑块螺纹连接于螺纹杆的外侧，另一个滑块滑动套设于滑动杆的外侧，推车主体外侧设有与螺纹杆固定连接的转轮。优选的，铺平组件包括开设在推车主体内部的铺平槽，放置区的内部设有铺平板，铺平板的两侧均固定连接有铺平杆，铺平杆与铺平槽的内壁滑动连接。优选的，铺平杆的截面为矩形，铺平槽分为滑动段和转动段，转动段位于放置区的出口端。</t>
+          <t>为了更好地将固体颗粒物从含尘煤气中分离，本发明提出了一种惯性分离除尘器及除尘方法，根据流量相同通流截面积不同改变气流速度的原理，将中心筒与除尘器外壳之间构成的内腔分成三个不同截面的区域，利用气体流动所在的空间截面改变实现气体流动速度的改变，达到固相物和气相物高效快速分离的目的。本发明采用以下技术方案实施，一种惯性分离除尘器，它包含有：外壳、中心筒、仓泵，所述外壳上部侧面设有一个或多个进气管道，顶部设有出气管道，所述仓泵设置在所述外壳的底部，所述中心筒设置在所述外壳的内部，中心筒上端穿过所述外壳顶部并与所述出气管道相连通，所述中心筒与所述外壳之间构成的环形空间为除尘器的内腔，带有含碳固体颗粒的煤气从所述进气管道进入所述内腔，气固分离后的煤气经中心筒内的通道进入所述出气管道；所述仓泵与所述除尘器相连通，所述含碳固体颗粒分离后进入所述仓泵，并从所述仓泵进入气化炉循环燃烧；</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -5602,12 +4599,11 @@
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种负泊松比胞体结构桥梁抗震耗能挡块，能有效的解决上述问题。为有效解决上述技术问题，本发明采取的技术方案如下：一种负泊松比胞体结构桥梁抗震耗能挡块，该挡块由底板、后承板、后侧板、中承板、中侧板、前承板、前侧板、翼板、扶壁板、螺杆和螺帽组成；负泊松比胞体结构其中，所述的底板通过螺杆和螺帽固定于墩顶的盖梁两侧；所述的后承板底边焊接于底板，并通过扶壁板加固；所述的后、中、前承板分别与两块后、中、前侧板焊接成为无底板的等腰梯形体，后板梯形体与中板梯形体在分别侧板边缘与两翼板焊接成船形结构；所述的前板梯形体与船形结构焊接成元宝形胞体结构，该胞体结构具有负泊松比特征；所述的元宝形胞体结构除后承板与底板焊接之外，其他板件均与底板分离。特别的，所述的前承板直接与梁体接触或隔开一定距离；发生较小地震时，前承板首先约束梁体位移，通过元宝形胞体结构的弹性变形消耗地震能量。特别的，所述的翼板会在元宝形胞体结构受到较大地震的撞击挤压时发生内旋变形；此时，翼板和前承板共同约束梁体位移，通过元宝形胞体结构的弹塑性变形消耗地震能量。</t>
+          <t>"技术领域发明内容为了解决现有技术存在的不足，更好的推动增材制造领域的发展，提出一种磁控等离子弧增材制造方法。采用如下技术方案：本发明为一种磁控等离子弧增材制造方法，主要由等离子焊枪和三维电弧摆动控制器组成的系统完成。在计算机中输入所需加工工件的程序，程序控制电弧摆动控制器中的感应线圈产生的磁场，达到控制电弧在平面内按照既定图案进行扫描；采用控制电弧扫描速度和与之相适应的送丝速度的方法，实现同层不同高度的增材制造过程。三维磁控电弧摆动器主要由两组线圈组成，两组线圈的产生磁场方向互相垂直，所产生的安培力在平面上互相垂直，以此控制电弧在XOY平面内的摆动。而对工件高度的控制主要是利用磁场控制电弧的摆动速度，来影响增材制造过程的熔覆量，进而控制增材制造过程中相应位置的高度。其控制电弧在XOY平面内进行扫描的原理如下：设两磁场的磁感应强度分别为B1、B2，l为电弧长度，为磁场与电弧的夹角，电弧导体的质量为M、K为阻力系数，ρ为电荷密度，V为运动速度，S为单位长度弧柱的迎风面积由此可得电弧的加速度为：当电弧做匀速运动，当电弧做加速运动，当电弧在平面内做减速运动，因此电弧在两个互相垂直的安培力的作用下，就可以在平面XOY</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -5617,12 +4613,11 @@
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种韧性强的棉纸双面胶带，以解决上述背景技术中提出的韧性不足和如果在使用不当时胶带产生的裂纹问题。优选的，所述胶圈两侧的支撑轴上皆竖向开设有安装槽。与现有技术相比，本发明的有益效果是：该韧性强的棉纸双面胶带通过玻璃纤维布的加入不仅具有更好的韧性，可以在更多需要的场合使用，而且自带切割装置，在不需要使用时，刀片会放在收刀槽内，需要使用时，刀片就会因为弹簧的影响伸出收刀槽外，使用完后松开手横板会因为弹簧产生的弹性势能的影响弹回原处使得刀片缩回收刀槽内，操作简单，方便。</t>
+          <t>"技术领域发明内容为了解决现有技术存在的问题,本发明提供一种用于直径渐变的圆筒结构内壁的搅拌摩擦加工装置及方法，技术方案如下：一种用于直径渐变的圆筒结构内壁的搅拌摩擦加工装置，包括可伸缩主轴和若干个可伸缩副轴，若干个可伸缩副轴沿可伸缩主轴的外周圆周阵列布置，若干个可伸缩副轴的末端分别固定装配有搅拌头，所述搅拌头的外端为弧面结构，若干个可伸缩副轴分别装配有压力传感器，用于测量可伸缩副轴所受的轴向压力，压力传感器与上位机电连接，压力传感器将测量的压力数据传递至上位机，上位机控制可伸缩副轴伸长或缩短。所述搅拌头呈半球形。所述搅拌头的材质为工具钢、合金钢、不锈钢、硬质合金、镍基合金、钨基合金或多晶立方氮化硼。所述可伸缩副轴成对设置，具体设置有1～4对，以使可伸缩主轴受力均衡，提高主轴使用寿命，且可以提高搅拌摩擦的效果。一种用于直径渐变的圆筒结构内壁的搅拌摩擦加工方法，采用前述的一种用于直径渐变的圆筒结构内壁的搅拌摩擦加工装置，包括以下步骤:步骤1、将待加工的直径渐变的圆筒结构竖直放置在夹具上，并装夹固定，所述夹具对圆筒结构的外壁施加有向内的支撑力；步骤2、将搅拌摩擦加工装置与搅拌摩擦焊机的旋转主轴固定连接，令搅拌摩擦</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -5632,12 +4627,11 @@
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>（一）解决的技术问题针对现有技术的不足，本发明公开了一种喷砂除锈机用的砂浆罐，以解决上述背景技术中提出的问题。（二）技术方案为实现以上目的，本发明通过以下技术方案予以实现：一种喷砂除锈机用的砂浆罐，包括砂浆罐主体，所述砂浆罐主体底部设有砂浆出口，所述砂浆罐主体的侧壁固定连接有把手，所述砂浆罐主体的底部固定安装有支撑架，所述支撑架包括第一支腿和第二支腿，所述第一支腿和第二支腿的数量均为两组且对称分布在支撑架的底部，两组所述第二支腿的侧壁均滑动连接有滑动方管，两组滑动方管上设置有锁紧组件，两组所述滑动方管的侧壁均固定连接有轴套，两组所述轴套内部转动连接有轮轴，所述轮轴的两端穿过两组轴套的轴心处并转动连接有滚轮。优选的，两组所述第二支腿的侧壁均开设有多组第一圆孔，所述第一圆孔的数量为6-12个，所述第一圆孔在竖直方向均匀分布。优选的，所述滑动方管的侧壁开设有与第一圆孔相对应的第二圆孔，所述第二圆孔与第一圆孔半径相同。优选的，所述锁紧组件包括锁紧杆，所述锁紧杆的一端固定连接有限位板，所述锁紧杆远离限位板的一端依次穿过第二圆孔和第一圆孔。优选的，所述锁紧杆远离限位板的一端开设有第三圆孔，所述第三圆孔内插接有螺栓，所述螺</t>
+          <t>本发明提供的一种通风防盗门，包括门板、转动挡板、转动手柄、固定架，所述门板上设有多个扇形的透气窗，所述固定架安装在门板内，固定架中部设有转轴，转动挡板通过转轴与固定架连接，所述固定架设有连接孔，转动手柄一端插入连接孔中，且转动手柄通过齿轮与转动挡板连接，所述转动手柄通过键齿与齿轮连接，所述固定架上设有限位块，转动手柄从限位块中部穿过，限位块上设有多条限位槽，限位槽的宽度与键齿的宽度相对应。所述固定架和转动挡板上均设有开口，开口的形状与透气窗的形状相同。所述转动手柄上设有滚轮，所述滚轮通过连接杆与转动手柄连接，滚轮的材质为磁铁。</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -5647,12 +4641,11 @@
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>(一)解决的技术问题针对现有技术的不足，本发明提供了一种带有消防灭火功能的油烟机，具备灭火迅速彻底、灭火后不残留污渍等优点，解决了一般带灭火功能的油烟机灭火不迅速彻底、灭火后残留污渍的问题。(二)技术方案为实现上述灭火迅速彻底、灭火后不残留污渍等目的，本发明提供如下技术方案：一种带有消防灭火功能的油烟机，包括外壳，所述外壳的内腔上壁固定安装有伸缩杆，伸缩杆的下方固定连接有风箱，风箱的上方固定连接有波纹管，外壳的内腔上壁且位于伸缩杆的左侧和右侧均固定安装有消防喷头，外壳的内腔左壁固定安装有第一隔板，第一隔板的右侧活动连接有第二隔板，第二隔板的右侧活动连接有第三隔板，第一隔板和第二隔板的内腔均设置有第一弹簧，第一隔板和第二隔板的内腔底部均设置有第一缓冲棉，第三隔板的下方设置有第二缓冲棉，第三隔板的右侧活动连接有第一固定块，第三隔板的右侧且位于第一固定块的后方活动连接有第二固定块，第二固定块的内侧设置有第二弹簧，第二弹簧的前方固定连接有压块，在第一固定块和压块之间设置有毛巾，外壳的内腔前壁上固定安装有多孔喷头，外壳的内腔前壁上且位于多孔喷头的下方设置有水槽，外壳的左壁上固定安装有处理器，处理器上活动插接有挡杆，外壳</t>
+          <t>图3是本发明中第六冲裁区被冲裁后的工件结构示意图。图4是本发明中两个所述第十一冲裁区、两个所述第二十三冲裁区、一个所述第七冲裁区及一个所述第八冲裁区被冲裁后的工件结构示意图。图5是本发明中两个所述第十二冲裁区、两个所述第二十二冲裁区、另一个所述第七冲裁区及另一个所述第八冲裁区被冲裁后的工件结构示意图。图6是本发明中两个所述第十三冲裁区、两个所述第二十一冲裁区、两个所述第三冲裁区、半侧所述第四冲裁区及半侧所述第五冲裁区被冲裁后的工件结构示意图。图7是本发明中剩余半侧所述第四冲裁区及剩余半侧所述第五冲裁区被冲裁后的工件结构示意图。</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -5662,12 +4655,11 @@
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>本发明提出的一种门板加工固定装置，解决了现有门板加工固定装置通用性低，不便于多尺寸门板的加工，且不方便上下料，智能化程度低的问题。为了实现上述目的，本发明采用了如下技术方案：一种门板加工固定装置，包括支架、挡板，所述支架的上表面设置有转板，所述支架内设置有液压杆，所述转板的下表面开设有滑轨，所述液压杆的顶杆活动套接有滚筒，所述支架上表面的右侧开设有第一滑槽，所述第一滑槽内设置有第一滑块，所述第一滑块侧面与第一滑槽内壁之间连接有弹簧，所述挡板的左侧面开设有第二滑槽，所述支架顶端活动连接有工字型螺纹筒，所述工字型螺纹筒内螺纹套接有螺杆，所述螺杆的下端固定连接有卡爪，所述工字型螺纹筒上端面的右侧设置有电机，且电机的输出端固定连接有齿轮，所述齿轮与工字型螺纹筒上端侧面啮合连接，所述卡爪右侧固定连接有第二滑块。优选的，所述液压杆的顶端穿过支架的上表面延伸在滑轨内，且延伸端活动套接有滚筒。</t>
+          <t>较佳地，当所述T排固定于所述T排固定工装时，所述吊孔靠近所述T排的竖直部分与水平部分的连接处设置，以在结构上使T排固定工装与吊运设备的连接吊点尽可能地靠近T排，提高吊运过程中的稳定性。较佳地，所述T排固定工装包括两个所述吊装部，当所述T排固定于所述T排固定工装时，两个所述吊装部的所述吊孔分别位于所述T排的竖直部分的两侧，通过在T排固定工装上构建多个能够连接吊运设备的吊点，提高该T排固定工装的使用便捷性。同时，若吊运设备通过两个吊钩分别连接至这两个吊孔，并同时起吊，则还能够提高吊运的稳定性。</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -5677,12 +4669,11 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>发明目的：针对以上问题，本发明目的是提供一种轨道交通门系统，该门系统在门扇打开后实现不同的上、下摆出距离。技术方案：本发明提出了一种轨道交通门系统，包括门框、门扇、承载驱动机构、锁闭装置，所述门框安装在车体入口处，当门扇关闭并锁紧时，门框和门扇实现门系统的密封，所述承载驱动机构安装在车体入口上部，承载驱动机构设置在门框上方，为列车开关门提供动力输出，承载驱动机构上设置有上导轨，实现门扇上部导向作用，所述锁闭装置安装在车体入口侧面，控制门扇的开、关状态，所述门扇在打开后门扇上部、下部实现不同的塞出量。所述承载驱动机构上还设置有携门架，门扇上部安装到携门架上，携门架上设置有滚轮，通过滚轮，携门架带动门扇沿着上导轨运动，实现门系统的开关动作。所述上导轨安装在承载驱动机构上的位置不同时，门扇上部有不同的塞出量。所述门系统还包括下摆臂，下摆臂安装在车体入口的侧面偏下位置处，门扇底部设置有下导轨，下摆臂和下导轨实现门扇下部导向作用。所述门扇下部的塞出量通过改变下导轨末端曲面来实现。所述门系统还包括紧急解锁装置，通过螺栓紧固在车体上，通过钢丝绳与锁闭装置相连接，实现紧急情况下的解锁功能，紧急解锁装置包括外部紧急解锁装置和内</t>
+          <t>本发明所要解决的技术问题是：提供一种经济且环保的废弃硫酸锰溶液净化降低钙镁含量工艺。发明方案通过对该废弃物循环利用，不仅能有效提升对有限金属资源的利用率，同时还能有效减少实验过程中对环境的污染。本发明方案利用化学反应法，利用草酸与钙、镁元素生成草酸盐的特性进行工业硫酸锰废液除杂，该方法简单易行，大大缩短了现有技术中工业废料回收利用的流程，可有效得到草酸镁混合草酸钙白色粉末，同时，经本发明方案处理后的溶液钙和镁的去除率可达65％和62％以上，且经本发明方案处理后的溶液可用于硫酸锰回收利用</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -5692,12 +4683,11 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中建筑领域在除锈作业时往往需要人工进行除锈作业，使得效率低下，且除锈质量低，不能够适用于大批量除锈使用的问题，而提出的一种用于建筑工程的钢材除锈装置。优选的，所述U形支撑板两个竖直部的下端均固定连接有底板。优选的，所述移动块的上端固定连接有限位滑块，所述U形支撑板水平部的下端开设有与限位滑块匹配滑接的限位滑槽。</t>
+          <t>技术领域发明内容针对上述问题，本发明的目的是提供一种立柱阀卸载冲击试验装置，其通过蓄能冲击机构、流量调速机构以及节流装置，实现在不同能量释放梯度工况下对单向阀卸荷冲击压力性能测试，为煤矿行业单向阀标准的制修订供数据支撑。为实现上述目的，本发明采取以下技术方案：一种立柱阀卸载冲击试验装置，其包括立柱框架、立柱、立柱活塞杆、冲击缸活塞杆、冲击缸、立柱单向阀、液控机构和蓄能机构；所述立柱框架内设置有所述立柱，所述立柱内滑动设置有所述立柱活塞杆，所述立柱活塞杆底部与所述立柱底部之间形成活塞腔；所述立柱活塞杆顶部与所述冲击缸活塞杆端部连接，所述冲击缸活塞杆设置在所述冲击缸内，且所述冲击缸设置在所述立柱框架顶部，所述冲击缸活塞杆与所述立柱框架顶壁之间滑动连接；位于所述冲击缸的外部设置有所述蓄能机构；所述立柱底部的活塞腔经管路与设置在所述立柱框架外部的所述立柱单向阀一端连接，所述立柱单向阀另一端经所述液控机构与设置有乳化液泵源的高压液体存储池连接。进一步，所述立柱底部一侧设置有进液口，该进液口与所述立柱单向阀连接。进一步，所述蓄能机构包括流量调速控制机构和蓄能器；所述流量调速控制机构与所述蓄能器连接，由所述流量调速控制机构</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -5707,12 +4697,12 @@
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>发明内容本发明提供了一种燃烧生物质清洁燃料的发动机。本发明是以旋转配气为构思，气缸顶端由旋转配气轴封闭，在配气轴与配气轴中间留有一定宽度设置控制位，控制位用以具体需要安装控制器件与装置。控制位用以安装生物质清洁燃料控制器件与装置。</t>
+          <t xml:space="preserve">技术领域发明内容本发明包含以下步骤：先将甘油碳酸酯与二元胺在第一温度下反应；然后加入多元酸、植物油酸，升温至第二温度下反应，然后升温至第三温度下反应，再降温至第四温度时，加入溶剂兑稀得到非异氰酸酯聚氨酯改性醇酸树脂。进一步的，所述植物油酸为亚麻油酸、油酸、豆油酸、桐油酸、葵花籽油酸、妥尔油酸、脱水蓖麻油酸的一种或两种以上混合物。进一步的，所述多元酸为邻苯二甲酸酐、间苯二甲酸、对苯二甲酸、顺丁烯二酸酐、己二酸、癸二酸的一种或两种以上混合物。进一步的，所述二元胺为乙二胺、1,6-己二胺、丁二胺、异佛尔酮二胺的一种或两种以上混合物。进一步的，所述非异氰酸酯聚氨酯改性醇酸树脂的制备方法，其特征是所述各物料投料重量比甘油碳酸酯：二元胺：植物油酸：多元酸＝20％-30％：5％-25％：40％-50％：15％-25％。进一步的，所述甘油碳酸酯与二元胺反应的第一温度为30-40℃，反应时间为4-5h。进一步的，所述加入多元酸和植物油酸后，先升温至第二温度180-190℃反应40min，然后升温至第三温度200-240℃反应至酸值&lt;10mgKOH/g，再降温至第四温度150-180℃。进一步的，所述溶剂为200#溶剂。
+</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -5722,12 +4712,11 @@
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>本发明的目的是提供一种有机光电器件封装薄膜及其制备方法，用以解决目前有机光电器件利用化学气相沉积、物理气相沉积法生长的封装薄膜存在表面粗糙度较大，致密性较差，甚至会出现针孔裂纹等缺陷，无法有效阻隔水氧的问题。本发明所述的一种有机光电器件封装薄膜的制备方法，其特征在于：在待封装的有机光电器件上生长第一封装层，然后在第一封装层上通过先生长金属单质薄层后再原位进行化学处理生成第二封装层，最后通过第一封装层和第二封装层的交替生长完成有机光电器件封装薄膜的制备。金属单质薄层的生长增加了第一封装层的表面粗糙度，而再原位化学处理使得金属单质薄层中的金属原子获得足够高的能量，在第一封装层表面进行再分布，同时进行化学反应生成金属化合物作为第二封装层，填补了第一封装层表面的缺陷，第二封装层表面平均粗糙度较第一封装层表面平均粗糙度有大幅度降低，且经过原位化学处理后的金属化合物薄膜在可见光波段透过率有所提高。</t>
+          <t>发明内容为了克服现有技术的上述缺点，本发明提供了一种面向窄带物联网的轻量化安全认证及密钥交换方法，主要解决基于NB-IoT等窄带物联网连接技术的物联网应用系统中终端与服务器之间的双向身份认证及密钥交换问题，实现轻量化安全认证算法、协议和密钥协商机制，满足低功耗、低带宽消耗、低交互频度、高安全性的设计要求。本发明解决其技术问题所采用的技术方案是：一种面向窄带物联网的轻量化安全认证及密钥交换方法，通信主体包括终端和服务器，在通信建立之前，终端与服务器之间共享根密钥，并基于对称密码体制采用“挑战—应答”交互机制实现双向认证。与现有技术相比，本发明的积极效果是：本发明采用的基于共享密钥的对称密码认证技术，在算法层面保证了计算的轻量化，通过引入通信双方产生的随机数计算认证令牌，能有效抵抗重放攻击，增加了通过逆运算获取认证密钥的难度；在协议交互层面，通信双方仅需要交互四次即能完成双向身份认证和通信密钥交换，降低了协议交互复杂度，提升了认证成功率；在密钥交换层面，密钥协商过程是伴随认证过程同步完成的，双方通信密钥利用认证过程交互的随机数计算生成，通信密钥无需在信道上传递，用于生成通信密钥的随机数在传递过程中均进行了加密保护</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -5737,12 +4726,11 @@
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>优选的，所述平衡槽和移动槽均为环形槽，且平衡槽的形状与遮挡块的形状相适配。优选的，所述幕布为透明PVC塑料布，且幕布环绕在遮挡块的外侧。优选的，所述平衡槽内壁的宽度与平衡杆的直径相适配，而移动槽左右两侧内壁的宽度大于齿轮的厚度。</t>
+          <t>发明内容有鉴于此，本发明的目的之一在于提供一种多级层状梯度材料的制备方法；本发明的目的之二在于提供一种多级层状梯度材料。因此，图3与图4所示的多级层状梯度材料同时拥有梯度与多级层状非均匀结构，有望实现优良的强/韧匹配性能。最后说明的是，以上优选实施例仅用以说明本发明的技术方案而非限制，尽管通过上述优选实施例已经对本发明进行了详细的描述，但本领域技术人员应当理解，可以在形式上和细节上对其作出各种各样的改变，而不偏离本发明权利要求书所限定的范围。</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -5752,12 +4740,11 @@
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>本发明旨在提供一种能够在剥皮后即进行切片的往复切片式条形中药材去皮切片装置，解决了中药剥皮切片通过不同的设备来完成需要进行剥皮的中药进行转运的问题。以上技术问题是通过以下技术方案解决的：一种往复切片式条形中药材去皮切片装置，其特征在于，包括切片机构和剥皮机构，所述剥皮机构包括导向管、一端穿设在导向管一端内的滑管、密封滑动连接在滑管内的活塞、一端经滑管的另一端伸入滑管内同活塞连接在一起的驱动杆和连接在驱动杆的另一端驱动活塞进行平移的活塞平移机构，所述滑管通过若干沿导向管周向分布的连接筋同导向管连接在一起，所述导向管和滑管之间形成沿导向管周向延伸的环形的出皮通道，所述滑管位于导向管内的一端的端部设有沿滑管周向延伸的用于沿滑管的轴向刺入插入滑管内的中药材内的环形的滑管部刃口，所述切片机构包括刀条和驱动刀条沿垂直于滑管的方向往复平移的刀条驱动机构，所述刀条位于所述导向管远离滑管的一端，所述刀条的延伸方向同是导向管的轴向交叉，所述刀条用于将从所述导向管内伸出的中药材切断。通过本发明进行中药材（如山药）去皮切片的方法为：通过剥皮机构进行剥皮，通过切片机构对剥皮机构的滑管内的中药进行切片；进行中药剥皮的具体方法为：通过人工</t>
+          <t>本发明提供的一种海上浮式多风轮风力机主动偏航系统，由于力臂可以伸缩，相对于在塔底实现多风轮风力机整体偏航力臂较长，能使用较小功率的驱动装置，完成大型多风轮风力机的整体偏航动作，同时通过阻尼设备和柔性拉索装置可以抑制塔架振动，并提供海上多风轮风力机整体移动的动力源。本发明基于柔性拉索和偏航力臂以及水下动力装置，提出了一种海上浮式多风轮风力机主动偏航系统，可以使得多风轮风力机能在不同工况下依靠较小的动力装置完成整机的偏航动作。本发明所述系统开始进行偏航对风，水下动力装置根据对风方向开始进行偏转，其平面垂直于风轮方向，可正反双向提供推力，偏航算法参考单风轮风力机技术方案。</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
@@ -5767,12 +4754,11 @@
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>发明内容本发明提出的一种服装设计用便携式画板，解决了服装画板不易搬运的问题。优选的，两个所述前支撑腿远离转轴的一端内侧固定连接有第一固定杆，两个所述后支撑腿远离转轴的一端内侧固定连接有第二固定杆。优选的，所述画板位于两个所述前支撑腿和两个所述后支撑腿的中间，且画板的顶部固定连接有卡夹。优选的，所述转轴的右端贯穿位于右侧所述前支撑腿，所述套筒的内圈转动套接在转轴的右端外圈上。</t>
+          <t>"技术领域发明内容本发明的目的是针对现有技术的不足，从而提供一种结构简单、不易积水、冬天不易损坏、耐用性强的防积水光缆接续盒。为了实现上述目的，本发明所采用的技术方案是：一种防积水光缆接续盒，包括外盒、设置在所述外盒内的盘纤盒和设置在所述外盒外表面的定时震动器，所述盘纤盒包括盒体和盒盖，所述盒体内开设有跑道型凹槽，所述跑道型凹槽中心设置有跑道型绕线桩，所述跑道型凹槽由两段弧形侧壁和两段平直侧壁围设而成，每个所述平直侧壁和所述弧形侧壁交汇处的跑道型凹槽底板上均设置有排水孔。基于上述，所述跑道型凹槽底板边缘设置有跑道型导流槽，所述跑道型导流槽将四个所述排水孔连通。基于上述，所述外盒内放置有干燥盒，所述干燥盒内设置有干燥剂，所述干燥盒表面开设有多个透气孔。基于上述，所述排水孔的半径为8-12mm。基于上述，所述盒盖四角通过螺丝与所述盒体固定。基于上述，所述定时震动器底部设置有磁铁凸起，所述外盒外表面设置有磁吸附凹槽，所述定时震动器通过所述磁铁凸起吸附在所述磁吸附凹槽内。基于上述，所述外盒设置有真空隔热层。基于上述，所述外盒包括合在一起的上盒和下盒，所述上盒的边沿设置有二级台阶凸起，所述下盒的边沿对应所述二级台阶凸起</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -5782,12 +4768,11 @@
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>针对现有技术存在的上述缺陷，本发明提出了一种锂电池恒温运行方法。本发明所述的锂电池恒温运行方法，包括如下步骤：将锂电池与相变储能材料相接触，锂电池与相变储能材料与外界隔绝；预加热或预制冷相变储能材料至预定温度，所述预定温度为相变储能材料的相变温度±10℃范围内，所述相变温度接近锂电池的最佳工作温度；在锂电池组充放电时，获取锂电池组内锂电池区块的温度，在获取锂电池组内锂电池区块的温度后，向用户展示锂电池组内锂电池区块的温度。优选地，所述锂电池组内温度大于预设温度值的锂电池区块进行降温的预设时间后，获取锂电池组内锂电池区块的温度，并统计锂电池组内锂电池区块的温度大于预设温度值的锂电池区块个数n，当n≥m时，发出警报通知。优选地，所述锂电池采用多个温度传感器获取锂电池组内锂电池区块的温度。优选地，所述锂电池组的温度控制系统通过控制导热/冷却板的温度，使得各导热/冷却板其与相变材料进行换热从而控制电池组的内部的温度。优选地，所述锂电池板安全管理检测的方法其能对其进行分区域温度监测。</t>
+          <t>发明内容本发明所要解决的技术问题是提供一种成本低、效率高的低能电子加速器扫描束垂直引出装置。本发明所要解决的另一个技术问题是提供该低能电子加速器扫描束垂直引出方法。为解决上述问题，本发明所述的一种低能电子加速器扫描束垂直引出装置，其特征在于：该装置包括钛窗和一组聚拢磁铁；所述钛窗的一端设有扫描磁铁，其另一端设有法兰，该法兰上套装有一组所述聚拢磁铁；所述法兰的下面设有覆盖钛膜的格栅窗；所述钛膜上设有压板；所述聚拢磁铁包括外部包裹有不锈钢外罩的两个相对设置的C型铁芯以及套装在两个C型铁芯上的线圈；所述不锈钢外罩上分别设有外接直流电源电缆的进线口、外接通风管道的进风口；两个相对设置的所述C型铁芯对称设在所述钛窗的两侧；所述线圈上设有与供电线缆相连的接线柱。</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -5797,12 +4782,11 @@
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>本发明针对现有技术的问题提供一种多电池组并联控制的BMS管理方法。为了解决上述技术问题，本发明采用如下技术方案：本发明提供的一种多电池组并联控制的BMS管理方法，包括以下步骤：A，系统上电运行；B，循坏采集两电池组总电压信息，并执行系统自检；C，若两个电池组自检均通过，则比较两电池组的总电压大小，多次比较确认后，选择总电压较大的电池组的动力回路导通，另一电池组动力回路维持断开状态；若只有一个电池组自检通过，则选择该电池组动力回路导通，另一电池组动力回路维持断开状态；D，在单电池组工作状态下，如果接收到待机或者是放电指令，则维持当前状态，继续使用总电压较高的电池组继续工作；如果接收到的是充电指令，则执行单电池组相互切换工作的操作，选择总电压较高的电池组工作；E，设定总电压差值最小允许阈值VoltDown以及最大允许阈值VoltUp，其中，VoltDown&lt;VoltUp；在单电池组运行过程，两电池组的总电压的会逐渐缩小；当总电压差值缩小到设定的最小允许阈值VoltDown时，执行单电池组切换双电池组并联工作的操作；F，在多电池组并联工作过程中，当其中一个电池组出现异常或者是两者的总电压差值大于设定的最大允许阈值V</t>
+          <t>"技术领域发明内容本发明的目的在于提供一种攀爬支撑臂扬角控制系统，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种攀爬支撑臂扬角控制系统，包括主控制器，所述主控制器的输出端电性连接有参数设置模块，所述主控制器的输出端电性连接有程序执行模块，所述主控制器的输出端电性连接有执行检测模块，所述程序执行模块的输出端电性连接有轨迹规划模块，所述轨迹规划模块的输出端电性连接有轨迹控制模块，所述轨迹规划模块的输出端电性连接有逻辑控制模块，所述轨迹控制模块和逻辑控制模块的输出端皆电性连接有第一单片机，所述轨迹控制模块和逻辑控制模块的输出端皆电性连接有第二单片机，所述第一单片机的输出端电性连接有俯角轨迹控制模块，所述第一单片机的输出端电性连接有仰角轨迹控制模块，所述执行检测模块的输出端电性连接有数据采集模块，所述数据采集模块的输出端电性连接有逻辑检测模块，所述数据采集模块的输出端电性连接有轨迹检测模块。优选地，所述俯角轨迹控制模块和仰角轨迹控制模块的输出端电性连接有倾斜角度计算和分析模块，且倾斜角度计算和分析模块的输出端电性连接有对比模块,所述对比模块的输出端与主控制器的输入端电性连接。优选地，所述</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -5812,12 +4796,11 @@
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>为了克服上述缺陷，本发明提供了一种基座稳固的路灯。本发明解决其技术问题所采用的技术方案是：一种基座稳固的路灯，包括灯杆、灯头、太阳能电池和蓄电池，所述太阳能电池安装在灯杆的顶部，所述灯头安装在灯杆上部，所述灯杆低端设有基座，所述基座预埋在地面下，所述灯杆固接于基座，所述灯杆下端处、基座上方还设有套管，所述套管与灯杆间通过焊接连接。进一步，套管包括两个相互匹配的半圆形套件。本发明的有益效果是：采用上述结构后，通过在灯杆低端设置的基座，在灯杆下部处设置套管来增加灯杆整体的结构，避免在风大的地区路灯灯杆被吹倒，且加固后的灯杆结构性更强，便于延长其使用寿命。</t>
+          <t>发明内容本发明的目的是提供一种高效电化学还原富集回收含铀废水和地下水中铀的方法。本发明要求保护一种含铀废水和/或地下水中铀的富集方法，该富集包括：对于六价铀的浓度高于2mg/L的所述含铀废水和/或地下水，以稳定且导电性高的金属材料作为阴极和阳极材料，使用直流电源进行电还原，在阴极表面富集得到四价铀；对于六价铀的浓度低于或等于2mg/L的所述含铀废水和/或地下水，以表面覆盖有二氧化铀镀层的稳定且导电性高的金属电极作为阴极材料，以稳定且导电性高的金属材料作为阳极材料，使用直流电源进行电还原，在阴极表面富集得到四价铀，完成所述含铀废水和/或地下水中铀的富集。上述方法中，所述稳定且导电性高的金属材料为钛片或不锈钢片。</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
@@ -5827,12 +4810,11 @@
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>本发明的目的是提供一种无硫茯苓饮片净选用筛分机构，解决了现有技术中将茯苓片成堆的倒入筛板上时，茯苓片堆积在一起，茯苓片之间的部分碎屑较难完全筛分出，筛分效果较差，而且茯苓片筛分完毕后，直接从筛板的底部排出，部分碎屑直接顺着茯苓片直接排出，分离程度较低的问题。为了实现上述目的，本发明采用了如下技术方案：一种无硫茯苓饮片净选用筛分机构，包括壳体，壳体的顶部固定连接有上料板，壳体的一侧设有接料框，壳体的内部设有驱动轴，驱动轴贯穿壳体的一端固定连接有从动轮，从动轮的一侧设有与壳体固定连接的驱动电机，驱动电机的自由端固定连接有主动轮，主动轮和从动轮之间通过皮带传动连接，驱动轴的侧面套设有凸轮，凸轮的顶部设有与壳体转动连接的筛板，筛板的顶部设有若干个隔板，两个相邻隔板之间形成筛分区域，隔板的左侧设有与筛板固定连接的挡板。优选的，挡板靠近隔板的侧面为倾斜面。优选的，筛板与壳体长度方向形成的锐角为30度。优选的，凸轮的表面开设有滑槽，筛板的底部设有与滑槽相适配的滑块。优选的，滑块为圆柱状。</t>
+          <t>技术领域发明内容本发明的目的是针对现有的技术存在上述问题，提出了一种嵌入式OTP的8位MCU芯片的测试方法，本发明所要解决的技术问题是如何实现晶圆中嵌入式OTP的8位MCU芯片的失效检测。本发明的目的可通过下列技术方案来实现：一种嵌入式OTP的8位MCU芯片的测试方法，其特征在于，包括以下步骤：1、准备待测的含有嵌入式OTP的8位MCU芯片的晶圆，备用；2、准备紫外线UV箱和晶圆测试机，备用；3、利用紫外线UV箱对含有嵌入式OTP的8位MCU芯片的晶圆做UV擦除，扫除OTP存储单元的残留电子；4、利用晶圆测试机提供的高压管脚，将OTP存储单元以插花方式写入“0”数据，这样可以检测是否存在disturb和diag失效模型；5、利用晶圆测试机提供的高压管脚，将OTP剩余存储单元全部写入“0”数据，这样可以检测是否存在disturb和diag失效模型；6、读OTP所有存储单元是否为“1”，以检验所有存储单元的读功能；7、利用MCU外部总线扩展技术，晶圆测试机向嵌入式OTP的8位MCU芯片发送指令，使得MCU输出内部模拟IP的参数，再利用晶圆测试机的高精度测量单元对其测量和调校；8、利用MCU外部总线扩展技术，晶圆测</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -5842,12 +4824,12 @@
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种过墙式防火阀安装结构，以解决上述背景技术中提出的问题，本发明结构合理，便于防火阀有效缓冲，平衡气流影响。进一步地，所述墙体内部开设有固定通孔，且钢套嵌入在固定通孔内部。进一步地，所述滑块内部开设有滑槽，且滑槽内径略大于滑杆直径，所述滑杆上下两侧装配有固定帽。</t>
+          <t xml:space="preserve">发明内容本发明的目的在于克服上述不足，提供了一种全极耳卷绕圆柱锂离子电池装配方法，由于无需采用间歇式涂布，直接连续式涂布，提高生产效率，增加涂覆面积，调高电芯容量以及能量密度；除去传统极耳折叠占用空间的影响，充分利用电池内部空间，提高能量密度；新型装配工艺操作简单，可行性高，整体降低生产成本。本发明的目的是这样实现的：一种全极耳卷绕圆柱锂离子电池装配方法，包括以下步骤：（1）涂布：连续涂布，涂覆区两侧留白长度可根据需要设定；（2）辊压分切；（3）卷绕：全极耳卷绕，留白箔材在卷芯的两侧，形成正、负极留白极耳；（4）揉平：采用超声揉平设备或其他机械振动或揉搓的模式将卷芯留白极耳揉平，揉平后形成焊接位；（5）激光焊接：焊接位与圆形集流体激光焊接；（6）组装入壳：卷芯放入壳体，盖帽与软垫片连接。优选的，所述揉平步骤对正、负极两端同时揉平或逐一揉平。
+</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -5857,12 +4839,11 @@
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>优选的，所述支撑杆远离底板的一端转动安装有安装块，安装块背离支撑杆的一端焊接有支撑块。优选的，所述转动轴和转盘的外壁均开设有与皮带相适配的环槽，皮带位于环槽内。优选的，所述收卷筒背离转动块的一端开设有凹槽。</t>
+          <t>进一步，所述步骤2)中加入去离子水体积为20～50ml。一种铁镍硫化物纳米材料，作为钠离子电池负极材料的应用。有益效果：1)本发明所制备的双金属铁镍硫化物，在金属共催化作用下生长出碳纳米管，形貌特别，碳纳米管可显著提升该材料在充放电过程中的导电性，且其管状结构为铁镍硫化物在充放电过程中所产生的体积膨胀提供了缓冲空间，提高了材料的结构稳定性。</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -5872,12 +4853,11 @@
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>发明内容本发明的主要目的在于提供一种园林用手持式梳草机，可以有效解决背景技术中的问题。优选的，所述手持握把的前面安装有电源开关和电源插槽，且电源开关位于电源插槽的一侧。优选的，所述第一固定转动轴穿过两组推轮和固定滑板，所述第二固定转动轴穿过两组推轮和固定滑板。优选的，所述两组子母合页的上面分别安装有四组调节螺丝，且两组子母合页通过八组调节螺丝与机壳固定连接。</t>
+          <t>"技术领域发明内容为了解决上述问题，本发明提供了一种用于汽车发动机的气缸套，具体技术方案是：一种用于汽车发动机的气缸套，所述气缸套包括磷铸铁层、中间渗透层和硼铸铁层，磷铸铁层位于外层，硼铸铁层位于内层，其中磷铸铁层的厚度为3.2-4.6mm，中间渗透层的厚度为1.0-1.6mm，硼铸铁层的厚度为0.6-1.8mm；所述磷铸铁层的成分组成为C3.0-3.3%，Si2.1-2.4%，P0.3-0.6%，S&lt;0.1%，Mn0.4-0.6%，Mo0.1-0.3%，余量生铁；中间渗透层的成分组成为C2.8-3.2%，Si2.2-2.5%，P0.2-0.4%，S&lt;0.1%，Mn0.3-0.6%，Mo0.1-0.3%、Ni0.1~0.6%、Cu0.1~0.8%，B0.01~0.04%，余量生铁；硼铸铁层的成分组成为C2.5~3.0%、Si2.3~2.6%、P0.1%~0.3%、S&lt;0.1%、Mn0.5~1.2%、Mo0.3~1.5%、Ni0.3~1.5%、Cu0.3~1.2%，B0.01~0.08%，余量生铁；所述气缸套的制备方法包括以下步骤：1）配制磷铁原料，熔炼后获得磷铁液，出炉前加入铁液重量0.55～0.65%的孕育</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -5887,12 +4867,11 @@
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>针对上述存在的技术不足，本发明的目的是提供男用小便冲水器，其在现有的冲水阀上加装可用于冲洗男性生殖器的软管和控制阀，解决背景技术中提到的问题。为解决上述技术问题，本发明采用如下技术方案：本发明提供男用小便冲水器，包括冲水阀本体，所述冲水阀本体上设有进水口和出水口，所述出水口上设有一个三通管，所述三通管的其中一个出水口设有出水管，另一个出水口设有活接三通接头，所述活接三通接头的出水口设有冲洗软管。优选地，所述冲水阀本体为手按式冲水阀或感应式冲水阀。</t>
+          <t>"技术领域发明内容本发明提出了一种管线分离的现浇混凝土隐形梁楼板形式，其目的是实现设备管线和结构层的分离，解决了综合管网的问题，便于对管线的检修和维护。实现墙体的灵活布置，解决钢梁防火防腐的问题，满足用户更多的需求。提升整体结构的保温隔音的功能。装修时减少湿作业形成干式装修体系。本发明公开了一种管线分离的现浇混凝土隐形梁楼板，包括：混凝土楼板，所述混凝土楼板通过在两侧钢梁的下翼缘上表面之间绑扎三角钢筋桁架，浇筑混凝土包裹所述钢筋桁架构成所述混凝土楼板；水泥纤维板，所述水泥纤维板安装在楼板两侧钢梁的上翼缘之间，所述水泥纤维板与所述混凝土楼板之间形成空腔。作为本发明的进一步改进，所述钢筋桁架为三角钢筋桁架，所述三角钢筋桁架的两端固定搭载在所述钢梁下翼缘的上表面上并保证一定的搭接长度。作为本发明的进一步改进，所述混凝土楼板的底面与所述钢梁下翼缘的下表面处于同一水平面上。作为本发明的进一步改进，所述混凝土楼板内预埋有供下层用户使用的灯线，所述混凝土楼板的上表面铺设供上层用户使用的水电管线。作为本发明的进一步改进，所述混凝土楼板上设有多个混凝土立柱，所述混凝土立柱与所述混凝土楼板为一体式结构且所述混凝土立柱的上表面与所</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -5902,12 +4881,11 @@
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>针对现有技术中存在的上述缺陷，提供一种场站汽车分段停车充电管理的方法可以有效解决这个问题。本发明提供一种场站汽车分段停车充电管理的方法，其特征在于，包括：RFID系统、充电桩系统、停车管理系统、安防报警系统和处理中心系统；RFID系统，包括RFID标签、RFID读卡器，用于车辆与场站之间的信息交流，可以达到车辆账户信息查询、费用结算等功能；充电桩系统，在传统的充电桩上安装有充电状态数据采集器和传输设备，能够将车辆充电的状态及时反馈到信息处理中心，并且通过处理中心系统的网络，将数据反馈给车主用户；安防报警系统，安防报警系统主要为顾客提供空余车位提示、充电车辆安防，为场站管理者提供车辆状态显示等；处理中心系统，用于对场站进行管理，通过信息处理中心整合RFID系统和车辆管理系统，并且通过网络传输将信息进行实时共享在车辆驶入停车场站充电区域时，位于场站内的RFID读卡器检测RFID标签的信号后，根据数据库内的信息匹配，决定是否允许车辆入场；进一步，车辆进场在停车管理系统的指引下，寻找合适的充电停车位将车停好后，开始对车辆进行充电，车位状态在现场监控视频的监控下；进一步，车辆充电结束后，包括车辆充满和自动停止两个状态，</t>
+          <t>本发明的目的是提供一种基于复合型全介质的光可调高Q值太赫兹吸收器，解决了现有技术中存在的金属易被氧化、高损耗、热稳定性差、结构复杂的问题。本发明所采用的技术方案是，一种基于复合型全介质的光可调高Q值太赫兹吸收器，包括多个单元结构，单元结构由聚酰亚胺组成的衬底和P型掺杂硅组成的顶层构成。本发明的特点还在于：衬底的横切面为正方形，顶层为圆柱体。P型掺杂硅的电阻率为1Ω·cm-1～10Ω·cm-1。顶层的半径为105μm～125μm，厚度为70μm～95μm。衬底的厚度为15μm～30μm。顶层的中心轴位于衬底横切面对角线的交点处。</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -5917,12 +4895,11 @@
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>本发明的目的是针对现有消防阀存在的上述问题，提供一种能够精确控制流量、能够防止压力升高时阀盖飞出、能够防止阀板振动脱落的流量控制消防阀。本发明解决上述技术问题而采用的技术方案为：一种流量控制消防阀，包括阀体、阀芯组件、阀盖、O型圈、压紧螺母、手轮、垫片、螺母Ⅰ、数显套、指针、十字螺钉、紧定螺钉；所述阀芯组件包括阀杆、锁紧螺母、垫片、紧定螺钉、密封座、密封垫、阀板、螺母Ⅱ、O型圈和止动垫片；所述阀芯组件设置在阀体上，所述阀杆向上穿过阀盖与手轮相连，所述阀杆与手轮之间通过螺母Ⅰ固定；所述数显套设置在手轮和阀杆之间，可以随着阀杆作上下移动；所述指针用十字螺钉固定在阀盖上；所述阀盖与阀体之间通过螺纹连接，通过胶水密封；所述阀杆与阀盖之间通过O型圈密封。作为改进，所述阀体上设置有凸台，对应的，阀盖上设置有凹槽，阀体与阀盖通过螺纹连接固定后，阀体上的凸台在阀盖上的凹槽内，可以防止阀门腔体内压力升高时，阀盖飞出。</t>
+          <t>"技术领域发明内容有鉴于此，本发明提供了一种可两平面转动的水声设备安装架，通过在两个互相垂直的面上旋转来实现水声设备在跟踪船上的布放、回收与固定，辅助水声设备实现跟踪船与水下航行器水下通信联系的建立。一种可两平面转动的水声设备安装架，该安装架包括焊接底座、固定底座、水平转台、钢丝绳、垂直旋转座、桁架和转接盘；外围设备为与水声设备安装架配合的水声设备和跟踪船；所述固定底座通过焊接底座与跟踪船的安装平面固定，固定底座的表面上具有一个垂直于水平面的轴孔；所述水平转台通过转轴与固定底座上的轴孔配合实现周向转动，水平转台具有一个水平的长轴与垂直旋转座上方进行孔轴配合，垂直旋转座绕长轴的轴线转动，转动到位后由螺钉限位，垂直旋转座下方与桁架的上端固定连接，桁架的下端通过转接盘连接水声设备；所述钢丝绳两端分别与转接盘和跟踪船固定。进一步地，所述跟踪船上固定有焊接耳座，固定底座上也设有耳座，焊接耳座和固定底座的耳座之间固定连接斜筋。进一步地，所述水平转台的长轴上设有安装限位螺钉的螺纹孔，用于限制垂直旋转座在长轴上的轴向移动。进一步地，所述桁架由三根大直径的主铝管构成，主铝管为骨架，中间交错贯穿焊接小直径的短铝管组成三角形桁架结</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -5932,12 +4909,11 @@
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>作为本发明进一步的方案：所述集成插座的表面位置处开设有插孔，所述限位滑槽与限位滑块滑动连接，所述防护封盖的上端表面位置处固定设置有提手。作为本发明进一步的方案：所述限位滑块的侧面固定设置有第二吸附磁块,所述第一吸附磁块与第二吸附磁块相靠近的一端磁性互为相反。作为本发明进一步的方案：所述放置板的底端位置处固定设置有连接轴，所述连接座与连接轴转动连接。</t>
+          <t>本采煤方法工艺简单，技术上完全实现了无煤柱开采，煤炭资源回采率高，有效解决了资源紧缺矿井实施充填开采过程中充填成本过高的问题。在本技术领域内具有广泛的实用性。本采煤方法工艺简单，技术上完全实现了无煤柱开采，煤炭资源回采率高，有效解决了资源紧缺矿井实施充填开采过程中充填成本过高的问题。在本技术领域内具有广泛的实用性。本采煤方法工艺简单，技术上完全实现了无煤柱开采，煤炭资源回采率高，有效解决了资源紧缺矿井实施充填开采过程中充填成本过高的问题。在本技术领域内具有广泛的实用性。</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
@@ -5947,12 +4923,11 @@
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>针对现有技术存在的上述问题，本发明的目的是提供镀膜生产线的真空系统，所述真空系统均匀布置在各个箱体上，保证各个腔室均匀的被抽真空；各个腔室之间设有门阀，使各个腔室被分隔成独立的功能室，能被单独抽取真空；包括波纹管和支撑架，有效降低抽取真空时的震动和噪声；所述系统各部件充分利用镀膜生产线的高度差，布置紧凑。为了实现上述目的，本发明所采用的技术方案是：镀膜生产线的真空系统，所述镀膜生产线包括多个依次连接的箱体，各箱体内为腔室，待镀膜的基片在各所述腔室内运行，待镀膜的基片在每个独立的腔室内完成相应工艺，各箱体之间设有门阀，以将各个箱体对应的腔室分隔开来，所述真空系统，包括至少一泵组、主抽气管道、至少一泵组管道和多组抽真空组件，每个箱体设有一组抽真空组件，各组抽真空组件并联连接后通过主抽气管道和泵组管道连接泵组。作为上述技术方案的进一步改进为：抽真空组件包括至少一个分子泵、一个分子泵管道、耦合器和波纹管。每组抽真空组件包括两个分子泵，分子泵安装在箱体的壁面上，分子泵穿过所述箱体的壁面，分子泵的出口位于箱体内的腔室内，分子泵的另一端位于箱体的外部。</t>
+          <t>为解决上述背景技术中提出的问题。本发明提供了一种机械制造用铣刀夹持设备，具有具备更多实用功能性的特点。为实现上述目的，本发明提供如下技术方案：一种机械制造用铣刀夹持设备，包括底座，所述底座内转动连接有连接杆，所述连接杆的外侧套合有套环，所述套环的一侧一体成型有卡块，所述卡块的内部设置有若干个夹片，所述夹片的内部通过螺纹旋合连接有铣刀，所述夹片的内壁上分布有纹路，所述卡块的内部异于所述夹片的一侧焊接有底盘，所述夹片与所述底盘之间设置有弹簧，所述弹簧的一端镶入所述夹片的内部，所述弹簧的另一端镶入所述底盘的内部，所述夹片的下方设置有限位片，所述限位片与所述夹片为一体式结构，所述底盘的表面上等距环形分布有若干个环槽。</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -5962,12 +4937,11 @@
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>本发明涉及单独或与其他药剂组合的东莨菪碱透明经皮给药贴剂。这样的贴剂足够透明，可透过贴剂看清使用者皮肤。近距离不易发现带有浅色或白色墨水打印贴剂，但在仔细检查后可被发现。本发明采用透明聚合物膜作为背衬层，其对东莨菪碱的渗透率＜1μg/cm2/h，其中东莨菪碱最佳渗透率为0.5μg/cm2/h；对东莨菪碱的溶解度＜1%wt，其中最佳溶解度为0.1%wt。这样的膜厚度＜0.15mm，其中最佳膜厚度为0.15mm~0.10mm。这种薄膜与透皮贴剂的一种或多种组成（可移动的释放衬里除外）结合使用，例如药物储库、粘合剂和速率控制膜，足够透明，以达到可视皮肤的目的。贴剂成品的透明指数应＞55%，优选＞65%，更优选＞85%。</t>
+          <t>夹体的上下两端均为弧形结构，夹体的底部与底座的上表面相贴合。底座中心固接有放置台，4个支撑座围绕放置台设置，放置台中心开设有线槽，线槽为十字型结构。底座两侧均固接有固定座，固定座上设有螺槽，螺槽内旋接有螺栓。</t>
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
@@ -5977,12 +4951,11 @@
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>本发明的目的是提供一种家用风光发电无线控制器，可解决上述问题。本发明的目的是通过以下技术方案来实现：包括光强传感器、风力测试仪、太阳能电池板转向步进电机、风力发电机转向步进电机、单片机控制系统，上述光强传感器通过感知光线的强实现风光发电的光强，上述风力测试仪的检测风力的强度和方向，单片机控制系统根据光强控制太阳能电池板转向步进电机自动改变太阳能电池板与阳光的正对角度，单片机控制系统根据风力大小和方向控制风力发电机转向步进电机改变风力发电机扇叶与风的正对角度。本发明的有益之处实现风光发电的效益最大化。</t>
+          <t>本发明的目的是针对当前技术中存在的不足，提供一种利用铁尾矿制备亮红色铁红杂化颜料的方法。该方法选用工业固体废弃物铁尾矿为原料经过适合的配比和参数，合成铁红杂化颜料。一种利用铁尾矿制备亮红色铁红杂化颜料的方法。</t>
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
@@ -5992,12 +4965,11 @@
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>因此，为了达到上述目的，本发明提供的一种风扇老化测试装置，用于对风扇进行老化测试，其包括：电源模块，其具有一电源输出端；降压模块，其具有一输入端、一降压芯片及一输出端，所述输入端与与所述电源输出端电性连接；老化箱，其具有若干个老化架、一加热器及一温控器，所述若干个老化架设置于所述老化箱中，所述温控器控制所述加热器的加热温度；检测模块，其具有一分析模块及一显示模块，所述分析模块对所述风扇进行监测分析并得出一分析结果，所述显示模块显示所述分析模块的分析结果。可选的，所述电源模块为一电源适配器，源适配器的输出电压在6V-20V之间。可选的，所述降压芯片为一AMS1117芯片，所述AMS1117芯片的输出电压在3V-5V之间。可选的，所述降压模块的输出端还串联若干个电阻。可选的，所述风扇老化测试装置还包括一报警模块，所述报警模块与所述检测模块连接。可</t>
+          <t>通过所述服务器对所述描述文件进行解析，提取仿真要素，根据所述仿真要素的类型调用对应的仿真软件进行仿真，并将仿真结果反馈给用户。具体的，所述仿真要素包括组成所述仿真模型的各个部件、部件之间的连线关系和所述仿真模型对应的仿真参数。具体的，将所述仿真模型和仿真参数通过仿真要素进行描述还包括：仅采用一组仿真要素描述多个仿真软件之间相互耦合的部分，并针对各仿真软件的要求对该组仿真要素进行解耦操作。</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -6007,12 +4979,11 @@
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种便于安装具有防潮除锈功能的水表，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种便于安装具有防潮除锈功能的水表，包括本体和水管，所述本体的底端内侧固定连接有弹簧，所述弹簧的另一端固定连接有卡板，所述卡板的底端固定连接有拉板，所述本体的内侧设有定位杆，所述定位杆的底端固定连接有螺纹杆，所述螺纹杆的外侧螺纹连接有套管，所述套管的外侧固定连接有导流针，所述本体的左右两端的外侧均转动连接有连接套，所述连接套的上下两端均固定连接有连接块，所述连接块的内侧固定连接有固定轴，所述固定轴的外侧固定连接有扭簧，所述扭簧的另一端固定连接有调节杆，所述调节杆的一端固定连接有限位环，所述限位环的内侧设有水管，所述水管的一端固定连接有连接螺纹管。优选的，位于连接套外侧的所述连接块的个数共有2个，两个所述连接块分别位于连接套的上下两端对称位置处，所述连接套与连接螺纹管螺纹连接。</t>
+          <t>本发明的目的在于提供紫薯粉生产用粉碎设备，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：紫薯粉生产用粉碎设备，包括机体，所述机体的一侧固定有加工机组，所述加工机组的一侧设置有输送管，所述输送管的顶端固定有入料口，所述入料口的内侧设置有弧形板，所述弧形板的表面中间位置处均匀开设有多个通孔，所述通孔的底端固定有收集管，所述通孔的两侧相对于弧形板的表面分别设置有第一磁块和第二磁块，所述入料口的内侧表面固定有支撑柱，所述弧形板的底端与支撑柱的顶端卡合固定。优选的，所述机体的侧边相对于加工机组的底端处设置有出料口，所述出料口的内侧设置有内槽，所述出料口的外部设置有C型限位板，所述C型限位板通过套接在防护板与内槽的外侧固定。</t>
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
@@ -6022,12 +4993,11 @@
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>进一步地，所述固定块右端面开设有插孔，所述螺母块左端面前后两侧对称安装有插杆，且插杆与插孔相匹配。进一步地，所述卡装条与卡装槽相匹配。进一步地，所述转动块外表面包裹有防滑软胶套。</t>
+          <t>技术领域发明内容本发明要解决的技术问题是：克服现有技术的不足，提供一种工艺简单、可操作性强且成本低的等离子体火炬空心阴极的制备方法。本发明解决其技术问题所采用的技术方案是：一种等离子体火炬空心阴极的制备方法，包括以下步骤：1）将棒料加工成阴极模具和芯棒，阴极模具上设有填充区和与填充区贯通的进料槽；2）将芯棒插于阴极模具内；3）通过进料槽向填充区中填充铜和银的合金粉末或颗粒，即得充填有合金粉末或颗粒的阴极粗胚；4）将制备的阴极粗胚竖直放置于真空气氛炉中，抽真空后升温至800℃-950℃，保温5min-60min，冷却后机加工为等离子体火炬空心阴极。进一步，所述步骤3）中铜的含量为18%-38%，银的含量为62%-82%。进一步，所述棒料为无氧铜TU1或TU2棒料。无氧铜TU1或TU2具有导电率高，加工性能和焊接性能、耐蚀性能好的特性，采用该材料的料棒加工成的阴极模具在高温下不易氧化腐蚀，具有较好的导电性能。进一步，所述芯棒与阴极模具之间的间隙小于1mm。间隙是指芯棒外径与阴极模具内径之间差值的二分之一。设置有间隙可便于芯棒插入阴极模具内，且便于合金粉末或颗粒熔融后将芯棒的外壁与阴极模具的内壁焊接于一体。当间隙大</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -6037,12 +5007,11 @@
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种具有防潮功能的电表，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种具有防潮功能的电表，包括表壳、透明罩、温湿度传感器和控制器，所述表壳前端面固定连接有透明罩，所述表壳下端面固定连接有防潮装置，所述防潮装置包括防潮壳、单向管和单向阀，所述防潮壳上端面与表壳固定连接，所述防潮壳左右端面内侧均连通有单向管，所述单向管外侧均固定连接有单向阀，所述防潮壳下端面内侧固定连接有固定架，所述固定架上端面与表壳固定连接，所述固定架中央固定连接有风机，所述风机右侧设有电热丝，所述电热丝右侧设有隔板，所述表壳下端面开设有呈左右分布的通孔，所述表壳下端面内侧固定连接有呈左右分布的温湿度传感器和控制器，所述表壳前端面上方开设有滑槽，所述滑槽内滑动连接有清扫装置，所述表壳右端面开设有卡槽。优选的，所述通孔数量为两个，所述通孔位于隔板左右两侧，所述电热丝下端面与防潮壳固定连接，所述电热丝上端面与表壳固定连接，所述隔板下端面与防潮壳固定连接，所述隔板上端面与表壳固定连接。</t>
+          <t>发明内容(一)要解决的技术问题本发明的目的是提供一种地图辅助标记装置，以解决现有技术或相关技术中的地图无法将各个区域的人口数量标识出来，且直接在地图上写数字又无法灵活地改动的技术问题。(二)技术方案为了解决上述技术问题，本发明提供一种地图辅助标记装置包括，固定组件、标记组件与统计组件；固定组件用于固定地图；标记组件的连接端与固定组件连接，标记组件的动作端可相对固定组件滑动，用于将地图划分为若干区域；统计组件的连接端与固定组件连接，用于根据区域内的人口信息，调节并显示区域内的人口数。</t>
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
@@ -6052,12 +5021,11 @@
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>本发明的目的是提供一种实时3D场景共享互动设备，从根本上解决了上述问题，其具有结构简单紧凑、功能多样、用户体验良好、续航能力强等优点。为实现上述目的，本发明提供了如下技术方案：该实时3D场景共享互动设备包括镜架组件(1)、镜腿组件(2)，镜架组件(1)包括瞳距调节组件(14)、电路模组(19)，瞳距调节组件(14)包括载有菲涅尔透镜(143)的透镜支架(141)、调节旋钮(142)，调节旋钮(142)通过齿轮齿条结构啮合在一对透镜支架(141)之间，其技术要点是：电路模组(19)包括设置在显示屏(191)与散热板(152)之间的腔体(192)内的用于视频信号输入及输出的第一PCB电路板、设置在镜架侧部壳体内的用于输入控制信号与输出音频信号的第二PCB电路板，第一PCB电路板和第二PCB电路板之间通过用于交换数据的排线相连；第一PCB电路板上设有视频信号转换模块、用于安装摄像头模组的摄像头接口、冷光LED模组、电性设置在视频信号转换模块输入端的一对与菲涅尔透镜(143)对应设置的显示屏(191)；显示屏(191)背侧设有散热组件(15)，散热组件(15)包括设置在镜架组件(1)前端的散热板(152)以及设置在镜</t>
+          <t>发明内容鉴于上述现有技术的不足，本发明的目的在于提供一种可升降门搁架装置及冰箱，旨在解决现有门搁架放置的位置固定，不能上下移动，严重影响了门搁架使用灵活性的问题。本发明的技术方案如下：一种可升降门搁架装置，其中，包括冰箱门本体以及可拆卸地设置在所述冰箱门本体内面的门搁架本体，所述冰箱门本体内面两侧端位置均设置有若干对称的台阶，所述门搁架本体底部设置有可沿所述冰箱门本体内面上下升降且与所述台阶适配固定的限位结构。所述的可升降门搁架装置，其中，所述冰箱门本体内面的每个台阶下方均设置有第一上斜面。</t>
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
@@ -6067,12 +5035,11 @@
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>发明内容针对上述存在的技术不足，本发明的目的是提供一种卧床病员裤，其采用了可分离式的裤子，且在裤子上还带有护踝和加厚垫，解决了卧床患者穿衣麻烦、下床活动不便、不易于做蹬车活动的问题。为解决上述技术问题，本发明采用如下技术方案：一种卧床病员裤，包括短裤、连袜裤，所述短裤的底端设有一号链条，所述连裤袜的上端设有与所述一号链条配合使用的二号链条，所述短裤上开设有档口，所述连袜裤的足背部、膝盖部、小腿中部均设有加厚垫，所述连袜裤的脚踝部还设有护踝。优选地，所述档口处设有遮挡帘，所述遮挡帘的四周均设有隐形拉链。优选地，所述短裤上还设有两个储物袋。优选地，所述连袜裤的足底部也设有加厚垫。</t>
+          <t>作为优选，所述激光发射器是为发射激光为波长为632.8nm的单模激光器。作为优选，所述镜面旋转器旋转调节被测镜面与垂直面的角度θ，所述夹角θ的范围为-90°到90°。本发明针对现有技术的不足，提出了一种被测面可以旋转的相移干涉仪及测量方法。</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -6082,12 +5049,11 @@
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>针对上述现有技术中，在供料枪送丝的时候未增加旋转轴设备打印端无法360°旋转，送丝方向与打印方向不一致，导致打印过程过程中送丝环节不能理想运行，降低了打印效率，打印精度也很不理想的问题，本发明提供了一种利用等离子发生器的3D打印装置。一种利用等离子发生器的3D打印装置，其特征在于包括：等离子3D打印头、旋转架、旋转装置、旋转装置安装台、供料枪、安装架、支撑架和激光测距仪，所述等离子3D打印头设置在旋转架上，所述旋转架上设置有用于带动旋转架进行旋转的旋转装置，所述旋转装置设置在旋转装置安装台上，所述供料枪设置在旋转架的一侧，所述旋转装置安装台设置在安装架上，所述安装架设置在支撑架上，所述支撑架的一侧设置有激光测距仪。所述供料枪与等离子3D打印头的相对位置固定不变。</t>
+          <t>本申请的目的是研制一种既能轻便快速实现翼肋产品准确定位，又能提供钻孔模型，同时对翼肋进行支撑加强的飞机机翼翼肋定位钻孔夹具。该装置既需快速、准确地对翼肋进行定位并夹紧，提供翼肋的精确装配位置，又需方便对翼肋夹持支撑并钻制翼肋与前后梁的连接孔。本申请的优点在于利用产品零件上已制出的工艺孔和定位孔对翼肋定位夹紧。</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -6097,12 +5063,12 @@
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>本发明的目的是为了解决现有技术中存在不能对线路的覆盖冰率进行判断的缺点，而提出的一种输电线路气象覆冰位置确定方法。为了实现上述目的，本发明采用了如下技术方案：设计一种输电线路气象覆冰位置确定方法，包括以下步骤：S1、将输电线路的地理坐标数据、气象实况数据、预报数据统一纳入到GIS系统中，通过将线路数据、气象要素栅格数据相互叠加生成带有颜色标识的线路数据，可在GIS系统内只管展示线路覆冰情况；S2、采用java程序解析气象要素格点文件，根据要素阈值计算条件计算要素值，得出各个栅格点的数据集；S3、采用java程序解析线路数据，得出组成输电线路线数据中点数据集road_dataset；S4、采用java程序调用GDAL库对栅格点数据处理提取等值线，提取等值线是根据要素阈值等级划分进行提取，得到等值线数据集line_dataset；S5、采用java程序调用GDAL库处理等值线数据line_dataset，进行构面，得到等值面数据集polygon_dataset；S6、采用java程序调用GDAL库对输电线路的线数据road_dataset和等值面数据polygon_dataset进行叠加分析，将输电线路所在等值面</t>
+          <t xml:space="preserve">技术领域发明内容本发明的目的是提供一种蓄电池防护片整形工装，通过设置整形块对防护片进行压平整形，设置卡槽对应隔板卡入，防止整形块压坏隔板，同时可以更加贴合防护片进行整形，解决了防护片容易变形翘起的问题。本发明提供一种蓄电池防护片整形工装，包括整形块，整形块为长条、空心状，整形块两侧对称设有调整滑道，调整滑道上都对应设有滑动块，滑动块设有不止一个，两侧对应滑动块之间设有卡块，卡块中间设有卡槽，卡块下端之间连接设有伸缩折板，左右外端伸缩折板外侧与整形块内侧下端连接，整形块上端设有把手。进一步改进在于：把手两端设有伸缩连接杆，伸缩连接杆为倒L型，伸缩连接杆上端通过转动轴与把手连接，伸缩连接杆和把手之间连接设有弹簧，伸缩连接杆下端设有固定板。进一步改进在于：调整滑道内上下两侧对称设有调整卡槽。
+</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -6112,12 +5078,11 @@
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>本发明提出的一种喷砂机清洗装置，解决了现有喷砂机清洗装置不能进行自主的清理，且不能够高效一体化解决的问题。为了实现上述目的，本发明采用了如下技术方案：一种喷砂机清洗装置，包括喷砂罐、支撑架，所述支撑架内设置有液压杆，所述液压杆的上端固定连接有卡框，所述支撑架前、后两侧均固定连接有箱体，两个所述箱体互相靠近的一侧面均开设有第一滑槽，两个所述第一滑槽左、右两侧内壁均开设有限位槽，所述限位槽内设置有T型限位杆，所述T型限位杆的一端固定连接有夹板，所述T型限位杆的一端与限位槽的内壁之间连接有弹簧，所述支撑架的左侧设置有第二滑槽，所述第二滑槽内设置有电机箱，所述第二滑槽的左侧内壁开设有滑轨，所述电机箱内设置有电机，且电机的输出端固定连接有齿轮，所述电机箱的右侧面上方设置有清洁擦，所述电机箱右侧面的下方设置有喷砂口。优选的，所述电机箱上、下两侧面均固定连接有限位块，所述第二滑槽上、下两侧内壁均开设有限位滑槽。优选的，所述限位块滑动连接在限位滑槽内，所述电机箱滑动连接在第二滑槽内。优选的，所述齿轮设置在电机箱的左侧，所述齿轮与滑轨的下内壁啮合连接。优选的，左、右两个所述T型限位杆的T型端均设置在限位槽内，且另一端延伸在限位</t>
+          <t>本发明的目的旨在克服现有技术存在的不足，提供了一种可提高缸体质量的柴油机缸体包芯工艺砂芯组合的铸造结构。为了解决上述技术问题，本发明是通过以下技术方案实现的：一种柴油机缸体包芯工艺砂芯组合的铸造结构，包括主体芯，分别与主体芯两侧相连的左端芯及右端芯，设置于主体芯上端的顶盖芯，设置于主体芯下端的托盘芯，设置于主体芯的缸孔芯头上的枕头芯，设置于枕头芯上的水套芯及水口芯，以及设置于顶盖芯上的油道芯；所述主体芯与枕头芯接触面之间设置有石棉垫。优选的是，所述枕头芯、左端芯及右端芯的上下两端均设置有凸起，所述顶盖芯的下端及托盘芯的上端设置于凸起对应配合的凹槽。</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -6127,12 +5092,11 @@
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>本发明所要解决的技术问题是：提供一种汽车模具泡沫模型起吊孔的加工制作方法用于解决现有技术中汽车钣金冲压模具泡沫模型侧面的起吊孔单独加工时同心度不好、生产效率低的技术问题。汽车模具泡沫模型起吊孔的加工制作方法，包括以下步骤，并且以下步骤顺次进行，步骤一、根据汽车模具泡沫模型的结构进行分层，确认起吊孔在分层后的模型中的位置；步骤二、根据起吊孔在分层后的模型中的位置进行起吊孔加工1）、起吊孔在分层后的一个模型中①在起吊孔所在的分层模型中，自模型分层面向内沿预加工的起吊孔两侧切线加工宽度为起吊孔直径、长度为起吊孔厚度的凹槽，凹槽的底部加工为与预加工的起吊孔重合的半圆；②将加工完成的汽车模具泡沫粘贴、拼接，形成汽车模具泡沫模型；③测量起吊孔圆心到分层面的距离，带锯机加工泡沫获得宽度为起吊孔的直径、长度为起吊孔厚度，高度为起吊孔圆心到分层面的距离的毛坯料；④以毛坯料前述宽度对应的边的中点为中心在毛坯料高度侧的侧壁上画出半圆，根据所画的半圆线通过带锯机加工得到切割半圆后的填充块；⑤将填充块的表面上除切割的半圆外均涂上胶，将填充块切割半圆的一端朝向步骤①获得的凹槽的底部，对应镶嵌在所述凹槽内，形成最终模型；2）、起吊孔同时位</t>
+          <t>技术领域发明内容本发明的目的在于提供一种硅基二硫化钼异质结光电传感器及其制备方法，用于进一步提高此类光电传感器的光响应电流和光探测范围。本发明的工作原理为：本发明采用层数大于10层、厚度在20nm～30nm的多层二硫化钼与P型重掺杂硅形成MoS2/Si异质结构，有效提高了光吸收效率，能够产生更多的光生载流子；并且，随二硫化钼层数的增加，其带隙进一步地减小，光探测范围从可见的绿光、红光延伸到了近红外，对980nm的激光有一定的光响应电流；同时，本发明在多层二硫化钼的正上方制作顶电极，可对MoS2/Si异质结施加一个垂直于结界面的电场(即垂直电场)，光生载流子迅速分离的同时又减小了复合，产生较大光增益的同时又能有较快的响应时间；因此本发明器件开关比可达8×104，响应时间为150～200us。综上，本发明的有益效果在于：本发明提供一种硅基二硫化钼异质结光电传感器及其制备方法，该传感器在可见光和近红外区域表现良好的光电相应，且响应时间更快(可达到150～200us)，即灵敏度更高；并且本发明光电传感器中，多层二硫化钼直接设置于硅衬底上表面、无需精确转移，采用光刻胶直接作为绝缘层、有效避免SiO2层的使用，而顶电极直</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -6142,12 +5106,11 @@
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种具有防冻功能的水表，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种具有防冻功能的水表，包括水表壳和水表水腔，所述水表壳的左端外侧螺旋连接有连接管，所述连接管的左端内侧连通有进水管道，所述进水管道的外侧固定连接有橡胶圈，且橡胶圈与的外侧与连接管的左端内侧相贴合，所述进水管道的左端连通有进水接口，所述水表壳的右端连通有出水接口，所述水表壳的外侧固定连接有保温层，且保温层是由石棉材质的布料制成。优选的，所述水表壳的顶端内侧连通有温度感应器，所述水表壳的底端内侧固定连接有加热棒，所述加热棒的数量为2个，且对称分布在水表壳的底端内侧。优选的，所述水表壳的底端固定连接有电机箱，所述电机箱的内侧固定连接有电流感应器、电机和控制器，且电机设置在电流感应器的右侧，且控制器设置在电机的右侧，所述电机的主轴末端固定连接有转柱。</t>
+          <t>本发明提供一种柱式充填开采关键参数设计方法，解决柱式充填开采中充填成本高的问题，能避免开采后充填体不足量引起岩层失稳对开采造成破坏性影响。本发明通过建立柱式充填开采顶板力学模型，设定柱式充填体横截面积、弹性模量和总数目，采用强度理论判断压煤顶板稳定性，然后调整充填参数，最后确定柱式充填开采柱式充填体横截面积、弹性模量和总数目。本采煤方法工艺简单，技术上完全实现了无煤柱开采，煤炭资源回采率高，有效解决了资源紧缺矿井实施充填开采过程中充填成本过高的问题。在本技术领域内具有广泛的实用性。</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -6157,12 +5120,11 @@
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>本发明是针对现有技术中的存在的问题，本发明人经过多年的研究和试验，创新出了一种水稻叶面肥复合添加剂，有利于降低重金属污染。为了达到上述目的，本发明是通过以下技术解决方案来实现：为实现上述目的，一种水稻叶面肥复合添加剂，为液体状，包括以下组分及重量百分比，具体组分配比为：植物生长调节剂5-20％、羟基磷酸钙10-20％、腐植酸钾10-20％、钝化剂10-20％、硅藻土5-10％、微量元素5-10％、稀土元素5-10%、硅酸钠5-10%、螯合剂为5%-10%。进一步的，本发明技术方案中：所述植物生长调节剂选自复硝酚钠、芸苔素内酯、胺鲜酯中的至少一种。进一步的，本发明技术方案中：所述钝化剂由下述组分按重量百分比组成：磷矿石30%-50%、磷酸氢钙15%-25%、钙镁磷肥15%-25%、烧结法赤泥5%-20%。</t>
+          <t>"技术领域发明内容本发明所要解决的，就是针对上述问题，提出一种横向抗辐射功率器件结构，以调节器件的电荷平衡，改善辐射后器件表面的电场分布，从而提高器件抗辐射性能。为实现上述发明目的，本发明技术方案如下：一种横向抗辐射功率器件结构，包括第二种导电类型半导体衬底1，位于第二种导电类型半导体衬底1上表面的第一种导电类型半导体漂移区2，形成于第一导电类型半导体漂移区2中的第二种导电类型半导体阱区3，位于第二种导电类型半导体阱区3内部上方的第二种导电类型半导体接触区4和第一种导电类型半导体接触区5，第二种导电类型半导体接触区4右侧与第一种导电类型半导体接触区5相接，第一种导电类型半导体接触区7位于第一种导电类型半导体漂移区2内部的右上侧；第二种导电类型半导体接触区4的上表面和第一种导电类型半导体接触区5的部分上表面具有第一金属电极10，第一种导电类型半导体接触区6的部分上表面具有第二金属电极11，第一种导电类型半导体接触区5的部分上表面和第二种导电类型半导体阱区3的部分上表面覆盖绝缘层7，第一种导电类型半导体接触区(6)的左侧嵌入绝缘层7；第一金属电极10和第二金属电极11都与绝缘层7相连接；绝缘层7的左上方设置有多晶</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -6172,12 +5134,11 @@
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>本申请的目的在于：克服现有技术的不足，提供一种可重复拆装圆柱型桥墩结构及其设计方法、专用接头结构及设计方法，本申请针对混凝土桥梁下部结构中的圆型桥墩的装配式施工，从而实现下结构轻型化预制、运输和安装。为实现上述目标，本申请提供了如下技术方案:一种可重复拆装圆柱型桥墩结构设计方法，其特征在于，整体结构采用分段预制形式，由多个预制节段拼装而成；其接头段采用可搭接并可拆装的专用接头，将受力节段快速连接，完成“正装”；反之进行“倒拆”，实现各节段的卸除，整体受力不受影响；根据需要可在异地重新拼装，实现圆柱梁墩的二次使用。上述设计方法得到的相应的可重复拆装圆柱型桥墩结构，其特征在于，包括若干受力节段1和连接于节段间的特殊连接头段2两部分；相邻上下受力节段1之间的接触端侧，设计有配对的凹凸结构，上下吊装时方便对位，静止后稳定可靠；所述连接头段2结构设计为上下对称，包括上下两个连接机构以及中间的限制机构；以上连接机构为例，包括预埋锚钉7、钢板3、插销板4，所述钢板3的下面均匀密布固定有插销板4，固定钢板3的上面密布均匀固定有锚钉7，各个锚钉7的另一端焊接于上节段1中的钢筋上；所述插销板4中间腰部设计有槽结构；分布于上下两个</t>
+          <t>技术领域发明内容本发明的目的是提供一种弹性圈微调文胸，其采用调节结构对文胸的尺寸进行微调整，使其符合个人需求，有助于女性乳房健康。为实现上述目的，本发明提供一种弹性圈微调文胸，包括对称布置的两个罩杯、设置于所述罩杯底部的下托以及设置于所述罩杯一侧并与所述罩杯和下托连接的侧比，所述下托呈管状结构，其内设有弹性圈，所述弹性圈与所述侧比之间设有调节机构，所述的调节机构包括至少一个位于所述弹性圈上的调节点、与该调节点对应的拉绳和位于侧比上的滑槽；所述拉绳一端为固定端并与调节点固定连接，另一端为活动端并与滑槽滑动配合，滑槽上设有至少两个用于固定拉绳活动端的档位。作为本发明的进一步改进，所述滑槽呈弧形，所述滑槽的一端比另一端更靠近所述弹性圈的调节点的初始位置，所述拉绳的活动端在相邻两档位之间的移动距离大于拉绳固定端的移动距离。作为本发明的更进一步改进，所述滑槽上用于固定所述拉绳的活动端的档位为凹槽，所述凹槽位于滑槽的侧壁上并朝与其对应的调节点方向延伸；所述拉绳的活动端设有与所述凹槽配合的卡块。作为本发明的更进一步改进，所述侧比为弹性结构。作为本发明的更进一步改进，所述罩杯内侧的材质为竹炭纤维布料。作为本发明的更进一步改进</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -6187,12 +5148,11 @@
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>本发明的目的在于提供一种便于安装阀芯的阀门，以解决上述背景技术中提出的问题。为实现上述目的，本发明提供如下技术方案：一种便于安装阀芯的阀门，包括阀壳，所述阀壳的上方外壁上固定安装有连接盘b，所述连接盘b上通过连接螺丝a固定安装有连接盘a，所述连接盘a上固定安装有安装顶块，所述连接盘a的顶面开设有导轨，所述安装顶块内螺纹安装有阀杆，所述阀杆的底端固定安装有阀芯，所述阀壳的内部设置有通液腔，所述阀杆的顶部通过连接杆固定安装有转盘，所述转盘的底部固定安装有定位杆，所述定位杆通过其底部固定安装的滑片滑动安装在导轨内。采用上述方案，将连接盘a与连接盘b通过连接螺丝a连接组合，将阀杆与阀芯安装在阀壳内，需要打开该阀门时，只需旋转转盘，转盘带动阀杆转动，抬升阀杆与阀芯，此时定位杆伸长，阀芯上升使通液腔联通，则液体通过通液腔与阀芯的间隙流通，需要关闭该阀芯时，反向旋转转盘，此时定位杆缩短，使阀芯下降，将通液腔闭合，完成对阀门的关闭，调节完毕后，为避免误操作使转盘转动，将滑片通过连接螺丝b固定安装在导轨内，对定位杆进行定位，从而对转盘进行定位，防止误触碰对阀门的开闭造成影响，当阀芯损坏或阀门内发生堵塞的情况时，直接拆卸下连接螺</t>
+          <t>进一步地，所述圆锯片基体材料为45号普碳钢、16Mn合金钢和40Cr合金钢中的一种。进一步地，所述圆锯片基体采用整体式成型工艺或组合式成型工艺加工。进一步地，所述镍铬合金涂层采用Ni、Cr、Co、Fe粉末混合而成。</t>
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
@@ -6202,12 +5162,11 @@
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的是为了解决现有技术中水暖管道安装固定器大多使用螺丝固定，但螺丝长时间使用容易锈蚀损坏，导致螺丝不易拆卸，影响螺丝拆卸操作的便捷性，甚至影响固定器固定水暖管道稳定性的问题，而提出的一种水暖管道安装固定器。优选的，所述密封机构包括与连接孔内壁活动连接的L形块，所述L形块的上表面固定连接有橡胶块，所述L形块的外壁固定连接有限位环，所述限位环的内壁活动连接有T形插杆，所述T形插杆的杆壁活动套接有连接环，所述连接环的外壁与连接块的外壁固定连接，所述T形插杆的杆壁活动套接有弹簧，所述弹簧的两端分别T形插杆的外壁和连接环的外壁固定连接。优选的，所述上管夹和下管夹的内壁均固定连接有防滑垫。优选的，所述上管夹和下管夹的材质均为不锈钢。优选的，所述固定螺栓的外壁活动套接有垫圈。优选的，所述固定螺栓的外壁活动套接有橡胶防水套。</t>
+          <t>本发明的目的在于提供一种基于亮度和梯度的点状钙化区域检测方法及系统。本发明公开了一种基于亮度和梯度的点状钙化区域检测系统，包括：血管区域图像生成模块，其对输入图像进行处理，生成血管区域图像；钙化候选区域生成模块，其对所述血管区域图像进行处理，获得钙化候选区域；钙化候选区域预处理模块，其对所述钙化候选区域进行如下处理：对钙化候选区域进行一次膨胀与二次膨胀处理，获得一次膨胀区域与二次膨胀区域；提取钙化候选区域的中心线以及钙化候选区域轮廓线、一次膨胀区域轮廓线及二次膨胀区域轮廓线；计算钙化候选区域的面积；序列点集生成模块，其基于钙化候选区域预处理模块的预处理结果，对钙化候选区域轮廓线上的各轮廓点寻找距其最近的中心点，获得中心点-轮廓点对，以中心点-轮廓点对作穿过各膨胀区域的射线，获得多组序列点集，各序列点集依次包括中心点、轮廓点、一次膨胀轮廓点及二次膨胀轮廓点；亮度、梯度分析模块，其对各组序列点集中的轮廓点分析亮度是否大于预设阈值，若是，分析该序列点集中的中心点、轮廓点、一次膨胀轮廓点及二次膨胀轮廓点是否梯度衰减，将符合条件的点标记为符合，输出标记为符合的序列点集与总序列点集数的比值；判定模块，其基于所述比值及所述</t>
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
@@ -6217,12 +5176,11 @@
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>进一步地，所述侧海绵刷外侧呈弧形状。进一步地，所述正海绵刷后端面与过滤网前端面相贴合。进一步地，所述固定块内部开设有固定孔，且固定孔与固定件相匹配。</t>
+          <t>技术领域发明内容本发明的目的在于提供一种快干疏水漆的制备方法，通过加入负载纳米二氧化硅的联吡啶Cu（Ⅱ）配合物，不仅提高漆酶活性，减少了漆膜干燥时间，而且增加了漆膜表面的粗糙度，造成其接触角变高，从而得到了一种干燥速度快、疏水性能良好的快干疏水漆。为了解决上述技术问题，本发明采用的技术方案为：一种快干疏水漆制备方法，包括以下步骤：（1）氨基化二氧化硅制备：将纳米二氧化硅与氨基硅烷偶联剂加入溶剂中,加热回流反应，再经洗涤干燥得氨基化纳米二氧化硅；（2）将4-甲醛-2,2’-联吡啶与氨基化纳米二氧化硅在甲苯中加热回流反应，制得负载二氧化硅的联吡啶；再加入铜盐后反应得到负载纳米二氧化硅的联吡啶Cu（Ⅱ）配合物；（3）将负载纳米二氧化硅的联吡啶Cu（Ⅱ）配合物添加到生漆中，搅拌均匀，涂膜，调整合适的湿度，室温下干燥成膜，得到快干疏水漆。进一步地，步骤（1）中的氨基硅烷偶联剂为3-(2-氨基乙基氨基)丙基三甲氧基硅烷、(3-氨丙基)三乙氧基硅烷、四(二甲基氨基)硅烷、双(二甲氨基)二甲基硅烷、双(二乙氨基)二甲基硅烷、二甲基二甲氨基乙烯基硅烷、3-氨基丙基二甲基甲氧硅烷、丁基二甲基(二甲氨基)硅烷和（3－甲氨基丙基）三</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -6232,12 +5190,11 @@
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>针对现有技术存在的上述缺陷，本发明提出了一种锂电池应力预测方法。本发明所述的锂电池应力预测方法，包括如下步骤：预测模块根据待测锂电池所在的环境温度、所述待测锂电池的充放电周期对应的放电容量和属性的锂电池对应的拟合公式，确定所述待测锂电池的最大应力和充放电周期的映射关系之前，获取至少两个样本锂电池的样本数据，采用电子拉伸测试法，测试包装膜的纵向和横向形成载荷曲线，并进行处理，分别转化为包装膜的纵向真实应力应变曲线和横向真实应力应变曲线；根据待测锂电池所在的环境温度、所述待测锂电池的充放电周期对应的放电容量和属性的锂电池对应的拟合公式，预测所述待测锂电池对应每个充放电周期的最大应力，所述拟合公式用于表征在至少一种温度和充放电周期对应的放电容量的组合下，属性的锂电池最大应力和充放电周期的映射关系；测量膜片断面处的包装膜铝层厚度，根据所述包装膜铝层厚度对包装袋样品的安全性进行评估。优选地，所述锂电池的充放电周期对应的放电容量、所述样本锂电池在每个充放电周期的容量保持率。</t>
+          <t>"技术领域发明内容针对现有技术的缺陷，本发明提出了一种等离子体制备绿色氮肥方法及系统，旨在解决现有等离子体制备氮肥方法能耗高、产率低、不安全的问题。为实现上述目的，本发明提供了一种等离子体制备绿色氮肥方法及系统，包括：对收集到的能量进行分配，用于驱动负载的能量经升压产生等离子体，等离子体放电产生氮氧化合物；氮氧化合物经压缩溶解至吸收液中产生氮肥。本发明可以根据能量收集的实际情况对能量进行分配，收集到的能量满足负载驱动同时有富余时，能量进行传递用于驱动负载同时富余的能量被储存；收集到的能量仅满足负载驱动没有富余时，能量进行传递用于驱动负载；收集到的能量不能满足负载驱动时，能量被储存，直至被储存的能量等于负载驱动所需能量时用于驱动负载。按照本发明的另一方面，还提供了一种等离子体制备绿色氮肥系统，包括能量收集装置、能量控制装置、储能装置、升压装置和氮肥产生装置；其中能量收集模块收集到的能量由能量控制装置控制能量输入储能装置或者升压装置，升压装置产生的高压能量输入氮肥产生装置。进一步地，氮肥产生装置包括等离子体发生模块、压缩模块和吸收模块；等离子体发生模块与所述升压装置的输出连接，用于产生等离子体；压缩模块用于压缩等</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -6247,12 +5204,11 @@
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>为了克服现有技术的不足，本发明的目的在于提供一种蜂箱，其在炎热的天气能够被动地对蜂箱进行降温，避免蜂箱内的温度过高。石门本地中蜂蜂箱降温方法，提供一种蜂箱，包括蜂箱本体以及设于所述蜂箱本体外表面的辐射制冷层，所述辐射制冷层包括基材以及分散在基材中的辐射制冷颗粒，所述辐射制冷层在7μm～14μm波长范围内的发射率为70％～100％。在其中一个实施例中，所述辐射制冷颗粒选自以下一种或多种：SiC、SiO2、TiO2、BaSO4、CaCO3，所述辐射制冷颗粒的粒径为1μm～30μm。在其中一个实施例中，所述辐射制冷层为薄膜或涂层。在其中一个实施例中，所述蜂箱还包括设于所述蜂箱本体与所述辐射制冷层之间的反射层，所述反射层对可见光及近红外光的反射率大于60％。</t>
+          <t>本发明利用有机分子的自旋态的变化，提出了一种基于分子自旋态的磁场调控存储器件，可以实现信息的磁场调控存储。本发明的一方面在于提出了一种基于分子自旋态的磁场调控存储器件，该存储器件包括基体、数据存储介质和探针。所述数据存储介质为自旋态可变有机分子层，所述自旋态可变有机分子层的有机分子规则排列在所述基体表面</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -6262,12 +5218,11 @@
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>发明内容为了弥补以上不足，本发明的目的在于提供一种冰淇淋蒸发缸，旨在改善传统冰淇淋蒸发缸是单一方面制冷，里面只有一面的，蒸发面积小，制冷慢的问题。作为本技术方案的进一步优化，所述内制冷缸体和内外双面制冷缸体同轴设置，且所述内制冷缸体的外径大于内外双面制冷缸体的外径，所述外双面制冷缸体外端部中间部位开设有通孔。作为本技术方案的进一步优化，所述制冷剂入口Ⅰ和制冷剂出口Ⅰ位于同一纵垂线上，且所述制冷剂入口Ⅰ和制冷剂出口Ⅰ开口相对设置，且所述制冷剂入口Ⅰ和制冷剂出口Ⅰ以及制冷剂入口Ⅱ和制冷剂出口Ⅱ整体均为L形设置。</t>
+          <t>发明内容本发明的目的是为了克服现有技术存在的缺点和不足，而提供一种基于支持向量回归机的颜色空间转换的颜色校正方法。该校正方法通过彩色照相机获得的与设备相关的RGB(R表示红色、G表示绿色、B表示蓝色)颜色单元运用支持向量回归机来获得精确拟合的与设备无关的L*a*b*颜色单元，L*表示亮度，a*和b*表示色度指数，即a*和b*均反映色度的彩色分量，a*分量是由绿色渐变到红色，b*分量是由蓝色渐变到黄色。为实现上述目的，本发明的技术方案是S1:构建颜色采集系统，该颜色采集系统用于采集样本的彩色图片，并输出；S2:通过将色度值为L1*a1*b1*的标准目标颜色用CCD图像采集设备采集并获得相关的RGB值，构造出自变量S矩阵和标准空间RGB信息矩阵；S3:运用支持向量机获得系数矩阵M；S4:根据所得的系数矩阵M重构L*a*b*颜色空间。进一步设置是所述的步骤S1包括有：S11:CCD图像采集设备垂直放置在样本22.5厘米的距离；镜头的轴线和照明源之间的角度约为45度；S12:照明光源选用色温为6500K的D65光源；S13:照明光源和CCD图像采集设备放在一个木箱里，里面的墙被漆成黑色，以减少背景光；S14:采集获得</t>
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -6277,12 +5232,11 @@
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>为了解决上述技术问题，本发明提供一种用于户外配电柜安装的辅助固定装置，以解决需要对配电柜的安装固定孔进行测量然后再现场固定，比较麻烦，需要一种能够匹配多规格的配电柜安装的辅助固定装置的问题。本发明用于户外配电柜安装的辅助固定装置的目的与功效，由以下具体技术手段所达成：一种用于户外配电柜安装的辅助固定装置，包括下卡座，上卡座；所述下卡座包括下固定卡板、下活动夹板、前插板以及侧插板，且下卡座通过螺钉连接在固定座上并卡装在配电柜的下端，所述固定座上还开设有固定孔，且固定座的一端侧连接有两组竖向支板，所述竖向支板的下端内侧通过T型连接杆活动连接有弹簧夹板，且T型连接杆上套装有复位弹簧，所述上卡座还包括L型上固定板、上活动夹板与T型滑动板，且上卡座卡装在配电柜的上端并滑动连接在竖向支板的内侧上端。进一步的，所述下卡座的四端角以及固定座上相对应的位置分别设有连接孔、螺纹孔，且连接孔的上端为台阶状结构。进一步的，所述下活动夹板通过下夹紧弹簧活动连接在下固定卡板的后侧并卡在配电柜的下端后侧，所述下活动夹板上还连接有下导向插杆，且下导向插杆还穿插在下导向插块内。</t>
+          <t>技术领域发明内容有鉴于此，本发明的目的是提供一种聚合物电芯上料定位机构，其可以不受装配精度或各零部件精度影响，当电芯出现位置偏移的情况时，对电芯的位置进行有效调整，使得注液设备在进行注液工序时不会出现频繁报警的情况，有利于推广应用，具有重大的生产实践意义。为此，本发明提供了一种聚合物电芯上料定位机构，包括横向分布的主连接板；所述主连接板从左到右依次间隔设置有一个第一定位板和三个第二定位板；第一定位板和第二定位板的下端，分别设置有可左右调整位置的第一挡条；每个第一挡条的右侧设置有可垂直上下调整位置的第二挡条。其中，第一定位板和第二定位板的上部，均具有多个相互间隔的电芯定位臂；任意两个相邻的电芯定位臂之间，具有一个顶部开口的电芯定位放置凹槽；电芯定位放置凹槽用于放置需要注液的聚合物电芯。其中，第一定位板和第二定位板的下端分布设置有横向分布的滑轨；第一挡条设置在横向分布的滑轨上。其中，第一挡条安装在横向分布的滑轨的滑块上。其中，第一挡条的右侧壁上设置有垂直分布的导轨；第二挡条设置在垂直分布的滑轨上。其中，第二挡条安装在垂直分布的滑轨的滑块上。由以上本发明提供的技术方案可见，与现有技术相比较，本发明提供了一种聚合物电</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
@@ -6292,12 +5246,11 @@
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>为了克服上述现有技术的缺点，本发明的目的在于提供一种制备锂/铜/锂箔材的深冷制备方法，有效地利用铜、锂金属的物理加工属性，避免锂箔粘辊，利用深冷轧制实现材料机械性能大幅提高，最终制备出高性能的锂/铜/锂复合箔材，该材料为层状复合材料。为了实现上述目的，本发明采用的技术方案是：一种制备锂/铜/锂箔材的深冷制备方法，包括如下步骤：第一步：采用铜箔和锂箔为原料，铜箔原料厚度为4-12μm，锂箔厚度为4-25μm，铜箔和锂箔宽度相同；第二步：保障整个工作区域空气干燥；第三步：将铜箔和锂箔分别放置到原料卷曲机组上，采用氩气对锂箔进行保护；第四步：开启表面处理装备，对铜箔的上下表面进行清理，清除表面氧化物；第五步：铜箔、锂箔通过传导辊进入深冷箱，深冷箱采用干冰进行冷却，冷却温度范围为-60℃～-20℃；第六步：在铜箔、锂箔经过深冷箱内的传导辊后，铜箔和锂箔完全叠合，得到锂/铜/锂复合箔材；第七步：在深冷箱中对锂/铜/锂复合箔材进行连续深冷处理，冷却至-40℃～-20℃；第八步：开启干冰冷却喷枪，对深冷轧机机组轧辊表面进行冷却，使轧辊变形区温度控制在-40℃～-20℃；第九步：利用所述深冷轧机机组对深冷处理的锂/铜/锂复合</t>
+          <t>发明内容所述步骤一中，获取燃烧后废气中O2和CO2的体积含量的位置应尽可能接近下降气流小烟道。在实际使用中，本发明所提供的废气循环量测量方法所涉及的计算过程可以通过计算机语言编程实现，通过以太网或硬接线的形式获取上述数据，并将计算结果显示在运行人员的监控窗口中，同时可将结果传送到各需要的控制系统。以上实施例在以本发明技术方案为前提下进行实施，给出了详细的实施方式和具体的操作过程，但本发明的保护范围不限于上述的实施例。上述实施例中所用方法如无特别说明均为常规方法。"</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -6307,12 +5260,11 @@
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>本发明要解决的技术问题和提出的技术任务是克服现有桅柱顶部加装水平延伸的部件或者可水平伸出起吊部件时导致桅柱自身偏摆量过大的缺陷，提供一种桅柱升降实时防偏摆系统。为达到上述目的，本发明的桅柱升降实时防偏摆系统，包括由桅柱节依次伸缩组成的桅柱，所述桅柱的首节桅柱节固定于底架，所述首节桅柱节之外的所有桅柱节均同步相对于前一桅柱节伸缩（升高或者下降），其特征是：为所述桅柱配置有钢丝绳，所述钢丝绳的两端相对于底架固定，所述钢丝绳的中间部分经滑轮依次绕过桅柱节的上下两端，所述的钢丝绳上作用有预紧装置。作为优选技术手段：所述钢丝绳的一端绕过所述末节桅柱节上端的滑轮固定在底架上，所述钢丝绳的另一端固定于所述首节桅柱节。</t>
+          <t>技术领域发明内容本发明的目的是提供一种带有电磁锁定机构的机车司机控制器，解决了现有机车司机控制器锁定机构操作方式单一的问题。本发明所采用的技术方案是，一种带有电磁锁定机构的机车司机控制器，包括换向机构，换向机构包括有设置在带有板上的换向旋钮，换向旋钮底部一侧设置有电磁锁定机构；牵引制动机构包括有设置在带有板上的牵引制动手柄，牵引制动手柄底部一侧设置有电磁锁定机构，换向机构和所述牵引制动机构可以集成为一体式机车司机控制器，或者独立布置为分离式机车司机控制器。本发明的特点还在于：电磁锁定机构包括壳体，壳体一端中央开有圆孔，圆孔插有锁定轴，锁定轴突出圆孔的一端与牵引控制手柄或者换向旋钮相互配合，另一端与提供锁定力的弹簧套接，弹簧由套接在外侧的定位套固定，定位套外部绕有线圈，端盖固定于壳体另一端的开口处。换向旋钮底部圆周面上带有锁定孔，锁定孔为圆形、矩形、三角形或其他不规则形状，锁定孔与锁定轴配合使用。</t>
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
@@ -6322,12 +5274,11 @@
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>发明内容为解决上述技术问题，本发明提供一种降低再生稻二茬稻米重金属含量的种植方法，其特征在于，在第一茬稻穗收割后，向稻田土壤表面撒施重金属钝化剂；以无水物和质量份数计，所述重金属钝化剂包括石灰石粉100份和铁钙浆料，所述铁钙浆料由硫酸亚铁20-30份的水溶液加入所需量石灰石粉反应至硫酸亚铁全部转化制备。所述重金属钝化剂施用时无需翻动土壤，且pH值为中性，对水稻植株根系没有伤害。所述直接撒施到稻田土壤的石灰石粉，具备较大的表面积和活性，所起的作用是缓和地降低稻田土壤的酸性和提高土壤的pH值，可在如一年以上时间抑制土壤中重金属的溶出浓度和降低水稻植株对重金属的吸收量。</t>
+          <t>发明内容为了克服现有技术的不足，本发明的目的在于提供一种利用地沟油制备近零VOC醇酸树脂的方法，得到的醇酸树脂基本可达到零VOC排放。本发明的另一个目的在于提供一种由上述方法制备得到的醇酸树脂。本发明的目的之一采用如下技术方案实现：利用地沟油制备近零VOC醇酸树脂的方法，包括以下步骤：S1.将8～10质量份的二元醇、10～15质量份的间苯二甲酸-5-磺酸钠以及适量的催化剂混合均匀；S2.加热步骤S1的混合物，然后再加入33～40质量份的地沟油醇解液、5～10质量份的三羟甲基丙烷以及15～30质量份的酸酐，升温反应一段时间，当产物的粘度达到预定值时降温备用。进一步地，步骤S2包括以下步骤：S21.对步骤S1的混合物加热，在4～5小时内缓慢升温至190～210℃，保温50min～60min；S22.向步骤S21得到的混合物中加入33～40质量份的地沟油醇解液、5～10质量份的三羟甲基丙烷以及15～30质量份的酸酐，升温至220～230℃后保温50min～60min；S23.当步骤S22中产物的粘度达到预设值时，降温备用。</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -6337,12 +5288,11 @@
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>(一)解决的技术问题针对现有技术的不足，本发明提供了一种超高压泵的增压器的高压密封组件结构，具备防止O型圈脱落、长久使用仍高效密封防泄漏等优点，解决了一般的高压泵中的增压器的高压密封组件O型圈易脱落、长久使用后密封性能差的问题。(二)技术方案为实现上述防止O型圈脱落、长久使用仍高效密封等目的，本发明提供如下技术方案：一种超高压泵的增压器的高压密封组件结构，包括液压缸，所述液压缸的右侧固定连接有液压缸端盖，液压缸端盖的右端设置有油封支撑架，液压缸的内腔设置有液压活塞，液压活塞的左侧固定连接有液压杆，液压活塞的右侧固定连接有活塞柱，活塞柱和液压缸端盖之间且位于油封支撑架的上方设置有油路油封，活塞柱上且位于液压缸端盖的右侧固定套接有高压缸，高压缸和活塞柱之间且位于油封支撑架的右侧固定套接有填料压紧环，高压缸和活塞柱之间且位于填料压紧环的右侧固定套接有紧固环，高压缸和活塞柱之间且位于紧固环的右侧设置有密封支撑环，高压缸和活塞柱之间且位于密封支撑环的右侧设置有第一O型圈，高压缸和活塞柱之间且位于第一O型圈的右侧设置有第二O型圈，高压缸和活塞柱之间且位于第二O型圈的右侧固定套接有套筒，高压缸的右侧固定连接有单向阀，单向阀</t>
+          <t>"技术领域发明内容本发明的目的在于提供一种电池系统SOP动态调整方法，以解决上述背景技术中提出的问题。本发明的技术方案是：一种电池系统SOP动态调整方法，所述动态调整方法包括有电池放电功率调整方法和电池回馈可用功率调整方法，所述电池放电功率调整方法包括以下步骤：步骤S1，实时采集电池系统的当前电参数，在任意一个周期T1内，计算得出当前实际使用的放电功率P放和持续允许放电功率P12，累加电池包实际放电使用的功率Q1的计算公式：电池包允许放电使用功率Q1`的计算公式：其中，K1是指调整系数，P11是指峰值允许放电功率，t11是指峰值允放放电功率时间长度；步骤S2，当Q1&gt;Q1`时，跳转到步骤S3，否则跳转到步骤S1；步骤S3，电池系统当前允许放电功率P01从峰值允许放电功率P11逐步降到持续允许放电功率P12，然后跳转到步骤S4；步骤S4，当步骤S3的持续时间t1&gt;T1`时，跳转到步骤S5，否则跳转到步骤S3；步骤S5，电池系统当前允许放电功率P01逐步恢复到峰值允许放电功率P11，然后跳转到步骤S1；所述电池回馈可用功率调整方法包括以下步骤：步骤P1，实时采集电池系统的当前电参数，在任意一个周期T2内，累加电池</t>
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
@@ -6352,12 +5302,11 @@
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>本发明的目的是为了解决现有技术中步骤较为繁琐，且烟草与碱液混合后对烟碱的提取效果差的问题，而提出的一种烟碱生产用原料进料装置。为了实现上述目的，本发明采用了如下技术方案：一种烟碱生产用原料进料装置，包括上端开口的进料罐，所述进料罐的上端通过对称设置的搭扣共同连接有罐盖，所述进料罐的内罐底设有过滤袋，所述罐盖的上端固定连接有驱动电机，所述驱动电机的输出端通过联轴器连接有偏心轮，所述罐盖的上端中心处开设有压孔，所述过滤袋的上端设有压板，所述压板另一端的中心处固定连接有压杆，所述压杆远离压板的一端穿过压孔并向罐盖的上方延伸，所述压杆远离压板的一端设置在偏心轮的轮壁下端，所述罐盖的下端固定连接有弹簧，所述弹簧的另一端固定连接有复位环，所述复位环固定套接在压杆的杆壁上，所述弹簧套设在压杆上，所述复位环通过两个对称设置的稳定组件连接在进料罐的内罐壁上。</t>
+          <t>发明内容针对现有技术存在的问题，本发明旨在提供一种空心微珠水处理材料的制备方法，该种材料可以在轻微搅动下与水充分混合，具有降解水中绝大多数有机污染物的能力，并且在水处理结束后可以快速与水分离。本发明采用的技术方案是：一种空心微珠水处理材料的制备方法，包括下述工艺步骤：步骤1：制备钛醇溶液在烧瓶中依次加入620~730mL无水乙醇、33~45mL异丙醇、22~38mL钛酸正丁酯、9~18g表面活性剂NP-10、5~11g水杨酸，将混合物加热至72℃，在此温度回流20min，得到钛醇溶液。步骤2：制备酸性钇溶液在150~180mL去离子水中依次加入7~13g硝酸钇、5~8g硅酸钠、6~10mL冰醋酸，充分搅拌至形成透明溶液，得到酸性钇溶液。步骤3：热反应膜生长(1)将钛醇溶液和酸性钇溶液混合，移入不锈钢高压反应釜，然后加入10~15g硅酸铝空心微珠；(2)保持反应釜中温度185~215℃，压力2~3MPa，反应33~56h，然后自然冷却；(3)将所得产物过滤，用去离子水反复清洗所得固体物，得到滤饼；</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
@@ -6367,12 +5316,11 @@
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>有鉴于此，本发明提出了一种计算机断层扫描方法、设备和系统。根据本发明的第一方面，提供一种计算机断层扫描方法，包括：对受检对象进行定位像扫描并生成第一定位像；获取所述受检对象先前的定位像以及断层图像中标注了病灶的帧的位置；比较所述第一定位像和先前的定位像，以获得所述受检对象在其上的偏移；根据所述标注了病灶的帧的位置以及所述偏移，在所述病灶的位置以更高的剂量进行断层扫描。根据本发明的第二方面，提供一种计算机断层扫描设备，包括：第一扫描单元，其对受检对象进行定位像扫描并生成第一定位像；接收单元，其获取所述受检对象先前的定位像以及断层图像中标注了病灶的帧的位置；比较单元，其比较所述第一定位像和先前的定位像，以获得所述受检对象在其上的偏移；第二扫描单元，其根据所述标注了病灶的帧的位置以及所述偏移，在所述病灶的位置以更高的剂量进行断层扫描。根据本发明的第三方面，提供一种计算机断层扫描系统，包括：存储单元，其存储受检对象先前的定位像以及断层图像中标注了病灶的帧的位置；第一扫描单元，其对所述受检对象进行定位像扫描并生成第一定位像；接收单元，其从所述存储单元获取所述受检对象先前的定位像以及断层图像中标注了病灶的帧的位置；比较单</t>
+          <t>本发明的优点：1、在大规模机器通信网络中，同一时刻只有少量的机器设备发送信号，其余大多数设备都处于不活跃状态，所以发射信号矢量具有稀疏性。本发明利用这一稀疏性，将发射信号恢复问题转化为稀疏向量重构问题。2、基于混合高斯函数可以逼近任意分布函数，本发明提出用一种普适的混合高斯模型来拟合信道中的噪声，提高噪声建模精度。</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -6382,12 +5330,11 @@
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>鉴于以上内容，本发明提供了一种具有较佳宣传效果的风扇。一种风扇，包括定子组件、转动组件，所述风扇还包括装饰件；所述定子组件包括底座、轴心及定子，所述轴心固定在所述底座上，所述定子环设于所述轴心外侧设置，所述转动组件套设在所述轴心上，所述装饰件与所述轴心远离所述底座的一端固定连接，所述定子用以驱动所述转动组件围绕所述轴心转动，而所述装饰件保持静止。本发明的风扇通过将装饰件固定至所述轴心，由于所述轴心固定至所述底座，因此所述转动组件无论怎么转动，所述装饰件都因与所述轴心固定连接而保持静止，从而使所述装饰件上印刷的文字及图案具有更好的宣传效果。</t>
+          <t>技术领域发明内容本发明的目的是为了解决上述背景技术中存在的问题，提供用于构造声学超材料的可调频局域共振结构单元，其具备灵活的调频功能，克服了传统人工声学微结构单元共振频率难以调节的不足，并且结构简单。为了达到上述目的，本发明采用的技术方案是：用于构造声学超材料的可调频局域共振结构单元，所述可调频局域共振结构单元包括振子质量结构1、振子刚度结构2、支撑结构3、调节装置4，其特征在于：所述振子刚度结构2上设置有调节装置4，振子质量结构1安装于振子刚度结构2上，并且振子质量结构1在振子刚度结构2上的安装位置可以沿调节装置4灵活调节，所述支撑结构3与振子刚度结构2相连接，并起支撑振子刚度结构2的作用。进一步地，所述振子刚度结构2的结构形式可为圆形薄板或矩形薄层梁片，圆形薄板或矩形薄层梁片上设置的调节装置为滑槽；振子刚度结构2的结构形式还可为圆形细长杆，细长杆上设置的调节装置为螺纹。进一步地，所述振子刚度结构2的结构形式为圆形薄板时，支撑结构3对振子刚度结构2的支撑方式可以为中部支撑或靠近中部支撑，还可以为外边缘支撑或接近外边缘支撑；振子刚度结构2的结构形式为矩形薄层梁片时，支撑结构3对振子刚度结构2的支撑方式可以为中</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -6397,12 +5344,11 @@
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>发明内容本发明的要点在于将具有杀菌、镇定、止痒作用的植物成分复配后与生物溶菌酶以及海藻活素融合，共同作用于瘙痒皮肤，全方位解决皮肤瘙痒、湿疹、过敏、红疹等各种皮肤问题。本发明选择的配方如下（组分及其重量百分比％）：垂盆草5.0-7.0、马齿苋3.0-5.0、薄荷1.0-3.0、灰灰菜4.0-6.0、龙葵果4.0-6.0、荆芥3.0-5.0、桑叶3.0-4.0、甘草5.0-7.0、桃叶3.0-5.0、按叶7.0-9.0、玫瑰2.0-4.0、复合溶菌酶1.0-3.0、海藻活素1.0-3.0、净化水至100。马齿苋是一种具有杀菌、消炎作用的植物成分，清热解毒，可缓解皮肤瘙痒、红肿，同时具有止痛的效果。</t>
+          <t>副尺基础滑块底部设置有两个第一通孔，沿第一通孔方向上各设置有一个绘图笔筒，该绘图笔筒靠近第一凸台一侧设置有T型凸台，延伸滑块上设置有两个绘图笔筒，该绘图笔筒远离彼此的一侧分别设置有T型凸台和与T型凸台相适配的倒T型凹槽。绘图笔筒上设置有螺纹孔，螺纹孔螺纹连接有紧固螺钉。U型副尺的开口端设置有T型封口销。主尺沿长度方向设置有第二凹槽，副尺连接块上设置有与第二凹槽相适配的第二凸台，主尺与副尺连接块滑动连接。本发明的有益效果是：本发明一种剖面线绘图仪，可以独立绘制角度分别为30度、45度和60度的剖面线，不需要频繁移动绘图尺，操作简便，绘图效率高，成图整洁度高。</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -6412,12 +5358,11 @@
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>发明内容针对现有技术存在的不足，本发明目的是提供一种新型可调节防火阀，以解决上述背景技术中提出的问题，本发明结构合理，便于组合安装，调节效果好，实用性强。进一步地，所述转动轴下端面开设有圆孔，且圆孔内部设置有内螺纹，所述电机环形侧面上侧设置有外螺纹，所述电机与转动轴通过螺纹相连接。进一步地，所述第一齿轮下端面开设有通孔，且通孔内部设置有内螺纹，所述转动轴环形侧面上侧设置有外螺纹，所述转动轴与第一齿轮通过螺纹相连接。</t>
+          <t>本发明提供了一种具有电小特性的小型化紧凑型三频带天线，该天线通过微带线激励，采用三个具有相同形状以及电磁特性的单极子和改进形的环形结构进行辐射，并在介质基板的上下面加载微带线以及开路线，通过调节微带线和开路线的长度就能实现较好的阻抗匹配。本发明能有效改善现有电小天线带宽较窄的问题，并且还具有结构紧凑、频带宽度高等优点。</t>
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
@@ -6427,12 +5372,11 @@
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>本发明的目的在于针对现有技术的缺陷和不足，提供一种设计合理的荞麦片的加工工艺，其工操作简单，能够加工制作出方便食用的荞麦片，且能够提高荞麦片的生产效率。为达到上述目的，本发明采用了下列技术方案：它的操作步骤如下：1、原辅料接收：原辅料采购验收，合格后接收；2、原辅料储存：验收合格的原辅料在常温、干燥清洁的库房储存；3、原料磁选：原料通过提升机进入磁选通道，去除磁性金属物质；4、碾磨：原料输送到磨筛碾磨成粉；5、调粉：荞麦粉开包按配比加入纯化水调制，调节水分含量约为20%左右；6、熟制：熟制过程，时间1-3分钟，熟制温度130-160℃，螺杆转速30Hz；7、压片：将熟制后的荞麦粉直接送入压片机，然后经压片机压至厚度1-2mm左右，直径5-10mm椭圆状方便食品，压片转速40-50Hz；8、烘烤杀菌：烘箱烘烤，去除水分；时间8-15分钟，烘烤温度：75-125℃；9、风冷：烘烤后的制品输送过风冷通道进行冷却到常温，风冷筛转速15-30Hz；10、过筛：风冷后的物料过筛，保证物料颗粒均匀，通过孔径φ5-10mm筛网，筛上物进入下道工序，筛下物（下脚料）废弃；11、包装：加工完成的最终产品须通过计量后可进行包装机，</t>
+          <t>本发明为了克服现有技术的不足，提供一种油的流动速度，提高润滑效果，减少零件磨损的加速润滑的油嘴及带该油嘴的压缩机。为了实现上述目的，本发明采用以下技术方案：一种加速润滑的油嘴，曲轴内设有连通油嘴的第一泵油通道，所述油嘴包括油嘴本体，油嘴本体内形成第二泵油通道，油嘴本体的一端连接曲轴，第一泵油通道连通第二泵油通道，油嘴本体另一端形成出油口，所述第二泵油通道内设有沿第二泵油通道长度方向延伸的插片，该插片一端靠近出油口；所述插片至少一侧表面设有引流凸条，该引流凸条沿插片长度方向弯曲成弧形。加设所述第二泵油通道，能扩大油的输送传输空间，加大油的传输量，而且插片能有效提高油的旋转的离心率，使油快速冲出出油口，达到快速润滑压缩机的作用，减小压缩机磨损，尤其时压缩机启动时，能快速被油润滑，对压缩机起到良好的保护作用；即能将电机的旋转速度由原来的1500r/min快速提高到2500r/min，而且油嘴的长度可进一步缩短，耗材量也大大减小，批量生产后，成本可由原来的400w减少到100w；增加所述引流凸条可起到引流作用，提高油的离心作用，加速油旋转泵出出油口。</t>
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
@@ -6442,12 +5386,11 @@
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>本发明的目的在提供一种箱体的护角结构，其主要能保护箱体脆弱的边角，有效降低箱体边角因碰撞受损的问题。为了达成前述目的，依据本发明所提供一种箱体的护角结构，包含：箱体，具有四个分别位于四个边角处的组接部，各所述组接部具有外表面、相反于所述外表面的内表面、贯穿所述外表面与所述内表面的组接孔、及两分别由所述外表面凹设且设置于所述组接部两相对应侧处的组接槽道；以及四护角体，可拆组地分别设置于所述箱体的四组接部上，各所述护角体具有靠抵所述外表面的靠抵面、两设置于所述靠抵面且分别滑设定位于所述两组接槽道的卡接部、及设置于靠抵面且穿设定位所述组接孔的卡合柱。较佳地，其中所述卡合柱具有靠抵所述组接部的内表面的头部、及连接所述头部且贯穿所述组接孔的身部，所述卡合柱的头部设有两具有弹性且相距一距离的弹性段，所述两弹性段可在外力的作用下呈压迫状态，以通过所述组接孔。</t>
+          <t>技术领域发明内容本发明为了解决护理床上病人翻身的问题，本发明提供一种有翻身功能的护理床，包括床架和设在床架上的若干固定床板与若干活动床板，所述固定床板和所述活动床板沿床长度方向间隔排布，每个所述活动床板与驱动装置连接，每个所述活动床板下方设有若干气囊，所述气囊沿所述床架宽度方向分为三排。作为优选，所述床架两侧设有挡板，所述挡板上设有安全气囊。所述安全气囊保护病人在翻身时不掉下床体。进一步地，所述活动床板通过铰链活动设置在所述床架上，所述驱动装置为电动推杆，所述电动推杆设置在所述床架两侧并驱动所述活动床板。所述电动推杆推动活动床板打开或者关闭，便于后期气囊的充气和放气。作为优选，每个所述活动床板左右两侧设有隔板，相邻的所述隔板形成存放腔，所述气囊放置在所述存放腔内，所述存放腔下端与托板连接，所述托板与滚动导轨滑动连接，所述托板还与驱动平台连接，所述驱动平台上设有驱动机构，所述驱动机构驱动所述托板沿床板宽度方向左右移动，所述隔板间的宽度大于所述活动床板的宽度。所述驱动平台带动气囊进行左右移动，调整病人位置。进一步地，所述气囊包括长气囊、中间气囊和小气囊，所述气囊沿所述床架长度方向分为三排，所述气囊中间一排为中间气</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -6457,12 +5400,11 @@
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>优选的，所述液压杆设置在主箱前、后两侧的内部，所述液压杆的上端固定连接在推板的下表面。优选的，所述第一连接杆的一端通过铰链与第二连接座活动连接，所述第一连接杆的另一端通过铰链与第二连接杆活动连接。优选的，所述推板左、右两侧分别通过铰链与左、右两侧的第二连接杆通过铰链活动连接。</t>
+          <t>本发明的目的在于针对上述问题，提供一种直丝管与管接头连接结构的冲压方法，以解决现有直丝管与管接头的冲压连接工艺拔钢针困难，影响工作效率以及影响直丝管与管接头连接强度的问题。作为本发明的一种优选方案，所述加强金属套上沿其轴向方向开设有导向孔、套接孔，所述套接孔的孔径与所述预连接段的外径相适配，所述导向孔的孔径由所述导向孔的轴向第一端至所述导向孔的轴向第二端依次递减，所述导向孔的轴向第二端与所述套接孔相连，且所述导向孔的轴向第二端的孔径与所述套接孔的孔径相同。作为本发明的一种优选方案，所述加强金属套的壁厚与所述外皮的壁厚相同。</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -6472,12 +5414,11 @@
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>(一)解决的技术问题针对现有技术的不足，本发明提供了一种带有削皮功能的甘蔗压榨装置，具备轻松去除甘蔗皮、甘蔗在进入辊辘时不打滑等优点，解决了一般甘蔗压榨机榨汁不削甘蔗皮、甘蔗进入辊辘时打滑的问题。(二)技术方案为实现上述轻松去除甘蔗皮、甘蔗在进入辊辘时不打滑等目的，本发明提供如下技术方案：一种带有削皮功能的甘蔗压榨装置，包括外壳，所述外壳的上方开设有进料槽，外壳的内腔且位于进料槽的右侧固定安装有弹簧杆，弹簧杆的下方固定连接有从动轮，外壳的上方固定安装有水箱，水箱的下方且位于外壳的内腔固定连接有水管，水管的下方固定连接有清洁体，清洁体的内腔上部与底部均设置有喷头，清洁体的内腔上部与底部且位于喷头的右侧均设置有吸水布，外壳的内腔且位于水管的右侧固定安装有铡刀，外壳的内腔且位于铡刀的右侧固定安装有竖压板，外壳的内腔底部固定安装有污水箱，污水箱的上方固定安装有第一传送带，第一传送带的表面设置有挡板，污水箱的上方且位于第一传送带的右侧固定安装有第二传送带，污水箱的右侧固定连接有废料箱，废料箱的上方设置有束管，束管的右侧活动连接有削皮刀，废料箱的右侧活动轴接有废料门，在废料门与废料箱内腔之间设置有伸缩杆，废料门的右侧固定</t>
+          <t>本发明解决的技术问题是提供了一种软包锂离子电池一致性的筛选方法，该方法有效提高了锂离子电池组的一致性，改善配组电池因一致性差造成的电池性能衰减。本发明为解决上述技术问题采用如下技术方案，一种软包锂离子电池一致性的筛选方法，其特征在于具体步骤为：步骤S1：将1,2,3......n只注液后的电池于40℃搁置24h后取出，放置室温后记录电池化成前和化成后的内阻，分别为R1和R2，计算R2-R1得到化成后内阻变化值，然后计算出内阻变化平均值，做出内阻变化偏离平均值曲线，筛选剔除内阻变化偏离值≥0.05mΩ的电池单独放置；</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -6487,12 +5428,11 @@
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>本发明所解决的技术问题是提供一种工具，可以将鞋帮上的鞋面、鞋身、鞋头外护片、鞋头上护片、鞋头内护片准确定位并一次性完成缝制，使鞋帮对称一致。本发明的技术方案是：一种军用鞋帮缝制工具，包括鞋帮帮片底层，鞋帮帮片放置层，鞋帮帮片上固定层。所述的鞋帮帮片底层内放置鞋面、鞋身，所述的鞋帮帮片放置层内放置鞋头外护片、鞋头上护片、鞋头内护，鞋帮帮片上固定层盖合固定各帮片进行缝制，所述的一种军用鞋帮缝制工具可准确定位各帮片，一次性完成鞋帮各帮片的缝制工艺。本发明针对复杂的鞋帮制做工艺，通过一种军用鞋帮缝制工具一次性完成定位、缝制工艺。本发明结构简单、合理，利于操作。</t>
+          <t>本发明实现了铁皮桶往高处的稳定调运，或卸车时的稳定，有效防范了现有技术对铁皮桶调运的容易脱落问题。套环作为支点使三个锁块的圆弧形凹陷呈三角形分别顶在桶体上外折弯加厚边的外缘下部面上。由吊绳连接油葫芦或其它起吊工具获取铁皮桶桶盖的稳定调运。</t>
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
@@ -6502,12 +5442,11 @@
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>本发明为解决农村有机废料在种植时会产生大量的菜叶、藤蔓、病株、残体等有机废料，提供一种植物残体废料制取的有机肥的方法，其可快速配制、大批量供应，为城市建绿增肥和城市绿地缺少肥土、回填种植土买购历程远，成本大等城市发展现状提供实体材料。为实现上述目的，本发明采用的技术方案为：一种利用植物残体废料制取有机肥的方法，其特征在于：包括以下重量份原料组成，其重量配比为：含水率15%秸秆植物30-50份，粒径为0.3-1.5cm、含水率为15%的构树30-50份，粉碎料2-5cm、含水率5%的蘑菇菌包5-10份，粉碎料2-5cm、高温酵素5-10份，土壤修复菌剂2-5份，具体制备方法的步骤是：A、将按重量配比备好的秸秆植物粒料、构树粉碎料、蘑菇菌包粉碎料均匀搅拌放置处理料场发酵待用；B、然后将已发酵的备用混合物料加入高温酵素，翻抛均匀后，再加入土壤修复菌剂拌匀随即装袋、待运，2-5天内回填应用。本发明技术方案中，所述的植物废料为玉米秸秆、油菜秸秆粉碎料或构树粉碎料。本发明技术方案中，所述的放置处理料场发酵方法包括：场内搅拌，每天搅拌2-3次，夏季3-4日，其他季节7-10日后，使各成分物料翻抛搅拌均匀；放置日保持场地内干</t>
+          <t>技术领域发明内容本发明的目的在于针对现有技术中的上述缺陷，提供一种耐高温柔性扁平线缆及加工工艺，提高扁平线缆耐高温能力的同时提升胶膜粘着力，提高线缆质量。为实现上述发明目的，本发明采用了如下技术方案：一种耐高温柔性扁平线缆的加工工艺，包括以下步骤：S1、导体压延；通过压延机将圆形截面导体压成指定规格的扁平导体；S2、胶膜冲孔；将PI胶膜通过FFC成型机进行冲孔，PI胶膜按要求冲出方形孔槽便于成型后导体裸露；S3、预压合成型；将S2加工后的两片PI胶膜作为柔性扁平线缆的上PI胶膜和下PI胶膜，采用FFC贴合机将所述上PI胶膜、下PI胶膜和位于上、下PI胶膜之间的所述扁平导体作预压合，保持基本外形定位，成为预压合的柔性扁平线缆；S4、定长切割；将预压合的所述柔性扁平线缆按一定长度进行等分切割；S5、冲压定位孔；对切割好的所述柔性扁平线缆冲压定位孔；S6、贴补强板：通过热压机将补强板贴合在冲孔处，同时热压机对预压合的所述柔性扁平线缆进行二次热压贴合；S7、分条切割；对完全贴合的所述柔性扁平线缆进行分条切割。此外，本发明还提出如下附属技术方案：所述FFC贴合机包括热压轮，所述S3中的上PI胶膜和下PI胶膜通过所述热压</t>
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
@@ -6517,12 +5456,11 @@
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>本发明旨在提供一种能够在剥皮后即进行切片的转动式中药材剥皮切片装置，解决了中药剥皮切片通过不同的设备来完成需要进行剥皮的中药进行转运的问题。以上技术问题是通过以下技术方案解决的：一种转动式中药材剥皮切片装置，其特征在于，包括机架，所述机架上设有切片机构和剥皮机构，所述剥皮机构包括导向管、一端穿设在导向管一端内的滑管和密封滑动连接在滑管内的活塞、一端经滑管的另一端伸入滑管内同活塞连接在一起的驱动杆、连接在驱动杆的另一端驱动活塞进行平移的活塞平移机构，所述导向管和活塞平移机构都固定在所述机架上，所述滑管通过若干沿导向管周向分布的连接筋同导向管连接在一起，所述导向管和滑管之间形成沿导向管周向延伸的环形的出皮通道，所述滑管位于导向管内的一端的端部设有沿滑管周向延伸的用于沿滑管的轴向刺入插入滑管内的中药材内的环形的滑管部刃口，所述切片机构包括沿滑管轴向延伸的旋转轴、驱动旋转轴转动的切割电机和若干连接在旋转轴上的沿旋转轴周向分布的用于对从所述导向管远离滑管一端伸出的中药材进行裁切的刀条。通过本发明进行中药材（如山药）去皮切片的方法为：通过人工将条形中药插入导向管且进入滑管内到同位于滑管内的活塞抵接在一起，在滑管部刃口的作</t>
+          <t>"技术领域发明内容本发明针对上述现有技术中的问题，提供一种降低石墨烯晶片形核密度的方法，其目的是通过简单便捷的基底调控方法以降低石墨烯晶片的形核密度。本发明的目的是通过以下技术方案来实现的：该种降低石墨烯晶片形核密度的方法，其特征在于：该方法的步骤如下：步骤一、对铜箔表面进行抛光和氧化预处理：1.1抛光液的配制：选择醋酸体系的电化学抛光溶液；1.2样品前处理：将铜箔置于重量百分比浓度为5％的盐酸水溶液中超声清洗5～10min，然后用去离子水清洗，再置于异丙醇或挥发性有机溶剂中超声清洗5～10min，最后用冷风吹干；1.3电化学抛光和氧化：采用三电极循环伏安法对铜箔表面进行同步抛光和氧化；1.4样品清洗：将经电化学抛光和氧化处理后的铜箔取出立即放于去离子水中清洗，然后放于异丙醇中清洗，干燥；步骤二、在处理后的铜箔表面制备石墨烯晶片：2.1铜箔放置于石英舟上，置于管式炉中心区域，通入流量为200～500sccm的氩气10～20min，之后将体系进行升温；2.2温度升至950～1050℃时，通入流量为10～50sccm的H2，保温0～2h；2.3保温结束后在体系中通入浓度为0.1％～100％的CH4/Ar混合气，流</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -6532,12 +5470,11 @@
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种计算机数据接头，以解决上述背景技术中提出的问题。优选的，两个所述防尘板的另一侧通过对称开设的L型卡口活动卡接，且两个所述L型卡口的内壁均固定连接有密封垫。优选的，两个所述防尘板顶端的两侧对称固定连接有第一固定件，位于同一个所述防尘板顶端的两个第一固定件之间转动连接有导向辊。</t>
+          <t>技术领域发明内容为了克服上述现有技术的缺点，本发明的目的在于提供一种具有滚轮自润滑结构的花键轴挤压组合模具，通过带有润滑油的滚轮预成形花键，利用滚动摩擦代替滑动摩擦，改善模具与花键轴间的摩擦，从而减小成形力，提高了挤压花键轴的成品率。根据本发明的第一方面，提供了一种花键轴挤压组合模具。该花键轴挤压组合模具包括花键挤压模具、预应力固定圈组件、滚轮、用于固定滚轮的滚轮模具组件，所述预应力固定圈组件上设有用于接入润滑剂的第一润滑流道，所述滚轮模具组件上设有与所述预应力固定圈组件上的第一润滑流道相连的第二润滑流道，所述滚轮模具组件上设有用于固定滚轮并且从所述第二润滑流道接收润滑剂的滚轮槽，所述滚轮用于将加工坯件预先成形获得预成形件，所述花键挤压模具用于对所述预成形件进行花键整形。在一个实施例中，所述预应力固定圈组件包括第一预应力固定圈、第二预应力固定圈和第三预应力固定圈，所述滚轮模具组件包括第一滚轮模具和第二滚轮模具，其中：所述第一预应力固定圈连接在所述花键挤压模具外部并且与所述花键挤压模具为过盈配合；所述第一预应力固定圈、所述第二预应力固定圈与所述第三预应力固定圈通过螺栓相连；所述第二预应力固定圈与所述第一滚轮模具</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -6547,12 +5484,11 @@
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr"/>
-      <c r="I285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>发明内容本发明的目的在于提供一种金属回收用处理装置，具备对回收品进行加工，便与存储、运输和方便后期进行处理，提高回收效率的优点，解决现有设备结构简单，使用不便，效率低的问题。优选的，所述第一液压装置的下端固定在上压板的上端面中间处，且上压板位于压缩箱的上端开口处内部，所述上压板和下压板相对应。优选的，所述脚架共设有两个，且两个脚架的上端呈弧形设计，所述脚架的上端卡接固定在运料桶的两端下侧。优选的，所述运料桶背离电机的一端贯穿安装有连通管，且连通管背离运料桶的一侧连接压缩箱的内部。</t>
+          <t>技术领域发明内容本发明的目的在于提供一种散热性强的金属氧化物避雷器，以解决上述背景技术中有的金属氧化物避雷器在使用时存在，避雷器内部的散热性能较差，不能及时将避雷器内部产生的热量进行吸收，避雷器在长期工作时运行的稳定性和可靠性较差和避雷器上端盖内部的密封性能和防潮性能较差，避雷器容易受潮损坏的问题。为实现上述目的，本发明提供如下技术方案：一种散热性强的金属氧化物避雷器，包括外壳，</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -6562,12 +5498,11 @@
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>作为本发明进一步的方案：所述烟雾传感器、温度传感器和亮度传感器的输出端均与控制处理器的输入端电性连接，所述控制处理器的输出端与声光报警器、温度显示器和灯光设备的输入端均电性连接。作为本发明进一步的方案：所述投影设备包括投影机、投影幕布与幕布收卷机，所述控制处理器的输出端连接于幕布收卷机的输入端。作为本发明进一步的方案：所述会议办公室内的窗口内侧固定设置有窗帘设备，所述窗帘设备设备包括遮光窗帘与窗帘收卷机，所述控制处理器的输出端连接于窗帘收卷机的输入端。</t>
+          <t>技术领域本发明涉及一种晶体硅表面类倒金字塔绒面结构的制备方法。背景技术常规&lt;100&gt;晶向的硅片绒面是由碱液腐蚀硅片表面而形成的金字塔绒面，该绒面具有凸金字塔结构。在电池工艺过程中，由于硅片之间的摩擦，绒面凸金字塔很容易受到损伤，从而导致表面p-n结破坏，形成漏电。另外，凸金字塔结构绒面的单晶电池做成组件时，组件功率损失一直比多晶组件高出2%～3%，这与单晶电池表面的凸金字塔结构也有很大关系。而采用类倒金字塔结构绒面取代凸金字塔结构绒面，可以避免上述问题。此外，类倒金塔形状的绒面结构具有更优异的陷光能力，因此已被应用于高效晶硅电池的研究中。目前，硅片表面制备类倒金字塔绒面的湿化学方法主要有光学印刻技术和湿化学刻蚀技术。光学印刻技术需要涂覆掩膜以及移除掩膜结构，步骤繁复且成本高，因此一直无法量产化。而湿化学刻蚀技术需要使用贵金属，成本高昂；而且=类倒金字塔绒面结构的制备方法，先通过预处理在硅片表面形成一层氧化铝颗粒层，再对预处理后的硅片进行碱制绒，得到类倒金字塔绒面结构；所述氧化铝颗粒层主要由分散的氧化铝颗粒组成。优选的，所述氧化铝颗粒的粒径为0.5～50μm。优选的，所述氧化铝颗粒层的厚度为0.5～80μm。优</t>
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
@@ -6577,12 +5512,11 @@
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>解决的技术问题针对现有技术的不足，本发明提供了一种火车上便于调节角度的卫星信号显示屏，解决了上述背景技术中提出的根本不能调节显示屏的角度的问题。技术方案为实现以上目的，本发明通过以下技术方案予以实现：一种火车上便于调节角度的卫星信号显示屏，包括外壳，所述外壳的一侧开设有槽口，所述槽口的内部设置有滑轮，所述滑轮的一侧设置有连接件，所述连接件的一侧固定安装有滑板，所述滑板的上表面固定安装有支撑件，所述支撑件的一端固定安装有支撑梁，所述支撑梁的内部设置有转动杆，所述转动杆的表面固定安装有横板，所述横板的一侧固定安装有夹持件，所述夹持件的一侧设置有显示屏。优选的，所述夹持件的内部设置有导杆，所述夹持件的一端设置有弹簧，所述导杆的一端固定安装有抵触件，所述夹持件的一侧设置有固定螺丝。优选的，所述外壳的一侧设置有转动轴，所述转动轴的表面设置有弧形板，所述弧形板的一侧固定安装有安装板，所述安装板的表面开设有安装孔。</t>
+          <t>本发明有益效果：本发明可用于齿圈以外的薄壁环形零件的加工中。其优点是：结构新颖，制作简单，降低夹具的制作成本，可有效提高产品的加工质量。通过调整压板座、飞轮齿圈定位座及拉杆套的位置可以适应不同尺寸的产品的加工。</t>
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
@@ -6592,12 +5526,11 @@
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>针对现有技术存在的上述缺陷，本发明提出了一种锂电池储能容量优化配置方法。本发明所述的锂电池储能容量优化配置方法，包括如下步骤：不同循环充放电深度对锂电池寿命的衰减系数计算；电池充放电深度定义为电池在一定时间间隔内充放电电量与电池的实际容量的比值，以锂电池为研究对象，在实验条件下对锂电池进行不同充放电循环深度下进行充放电实验，得出了不同充放电循环深度与最大充放电次数的关系，预测得到被测铅酸蓄电池在工况下检视点ts之后的时间段ts～tf的预测荷电容量数据；将引入水至少分离成水性渗透流和浓缩废弃流；和输出水性渗透流和浓缩废弃流；基于预定水特征允许值控制多个处理装置的至少一个的操作，所述预定水特征允许值基于所述渗透水流的不同质量落入预定浓度范围内；基于识别到的特征和所述预定水特征允许值将所述多个处理装置中的至少两个的渗透水流结合；以及输出产物水流和至少一股废弃浓缩物流。优选地，所述锂电池充放电深度增加，充放电转换和锂电池过度放电给锂电池寿命衰减带来的不利影响减小；μ综合反映了充放电转换对锂电池寿命衰减的影响程度。</t>
+          <t>发明内容本发明的目的，就是针对上述问题，提供一种基于神经网络集成的调制识别方法，本质上依然是基于特征提取的模式识别方法，但相比于传统方法需要预先确定设计特征，本发明利用卷积神经网络从信号基带波形中自动地提取综合的抽象化特征，且通过改变数据集重新训练即可适应新的调制方式，应用性显然更强。此外，本发明通过集成策略加强了分类器决策边界的鲁棒性，使得该方法在低信噪比下的表现更为优异。本发明采用的技术方案为：一种基于神经网络集成的调制识别方法，主要用于识别数字调制方式(PSK/QAM)，其特征在于，所述调制识别方法包括以下步骤：S1：准备数据集通过MATLAB生成仿真信号，然后模拟实际的信号发送、传输和接收过程，或是通过信号接收机直接采集实际信号。</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -6607,12 +5540,11 @@
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>针对现有技术的不足，本发明提供了一种下置式多输入回转转盘装置。本发明的装置可以根据不同的需要改变输入模式,可为单输入、双输入、三输入或更多输入。由于采用了动力旋转的换向及回转支承的应用,使得下置式多输入回转转盘装置结构简单,运转平稳,传动扭矩大，使用寿命长，操作灵活。</t>
+          <t>技术领域发明内容针对现有技术存在的不足，本发明目的是提供一种电动升降台，以解决现有的电动升降台在进行工作时，无法根据使用的高度进行调整，且在断电时，升降台会出现下降情况，导致电动升降台的使用效果差的问题。为了实现上述目的，本发明是通过如下的技术方案来实现：一种电动升降台，其结构包括护板、电控箱、推杆、升降台、剪刀架、连接螺杆、调节器、底座、液压缸、滑轮，所述升降台设在剪刀架顶部，所述左右两侧的剪刀架通过连接螺杆连为一体，所述剪刀架内部中间位置上设有液压缸，所述液压缸与剪刀架互相配合上下升降活动，所述液压缸后端设有调节器，所述调节器底部与底座相嵌合连接，所述底座左侧设有护板，所述底座左上端设有电控箱，所述电控箱与剪刀架通过导电元件相连接，所述剪刀架顶部设有升降台，所述升降台、剪刀架、连接螺杆连接在同一模块上；所述调节器由壳体、活动杆、传动齿轮、活动腔、定位块、调节块、马达组成，所述壳体上设有调节块和马达，所述调节块与马达设在同一模块上，所述壳体外圈都设有活动杆，所述调节块与活动腔之间通过传动齿轮相连接，所述活动杆顶部贯穿嵌入活动腔内部，所述活动腔顶部中间设有定位块，通过定位块连接着剪刀架。进一步地，所述护板与底</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -6622,12 +5554,11 @@
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>：本发明的目的是公开一种均压式恒压碳刷支撑装置，该结构可以保证每个碳刷与集电环的接触压力一致、接触电阻相近，从而保证每个电刷的电流相等，温升一致。本发明的技术方案是：由第一波纹管、第二波纹管、第一连通支管、第二连通支管、环管、主管、配重块、密封缸体、气门组成，环管通过主管与密封缸体连通，第一连通支管和第二连通支管一端从环管引出，另一端分别连接第一波纹管和第二波纹管，第一波纹管和第二波纹管与第一碳刷、第二碳刷接触的一端是密封的，第一波纹管和第二波纹管由H级绝缘材料制成，密封缸体上密封面是软质改性聚氯乙烯,配重块放置在密封缸体上表面。技术效果：第一波纹管(1)和第二波纹管(2)的伸缩长度满足碳刷磨损量的使用要求。第一波纹管(1)和第二波纹管(2)由H级绝缘材料制成。密封缸体(8)上密封面是软质改性聚氯乙烯，其水平位置会随着密封缸体(8)的内外压力差上下变化，上下变化量满足波纹管伸缩量的使用要求。根据不同碳刷对支撑压力的具体要求进行配重块(7)的具体尺寸设计。通过气门(9)可以向密封缸体(8)中注入气体，通过密封缸体可上下浮动的上表面使配重块(7)停在适当位置，使密封缸体(8)中有一定的压力。第一波纹管(1)与第二</t>
+          <t>发明内容本发明的目的是为了克服现有技术的不足，而提供一种工艺简单、容易实现的降低PECVD机台TMA耗量的方法，无需改进设备，仅需通过对氧化铝腔体内TMA气体流量、工艺压强、射频功率的综合优化与调整，即可实现PECVD机台TMA耗量的降低，进而达到PERC电池生产成本降低的目的，且制备出硅片的各项电性参数完全符合原定要求。本发明的目的是这样实现的：一种降低PECVD机台TMA耗量的方法，PECVD机台包括氧化铝腔体和氮化硅腔体，氧化铝腔体用于对硅片镀氧化铝膜，氮化硅腔体用于对硅片镀氮化硅膜，氮化硅膜覆盖于氧化铝膜表面，包括以下步骤：（a）硅片经过常规制绒、扩散、刻蚀、退火工艺后，进入PECVD机台的氧化铝腔体和氮化硅腔体，依次镀氧化铝膜和氮化硅膜，其中氮化硅腔体工艺不变；（b）将氧化铝腔体内的工艺带速设为185～200cm/min，腔体温度设为300～350℃，工艺压强设为0.11～0.14mbar；（c）将氧化铝腔体内第一根气路的笑气流量设为600～700sccm，TMA流量设为0mg/min，氩气流量设为0sccm，将氧化铝腔体内第二根气路的笑气流量设为700～1000sccm，TMA流量设为200～30</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -6637,12 +5568,11 @@
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>本发明实施例中提供了一种砷化镓基LED芯片的半切测试方法，以解决传统砷化镓基LED芯片半切测试过程中易导致晶片破裂，造成效率降低、产出减少的问题。为了解决上述技术问题，本发明实施例公开了如下技术方案：本发明第一方面提供了一种砷化镓基LED芯片的半切测试方法，包括以下步骤：S11,将经过研磨、完成背金面制作的晶片放置到贴膜盘；S12，将导线焊接到晶片的背金面上；S13，对焊接导线的晶片进行贴蓝膜作业；S14，对贴蓝膜的晶片进行半切；S15，将所述导线连接至测试设备的负极，对半切后的晶片进行测试；S16，对测试完成的晶片进行全切；S17，将所述蓝膜扩张，得到独立的晶粒。进一步地，步骤S11中，将放置到贴膜盘上晶片的背金面向上。进一步地，步骤S12中所述导线为铜丝，所述铜丝线径为50-80um。</t>
+          <t>进一步，所述铵铁盐为草酸高铁铵或柠檬酸铁。进一步，所述硫源为升华硫、硫代乙酰胺、硫脲或三聚硫氰酸。进一步，所述步骤3)中搅拌时间为10min-1h。</t>
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
@@ -6652,12 +5582,11 @@
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>本发明的目的是为了解决现有技术中存在的缺点，而提出的一种玻璃加工用切割设备。为了实现上述目的，本发明采用了如下技术方案：一种玻璃加工用切割设备，包括支撑柱，所述支撑柱为十字型，所述支撑柱的外壁固定有电机，所述支撑柱的外壁固定有位于电机上方的减速离合器，所述电机输出端固定有主动轮，所述主动轮通过皮带连接有从动轮，所述从动轮连接于减速离合器输入端，所述减速离合器的输出端固定有转轴，所述转轴的另一端贯穿支撑柱外壁并延伸至支撑柱的内部，所述转轴的另一端固定有转盘，所述转盘上安装有转杆；所述转杆上嵌套有滑杆，且滑杆上开有滑槽，转杆嵌套于滑杆的滑槽内，所述滑杆底端转动连接有支撑杆，所述支撑杆另一端固定于支撑柱外壁，所述滑杆的底端固定有齿轮，所述齿轮啮合有齿轮杆，所述齿轮杆的两端均嵌套有固定环，所述固定环连接有第二支撑杆，所述第二支撑杆另一端固定于支撑柱外壁，所述齿轮杆的底端安装有切割装置本体，所述切割装置本体下方放置有与之相对应的底板，所述底板的底端安装有电动伸缩杆。优选的，所述底板顶端安装有第三支撑杆，所述第三支撑杆顶端安装有吸盘。优选的，所述电动伸缩杆有四根，分别位于底板的底端的四周，所述电动伸缩杆底端嵌套有橡胶保护</t>
+          <t>本发明的目的是为了克服上述技术缺点提供一种手术用带固定可调系统的头部支撑架及其使用方法。本发明解决技术问题采用的技术方案为：一种手术用带固定可调系统的头部支撑架，包括固定可调系统和支撑架，所述支撑架由相同的两部分组成，支撑架底部分别连接有相同结构的固定可调系统，所述固定可调系统中设置有可调连杆和固定可旋转底座，所述固定可旋转底座上设置有固定螺纹通孔，所述可调连杆上设置有连接杆、中传杆、可旋转支撑杆；所述支撑架上设置有头部微调卡座系统和可拆颈部靠垫，所述头部微调卡座系统中设置有传动系统、可调旋转杆、可调头部卡槽，所述支撑架侧面设置有高效粘贴扣，所述传动系统中设置有传动齿轮A、传动齿轮B、传动轴，所述传动轴与传动齿轮A配合连接，所述传动齿轮B设置在可调旋转杆底部并与传动齿轮A啮合传动，所述可调旋转杆的顶端与可调头部卡槽相连，所述支撑架底部设置有调节手柄、头部卡槽微调把手、固定连接环、稳定拼接槽，所述固定连接环上设置有连接扣，所述可拆颈部靠垫一侧设置有可拆回粘扣。</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -6667,7 +5596,34 @@
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>发明内容鉴于以上所述现有技术的缺点，本发明的目的在于提供一种管件内壁清洗装置，用于解决现有的管件内壁清洗装置下料效率低、耗费劳动力大的问题。为实现上述目的及其他相关目的，本发明公开了一种管件内壁清洗装置，包括机架，所述机架前后平面的左右两端分别固定连接有液压缸，所述液压缸的活塞杆与夹板的中心点转动连接，所述机架内壁固定连接四个挡板。优选的：还包括限位板、滚珠丝杠模组，两个所述限位板的一端与支撑板固定连接，另一端与机架固定连接；两个所述滚珠丝杠模组的一端与支撑板连接，另一端与机架连接；所述限位板上开设有滑孔，所述滑孔内滑动连接有滑板，所述滑板的前后两端分别与两个滚珠丝杠模组的螺母固定连接，所述的滑板上固定连接有交流电机，所述交流电机的输出轴上固定连接有清洗刷。</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>进一步，棘轮与渐开线凸轮通过齿轮组传动连接，齿轮组的输入齿轮与棘轮同轴固定，齿轮副的输出齿轮与渐开线凸轮同轴固定，输入齿轮与输出齿轮之间的传动比大于1。优选的，缺口轮上设置有腰圆形通孔；握柄弯折部分末端铰接在腰圆形通孔中，能够在腰圆形通孔中滑动。优选的，握柄设置有主弹簧，主弹簧处于自然状态时，握柄抬起至最高点。</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
